--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B515B74-3BB3-46D1-9D89-5AB9D8C5F39F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CEFC2D-C89A-4477-A1F2-7C28539E513D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1259">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -4345,6 +4345,21 @@
   </si>
   <si>
     <t>hallowmas_bgm</t>
+  </si>
+  <si>
+    <t>WaterDrop</t>
+  </si>
+  <si>
+    <t>07KuLou</t>
+  </si>
+  <si>
+    <t>05PingGuo</t>
+  </si>
+  <si>
+    <t>01NanGua</t>
+  </si>
+  <si>
+    <t>03ShouGu</t>
   </si>
 </sst>
 </file>
@@ -5001,7 +5016,56 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5047,30 +5111,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5153,42 +5193,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{350DD965-7145-4FE0-968E-9354B018690E}" name="表1_32" displayName="表1_32" ref="B1:Q83" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B1:Q83" xr:uid="{0B77F3DD-062A-4E4C-A15C-041DCCD5A7ED}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{DD576350-F6C3-4247-BE6B-60A6FD6B462B}" name="Id" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{A9F59448-DBE8-42AA-9B32-1837FDDF48C1}" name="Name" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{1FC0163F-5259-4E05-AFF0-BED91E970F98}" name="Background" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{F249A038-9C9D-4708-A15F-7FA2DCAF9FB8}" name="Model" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{4135BB11-9FA2-4698-9D67-F38E349A8646}" name="NimIcon" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{E90E6A1F-FF1A-4750-AB0D-06B98E08F3C0}" name="QuestId" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{7FA9661F-0DC1-4EE6-B39B-382A0F91C971}" name="dailyGoalPercent" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{48A3FCDD-4B73-443A-B6CA-5ED28CE56573}" name="AwardCoin" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{6ED05642-32A8-4B5F-80D3-DEC381F12E5C}" name="BGM" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{405BD5D5-2223-4CCF-816B-E63A5F7B6DAA}" name="Sound" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B58403D5-0D10-4080-9A09-301BD4343590}" name="Box1 ID" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{2A8B2276-0548-4865-81DE-E51BD0A4BAA3}" name="Box1 Height" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{D72CBF8A-EF7B-4A77-8818-F73B1F9B80F3}" name="Box2 ID" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{2037A18C-DE67-4C7C-99DB-AE145B167B88}" name="Box2 Height" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{AF0C121E-2C50-4B95-A8A6-F27A03F85102}" name="输出" dataDxfId="1">
-      <calculatedColumnFormula>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;L2&amp;""" Height="""&amp;M2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N2&amp;""" Height="""&amp;O2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{350DD965-7145-4FE0-968E-9354B018690E}" name="表1_32" displayName="表1_32" ref="B1:R83" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="B1:R83" xr:uid="{0B77F3DD-062A-4E4C-A15C-041DCCD5A7ED}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{DD576350-F6C3-4247-BE6B-60A6FD6B462B}" name="Id" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{A9F59448-DBE8-42AA-9B32-1837FDDF48C1}" name="Name" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{1FC0163F-5259-4E05-AFF0-BED91E970F98}" name="Background" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{F249A038-9C9D-4708-A15F-7FA2DCAF9FB8}" name="Model" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{4135BB11-9FA2-4698-9D67-F38E349A8646}" name="NimIcon" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{E90E6A1F-FF1A-4750-AB0D-06B98E08F3C0}" name="QuestId" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{7FA9661F-0DC1-4EE6-B39B-382A0F91C971}" name="dailyGoalPercent" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{48A3FCDD-4B73-443A-B6CA-5ED28CE56573}" name="AwardCoin" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{6ED05642-32A8-4B5F-80D3-DEC381F12E5C}" name="BGM" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{405BD5D5-2223-4CCF-816B-E63A5F7B6DAA}" name="Sound" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{2D382B9E-8C46-46CD-873E-F7DAD65B0878}" name="WaterDrop" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{B58403D5-0D10-4080-9A09-301BD4343590}" name="Box1 ID" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{2A8B2276-0548-4865-81DE-E51BD0A4BAA3}" name="Box1 Height" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{D72CBF8A-EF7B-4A77-8818-F73B1F9B80F3}" name="Box2 ID" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{2037A18C-DE67-4C7C-99DB-AE145B167B88}" name="Box2 Height" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{AF0C121E-2C50-4B95-A8A6-F27A03F85102}" name="输出" dataDxfId="10">
+      <calculatedColumnFormula>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;M2&amp;""" Height="""&amp;N2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;O2&amp;""" Height="""&amp;P2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{86C90460-AA5F-4AC5-8845-BD43940BD4BC}" name="输入" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{86C90460-AA5F-4AC5-8845-BD43940BD4BC}" name="输入" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_34" displayName="表1_34" ref="B1:G1048512" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_34" displayName="表1_34" ref="B1:G1048512" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B1:G1048512" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Name" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="ItemId" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Value" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="输出" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Name" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="ItemId" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Value" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="输出" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13563,13 +13604,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A1297D-CA25-454C-8AB1-2D4EE96004F3}">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13584,13 +13625,14 @@
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1"/>
       <c r="B1" s="13" t="s">
         <v>991</v>
@@ -13623,32 +13665,35 @@
         <v>1250</v>
       </c>
       <c r="L1" s="13" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>998</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>999</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>1000</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>1001</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="17"/>
       <c r="B2" s="18">
         <v>-10000</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19" t="str">
-        <f>MID(Q2,FIND("Background=",Q2)+12,FIND(""" Model=",Q2)-FIND("Background=",Q2)-12)</f>
+        <f>MID(R2,FIND("Background=",R2)+12,FIND(""" Model=",R2)-FIND("Background=",R2)-12)</f>
         <v>home_good night</v>
       </c>
       <c r="E2" s="18">
@@ -13659,18 +13704,16 @@
         <v>0</v>
       </c>
       <c r="H2" s="20" t="str">
-        <f>MID(Q2,FIND("dailyGoalPercent=",Q2)+18,FIND(""" AwardCoin=",Q2)-FIND("dailyGoalPercent=",Q2)-18)</f>
+        <f>MID(R2,FIND("dailyGoalPercent=",R2)+18,FIND(""" AwardCoin=",R2)-FIND("dailyGoalPercent=",R2)-18)</f>
         <v>1</v>
       </c>
       <c r="I2" s="20" t="str">
-        <f>MID(Q2,FIND("AwardCoin=",Q2)+11,FIND("""&gt;",Q2)-FIND("AwardCoin=",Q2)-11)</f>
+        <f>MID(R2,FIND("AwardCoin=",R2)+11,FIND("""&gt;",R2)-FIND("AwardCoin=",R2)-11)</f>
         <v>0</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="19">
-        <v>0</v>
-      </c>
+      <c r="L2" s="19"/>
       <c r="M2" s="19">
         <v>0</v>
       </c>
@@ -13680,160 +13723,165 @@
       <c r="O2" s="19">
         <v>0</v>
       </c>
-      <c r="P2" s="19" t="str">
-        <f>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;L2&amp;""" Height="""&amp;M2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N2&amp;""" Height="""&amp;O2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="-10000" Name="" Background="home_good night" Model="0" NimIcon="" QuestId="0" dailyGoalPercent="1" AwardCoin="0" BGM="" Sound=""&gt;
+      <c r="P2" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19" t="str">
+        <f>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;M2&amp;""" Height="""&amp;N2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;O2&amp;""" Height="""&amp;P2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
+        <v>&lt;Mission Id="-10000" Name="" Background="home_good night" Model="0" NimIcon="" QuestId="0" dailyGoalPercent="1" AwardCoin="0" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="0" Height="0" /&gt;
   &lt;TreasureBox BoxId="0" Height="0" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="str">
-        <f>MID(Q3,FIND("Id=",Q3)+4,FIND(""" Name=",Q3)-FIND("Id=",Q3)-4)</f>
+        <f>MID(R3,FIND("Id=",R3)+4,FIND(""" Name=",R3)-FIND("Id=",R3)-4)</f>
         <v>11001</v>
       </c>
       <c r="C3" s="23" t="str">
-        <f>MID(Q3,FIND("Name=",Q3)+6,FIND(""" Background=",Q3)-FIND("Name=",Q3)-6)</f>
+        <f>MID(R3,FIND("Name=",R3)+6,FIND(""" Background=",R3)-FIND("Name=",R3)-6)</f>
         <v>MissionName11001</v>
       </c>
       <c r="D3" s="23" t="str">
-        <f>MID(Q3,FIND("Background=",Q3)+12,FIND(""" Model=",Q3)-FIND("Background=",Q3)-12)</f>
+        <f>MID(R3,FIND("Background=",R3)+12,FIND(""" Model=",R3)-FIND("Background=",R3)-12)</f>
         <v>Home_Backgrond_ocean brim (1)</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f>MID(Q3,FIND("Model=",Q3)+7,FIND(""" NimIcon=",Q3)-FIND("Model=",Q3)-7)</f>
+        <f>MID(R3,FIND("Model=",R3)+7,FIND(""" NimIcon=",R3)-FIND("Model=",R3)-7)</f>
         <v>11001</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>331</v>
       </c>
       <c r="G3" s="23" t="str">
-        <f>MID(Q3,FIND("QuestId=",Q3)+9,FIND(""" dailyGoalPercent=",Q3)-FIND("QuestId=",Q3)-9)</f>
+        <f>MID(R3,FIND("QuestId=",R3)+9,FIND(""" dailyGoalPercent=",R3)-FIND("QuestId=",R3)-9)</f>
         <v>20001</v>
       </c>
       <c r="H3" s="24" t="str">
-        <f>MID(Q3,FIND("dailyGoalPercent=",Q3)+18,FIND(""" AwardCoin=",Q3)-FIND("dailyGoalPercent=",Q3)-18)</f>
+        <f>MID(R3,FIND("dailyGoalPercent=",R3)+18,FIND(""" AwardCoin=",R3)-FIND("dailyGoalPercent=",R3)-18)</f>
         <v>0.33</v>
       </c>
       <c r="I3" s="24" t="str">
-        <f>MID(Q3,FIND("AwardCoin=",Q3)+11,FIND("""&gt;",Q3)-FIND("AwardCoin=",Q3)-11)</f>
+        <f>MID(R3,FIND("AwardCoin=",R3)+11,FIND("""&gt;",R3)-FIND("AwardCoin=",R3)-11)</f>
         <v>32</v>
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="23"/>
-      <c r="L3" s="23">
+      <c r="L3" s="23"/>
+      <c r="M3" s="23">
         <v>10001</v>
       </c>
-      <c r="M3" s="23">
+      <c r="N3" s="23">
         <v>3</v>
       </c>
-      <c r="N3" s="23">
+      <c r="O3" s="23">
         <v>10002</v>
       </c>
-      <c r="O3" s="23">
+      <c r="P3" s="23">
         <v>8</v>
       </c>
-      <c r="P3" s="19" t="str">
-        <f t="shared" ref="P3:P66" si="0">IF(B3&lt;&gt;"","&lt;Mission Id="""&amp;B3&amp;""" Name="""&amp;C3&amp;""" Background="""&amp;D3&amp;""" Model="""&amp;E3&amp;""" NimIcon="""&amp;F3&amp;""" QuestId="""&amp;G3&amp;""" dailyGoalPercent="""&amp;H3&amp;""" AwardCoin="""&amp;I3&amp;""" BGM="""&amp;J3&amp;""" Sound="""&amp;K3&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;L3&amp;""" Height="""&amp;M3&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N3&amp;""" Height="""&amp;O3&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="11001" Name="MissionName11001" Background="Home_Backgrond_ocean brim (1)" Model="11001" NimIcon="atom_icon0022" QuestId="20001" dailyGoalPercent="0.33" AwardCoin="32" BGM="" Sound=""&gt;
+      <c r="Q3" s="19" t="str">
+        <f t="shared" ref="Q3:Q66" si="0">IF(B3&lt;&gt;"","&lt;Mission Id="""&amp;B3&amp;""" Name="""&amp;C3&amp;""" Background="""&amp;D3&amp;""" Model="""&amp;E3&amp;""" NimIcon="""&amp;F3&amp;""" QuestId="""&amp;G3&amp;""" dailyGoalPercent="""&amp;H3&amp;""" AwardCoin="""&amp;I3&amp;""" BGM="""&amp;J3&amp;""" Sound="""&amp;K3&amp;""" WaterDrop="""&amp;L3&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;M3&amp;""" Height="""&amp;N3&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;O3&amp;""" Height="""&amp;P3&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
+        <v>&lt;Mission Id="11001" Name="MissionName11001" Background="Home_Backgrond_ocean brim (1)" Model="11001" NimIcon="atom_icon0022" QuestId="20001" dailyGoalPercent="0.33" AwardCoin="32" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10001" Height="3" /&gt;
   &lt;TreasureBox BoxId="10002" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="str">
-        <f>MID(Q4,FIND("Id=",Q4)+4,FIND(""" Name=",Q4)-FIND("Id=",Q4)-4)</f>
+        <f>MID(R4,FIND("Id=",R4)+4,FIND(""" Name=",R4)-FIND("Id=",R4)-4)</f>
         <v>11002</v>
       </c>
       <c r="C4" s="23" t="str">
-        <f>MID(Q4,FIND("Name=",Q4)+6,FIND(""" Background=",Q4)-FIND("Name=",Q4)-6)</f>
+        <f>MID(R4,FIND("Name=",R4)+6,FIND(""" Background=",R4)-FIND("Name=",R4)-6)</f>
         <v>MissionName11002</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f>MID(Q4,FIND("Background=",Q4)+12,FIND(""" Model=",Q4)-FIND("Background=",Q4)-12)</f>
+        <f>MID(R4,FIND("Background=",R4)+12,FIND(""" Model=",R4)-FIND("Background=",R4)-12)</f>
         <v>Home_Backgrond_ocean brim (2)</v>
       </c>
       <c r="E4" s="22" t="str">
-        <f>MID(Q4,FIND("Model=",Q4)+7,FIND(""" NimIcon=",Q4)-FIND("Model=",Q4)-7)</f>
+        <f>MID(R4,FIND("Model=",R4)+7,FIND(""" NimIcon=",R4)-FIND("Model=",R4)-7)</f>
         <v>11002</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>340</v>
       </c>
       <c r="G4" s="23" t="str">
-        <f>MID(Q4,FIND("QuestId=",Q4)+9,FIND(""" dailyGoalPercent=",Q4)-FIND("QuestId=",Q4)-9)</f>
+        <f>MID(R4,FIND("QuestId=",R4)+9,FIND(""" dailyGoalPercent=",R4)-FIND("QuestId=",R4)-9)</f>
         <v>20002</v>
       </c>
       <c r="H4" s="24" t="str">
-        <f>MID(Q4,FIND("dailyGoalPercent=",Q4)+18,FIND(""" AwardCoin=",Q4)-FIND("dailyGoalPercent=",Q4)-18)</f>
+        <f>MID(R4,FIND("dailyGoalPercent=",R4)+18,FIND(""" AwardCoin=",R4)-FIND("dailyGoalPercent=",R4)-18)</f>
         <v>0.33</v>
       </c>
       <c r="I4" s="24" t="str">
-        <f t="shared" ref="I4:I65" si="1">MID(Q4,FIND("AwardCoin=",Q4)+11,FIND("""&gt;",Q4)-FIND("AwardCoin=",Q4)-11)</f>
+        <f t="shared" ref="I4:I65" si="1">MID(R4,FIND("AwardCoin=",R4)+11,FIND("""&gt;",R4)-FIND("AwardCoin=",R4)-11)</f>
         <v>34</v>
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="23"/>
-      <c r="L4" s="23">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23">
         <v>10003</v>
       </c>
-      <c r="M4" s="23">
+      <c r="N4" s="23">
         <v>3</v>
       </c>
-      <c r="N4" s="23">
+      <c r="O4" s="23">
         <v>10004</v>
       </c>
-      <c r="O4" s="23">
+      <c r="P4" s="23">
         <v>8</v>
       </c>
-      <c r="P4" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11002" Name="MissionName11002" Background="Home_Backgrond_ocean brim (2)" Model="11002" NimIcon="atom_icon0023" QuestId="20002" dailyGoalPercent="0.33" AwardCoin="34" BGM="" Sound=""&gt;
+      <c r="Q4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11002" Name="MissionName11002" Background="Home_Backgrond_ocean brim (2)" Model="11002" NimIcon="atom_icon0023" QuestId="20002" dailyGoalPercent="0.33" AwardCoin="34" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10003" Height="3" /&gt;
   &lt;TreasureBox BoxId="10004" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="str">
-        <f t="shared" ref="B5:B68" si="2">MID(Q5,FIND("Id=",Q5)+4,FIND(""" Name=",Q5)-FIND("Id=",Q5)-4)</f>
+        <f t="shared" ref="B5:B68" si="2">MID(R5,FIND("Id=",R5)+4,FIND(""" Name=",R5)-FIND("Id=",R5)-4)</f>
         <v>11003</v>
       </c>
       <c r="C5" s="23" t="str">
-        <f t="shared" ref="C5:C68" si="3">MID(Q5,FIND("Name=",Q5)+6,FIND(""" Background=",Q5)-FIND("Name=",Q5)-6)</f>
+        <f t="shared" ref="C5:C68" si="3">MID(R5,FIND("Name=",R5)+6,FIND(""" Background=",R5)-FIND("Name=",R5)-6)</f>
         <v>MissionName11003</v>
       </c>
       <c r="D5" s="23" t="str">
-        <f t="shared" ref="D5:D68" si="4">MID(Q5,FIND("Background=",Q5)+12,FIND(""" Model=",Q5)-FIND("Background=",Q5)-12)</f>
+        <f t="shared" ref="D5:D68" si="4">MID(R5,FIND("Background=",R5)+12,FIND(""" Model=",R5)-FIND("Background=",R5)-12)</f>
         <v>Home_Backgrond_ocean brim (3)</v>
       </c>
       <c r="E5" s="22" t="str">
-        <f t="shared" ref="E5:E68" si="5">MID(Q5,FIND("Model=",Q5)+7,FIND(""" NimIcon=",Q5)-FIND("Model=",Q5)-7)</f>
+        <f t="shared" ref="E5:E68" si="5">MID(R5,FIND("Model=",R5)+7,FIND(""" NimIcon=",R5)-FIND("Model=",R5)-7)</f>
         <v>11003</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>342</v>
       </c>
       <c r="G5" s="23" t="str">
-        <f t="shared" ref="G5:G68" si="6">MID(Q5,FIND("QuestId=",Q5)+9,FIND(""" dailyGoalPercent=",Q5)-FIND("QuestId=",Q5)-9)</f>
+        <f t="shared" ref="G5:G68" si="6">MID(R5,FIND("QuestId=",R5)+9,FIND(""" dailyGoalPercent=",R5)-FIND("QuestId=",R5)-9)</f>
         <v>20003</v>
       </c>
       <c r="H5" s="24" t="str">
-        <f t="shared" ref="H5:H52" si="7">MID(Q5,FIND("dailyGoalPercent=",Q5)+18,FIND(""" AwardCoin=",Q5)-FIND("dailyGoalPercent=",Q5)-18)</f>
+        <f t="shared" ref="H5:H52" si="7">MID(R5,FIND("dailyGoalPercent=",R5)+18,FIND(""" AwardCoin=",R5)-FIND("dailyGoalPercent=",R5)-18)</f>
         <v>0.34</v>
       </c>
       <c r="I5" s="24" t="str">
@@ -13842,30 +13890,31 @@
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="23">
+      <c r="L5" s="23"/>
+      <c r="M5" s="23">
         <v>10005</v>
       </c>
-      <c r="M5" s="23">
+      <c r="N5" s="23">
         <v>3</v>
       </c>
-      <c r="N5" s="23">
+      <c r="O5" s="23">
         <v>10006</v>
       </c>
-      <c r="O5" s="23">
+      <c r="P5" s="23">
         <v>8</v>
       </c>
-      <c r="P5" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11003" Name="MissionName11003" Background="Home_Backgrond_ocean brim (3)" Model="11003" NimIcon="atom_icon0024" QuestId="20003" dailyGoalPercent="0.34" AwardCoin="36" BGM="" Sound=""&gt;
+      <c r="Q5" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11003" Name="MissionName11003" Background="Home_Backgrond_ocean brim (3)" Model="11003" NimIcon="atom_icon0024" QuestId="20003" dailyGoalPercent="0.34" AwardCoin="36" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10005" Height="3" /&gt;
   &lt;TreasureBox BoxId="10006" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="str">
         <f t="shared" si="2"/>
@@ -13900,30 +13949,31 @@
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="23">
+      <c r="L6" s="23"/>
+      <c r="M6" s="23">
         <v>10007</v>
       </c>
-      <c r="M6" s="23">
+      <c r="N6" s="23">
         <v>3</v>
       </c>
-      <c r="N6" s="23">
+      <c r="O6" s="23">
         <v>10008</v>
       </c>
-      <c r="O6" s="23">
+      <c r="P6" s="23">
         <v>8</v>
       </c>
-      <c r="P6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11004" Name="MissionName11004" Background="Home_Backgrond_ocean brim (4)" Model="11004" NimIcon="atom_icon0025" QuestId="20004" dailyGoalPercent="0.33" AwardCoin="38" BGM="" Sound=""&gt;
+      <c r="Q6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11004" Name="MissionName11004" Background="Home_Backgrond_ocean brim (4)" Model="11004" NimIcon="atom_icon0025" QuestId="20004" dailyGoalPercent="0.33" AwardCoin="38" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10007" Height="3" /&gt;
   &lt;TreasureBox BoxId="10008" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="str">
         <f t="shared" si="2"/>
@@ -13958,30 +14008,31 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="23">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23">
         <v>10009</v>
       </c>
-      <c r="M7" s="23">
+      <c r="N7" s="23">
         <v>3</v>
       </c>
-      <c r="N7" s="23">
+      <c r="O7" s="23">
         <v>10010</v>
       </c>
-      <c r="O7" s="23">
+      <c r="P7" s="23">
         <v>8</v>
       </c>
-      <c r="P7" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11005" Name="MissionName11005" Background="Home_Backgrond_ocean brim (5)" Model="11005" NimIcon="atom_icon0026" QuestId="20005" dailyGoalPercent="0.33" AwardCoin="40" BGM="" Sound=""&gt;
+      <c r="Q7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11005" Name="MissionName11005" Background="Home_Backgrond_ocean brim (5)" Model="11005" NimIcon="atom_icon0026" QuestId="20005" dailyGoalPercent="0.33" AwardCoin="40" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10009" Height="3" /&gt;
   &lt;TreasureBox BoxId="10010" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="R7" s="11" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14016,30 +14067,31 @@
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="23">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23">
         <v>10011</v>
       </c>
-      <c r="M8" s="23">
+      <c r="N8" s="23">
         <v>3</v>
       </c>
-      <c r="N8" s="23">
+      <c r="O8" s="23">
         <v>10012</v>
       </c>
-      <c r="O8" s="23">
+      <c r="P8" s="23">
         <v>8</v>
       </c>
-      <c r="P8" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11006" Name="MissionName11006" Background="Home_Backgrond_ocean brim (6)" Model="11006" NimIcon="atom_icon0027" QuestId="20006" dailyGoalPercent="0.34" AwardCoin="42" BGM="" Sound=""&gt;
+      <c r="Q8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11006" Name="MissionName11006" Background="Home_Backgrond_ocean brim (6)" Model="11006" NimIcon="atom_icon0027" QuestId="20006" dailyGoalPercent="0.34" AwardCoin="42" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10011" Height="3" /&gt;
   &lt;TreasureBox BoxId="10012" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14074,30 +14126,31 @@
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="23">
+      <c r="L9" s="23"/>
+      <c r="M9" s="23">
         <v>10013</v>
       </c>
-      <c r="M9" s="23">
+      <c r="N9" s="23">
         <v>3</v>
       </c>
-      <c r="N9" s="23">
+      <c r="O9" s="23">
         <v>10014</v>
       </c>
-      <c r="O9" s="23">
+      <c r="P9" s="23">
         <v>8</v>
       </c>
-      <c r="P9" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11007" Name="MissionName11007" Background="Home_Backgrond_ocean brim (7)" Model="11007" NimIcon="atom_icon0028" QuestId="20007" dailyGoalPercent="0.33" AwardCoin="44" BGM="" Sound=""&gt;
+      <c r="Q9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11007" Name="MissionName11007" Background="Home_Backgrond_ocean brim (7)" Model="11007" NimIcon="atom_icon0028" QuestId="20007" dailyGoalPercent="0.33" AwardCoin="44" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10013" Height="3" /&gt;
   &lt;TreasureBox BoxId="10014" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="21"/>
       <c r="B10" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14132,30 +14185,31 @@
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="23">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23">
         <v>10015</v>
       </c>
-      <c r="M10" s="23">
+      <c r="N10" s="23">
         <v>3</v>
       </c>
-      <c r="N10" s="23">
+      <c r="O10" s="23">
         <v>10016</v>
       </c>
-      <c r="O10" s="23">
+      <c r="P10" s="23">
         <v>8</v>
       </c>
-      <c r="P10" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11008" Name="MissionName11008" Background="Home_Backgrond_ocean brim (8)" Model="11008" NimIcon="atom_icon0029" QuestId="20008" dailyGoalPercent="0.33" AwardCoin="46" BGM="" Sound=""&gt;
+      <c r="Q10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11008" Name="MissionName11008" Background="Home_Backgrond_ocean brim (8)" Model="11008" NimIcon="atom_icon0029" QuestId="20008" dailyGoalPercent="0.33" AwardCoin="46" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10015" Height="3" /&gt;
   &lt;TreasureBox BoxId="10016" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="R10" s="11" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14190,30 +14244,31 @@
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="23">
+      <c r="L11" s="23"/>
+      <c r="M11" s="23">
         <v>10017</v>
       </c>
-      <c r="M11" s="23">
+      <c r="N11" s="23">
         <v>3</v>
       </c>
-      <c r="N11" s="23">
+      <c r="O11" s="23">
         <v>10018</v>
       </c>
-      <c r="O11" s="23">
+      <c r="P11" s="23">
         <v>8</v>
       </c>
-      <c r="P11" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11009" Name="MissionName11009" Background="Home_Backgrond_ocean brim (9)" Model="11009" NimIcon="atom_icon0030" QuestId="20009" dailyGoalPercent="0.34" AwardCoin="48" BGM="" Sound=""&gt;
+      <c r="Q11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11009" Name="MissionName11009" Background="Home_Backgrond_ocean brim (9)" Model="11009" NimIcon="atom_icon0030" QuestId="20009" dailyGoalPercent="0.34" AwardCoin="48" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10017" Height="3" /&gt;
   &lt;TreasureBox BoxId="10018" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="R11" s="11" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="21"/>
       <c r="B12" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14248,30 +14303,31 @@
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="23">
+      <c r="L12" s="23"/>
+      <c r="M12" s="23">
         <v>10019</v>
       </c>
-      <c r="M12" s="23">
+      <c r="N12" s="23">
         <v>3</v>
       </c>
-      <c r="N12" s="23">
+      <c r="O12" s="23">
         <v>10020</v>
       </c>
-      <c r="O12" s="23">
+      <c r="P12" s="23">
         <v>8</v>
       </c>
-      <c r="P12" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11010" Name="MissionName11010" Background="Home_Backgrond_ocean brim (10)" Model="11010" NimIcon="atom_icon0031" QuestId="20010" dailyGoalPercent="0.35" AwardCoin="50" BGM="" Sound=""&gt;
+      <c r="Q12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11010" Name="MissionName11010" Background="Home_Backgrond_ocean brim (10)" Model="11010" NimIcon="atom_icon0031" QuestId="20010" dailyGoalPercent="0.35" AwardCoin="50" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10019" Height="3" /&gt;
   &lt;TreasureBox BoxId="10020" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="R12" s="11" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="21"/>
       <c r="B13" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14306,30 +14362,31 @@
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="23">
+      <c r="L13" s="23"/>
+      <c r="M13" s="23">
         <v>10021</v>
       </c>
-      <c r="M13" s="23">
+      <c r="N13" s="23">
         <v>3</v>
       </c>
-      <c r="N13" s="23">
+      <c r="O13" s="23">
         <v>10022</v>
       </c>
-      <c r="O13" s="23">
+      <c r="P13" s="23">
         <v>8</v>
       </c>
-      <c r="P13" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11011" Name="MissionName11011" Background="Home_Backgrond_ocean brim (11)" Model="11011" NimIcon="atom_icon0032" QuestId="20011" dailyGoalPercent="0.38" AwardCoin="52" BGM="" Sound=""&gt;
+      <c r="Q13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11011" Name="MissionName11011" Background="Home_Backgrond_ocean brim (11)" Model="11011" NimIcon="atom_icon0032" QuestId="20011" dailyGoalPercent="0.38" AwardCoin="52" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10021" Height="3" /&gt;
   &lt;TreasureBox BoxId="10022" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="R13" s="11" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="21"/>
       <c r="B14" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14364,30 +14421,31 @@
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="23">
+      <c r="L14" s="23"/>
+      <c r="M14" s="23">
         <v>10023</v>
       </c>
-      <c r="M14" s="23">
+      <c r="N14" s="23">
         <v>3</v>
       </c>
-      <c r="N14" s="23">
+      <c r="O14" s="23">
         <v>10024</v>
       </c>
-      <c r="O14" s="23">
+      <c r="P14" s="23">
         <v>8</v>
       </c>
-      <c r="P14" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11012" Name="MissionName11012" Background="Home_Backgrond_ocean brim (12)" Model="11012" NimIcon="atom_icon0033" QuestId="20012" dailyGoalPercent="0.42" AwardCoin="54" BGM="" Sound=""&gt;
+      <c r="Q14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11012" Name="MissionName11012" Background="Home_Backgrond_ocean brim (12)" Model="11012" NimIcon="atom_icon0033" QuestId="20012" dailyGoalPercent="0.42" AwardCoin="54" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10023" Height="3" /&gt;
   &lt;TreasureBox BoxId="10024" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="R14" s="11" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14422,30 +14480,31 @@
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="23">
+      <c r="L15" s="23"/>
+      <c r="M15" s="23">
         <v>10025</v>
       </c>
-      <c r="M15" s="23">
+      <c r="N15" s="23">
         <v>3</v>
       </c>
-      <c r="N15" s="23">
+      <c r="O15" s="23">
         <v>10026</v>
       </c>
-      <c r="O15" s="23">
+      <c r="P15" s="23">
         <v>8</v>
       </c>
-      <c r="P15" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11013" Name="MissionName11013" Background="Home_Backgrond_ocean brim (13)" Model="11013" NimIcon="atom_icon0034" QuestId="20013" dailyGoalPercent="0.44" AwardCoin="56" BGM="" Sound=""&gt;
+      <c r="Q15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11013" Name="MissionName11013" Background="Home_Backgrond_ocean brim (13)" Model="11013" NimIcon="atom_icon0034" QuestId="20013" dailyGoalPercent="0.44" AwardCoin="56" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10025" Height="3" /&gt;
   &lt;TreasureBox BoxId="10026" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="R15" s="11" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14480,30 +14539,31 @@
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="23">
+      <c r="L16" s="23"/>
+      <c r="M16" s="23">
         <v>10027</v>
       </c>
-      <c r="M16" s="23">
+      <c r="N16" s="23">
         <v>3</v>
       </c>
-      <c r="N16" s="23">
+      <c r="O16" s="23">
         <v>10028</v>
       </c>
-      <c r="O16" s="23">
+      <c r="P16" s="23">
         <v>8</v>
       </c>
-      <c r="P16" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11014" Name="MissionName11014" Background="Home_Backgrond_ocean brim (14)" Model="11014" NimIcon="atom_icon0035" QuestId="20014" dailyGoalPercent="0.46" AwardCoin="58" BGM="" Sound=""&gt;
+      <c r="Q16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11014" Name="MissionName11014" Background="Home_Backgrond_ocean brim (14)" Model="11014" NimIcon="atom_icon0035" QuestId="20014" dailyGoalPercent="0.46" AwardCoin="58" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10027" Height="3" /&gt;
   &lt;TreasureBox BoxId="10028" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="R16" s="11" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14538,30 +14598,31 @@
       </c>
       <c r="J17" s="24"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="23">
+      <c r="L17" s="23"/>
+      <c r="M17" s="23">
         <v>10029</v>
       </c>
-      <c r="M17" s="23">
+      <c r="N17" s="23">
         <v>3</v>
       </c>
-      <c r="N17" s="23">
+      <c r="O17" s="23">
         <v>10030</v>
       </c>
-      <c r="O17" s="23">
+      <c r="P17" s="23">
         <v>8</v>
       </c>
-      <c r="P17" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11015" Name="MissionName11015" Background="Home_Backgrond_ocean brim (15)" Model="11015" NimIcon="atom_icon0036" QuestId="20015" dailyGoalPercent="0.48" AwardCoin="60" BGM="" Sound=""&gt;
+      <c r="Q17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11015" Name="MissionName11015" Background="Home_Backgrond_ocean brim (15)" Model="11015" NimIcon="atom_icon0036" QuestId="20015" dailyGoalPercent="0.48" AwardCoin="60" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10029" Height="3" /&gt;
   &lt;TreasureBox BoxId="10030" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="R17" s="11" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14596,30 +14657,31 @@
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="23">
+      <c r="L18" s="23"/>
+      <c r="M18" s="23">
         <v>10031</v>
       </c>
-      <c r="M18" s="23">
+      <c r="N18" s="23">
         <v>3</v>
       </c>
-      <c r="N18" s="23">
+      <c r="O18" s="23">
         <v>10032</v>
       </c>
-      <c r="O18" s="23">
+      <c r="P18" s="23">
         <v>8</v>
       </c>
-      <c r="P18" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11016" Name="MissionName11016" Background="Home_Backgrond_ocean brim (16)" Model="11016" NimIcon="atom_icon0037" QuestId="20016" dailyGoalPercent="0.5" AwardCoin="62" BGM="" Sound=""&gt;
+      <c r="Q18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11016" Name="MissionName11016" Background="Home_Backgrond_ocean brim (16)" Model="11016" NimIcon="atom_icon0037" QuestId="20016" dailyGoalPercent="0.5" AwardCoin="62" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10031" Height="3" /&gt;
   &lt;TreasureBox BoxId="10032" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="R18" s="11" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14654,30 +14716,31 @@
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="23">
+      <c r="L19" s="23"/>
+      <c r="M19" s="23">
         <v>10033</v>
       </c>
-      <c r="M19" s="23">
+      <c r="N19" s="23">
         <v>3</v>
       </c>
-      <c r="N19" s="23">
+      <c r="O19" s="23">
         <v>10034</v>
       </c>
-      <c r="O19" s="23">
+      <c r="P19" s="23">
         <v>8</v>
       </c>
-      <c r="P19" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11017" Name="MissionName11017" Background="Home_Backgrond_ocean brim (17)" Model="11017" NimIcon="atom_icon0038" QuestId="20017" dailyGoalPercent="0.5" AwardCoin="64" BGM="" Sound=""&gt;
+      <c r="Q19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11017" Name="MissionName11017" Background="Home_Backgrond_ocean brim (17)" Model="11017" NimIcon="atom_icon0038" QuestId="20017" dailyGoalPercent="0.5" AwardCoin="64" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10033" Height="3" /&gt;
   &lt;TreasureBox BoxId="10034" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="R19" s="11" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" s="21"/>
       <c r="B20" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14712,30 +14775,31 @@
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="23">
+      <c r="L20" s="23"/>
+      <c r="M20" s="23">
         <v>10035</v>
       </c>
-      <c r="M20" s="23">
+      <c r="N20" s="23">
         <v>3</v>
       </c>
-      <c r="N20" s="23">
+      <c r="O20" s="23">
         <v>10036</v>
       </c>
-      <c r="O20" s="23">
+      <c r="P20" s="23">
         <v>8</v>
       </c>
-      <c r="P20" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11018" Name="MissionName11018" Background="Home_Backgrond_ocean brim (18)" Model="11018" NimIcon="atom_icon0039" QuestId="20018" dailyGoalPercent="0.5" AwardCoin="66" BGM="" Sound=""&gt;
+      <c r="Q20" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11018" Name="MissionName11018" Background="Home_Backgrond_ocean brim (18)" Model="11018" NimIcon="atom_icon0039" QuestId="20018" dailyGoalPercent="0.5" AwardCoin="66" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10035" Height="3" /&gt;
   &lt;TreasureBox BoxId="10036" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="R20" s="11" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" s="21"/>
       <c r="B21" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14770,30 +14834,31 @@
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="23">
+      <c r="L21" s="23"/>
+      <c r="M21" s="23">
         <v>10037</v>
       </c>
-      <c r="M21" s="23">
+      <c r="N21" s="23">
         <v>3</v>
       </c>
-      <c r="N21" s="23">
+      <c r="O21" s="23">
         <v>10038</v>
       </c>
-      <c r="O21" s="23">
+      <c r="P21" s="23">
         <v>8</v>
       </c>
-      <c r="P21" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11019" Name="MissionName11019" Background="Home_Backgrond_ocean brim (19)" Model="11019" NimIcon="atom_icon0040" QuestId="20019" dailyGoalPercent="0.5" AwardCoin="68" BGM="" Sound=""&gt;
+      <c r="Q21" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11019" Name="MissionName11019" Background="Home_Backgrond_ocean brim (19)" Model="11019" NimIcon="atom_icon0040" QuestId="20019" dailyGoalPercent="0.5" AwardCoin="68" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10037" Height="3" /&gt;
   &lt;TreasureBox BoxId="10038" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="R21" s="11" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" s="21"/>
       <c r="B22" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14828,30 +14893,31 @@
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="23">
+      <c r="L22" s="23"/>
+      <c r="M22" s="23">
         <v>10039</v>
       </c>
-      <c r="M22" s="23">
+      <c r="N22" s="23">
         <v>3</v>
       </c>
-      <c r="N22" s="23">
+      <c r="O22" s="23">
         <v>10040</v>
       </c>
-      <c r="O22" s="23">
+      <c r="P22" s="23">
         <v>8</v>
       </c>
-      <c r="P22" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11020" Name="MissionName11020" Background="Home_Backgrond_ocean brim (20)" Model="11020" NimIcon="atom_icon0041" QuestId="20020" dailyGoalPercent="0.5" AwardCoin="70" BGM="" Sound=""&gt;
+      <c r="Q22" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11020" Name="MissionName11020" Background="Home_Backgrond_ocean brim (20)" Model="11020" NimIcon="atom_icon0041" QuestId="20020" dailyGoalPercent="0.5" AwardCoin="70" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10039" Height="3" /&gt;
   &lt;TreasureBox BoxId="10040" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="R22" s="11" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14885,30 +14951,31 @@
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="23">
+      <c r="L23" s="23"/>
+      <c r="M23" s="23">
         <v>10041</v>
       </c>
-      <c r="M23" s="23">
+      <c r="N23" s="23">
         <v>3</v>
       </c>
-      <c r="N23" s="23">
+      <c r="O23" s="23">
         <v>10042</v>
       </c>
-      <c r="O23" s="23">
+      <c r="P23" s="23">
         <v>8</v>
       </c>
-      <c r="P23" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11021" Name="MissionName11021" Background="Home_Backgrond_ocean brim (21)" Model="11021" NimIcon="atom_icon0042" QuestId="20021" dailyGoalPercent="0.52" AwardCoin="72" BGM="" Sound=""&gt;
+      <c r="Q23" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11021" Name="MissionName11021" Background="Home_Backgrond_ocean brim (21)" Model="11021" NimIcon="atom_icon0042" QuestId="20021" dailyGoalPercent="0.52" AwardCoin="72" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10041" Height="3" /&gt;
   &lt;TreasureBox BoxId="10042" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="R23" s="11" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24" s="25"/>
       <c r="B24" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14942,30 +15009,31 @@
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="23">
+      <c r="L24" s="23"/>
+      <c r="M24" s="23">
         <v>10043</v>
       </c>
-      <c r="M24" s="23">
+      <c r="N24" s="23">
         <v>3</v>
       </c>
-      <c r="N24" s="23">
+      <c r="O24" s="23">
         <v>10044</v>
       </c>
-      <c r="O24" s="23">
+      <c r="P24" s="23">
         <v>8</v>
       </c>
-      <c r="P24" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12001" Name="MissionName12001" Background="Home_Backgrond_wonder woods (1)" Model="12001" NimIcon="atom_icon0064" QuestId="20022" dailyGoalPercent="0.52" AwardCoin="74" BGM="" Sound=""&gt;
+      <c r="Q24" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12001" Name="MissionName12001" Background="Home_Backgrond_wonder woods (1)" Model="12001" NimIcon="atom_icon0064" QuestId="20022" dailyGoalPercent="0.52" AwardCoin="74" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10043" Height="3" /&gt;
   &lt;TreasureBox BoxId="10044" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="R24" s="11" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" s="25"/>
       <c r="B25" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14999,30 +15067,31 @@
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="23">
+      <c r="L25" s="23"/>
+      <c r="M25" s="23">
         <v>10045</v>
       </c>
-      <c r="M25" s="23">
+      <c r="N25" s="23">
         <v>3</v>
       </c>
-      <c r="N25" s="23">
+      <c r="O25" s="23">
         <v>10046</v>
       </c>
-      <c r="O25" s="23">
+      <c r="P25" s="23">
         <v>8</v>
       </c>
-      <c r="P25" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12002" Name="MissionName12002" Background="Home_Backgrond_wonder woods (2)" Model="12002" NimIcon="atom_icon0065" QuestId="20023" dailyGoalPercent="0.55" AwardCoin="76" BGM="" Sound=""&gt;
+      <c r="Q25" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12002" Name="MissionName12002" Background="Home_Backgrond_wonder woods (2)" Model="12002" NimIcon="atom_icon0065" QuestId="20023" dailyGoalPercent="0.55" AwardCoin="76" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10045" Height="3" /&gt;
   &lt;TreasureBox BoxId="10046" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="R25" s="11" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" s="25"/>
       <c r="B26" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15056,30 +15125,31 @@
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="23"/>
-      <c r="L26" s="23">
+      <c r="L26" s="23"/>
+      <c r="M26" s="23">
         <v>10047</v>
       </c>
-      <c r="M26" s="23">
+      <c r="N26" s="23">
         <v>3</v>
       </c>
-      <c r="N26" s="23">
+      <c r="O26" s="23">
         <v>10048</v>
       </c>
-      <c r="O26" s="23">
+      <c r="P26" s="23">
         <v>8</v>
       </c>
-      <c r="P26" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12003" Name="MissionName12003" Background="Home_Backgrond_wonder woods (3)" Model="12003" NimIcon="atom_icon0066" QuestId="20024" dailyGoalPercent="0.55" AwardCoin="78" BGM="" Sound=""&gt;
+      <c r="Q26" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12003" Name="MissionName12003" Background="Home_Backgrond_wonder woods (3)" Model="12003" NimIcon="atom_icon0066" QuestId="20024" dailyGoalPercent="0.55" AwardCoin="78" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10047" Height="3" /&gt;
   &lt;TreasureBox BoxId="10048" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="R26" s="11" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27" s="25"/>
       <c r="B27" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15113,30 +15183,31 @@
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="23">
+      <c r="L27" s="23"/>
+      <c r="M27" s="23">
         <v>10049</v>
       </c>
-      <c r="M27" s="23">
+      <c r="N27" s="23">
         <v>3</v>
       </c>
-      <c r="N27" s="23">
+      <c r="O27" s="23">
         <v>10050</v>
       </c>
-      <c r="O27" s="23">
+      <c r="P27" s="23">
         <v>8</v>
       </c>
-      <c r="P27" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12004" Name="MissionName12004" Background="Home_Backgrond_wonder woods (4)" Model="12004" NimIcon="atom_icon0067" QuestId="20025" dailyGoalPercent="0.58" AwardCoin="80" BGM="" Sound=""&gt;
+      <c r="Q27" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12004" Name="MissionName12004" Background="Home_Backgrond_wonder woods (4)" Model="12004" NimIcon="atom_icon0067" QuestId="20025" dailyGoalPercent="0.58" AwardCoin="80" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10049" Height="3" /&gt;
   &lt;TreasureBox BoxId="10050" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="R27" s="11" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18">
       <c r="A28" s="25"/>
       <c r="B28" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15170,30 +15241,31 @@
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="23"/>
-      <c r="L28" s="23">
+      <c r="L28" s="23"/>
+      <c r="M28" s="23">
         <v>10051</v>
       </c>
-      <c r="M28" s="23">
+      <c r="N28" s="23">
         <v>3</v>
       </c>
-      <c r="N28" s="23">
+      <c r="O28" s="23">
         <v>10052</v>
       </c>
-      <c r="O28" s="23">
+      <c r="P28" s="23">
         <v>8</v>
       </c>
-      <c r="P28" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12005" Name="MissionName12005" Background="Home_Backgrond_wonder woods (5)" Model="12005" NimIcon="atom_icon0068" QuestId="20026" dailyGoalPercent="0.58" AwardCoin="82" BGM="" Sound=""&gt;
+      <c r="Q28" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12005" Name="MissionName12005" Background="Home_Backgrond_wonder woods (5)" Model="12005" NimIcon="atom_icon0068" QuestId="20026" dailyGoalPercent="0.58" AwardCoin="82" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10051" Height="3" /&gt;
   &lt;TreasureBox BoxId="10052" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="R28" s="11" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" s="25"/>
       <c r="B29" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15227,30 +15299,31 @@
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="23"/>
-      <c r="L29" s="23">
+      <c r="L29" s="23"/>
+      <c r="M29" s="23">
         <v>10053</v>
       </c>
-      <c r="M29" s="23">
+      <c r="N29" s="23">
         <v>3</v>
       </c>
-      <c r="N29" s="23">
+      <c r="O29" s="23">
         <v>10054</v>
       </c>
-      <c r="O29" s="23">
+      <c r="P29" s="23">
         <v>8</v>
       </c>
-      <c r="P29" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12006" Name="MissionName12006" Background="Home_Backgrond_wonder woods (6)" Model="12006" NimIcon="atom_icon0069" QuestId="20027" dailyGoalPercent="0.62" AwardCoin="84" BGM="" Sound=""&gt;
+      <c r="Q29" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12006" Name="MissionName12006" Background="Home_Backgrond_wonder woods (6)" Model="12006" NimIcon="atom_icon0069" QuestId="20027" dailyGoalPercent="0.62" AwardCoin="84" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10053" Height="3" /&gt;
   &lt;TreasureBox BoxId="10054" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="R29" s="11" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30" s="25"/>
       <c r="B30" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15284,30 +15357,31 @@
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="23"/>
-      <c r="L30" s="23">
+      <c r="L30" s="23"/>
+      <c r="M30" s="23">
         <v>10055</v>
       </c>
-      <c r="M30" s="23">
+      <c r="N30" s="23">
         <v>3</v>
       </c>
-      <c r="N30" s="23">
+      <c r="O30" s="23">
         <v>10056</v>
       </c>
-      <c r="O30" s="23">
+      <c r="P30" s="23">
         <v>8</v>
       </c>
-      <c r="P30" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12007" Name="MissionName12007" Background="Home_Backgrond_wonder woods (7)" Model="12007" NimIcon="atom_icon0070" QuestId="20028" dailyGoalPercent="0.62" AwardCoin="86" BGM="" Sound=""&gt;
+      <c r="Q30" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12007" Name="MissionName12007" Background="Home_Backgrond_wonder woods (7)" Model="12007" NimIcon="atom_icon0070" QuestId="20028" dailyGoalPercent="0.62" AwardCoin="86" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10055" Height="3" /&gt;
   &lt;TreasureBox BoxId="10056" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q30" s="11" t="s">
+      <c r="R30" s="11" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" s="25"/>
       <c r="B31" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15342,30 +15416,31 @@
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="23"/>
-      <c r="L31" s="23">
+      <c r="L31" s="23"/>
+      <c r="M31" s="23">
         <v>10057</v>
       </c>
-      <c r="M31" s="23">
+      <c r="N31" s="23">
         <v>3</v>
       </c>
-      <c r="N31" s="23">
+      <c r="O31" s="23">
         <v>10058</v>
       </c>
-      <c r="O31" s="23">
+      <c r="P31" s="23">
         <v>8</v>
       </c>
-      <c r="P31" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12008" Name="MissionName12008" Background="Home_Backgrond_wonder woods (8)" Model="12008" NimIcon="atom_icon0071" QuestId="20029" dailyGoalPercent="0.65" AwardCoin="88" BGM="" Sound=""&gt;
+      <c r="Q31" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12008" Name="MissionName12008" Background="Home_Backgrond_wonder woods (8)" Model="12008" NimIcon="atom_icon0071" QuestId="20029" dailyGoalPercent="0.65" AwardCoin="88" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10057" Height="3" /&gt;
   &lt;TreasureBox BoxId="10058" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="R31" s="11" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32" s="25"/>
       <c r="B32" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15399,30 +15474,31 @@
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="23"/>
-      <c r="L32" s="23">
+      <c r="L32" s="23"/>
+      <c r="M32" s="23">
         <v>10059</v>
       </c>
-      <c r="M32" s="23">
+      <c r="N32" s="23">
         <v>3</v>
       </c>
-      <c r="N32" s="23">
+      <c r="O32" s="23">
         <v>10060</v>
       </c>
-      <c r="O32" s="23">
+      <c r="P32" s="23">
         <v>8</v>
       </c>
-      <c r="P32" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12009" Name="MissionName12009" Background="Home_Backgrond_wonder woods (9)" Model="12009" NimIcon="atom_icon0072" QuestId="20030" dailyGoalPercent="0.65" AwardCoin="90" BGM="" Sound=""&gt;
+      <c r="Q32" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12009" Name="MissionName12009" Background="Home_Backgrond_wonder woods (9)" Model="12009" NimIcon="atom_icon0072" QuestId="20030" dailyGoalPercent="0.65" AwardCoin="90" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10059" Height="3" /&gt;
   &lt;TreasureBox BoxId="10060" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="R32" s="11" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:18">
       <c r="A33" s="25"/>
       <c r="B33" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15456,30 +15532,31 @@
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="23">
+      <c r="L33" s="23"/>
+      <c r="M33" s="23">
         <v>10061</v>
       </c>
-      <c r="M33" s="23">
+      <c r="N33" s="23">
         <v>3</v>
       </c>
-      <c r="N33" s="23">
+      <c r="O33" s="23">
         <v>10062</v>
       </c>
-      <c r="O33" s="23">
+      <c r="P33" s="23">
         <v>8</v>
       </c>
-      <c r="P33" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12010" Name="MissionName12010" Background="Home_Backgrond_wonder woods (10)" Model="12010" NimIcon="atom_icon0073" QuestId="20031" dailyGoalPercent="0.7" AwardCoin="92" BGM="" Sound=""&gt;
+      <c r="Q33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12010" Name="MissionName12010" Background="Home_Backgrond_wonder woods (10)" Model="12010" NimIcon="atom_icon0073" QuestId="20031" dailyGoalPercent="0.7" AwardCoin="92" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10061" Height="3" /&gt;
   &lt;TreasureBox BoxId="10062" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="R33" s="11" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18">
       <c r="A34" s="25"/>
       <c r="B34" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15513,30 +15590,31 @@
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="23">
+      <c r="L34" s="23"/>
+      <c r="M34" s="23">
         <v>10063</v>
       </c>
-      <c r="M34" s="23">
+      <c r="N34" s="23">
         <v>3</v>
       </c>
-      <c r="N34" s="23">
+      <c r="O34" s="23">
         <v>10064</v>
       </c>
-      <c r="O34" s="23">
+      <c r="P34" s="23">
         <v>8</v>
       </c>
-      <c r="P34" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12011" Name="MissionName12011" Background="Home_Backgrond_wonder woods (11)" Model="12011" NimIcon="atom_icon0074" QuestId="20032" dailyGoalPercent="0.7" AwardCoin="94" BGM="" Sound=""&gt;
+      <c r="Q34" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12011" Name="MissionName12011" Background="Home_Backgrond_wonder woods (11)" Model="12011" NimIcon="atom_icon0074" QuestId="20032" dailyGoalPercent="0.7" AwardCoin="94" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10063" Height="3" /&gt;
   &lt;TreasureBox BoxId="10064" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="R34" s="11" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35" s="25"/>
       <c r="B35" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15570,30 +15648,31 @@
       </c>
       <c r="J35" s="24"/>
       <c r="K35" s="23"/>
-      <c r="L35" s="23">
+      <c r="L35" s="23"/>
+      <c r="M35" s="23">
         <v>10065</v>
       </c>
-      <c r="M35" s="23">
+      <c r="N35" s="23">
         <v>3</v>
       </c>
-      <c r="N35" s="23">
+      <c r="O35" s="23">
         <v>10066</v>
       </c>
-      <c r="O35" s="23">
+      <c r="P35" s="23">
         <v>8</v>
       </c>
-      <c r="P35" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12012" Name="MissionName12012" Background="Home_Backgrond_wonder woods (12)" Model="12012" NimIcon="atom_icon0075" QuestId="20033" dailyGoalPercent="0.7" AwardCoin="96" BGM="" Sound=""&gt;
+      <c r="Q35" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12012" Name="MissionName12012" Background="Home_Backgrond_wonder woods (12)" Model="12012" NimIcon="atom_icon0075" QuestId="20033" dailyGoalPercent="0.7" AwardCoin="96" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10065" Height="3" /&gt;
   &lt;TreasureBox BoxId="10066" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="R35" s="11" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18">
       <c r="A36" s="25"/>
       <c r="B36" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15627,30 +15706,31 @@
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="23">
+      <c r="L36" s="23"/>
+      <c r="M36" s="23">
         <v>10067</v>
       </c>
-      <c r="M36" s="23">
+      <c r="N36" s="23">
         <v>3</v>
       </c>
-      <c r="N36" s="23">
+      <c r="O36" s="23">
         <v>10068</v>
       </c>
-      <c r="O36" s="23">
+      <c r="P36" s="23">
         <v>8</v>
       </c>
-      <c r="P36" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12013" Name="MissionName12013" Background="Home_Backgrond_wonder woods (13)" Model="12013" NimIcon="atom_icon0076" QuestId="20034" dailyGoalPercent="0.75" AwardCoin="98" BGM="" Sound=""&gt;
+      <c r="Q36" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12013" Name="MissionName12013" Background="Home_Backgrond_wonder woods (13)" Model="12013" NimIcon="atom_icon0076" QuestId="20034" dailyGoalPercent="0.75" AwardCoin="98" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10067" Height="3" /&gt;
   &lt;TreasureBox BoxId="10068" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q36" s="11" t="s">
+      <c r="R36" s="11" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18">
       <c r="A37" s="25"/>
       <c r="B37" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15684,30 +15764,31 @@
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="23"/>
-      <c r="L37" s="23">
+      <c r="L37" s="23"/>
+      <c r="M37" s="23">
         <v>10069</v>
       </c>
-      <c r="M37" s="23">
+      <c r="N37" s="23">
         <v>3</v>
       </c>
-      <c r="N37" s="23">
+      <c r="O37" s="23">
         <v>10070</v>
       </c>
-      <c r="O37" s="23">
+      <c r="P37" s="23">
         <v>8</v>
       </c>
-      <c r="P37" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12014" Name="MissionName12014" Background="Home_Backgrond_wonder woods (14)" Model="12014" NimIcon="atom_icon0077" QuestId="20035" dailyGoalPercent="0.75" AwardCoin="100" BGM="" Sound=""&gt;
+      <c r="Q37" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12014" Name="MissionName12014" Background="Home_Backgrond_wonder woods (14)" Model="12014" NimIcon="atom_icon0077" QuestId="20035" dailyGoalPercent="0.75" AwardCoin="100" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10069" Height="3" /&gt;
   &lt;TreasureBox BoxId="10070" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q37" s="11" t="s">
+      <c r="R37" s="11" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:18">
       <c r="A38" s="25"/>
       <c r="B38" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15742,30 +15823,31 @@
       </c>
       <c r="J38" s="24"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="23">
+      <c r="L38" s="23"/>
+      <c r="M38" s="23">
         <v>10071</v>
       </c>
-      <c r="M38" s="23">
+      <c r="N38" s="23">
         <v>3</v>
       </c>
-      <c r="N38" s="23">
+      <c r="O38" s="23">
         <v>10072</v>
       </c>
-      <c r="O38" s="23">
+      <c r="P38" s="23">
         <v>8</v>
       </c>
-      <c r="P38" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12015" Name="MissionName12015" Background="Home_Backgrond_wonder woods (15)" Model="12015" NimIcon="atom_icon0078" QuestId="20036" dailyGoalPercent="0.8" AwardCoin="102" BGM="" Sound=""&gt;
+      <c r="Q38" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12015" Name="MissionName12015" Background="Home_Backgrond_wonder woods (15)" Model="12015" NimIcon="atom_icon0078" QuestId="20036" dailyGoalPercent="0.8" AwardCoin="102" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10071" Height="3" /&gt;
   &lt;TreasureBox BoxId="10072" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q38" s="11" t="s">
+      <c r="R38" s="11" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39" s="25"/>
       <c r="B39" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15799,30 +15881,31 @@
       </c>
       <c r="J39" s="24"/>
       <c r="K39" s="23"/>
-      <c r="L39" s="23">
+      <c r="L39" s="23"/>
+      <c r="M39" s="23">
         <v>10073</v>
       </c>
-      <c r="M39" s="23">
+      <c r="N39" s="23">
         <v>3</v>
       </c>
-      <c r="N39" s="23">
+      <c r="O39" s="23">
         <v>10074</v>
       </c>
-      <c r="O39" s="23">
+      <c r="P39" s="23">
         <v>8</v>
       </c>
-      <c r="P39" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12016" Name="MissionName12016" Background="Home_Backgrond_wonder woods (16)" Model="12016" NimIcon="atom_icon0079" QuestId="20037" dailyGoalPercent="0.8" AwardCoin="104" BGM="" Sound=""&gt;
+      <c r="Q39" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12016" Name="MissionName12016" Background="Home_Backgrond_wonder woods (16)" Model="12016" NimIcon="atom_icon0079" QuestId="20037" dailyGoalPercent="0.8" AwardCoin="104" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10073" Height="3" /&gt;
   &lt;TreasureBox BoxId="10074" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="R39" s="11" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:18">
       <c r="A40" s="25"/>
       <c r="B40" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15856,30 +15939,31 @@
       </c>
       <c r="J40" s="24"/>
       <c r="K40" s="23"/>
-      <c r="L40" s="23">
+      <c r="L40" s="23"/>
+      <c r="M40" s="23">
         <v>10075</v>
       </c>
-      <c r="M40" s="23">
+      <c r="N40" s="23">
         <v>3</v>
       </c>
-      <c r="N40" s="23">
+      <c r="O40" s="23">
         <v>10076</v>
       </c>
-      <c r="O40" s="23">
+      <c r="P40" s="23">
         <v>8</v>
       </c>
-      <c r="P40" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12017" Name="MissionName12017" Background="Home_Backgrond_wonder woods (17)" Model="12017" NimIcon="atom_icon0080" QuestId="20038" dailyGoalPercent="0.8" AwardCoin="106" BGM="" Sound=""&gt;
+      <c r="Q40" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12017" Name="MissionName12017" Background="Home_Backgrond_wonder woods (17)" Model="12017" NimIcon="atom_icon0080" QuestId="20038" dailyGoalPercent="0.8" AwardCoin="106" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10075" Height="3" /&gt;
   &lt;TreasureBox BoxId="10076" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q40" s="11" t="s">
+      <c r="R40" s="11" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18">
       <c r="A41" s="25"/>
       <c r="B41" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15913,30 +15997,31 @@
       </c>
       <c r="J41" s="24"/>
       <c r="K41" s="23"/>
-      <c r="L41" s="23">
+      <c r="L41" s="23"/>
+      <c r="M41" s="23">
         <v>10077</v>
       </c>
-      <c r="M41" s="23">
+      <c r="N41" s="23">
         <v>3</v>
       </c>
-      <c r="N41" s="23">
+      <c r="O41" s="23">
         <v>10078</v>
       </c>
-      <c r="O41" s="23">
+      <c r="P41" s="23">
         <v>8</v>
       </c>
-      <c r="P41" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12018" Name="MissionName12018" Background="Home_Backgrond_wonder woods (18)" Model="12018" NimIcon="atom_icon0081" QuestId="20039" dailyGoalPercent="0.85" AwardCoin="108" BGM="" Sound=""&gt;
+      <c r="Q41" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12018" Name="MissionName12018" Background="Home_Backgrond_wonder woods (18)" Model="12018" NimIcon="atom_icon0081" QuestId="20039" dailyGoalPercent="0.85" AwardCoin="108" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10077" Height="3" /&gt;
   &lt;TreasureBox BoxId="10078" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q41" s="11" t="s">
+      <c r="R41" s="11" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18">
       <c r="A42" s="25"/>
       <c r="B42" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15970,30 +16055,31 @@
       </c>
       <c r="J42" s="24"/>
       <c r="K42" s="23"/>
-      <c r="L42" s="23">
+      <c r="L42" s="23"/>
+      <c r="M42" s="23">
         <v>10079</v>
       </c>
-      <c r="M42" s="23">
+      <c r="N42" s="23">
         <v>3</v>
       </c>
-      <c r="N42" s="23">
+      <c r="O42" s="23">
         <v>10080</v>
       </c>
-      <c r="O42" s="23">
+      <c r="P42" s="23">
         <v>8</v>
       </c>
-      <c r="P42" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12019" Name="MissionName12019" Background="Home_Backgrond_wonder woods (19)" Model="12019" NimIcon="atom_icon0082" QuestId="20040" dailyGoalPercent="0.85" AwardCoin="110" BGM="" Sound=""&gt;
+      <c r="Q42" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12019" Name="MissionName12019" Background="Home_Backgrond_wonder woods (19)" Model="12019" NimIcon="atom_icon0082" QuestId="20040" dailyGoalPercent="0.85" AwardCoin="110" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10079" Height="3" /&gt;
   &lt;TreasureBox BoxId="10080" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="R42" s="11" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:18">
       <c r="A43" s="25"/>
       <c r="B43" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16027,30 +16113,31 @@
       </c>
       <c r="J43" s="24"/>
       <c r="K43" s="23"/>
-      <c r="L43" s="23">
+      <c r="L43" s="23"/>
+      <c r="M43" s="23">
         <v>10081</v>
       </c>
-      <c r="M43" s="23">
+      <c r="N43" s="23">
         <v>3</v>
       </c>
-      <c r="N43" s="23">
+      <c r="O43" s="23">
         <v>10082</v>
       </c>
-      <c r="O43" s="23">
+      <c r="P43" s="23">
         <v>8</v>
       </c>
-      <c r="P43" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12020" Name="MissionName12020" Background="Home_Backgrond_wonder woods (20)" Model="12020" NimIcon="atom_icon0083" QuestId="20041" dailyGoalPercent="0.85" AwardCoin="112" BGM="" Sound=""&gt;
+      <c r="Q43" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12020" Name="MissionName12020" Background="Home_Backgrond_wonder woods (20)" Model="12020" NimIcon="atom_icon0083" QuestId="20041" dailyGoalPercent="0.85" AwardCoin="112" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10081" Height="3" /&gt;
   &lt;TreasureBox BoxId="10082" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="R43" s="11" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:18">
       <c r="A44" s="25"/>
       <c r="B44" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16084,30 +16171,31 @@
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="23"/>
-      <c r="L44" s="23">
+      <c r="L44" s="23"/>
+      <c r="M44" s="23">
         <v>10083</v>
       </c>
-      <c r="M44" s="23">
+      <c r="N44" s="23">
         <v>3</v>
       </c>
-      <c r="N44" s="23">
+      <c r="O44" s="23">
         <v>10084</v>
       </c>
-      <c r="O44" s="23">
+      <c r="P44" s="23">
         <v>8</v>
       </c>
-      <c r="P44" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12021" Name="MissionName12021" Background="Home_Backgrond_wonder woods (21)" Model="12021" NimIcon="atom_icon0084" QuestId="20042" dailyGoalPercent="0.9" AwardCoin="114" BGM="" Sound=""&gt;
+      <c r="Q44" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12021" Name="MissionName12021" Background="Home_Backgrond_wonder woods (21)" Model="12021" NimIcon="atom_icon0084" QuestId="20042" dailyGoalPercent="0.9" AwardCoin="114" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10083" Height="3" /&gt;
   &lt;TreasureBox BoxId="10084" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q44" s="11" t="s">
+      <c r="R44" s="11" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:18">
       <c r="A45" s="26"/>
       <c r="B45" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16141,30 +16229,31 @@
       </c>
       <c r="J45" s="24"/>
       <c r="K45" s="23"/>
-      <c r="L45" s="23">
+      <c r="L45" s="23"/>
+      <c r="M45" s="23">
         <v>10085</v>
       </c>
-      <c r="M45" s="23">
+      <c r="N45" s="23">
         <v>3</v>
       </c>
-      <c r="N45" s="23">
+      <c r="O45" s="23">
         <v>10086</v>
       </c>
-      <c r="O45" s="23">
+      <c r="P45" s="23">
         <v>8</v>
       </c>
-      <c r="P45" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13001" Name="MissionName13001" Background="Home_Backgrond_desert daze (1)" Model="13001" NimIcon="atom_icon0106" QuestId="20043" dailyGoalPercent="0.9" AwardCoin="116" BGM="" Sound=""&gt;
+      <c r="Q45" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13001" Name="MissionName13001" Background="Home_Backgrond_desert daze (1)" Model="13001" NimIcon="atom_icon0106" QuestId="20043" dailyGoalPercent="0.9" AwardCoin="116" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10085" Height="3" /&gt;
   &lt;TreasureBox BoxId="10086" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q45" s="11" t="s">
+      <c r="R45" s="11" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:18">
       <c r="A46" s="26"/>
       <c r="B46" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16198,30 +16287,31 @@
       </c>
       <c r="J46" s="24"/>
       <c r="K46" s="23"/>
-      <c r="L46" s="23">
+      <c r="L46" s="23"/>
+      <c r="M46" s="23">
         <v>10087</v>
       </c>
-      <c r="M46" s="23">
+      <c r="N46" s="23">
         <v>3</v>
       </c>
-      <c r="N46" s="23">
+      <c r="O46" s="23">
         <v>10088</v>
       </c>
-      <c r="O46" s="23">
+      <c r="P46" s="23">
         <v>8</v>
       </c>
-      <c r="P46" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13002" Name="MissionName13002" Background="Home_Backgrond_desert daze (2)" Model="13002" NimIcon="atom_icon0107" QuestId="20044" dailyGoalPercent="0.9" AwardCoin="118" BGM="" Sound=""&gt;
+      <c r="Q46" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13002" Name="MissionName13002" Background="Home_Backgrond_desert daze (2)" Model="13002" NimIcon="atom_icon0107" QuestId="20044" dailyGoalPercent="0.9" AwardCoin="118" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10087" Height="3" /&gt;
   &lt;TreasureBox BoxId="10088" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q46" s="11" t="s">
+      <c r="R46" s="11" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:18">
       <c r="A47" s="26"/>
       <c r="B47" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16255,30 +16345,31 @@
       </c>
       <c r="J47" s="24"/>
       <c r="K47" s="23"/>
-      <c r="L47" s="23">
+      <c r="L47" s="23"/>
+      <c r="M47" s="23">
         <v>10089</v>
       </c>
-      <c r="M47" s="23">
+      <c r="N47" s="23">
         <v>3</v>
       </c>
-      <c r="N47" s="23">
+      <c r="O47" s="23">
         <v>10090</v>
       </c>
-      <c r="O47" s="23">
+      <c r="P47" s="23">
         <v>8</v>
       </c>
-      <c r="P47" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13003" Name="MissionName13003" Background="Home_Backgrond_desert daze (3)" Model="13003" NimIcon="atom_icon0108" QuestId="20045" dailyGoalPercent="0.95" AwardCoin="120" BGM="" Sound=""&gt;
+      <c r="Q47" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13003" Name="MissionName13003" Background="Home_Backgrond_desert daze (3)" Model="13003" NimIcon="atom_icon0108" QuestId="20045" dailyGoalPercent="0.95" AwardCoin="120" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10089" Height="3" /&gt;
   &lt;TreasureBox BoxId="10090" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="R47" s="11" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:18">
       <c r="A48" s="26"/>
       <c r="B48" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16312,30 +16403,31 @@
       </c>
       <c r="J48" s="24"/>
       <c r="K48" s="23"/>
-      <c r="L48" s="23">
+      <c r="L48" s="23"/>
+      <c r="M48" s="23">
         <v>10091</v>
       </c>
-      <c r="M48" s="23">
+      <c r="N48" s="23">
         <v>3</v>
       </c>
-      <c r="N48" s="23">
+      <c r="O48" s="23">
         <v>10092</v>
       </c>
-      <c r="O48" s="23">
+      <c r="P48" s="23">
         <v>8</v>
       </c>
-      <c r="P48" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13004" Name="MissionName13004" Background="Home_Backgrond_desert daze (4)" Model="13004" NimIcon="atom_icon0109" QuestId="20046" dailyGoalPercent="0.95" AwardCoin="122" BGM="" Sound=""&gt;
+      <c r="Q48" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13004" Name="MissionName13004" Background="Home_Backgrond_desert daze (4)" Model="13004" NimIcon="atom_icon0109" QuestId="20046" dailyGoalPercent="0.95" AwardCoin="122" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10091" Height="3" /&gt;
   &lt;TreasureBox BoxId="10092" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q48" s="11" t="s">
+      <c r="R48" s="11" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:18">
       <c r="A49" s="26"/>
       <c r="B49" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16369,30 +16461,31 @@
       </c>
       <c r="J49" s="24"/>
       <c r="K49" s="23"/>
-      <c r="L49" s="23">
+      <c r="L49" s="23"/>
+      <c r="M49" s="23">
         <v>10093</v>
       </c>
-      <c r="M49" s="23">
+      <c r="N49" s="23">
         <v>3</v>
       </c>
-      <c r="N49" s="23">
+      <c r="O49" s="23">
         <v>10094</v>
       </c>
-      <c r="O49" s="23">
+      <c r="P49" s="23">
         <v>8</v>
       </c>
-      <c r="P49" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13005" Name="MissionName13005" Background="Home_Backgrond_desert daze (5)" Model="13005" NimIcon="atom_icon0110" QuestId="20047" dailyGoalPercent="0.95" AwardCoin="124" BGM="" Sound=""&gt;
+      <c r="Q49" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13005" Name="MissionName13005" Background="Home_Backgrond_desert daze (5)" Model="13005" NimIcon="atom_icon0110" QuestId="20047" dailyGoalPercent="0.95" AwardCoin="124" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10093" Height="3" /&gt;
   &lt;TreasureBox BoxId="10094" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q49" s="11" t="s">
+      <c r="R49" s="11" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:18">
       <c r="A50" s="26"/>
       <c r="B50" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16427,30 +16520,31 @@
       </c>
       <c r="J50" s="24"/>
       <c r="K50" s="23"/>
-      <c r="L50" s="23">
+      <c r="L50" s="23"/>
+      <c r="M50" s="23">
         <v>10095</v>
       </c>
-      <c r="M50" s="23">
+      <c r="N50" s="23">
         <v>3</v>
       </c>
-      <c r="N50" s="23">
+      <c r="O50" s="23">
         <v>10096</v>
       </c>
-      <c r="O50" s="23">
+      <c r="P50" s="23">
         <v>8</v>
       </c>
-      <c r="P50" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13006" Name="MissionName13006" Background="Home_Backgrond_desert daze (6)" Model="13006" NimIcon="atom_icon0111" QuestId="20048" dailyGoalPercent="1" AwardCoin="126" BGM="" Sound=""&gt;
+      <c r="Q50" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13006" Name="MissionName13006" Background="Home_Backgrond_desert daze (6)" Model="13006" NimIcon="atom_icon0111" QuestId="20048" dailyGoalPercent="1" AwardCoin="126" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10095" Height="3" /&gt;
   &lt;TreasureBox BoxId="10096" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q50" s="11" t="s">
+      <c r="R50" s="11" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:18">
       <c r="A51" s="26"/>
       <c r="B51" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16485,30 +16579,31 @@
       </c>
       <c r="J51" s="24"/>
       <c r="K51" s="23"/>
-      <c r="L51" s="23">
+      <c r="L51" s="23"/>
+      <c r="M51" s="23">
         <v>10097</v>
       </c>
-      <c r="M51" s="23">
+      <c r="N51" s="23">
         <v>3</v>
       </c>
-      <c r="N51" s="23">
+      <c r="O51" s="23">
         <v>10098</v>
       </c>
-      <c r="O51" s="23">
+      <c r="P51" s="23">
         <v>8</v>
       </c>
-      <c r="P51" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13007" Name="MissionName13007" Background="Home_Backgrond_desert daze (7)" Model="13007" NimIcon="atom_icon0112" QuestId="20049" dailyGoalPercent="1" AwardCoin="128" BGM="" Sound=""&gt;
+      <c r="Q51" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13007" Name="MissionName13007" Background="Home_Backgrond_desert daze (7)" Model="13007" NimIcon="atom_icon0112" QuestId="20049" dailyGoalPercent="1" AwardCoin="128" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10097" Height="3" /&gt;
   &lt;TreasureBox BoxId="10098" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="R51" s="11" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:18">
       <c r="A52" s="26"/>
       <c r="B52" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16543,30 +16638,31 @@
       </c>
       <c r="J52" s="24"/>
       <c r="K52" s="23"/>
-      <c r="L52" s="23">
+      <c r="L52" s="23"/>
+      <c r="M52" s="23">
         <v>10099</v>
       </c>
-      <c r="M52" s="23">
+      <c r="N52" s="23">
         <v>3</v>
       </c>
-      <c r="N52" s="23">
+      <c r="O52" s="23">
         <v>10100</v>
       </c>
-      <c r="O52" s="23">
+      <c r="P52" s="23">
         <v>8</v>
       </c>
-      <c r="P52" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13008" Name="MissionName13008" Background="Home_Backgrond_desert daze (8)" Model="13008" NimIcon="atom_icon0113" QuestId="20050" dailyGoalPercent="1" AwardCoin="130" BGM="" Sound=""&gt;
+      <c r="Q52" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13008" Name="MissionName13008" Background="Home_Backgrond_desert daze (8)" Model="13008" NimIcon="atom_icon0113" QuestId="20050" dailyGoalPercent="1" AwardCoin="130" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10099" Height="3" /&gt;
   &lt;TreasureBox BoxId="10100" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q52" s="11" t="s">
+      <c r="R52" s="11" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:18">
       <c r="A53" s="26"/>
       <c r="B53" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16600,30 +16696,31 @@
       </c>
       <c r="J53" s="24"/>
       <c r="K53" s="23"/>
-      <c r="L53" s="23">
+      <c r="L53" s="23"/>
+      <c r="M53" s="23">
         <v>10101</v>
       </c>
-      <c r="M53" s="23">
+      <c r="N53" s="23">
         <v>3</v>
       </c>
-      <c r="N53" s="23">
+      <c r="O53" s="23">
         <v>10102</v>
       </c>
-      <c r="O53" s="23">
+      <c r="P53" s="23">
         <v>8</v>
       </c>
-      <c r="P53" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13009" Name="MissionName13009" Background="Home_Backgrond_desert daze (9)" Model="13009" NimIcon="atom_icon0114" QuestId="20051" dailyGoalPercent="1.05" AwardCoin="132" BGM="" Sound=""&gt;
+      <c r="Q53" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13009" Name="MissionName13009" Background="Home_Backgrond_desert daze (9)" Model="13009" NimIcon="atom_icon0114" QuestId="20051" dailyGoalPercent="1.05" AwardCoin="132" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10101" Height="3" /&gt;
   &lt;TreasureBox BoxId="10102" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q53" s="11" t="s">
+      <c r="R53" s="11" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:18">
       <c r="A54" s="26"/>
       <c r="B54" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16657,30 +16754,31 @@
       </c>
       <c r="J54" s="24"/>
       <c r="K54" s="23"/>
-      <c r="L54" s="23">
+      <c r="L54" s="23"/>
+      <c r="M54" s="23">
         <v>10103</v>
       </c>
-      <c r="M54" s="23">
+      <c r="N54" s="23">
         <v>3</v>
       </c>
-      <c r="N54" s="23">
+      <c r="O54" s="23">
         <v>10104</v>
       </c>
-      <c r="O54" s="23">
+      <c r="P54" s="23">
         <v>8</v>
       </c>
-      <c r="P54" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13010" Name="MissionName13010" Background="Home_Backgrond_desert daze (10)" Model="13010" NimIcon="atom_icon0115" QuestId="20052" dailyGoalPercent="1.05" AwardCoin="134" BGM="" Sound=""&gt;
+      <c r="Q54" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13010" Name="MissionName13010" Background="Home_Backgrond_desert daze (10)" Model="13010" NimIcon="atom_icon0115" QuestId="20052" dailyGoalPercent="1.05" AwardCoin="134" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10103" Height="3" /&gt;
   &lt;TreasureBox BoxId="10104" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="R54" s="11" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:18">
       <c r="A55" s="26"/>
       <c r="B55" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16714,30 +16812,31 @@
       </c>
       <c r="J55" s="24"/>
       <c r="K55" s="23"/>
-      <c r="L55" s="23">
+      <c r="L55" s="23"/>
+      <c r="M55" s="23">
         <v>10105</v>
       </c>
-      <c r="M55" s="23">
+      <c r="N55" s="23">
         <v>3</v>
       </c>
-      <c r="N55" s="23">
+      <c r="O55" s="23">
         <v>10106</v>
       </c>
-      <c r="O55" s="23">
+      <c r="P55" s="23">
         <v>8</v>
       </c>
-      <c r="P55" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13011" Name="MissionName13011" Background="Home_Backgrond_desert daze (11)" Model="13011" NimIcon="atom_icon0116" QuestId="20053" dailyGoalPercent="1.05" AwardCoin="136" BGM="" Sound=""&gt;
+      <c r="Q55" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13011" Name="MissionName13011" Background="Home_Backgrond_desert daze (11)" Model="13011" NimIcon="atom_icon0116" QuestId="20053" dailyGoalPercent="1.05" AwardCoin="136" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10105" Height="3" /&gt;
   &lt;TreasureBox BoxId="10106" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="R55" s="11" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:18">
       <c r="A56" s="26"/>
       <c r="B56" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16771,30 +16870,31 @@
       </c>
       <c r="J56" s="24"/>
       <c r="K56" s="23"/>
-      <c r="L56" s="23">
+      <c r="L56" s="23"/>
+      <c r="M56" s="23">
         <v>10107</v>
       </c>
-      <c r="M56" s="23">
+      <c r="N56" s="23">
         <v>3</v>
       </c>
-      <c r="N56" s="23">
+      <c r="O56" s="23">
         <v>10108</v>
       </c>
-      <c r="O56" s="23">
+      <c r="P56" s="23">
         <v>8</v>
       </c>
-      <c r="P56" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13012" Name="MissionName13012" Background="Home_Backgrond_desert daze (12)" Model="13012" NimIcon="atom_icon0117" QuestId="20054" dailyGoalPercent="1.1" AwardCoin="138" BGM="" Sound=""&gt;
+      <c r="Q56" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13012" Name="MissionName13012" Background="Home_Backgrond_desert daze (12)" Model="13012" NimIcon="atom_icon0117" QuestId="20054" dailyGoalPercent="1.1" AwardCoin="138" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10107" Height="3" /&gt;
   &lt;TreasureBox BoxId="10108" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="R56" s="11" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:18">
       <c r="A57" s="26"/>
       <c r="B57" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16828,30 +16928,31 @@
       </c>
       <c r="J57" s="24"/>
       <c r="K57" s="23"/>
-      <c r="L57" s="23">
+      <c r="L57" s="23"/>
+      <c r="M57" s="23">
         <v>10109</v>
       </c>
-      <c r="M57" s="23">
+      <c r="N57" s="23">
         <v>3</v>
       </c>
-      <c r="N57" s="23">
+      <c r="O57" s="23">
         <v>10110</v>
       </c>
-      <c r="O57" s="23">
+      <c r="P57" s="23">
         <v>8</v>
       </c>
-      <c r="P57" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13013" Name="MissionName13013" Background="Home_Backgrond_desert daze (13)" Model="13013" NimIcon="atom_icon0118" QuestId="20055" dailyGoalPercent="1.1" AwardCoin="140" BGM="" Sound=""&gt;
+      <c r="Q57" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13013" Name="MissionName13013" Background="Home_Backgrond_desert daze (13)" Model="13013" NimIcon="atom_icon0118" QuestId="20055" dailyGoalPercent="1.1" AwardCoin="140" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10109" Height="3" /&gt;
   &lt;TreasureBox BoxId="10110" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q57" s="11" t="s">
+      <c r="R57" s="11" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:18">
       <c r="A58" s="26"/>
       <c r="B58" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16885,30 +16986,31 @@
       </c>
       <c r="J58" s="24"/>
       <c r="K58" s="23"/>
-      <c r="L58" s="23">
+      <c r="L58" s="23"/>
+      <c r="M58" s="23">
         <v>10111</v>
       </c>
-      <c r="M58" s="23">
+      <c r="N58" s="23">
         <v>3</v>
       </c>
-      <c r="N58" s="23">
+      <c r="O58" s="23">
         <v>10112</v>
       </c>
-      <c r="O58" s="23">
+      <c r="P58" s="23">
         <v>8</v>
       </c>
-      <c r="P58" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13014" Name="MissionName13014" Background="Home_Backgrond_desert daze (14)" Model="13014" NimIcon="atom_icon0119" QuestId="20056" dailyGoalPercent="1.1" AwardCoin="142" BGM="" Sound=""&gt;
+      <c r="Q58" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13014" Name="MissionName13014" Background="Home_Backgrond_desert daze (14)" Model="13014" NimIcon="atom_icon0119" QuestId="20056" dailyGoalPercent="1.1" AwardCoin="142" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10111" Height="3" /&gt;
   &lt;TreasureBox BoxId="10112" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q58" s="11" t="s">
+      <c r="R58" s="11" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:18">
       <c r="A59" s="26"/>
       <c r="B59" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16942,30 +17044,31 @@
       </c>
       <c r="J59" s="24"/>
       <c r="K59" s="23"/>
-      <c r="L59" s="23">
+      <c r="L59" s="23"/>
+      <c r="M59" s="23">
         <v>10113</v>
       </c>
-      <c r="M59" s="23">
+      <c r="N59" s="23">
         <v>3</v>
       </c>
-      <c r="N59" s="23">
+      <c r="O59" s="23">
         <v>10114</v>
       </c>
-      <c r="O59" s="23">
+      <c r="P59" s="23">
         <v>8</v>
       </c>
-      <c r="P59" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13015" Name="MissionName13015" Background="Home_Backgrond_desert daze (15)" Model="13015" NimIcon="atom_icon0120" QuestId="20057" dailyGoalPercent="1.15" AwardCoin="144" BGM="" Sound=""&gt;
+      <c r="Q59" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13015" Name="MissionName13015" Background="Home_Backgrond_desert daze (15)" Model="13015" NimIcon="atom_icon0120" QuestId="20057" dailyGoalPercent="1.15" AwardCoin="144" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10113" Height="3" /&gt;
   &lt;TreasureBox BoxId="10114" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q59" s="11" t="s">
+      <c r="R59" s="11" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:18">
       <c r="A60" s="26"/>
       <c r="B60" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16999,30 +17102,31 @@
       </c>
       <c r="J60" s="24"/>
       <c r="K60" s="23"/>
-      <c r="L60" s="23">
+      <c r="L60" s="23"/>
+      <c r="M60" s="23">
         <v>10115</v>
       </c>
-      <c r="M60" s="23">
+      <c r="N60" s="23">
         <v>3</v>
       </c>
-      <c r="N60" s="23">
+      <c r="O60" s="23">
         <v>10116</v>
       </c>
-      <c r="O60" s="23">
+      <c r="P60" s="23">
         <v>8</v>
       </c>
-      <c r="P60" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13016" Name="MissionName13016" Background="Home_Backgrond_desert daze (16)" Model="13016" NimIcon="atom_icon0121" QuestId="20058" dailyGoalPercent="1.15" AwardCoin="146" BGM="" Sound=""&gt;
+      <c r="Q60" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13016" Name="MissionName13016" Background="Home_Backgrond_desert daze (16)" Model="13016" NimIcon="atom_icon0121" QuestId="20058" dailyGoalPercent="1.15" AwardCoin="146" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10115" Height="3" /&gt;
   &lt;TreasureBox BoxId="10116" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="R60" s="11" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:18">
       <c r="A61" s="26"/>
       <c r="B61" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17056,30 +17160,31 @@
       </c>
       <c r="J61" s="24"/>
       <c r="K61" s="23"/>
-      <c r="L61" s="23">
+      <c r="L61" s="23"/>
+      <c r="M61" s="23">
         <v>10117</v>
       </c>
-      <c r="M61" s="23">
+      <c r="N61" s="23">
         <v>3</v>
       </c>
-      <c r="N61" s="23">
+      <c r="O61" s="23">
         <v>10118</v>
       </c>
-      <c r="O61" s="23">
+      <c r="P61" s="23">
         <v>8</v>
       </c>
-      <c r="P61" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13017" Name="MissionName13017" Background="Home_Backgrond_desert daze (17)" Model="13017" NimIcon="atom_icon0122" QuestId="20059" dailyGoalPercent="1.15" AwardCoin="148" BGM="" Sound=""&gt;
+      <c r="Q61" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13017" Name="MissionName13017" Background="Home_Backgrond_desert daze (17)" Model="13017" NimIcon="atom_icon0122" QuestId="20059" dailyGoalPercent="1.15" AwardCoin="148" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10117" Height="3" /&gt;
   &lt;TreasureBox BoxId="10118" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q61" s="11" t="s">
+      <c r="R61" s="11" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:18">
       <c r="A62" s="26"/>
       <c r="B62" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17113,30 +17218,31 @@
       </c>
       <c r="J62" s="24"/>
       <c r="K62" s="23"/>
-      <c r="L62" s="23">
+      <c r="L62" s="23"/>
+      <c r="M62" s="23">
         <v>10119</v>
       </c>
-      <c r="M62" s="23">
+      <c r="N62" s="23">
         <v>3</v>
       </c>
-      <c r="N62" s="23">
+      <c r="O62" s="23">
         <v>10120</v>
       </c>
-      <c r="O62" s="23">
+      <c r="P62" s="23">
         <v>8</v>
       </c>
-      <c r="P62" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13018" Name="MissionName13018" Background="Home_Backgrond_desert daze (18)" Model="13018" NimIcon="atom_icon0123" QuestId="20060" dailyGoalPercent="1.2" AwardCoin="150" BGM="" Sound=""&gt;
+      <c r="Q62" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13018" Name="MissionName13018" Background="Home_Backgrond_desert daze (18)" Model="13018" NimIcon="atom_icon0123" QuestId="20060" dailyGoalPercent="1.2" AwardCoin="150" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10119" Height="3" /&gt;
   &lt;TreasureBox BoxId="10120" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q62" s="11" t="s">
+      <c r="R62" s="11" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:18">
       <c r="A63" s="26"/>
       <c r="B63" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17170,30 +17276,31 @@
       </c>
       <c r="J63" s="24"/>
       <c r="K63" s="23"/>
-      <c r="L63" s="23">
+      <c r="L63" s="23"/>
+      <c r="M63" s="23">
         <v>10121</v>
       </c>
-      <c r="M63" s="23">
+      <c r="N63" s="23">
         <v>3</v>
       </c>
-      <c r="N63" s="23">
+      <c r="O63" s="23">
         <v>10122</v>
       </c>
-      <c r="O63" s="23">
+      <c r="P63" s="23">
         <v>8</v>
       </c>
-      <c r="P63" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13019" Name="MissionName13019" Background="Home_Backgrond_desert daze (19)" Model="13019" NimIcon="atom_icon0124" QuestId="20061" dailyGoalPercent="1.2" AwardCoin="152" BGM="" Sound=""&gt;
+      <c r="Q63" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13019" Name="MissionName13019" Background="Home_Backgrond_desert daze (19)" Model="13019" NimIcon="atom_icon0124" QuestId="20061" dailyGoalPercent="1.2" AwardCoin="152" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10121" Height="3" /&gt;
   &lt;TreasureBox BoxId="10122" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q63" s="11" t="s">
+      <c r="R63" s="11" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:18">
       <c r="A64" s="26"/>
       <c r="B64" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17227,30 +17334,31 @@
       </c>
       <c r="J64" s="24"/>
       <c r="K64" s="23"/>
-      <c r="L64" s="23">
+      <c r="L64" s="23"/>
+      <c r="M64" s="23">
         <v>10123</v>
       </c>
-      <c r="M64" s="23">
+      <c r="N64" s="23">
         <v>3</v>
       </c>
-      <c r="N64" s="23">
+      <c r="O64" s="23">
         <v>10124</v>
       </c>
-      <c r="O64" s="23">
+      <c r="P64" s="23">
         <v>8</v>
       </c>
-      <c r="P64" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13020" Name="MissionName13020" Background="Home_Backgrond_desert daze (20)" Model="13020" NimIcon="atom_icon0125" QuestId="20062" dailyGoalPercent="1.2" AwardCoin="154" BGM="" Sound=""&gt;
+      <c r="Q64" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13020" Name="MissionName13020" Background="Home_Backgrond_desert daze (20)" Model="13020" NimIcon="atom_icon0125" QuestId="20062" dailyGoalPercent="1.2" AwardCoin="154" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10123" Height="3" /&gt;
   &lt;TreasureBox BoxId="10124" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q64" s="11" t="s">
+      <c r="R64" s="11" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:18">
       <c r="A65" s="26"/>
       <c r="B65" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17284,30 +17392,31 @@
       </c>
       <c r="J65" s="24"/>
       <c r="K65" s="23"/>
-      <c r="L65" s="23">
+      <c r="L65" s="23"/>
+      <c r="M65" s="23">
         <v>10125</v>
       </c>
-      <c r="M65" s="23">
+      <c r="N65" s="23">
         <v>3</v>
       </c>
-      <c r="N65" s="23">
+      <c r="O65" s="23">
         <v>10126</v>
       </c>
-      <c r="O65" s="23">
+      <c r="P65" s="23">
         <v>8</v>
       </c>
-      <c r="P65" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13021" Name="MissionName13021" Background="Home_Backgrond_desert daze (21)" Model="13021" NimIcon="atom_icon0126" QuestId="20063" dailyGoalPercent="1.25" AwardCoin="156" BGM="" Sound=""&gt;
+      <c r="Q65" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13021" Name="MissionName13021" Background="Home_Backgrond_desert daze (21)" Model="13021" NimIcon="atom_icon0126" QuestId="20063" dailyGoalPercent="1.25" AwardCoin="156" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10125" Height="3" /&gt;
   &lt;TreasureBox BoxId="10126" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q65" s="11" t="s">
+      <c r="R65" s="11" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:18">
       <c r="A66" s="27"/>
       <c r="B66" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17340,30 +17449,31 @@
       </c>
       <c r="J66" s="24"/>
       <c r="K66" s="23"/>
-      <c r="L66" s="23">
+      <c r="L66" s="23"/>
+      <c r="M66" s="23">
         <v>10127</v>
       </c>
-      <c r="M66" s="23">
+      <c r="N66" s="23">
         <v>3</v>
       </c>
-      <c r="N66" s="23">
+      <c r="O66" s="23">
         <v>10128</v>
       </c>
-      <c r="O66" s="23">
+      <c r="P66" s="23">
         <v>8</v>
       </c>
-      <c r="P66" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="14001" Name="MissionName14001" Background="Home_Backgrond__mystery red0001" Model="14001" NimIcon="atom_icon0157" QuestId="20064" dailyGoalPercent="1.25" AwardCoin="158" BGM="" Sound=""&gt;
+      <c r="Q66" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="14001" Name="MissionName14001" Background="Home_Backgrond__mystery red0001" Model="14001" NimIcon="atom_icon0157" QuestId="20064" dailyGoalPercent="1.25" AwardCoin="158" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10127" Height="3" /&gt;
   &lt;TreasureBox BoxId="10128" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q66" s="11" t="s">
+      <c r="R66" s="11" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:18">
       <c r="A67" s="27"/>
       <c r="B67" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17396,30 +17506,31 @@
       </c>
       <c r="J67" s="24"/>
       <c r="K67" s="23"/>
-      <c r="L67" s="23">
+      <c r="L67" s="23"/>
+      <c r="M67" s="23">
         <v>10129</v>
       </c>
-      <c r="M67" s="23">
+      <c r="N67" s="23">
         <v>3</v>
       </c>
-      <c r="N67" s="23">
+      <c r="O67" s="23">
         <v>10130</v>
       </c>
-      <c r="O67" s="23">
+      <c r="P67" s="23">
         <v>8</v>
       </c>
-      <c r="P67" s="19" t="str">
-        <f t="shared" ref="P67:P83" si="8">IF(B67&lt;&gt;"","&lt;Mission Id="""&amp;B67&amp;""" Name="""&amp;C67&amp;""" Background="""&amp;D67&amp;""" Model="""&amp;E67&amp;""" NimIcon="""&amp;F67&amp;""" QuestId="""&amp;G67&amp;""" dailyGoalPercent="""&amp;H67&amp;""" AwardCoin="""&amp;I67&amp;""" BGM="""&amp;J67&amp;""" Sound="""&amp;K67&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;L67&amp;""" Height="""&amp;M67&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N67&amp;""" Height="""&amp;O67&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="14002" Name="MissionName14002" Background="Home_Backgrond__mystery red0002" Model="14002" NimIcon="atom_icon0158" QuestId="20065" dailyGoalPercent="1.3" AwardCoin="160" BGM="" Sound=""&gt;
+      <c r="Q67" s="19" t="str">
+        <f t="shared" ref="Q67:Q83" si="8">IF(B67&lt;&gt;"","&lt;Mission Id="""&amp;B67&amp;""" Name="""&amp;C67&amp;""" Background="""&amp;D67&amp;""" Model="""&amp;E67&amp;""" NimIcon="""&amp;F67&amp;""" QuestId="""&amp;G67&amp;""" dailyGoalPercent="""&amp;H67&amp;""" AwardCoin="""&amp;I67&amp;""" BGM="""&amp;J67&amp;""" Sound="""&amp;K67&amp;""" WaterDrop="""&amp;L67&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;M67&amp;""" Height="""&amp;N67&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;O67&amp;""" Height="""&amp;P67&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
+        <v>&lt;Mission Id="14002" Name="MissionName14002" Background="Home_Backgrond__mystery red0002" Model="14002" NimIcon="atom_icon0158" QuestId="20065" dailyGoalPercent="1.3" AwardCoin="160" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10129" Height="3" /&gt;
   &lt;TreasureBox BoxId="10130" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q67" s="11" t="s">
+      <c r="R67" s="11" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:18">
       <c r="A68" s="27"/>
       <c r="B68" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17452,52 +17563,53 @@
       </c>
       <c r="J68" s="24"/>
       <c r="K68" s="23"/>
-      <c r="L68" s="23">
+      <c r="L68" s="23"/>
+      <c r="M68" s="23">
         <v>10131</v>
       </c>
-      <c r="M68" s="23">
+      <c r="N68" s="23">
         <v>3</v>
       </c>
-      <c r="N68" s="23">
+      <c r="O68" s="23">
         <v>10132</v>
       </c>
-      <c r="O68" s="23">
+      <c r="P68" s="23">
         <v>8</v>
       </c>
-      <c r="P68" s="19" t="str">
+      <c r="Q68" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14003" Name="MissionName14003" Background="Home_Backgrond__mystery red0003" Model="14003" NimIcon="atom_icon0159" QuestId="20066" dailyGoalPercent="1.3" AwardCoin="162" BGM="" Sound=""&gt;
+        <v>&lt;Mission Id="14003" Name="MissionName14003" Background="Home_Backgrond__mystery red0003" Model="14003" NimIcon="atom_icon0159" QuestId="20066" dailyGoalPercent="1.3" AwardCoin="162" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10131" Height="3" /&gt;
   &lt;TreasureBox BoxId="10132" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q68" s="11" t="s">
+      <c r="R68" s="11" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:18">
       <c r="A69" s="27"/>
       <c r="B69" s="22" t="str">
-        <f t="shared" ref="B69:B76" si="9">MID(Q69,FIND("Id=",Q69)+4,FIND(""" Name=",Q69)-FIND("Id=",Q69)-4)</f>
+        <f t="shared" ref="B69:B75" si="9">MID(R69,FIND("Id=",R69)+4,FIND(""" Name=",R69)-FIND("Id=",R69)-4)</f>
         <v>14004</v>
       </c>
       <c r="C69" s="23" t="str">
-        <f t="shared" ref="C69:C76" si="10">MID(Q69,FIND("Name=",Q69)+6,FIND(""" Background=",Q69)-FIND("Name=",Q69)-6)</f>
+        <f t="shared" ref="C69:C75" si="10">MID(R69,FIND("Name=",R69)+6,FIND(""" Background=",R69)-FIND("Name=",R69)-6)</f>
         <v>MissionName14004</v>
       </c>
       <c r="D69" s="23" t="str">
-        <f t="shared" ref="D69:D76" si="11">MID(Q69,FIND("Background=",Q69)+12,FIND(""" Model=",Q69)-FIND("Background=",Q69)-12)</f>
+        <f t="shared" ref="D69:D75" si="11">MID(R69,FIND("Background=",R69)+12,FIND(""" Model=",R69)-FIND("Background=",R69)-12)</f>
         <v>Home_Backgrond__mystery red0004</v>
       </c>
       <c r="E69" s="22" t="str">
-        <f t="shared" ref="E69:E76" si="12">MID(Q69,FIND("Model=",Q69)+7,FIND(""" NimIcon=",Q69)-FIND("Model=",Q69)-7)</f>
+        <f t="shared" ref="E69:E75" si="12">MID(R69,FIND("Model=",R69)+7,FIND(""" NimIcon=",R69)-FIND("Model=",R69)-7)</f>
         <v>14004</v>
       </c>
       <c r="F69" s="23" t="s">
         <v>875</v>
       </c>
       <c r="G69" s="23" t="str">
-        <f t="shared" ref="G69:G76" si="13">MID(Q69,FIND("QuestId=",Q69)+9,FIND(""" dailyGoalPercent=",Q69)-FIND("QuestId=",Q69)-9)</f>
+        <f t="shared" ref="G69:G75" si="13">MID(R69,FIND("QuestId=",R69)+9,FIND(""" dailyGoalPercent=",R69)-FIND("QuestId=",R69)-9)</f>
         <v>20067</v>
       </c>
       <c r="H69" s="24">
@@ -17508,30 +17620,31 @@
       </c>
       <c r="J69" s="24"/>
       <c r="K69" s="23"/>
-      <c r="L69" s="23">
+      <c r="L69" s="23"/>
+      <c r="M69" s="23">
         <v>10133</v>
       </c>
-      <c r="M69" s="23">
+      <c r="N69" s="23">
         <v>3</v>
       </c>
-      <c r="N69" s="23">
+      <c r="O69" s="23">
         <v>10134</v>
       </c>
-      <c r="O69" s="23">
+      <c r="P69" s="23">
         <v>8</v>
       </c>
-      <c r="P69" s="19" t="str">
+      <c r="Q69" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14004" Name="MissionName14004" Background="Home_Backgrond__mystery red0004" Model="14004" NimIcon="atom_icon0160" QuestId="20067" dailyGoalPercent="1.35" AwardCoin="164" BGM="" Sound=""&gt;
+        <v>&lt;Mission Id="14004" Name="MissionName14004" Background="Home_Backgrond__mystery red0004" Model="14004" NimIcon="atom_icon0160" QuestId="20067" dailyGoalPercent="1.35" AwardCoin="164" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10133" Height="3" /&gt;
   &lt;TreasureBox BoxId="10134" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q69" s="11" t="s">
+      <c r="R69" s="11" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:18">
       <c r="A70" s="27"/>
       <c r="B70" s="22" t="str">
         <f t="shared" si="9"/>
@@ -17564,30 +17677,31 @@
       </c>
       <c r="J70" s="24"/>
       <c r="K70" s="23"/>
-      <c r="L70" s="23">
+      <c r="L70" s="23"/>
+      <c r="M70" s="23">
         <v>10135</v>
       </c>
-      <c r="M70" s="23">
+      <c r="N70" s="23">
         <v>3</v>
       </c>
-      <c r="N70" s="23">
+      <c r="O70" s="23">
         <v>10136</v>
       </c>
-      <c r="O70" s="23">
+      <c r="P70" s="23">
         <v>8</v>
       </c>
-      <c r="P70" s="19" t="str">
+      <c r="Q70" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14005" Name="MissionName14005" Background="Home_Backgrond__mystery red0005" Model="14005" NimIcon="atom_icon0161" QuestId="20068" dailyGoalPercent="1.35" AwardCoin="166" BGM="" Sound=""&gt;
+        <v>&lt;Mission Id="14005" Name="MissionName14005" Background="Home_Backgrond__mystery red0005" Model="14005" NimIcon="atom_icon0161" QuestId="20068" dailyGoalPercent="1.35" AwardCoin="166" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10135" Height="3" /&gt;
   &lt;TreasureBox BoxId="10136" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q70" s="11" t="s">
+      <c r="R70" s="11" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:18">
       <c r="A71" s="27"/>
       <c r="B71" s="22" t="str">
         <f t="shared" si="9"/>
@@ -17620,30 +17734,31 @@
       </c>
       <c r="J71" s="24"/>
       <c r="K71" s="23"/>
-      <c r="L71" s="23">
+      <c r="L71" s="23"/>
+      <c r="M71" s="23">
         <v>10137</v>
       </c>
-      <c r="M71" s="23">
+      <c r="N71" s="23">
         <v>3</v>
       </c>
-      <c r="N71" s="23">
+      <c r="O71" s="23">
         <v>10138</v>
       </c>
-      <c r="O71" s="23">
+      <c r="P71" s="23">
         <v>8</v>
       </c>
-      <c r="P71" s="19" t="str">
+      <c r="Q71" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14006" Name="MissionName14006" Background="Home_Backgrond__mystery red0006" Model="14006" NimIcon="atom_icon0162" QuestId="20069" dailyGoalPercent="1.4" AwardCoin="168" BGM="" Sound=""&gt;
+        <v>&lt;Mission Id="14006" Name="MissionName14006" Background="Home_Backgrond__mystery red0006" Model="14006" NimIcon="atom_icon0162" QuestId="20069" dailyGoalPercent="1.4" AwardCoin="168" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10137" Height="3" /&gt;
   &lt;TreasureBox BoxId="10138" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q71" s="11" t="s">
+      <c r="R71" s="11" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:18">
       <c r="A72" s="27"/>
       <c r="B72" s="22" t="str">
         <f t="shared" si="9"/>
@@ -17676,30 +17791,31 @@
       </c>
       <c r="J72" s="24"/>
       <c r="K72" s="23"/>
-      <c r="L72" s="23">
+      <c r="L72" s="23"/>
+      <c r="M72" s="23">
         <v>10139</v>
       </c>
-      <c r="M72" s="23">
+      <c r="N72" s="23">
         <v>3</v>
       </c>
-      <c r="N72" s="23">
+      <c r="O72" s="23">
         <v>10140</v>
       </c>
-      <c r="O72" s="23">
+      <c r="P72" s="23">
         <v>8</v>
       </c>
-      <c r="P72" s="19" t="str">
+      <c r="Q72" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14007" Name="MissionName14007" Background="Home_Backgrond__mystery red0007" Model="14007" NimIcon="atom_icon0163" QuestId="20070" dailyGoalPercent="1.4" AwardCoin="170" BGM="" Sound=""&gt;
+        <v>&lt;Mission Id="14007" Name="MissionName14007" Background="Home_Backgrond__mystery red0007" Model="14007" NimIcon="atom_icon0163" QuestId="20070" dailyGoalPercent="1.4" AwardCoin="170" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10139" Height="3" /&gt;
   &lt;TreasureBox BoxId="10140" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q72" s="11" t="s">
+      <c r="R72" s="11" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:18">
       <c r="A73" s="27"/>
       <c r="B73" s="22" t="str">
         <f t="shared" si="9"/>
@@ -17732,30 +17848,31 @@
       </c>
       <c r="J73" s="24"/>
       <c r="K73" s="23"/>
-      <c r="L73" s="23">
+      <c r="L73" s="23"/>
+      <c r="M73" s="23">
         <v>10141</v>
       </c>
-      <c r="M73" s="23">
+      <c r="N73" s="23">
         <v>3</v>
       </c>
-      <c r="N73" s="23">
+      <c r="O73" s="23">
         <v>10142</v>
       </c>
-      <c r="O73" s="23">
+      <c r="P73" s="23">
         <v>8</v>
       </c>
-      <c r="P73" s="19" t="str">
+      <c r="Q73" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14008" Name="MissionName14008" Background="Home_Backgrond__mystery red0008" Model="14008" NimIcon="atom_icon0164" QuestId="20071" dailyGoalPercent="1.45" AwardCoin="172" BGM="" Sound=""&gt;
+        <v>&lt;Mission Id="14008" Name="MissionName14008" Background="Home_Backgrond__mystery red0008" Model="14008" NimIcon="atom_icon0164" QuestId="20071" dailyGoalPercent="1.45" AwardCoin="172" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10141" Height="3" /&gt;
   &lt;TreasureBox BoxId="10142" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q73" s="11" t="s">
+      <c r="R73" s="11" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:18">
       <c r="A74" s="27"/>
       <c r="B74" s="22" t="str">
         <f t="shared" si="9"/>
@@ -17788,30 +17905,31 @@
       </c>
       <c r="J74" s="24"/>
       <c r="K74" s="23"/>
-      <c r="L74" s="23">
+      <c r="L74" s="23"/>
+      <c r="M74" s="23">
         <v>10143</v>
       </c>
-      <c r="M74" s="23">
+      <c r="N74" s="23">
         <v>3</v>
       </c>
-      <c r="N74" s="23">
+      <c r="O74" s="23">
         <v>10144</v>
       </c>
-      <c r="O74" s="23">
+      <c r="P74" s="23">
         <v>8</v>
       </c>
-      <c r="P74" s="19" t="str">
+      <c r="Q74" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14009" Name="MissionName14009" Background="Home_Backgrond__mystery red0009" Model="14009" NimIcon="atom_icon0165" QuestId="20072" dailyGoalPercent="1.45" AwardCoin="174" BGM="" Sound=""&gt;
+        <v>&lt;Mission Id="14009" Name="MissionName14009" Background="Home_Backgrond__mystery red0009" Model="14009" NimIcon="atom_icon0165" QuestId="20072" dailyGoalPercent="1.45" AwardCoin="174" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10143" Height="3" /&gt;
   &lt;TreasureBox BoxId="10144" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="R74" s="11" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:18">
       <c r="A75" s="27"/>
       <c r="B75" s="22" t="str">
         <f t="shared" si="9"/>
@@ -17844,30 +17962,31 @@
       </c>
       <c r="J75" s="24"/>
       <c r="K75" s="23"/>
-      <c r="L75" s="23">
+      <c r="L75" s="23"/>
+      <c r="M75" s="23">
         <v>10145</v>
       </c>
-      <c r="M75" s="23">
+      <c r="N75" s="23">
         <v>3</v>
       </c>
-      <c r="N75" s="23">
+      <c r="O75" s="23">
         <v>10146</v>
       </c>
-      <c r="O75" s="23">
+      <c r="P75" s="23">
         <v>8</v>
       </c>
-      <c r="P75" s="19" t="str">
+      <c r="Q75" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14010" Name="MissionName14010" Background="Home_Backgrond__mystery red0010" Model="14010" NimIcon="atom_icon0166" QuestId="20073" dailyGoalPercent="1.5" AwardCoin="176" BGM="" Sound=""&gt;
+        <v>&lt;Mission Id="14010" Name="MissionName14010" Background="Home_Backgrond__mystery red0010" Model="14010" NimIcon="atom_icon0166" QuestId="20073" dailyGoalPercent="1.5" AwardCoin="176" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="10145" Height="3" /&gt;
   &lt;TreasureBox BoxId="10146" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q75" s="11" t="s">
+      <c r="R75" s="11" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:18">
       <c r="A76" s="51"/>
       <c r="B76" s="29">
         <v>81001</v>
@@ -17898,28 +18017,31 @@
       <c r="K76" s="23" t="s">
         <v>1251</v>
       </c>
-      <c r="L76" s="28">
+      <c r="L76" s="23" t="s">
+        <v>1255</v>
+      </c>
+      <c r="M76" s="28">
         <v>81001</v>
       </c>
-      <c r="M76" s="23">
+      <c r="N76" s="23">
         <v>3</v>
       </c>
-      <c r="N76" s="28">
+      <c r="O76" s="28">
         <v>81002</v>
       </c>
-      <c r="O76" s="23">
+      <c r="P76" s="23">
         <v>8</v>
       </c>
-      <c r="P76" s="19" t="str">
+      <c r="Q76" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="81001" Name="MissionName81001" Background="Home_hallowmas__bg_01" Model="81001" NimIcon="" QuestId="20078" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect"&gt;
+        <v>&lt;Mission Id="81001" Name="MissionName81001" Background="Home_hallowmas__bg_01" Model="81001" NimIcon="" QuestId="20078" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="07KuLou"&gt;
   &lt;TreasureBox BoxId="81001" Height="3" /&gt;
   &lt;TreasureBox BoxId="81002" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q76" s="6"/>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76" s="6"/>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="51"/>
       <c r="B77" s="29">
         <v>81002</v>
@@ -17950,28 +18072,31 @@
       <c r="K77" s="23" t="s">
         <v>1251</v>
       </c>
-      <c r="L77" s="28">
+      <c r="L77" s="23" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M77" s="28">
         <v>81003</v>
       </c>
-      <c r="M77" s="23">
+      <c r="N77" s="23">
         <v>3</v>
       </c>
-      <c r="N77" s="28">
+      <c r="O77" s="28">
         <v>81004</v>
       </c>
-      <c r="O77" s="23">
+      <c r="P77" s="23">
         <v>8</v>
       </c>
-      <c r="P77" s="19" t="str">
+      <c r="Q77" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="81002" Name="MissionName81002" Background="Home_hallowmas__bg_02" Model="81002" NimIcon="" QuestId="20079" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect"&gt;
+        <v>&lt;Mission Id="81002" Name="MissionName81002" Background="Home_hallowmas__bg_02" Model="81002" NimIcon="" QuestId="20079" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="05PingGuo"&gt;
   &lt;TreasureBox BoxId="81003" Height="3" /&gt;
   &lt;TreasureBox BoxId="81004" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q77" s="6"/>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77" s="6"/>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="51"/>
       <c r="B78" s="29">
         <v>81003</v>
@@ -18002,28 +18127,31 @@
       <c r="K78" s="23" t="s">
         <v>1251</v>
       </c>
-      <c r="L78" s="28">
+      <c r="L78" s="23" t="s">
+        <v>1257</v>
+      </c>
+      <c r="M78" s="28">
         <v>81005</v>
       </c>
-      <c r="M78" s="23">
+      <c r="N78" s="23">
         <v>3</v>
       </c>
-      <c r="N78" s="28">
+      <c r="O78" s="28">
         <v>81006</v>
       </c>
-      <c r="O78" s="23">
+      <c r="P78" s="23">
         <v>8</v>
       </c>
-      <c r="P78" s="19" t="str">
+      <c r="Q78" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="81003" Name="MissionName81003" Background="Home_hallowmas__bg_03" Model="81003" NimIcon="" QuestId="20080" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect"&gt;
+        <v>&lt;Mission Id="81003" Name="MissionName81003" Background="Home_hallowmas__bg_03" Model="81003" NimIcon="" QuestId="20080" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="01NanGua"&gt;
   &lt;TreasureBox BoxId="81005" Height="3" /&gt;
   &lt;TreasureBox BoxId="81006" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q78" s="6"/>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78" s="6"/>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="51"/>
       <c r="B79" s="29">
         <v>81004</v>
@@ -18054,28 +18182,31 @@
       <c r="K79" s="23" t="s">
         <v>1251</v>
       </c>
-      <c r="L79" s="28">
+      <c r="L79" s="23" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M79" s="28">
         <v>81007</v>
       </c>
-      <c r="M79" s="23">
+      <c r="N79" s="23">
         <v>3</v>
       </c>
-      <c r="N79" s="28">
+      <c r="O79" s="28">
         <v>81008</v>
       </c>
-      <c r="O79" s="23">
+      <c r="P79" s="23">
         <v>8</v>
       </c>
-      <c r="P79" s="19" t="str">
+      <c r="Q79" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="81004" Name="MissionName81004" Background="Home_hallowmas__bg_04" Model="81004" NimIcon="" QuestId="20081" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect"&gt;
+        <v>&lt;Mission Id="81004" Name="MissionName81004" Background="Home_hallowmas__bg_04" Model="81004" NimIcon="" QuestId="20081" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="03ShouGu"&gt;
   &lt;TreasureBox BoxId="81007" Height="3" /&gt;
   &lt;TreasureBox BoxId="81008" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q79" s="6"/>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79" s="6"/>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="48"/>
       <c r="B80" s="29">
         <v>91001</v>
@@ -18102,28 +18233,29 @@
       </c>
       <c r="J80" s="50"/>
       <c r="K80" s="23"/>
-      <c r="L80" s="23">
+      <c r="L80" s="23"/>
+      <c r="M80" s="23">
         <v>91001</v>
       </c>
-      <c r="M80" s="23">
+      <c r="N80" s="23">
         <v>3</v>
       </c>
-      <c r="N80" s="23">
+      <c r="O80" s="23">
         <v>91002</v>
       </c>
-      <c r="O80" s="23">
+      <c r="P80" s="23">
         <v>8</v>
       </c>
-      <c r="P80" s="19" t="str">
+      <c r="Q80" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="91001" Name="MissionName91001" Background="Home_Backgrond_nationalday_01" Model="91001" NimIcon="" QuestId="20074" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound=""&gt;
+        <v>&lt;Mission Id="91001" Name="MissionName91001" Background="Home_Backgrond_nationalday_01" Model="91001" NimIcon="" QuestId="20074" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="91001" Height="3" /&gt;
   &lt;TreasureBox BoxId="91002" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q80" s="6"/>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80" s="6"/>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="48"/>
       <c r="B81" s="29">
         <v>91002</v>
@@ -18150,28 +18282,29 @@
       </c>
       <c r="J81" s="50"/>
       <c r="K81" s="23"/>
-      <c r="L81" s="23">
+      <c r="L81" s="23"/>
+      <c r="M81" s="23">
         <v>91003</v>
       </c>
-      <c r="M81" s="23">
+      <c r="N81" s="23">
         <v>3</v>
       </c>
-      <c r="N81" s="23">
+      <c r="O81" s="23">
         <v>91004</v>
       </c>
-      <c r="O81" s="23">
+      <c r="P81" s="23">
         <v>8</v>
       </c>
-      <c r="P81" s="19" t="str">
+      <c r="Q81" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="91002" Name="MissionName91002" Background="Home_Backgrond_nationalday_02" Model="91001" NimIcon="" QuestId="20075" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound=""&gt;
+        <v>&lt;Mission Id="91002" Name="MissionName91002" Background="Home_Backgrond_nationalday_02" Model="91001" NimIcon="" QuestId="20075" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="91003" Height="3" /&gt;
   &lt;TreasureBox BoxId="91004" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q81" s="6"/>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81" s="6"/>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="48"/>
       <c r="B82" s="29">
         <v>91003</v>
@@ -18198,28 +18331,29 @@
       </c>
       <c r="J82" s="50"/>
       <c r="K82" s="23"/>
-      <c r="L82" s="23">
+      <c r="L82" s="23"/>
+      <c r="M82" s="23">
         <v>91005</v>
       </c>
-      <c r="M82" s="23">
+      <c r="N82" s="23">
         <v>3</v>
       </c>
-      <c r="N82" s="23">
+      <c r="O82" s="23">
         <v>91006</v>
       </c>
-      <c r="O82" s="23">
+      <c r="P82" s="23">
         <v>8</v>
       </c>
-      <c r="P82" s="19" t="str">
+      <c r="Q82" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="91003" Name="MissionName91003" Background="Home_Backgrond_nationalday_03" Model="91001" NimIcon="" QuestId="20076" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound=""&gt;
+        <v>&lt;Mission Id="91003" Name="MissionName91003" Background="Home_Backgrond_nationalday_03" Model="91001" NimIcon="" QuestId="20076" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="91005" Height="3" /&gt;
   &lt;TreasureBox BoxId="91006" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q82" s="6"/>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82" s="6"/>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="48"/>
       <c r="B83" s="29">
         <v>91004</v>
@@ -18246,32 +18380,34 @@
       </c>
       <c r="J83" s="50"/>
       <c r="K83" s="23"/>
-      <c r="L83" s="23">
+      <c r="L83" s="23"/>
+      <c r="M83" s="23">
         <v>91007</v>
       </c>
-      <c r="M83" s="23">
+      <c r="N83" s="23">
         <v>3</v>
       </c>
-      <c r="N83" s="23">
+      <c r="O83" s="23">
         <v>91008</v>
       </c>
-      <c r="O83" s="23">
+      <c r="P83" s="23">
         <v>8</v>
       </c>
-      <c r="P83" s="19" t="str">
+      <c r="Q83" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="91004" Name="MissionName91004" Background="Home_Backgrond_nationalday_04" Model="91001" NimIcon="" QuestId="20077" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound=""&gt;
+        <v>&lt;Mission Id="91004" Name="MissionName91004" Background="Home_Backgrond_nationalday_04" Model="91001" NimIcon="" QuestId="20077" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop=""&gt;
   &lt;TreasureBox BoxId="91007" Height="3" /&gt;
   &lt;TreasureBox BoxId="91008" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CEFC2D-C89A-4477-A1F2-7C28539E513D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB689D9A-174C-4B62-9AF5-1D13A9FE7F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1264">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -4360,6 +4360,21 @@
   </si>
   <si>
     <t>03ShouGu</t>
+  </si>
+  <si>
+    <t>WaterDropAudio</t>
+  </si>
+  <si>
+    <t>water_drop_down_81001</t>
+  </si>
+  <si>
+    <t>water_drop_down_81002</t>
+  </si>
+  <si>
+    <t>water_drop_down_81003</t>
+  </si>
+  <si>
+    <t>water_drop_down_81004</t>
   </si>
 </sst>
 </file>
@@ -5016,7 +5031,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -5083,6 +5098,31 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5193,26 +5233,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{350DD965-7145-4FE0-968E-9354B018690E}" name="表1_32" displayName="表1_32" ref="B1:R83" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="B1:R83" xr:uid="{0B77F3DD-062A-4E4C-A15C-041DCCD5A7ED}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{DD576350-F6C3-4247-BE6B-60A6FD6B462B}" name="Id" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{A9F59448-DBE8-42AA-9B32-1837FDDF48C1}" name="Name" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{1FC0163F-5259-4E05-AFF0-BED91E970F98}" name="Background" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{F249A038-9C9D-4708-A15F-7FA2DCAF9FB8}" name="Model" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{4135BB11-9FA2-4698-9D67-F38E349A8646}" name="NimIcon" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{E90E6A1F-FF1A-4750-AB0D-06B98E08F3C0}" name="QuestId" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{7FA9661F-0DC1-4EE6-B39B-382A0F91C971}" name="dailyGoalPercent" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{48A3FCDD-4B73-443A-B6CA-5ED28CE56573}" name="AwardCoin" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{6ED05642-32A8-4B5F-80D3-DEC381F12E5C}" name="BGM" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{405BD5D5-2223-4CCF-816B-E63A5F7B6DAA}" name="Sound" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{2D382B9E-8C46-46CD-873E-F7DAD65B0878}" name="WaterDrop" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{350DD965-7145-4FE0-968E-9354B018690E}" name="表1_32" displayName="表1_32" ref="B1:S83" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="B1:S83" xr:uid="{0B77F3DD-062A-4E4C-A15C-041DCCD5A7ED}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{DD576350-F6C3-4247-BE6B-60A6FD6B462B}" name="Id" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{A9F59448-DBE8-42AA-9B32-1837FDDF48C1}" name="Name" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{1FC0163F-5259-4E05-AFF0-BED91E970F98}" name="Background" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{F249A038-9C9D-4708-A15F-7FA2DCAF9FB8}" name="Model" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{4135BB11-9FA2-4698-9D67-F38E349A8646}" name="NimIcon" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{E90E6A1F-FF1A-4750-AB0D-06B98E08F3C0}" name="QuestId" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{7FA9661F-0DC1-4EE6-B39B-382A0F91C971}" name="dailyGoalPercent" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{48A3FCDD-4B73-443A-B6CA-5ED28CE56573}" name="AwardCoin" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{6ED05642-32A8-4B5F-80D3-DEC381F12E5C}" name="BGM" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{405BD5D5-2223-4CCF-816B-E63A5F7B6DAA}" name="Sound" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{2D382B9E-8C46-46CD-873E-F7DAD65B0878}" name="WaterDrop" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{01B1F096-BE5F-4DDE-A798-CB09C8DB47AE}" name="WaterDropAudio" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{B58403D5-0D10-4080-9A09-301BD4343590}" name="Box1 ID" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{2A8B2276-0548-4865-81DE-E51BD0A4BAA3}" name="Box1 Height" dataDxfId="13"/>
     <tableColumn id="6" xr3:uid="{D72CBF8A-EF7B-4A77-8818-F73B1F9B80F3}" name="Box2 ID" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{2037A18C-DE67-4C7C-99DB-AE145B167B88}" name="Box2 Height" dataDxfId="11"/>
     <tableColumn id="12" xr3:uid="{AF0C121E-2C50-4B95-A8A6-F27A03F85102}" name="输出" dataDxfId="10">
-      <calculatedColumnFormula>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;M2&amp;""" Height="""&amp;N2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;O2&amp;""" Height="""&amp;P2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;""" WaterDropAudio="""&amp;M2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N2&amp;""" Height="""&amp;O2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P2&amp;""" Height="""&amp;Q2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{86C90460-AA5F-4AC5-8845-BD43940BD4BC}" name="输入" dataDxfId="9"/>
   </tableColumns>
@@ -13604,13 +13645,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A1297D-CA25-454C-8AB1-2D4EE96004F3}">
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13626,13 +13667,14 @@
     <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1"/>
       <c r="B1" s="13" t="s">
         <v>991</v>
@@ -13668,32 +13710,35 @@
         <v>1254</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>998</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>999</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>1000</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>1001</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="17"/>
       <c r="B2" s="18">
         <v>-10000</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19" t="str">
-        <f>MID(R2,FIND("Background=",R2)+12,FIND(""" Model=",R2)-FIND("Background=",R2)-12)</f>
+        <f>MID(S2,FIND("Background=",S2)+12,FIND(""" Model=",S2)-FIND("Background=",S2)-12)</f>
         <v>home_good night</v>
       </c>
       <c r="E2" s="18">
@@ -13704,19 +13749,17 @@
         <v>0</v>
       </c>
       <c r="H2" s="20" t="str">
-        <f>MID(R2,FIND("dailyGoalPercent=",R2)+18,FIND(""" AwardCoin=",R2)-FIND("dailyGoalPercent=",R2)-18)</f>
+        <f>MID(S2,FIND("dailyGoalPercent=",S2)+18,FIND(""" AwardCoin=",S2)-FIND("dailyGoalPercent=",S2)-18)</f>
         <v>1</v>
       </c>
       <c r="I2" s="20" t="str">
-        <f>MID(R2,FIND("AwardCoin=",R2)+11,FIND("""&gt;",R2)-FIND("AwardCoin=",R2)-11)</f>
+        <f>MID(S2,FIND("AwardCoin=",S2)+11,FIND("""&gt;",S2)-FIND("AwardCoin=",S2)-11)</f>
         <v>0</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
-      <c r="M2" s="19">
-        <v>0</v>
-      </c>
+      <c r="M2" s="19"/>
       <c r="N2" s="19">
         <v>0</v>
       </c>
@@ -13726,162 +13769,167 @@
       <c r="P2" s="19">
         <v>0</v>
       </c>
-      <c r="Q2" s="19" t="str">
-        <f>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;M2&amp;""" Height="""&amp;N2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;O2&amp;""" Height="""&amp;P2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="-10000" Name="" Background="home_good night" Model="0" NimIcon="" QuestId="0" dailyGoalPercent="1" AwardCoin="0" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="Q2" s="19">
+        <v>0</v>
+      </c>
+      <c r="R2" s="19" t="str">
+        <f>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;""" WaterDropAudio="""&amp;M2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N2&amp;""" Height="""&amp;O2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P2&amp;""" Height="""&amp;Q2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
+        <v>&lt;Mission Id="-10000" Name="" Background="home_good night" Model="0" NimIcon="" QuestId="0" dailyGoalPercent="1" AwardCoin="0" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="0" Height="0" /&gt;
   &lt;TreasureBox BoxId="0" Height="0" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="str">
-        <f>MID(R3,FIND("Id=",R3)+4,FIND(""" Name=",R3)-FIND("Id=",R3)-4)</f>
+        <f>MID(S3,FIND("Id=",S3)+4,FIND(""" Name=",S3)-FIND("Id=",S3)-4)</f>
         <v>11001</v>
       </c>
       <c r="C3" s="23" t="str">
-        <f>MID(R3,FIND("Name=",R3)+6,FIND(""" Background=",R3)-FIND("Name=",R3)-6)</f>
+        <f>MID(S3,FIND("Name=",S3)+6,FIND(""" Background=",S3)-FIND("Name=",S3)-6)</f>
         <v>MissionName11001</v>
       </c>
       <c r="D3" s="23" t="str">
-        <f>MID(R3,FIND("Background=",R3)+12,FIND(""" Model=",R3)-FIND("Background=",R3)-12)</f>
+        <f>MID(S3,FIND("Background=",S3)+12,FIND(""" Model=",S3)-FIND("Background=",S3)-12)</f>
         <v>Home_Backgrond_ocean brim (1)</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f>MID(R3,FIND("Model=",R3)+7,FIND(""" NimIcon=",R3)-FIND("Model=",R3)-7)</f>
+        <f>MID(S3,FIND("Model=",S3)+7,FIND(""" NimIcon=",S3)-FIND("Model=",S3)-7)</f>
         <v>11001</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>331</v>
       </c>
       <c r="G3" s="23" t="str">
-        <f>MID(R3,FIND("QuestId=",R3)+9,FIND(""" dailyGoalPercent=",R3)-FIND("QuestId=",R3)-9)</f>
+        <f>MID(S3,FIND("QuestId=",S3)+9,FIND(""" dailyGoalPercent=",S3)-FIND("QuestId=",S3)-9)</f>
         <v>20001</v>
       </c>
       <c r="H3" s="24" t="str">
-        <f>MID(R3,FIND("dailyGoalPercent=",R3)+18,FIND(""" AwardCoin=",R3)-FIND("dailyGoalPercent=",R3)-18)</f>
+        <f>MID(S3,FIND("dailyGoalPercent=",S3)+18,FIND(""" AwardCoin=",S3)-FIND("dailyGoalPercent=",S3)-18)</f>
         <v>0.33</v>
       </c>
       <c r="I3" s="24" t="str">
-        <f>MID(R3,FIND("AwardCoin=",R3)+11,FIND("""&gt;",R3)-FIND("AwardCoin=",R3)-11)</f>
+        <f>MID(S3,FIND("AwardCoin=",S3)+11,FIND("""&gt;",S3)-FIND("AwardCoin=",S3)-11)</f>
         <v>32</v>
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
-      <c r="M3" s="23">
+      <c r="M3" s="23"/>
+      <c r="N3" s="23">
         <v>10001</v>
       </c>
-      <c r="N3" s="23">
+      <c r="O3" s="23">
         <v>3</v>
       </c>
-      <c r="O3" s="23">
+      <c r="P3" s="23">
         <v>10002</v>
       </c>
-      <c r="P3" s="23">
+      <c r="Q3" s="23">
         <v>8</v>
       </c>
-      <c r="Q3" s="19" t="str">
-        <f t="shared" ref="Q3:Q66" si="0">IF(B3&lt;&gt;"","&lt;Mission Id="""&amp;B3&amp;""" Name="""&amp;C3&amp;""" Background="""&amp;D3&amp;""" Model="""&amp;E3&amp;""" NimIcon="""&amp;F3&amp;""" QuestId="""&amp;G3&amp;""" dailyGoalPercent="""&amp;H3&amp;""" AwardCoin="""&amp;I3&amp;""" BGM="""&amp;J3&amp;""" Sound="""&amp;K3&amp;""" WaterDrop="""&amp;L3&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;M3&amp;""" Height="""&amp;N3&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;O3&amp;""" Height="""&amp;P3&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="11001" Name="MissionName11001" Background="Home_Backgrond_ocean brim (1)" Model="11001" NimIcon="atom_icon0022" QuestId="20001" dailyGoalPercent="0.33" AwardCoin="32" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R3" s="19" t="str">
+        <f t="shared" ref="R3:R66" si="0">IF(B3&lt;&gt;"","&lt;Mission Id="""&amp;B3&amp;""" Name="""&amp;C3&amp;""" Background="""&amp;D3&amp;""" Model="""&amp;E3&amp;""" NimIcon="""&amp;F3&amp;""" QuestId="""&amp;G3&amp;""" dailyGoalPercent="""&amp;H3&amp;""" AwardCoin="""&amp;I3&amp;""" BGM="""&amp;J3&amp;""" Sound="""&amp;K3&amp;""" WaterDrop="""&amp;L3&amp;""" WaterDropAudio="""&amp;M3&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N3&amp;""" Height="""&amp;O3&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P3&amp;""" Height="""&amp;Q3&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
+        <v>&lt;Mission Id="11001" Name="MissionName11001" Background="Home_Backgrond_ocean brim (1)" Model="11001" NimIcon="atom_icon0022" QuestId="20001" dailyGoalPercent="0.33" AwardCoin="32" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10001" Height="3" /&gt;
   &lt;TreasureBox BoxId="10002" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="str">
-        <f>MID(R4,FIND("Id=",R4)+4,FIND(""" Name=",R4)-FIND("Id=",R4)-4)</f>
+        <f>MID(S4,FIND("Id=",S4)+4,FIND(""" Name=",S4)-FIND("Id=",S4)-4)</f>
         <v>11002</v>
       </c>
       <c r="C4" s="23" t="str">
-        <f>MID(R4,FIND("Name=",R4)+6,FIND(""" Background=",R4)-FIND("Name=",R4)-6)</f>
+        <f>MID(S4,FIND("Name=",S4)+6,FIND(""" Background=",S4)-FIND("Name=",S4)-6)</f>
         <v>MissionName11002</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f>MID(R4,FIND("Background=",R4)+12,FIND(""" Model=",R4)-FIND("Background=",R4)-12)</f>
+        <f>MID(S4,FIND("Background=",S4)+12,FIND(""" Model=",S4)-FIND("Background=",S4)-12)</f>
         <v>Home_Backgrond_ocean brim (2)</v>
       </c>
       <c r="E4" s="22" t="str">
-        <f>MID(R4,FIND("Model=",R4)+7,FIND(""" NimIcon=",R4)-FIND("Model=",R4)-7)</f>
+        <f>MID(S4,FIND("Model=",S4)+7,FIND(""" NimIcon=",S4)-FIND("Model=",S4)-7)</f>
         <v>11002</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>340</v>
       </c>
       <c r="G4" s="23" t="str">
-        <f>MID(R4,FIND("QuestId=",R4)+9,FIND(""" dailyGoalPercent=",R4)-FIND("QuestId=",R4)-9)</f>
+        <f>MID(S4,FIND("QuestId=",S4)+9,FIND(""" dailyGoalPercent=",S4)-FIND("QuestId=",S4)-9)</f>
         <v>20002</v>
       </c>
       <c r="H4" s="24" t="str">
-        <f>MID(R4,FIND("dailyGoalPercent=",R4)+18,FIND(""" AwardCoin=",R4)-FIND("dailyGoalPercent=",R4)-18)</f>
+        <f>MID(S4,FIND("dailyGoalPercent=",S4)+18,FIND(""" AwardCoin=",S4)-FIND("dailyGoalPercent=",S4)-18)</f>
         <v>0.33</v>
       </c>
       <c r="I4" s="24" t="str">
-        <f t="shared" ref="I4:I65" si="1">MID(R4,FIND("AwardCoin=",R4)+11,FIND("""&gt;",R4)-FIND("AwardCoin=",R4)-11)</f>
+        <f t="shared" ref="I4:I65" si="1">MID(S4,FIND("AwardCoin=",S4)+11,FIND("""&gt;",S4)-FIND("AwardCoin=",S4)-11)</f>
         <v>34</v>
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
-      <c r="M4" s="23">
+      <c r="M4" s="23"/>
+      <c r="N4" s="23">
         <v>10003</v>
       </c>
-      <c r="N4" s="23">
+      <c r="O4" s="23">
         <v>3</v>
       </c>
-      <c r="O4" s="23">
+      <c r="P4" s="23">
         <v>10004</v>
       </c>
-      <c r="P4" s="23">
+      <c r="Q4" s="23">
         <v>8</v>
       </c>
-      <c r="Q4" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11002" Name="MissionName11002" Background="Home_Backgrond_ocean brim (2)" Model="11002" NimIcon="atom_icon0023" QuestId="20002" dailyGoalPercent="0.33" AwardCoin="34" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11002" Name="MissionName11002" Background="Home_Backgrond_ocean brim (2)" Model="11002" NimIcon="atom_icon0023" QuestId="20002" dailyGoalPercent="0.33" AwardCoin="34" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10003" Height="3" /&gt;
   &lt;TreasureBox BoxId="10004" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="str">
-        <f t="shared" ref="B5:B68" si="2">MID(R5,FIND("Id=",R5)+4,FIND(""" Name=",R5)-FIND("Id=",R5)-4)</f>
+        <f t="shared" ref="B5:B68" si="2">MID(S5,FIND("Id=",S5)+4,FIND(""" Name=",S5)-FIND("Id=",S5)-4)</f>
         <v>11003</v>
       </c>
       <c r="C5" s="23" t="str">
-        <f t="shared" ref="C5:C68" si="3">MID(R5,FIND("Name=",R5)+6,FIND(""" Background=",R5)-FIND("Name=",R5)-6)</f>
+        <f t="shared" ref="C5:C68" si="3">MID(S5,FIND("Name=",S5)+6,FIND(""" Background=",S5)-FIND("Name=",S5)-6)</f>
         <v>MissionName11003</v>
       </c>
       <c r="D5" s="23" t="str">
-        <f t="shared" ref="D5:D68" si="4">MID(R5,FIND("Background=",R5)+12,FIND(""" Model=",R5)-FIND("Background=",R5)-12)</f>
+        <f t="shared" ref="D5:D68" si="4">MID(S5,FIND("Background=",S5)+12,FIND(""" Model=",S5)-FIND("Background=",S5)-12)</f>
         <v>Home_Backgrond_ocean brim (3)</v>
       </c>
       <c r="E5" s="22" t="str">
-        <f t="shared" ref="E5:E68" si="5">MID(R5,FIND("Model=",R5)+7,FIND(""" NimIcon=",R5)-FIND("Model=",R5)-7)</f>
+        <f t="shared" ref="E5:E68" si="5">MID(S5,FIND("Model=",S5)+7,FIND(""" NimIcon=",S5)-FIND("Model=",S5)-7)</f>
         <v>11003</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>342</v>
       </c>
       <c r="G5" s="23" t="str">
-        <f t="shared" ref="G5:G68" si="6">MID(R5,FIND("QuestId=",R5)+9,FIND(""" dailyGoalPercent=",R5)-FIND("QuestId=",R5)-9)</f>
+        <f t="shared" ref="G5:G68" si="6">MID(S5,FIND("QuestId=",S5)+9,FIND(""" dailyGoalPercent=",S5)-FIND("QuestId=",S5)-9)</f>
         <v>20003</v>
       </c>
       <c r="H5" s="24" t="str">
-        <f t="shared" ref="H5:H52" si="7">MID(R5,FIND("dailyGoalPercent=",R5)+18,FIND(""" AwardCoin=",R5)-FIND("dailyGoalPercent=",R5)-18)</f>
+        <f t="shared" ref="H5:H52" si="7">MID(S5,FIND("dailyGoalPercent=",S5)+18,FIND(""" AwardCoin=",S5)-FIND("dailyGoalPercent=",S5)-18)</f>
         <v>0.34</v>
       </c>
       <c r="I5" s="24" t="str">
@@ -13891,30 +13939,31 @@
       <c r="J5" s="24"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="M5" s="23">
+      <c r="M5" s="23"/>
+      <c r="N5" s="23">
         <v>10005</v>
       </c>
-      <c r="N5" s="23">
+      <c r="O5" s="23">
         <v>3</v>
       </c>
-      <c r="O5" s="23">
+      <c r="P5" s="23">
         <v>10006</v>
       </c>
-      <c r="P5" s="23">
+      <c r="Q5" s="23">
         <v>8</v>
       </c>
-      <c r="Q5" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11003" Name="MissionName11003" Background="Home_Backgrond_ocean brim (3)" Model="11003" NimIcon="atom_icon0024" QuestId="20003" dailyGoalPercent="0.34" AwardCoin="36" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R5" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11003" Name="MissionName11003" Background="Home_Backgrond_ocean brim (3)" Model="11003" NimIcon="atom_icon0024" QuestId="20003" dailyGoalPercent="0.34" AwardCoin="36" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10005" Height="3" /&gt;
   &lt;TreasureBox BoxId="10006" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="S5" s="11" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="str">
         <f t="shared" si="2"/>
@@ -13950,30 +13999,31 @@
       <c r="J6" s="24"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="23">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23">
         <v>10007</v>
       </c>
-      <c r="N6" s="23">
+      <c r="O6" s="23">
         <v>3</v>
       </c>
-      <c r="O6" s="23">
+      <c r="P6" s="23">
         <v>10008</v>
       </c>
-      <c r="P6" s="23">
+      <c r="Q6" s="23">
         <v>8</v>
       </c>
-      <c r="Q6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11004" Name="MissionName11004" Background="Home_Backgrond_ocean brim (4)" Model="11004" NimIcon="atom_icon0025" QuestId="20004" dailyGoalPercent="0.33" AwardCoin="38" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11004" Name="MissionName11004" Background="Home_Backgrond_ocean brim (4)" Model="11004" NimIcon="atom_icon0025" QuestId="20004" dailyGoalPercent="0.33" AwardCoin="38" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10007" Height="3" /&gt;
   &lt;TreasureBox BoxId="10008" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14009,30 +14059,31 @@
       <c r="J7" s="24"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="23">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23">
         <v>10009</v>
       </c>
-      <c r="N7" s="23">
+      <c r="O7" s="23">
         <v>3</v>
       </c>
-      <c r="O7" s="23">
+      <c r="P7" s="23">
         <v>10010</v>
       </c>
-      <c r="P7" s="23">
+      <c r="Q7" s="23">
         <v>8</v>
       </c>
-      <c r="Q7" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11005" Name="MissionName11005" Background="Home_Backgrond_ocean brim (5)" Model="11005" NimIcon="atom_icon0026" QuestId="20005" dailyGoalPercent="0.33" AwardCoin="40" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11005" Name="MissionName11005" Background="Home_Backgrond_ocean brim (5)" Model="11005" NimIcon="atom_icon0026" QuestId="20005" dailyGoalPercent="0.33" AwardCoin="40" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10009" Height="3" /&gt;
   &lt;TreasureBox BoxId="10010" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="S7" s="11" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14068,30 +14119,31 @@
       <c r="J8" s="24"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
-      <c r="M8" s="23">
+      <c r="M8" s="23"/>
+      <c r="N8" s="23">
         <v>10011</v>
       </c>
-      <c r="N8" s="23">
+      <c r="O8" s="23">
         <v>3</v>
       </c>
-      <c r="O8" s="23">
+      <c r="P8" s="23">
         <v>10012</v>
       </c>
-      <c r="P8" s="23">
+      <c r="Q8" s="23">
         <v>8</v>
       </c>
-      <c r="Q8" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11006" Name="MissionName11006" Background="Home_Backgrond_ocean brim (6)" Model="11006" NimIcon="atom_icon0027" QuestId="20006" dailyGoalPercent="0.34" AwardCoin="42" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11006" Name="MissionName11006" Background="Home_Backgrond_ocean brim (6)" Model="11006" NimIcon="atom_icon0027" QuestId="20006" dailyGoalPercent="0.34" AwardCoin="42" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10011" Height="3" /&gt;
   &lt;TreasureBox BoxId="10012" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="S8" s="11" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14127,30 +14179,31 @@
       <c r="J9" s="24"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
-      <c r="M9" s="23">
+      <c r="M9" s="23"/>
+      <c r="N9" s="23">
         <v>10013</v>
       </c>
-      <c r="N9" s="23">
+      <c r="O9" s="23">
         <v>3</v>
       </c>
-      <c r="O9" s="23">
+      <c r="P9" s="23">
         <v>10014</v>
       </c>
-      <c r="P9" s="23">
+      <c r="Q9" s="23">
         <v>8</v>
       </c>
-      <c r="Q9" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11007" Name="MissionName11007" Background="Home_Backgrond_ocean brim (7)" Model="11007" NimIcon="atom_icon0028" QuestId="20007" dailyGoalPercent="0.33" AwardCoin="44" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11007" Name="MissionName11007" Background="Home_Backgrond_ocean brim (7)" Model="11007" NimIcon="atom_icon0028" QuestId="20007" dailyGoalPercent="0.33" AwardCoin="44" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10013" Height="3" /&gt;
   &lt;TreasureBox BoxId="10014" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="21"/>
       <c r="B10" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14186,30 +14239,31 @@
       <c r="J10" s="24"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="23">
+      <c r="M10" s="23"/>
+      <c r="N10" s="23">
         <v>10015</v>
       </c>
-      <c r="N10" s="23">
+      <c r="O10" s="23">
         <v>3</v>
       </c>
-      <c r="O10" s="23">
+      <c r="P10" s="23">
         <v>10016</v>
       </c>
-      <c r="P10" s="23">
+      <c r="Q10" s="23">
         <v>8</v>
       </c>
-      <c r="Q10" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11008" Name="MissionName11008" Background="Home_Backgrond_ocean brim (8)" Model="11008" NimIcon="atom_icon0029" QuestId="20008" dailyGoalPercent="0.33" AwardCoin="46" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11008" Name="MissionName11008" Background="Home_Backgrond_ocean brim (8)" Model="11008" NimIcon="atom_icon0029" QuestId="20008" dailyGoalPercent="0.33" AwardCoin="46" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10015" Height="3" /&gt;
   &lt;TreasureBox BoxId="10016" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="S10" s="11" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14245,30 +14299,31 @@
       <c r="J11" s="24"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
-      <c r="M11" s="23">
+      <c r="M11" s="23"/>
+      <c r="N11" s="23">
         <v>10017</v>
       </c>
-      <c r="N11" s="23">
+      <c r="O11" s="23">
         <v>3</v>
       </c>
-      <c r="O11" s="23">
+      <c r="P11" s="23">
         <v>10018</v>
       </c>
-      <c r="P11" s="23">
+      <c r="Q11" s="23">
         <v>8</v>
       </c>
-      <c r="Q11" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11009" Name="MissionName11009" Background="Home_Backgrond_ocean brim (9)" Model="11009" NimIcon="atom_icon0030" QuestId="20009" dailyGoalPercent="0.34" AwardCoin="48" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11009" Name="MissionName11009" Background="Home_Backgrond_ocean brim (9)" Model="11009" NimIcon="atom_icon0030" QuestId="20009" dailyGoalPercent="0.34" AwardCoin="48" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10017" Height="3" /&gt;
   &lt;TreasureBox BoxId="10018" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="S11" s="11" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="21"/>
       <c r="B12" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14304,30 +14359,31 @@
       <c r="J12" s="24"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="23">
+      <c r="M12" s="23"/>
+      <c r="N12" s="23">
         <v>10019</v>
       </c>
-      <c r="N12" s="23">
+      <c r="O12" s="23">
         <v>3</v>
       </c>
-      <c r="O12" s="23">
+      <c r="P12" s="23">
         <v>10020</v>
       </c>
-      <c r="P12" s="23">
+      <c r="Q12" s="23">
         <v>8</v>
       </c>
-      <c r="Q12" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11010" Name="MissionName11010" Background="Home_Backgrond_ocean brim (10)" Model="11010" NimIcon="atom_icon0031" QuestId="20010" dailyGoalPercent="0.35" AwardCoin="50" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11010" Name="MissionName11010" Background="Home_Backgrond_ocean brim (10)" Model="11010" NimIcon="atom_icon0031" QuestId="20010" dailyGoalPercent="0.35" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10019" Height="3" /&gt;
   &lt;TreasureBox BoxId="10020" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="S12" s="11" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="21"/>
       <c r="B13" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14363,30 +14419,31 @@
       <c r="J13" s="24"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="23">
+      <c r="M13" s="23"/>
+      <c r="N13" s="23">
         <v>10021</v>
       </c>
-      <c r="N13" s="23">
+      <c r="O13" s="23">
         <v>3</v>
       </c>
-      <c r="O13" s="23">
+      <c r="P13" s="23">
         <v>10022</v>
       </c>
-      <c r="P13" s="23">
+      <c r="Q13" s="23">
         <v>8</v>
       </c>
-      <c r="Q13" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11011" Name="MissionName11011" Background="Home_Backgrond_ocean brim (11)" Model="11011" NimIcon="atom_icon0032" QuestId="20011" dailyGoalPercent="0.38" AwardCoin="52" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11011" Name="MissionName11011" Background="Home_Backgrond_ocean brim (11)" Model="11011" NimIcon="atom_icon0032" QuestId="20011" dailyGoalPercent="0.38" AwardCoin="52" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10021" Height="3" /&gt;
   &lt;TreasureBox BoxId="10022" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="S13" s="11" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="21"/>
       <c r="B14" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14422,30 +14479,31 @@
       <c r="J14" s="24"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="23">
+      <c r="M14" s="23"/>
+      <c r="N14" s="23">
         <v>10023</v>
       </c>
-      <c r="N14" s="23">
+      <c r="O14" s="23">
         <v>3</v>
       </c>
-      <c r="O14" s="23">
+      <c r="P14" s="23">
         <v>10024</v>
       </c>
-      <c r="P14" s="23">
+      <c r="Q14" s="23">
         <v>8</v>
       </c>
-      <c r="Q14" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11012" Name="MissionName11012" Background="Home_Backgrond_ocean brim (12)" Model="11012" NimIcon="atom_icon0033" QuestId="20012" dailyGoalPercent="0.42" AwardCoin="54" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11012" Name="MissionName11012" Background="Home_Backgrond_ocean brim (12)" Model="11012" NimIcon="atom_icon0033" QuestId="20012" dailyGoalPercent="0.42" AwardCoin="54" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10023" Height="3" /&gt;
   &lt;TreasureBox BoxId="10024" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="S14" s="11" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14481,30 +14539,31 @@
       <c r="J15" s="24"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="23">
+      <c r="M15" s="23"/>
+      <c r="N15" s="23">
         <v>10025</v>
       </c>
-      <c r="N15" s="23">
+      <c r="O15" s="23">
         <v>3</v>
       </c>
-      <c r="O15" s="23">
+      <c r="P15" s="23">
         <v>10026</v>
       </c>
-      <c r="P15" s="23">
+      <c r="Q15" s="23">
         <v>8</v>
       </c>
-      <c r="Q15" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11013" Name="MissionName11013" Background="Home_Backgrond_ocean brim (13)" Model="11013" NimIcon="atom_icon0034" QuestId="20013" dailyGoalPercent="0.44" AwardCoin="56" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11013" Name="MissionName11013" Background="Home_Backgrond_ocean brim (13)" Model="11013" NimIcon="atom_icon0034" QuestId="20013" dailyGoalPercent="0.44" AwardCoin="56" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10025" Height="3" /&gt;
   &lt;TreasureBox BoxId="10026" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="11" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14540,30 +14599,31 @@
       <c r="J16" s="24"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="23">
+      <c r="M16" s="23"/>
+      <c r="N16" s="23">
         <v>10027</v>
       </c>
-      <c r="N16" s="23">
+      <c r="O16" s="23">
         <v>3</v>
       </c>
-      <c r="O16" s="23">
+      <c r="P16" s="23">
         <v>10028</v>
       </c>
-      <c r="P16" s="23">
+      <c r="Q16" s="23">
         <v>8</v>
       </c>
-      <c r="Q16" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11014" Name="MissionName11014" Background="Home_Backgrond_ocean brim (14)" Model="11014" NimIcon="atom_icon0035" QuestId="20014" dailyGoalPercent="0.46" AwardCoin="58" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11014" Name="MissionName11014" Background="Home_Backgrond_ocean brim (14)" Model="11014" NimIcon="atom_icon0035" QuestId="20014" dailyGoalPercent="0.46" AwardCoin="58" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10027" Height="3" /&gt;
   &lt;TreasureBox BoxId="10028" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="11" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14599,30 +14659,31 @@
       <c r="J17" s="24"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="23">
+      <c r="M17" s="23"/>
+      <c r="N17" s="23">
         <v>10029</v>
       </c>
-      <c r="N17" s="23">
+      <c r="O17" s="23">
         <v>3</v>
       </c>
-      <c r="O17" s="23">
+      <c r="P17" s="23">
         <v>10030</v>
       </c>
-      <c r="P17" s="23">
+      <c r="Q17" s="23">
         <v>8</v>
       </c>
-      <c r="Q17" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11015" Name="MissionName11015" Background="Home_Backgrond_ocean brim (15)" Model="11015" NimIcon="atom_icon0036" QuestId="20015" dailyGoalPercent="0.48" AwardCoin="60" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11015" Name="MissionName11015" Background="Home_Backgrond_ocean brim (15)" Model="11015" NimIcon="atom_icon0036" QuestId="20015" dailyGoalPercent="0.48" AwardCoin="60" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10029" Height="3" /&gt;
   &lt;TreasureBox BoxId="10030" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="S17" s="11" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14658,30 +14719,31 @@
       <c r="J18" s="24"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="23">
+      <c r="M18" s="23"/>
+      <c r="N18" s="23">
         <v>10031</v>
       </c>
-      <c r="N18" s="23">
+      <c r="O18" s="23">
         <v>3</v>
       </c>
-      <c r="O18" s="23">
+      <c r="P18" s="23">
         <v>10032</v>
       </c>
-      <c r="P18" s="23">
+      <c r="Q18" s="23">
         <v>8</v>
       </c>
-      <c r="Q18" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11016" Name="MissionName11016" Background="Home_Backgrond_ocean brim (16)" Model="11016" NimIcon="atom_icon0037" QuestId="20016" dailyGoalPercent="0.5" AwardCoin="62" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11016" Name="MissionName11016" Background="Home_Backgrond_ocean brim (16)" Model="11016" NimIcon="atom_icon0037" QuestId="20016" dailyGoalPercent="0.5" AwardCoin="62" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10031" Height="3" /&gt;
   &lt;TreasureBox BoxId="10032" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="11" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14717,30 +14779,31 @@
       <c r="J19" s="24"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="23">
+      <c r="M19" s="23"/>
+      <c r="N19" s="23">
         <v>10033</v>
       </c>
-      <c r="N19" s="23">
+      <c r="O19" s="23">
         <v>3</v>
       </c>
-      <c r="O19" s="23">
+      <c r="P19" s="23">
         <v>10034</v>
       </c>
-      <c r="P19" s="23">
+      <c r="Q19" s="23">
         <v>8</v>
       </c>
-      <c r="Q19" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11017" Name="MissionName11017" Background="Home_Backgrond_ocean brim (17)" Model="11017" NimIcon="atom_icon0038" QuestId="20017" dailyGoalPercent="0.5" AwardCoin="64" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11017" Name="MissionName11017" Background="Home_Backgrond_ocean brim (17)" Model="11017" NimIcon="atom_icon0038" QuestId="20017" dailyGoalPercent="0.5" AwardCoin="64" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10033" Height="3" /&gt;
   &lt;TreasureBox BoxId="10034" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="S19" s="11" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" s="21"/>
       <c r="B20" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14776,30 +14839,31 @@
       <c r="J20" s="24"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
-      <c r="M20" s="23">
+      <c r="M20" s="23"/>
+      <c r="N20" s="23">
         <v>10035</v>
       </c>
-      <c r="N20" s="23">
+      <c r="O20" s="23">
         <v>3</v>
       </c>
-      <c r="O20" s="23">
+      <c r="P20" s="23">
         <v>10036</v>
       </c>
-      <c r="P20" s="23">
+      <c r="Q20" s="23">
         <v>8</v>
       </c>
-      <c r="Q20" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11018" Name="MissionName11018" Background="Home_Backgrond_ocean brim (18)" Model="11018" NimIcon="atom_icon0039" QuestId="20018" dailyGoalPercent="0.5" AwardCoin="66" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R20" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11018" Name="MissionName11018" Background="Home_Backgrond_ocean brim (18)" Model="11018" NimIcon="atom_icon0039" QuestId="20018" dailyGoalPercent="0.5" AwardCoin="66" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10035" Height="3" /&gt;
   &lt;TreasureBox BoxId="10036" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="S20" s="11" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" s="21"/>
       <c r="B21" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14835,30 +14899,31 @@
       <c r="J21" s="24"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
-      <c r="M21" s="23">
+      <c r="M21" s="23"/>
+      <c r="N21" s="23">
         <v>10037</v>
       </c>
-      <c r="N21" s="23">
+      <c r="O21" s="23">
         <v>3</v>
       </c>
-      <c r="O21" s="23">
+      <c r="P21" s="23">
         <v>10038</v>
       </c>
-      <c r="P21" s="23">
+      <c r="Q21" s="23">
         <v>8</v>
       </c>
-      <c r="Q21" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11019" Name="MissionName11019" Background="Home_Backgrond_ocean brim (19)" Model="11019" NimIcon="atom_icon0040" QuestId="20019" dailyGoalPercent="0.5" AwardCoin="68" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R21" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11019" Name="MissionName11019" Background="Home_Backgrond_ocean brim (19)" Model="11019" NimIcon="atom_icon0040" QuestId="20019" dailyGoalPercent="0.5" AwardCoin="68" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10037" Height="3" /&gt;
   &lt;TreasureBox BoxId="10038" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="S21" s="11" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19">
       <c r="A22" s="21"/>
       <c r="B22" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14894,30 +14959,31 @@
       <c r="J22" s="24"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
-      <c r="M22" s="23">
+      <c r="M22" s="23"/>
+      <c r="N22" s="23">
         <v>10039</v>
       </c>
-      <c r="N22" s="23">
+      <c r="O22" s="23">
         <v>3</v>
       </c>
-      <c r="O22" s="23">
+      <c r="P22" s="23">
         <v>10040</v>
       </c>
-      <c r="P22" s="23">
+      <c r="Q22" s="23">
         <v>8</v>
       </c>
-      <c r="Q22" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11020" Name="MissionName11020" Background="Home_Backgrond_ocean brim (20)" Model="11020" NimIcon="atom_icon0041" QuestId="20020" dailyGoalPercent="0.5" AwardCoin="70" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R22" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11020" Name="MissionName11020" Background="Home_Backgrond_ocean brim (20)" Model="11020" NimIcon="atom_icon0041" QuestId="20020" dailyGoalPercent="0.5" AwardCoin="70" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10039" Height="3" /&gt;
   &lt;TreasureBox BoxId="10040" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="S22" s="11" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:19">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="str">
         <f t="shared" si="2"/>
@@ -14952,30 +15018,31 @@
       <c r="J23" s="24"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
-      <c r="M23" s="23">
+      <c r="M23" s="23"/>
+      <c r="N23" s="23">
         <v>10041</v>
       </c>
-      <c r="N23" s="23">
+      <c r="O23" s="23">
         <v>3</v>
       </c>
-      <c r="O23" s="23">
+      <c r="P23" s="23">
         <v>10042</v>
       </c>
-      <c r="P23" s="23">
+      <c r="Q23" s="23">
         <v>8</v>
       </c>
-      <c r="Q23" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="11021" Name="MissionName11021" Background="Home_Backgrond_ocean brim (21)" Model="11021" NimIcon="atom_icon0042" QuestId="20021" dailyGoalPercent="0.52" AwardCoin="72" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R23" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="11021" Name="MissionName11021" Background="Home_Backgrond_ocean brim (21)" Model="11021" NimIcon="atom_icon0042" QuestId="20021" dailyGoalPercent="0.52" AwardCoin="72" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10041" Height="3" /&gt;
   &lt;TreasureBox BoxId="10042" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="S23" s="11" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:19">
       <c r="A24" s="25"/>
       <c r="B24" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15010,30 +15077,31 @@
       <c r="J24" s="24"/>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
-      <c r="M24" s="23">
+      <c r="M24" s="23"/>
+      <c r="N24" s="23">
         <v>10043</v>
       </c>
-      <c r="N24" s="23">
+      <c r="O24" s="23">
         <v>3</v>
       </c>
-      <c r="O24" s="23">
+      <c r="P24" s="23">
         <v>10044</v>
       </c>
-      <c r="P24" s="23">
+      <c r="Q24" s="23">
         <v>8</v>
       </c>
-      <c r="Q24" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12001" Name="MissionName12001" Background="Home_Backgrond_wonder woods (1)" Model="12001" NimIcon="atom_icon0064" QuestId="20022" dailyGoalPercent="0.52" AwardCoin="74" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R24" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12001" Name="MissionName12001" Background="Home_Backgrond_wonder woods (1)" Model="12001" NimIcon="atom_icon0064" QuestId="20022" dailyGoalPercent="0.52" AwardCoin="74" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10043" Height="3" /&gt;
   &lt;TreasureBox BoxId="10044" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="S24" s="11" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:19">
       <c r="A25" s="25"/>
       <c r="B25" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15068,30 +15136,31 @@
       <c r="J25" s="24"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
-      <c r="M25" s="23">
+      <c r="M25" s="23"/>
+      <c r="N25" s="23">
         <v>10045</v>
       </c>
-      <c r="N25" s="23">
+      <c r="O25" s="23">
         <v>3</v>
       </c>
-      <c r="O25" s="23">
+      <c r="P25" s="23">
         <v>10046</v>
       </c>
-      <c r="P25" s="23">
+      <c r="Q25" s="23">
         <v>8</v>
       </c>
-      <c r="Q25" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12002" Name="MissionName12002" Background="Home_Backgrond_wonder woods (2)" Model="12002" NimIcon="atom_icon0065" QuestId="20023" dailyGoalPercent="0.55" AwardCoin="76" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R25" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12002" Name="MissionName12002" Background="Home_Backgrond_wonder woods (2)" Model="12002" NimIcon="atom_icon0065" QuestId="20023" dailyGoalPercent="0.55" AwardCoin="76" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10045" Height="3" /&gt;
   &lt;TreasureBox BoxId="10046" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="S25" s="11" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:19">
       <c r="A26" s="25"/>
       <c r="B26" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15126,30 +15195,31 @@
       <c r="J26" s="24"/>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
-      <c r="M26" s="23">
+      <c r="M26" s="23"/>
+      <c r="N26" s="23">
         <v>10047</v>
       </c>
-      <c r="N26" s="23">
+      <c r="O26" s="23">
         <v>3</v>
       </c>
-      <c r="O26" s="23">
+      <c r="P26" s="23">
         <v>10048</v>
       </c>
-      <c r="P26" s="23">
+      <c r="Q26" s="23">
         <v>8</v>
       </c>
-      <c r="Q26" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12003" Name="MissionName12003" Background="Home_Backgrond_wonder woods (3)" Model="12003" NimIcon="atom_icon0066" QuestId="20024" dailyGoalPercent="0.55" AwardCoin="78" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R26" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12003" Name="MissionName12003" Background="Home_Backgrond_wonder woods (3)" Model="12003" NimIcon="atom_icon0066" QuestId="20024" dailyGoalPercent="0.55" AwardCoin="78" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10047" Height="3" /&gt;
   &lt;TreasureBox BoxId="10048" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="S26" s="11" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:19">
       <c r="A27" s="25"/>
       <c r="B27" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15184,30 +15254,31 @@
       <c r="J27" s="24"/>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
-      <c r="M27" s="23">
+      <c r="M27" s="23"/>
+      <c r="N27" s="23">
         <v>10049</v>
       </c>
-      <c r="N27" s="23">
+      <c r="O27" s="23">
         <v>3</v>
       </c>
-      <c r="O27" s="23">
+      <c r="P27" s="23">
         <v>10050</v>
       </c>
-      <c r="P27" s="23">
+      <c r="Q27" s="23">
         <v>8</v>
       </c>
-      <c r="Q27" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12004" Name="MissionName12004" Background="Home_Backgrond_wonder woods (4)" Model="12004" NimIcon="atom_icon0067" QuestId="20025" dailyGoalPercent="0.58" AwardCoin="80" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R27" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12004" Name="MissionName12004" Background="Home_Backgrond_wonder woods (4)" Model="12004" NimIcon="atom_icon0067" QuestId="20025" dailyGoalPercent="0.58" AwardCoin="80" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10049" Height="3" /&gt;
   &lt;TreasureBox BoxId="10050" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="S27" s="11" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:19">
       <c r="A28" s="25"/>
       <c r="B28" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15242,30 +15313,31 @@
       <c r="J28" s="24"/>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
-      <c r="M28" s="23">
+      <c r="M28" s="23"/>
+      <c r="N28" s="23">
         <v>10051</v>
       </c>
-      <c r="N28" s="23">
+      <c r="O28" s="23">
         <v>3</v>
       </c>
-      <c r="O28" s="23">
+      <c r="P28" s="23">
         <v>10052</v>
       </c>
-      <c r="P28" s="23">
+      <c r="Q28" s="23">
         <v>8</v>
       </c>
-      <c r="Q28" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12005" Name="MissionName12005" Background="Home_Backgrond_wonder woods (5)" Model="12005" NimIcon="atom_icon0068" QuestId="20026" dailyGoalPercent="0.58" AwardCoin="82" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R28" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12005" Name="MissionName12005" Background="Home_Backgrond_wonder woods (5)" Model="12005" NimIcon="atom_icon0068" QuestId="20026" dailyGoalPercent="0.58" AwardCoin="82" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10051" Height="3" /&gt;
   &lt;TreasureBox BoxId="10052" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="S28" s="11" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:19">
       <c r="A29" s="25"/>
       <c r="B29" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15300,30 +15372,31 @@
       <c r="J29" s="24"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
-      <c r="M29" s="23">
+      <c r="M29" s="23"/>
+      <c r="N29" s="23">
         <v>10053</v>
       </c>
-      <c r="N29" s="23">
+      <c r="O29" s="23">
         <v>3</v>
       </c>
-      <c r="O29" s="23">
+      <c r="P29" s="23">
         <v>10054</v>
       </c>
-      <c r="P29" s="23">
+      <c r="Q29" s="23">
         <v>8</v>
       </c>
-      <c r="Q29" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12006" Name="MissionName12006" Background="Home_Backgrond_wonder woods (6)" Model="12006" NimIcon="atom_icon0069" QuestId="20027" dailyGoalPercent="0.62" AwardCoin="84" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R29" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12006" Name="MissionName12006" Background="Home_Backgrond_wonder woods (6)" Model="12006" NimIcon="atom_icon0069" QuestId="20027" dailyGoalPercent="0.62" AwardCoin="84" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10053" Height="3" /&gt;
   &lt;TreasureBox BoxId="10054" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="S29" s="11" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:19">
       <c r="A30" s="25"/>
       <c r="B30" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15358,30 +15431,31 @@
       <c r="J30" s="24"/>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
-      <c r="M30" s="23">
+      <c r="M30" s="23"/>
+      <c r="N30" s="23">
         <v>10055</v>
       </c>
-      <c r="N30" s="23">
+      <c r="O30" s="23">
         <v>3</v>
       </c>
-      <c r="O30" s="23">
+      <c r="P30" s="23">
         <v>10056</v>
       </c>
-      <c r="P30" s="23">
+      <c r="Q30" s="23">
         <v>8</v>
       </c>
-      <c r="Q30" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12007" Name="MissionName12007" Background="Home_Backgrond_wonder woods (7)" Model="12007" NimIcon="atom_icon0070" QuestId="20028" dailyGoalPercent="0.62" AwardCoin="86" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R30" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12007" Name="MissionName12007" Background="Home_Backgrond_wonder woods (7)" Model="12007" NimIcon="atom_icon0070" QuestId="20028" dailyGoalPercent="0.62" AwardCoin="86" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10055" Height="3" /&gt;
   &lt;TreasureBox BoxId="10056" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="S30" s="11" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:19">
       <c r="A31" s="25"/>
       <c r="B31" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15417,30 +15491,31 @@
       <c r="J31" s="24"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
-      <c r="M31" s="23">
+      <c r="M31" s="23"/>
+      <c r="N31" s="23">
         <v>10057</v>
       </c>
-      <c r="N31" s="23">
+      <c r="O31" s="23">
         <v>3</v>
       </c>
-      <c r="O31" s="23">
+      <c r="P31" s="23">
         <v>10058</v>
       </c>
-      <c r="P31" s="23">
+      <c r="Q31" s="23">
         <v>8</v>
       </c>
-      <c r="Q31" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12008" Name="MissionName12008" Background="Home_Backgrond_wonder woods (8)" Model="12008" NimIcon="atom_icon0071" QuestId="20029" dailyGoalPercent="0.65" AwardCoin="88" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R31" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12008" Name="MissionName12008" Background="Home_Backgrond_wonder woods (8)" Model="12008" NimIcon="atom_icon0071" QuestId="20029" dailyGoalPercent="0.65" AwardCoin="88" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10057" Height="3" /&gt;
   &lt;TreasureBox BoxId="10058" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="S31" s="11" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:19">
       <c r="A32" s="25"/>
       <c r="B32" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15475,30 +15550,31 @@
       <c r="J32" s="24"/>
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
-      <c r="M32" s="23">
+      <c r="M32" s="23"/>
+      <c r="N32" s="23">
         <v>10059</v>
       </c>
-      <c r="N32" s="23">
+      <c r="O32" s="23">
         <v>3</v>
       </c>
-      <c r="O32" s="23">
+      <c r="P32" s="23">
         <v>10060</v>
       </c>
-      <c r="P32" s="23">
+      <c r="Q32" s="23">
         <v>8</v>
       </c>
-      <c r="Q32" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12009" Name="MissionName12009" Background="Home_Backgrond_wonder woods (9)" Model="12009" NimIcon="atom_icon0072" QuestId="20030" dailyGoalPercent="0.65" AwardCoin="90" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R32" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12009" Name="MissionName12009" Background="Home_Backgrond_wonder woods (9)" Model="12009" NimIcon="atom_icon0072" QuestId="20030" dailyGoalPercent="0.65" AwardCoin="90" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10059" Height="3" /&gt;
   &lt;TreasureBox BoxId="10060" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="S32" s="11" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:19">
       <c r="A33" s="25"/>
       <c r="B33" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15533,30 +15609,31 @@
       <c r="J33" s="24"/>
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
-      <c r="M33" s="23">
+      <c r="M33" s="23"/>
+      <c r="N33" s="23">
         <v>10061</v>
       </c>
-      <c r="N33" s="23">
+      <c r="O33" s="23">
         <v>3</v>
       </c>
-      <c r="O33" s="23">
+      <c r="P33" s="23">
         <v>10062</v>
       </c>
-      <c r="P33" s="23">
+      <c r="Q33" s="23">
         <v>8</v>
       </c>
-      <c r="Q33" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12010" Name="MissionName12010" Background="Home_Backgrond_wonder woods (10)" Model="12010" NimIcon="atom_icon0073" QuestId="20031" dailyGoalPercent="0.7" AwardCoin="92" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12010" Name="MissionName12010" Background="Home_Backgrond_wonder woods (10)" Model="12010" NimIcon="atom_icon0073" QuestId="20031" dailyGoalPercent="0.7" AwardCoin="92" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10061" Height="3" /&gt;
   &lt;TreasureBox BoxId="10062" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R33" s="11" t="s">
+      <c r="S33" s="11" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:19">
       <c r="A34" s="25"/>
       <c r="B34" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15591,30 +15668,31 @@
       <c r="J34" s="24"/>
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
-      <c r="M34" s="23">
+      <c r="M34" s="23"/>
+      <c r="N34" s="23">
         <v>10063</v>
       </c>
-      <c r="N34" s="23">
+      <c r="O34" s="23">
         <v>3</v>
       </c>
-      <c r="O34" s="23">
+      <c r="P34" s="23">
         <v>10064</v>
       </c>
-      <c r="P34" s="23">
+      <c r="Q34" s="23">
         <v>8</v>
       </c>
-      <c r="Q34" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12011" Name="MissionName12011" Background="Home_Backgrond_wonder woods (11)" Model="12011" NimIcon="atom_icon0074" QuestId="20032" dailyGoalPercent="0.7" AwardCoin="94" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R34" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12011" Name="MissionName12011" Background="Home_Backgrond_wonder woods (11)" Model="12011" NimIcon="atom_icon0074" QuestId="20032" dailyGoalPercent="0.7" AwardCoin="94" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10063" Height="3" /&gt;
   &lt;TreasureBox BoxId="10064" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="S34" s="11" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:19">
       <c r="A35" s="25"/>
       <c r="B35" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15649,30 +15727,31 @@
       <c r="J35" s="24"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
-      <c r="M35" s="23">
+      <c r="M35" s="23"/>
+      <c r="N35" s="23">
         <v>10065</v>
       </c>
-      <c r="N35" s="23">
+      <c r="O35" s="23">
         <v>3</v>
       </c>
-      <c r="O35" s="23">
+      <c r="P35" s="23">
         <v>10066</v>
       </c>
-      <c r="P35" s="23">
+      <c r="Q35" s="23">
         <v>8</v>
       </c>
-      <c r="Q35" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12012" Name="MissionName12012" Background="Home_Backgrond_wonder woods (12)" Model="12012" NimIcon="atom_icon0075" QuestId="20033" dailyGoalPercent="0.7" AwardCoin="96" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R35" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12012" Name="MissionName12012" Background="Home_Backgrond_wonder woods (12)" Model="12012" NimIcon="atom_icon0075" QuestId="20033" dailyGoalPercent="0.7" AwardCoin="96" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10065" Height="3" /&gt;
   &lt;TreasureBox BoxId="10066" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="S35" s="11" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:19">
       <c r="A36" s="25"/>
       <c r="B36" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15707,30 +15786,31 @@
       <c r="J36" s="24"/>
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
-      <c r="M36" s="23">
+      <c r="M36" s="23"/>
+      <c r="N36" s="23">
         <v>10067</v>
       </c>
-      <c r="N36" s="23">
+      <c r="O36" s="23">
         <v>3</v>
       </c>
-      <c r="O36" s="23">
+      <c r="P36" s="23">
         <v>10068</v>
       </c>
-      <c r="P36" s="23">
+      <c r="Q36" s="23">
         <v>8</v>
       </c>
-      <c r="Q36" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12013" Name="MissionName12013" Background="Home_Backgrond_wonder woods (13)" Model="12013" NimIcon="atom_icon0076" QuestId="20034" dailyGoalPercent="0.75" AwardCoin="98" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R36" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12013" Name="MissionName12013" Background="Home_Backgrond_wonder woods (13)" Model="12013" NimIcon="atom_icon0076" QuestId="20034" dailyGoalPercent="0.75" AwardCoin="98" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10067" Height="3" /&gt;
   &lt;TreasureBox BoxId="10068" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R36" s="11" t="s">
+      <c r="S36" s="11" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:19">
       <c r="A37" s="25"/>
       <c r="B37" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15765,30 +15845,31 @@
       <c r="J37" s="24"/>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
-      <c r="M37" s="23">
+      <c r="M37" s="23"/>
+      <c r="N37" s="23">
         <v>10069</v>
       </c>
-      <c r="N37" s="23">
+      <c r="O37" s="23">
         <v>3</v>
       </c>
-      <c r="O37" s="23">
+      <c r="P37" s="23">
         <v>10070</v>
       </c>
-      <c r="P37" s="23">
+      <c r="Q37" s="23">
         <v>8</v>
       </c>
-      <c r="Q37" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12014" Name="MissionName12014" Background="Home_Backgrond_wonder woods (14)" Model="12014" NimIcon="atom_icon0077" QuestId="20035" dailyGoalPercent="0.75" AwardCoin="100" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R37" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12014" Name="MissionName12014" Background="Home_Backgrond_wonder woods (14)" Model="12014" NimIcon="atom_icon0077" QuestId="20035" dailyGoalPercent="0.75" AwardCoin="100" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10069" Height="3" /&gt;
   &lt;TreasureBox BoxId="10070" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R37" s="11" t="s">
+      <c r="S37" s="11" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:19">
       <c r="A38" s="25"/>
       <c r="B38" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15824,30 +15905,31 @@
       <c r="J38" s="24"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
-      <c r="M38" s="23">
+      <c r="M38" s="23"/>
+      <c r="N38" s="23">
         <v>10071</v>
       </c>
-      <c r="N38" s="23">
+      <c r="O38" s="23">
         <v>3</v>
       </c>
-      <c r="O38" s="23">
+      <c r="P38" s="23">
         <v>10072</v>
       </c>
-      <c r="P38" s="23">
+      <c r="Q38" s="23">
         <v>8</v>
       </c>
-      <c r="Q38" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12015" Name="MissionName12015" Background="Home_Backgrond_wonder woods (15)" Model="12015" NimIcon="atom_icon0078" QuestId="20036" dailyGoalPercent="0.8" AwardCoin="102" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R38" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12015" Name="MissionName12015" Background="Home_Backgrond_wonder woods (15)" Model="12015" NimIcon="atom_icon0078" QuestId="20036" dailyGoalPercent="0.8" AwardCoin="102" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10071" Height="3" /&gt;
   &lt;TreasureBox BoxId="10072" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R38" s="11" t="s">
+      <c r="S38" s="11" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:19">
       <c r="A39" s="25"/>
       <c r="B39" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15882,30 +15964,31 @@
       <c r="J39" s="24"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
-      <c r="M39" s="23">
+      <c r="M39" s="23"/>
+      <c r="N39" s="23">
         <v>10073</v>
       </c>
-      <c r="N39" s="23">
+      <c r="O39" s="23">
         <v>3</v>
       </c>
-      <c r="O39" s="23">
+      <c r="P39" s="23">
         <v>10074</v>
       </c>
-      <c r="P39" s="23">
+      <c r="Q39" s="23">
         <v>8</v>
       </c>
-      <c r="Q39" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12016" Name="MissionName12016" Background="Home_Backgrond_wonder woods (16)" Model="12016" NimIcon="atom_icon0079" QuestId="20037" dailyGoalPercent="0.8" AwardCoin="104" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R39" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12016" Name="MissionName12016" Background="Home_Backgrond_wonder woods (16)" Model="12016" NimIcon="atom_icon0079" QuestId="20037" dailyGoalPercent="0.8" AwardCoin="104" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10073" Height="3" /&gt;
   &lt;TreasureBox BoxId="10074" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R39" s="11" t="s">
+      <c r="S39" s="11" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:19">
       <c r="A40" s="25"/>
       <c r="B40" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15940,30 +16023,31 @@
       <c r="J40" s="24"/>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
-      <c r="M40" s="23">
+      <c r="M40" s="23"/>
+      <c r="N40" s="23">
         <v>10075</v>
       </c>
-      <c r="N40" s="23">
+      <c r="O40" s="23">
         <v>3</v>
       </c>
-      <c r="O40" s="23">
+      <c r="P40" s="23">
         <v>10076</v>
       </c>
-      <c r="P40" s="23">
+      <c r="Q40" s="23">
         <v>8</v>
       </c>
-      <c r="Q40" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12017" Name="MissionName12017" Background="Home_Backgrond_wonder woods (17)" Model="12017" NimIcon="atom_icon0080" QuestId="20038" dailyGoalPercent="0.8" AwardCoin="106" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R40" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12017" Name="MissionName12017" Background="Home_Backgrond_wonder woods (17)" Model="12017" NimIcon="atom_icon0080" QuestId="20038" dailyGoalPercent="0.8" AwardCoin="106" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10075" Height="3" /&gt;
   &lt;TreasureBox BoxId="10076" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R40" s="11" t="s">
+      <c r="S40" s="11" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:19">
       <c r="A41" s="25"/>
       <c r="B41" s="22" t="str">
         <f t="shared" si="2"/>
@@ -15998,30 +16082,31 @@
       <c r="J41" s="24"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="23">
+      <c r="M41" s="23"/>
+      <c r="N41" s="23">
         <v>10077</v>
       </c>
-      <c r="N41" s="23">
+      <c r="O41" s="23">
         <v>3</v>
       </c>
-      <c r="O41" s="23">
+      <c r="P41" s="23">
         <v>10078</v>
       </c>
-      <c r="P41" s="23">
+      <c r="Q41" s="23">
         <v>8</v>
       </c>
-      <c r="Q41" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12018" Name="MissionName12018" Background="Home_Backgrond_wonder woods (18)" Model="12018" NimIcon="atom_icon0081" QuestId="20039" dailyGoalPercent="0.85" AwardCoin="108" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R41" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12018" Name="MissionName12018" Background="Home_Backgrond_wonder woods (18)" Model="12018" NimIcon="atom_icon0081" QuestId="20039" dailyGoalPercent="0.85" AwardCoin="108" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10077" Height="3" /&gt;
   &lt;TreasureBox BoxId="10078" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R41" s="11" t="s">
+      <c r="S41" s="11" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:19">
       <c r="A42" s="25"/>
       <c r="B42" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16056,30 +16141,31 @@
       <c r="J42" s="24"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
-      <c r="M42" s="23">
+      <c r="M42" s="23"/>
+      <c r="N42" s="23">
         <v>10079</v>
       </c>
-      <c r="N42" s="23">
+      <c r="O42" s="23">
         <v>3</v>
       </c>
-      <c r="O42" s="23">
+      <c r="P42" s="23">
         <v>10080</v>
       </c>
-      <c r="P42" s="23">
+      <c r="Q42" s="23">
         <v>8</v>
       </c>
-      <c r="Q42" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12019" Name="MissionName12019" Background="Home_Backgrond_wonder woods (19)" Model="12019" NimIcon="atom_icon0082" QuestId="20040" dailyGoalPercent="0.85" AwardCoin="110" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R42" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12019" Name="MissionName12019" Background="Home_Backgrond_wonder woods (19)" Model="12019" NimIcon="atom_icon0082" QuestId="20040" dailyGoalPercent="0.85" AwardCoin="110" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10079" Height="3" /&gt;
   &lt;TreasureBox BoxId="10080" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R42" s="11" t="s">
+      <c r="S42" s="11" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:19">
       <c r="A43" s="25"/>
       <c r="B43" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16114,30 +16200,31 @@
       <c r="J43" s="24"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
-      <c r="M43" s="23">
+      <c r="M43" s="23"/>
+      <c r="N43" s="23">
         <v>10081</v>
       </c>
-      <c r="N43" s="23">
+      <c r="O43" s="23">
         <v>3</v>
       </c>
-      <c r="O43" s="23">
+      <c r="P43" s="23">
         <v>10082</v>
       </c>
-      <c r="P43" s="23">
+      <c r="Q43" s="23">
         <v>8</v>
       </c>
-      <c r="Q43" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12020" Name="MissionName12020" Background="Home_Backgrond_wonder woods (20)" Model="12020" NimIcon="atom_icon0083" QuestId="20041" dailyGoalPercent="0.85" AwardCoin="112" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R43" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12020" Name="MissionName12020" Background="Home_Backgrond_wonder woods (20)" Model="12020" NimIcon="atom_icon0083" QuestId="20041" dailyGoalPercent="0.85" AwardCoin="112" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10081" Height="3" /&gt;
   &lt;TreasureBox BoxId="10082" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R43" s="11" t="s">
+      <c r="S43" s="11" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:19">
       <c r="A44" s="25"/>
       <c r="B44" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16172,30 +16259,31 @@
       <c r="J44" s="24"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="23">
+      <c r="M44" s="23"/>
+      <c r="N44" s="23">
         <v>10083</v>
       </c>
-      <c r="N44" s="23">
+      <c r="O44" s="23">
         <v>3</v>
       </c>
-      <c r="O44" s="23">
+      <c r="P44" s="23">
         <v>10084</v>
       </c>
-      <c r="P44" s="23">
+      <c r="Q44" s="23">
         <v>8</v>
       </c>
-      <c r="Q44" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="12021" Name="MissionName12021" Background="Home_Backgrond_wonder woods (21)" Model="12021" NimIcon="atom_icon0084" QuestId="20042" dailyGoalPercent="0.9" AwardCoin="114" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R44" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="12021" Name="MissionName12021" Background="Home_Backgrond_wonder woods (21)" Model="12021" NimIcon="atom_icon0084" QuestId="20042" dailyGoalPercent="0.9" AwardCoin="114" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10083" Height="3" /&gt;
   &lt;TreasureBox BoxId="10084" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R44" s="11" t="s">
+      <c r="S44" s="11" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:19">
       <c r="A45" s="26"/>
       <c r="B45" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16230,30 +16318,31 @@
       <c r="J45" s="24"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="23">
+      <c r="M45" s="23"/>
+      <c r="N45" s="23">
         <v>10085</v>
       </c>
-      <c r="N45" s="23">
+      <c r="O45" s="23">
         <v>3</v>
       </c>
-      <c r="O45" s="23">
+      <c r="P45" s="23">
         <v>10086</v>
       </c>
-      <c r="P45" s="23">
+      <c r="Q45" s="23">
         <v>8</v>
       </c>
-      <c r="Q45" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13001" Name="MissionName13001" Background="Home_Backgrond_desert daze (1)" Model="13001" NimIcon="atom_icon0106" QuestId="20043" dailyGoalPercent="0.9" AwardCoin="116" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R45" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13001" Name="MissionName13001" Background="Home_Backgrond_desert daze (1)" Model="13001" NimIcon="atom_icon0106" QuestId="20043" dailyGoalPercent="0.9" AwardCoin="116" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10085" Height="3" /&gt;
   &lt;TreasureBox BoxId="10086" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R45" s="11" t="s">
+      <c r="S45" s="11" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:19">
       <c r="A46" s="26"/>
       <c r="B46" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16288,30 +16377,31 @@
       <c r="J46" s="24"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="23">
+      <c r="M46" s="23"/>
+      <c r="N46" s="23">
         <v>10087</v>
       </c>
-      <c r="N46" s="23">
+      <c r="O46" s="23">
         <v>3</v>
       </c>
-      <c r="O46" s="23">
+      <c r="P46" s="23">
         <v>10088</v>
       </c>
-      <c r="P46" s="23">
+      <c r="Q46" s="23">
         <v>8</v>
       </c>
-      <c r="Q46" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13002" Name="MissionName13002" Background="Home_Backgrond_desert daze (2)" Model="13002" NimIcon="atom_icon0107" QuestId="20044" dailyGoalPercent="0.9" AwardCoin="118" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R46" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13002" Name="MissionName13002" Background="Home_Backgrond_desert daze (2)" Model="13002" NimIcon="atom_icon0107" QuestId="20044" dailyGoalPercent="0.9" AwardCoin="118" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10087" Height="3" /&gt;
   &lt;TreasureBox BoxId="10088" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R46" s="11" t="s">
+      <c r="S46" s="11" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:19">
       <c r="A47" s="26"/>
       <c r="B47" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16346,30 +16436,31 @@
       <c r="J47" s="24"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
-      <c r="M47" s="23">
+      <c r="M47" s="23"/>
+      <c r="N47" s="23">
         <v>10089</v>
       </c>
-      <c r="N47" s="23">
+      <c r="O47" s="23">
         <v>3</v>
       </c>
-      <c r="O47" s="23">
+      <c r="P47" s="23">
         <v>10090</v>
       </c>
-      <c r="P47" s="23">
+      <c r="Q47" s="23">
         <v>8</v>
       </c>
-      <c r="Q47" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13003" Name="MissionName13003" Background="Home_Backgrond_desert daze (3)" Model="13003" NimIcon="atom_icon0108" QuestId="20045" dailyGoalPercent="0.95" AwardCoin="120" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R47" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13003" Name="MissionName13003" Background="Home_Backgrond_desert daze (3)" Model="13003" NimIcon="atom_icon0108" QuestId="20045" dailyGoalPercent="0.95" AwardCoin="120" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10089" Height="3" /&gt;
   &lt;TreasureBox BoxId="10090" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R47" s="11" t="s">
+      <c r="S47" s="11" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:19">
       <c r="A48" s="26"/>
       <c r="B48" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16404,30 +16495,31 @@
       <c r="J48" s="24"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
-      <c r="M48" s="23">
+      <c r="M48" s="23"/>
+      <c r="N48" s="23">
         <v>10091</v>
       </c>
-      <c r="N48" s="23">
+      <c r="O48" s="23">
         <v>3</v>
       </c>
-      <c r="O48" s="23">
+      <c r="P48" s="23">
         <v>10092</v>
       </c>
-      <c r="P48" s="23">
+      <c r="Q48" s="23">
         <v>8</v>
       </c>
-      <c r="Q48" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13004" Name="MissionName13004" Background="Home_Backgrond_desert daze (4)" Model="13004" NimIcon="atom_icon0109" QuestId="20046" dailyGoalPercent="0.95" AwardCoin="122" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R48" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13004" Name="MissionName13004" Background="Home_Backgrond_desert daze (4)" Model="13004" NimIcon="atom_icon0109" QuestId="20046" dailyGoalPercent="0.95" AwardCoin="122" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10091" Height="3" /&gt;
   &lt;TreasureBox BoxId="10092" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R48" s="11" t="s">
+      <c r="S48" s="11" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:19">
       <c r="A49" s="26"/>
       <c r="B49" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16462,30 +16554,31 @@
       <c r="J49" s="24"/>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
-      <c r="M49" s="23">
+      <c r="M49" s="23"/>
+      <c r="N49" s="23">
         <v>10093</v>
       </c>
-      <c r="N49" s="23">
+      <c r="O49" s="23">
         <v>3</v>
       </c>
-      <c r="O49" s="23">
+      <c r="P49" s="23">
         <v>10094</v>
       </c>
-      <c r="P49" s="23">
+      <c r="Q49" s="23">
         <v>8</v>
       </c>
-      <c r="Q49" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13005" Name="MissionName13005" Background="Home_Backgrond_desert daze (5)" Model="13005" NimIcon="atom_icon0110" QuestId="20047" dailyGoalPercent="0.95" AwardCoin="124" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R49" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13005" Name="MissionName13005" Background="Home_Backgrond_desert daze (5)" Model="13005" NimIcon="atom_icon0110" QuestId="20047" dailyGoalPercent="0.95" AwardCoin="124" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10093" Height="3" /&gt;
   &lt;TreasureBox BoxId="10094" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R49" s="11" t="s">
+      <c r="S49" s="11" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:19">
       <c r="A50" s="26"/>
       <c r="B50" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16521,30 +16614,31 @@
       <c r="J50" s="24"/>
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
-      <c r="M50" s="23">
+      <c r="M50" s="23"/>
+      <c r="N50" s="23">
         <v>10095</v>
       </c>
-      <c r="N50" s="23">
+      <c r="O50" s="23">
         <v>3</v>
       </c>
-      <c r="O50" s="23">
+      <c r="P50" s="23">
         <v>10096</v>
       </c>
-      <c r="P50" s="23">
+      <c r="Q50" s="23">
         <v>8</v>
       </c>
-      <c r="Q50" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13006" Name="MissionName13006" Background="Home_Backgrond_desert daze (6)" Model="13006" NimIcon="atom_icon0111" QuestId="20048" dailyGoalPercent="1" AwardCoin="126" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R50" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13006" Name="MissionName13006" Background="Home_Backgrond_desert daze (6)" Model="13006" NimIcon="atom_icon0111" QuestId="20048" dailyGoalPercent="1" AwardCoin="126" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10095" Height="3" /&gt;
   &lt;TreasureBox BoxId="10096" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="S50" s="11" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:19">
       <c r="A51" s="26"/>
       <c r="B51" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16580,30 +16674,31 @@
       <c r="J51" s="24"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
-      <c r="M51" s="23">
+      <c r="M51" s="23"/>
+      <c r="N51" s="23">
         <v>10097</v>
       </c>
-      <c r="N51" s="23">
+      <c r="O51" s="23">
         <v>3</v>
       </c>
-      <c r="O51" s="23">
+      <c r="P51" s="23">
         <v>10098</v>
       </c>
-      <c r="P51" s="23">
+      <c r="Q51" s="23">
         <v>8</v>
       </c>
-      <c r="Q51" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13007" Name="MissionName13007" Background="Home_Backgrond_desert daze (7)" Model="13007" NimIcon="atom_icon0112" QuestId="20049" dailyGoalPercent="1" AwardCoin="128" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R51" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13007" Name="MissionName13007" Background="Home_Backgrond_desert daze (7)" Model="13007" NimIcon="atom_icon0112" QuestId="20049" dailyGoalPercent="1" AwardCoin="128" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10097" Height="3" /&gt;
   &lt;TreasureBox BoxId="10098" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R51" s="11" t="s">
+      <c r="S51" s="11" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:19">
       <c r="A52" s="26"/>
       <c r="B52" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16639,30 +16734,31 @@
       <c r="J52" s="24"/>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
-      <c r="M52" s="23">
+      <c r="M52" s="23"/>
+      <c r="N52" s="23">
         <v>10099</v>
       </c>
-      <c r="N52" s="23">
+      <c r="O52" s="23">
         <v>3</v>
       </c>
-      <c r="O52" s="23">
+      <c r="P52" s="23">
         <v>10100</v>
       </c>
-      <c r="P52" s="23">
+      <c r="Q52" s="23">
         <v>8</v>
       </c>
-      <c r="Q52" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13008" Name="MissionName13008" Background="Home_Backgrond_desert daze (8)" Model="13008" NimIcon="atom_icon0113" QuestId="20050" dailyGoalPercent="1" AwardCoin="130" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R52" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13008" Name="MissionName13008" Background="Home_Backgrond_desert daze (8)" Model="13008" NimIcon="atom_icon0113" QuestId="20050" dailyGoalPercent="1" AwardCoin="130" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10099" Height="3" /&gt;
   &lt;TreasureBox BoxId="10100" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R52" s="11" t="s">
+      <c r="S52" s="11" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:19">
       <c r="A53" s="26"/>
       <c r="B53" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16697,30 +16793,31 @@
       <c r="J53" s="24"/>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
-      <c r="M53" s="23">
+      <c r="M53" s="23"/>
+      <c r="N53" s="23">
         <v>10101</v>
       </c>
-      <c r="N53" s="23">
+      <c r="O53" s="23">
         <v>3</v>
       </c>
-      <c r="O53" s="23">
+      <c r="P53" s="23">
         <v>10102</v>
       </c>
-      <c r="P53" s="23">
+      <c r="Q53" s="23">
         <v>8</v>
       </c>
-      <c r="Q53" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13009" Name="MissionName13009" Background="Home_Backgrond_desert daze (9)" Model="13009" NimIcon="atom_icon0114" QuestId="20051" dailyGoalPercent="1.05" AwardCoin="132" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R53" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13009" Name="MissionName13009" Background="Home_Backgrond_desert daze (9)" Model="13009" NimIcon="atom_icon0114" QuestId="20051" dailyGoalPercent="1.05" AwardCoin="132" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10101" Height="3" /&gt;
   &lt;TreasureBox BoxId="10102" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R53" s="11" t="s">
+      <c r="S53" s="11" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:19">
       <c r="A54" s="26"/>
       <c r="B54" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16755,30 +16852,31 @@
       <c r="J54" s="24"/>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
-      <c r="M54" s="23">
+      <c r="M54" s="23"/>
+      <c r="N54" s="23">
         <v>10103</v>
       </c>
-      <c r="N54" s="23">
+      <c r="O54" s="23">
         <v>3</v>
       </c>
-      <c r="O54" s="23">
+      <c r="P54" s="23">
         <v>10104</v>
       </c>
-      <c r="P54" s="23">
+      <c r="Q54" s="23">
         <v>8</v>
       </c>
-      <c r="Q54" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13010" Name="MissionName13010" Background="Home_Backgrond_desert daze (10)" Model="13010" NimIcon="atom_icon0115" QuestId="20052" dailyGoalPercent="1.05" AwardCoin="134" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R54" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13010" Name="MissionName13010" Background="Home_Backgrond_desert daze (10)" Model="13010" NimIcon="atom_icon0115" QuestId="20052" dailyGoalPercent="1.05" AwardCoin="134" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10103" Height="3" /&gt;
   &lt;TreasureBox BoxId="10104" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="S54" s="11" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:19">
       <c r="A55" s="26"/>
       <c r="B55" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16813,30 +16911,31 @@
       <c r="J55" s="24"/>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
-      <c r="M55" s="23">
+      <c r="M55" s="23"/>
+      <c r="N55" s="23">
         <v>10105</v>
       </c>
-      <c r="N55" s="23">
+      <c r="O55" s="23">
         <v>3</v>
       </c>
-      <c r="O55" s="23">
+      <c r="P55" s="23">
         <v>10106</v>
       </c>
-      <c r="P55" s="23">
+      <c r="Q55" s="23">
         <v>8</v>
       </c>
-      <c r="Q55" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13011" Name="MissionName13011" Background="Home_Backgrond_desert daze (11)" Model="13011" NimIcon="atom_icon0116" QuestId="20053" dailyGoalPercent="1.05" AwardCoin="136" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R55" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13011" Name="MissionName13011" Background="Home_Backgrond_desert daze (11)" Model="13011" NimIcon="atom_icon0116" QuestId="20053" dailyGoalPercent="1.05" AwardCoin="136" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10105" Height="3" /&gt;
   &lt;TreasureBox BoxId="10106" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="S55" s="11" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:19">
       <c r="A56" s="26"/>
       <c r="B56" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16871,30 +16970,31 @@
       <c r="J56" s="24"/>
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
-      <c r="M56" s="23">
+      <c r="M56" s="23"/>
+      <c r="N56" s="23">
         <v>10107</v>
       </c>
-      <c r="N56" s="23">
+      <c r="O56" s="23">
         <v>3</v>
       </c>
-      <c r="O56" s="23">
+      <c r="P56" s="23">
         <v>10108</v>
       </c>
-      <c r="P56" s="23">
+      <c r="Q56" s="23">
         <v>8</v>
       </c>
-      <c r="Q56" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13012" Name="MissionName13012" Background="Home_Backgrond_desert daze (12)" Model="13012" NimIcon="atom_icon0117" QuestId="20054" dailyGoalPercent="1.1" AwardCoin="138" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R56" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13012" Name="MissionName13012" Background="Home_Backgrond_desert daze (12)" Model="13012" NimIcon="atom_icon0117" QuestId="20054" dailyGoalPercent="1.1" AwardCoin="138" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10107" Height="3" /&gt;
   &lt;TreasureBox BoxId="10108" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R56" s="11" t="s">
+      <c r="S56" s="11" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:19">
       <c r="A57" s="26"/>
       <c r="B57" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16929,30 +17029,31 @@
       <c r="J57" s="24"/>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
-      <c r="M57" s="23">
+      <c r="M57" s="23"/>
+      <c r="N57" s="23">
         <v>10109</v>
       </c>
-      <c r="N57" s="23">
+      <c r="O57" s="23">
         <v>3</v>
       </c>
-      <c r="O57" s="23">
+      <c r="P57" s="23">
         <v>10110</v>
       </c>
-      <c r="P57" s="23">
+      <c r="Q57" s="23">
         <v>8</v>
       </c>
-      <c r="Q57" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13013" Name="MissionName13013" Background="Home_Backgrond_desert daze (13)" Model="13013" NimIcon="atom_icon0118" QuestId="20055" dailyGoalPercent="1.1" AwardCoin="140" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R57" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13013" Name="MissionName13013" Background="Home_Backgrond_desert daze (13)" Model="13013" NimIcon="atom_icon0118" QuestId="20055" dailyGoalPercent="1.1" AwardCoin="140" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10109" Height="3" /&gt;
   &lt;TreasureBox BoxId="10110" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R57" s="11" t="s">
+      <c r="S57" s="11" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:19">
       <c r="A58" s="26"/>
       <c r="B58" s="22" t="str">
         <f t="shared" si="2"/>
@@ -16987,30 +17088,31 @@
       <c r="J58" s="24"/>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
-      <c r="M58" s="23">
+      <c r="M58" s="23"/>
+      <c r="N58" s="23">
         <v>10111</v>
       </c>
-      <c r="N58" s="23">
+      <c r="O58" s="23">
         <v>3</v>
       </c>
-      <c r="O58" s="23">
+      <c r="P58" s="23">
         <v>10112</v>
       </c>
-      <c r="P58" s="23">
+      <c r="Q58" s="23">
         <v>8</v>
       </c>
-      <c r="Q58" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13014" Name="MissionName13014" Background="Home_Backgrond_desert daze (14)" Model="13014" NimIcon="atom_icon0119" QuestId="20056" dailyGoalPercent="1.1" AwardCoin="142" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R58" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13014" Name="MissionName13014" Background="Home_Backgrond_desert daze (14)" Model="13014" NimIcon="atom_icon0119" QuestId="20056" dailyGoalPercent="1.1" AwardCoin="142" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10111" Height="3" /&gt;
   &lt;TreasureBox BoxId="10112" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R58" s="11" t="s">
+      <c r="S58" s="11" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:19">
       <c r="A59" s="26"/>
       <c r="B59" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17045,30 +17147,31 @@
       <c r="J59" s="24"/>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
-      <c r="M59" s="23">
+      <c r="M59" s="23"/>
+      <c r="N59" s="23">
         <v>10113</v>
       </c>
-      <c r="N59" s="23">
+      <c r="O59" s="23">
         <v>3</v>
       </c>
-      <c r="O59" s="23">
+      <c r="P59" s="23">
         <v>10114</v>
       </c>
-      <c r="P59" s="23">
+      <c r="Q59" s="23">
         <v>8</v>
       </c>
-      <c r="Q59" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13015" Name="MissionName13015" Background="Home_Backgrond_desert daze (15)" Model="13015" NimIcon="atom_icon0120" QuestId="20057" dailyGoalPercent="1.15" AwardCoin="144" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R59" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13015" Name="MissionName13015" Background="Home_Backgrond_desert daze (15)" Model="13015" NimIcon="atom_icon0120" QuestId="20057" dailyGoalPercent="1.15" AwardCoin="144" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10113" Height="3" /&gt;
   &lt;TreasureBox BoxId="10114" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R59" s="11" t="s">
+      <c r="S59" s="11" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:19">
       <c r="A60" s="26"/>
       <c r="B60" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17103,30 +17206,31 @@
       <c r="J60" s="24"/>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
-      <c r="M60" s="23">
+      <c r="M60" s="23"/>
+      <c r="N60" s="23">
         <v>10115</v>
       </c>
-      <c r="N60" s="23">
+      <c r="O60" s="23">
         <v>3</v>
       </c>
-      <c r="O60" s="23">
+      <c r="P60" s="23">
         <v>10116</v>
       </c>
-      <c r="P60" s="23">
+      <c r="Q60" s="23">
         <v>8</v>
       </c>
-      <c r="Q60" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13016" Name="MissionName13016" Background="Home_Backgrond_desert daze (16)" Model="13016" NimIcon="atom_icon0121" QuestId="20058" dailyGoalPercent="1.15" AwardCoin="146" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R60" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13016" Name="MissionName13016" Background="Home_Backgrond_desert daze (16)" Model="13016" NimIcon="atom_icon0121" QuestId="20058" dailyGoalPercent="1.15" AwardCoin="146" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10115" Height="3" /&gt;
   &lt;TreasureBox BoxId="10116" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R60" s="11" t="s">
+      <c r="S60" s="11" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:19">
       <c r="A61" s="26"/>
       <c r="B61" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17161,30 +17265,31 @@
       <c r="J61" s="24"/>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
-      <c r="M61" s="23">
+      <c r="M61" s="23"/>
+      <c r="N61" s="23">
         <v>10117</v>
       </c>
-      <c r="N61" s="23">
+      <c r="O61" s="23">
         <v>3</v>
       </c>
-      <c r="O61" s="23">
+      <c r="P61" s="23">
         <v>10118</v>
       </c>
-      <c r="P61" s="23">
+      <c r="Q61" s="23">
         <v>8</v>
       </c>
-      <c r="Q61" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13017" Name="MissionName13017" Background="Home_Backgrond_desert daze (17)" Model="13017" NimIcon="atom_icon0122" QuestId="20059" dailyGoalPercent="1.15" AwardCoin="148" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R61" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13017" Name="MissionName13017" Background="Home_Backgrond_desert daze (17)" Model="13017" NimIcon="atom_icon0122" QuestId="20059" dailyGoalPercent="1.15" AwardCoin="148" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10117" Height="3" /&gt;
   &lt;TreasureBox BoxId="10118" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R61" s="11" t="s">
+      <c r="S61" s="11" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:19">
       <c r="A62" s="26"/>
       <c r="B62" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17219,30 +17324,31 @@
       <c r="J62" s="24"/>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
-      <c r="M62" s="23">
+      <c r="M62" s="23"/>
+      <c r="N62" s="23">
         <v>10119</v>
       </c>
-      <c r="N62" s="23">
+      <c r="O62" s="23">
         <v>3</v>
       </c>
-      <c r="O62" s="23">
+      <c r="P62" s="23">
         <v>10120</v>
       </c>
-      <c r="P62" s="23">
+      <c r="Q62" s="23">
         <v>8</v>
       </c>
-      <c r="Q62" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13018" Name="MissionName13018" Background="Home_Backgrond_desert daze (18)" Model="13018" NimIcon="atom_icon0123" QuestId="20060" dailyGoalPercent="1.2" AwardCoin="150" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R62" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13018" Name="MissionName13018" Background="Home_Backgrond_desert daze (18)" Model="13018" NimIcon="atom_icon0123" QuestId="20060" dailyGoalPercent="1.2" AwardCoin="150" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10119" Height="3" /&gt;
   &lt;TreasureBox BoxId="10120" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R62" s="11" t="s">
+      <c r="S62" s="11" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:19">
       <c r="A63" s="26"/>
       <c r="B63" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17277,30 +17383,31 @@
       <c r="J63" s="24"/>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
-      <c r="M63" s="23">
+      <c r="M63" s="23"/>
+      <c r="N63" s="23">
         <v>10121</v>
       </c>
-      <c r="N63" s="23">
+      <c r="O63" s="23">
         <v>3</v>
       </c>
-      <c r="O63" s="23">
+      <c r="P63" s="23">
         <v>10122</v>
       </c>
-      <c r="P63" s="23">
+      <c r="Q63" s="23">
         <v>8</v>
       </c>
-      <c r="Q63" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13019" Name="MissionName13019" Background="Home_Backgrond_desert daze (19)" Model="13019" NimIcon="atom_icon0124" QuestId="20061" dailyGoalPercent="1.2" AwardCoin="152" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R63" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13019" Name="MissionName13019" Background="Home_Backgrond_desert daze (19)" Model="13019" NimIcon="atom_icon0124" QuestId="20061" dailyGoalPercent="1.2" AwardCoin="152" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10121" Height="3" /&gt;
   &lt;TreasureBox BoxId="10122" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R63" s="11" t="s">
+      <c r="S63" s="11" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:19">
       <c r="A64" s="26"/>
       <c r="B64" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17335,30 +17442,31 @@
       <c r="J64" s="24"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
-      <c r="M64" s="23">
+      <c r="M64" s="23"/>
+      <c r="N64" s="23">
         <v>10123</v>
       </c>
-      <c r="N64" s="23">
+      <c r="O64" s="23">
         <v>3</v>
       </c>
-      <c r="O64" s="23">
+      <c r="P64" s="23">
         <v>10124</v>
       </c>
-      <c r="P64" s="23">
+      <c r="Q64" s="23">
         <v>8</v>
       </c>
-      <c r="Q64" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13020" Name="MissionName13020" Background="Home_Backgrond_desert daze (20)" Model="13020" NimIcon="atom_icon0125" QuestId="20062" dailyGoalPercent="1.2" AwardCoin="154" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R64" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13020" Name="MissionName13020" Background="Home_Backgrond_desert daze (20)" Model="13020" NimIcon="atom_icon0125" QuestId="20062" dailyGoalPercent="1.2" AwardCoin="154" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10123" Height="3" /&gt;
   &lt;TreasureBox BoxId="10124" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R64" s="11" t="s">
+      <c r="S64" s="11" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:19">
       <c r="A65" s="26"/>
       <c r="B65" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17393,30 +17501,31 @@
       <c r="J65" s="24"/>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
-      <c r="M65" s="23">
+      <c r="M65" s="23"/>
+      <c r="N65" s="23">
         <v>10125</v>
       </c>
-      <c r="N65" s="23">
+      <c r="O65" s="23">
         <v>3</v>
       </c>
-      <c r="O65" s="23">
+      <c r="P65" s="23">
         <v>10126</v>
       </c>
-      <c r="P65" s="23">
+      <c r="Q65" s="23">
         <v>8</v>
       </c>
-      <c r="Q65" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="13021" Name="MissionName13021" Background="Home_Backgrond_desert daze (21)" Model="13021" NimIcon="atom_icon0126" QuestId="20063" dailyGoalPercent="1.25" AwardCoin="156" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R65" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="13021" Name="MissionName13021" Background="Home_Backgrond_desert daze (21)" Model="13021" NimIcon="atom_icon0126" QuestId="20063" dailyGoalPercent="1.25" AwardCoin="156" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10125" Height="3" /&gt;
   &lt;TreasureBox BoxId="10126" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R65" s="11" t="s">
+      <c r="S65" s="11" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:19">
       <c r="A66" s="27"/>
       <c r="B66" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17450,30 +17559,31 @@
       <c r="J66" s="24"/>
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
-      <c r="M66" s="23">
+      <c r="M66" s="23"/>
+      <c r="N66" s="23">
         <v>10127</v>
       </c>
-      <c r="N66" s="23">
+      <c r="O66" s="23">
         <v>3</v>
       </c>
-      <c r="O66" s="23">
+      <c r="P66" s="23">
         <v>10128</v>
       </c>
-      <c r="P66" s="23">
+      <c r="Q66" s="23">
         <v>8</v>
       </c>
-      <c r="Q66" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;Mission Id="14001" Name="MissionName14001" Background="Home_Backgrond__mystery red0001" Model="14001" NimIcon="atom_icon0157" QuestId="20064" dailyGoalPercent="1.25" AwardCoin="158" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R66" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mission Id="14001" Name="MissionName14001" Background="Home_Backgrond__mystery red0001" Model="14001" NimIcon="atom_icon0157" QuestId="20064" dailyGoalPercent="1.25" AwardCoin="158" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10127" Height="3" /&gt;
   &lt;TreasureBox BoxId="10128" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R66" s="11" t="s">
+      <c r="S66" s="11" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:19">
       <c r="A67" s="27"/>
       <c r="B67" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17507,30 +17617,31 @@
       <c r="J67" s="24"/>
       <c r="K67" s="23"/>
       <c r="L67" s="23"/>
-      <c r="M67" s="23">
+      <c r="M67" s="23"/>
+      <c r="N67" s="23">
         <v>10129</v>
       </c>
-      <c r="N67" s="23">
+      <c r="O67" s="23">
         <v>3</v>
       </c>
-      <c r="O67" s="23">
+      <c r="P67" s="23">
         <v>10130</v>
       </c>
-      <c r="P67" s="23">
+      <c r="Q67" s="23">
         <v>8</v>
       </c>
-      <c r="Q67" s="19" t="str">
-        <f t="shared" ref="Q67:Q83" si="8">IF(B67&lt;&gt;"","&lt;Mission Id="""&amp;B67&amp;""" Name="""&amp;C67&amp;""" Background="""&amp;D67&amp;""" Model="""&amp;E67&amp;""" NimIcon="""&amp;F67&amp;""" QuestId="""&amp;G67&amp;""" dailyGoalPercent="""&amp;H67&amp;""" AwardCoin="""&amp;I67&amp;""" BGM="""&amp;J67&amp;""" Sound="""&amp;K67&amp;""" WaterDrop="""&amp;L67&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;M67&amp;""" Height="""&amp;N67&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;O67&amp;""" Height="""&amp;P67&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="14002" Name="MissionName14002" Background="Home_Backgrond__mystery red0002" Model="14002" NimIcon="atom_icon0158" QuestId="20065" dailyGoalPercent="1.3" AwardCoin="160" BGM="" Sound="" WaterDrop=""&gt;
+      <c r="R67" s="19" t="str">
+        <f t="shared" ref="R67:R83" si="8">IF(B67&lt;&gt;"","&lt;Mission Id="""&amp;B67&amp;""" Name="""&amp;C67&amp;""" Background="""&amp;D67&amp;""" Model="""&amp;E67&amp;""" NimIcon="""&amp;F67&amp;""" QuestId="""&amp;G67&amp;""" dailyGoalPercent="""&amp;H67&amp;""" AwardCoin="""&amp;I67&amp;""" BGM="""&amp;J67&amp;""" Sound="""&amp;K67&amp;""" WaterDrop="""&amp;L67&amp;""" WaterDropAudio="""&amp;M67&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N67&amp;""" Height="""&amp;O67&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P67&amp;""" Height="""&amp;Q67&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
+        <v>&lt;Mission Id="14002" Name="MissionName14002" Background="Home_Backgrond__mystery red0002" Model="14002" NimIcon="atom_icon0158" QuestId="20065" dailyGoalPercent="1.3" AwardCoin="160" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10129" Height="3" /&gt;
   &lt;TreasureBox BoxId="10130" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R67" s="11" t="s">
+      <c r="S67" s="11" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:19">
       <c r="A68" s="27"/>
       <c r="B68" s="22" t="str">
         <f t="shared" si="2"/>
@@ -17564,52 +17675,53 @@
       <c r="J68" s="24"/>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
-      <c r="M68" s="23">
+      <c r="M68" s="23"/>
+      <c r="N68" s="23">
         <v>10131</v>
       </c>
-      <c r="N68" s="23">
+      <c r="O68" s="23">
         <v>3</v>
       </c>
-      <c r="O68" s="23">
+      <c r="P68" s="23">
         <v>10132</v>
       </c>
-      <c r="P68" s="23">
+      <c r="Q68" s="23">
         <v>8</v>
       </c>
-      <c r="Q68" s="19" t="str">
+      <c r="R68" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14003" Name="MissionName14003" Background="Home_Backgrond__mystery red0003" Model="14003" NimIcon="atom_icon0159" QuestId="20066" dailyGoalPercent="1.3" AwardCoin="162" BGM="" Sound="" WaterDrop=""&gt;
+        <v>&lt;Mission Id="14003" Name="MissionName14003" Background="Home_Backgrond__mystery red0003" Model="14003" NimIcon="atom_icon0159" QuestId="20066" dailyGoalPercent="1.3" AwardCoin="162" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10131" Height="3" /&gt;
   &lt;TreasureBox BoxId="10132" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R68" s="11" t="s">
+      <c r="S68" s="11" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:19">
       <c r="A69" s="27"/>
       <c r="B69" s="22" t="str">
-        <f t="shared" ref="B69:B75" si="9">MID(R69,FIND("Id=",R69)+4,FIND(""" Name=",R69)-FIND("Id=",R69)-4)</f>
+        <f t="shared" ref="B69:B75" si="9">MID(S69,FIND("Id=",S69)+4,FIND(""" Name=",S69)-FIND("Id=",S69)-4)</f>
         <v>14004</v>
       </c>
       <c r="C69" s="23" t="str">
-        <f t="shared" ref="C69:C75" si="10">MID(R69,FIND("Name=",R69)+6,FIND(""" Background=",R69)-FIND("Name=",R69)-6)</f>
+        <f t="shared" ref="C69:C75" si="10">MID(S69,FIND("Name=",S69)+6,FIND(""" Background=",S69)-FIND("Name=",S69)-6)</f>
         <v>MissionName14004</v>
       </c>
       <c r="D69" s="23" t="str">
-        <f t="shared" ref="D69:D75" si="11">MID(R69,FIND("Background=",R69)+12,FIND(""" Model=",R69)-FIND("Background=",R69)-12)</f>
+        <f t="shared" ref="D69:D75" si="11">MID(S69,FIND("Background=",S69)+12,FIND(""" Model=",S69)-FIND("Background=",S69)-12)</f>
         <v>Home_Backgrond__mystery red0004</v>
       </c>
       <c r="E69" s="22" t="str">
-        <f t="shared" ref="E69:E75" si="12">MID(R69,FIND("Model=",R69)+7,FIND(""" NimIcon=",R69)-FIND("Model=",R69)-7)</f>
+        <f t="shared" ref="E69:E75" si="12">MID(S69,FIND("Model=",S69)+7,FIND(""" NimIcon=",S69)-FIND("Model=",S69)-7)</f>
         <v>14004</v>
       </c>
       <c r="F69" s="23" t="s">
         <v>875</v>
       </c>
       <c r="G69" s="23" t="str">
-        <f t="shared" ref="G69:G75" si="13">MID(R69,FIND("QuestId=",R69)+9,FIND(""" dailyGoalPercent=",R69)-FIND("QuestId=",R69)-9)</f>
+        <f t="shared" ref="G69:G75" si="13">MID(S69,FIND("QuestId=",S69)+9,FIND(""" dailyGoalPercent=",S69)-FIND("QuestId=",S69)-9)</f>
         <v>20067</v>
       </c>
       <c r="H69" s="24">
@@ -17621,30 +17733,31 @@
       <c r="J69" s="24"/>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
-      <c r="M69" s="23">
+      <c r="M69" s="23"/>
+      <c r="N69" s="23">
         <v>10133</v>
       </c>
-      <c r="N69" s="23">
+      <c r="O69" s="23">
         <v>3</v>
       </c>
-      <c r="O69" s="23">
+      <c r="P69" s="23">
         <v>10134</v>
       </c>
-      <c r="P69" s="23">
+      <c r="Q69" s="23">
         <v>8</v>
       </c>
-      <c r="Q69" s="19" t="str">
+      <c r="R69" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14004" Name="MissionName14004" Background="Home_Backgrond__mystery red0004" Model="14004" NimIcon="atom_icon0160" QuestId="20067" dailyGoalPercent="1.35" AwardCoin="164" BGM="" Sound="" WaterDrop=""&gt;
+        <v>&lt;Mission Id="14004" Name="MissionName14004" Background="Home_Backgrond__mystery red0004" Model="14004" NimIcon="atom_icon0160" QuestId="20067" dailyGoalPercent="1.35" AwardCoin="164" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10133" Height="3" /&gt;
   &lt;TreasureBox BoxId="10134" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R69" s="11" t="s">
+      <c r="S69" s="11" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:19">
       <c r="A70" s="27"/>
       <c r="B70" s="22" t="str">
         <f t="shared" si="9"/>
@@ -17678,30 +17791,31 @@
       <c r="J70" s="24"/>
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
-      <c r="M70" s="23">
+      <c r="M70" s="23"/>
+      <c r="N70" s="23">
         <v>10135</v>
       </c>
-      <c r="N70" s="23">
+      <c r="O70" s="23">
         <v>3</v>
       </c>
-      <c r="O70" s="23">
+      <c r="P70" s="23">
         <v>10136</v>
       </c>
-      <c r="P70" s="23">
+      <c r="Q70" s="23">
         <v>8</v>
       </c>
-      <c r="Q70" s="19" t="str">
+      <c r="R70" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14005" Name="MissionName14005" Background="Home_Backgrond__mystery red0005" Model="14005" NimIcon="atom_icon0161" QuestId="20068" dailyGoalPercent="1.35" AwardCoin="166" BGM="" Sound="" WaterDrop=""&gt;
+        <v>&lt;Mission Id="14005" Name="MissionName14005" Background="Home_Backgrond__mystery red0005" Model="14005" NimIcon="atom_icon0161" QuestId="20068" dailyGoalPercent="1.35" AwardCoin="166" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10135" Height="3" /&gt;
   &lt;TreasureBox BoxId="10136" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R70" s="11" t="s">
+      <c r="S70" s="11" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:19">
       <c r="A71" s="27"/>
       <c r="B71" s="22" t="str">
         <f t="shared" si="9"/>
@@ -17735,30 +17849,31 @@
       <c r="J71" s="24"/>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
-      <c r="M71" s="23">
+      <c r="M71" s="23"/>
+      <c r="N71" s="23">
         <v>10137</v>
       </c>
-      <c r="N71" s="23">
+      <c r="O71" s="23">
         <v>3</v>
       </c>
-      <c r="O71" s="23">
+      <c r="P71" s="23">
         <v>10138</v>
       </c>
-      <c r="P71" s="23">
+      <c r="Q71" s="23">
         <v>8</v>
       </c>
-      <c r="Q71" s="19" t="str">
+      <c r="R71" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14006" Name="MissionName14006" Background="Home_Backgrond__mystery red0006" Model="14006" NimIcon="atom_icon0162" QuestId="20069" dailyGoalPercent="1.4" AwardCoin="168" BGM="" Sound="" WaterDrop=""&gt;
+        <v>&lt;Mission Id="14006" Name="MissionName14006" Background="Home_Backgrond__mystery red0006" Model="14006" NimIcon="atom_icon0162" QuestId="20069" dailyGoalPercent="1.4" AwardCoin="168" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10137" Height="3" /&gt;
   &lt;TreasureBox BoxId="10138" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R71" s="11" t="s">
+      <c r="S71" s="11" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:19">
       <c r="A72" s="27"/>
       <c r="B72" s="22" t="str">
         <f t="shared" si="9"/>
@@ -17792,30 +17907,31 @@
       <c r="J72" s="24"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
-      <c r="M72" s="23">
+      <c r="M72" s="23"/>
+      <c r="N72" s="23">
         <v>10139</v>
       </c>
-      <c r="N72" s="23">
+      <c r="O72" s="23">
         <v>3</v>
       </c>
-      <c r="O72" s="23">
+      <c r="P72" s="23">
         <v>10140</v>
       </c>
-      <c r="P72" s="23">
+      <c r="Q72" s="23">
         <v>8</v>
       </c>
-      <c r="Q72" s="19" t="str">
+      <c r="R72" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14007" Name="MissionName14007" Background="Home_Backgrond__mystery red0007" Model="14007" NimIcon="atom_icon0163" QuestId="20070" dailyGoalPercent="1.4" AwardCoin="170" BGM="" Sound="" WaterDrop=""&gt;
+        <v>&lt;Mission Id="14007" Name="MissionName14007" Background="Home_Backgrond__mystery red0007" Model="14007" NimIcon="atom_icon0163" QuestId="20070" dailyGoalPercent="1.4" AwardCoin="170" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10139" Height="3" /&gt;
   &lt;TreasureBox BoxId="10140" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R72" s="11" t="s">
+      <c r="S72" s="11" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:19">
       <c r="A73" s="27"/>
       <c r="B73" s="22" t="str">
         <f t="shared" si="9"/>
@@ -17849,30 +17965,31 @@
       <c r="J73" s="24"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
-      <c r="M73" s="23">
+      <c r="M73" s="23"/>
+      <c r="N73" s="23">
         <v>10141</v>
       </c>
-      <c r="N73" s="23">
+      <c r="O73" s="23">
         <v>3</v>
       </c>
-      <c r="O73" s="23">
+      <c r="P73" s="23">
         <v>10142</v>
       </c>
-      <c r="P73" s="23">
+      <c r="Q73" s="23">
         <v>8</v>
       </c>
-      <c r="Q73" s="19" t="str">
+      <c r="R73" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14008" Name="MissionName14008" Background="Home_Backgrond__mystery red0008" Model="14008" NimIcon="atom_icon0164" QuestId="20071" dailyGoalPercent="1.45" AwardCoin="172" BGM="" Sound="" WaterDrop=""&gt;
+        <v>&lt;Mission Id="14008" Name="MissionName14008" Background="Home_Backgrond__mystery red0008" Model="14008" NimIcon="atom_icon0164" QuestId="20071" dailyGoalPercent="1.45" AwardCoin="172" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10141" Height="3" /&gt;
   &lt;TreasureBox BoxId="10142" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R73" s="11" t="s">
+      <c r="S73" s="11" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:19">
       <c r="A74" s="27"/>
       <c r="B74" s="22" t="str">
         <f t="shared" si="9"/>
@@ -17906,30 +18023,31 @@
       <c r="J74" s="24"/>
       <c r="K74" s="23"/>
       <c r="L74" s="23"/>
-      <c r="M74" s="23">
+      <c r="M74" s="23"/>
+      <c r="N74" s="23">
         <v>10143</v>
       </c>
-      <c r="N74" s="23">
+      <c r="O74" s="23">
         <v>3</v>
       </c>
-      <c r="O74" s="23">
+      <c r="P74" s="23">
         <v>10144</v>
       </c>
-      <c r="P74" s="23">
+      <c r="Q74" s="23">
         <v>8</v>
       </c>
-      <c r="Q74" s="19" t="str">
+      <c r="R74" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14009" Name="MissionName14009" Background="Home_Backgrond__mystery red0009" Model="14009" NimIcon="atom_icon0165" QuestId="20072" dailyGoalPercent="1.45" AwardCoin="174" BGM="" Sound="" WaterDrop=""&gt;
+        <v>&lt;Mission Id="14009" Name="MissionName14009" Background="Home_Backgrond__mystery red0009" Model="14009" NimIcon="atom_icon0165" QuestId="20072" dailyGoalPercent="1.45" AwardCoin="174" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10143" Height="3" /&gt;
   &lt;TreasureBox BoxId="10144" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R74" s="11" t="s">
+      <c r="S74" s="11" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:19">
       <c r="A75" s="27"/>
       <c r="B75" s="22" t="str">
         <f t="shared" si="9"/>
@@ -17963,30 +18081,31 @@
       <c r="J75" s="24"/>
       <c r="K75" s="23"/>
       <c r="L75" s="23"/>
-      <c r="M75" s="23">
+      <c r="M75" s="23"/>
+      <c r="N75" s="23">
         <v>10145</v>
       </c>
-      <c r="N75" s="23">
+      <c r="O75" s="23">
         <v>3</v>
       </c>
-      <c r="O75" s="23">
+      <c r="P75" s="23">
         <v>10146</v>
       </c>
-      <c r="P75" s="23">
+      <c r="Q75" s="23">
         <v>8</v>
       </c>
-      <c r="Q75" s="19" t="str">
+      <c r="R75" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="14010" Name="MissionName14010" Background="Home_Backgrond__mystery red0010" Model="14010" NimIcon="atom_icon0166" QuestId="20073" dailyGoalPercent="1.5" AwardCoin="176" BGM="" Sound="" WaterDrop=""&gt;
+        <v>&lt;Mission Id="14010" Name="MissionName14010" Background="Home_Backgrond__mystery red0010" Model="14010" NimIcon="atom_icon0166" QuestId="20073" dailyGoalPercent="1.5" AwardCoin="176" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10145" Height="3" /&gt;
   &lt;TreasureBox BoxId="10146" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R75" s="11" t="s">
+      <c r="S75" s="11" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:19">
       <c r="A76" s="51"/>
       <c r="B76" s="29">
         <v>81001</v>
@@ -18020,28 +18139,31 @@
       <c r="L76" s="23" t="s">
         <v>1255</v>
       </c>
-      <c r="M76" s="28">
+      <c r="M76" s="23" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N76" s="28">
         <v>81001</v>
       </c>
-      <c r="N76" s="23">
+      <c r="O76" s="23">
         <v>3</v>
       </c>
-      <c r="O76" s="28">
+      <c r="P76" s="28">
         <v>81002</v>
       </c>
-      <c r="P76" s="23">
+      <c r="Q76" s="23">
         <v>8</v>
       </c>
-      <c r="Q76" s="19" t="str">
+      <c r="R76" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="81001" Name="MissionName81001" Background="Home_hallowmas__bg_01" Model="81001" NimIcon="" QuestId="20078" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="07KuLou"&gt;
+        <v>&lt;Mission Id="81001" Name="MissionName81001" Background="Home_hallowmas__bg_01" Model="81001" NimIcon="" QuestId="20078" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="07KuLou" WaterDropAudio="water_drop_down_81001"&gt;
   &lt;TreasureBox BoxId="81001" Height="3" /&gt;
   &lt;TreasureBox BoxId="81002" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R76" s="6"/>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="S76" s="6"/>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="51"/>
       <c r="B77" s="29">
         <v>81002</v>
@@ -18075,28 +18197,31 @@
       <c r="L77" s="23" t="s">
         <v>1256</v>
       </c>
-      <c r="M77" s="28">
+      <c r="M77" s="23" t="s">
+        <v>1261</v>
+      </c>
+      <c r="N77" s="28">
         <v>81003</v>
       </c>
-      <c r="N77" s="23">
+      <c r="O77" s="23">
         <v>3</v>
       </c>
-      <c r="O77" s="28">
+      <c r="P77" s="28">
         <v>81004</v>
       </c>
-      <c r="P77" s="23">
+      <c r="Q77" s="23">
         <v>8</v>
       </c>
-      <c r="Q77" s="19" t="str">
+      <c r="R77" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="81002" Name="MissionName81002" Background="Home_hallowmas__bg_02" Model="81002" NimIcon="" QuestId="20079" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="05PingGuo"&gt;
+        <v>&lt;Mission Id="81002" Name="MissionName81002" Background="Home_hallowmas__bg_02" Model="81002" NimIcon="" QuestId="20079" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="05PingGuo" WaterDropAudio="water_drop_down_81002"&gt;
   &lt;TreasureBox BoxId="81003" Height="3" /&gt;
   &lt;TreasureBox BoxId="81004" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R77" s="6"/>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="S77" s="6"/>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="51"/>
       <c r="B78" s="29">
         <v>81003</v>
@@ -18130,28 +18255,31 @@
       <c r="L78" s="23" t="s">
         <v>1257</v>
       </c>
-      <c r="M78" s="28">
+      <c r="M78" s="23" t="s">
+        <v>1262</v>
+      </c>
+      <c r="N78" s="28">
         <v>81005</v>
       </c>
-      <c r="N78" s="23">
+      <c r="O78" s="23">
         <v>3</v>
       </c>
-      <c r="O78" s="28">
+      <c r="P78" s="28">
         <v>81006</v>
       </c>
-      <c r="P78" s="23">
+      <c r="Q78" s="23">
         <v>8</v>
       </c>
-      <c r="Q78" s="19" t="str">
+      <c r="R78" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="81003" Name="MissionName81003" Background="Home_hallowmas__bg_03" Model="81003" NimIcon="" QuestId="20080" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="01NanGua"&gt;
+        <v>&lt;Mission Id="81003" Name="MissionName81003" Background="Home_hallowmas__bg_03" Model="81003" NimIcon="" QuestId="20080" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="01NanGua" WaterDropAudio="water_drop_down_81003"&gt;
   &lt;TreasureBox BoxId="81005" Height="3" /&gt;
   &lt;TreasureBox BoxId="81006" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R78" s="6"/>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="S78" s="6"/>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="51"/>
       <c r="B79" s="29">
         <v>81004</v>
@@ -18185,28 +18313,31 @@
       <c r="L79" s="23" t="s">
         <v>1258</v>
       </c>
-      <c r="M79" s="28">
+      <c r="M79" s="23" t="s">
+        <v>1263</v>
+      </c>
+      <c r="N79" s="28">
         <v>81007</v>
       </c>
-      <c r="N79" s="23">
+      <c r="O79" s="23">
         <v>3</v>
       </c>
-      <c r="O79" s="28">
+      <c r="P79" s="28">
         <v>81008</v>
       </c>
-      <c r="P79" s="23">
+      <c r="Q79" s="23">
         <v>8</v>
       </c>
-      <c r="Q79" s="19" t="str">
+      <c r="R79" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="81004" Name="MissionName81004" Background="Home_hallowmas__bg_04" Model="81004" NimIcon="" QuestId="20081" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="03ShouGu"&gt;
+        <v>&lt;Mission Id="81004" Name="MissionName81004" Background="Home_hallowmas__bg_04" Model="81004" NimIcon="" QuestId="20081" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="03ShouGu" WaterDropAudio="water_drop_down_81004"&gt;
   &lt;TreasureBox BoxId="81007" Height="3" /&gt;
   &lt;TreasureBox BoxId="81008" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R79" s="6"/>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="S79" s="6"/>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="48"/>
       <c r="B80" s="29">
         <v>91001</v>
@@ -18234,28 +18365,29 @@
       <c r="J80" s="50"/>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
-      <c r="M80" s="23">
+      <c r="M80" s="23"/>
+      <c r="N80" s="23">
         <v>91001</v>
       </c>
-      <c r="N80" s="23">
+      <c r="O80" s="23">
         <v>3</v>
       </c>
-      <c r="O80" s="23">
+      <c r="P80" s="23">
         <v>91002</v>
       </c>
-      <c r="P80" s="23">
+      <c r="Q80" s="23">
         <v>8</v>
       </c>
-      <c r="Q80" s="19" t="str">
+      <c r="R80" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="91001" Name="MissionName91001" Background="Home_Backgrond_nationalday_01" Model="91001" NimIcon="" QuestId="20074" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop=""&gt;
+        <v>&lt;Mission Id="91001" Name="MissionName91001" Background="Home_Backgrond_nationalday_01" Model="91001" NimIcon="" QuestId="20074" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91001" Height="3" /&gt;
   &lt;TreasureBox BoxId="91002" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R80" s="6"/>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="S80" s="6"/>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="48"/>
       <c r="B81" s="29">
         <v>91002</v>
@@ -18283,28 +18415,29 @@
       <c r="J81" s="50"/>
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
-      <c r="M81" s="23">
+      <c r="M81" s="23"/>
+      <c r="N81" s="23">
         <v>91003</v>
       </c>
-      <c r="N81" s="23">
+      <c r="O81" s="23">
         <v>3</v>
       </c>
-      <c r="O81" s="23">
+      <c r="P81" s="23">
         <v>91004</v>
       </c>
-      <c r="P81" s="23">
+      <c r="Q81" s="23">
         <v>8</v>
       </c>
-      <c r="Q81" s="19" t="str">
+      <c r="R81" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="91002" Name="MissionName91002" Background="Home_Backgrond_nationalday_02" Model="91001" NimIcon="" QuestId="20075" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop=""&gt;
+        <v>&lt;Mission Id="91002" Name="MissionName91002" Background="Home_Backgrond_nationalday_02" Model="91001" NimIcon="" QuestId="20075" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91003" Height="3" /&gt;
   &lt;TreasureBox BoxId="91004" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R81" s="6"/>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="S81" s="6"/>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="48"/>
       <c r="B82" s="29">
         <v>91003</v>
@@ -18332,28 +18465,29 @@
       <c r="J82" s="50"/>
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
-      <c r="M82" s="23">
+      <c r="M82" s="23"/>
+      <c r="N82" s="23">
         <v>91005</v>
       </c>
-      <c r="N82" s="23">
+      <c r="O82" s="23">
         <v>3</v>
       </c>
-      <c r="O82" s="23">
+      <c r="P82" s="23">
         <v>91006</v>
       </c>
-      <c r="P82" s="23">
+      <c r="Q82" s="23">
         <v>8</v>
       </c>
-      <c r="Q82" s="19" t="str">
+      <c r="R82" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="91003" Name="MissionName91003" Background="Home_Backgrond_nationalday_03" Model="91001" NimIcon="" QuestId="20076" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop=""&gt;
+        <v>&lt;Mission Id="91003" Name="MissionName91003" Background="Home_Backgrond_nationalday_03" Model="91001" NimIcon="" QuestId="20076" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91005" Height="3" /&gt;
   &lt;TreasureBox BoxId="91006" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R82" s="6"/>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="S82" s="6"/>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="48"/>
       <c r="B83" s="29">
         <v>91004</v>
@@ -18381,26 +18515,27 @@
       <c r="J83" s="50"/>
       <c r="K83" s="23"/>
       <c r="L83" s="23"/>
-      <c r="M83" s="23">
+      <c r="M83" s="23"/>
+      <c r="N83" s="23">
         <v>91007</v>
       </c>
-      <c r="N83" s="23">
+      <c r="O83" s="23">
         <v>3</v>
       </c>
-      <c r="O83" s="23">
+      <c r="P83" s="23">
         <v>91008</v>
       </c>
-      <c r="P83" s="23">
+      <c r="Q83" s="23">
         <v>8</v>
       </c>
-      <c r="Q83" s="19" t="str">
+      <c r="R83" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;Mission Id="91004" Name="MissionName91004" Background="Home_Backgrond_nationalday_04" Model="91001" NimIcon="" QuestId="20077" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop=""&gt;
+        <v>&lt;Mission Id="91004" Name="MissionName91004" Background="Home_Backgrond_nationalday_04" Model="91001" NimIcon="" QuestId="20077" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91007" Height="3" /&gt;
   &lt;TreasureBox BoxId="91008" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE6BFE-ED07-4D9B-8A7D-4A281AFB721F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26885271-E4E3-4655-B488-9966586C3BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -415,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3295" uniqueCount="1837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3319" uniqueCount="1838">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6106,6 +6107,10 @@
   </si>
   <si>
     <t>&lt;Clip SoundPath="nuo_friend_guest_out_01" /&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home_denmark_bg_01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6116,7 +6121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6223,8 +6228,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6331,6 +6343,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF5B"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -6522,7 +6546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6760,6 +6784,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7013,6 +7055,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF5B"/>
+      <color rgb="FFFFFFA7"/>
+      <color rgb="FFE0C1FF"/>
       <color rgb="FF007635"/>
       <color rgb="FFC7EB53"/>
       <color rgb="FF5BD4FF"/>
@@ -7082,8 +7127,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{350DD965-7145-4FE0-968E-9354B018690E}" name="表1_32" displayName="表1_32" ref="B1:S83" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="B1:S83" xr:uid="{0B77F3DD-062A-4E4C-A15C-041DCCD5A7ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{350DD965-7145-4FE0-968E-9354B018690E}" name="表1_32" displayName="表1_32" ref="B1:S87" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="B1:S87" xr:uid="{0B77F3DD-062A-4E4C-A15C-041DCCD5A7ED}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{DD576350-F6C3-4247-BE6B-60A6FD6B462B}" name="Id" dataDxfId="37"/>
     <tableColumn id="3" xr3:uid="{A9F59448-DBE8-42AA-9B32-1837FDDF48C1}" name="Name" dataDxfId="36"/>
@@ -7111,8 +7156,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_34" displayName="表1_34" ref="B1:G1048512" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="B1:G1048512" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_34" displayName="表1_34" ref="B1:G1048485" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B1:G1048485" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="16"/>
@@ -7388,11 +7433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51970717-45CE-491D-AF6A-4147CB8CE361}">
-  <dimension ref="A1:O155"/>
+  <dimension ref="A1:O159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15484,6 +15529,134 @@
       </c>
       <c r="O155" s="82"/>
     </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="88">
+        <f>ItemFood!B24</f>
+        <v>69012</v>
+      </c>
+      <c r="B156" s="89">
+        <f>ItemFood!C16</f>
+        <v>6</v>
+      </c>
+      <c r="C156" s="90" t="str">
+        <f>ItemFood!D24</f>
+        <v>spider cake</v>
+      </c>
+      <c r="D156" s="90" t="str">
+        <f>ItemFood!S24</f>
+        <v>food_spider_cake</v>
+      </c>
+      <c r="E156" s="90"/>
+      <c r="F156" s="90"/>
+      <c r="G156" s="90"/>
+      <c r="H156" s="90"/>
+      <c r="I156" s="90"/>
+      <c r="J156" s="90"/>
+      <c r="K156" s="90"/>
+      <c r="L156" s="90"/>
+      <c r="M156" s="90"/>
+      <c r="N156" s="90" t="str">
+        <f t="shared" ref="N156:N159" si="20">"&lt;Item Id="""&amp;A156&amp;""" Type="""&amp;B156&amp;""" Name="""&amp;C156&amp;""" getImage="""&amp;D156&amp;""" Icon="""&amp;E156&amp;""" StoryBg="""&amp;F156&amp;""" AudioId="""&amp;G156&amp;""" Description="""&amp;H156&amp;""" PetType="""&amp;I156&amp;""" Image="""&amp;J156&amp;""" Audio="""&amp;K156&amp;""" Animation="""&amp;L156&amp;""" Preview="""&amp;M156&amp;"""/&gt;"</f>
+        <v>&lt;Item Id="69012" Type="6" Name="spider cake" getImage="food_spider_cake" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+      </c>
+      <c r="O156" s="91"/>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="88">
+        <f>ItemFood!B25</f>
+        <v>69013</v>
+      </c>
+      <c r="B157" s="89">
+        <f>ItemFood!C17</f>
+        <v>6</v>
+      </c>
+      <c r="C157" s="90" t="str">
+        <f>ItemFood!D25</f>
+        <v>toffee apple</v>
+      </c>
+      <c r="D157" s="90" t="str">
+        <f>ItemFood!S25</f>
+        <v>food_toffee_apple</v>
+      </c>
+      <c r="E157" s="90"/>
+      <c r="F157" s="90"/>
+      <c r="G157" s="90"/>
+      <c r="H157" s="90"/>
+      <c r="I157" s="90"/>
+      <c r="J157" s="90"/>
+      <c r="K157" s="90"/>
+      <c r="L157" s="90"/>
+      <c r="M157" s="90"/>
+      <c r="N157" s="90" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;Item Id="69013" Type="6" Name="toffee apple" getImage="food_toffee_apple" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+      </c>
+      <c r="O157" s="91"/>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="88">
+        <f>ItemFood!B26</f>
+        <v>69014</v>
+      </c>
+      <c r="B158" s="89">
+        <f>ItemFood!C18</f>
+        <v>6</v>
+      </c>
+      <c r="C158" s="90" t="str">
+        <f>ItemFood!D26</f>
+        <v>mummy chocolate</v>
+      </c>
+      <c r="D158" s="90" t="str">
+        <f>ItemFood!S26</f>
+        <v>food_mummy_chocolate</v>
+      </c>
+      <c r="E158" s="90"/>
+      <c r="F158" s="90"/>
+      <c r="G158" s="90"/>
+      <c r="H158" s="90"/>
+      <c r="I158" s="90"/>
+      <c r="J158" s="90"/>
+      <c r="K158" s="90"/>
+      <c r="L158" s="90"/>
+      <c r="M158" s="90"/>
+      <c r="N158" s="90" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;Item Id="69014" Type="6" Name="mummy chocolate" getImage="food_mummy_chocolate" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+      </c>
+      <c r="O158" s="91"/>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="88">
+        <f>ItemFood!B27</f>
+        <v>69015</v>
+      </c>
+      <c r="B159" s="89">
+        <f>ItemFood!C19</f>
+        <v>6</v>
+      </c>
+      <c r="C159" s="90" t="str">
+        <f>ItemFood!D27</f>
+        <v>skull cookie</v>
+      </c>
+      <c r="D159" s="90" t="str">
+        <f>ItemFood!S27</f>
+        <v>food_skull_cookie</v>
+      </c>
+      <c r="E159" s="90"/>
+      <c r="F159" s="90"/>
+      <c r="G159" s="90"/>
+      <c r="H159" s="90"/>
+      <c r="I159" s="90"/>
+      <c r="J159" s="90"/>
+      <c r="K159" s="90"/>
+      <c r="L159" s="90"/>
+      <c r="M159" s="90"/>
+      <c r="N159" s="90" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;Item Id="69015" Type="6" Name="skull cookie" getImage="food_skull_cookie" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+      </c>
+      <c r="O159" s="91"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O151" xr:uid="{F1C8DC3A-3CB1-4F30-A550-4BE567DF24D4}"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -15494,13 +15667,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A1297D-CA25-454C-8AB1-2D4EE96004F3}">
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="A80" sqref="A80:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -19480,7 +19653,7 @@
         <v>8</v>
       </c>
       <c r="R67" s="19" t="str">
-        <f t="shared" ref="R67:R83" si="8">IF(B67&lt;&gt;"","&lt;Mission Id="""&amp;B67&amp;""" Name="""&amp;C67&amp;""" Background="""&amp;D67&amp;""" Model="""&amp;E67&amp;""" NimIcon="""&amp;F67&amp;""" QuestId="""&amp;G67&amp;""" dailyGoalPercent="""&amp;H67&amp;""" AwardCoin="""&amp;I67&amp;""" BGM="""&amp;J67&amp;""" Sound="""&amp;K67&amp;""" WaterDrop="""&amp;L67&amp;""" WaterDropAudio="""&amp;M67&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N67&amp;""" Height="""&amp;O67&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P67&amp;""" Height="""&amp;Q67&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
+        <f t="shared" ref="R67:R87" si="8">IF(B67&lt;&gt;"","&lt;Mission Id="""&amp;B67&amp;""" Name="""&amp;C67&amp;""" Background="""&amp;D67&amp;""" Model="""&amp;E67&amp;""" NimIcon="""&amp;F67&amp;""" QuestId="""&amp;G67&amp;""" dailyGoalPercent="""&amp;H67&amp;""" AwardCoin="""&amp;I67&amp;""" BGM="""&amp;J67&amp;""" Sound="""&amp;K67&amp;""" WaterDrop="""&amp;L67&amp;""" WaterDropAudio="""&amp;M67&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N67&amp;""" Height="""&amp;O67&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P67&amp;""" Height="""&amp;Q67&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
         <v>&lt;Mission Id="14002" Name="MissionName14002" Background="Home_Backgrond__mystery red0002" Model="14002" NimIcon="atom_icon0158" QuestId="20065" dailyGoalPercent="1.3" AwardCoin="160" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10129" Height="3" /&gt;
   &lt;TreasureBox BoxId="10130" Height="8" /&gt;
@@ -20004,7 +20177,7 @@
         <v>8</v>
       </c>
       <c r="R76" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="R76:R79" si="14">IF(B76&lt;&gt;"","&lt;Mission Id="""&amp;B76&amp;""" Name="""&amp;C76&amp;""" Background="""&amp;D76&amp;""" Model="""&amp;E76&amp;""" NimIcon="""&amp;F76&amp;""" QuestId="""&amp;G76&amp;""" dailyGoalPercent="""&amp;H76&amp;""" AwardCoin="""&amp;I76&amp;""" BGM="""&amp;J76&amp;""" Sound="""&amp;K76&amp;""" WaterDrop="""&amp;L76&amp;""" WaterDropAudio="""&amp;M76&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N76&amp;""" Height="""&amp;O76&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P76&amp;""" Height="""&amp;Q76&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
         <v>&lt;Mission Id="81001" Name="MissionName81001" Background="Home_hallowmas__bg_01" Model="81001" NimIcon="" QuestId="20078" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="07KuLou" WaterDropAudio="water_drop_down_81001"&gt;
   &lt;TreasureBox BoxId="81001" Height="3" /&gt;
   &lt;TreasureBox BoxId="81002" Height="8" /&gt;
@@ -20018,7 +20191,7 @@
         <v>81002</v>
       </c>
       <c r="C77" s="28" t="str">
-        <f t="shared" ref="C77:C79" si="14">"MissionName"&amp;B77</f>
+        <f t="shared" ref="C77:C79" si="15">"MissionName"&amp;B77</f>
         <v>MissionName81002</v>
       </c>
       <c r="D77" s="28" t="s">
@@ -20062,7 +20235,7 @@
         <v>8</v>
       </c>
       <c r="R77" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>&lt;Mission Id="81002" Name="MissionName81002" Background="Home_hallowmas__bg_02" Model="81002" NimIcon="" QuestId="20079" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="05PingGuo" WaterDropAudio="water_drop_down_81002"&gt;
   &lt;TreasureBox BoxId="81003" Height="3" /&gt;
   &lt;TreasureBox BoxId="81004" Height="8" /&gt;
@@ -20076,7 +20249,7 @@
         <v>81003</v>
       </c>
       <c r="C78" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>MissionName81003</v>
       </c>
       <c r="D78" s="28" t="s">
@@ -20120,7 +20293,7 @@
         <v>8</v>
       </c>
       <c r="R78" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>&lt;Mission Id="81003" Name="MissionName81003" Background="Home_hallowmas__bg_03" Model="81003" NimIcon="" QuestId="20080" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="01NanGua" WaterDropAudio="water_drop_down_81003"&gt;
   &lt;TreasureBox BoxId="81005" Height="3" /&gt;
   &lt;TreasureBox BoxId="81006" Height="8" /&gt;
@@ -20134,7 +20307,7 @@
         <v>81004</v>
       </c>
       <c r="C79" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>MissionName81004</v>
       </c>
       <c r="D79" s="28" t="s">
@@ -20178,7 +20351,7 @@
         <v>8</v>
       </c>
       <c r="R79" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>&lt;Mission Id="81004" Name="MissionName81004" Background="Home_hallowmas__bg_04" Model="81004" NimIcon="" QuestId="20081" dailyGoalPercent="0.5" AwardCoin="50" BGM="hallowmas_bgm" Sound="hallowmas_effect" WaterDrop="03ShouGu" WaterDropAudio="water_drop_down_81004"&gt;
   &lt;TreasureBox BoxId="81007" Height="3" /&gt;
   &lt;TreasureBox BoxId="81008" Height="8" /&gt;
@@ -20187,23 +20360,23 @@
       <c r="S79" s="6"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="48"/>
+      <c r="A80" s="87"/>
       <c r="B80" s="29">
-        <v>91001</v>
+        <v>82001</v>
       </c>
       <c r="C80" s="28" t="str">
         <f>"MissionName"&amp;B80</f>
-        <v>MissionName91001</v>
+        <v>MissionName82001</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>1229</v>
+        <v>1837</v>
       </c>
       <c r="E80" s="29">
-        <v>91001</v>
+        <v>82001</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="29">
-        <v>20074</v>
+        <v>20082</v>
       </c>
       <c r="H80" s="50">
         <v>0.5</v>
@@ -20215,176 +20388,376 @@
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
       <c r="M80" s="23"/>
-      <c r="N80" s="23">
-        <v>91001</v>
+      <c r="N80" s="28">
+        <v>81009</v>
       </c>
       <c r="O80" s="23">
         <v>3</v>
       </c>
-      <c r="P80" s="23">
-        <v>91002</v>
+      <c r="P80" s="28">
+        <v>81010</v>
       </c>
       <c r="Q80" s="23">
         <v>8</v>
       </c>
       <c r="R80" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Mission Id="82001" Name="MissionName82001" Background="Home_denmark_bg_01" Model="82001" NimIcon="" QuestId="20082" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+  &lt;TreasureBox BoxId="81009" Height="3" /&gt;
+  &lt;TreasureBox BoxId="81010" Height="8" /&gt;
+&lt;/Mission&gt;</v>
+      </c>
+      <c r="S80" s="6"/>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="87"/>
+      <c r="B81" s="29">
+        <v>82002</v>
+      </c>
+      <c r="C81" s="28" t="str">
+        <f t="shared" ref="C81:C83" si="16">"MissionName"&amp;B81</f>
+        <v>MissionName82002</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E81" s="29">
+        <v>82002</v>
+      </c>
+      <c r="F81" s="28"/>
+      <c r="G81" s="29">
+        <v>20083</v>
+      </c>
+      <c r="H81" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="I81" s="50">
+        <v>50</v>
+      </c>
+      <c r="J81" s="50"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="28">
+        <v>81011</v>
+      </c>
+      <c r="O81" s="23">
+        <v>3</v>
+      </c>
+      <c r="P81" s="28">
+        <v>81012</v>
+      </c>
+      <c r="Q81" s="23">
+        <v>8</v>
+      </c>
+      <c r="R81" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Mission Id="82002" Name="MissionName82002" Background="Home_denmark_bg_01" Model="82002" NimIcon="" QuestId="20083" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+  &lt;TreasureBox BoxId="81011" Height="3" /&gt;
+  &lt;TreasureBox BoxId="81012" Height="8" /&gt;
+&lt;/Mission&gt;</v>
+      </c>
+      <c r="S81" s="6"/>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="87"/>
+      <c r="B82" s="29">
+        <v>82003</v>
+      </c>
+      <c r="C82" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v>MissionName82003</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E82" s="29">
+        <v>82003</v>
+      </c>
+      <c r="F82" s="28"/>
+      <c r="G82" s="29">
+        <v>20084</v>
+      </c>
+      <c r="H82" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="I82" s="50">
+        <v>50</v>
+      </c>
+      <c r="J82" s="50"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="28">
+        <v>81013</v>
+      </c>
+      <c r="O82" s="23">
+        <v>3</v>
+      </c>
+      <c r="P82" s="28">
+        <v>81014</v>
+      </c>
+      <c r="Q82" s="23">
+        <v>8</v>
+      </c>
+      <c r="R82" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Mission Id="82003" Name="MissionName82003" Background="Home_denmark_bg_01" Model="82003" NimIcon="" QuestId="20084" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+  &lt;TreasureBox BoxId="81013" Height="3" /&gt;
+  &lt;TreasureBox BoxId="81014" Height="8" /&gt;
+&lt;/Mission&gt;</v>
+      </c>
+      <c r="S82" s="6"/>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="87"/>
+      <c r="B83" s="29">
+        <v>82004</v>
+      </c>
+      <c r="C83" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v>MissionName82004</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E83" s="29">
+        <v>82004</v>
+      </c>
+      <c r="F83" s="28"/>
+      <c r="G83" s="29">
+        <v>20085</v>
+      </c>
+      <c r="H83" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="I83" s="50">
+        <v>50</v>
+      </c>
+      <c r="J83" s="50"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="28">
+        <v>81015</v>
+      </c>
+      <c r="O83" s="23">
+        <v>3</v>
+      </c>
+      <c r="P83" s="28">
+        <v>81016</v>
+      </c>
+      <c r="Q83" s="23">
+        <v>8</v>
+      </c>
+      <c r="R83" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Mission Id="82004" Name="MissionName82004" Background="Home_denmark_bg_01" Model="82004" NimIcon="" QuestId="20085" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+  &lt;TreasureBox BoxId="81015" Height="3" /&gt;
+  &lt;TreasureBox BoxId="81016" Height="8" /&gt;
+&lt;/Mission&gt;</v>
+      </c>
+      <c r="S83" s="6"/>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="48"/>
+      <c r="B84" s="29">
+        <v>91001</v>
+      </c>
+      <c r="C84" s="28" t="str">
+        <f>"MissionName"&amp;B84</f>
+        <v>MissionName91001</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E84" s="29">
+        <v>91001</v>
+      </c>
+      <c r="F84" s="28"/>
+      <c r="G84" s="29">
+        <v>20074</v>
+      </c>
+      <c r="H84" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="I84" s="50">
+        <v>50</v>
+      </c>
+      <c r="J84" s="50"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23">
+        <v>91001</v>
+      </c>
+      <c r="O84" s="23">
+        <v>3</v>
+      </c>
+      <c r="P84" s="23">
+        <v>91002</v>
+      </c>
+      <c r="Q84" s="23">
+        <v>8</v>
+      </c>
+      <c r="R84" s="19" t="str">
         <f t="shared" si="8"/>
         <v>&lt;Mission Id="91001" Name="MissionName91001" Background="Home_Backgrond_nationalday_01" Model="91001" NimIcon="" QuestId="20074" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91001" Height="3" /&gt;
   &lt;TreasureBox BoxId="91002" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="S80" s="6"/>
-    </row>
-    <row r="81" spans="1:19">
-      <c r="A81" s="48"/>
-      <c r="B81" s="29">
+      <c r="S84" s="6"/>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="48"/>
+      <c r="B85" s="29">
         <v>91002</v>
       </c>
-      <c r="C81" s="28" t="str">
-        <f t="shared" ref="C81:C83" si="15">"MissionName"&amp;B81</f>
+      <c r="C85" s="28" t="str">
+        <f t="shared" ref="C85:C87" si="17">"MissionName"&amp;B85</f>
         <v>MissionName91002</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="D85" s="28" t="s">
         <v>1230</v>
       </c>
-      <c r="E81" s="29">
+      <c r="E85" s="29">
         <v>91001</v>
       </c>
-      <c r="F81" s="28"/>
-      <c r="G81" s="29">
+      <c r="F85" s="28"/>
+      <c r="G85" s="29">
         <v>20075</v>
       </c>
-      <c r="H81" s="50">
+      <c r="H85" s="50">
         <v>0.5</v>
       </c>
-      <c r="I81" s="50">
+      <c r="I85" s="50">
         <v>50</v>
       </c>
-      <c r="J81" s="50"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23">
+      <c r="J85" s="50"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23">
         <v>91003</v>
       </c>
-      <c r="O81" s="23">
+      <c r="O85" s="23">
         <v>3</v>
       </c>
-      <c r="P81" s="23">
+      <c r="P85" s="23">
         <v>91004</v>
       </c>
-      <c r="Q81" s="23">
+      <c r="Q85" s="23">
         <v>8</v>
       </c>
-      <c r="R81" s="19" t="str">
+      <c r="R85" s="19" t="str">
         <f t="shared" si="8"/>
         <v>&lt;Mission Id="91002" Name="MissionName91002" Background="Home_Backgrond_nationalday_02" Model="91001" NimIcon="" QuestId="20075" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91003" Height="3" /&gt;
   &lt;TreasureBox BoxId="91004" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="S81" s="6"/>
-    </row>
-    <row r="82" spans="1:19">
-      <c r="A82" s="48"/>
-      <c r="B82" s="29">
+      <c r="S85" s="6"/>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" s="48"/>
+      <c r="B86" s="29">
         <v>91003</v>
       </c>
-      <c r="C82" s="28" t="str">
-        <f t="shared" si="15"/>
+      <c r="C86" s="28" t="str">
+        <f t="shared" si="17"/>
         <v>MissionName91003</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D86" s="28" t="s">
         <v>1231</v>
       </c>
-      <c r="E82" s="29">
+      <c r="E86" s="29">
         <v>91001</v>
       </c>
-      <c r="F82" s="28"/>
-      <c r="G82" s="29">
+      <c r="F86" s="28"/>
+      <c r="G86" s="29">
         <v>20076</v>
       </c>
-      <c r="H82" s="50">
+      <c r="H86" s="50">
         <v>0.5</v>
       </c>
-      <c r="I82" s="50">
+      <c r="I86" s="50">
         <v>50</v>
       </c>
-      <c r="J82" s="50"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="23">
+      <c r="J86" s="50"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23">
         <v>91005</v>
       </c>
-      <c r="O82" s="23">
+      <c r="O86" s="23">
         <v>3</v>
       </c>
-      <c r="P82" s="23">
+      <c r="P86" s="23">
         <v>91006</v>
       </c>
-      <c r="Q82" s="23">
+      <c r="Q86" s="23">
         <v>8</v>
       </c>
-      <c r="R82" s="19" t="str">
+      <c r="R86" s="19" t="str">
         <f t="shared" si="8"/>
         <v>&lt;Mission Id="91003" Name="MissionName91003" Background="Home_Backgrond_nationalday_03" Model="91001" NimIcon="" QuestId="20076" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91005" Height="3" /&gt;
   &lt;TreasureBox BoxId="91006" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="S82" s="6"/>
-    </row>
-    <row r="83" spans="1:19">
-      <c r="A83" s="48"/>
-      <c r="B83" s="29">
+      <c r="S86" s="6"/>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" s="48"/>
+      <c r="B87" s="29">
         <v>91004</v>
       </c>
-      <c r="C83" s="28" t="str">
-        <f t="shared" si="15"/>
+      <c r="C87" s="28" t="str">
+        <f t="shared" si="17"/>
         <v>MissionName91004</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D87" s="28" t="s">
         <v>1232</v>
       </c>
-      <c r="E83" s="29">
+      <c r="E87" s="29">
         <v>91001</v>
       </c>
-      <c r="F83" s="28"/>
-      <c r="G83" s="29">
+      <c r="F87" s="28"/>
+      <c r="G87" s="29">
         <v>20077</v>
       </c>
-      <c r="H83" s="50">
+      <c r="H87" s="50">
         <v>0.5</v>
       </c>
-      <c r="I83" s="50">
+      <c r="I87" s="50">
         <v>50</v>
       </c>
-      <c r="J83" s="50"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="23"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="23">
+      <c r="J87" s="50"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23">
         <v>91007</v>
       </c>
-      <c r="O83" s="23">
+      <c r="O87" s="23">
         <v>3</v>
       </c>
-      <c r="P83" s="23">
+      <c r="P87" s="23">
         <v>91008</v>
       </c>
-      <c r="Q83" s="23">
+      <c r="Q87" s="23">
         <v>8</v>
       </c>
-      <c r="R83" s="19" t="str">
+      <c r="R87" s="19" t="str">
         <f t="shared" si="8"/>
         <v>&lt;Mission Id="91004" Name="MissionName91004" Background="Home_Backgrond_nationalday_04" Model="91001" NimIcon="" QuestId="20077" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91007" Height="3" /&gt;
   &lt;TreasureBox BoxId="91008" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="S83" s="6"/>
+      <c r="S87" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -20398,11 +20771,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -23162,7 +23535,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="11" t="str">
-        <f t="shared" ref="G131:G163" si="2">IF(B131&lt;&gt;"","&lt;TreasureBox Id="""&amp;B131&amp;""" Type="""&amp;C131&amp;""" Name="""&amp;D131&amp;"""&gt;"&amp;CHAR(10)&amp;" &lt;Treasure ItemId="""&amp;E131&amp;""" Value="""&amp;F131&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/TreasureBox&gt;","")</f>
+        <f t="shared" ref="G131:G171" si="2">IF(B131&lt;&gt;"","&lt;TreasureBox Id="""&amp;B131&amp;""" Type="""&amp;C131&amp;""" Name="""&amp;D131&amp;"""&gt;"&amp;CHAR(10)&amp;" &lt;Treasure ItemId="""&amp;E131&amp;""" Value="""&amp;F131&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/TreasureBox&gt;","")</f>
         <v>&lt;TreasureBox Id="10130" Type="1" Name=""&gt;
  &lt;Treasure ItemId="40150" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
@@ -23673,167 +24046,335 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="49"/>
+      <c r="A156" s="92"/>
       <c r="B156" s="7">
-        <v>91001</v>
+        <v>81009</v>
       </c>
       <c r="C156" s="1">
         <v>2</v>
       </c>
       <c r="E156" s="6">
+        <v>69012</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+      <c r="G156" s="11" t="str">
+        <f t="shared" ref="G156:G163" si="3">IF(B156&lt;&gt;"","&lt;TreasureBox Id="""&amp;B156&amp;""" Type="""&amp;C156&amp;""" Name="""&amp;D156&amp;"""&gt;"&amp;CHAR(10)&amp;" &lt;Treasure ItemId="""&amp;E156&amp;""" Value="""&amp;F156&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/TreasureBox&gt;","")</f>
+        <v>&lt;TreasureBox Id="81009" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69012" Value="1" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="92"/>
+      <c r="B157" s="7">
+        <v>81010</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2</v>
+      </c>
+      <c r="E157" s="6">
+        <v>69012</v>
+      </c>
+      <c r="F157" s="1">
+        <v>3</v>
+      </c>
+      <c r="G157" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="81010" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69012" Value="3" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="92"/>
+      <c r="B158" s="7">
+        <v>81011</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2</v>
+      </c>
+      <c r="E158" s="6">
+        <v>69013</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1</v>
+      </c>
+      <c r="G158" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="81011" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69013" Value="1" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="92"/>
+      <c r="B159" s="7">
+        <v>81012</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2</v>
+      </c>
+      <c r="E159" s="6">
+        <v>69013</v>
+      </c>
+      <c r="F159" s="1">
+        <v>3</v>
+      </c>
+      <c r="G159" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="81012" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69013" Value="3" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="92"/>
+      <c r="B160" s="7">
+        <v>81013</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2</v>
+      </c>
+      <c r="E160" s="6">
+        <v>69014</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1</v>
+      </c>
+      <c r="G160" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="81013" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69014" Value="1" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="92"/>
+      <c r="B161" s="7">
+        <v>81014</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2</v>
+      </c>
+      <c r="E161" s="6">
+        <v>69014</v>
+      </c>
+      <c r="F161" s="1">
+        <v>3</v>
+      </c>
+      <c r="G161" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="81014" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69014" Value="3" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="92"/>
+      <c r="B162" s="7">
+        <v>81015</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2</v>
+      </c>
+      <c r="E162" s="6">
+        <v>69015</v>
+      </c>
+      <c r="F162" s="1">
+        <v>1</v>
+      </c>
+      <c r="G162" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="81015" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69015" Value="1" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="92"/>
+      <c r="B163" s="7">
+        <v>81016</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2</v>
+      </c>
+      <c r="E163" s="6">
+        <v>69015</v>
+      </c>
+      <c r="F163" s="1">
+        <v>3</v>
+      </c>
+      <c r="G163" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="81016" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69015" Value="3" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="49"/>
+      <c r="B164" s="7">
+        <v>91001</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2</v>
+      </c>
+      <c r="E164" s="6">
         <v>69004</v>
       </c>
-      <c r="F156" s="1">
-        <v>1</v>
-      </c>
-      <c r="G156" s="11" t="str">
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
+      <c r="G164" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91001" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69004" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="49"/>
-      <c r="B157" s="7">
+    <row r="165" spans="1:7">
+      <c r="A165" s="49"/>
+      <c r="B165" s="7">
         <v>91002</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C165" s="1">
         <v>2</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E165" s="6">
         <v>69004</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F165" s="1">
         <v>3</v>
       </c>
-      <c r="G157" s="11" t="str">
+      <c r="G165" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91002" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69004" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="49"/>
-      <c r="B158" s="7">
+    <row r="166" spans="1:7">
+      <c r="A166" s="49"/>
+      <c r="B166" s="7">
         <v>91003</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C166" s="1">
         <v>2</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E166" s="6">
         <v>69005</v>
       </c>
-      <c r="F158" s="1">
-        <v>1</v>
-      </c>
-      <c r="G158" s="11" t="str">
+      <c r="F166" s="1">
+        <v>1</v>
+      </c>
+      <c r="G166" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91003" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69005" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="49"/>
-      <c r="B159" s="7">
+    <row r="167" spans="1:7">
+      <c r="A167" s="49"/>
+      <c r="B167" s="7">
         <v>91004</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C167" s="1">
         <v>2</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E167" s="6">
         <v>69005</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F167" s="1">
         <v>3</v>
       </c>
-      <c r="G159" s="11" t="str">
+      <c r="G167" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91004" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69005" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="49"/>
-      <c r="B160" s="7">
+    <row r="168" spans="1:7">
+      <c r="A168" s="49"/>
+      <c r="B168" s="7">
         <v>91005</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C168" s="1">
         <v>2</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E168" s="6">
         <v>69006</v>
       </c>
-      <c r="F160" s="1">
-        <v>1</v>
-      </c>
-      <c r="G160" s="11" t="str">
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91005" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69006" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="49"/>
-      <c r="B161" s="7">
+    <row r="169" spans="1:7">
+      <c r="A169" s="49"/>
+      <c r="B169" s="7">
         <v>91006</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C169" s="1">
         <v>2</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E169" s="6">
         <v>69006</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F169" s="1">
         <v>3</v>
       </c>
-      <c r="G161" s="11" t="str">
+      <c r="G169" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91006" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69006" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="49"/>
-      <c r="B162" s="7">
+    <row r="170" spans="1:7">
+      <c r="A170" s="49"/>
+      <c r="B170" s="7">
         <v>91007</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C170" s="1">
         <v>2</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E170" s="6">
         <v>69007</v>
       </c>
-      <c r="F162" s="1">
-        <v>1</v>
-      </c>
-      <c r="G162" s="11" t="str">
+      <c r="F170" s="1">
+        <v>1</v>
+      </c>
+      <c r="G170" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91007" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69007" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="49"/>
-      <c r="B163" s="7">
+    <row r="171" spans="1:7">
+      <c r="A171" s="49"/>
+      <c r="B171" s="7">
         <v>91008</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C171" s="1">
         <v>2</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E171" s="6">
         <v>69007</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F171" s="1">
         <v>3</v>
       </c>
-      <c r="G163" s="11" t="str">
+      <c r="G171" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91008" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69007" Value="3" /&gt;
@@ -23884,50 +24425,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="96" t="s">
         <v>1108</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="97" t="s">
         <v>1109</v>
       </c>
-      <c r="F1" s="91"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="33" t="s">
         <v>1110</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="98" t="s">
         <v>1111</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94" t="s">
+      <c r="I1" s="99"/>
+      <c r="J1" s="100" t="s">
         <v>1112</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95" t="s">
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="101" t="s">
         <v>1113</v>
       </c>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="96" t="s">
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="102" t="s">
         <v>1114</v>
       </c>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="87" t="s">
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="93" t="s">
         <v>1115</v>
       </c>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="88" t="s">
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="94" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -24011,7 +24552,7 @@
       <c r="AA2" s="42" t="s">
         <v>1128</v>
       </c>
-      <c r="AB2" s="89"/>
+      <c r="AB2" s="95"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="43" t="s">
@@ -33636,7 +34177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DA095D-09EF-48A6-9C4D-15AC176FC818}">
   <dimension ref="A1:G767"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
@@ -55170,10 +55711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:U23"/>
+  <dimension ref="A2:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -57069,6 +57610,342 @@
 &lt;/PropertyItem&gt;</v>
       </c>
     </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="30">
+        <v>22</v>
+      </c>
+      <c r="B24" s="30">
+        <v>69012</v>
+      </c>
+      <c r="C24" s="30">
+        <v>6</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F24" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="31">
+        <v>43765</v>
+      </c>
+      <c r="I24" s="31">
+        <v>43795.999305555553</v>
+      </c>
+      <c r="J24" s="30">
+        <v>1</v>
+      </c>
+      <c r="K24" s="30">
+        <v>0</v>
+      </c>
+      <c r="L24" s="30">
+        <v>10</v>
+      </c>
+      <c r="M24" s="30">
+        <v>1</v>
+      </c>
+      <c r="N24" s="30">
+        <v>10</v>
+      </c>
+      <c r="O24" s="30">
+        <v>0</v>
+      </c>
+      <c r="P24" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>1236</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>1243</v>
+      </c>
+      <c r="U24" s="30" t="str">
+        <f t="shared" ref="U24:U27" si="1">"&lt;PropertyItem&gt;"&amp;CHAR(10)&amp;"&lt;Number&gt;"&amp;A24&amp;"&lt;/Number&gt;"&amp;CHAR(10)&amp;"&lt;Id&gt;"&amp;B24&amp;"&lt;/Id&gt;"&amp;CHAR(10)&amp;"&lt;Type&gt;"&amp;C24&amp;"&lt;/Type&gt;"&amp;CHAR(10)&amp;"&lt;Name&gt;"&amp;D24&amp;"&lt;/Name&gt;"&amp;CHAR(10)&amp;"&lt;Tag&gt;"&amp;E24&amp;"&lt;/Tag&gt;"&amp;CHAR(10)&amp;"&lt;IsNew&gt;"&amp;F24&amp;"&lt;/IsNew&gt;"&amp;CHAR(10)&amp;"&lt;IsCampain&gt;"&amp;G24&amp;"&lt;/IsCampain&gt;"&amp;CHAR(10)&amp;"&lt;StartTime&gt;"&amp;TEXT(H24,"yyyy-MM-dd HH:mm")&amp;"&lt;/StartTime&gt;"&amp;CHAR(10)&amp;"&lt;EndTime&gt;"&amp;TEXT(I24,"yyyy-MM-dd HH:mm")&amp;"&lt;/EndTime&gt;"&amp;CHAR(10)&amp;"&lt;UnlockLevel&gt;"&amp;J24&amp;"&lt;/UnlockLevel&gt;"&amp;CHAR(10)&amp;"&lt;Rarity&gt;"&amp;K24&amp;"&lt;/Rarity&gt;"&amp;CHAR(10)&amp;"&lt;Price&gt;"&amp;L24&amp;"&lt;/Price&gt;"&amp;CHAR(10)&amp;"&lt;Sale&gt;"&amp;M24&amp;"&lt;/Sale&gt;"&amp;CHAR(10)&amp;"&lt;Hp&gt;"&amp;N24&amp;"&lt;/Hp&gt;"&amp;CHAR(10)&amp;"&lt;Exp&gt;"&amp;O24&amp;"&lt;/Exp&gt;"&amp;CHAR(10)&amp;"&lt;IsShow&gt;"&amp;P24&amp;"&lt;/IsShow&gt;"&amp;CHAR(10)&amp;"&lt;AcquireWay&gt;"&amp;Q24&amp;"&lt;/AcquireWay&gt;"&amp;CHAR(10)&amp;"&lt;DefaultIcon&gt;"&amp;R24&amp;"&lt;/DefaultIcon&gt;"&amp;CHAR(10)&amp;"&lt;HighLightIcon&gt;"&amp;S24&amp;"&lt;/HighLightIcon&gt;"&amp;CHAR(10)&amp;"&lt;ReactionAnim&gt;"&amp;T24&amp;"&lt;/ReactionAnim&gt;"&amp;CHAR(10)&amp;"&lt;/PropertyItem&gt;"</f>
+        <v>&lt;PropertyItem&gt;
+&lt;Number&gt;22&lt;/Number&gt;
+&lt;Id&gt;69012&lt;/Id&gt;
+&lt;Type&gt;6&lt;/Type&gt;
+&lt;Name&gt;spider cake&lt;/Name&gt;
+&lt;Tag&gt;snack&lt;/Tag&gt;
+&lt;IsNew&gt;TRUE&lt;/IsNew&gt;
+&lt;IsCampain&gt;TRUE&lt;/IsCampain&gt;
+&lt;StartTime&gt;2019-10-27 00:00&lt;/StartTime&gt;
+&lt;EndTime&gt;2019-11-26 23:59&lt;/EndTime&gt;
+&lt;UnlockLevel&gt;1&lt;/UnlockLevel&gt;
+&lt;Rarity&gt;0&lt;/Rarity&gt;
+&lt;Price&gt;10&lt;/Price&gt;
+&lt;Sale&gt;1&lt;/Sale&gt;
+&lt;Hp&gt;10&lt;/Hp&gt;
+&lt;Exp&gt;0&lt;/Exp&gt;
+&lt;IsShow&gt;TRUE&lt;/IsShow&gt;
+&lt;AcquireWay&gt;Coin&lt;/AcquireWay&gt;
+&lt;DefaultIcon&gt;food_spider_cake_small&lt;/DefaultIcon&gt;
+&lt;HighLightIcon&gt;food_spider_cake&lt;/HighLightIcon&gt;
+&lt;ReactionAnim&gt;&lt;/ReactionAnim&gt;
+&lt;/PropertyItem&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="30">
+        <v>23</v>
+      </c>
+      <c r="B25" s="30">
+        <v>69013</v>
+      </c>
+      <c r="C25" s="30">
+        <v>6</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F25" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="31">
+        <v>43765</v>
+      </c>
+      <c r="I25" s="31">
+        <v>43795.999305555553</v>
+      </c>
+      <c r="J25" s="30">
+        <v>1</v>
+      </c>
+      <c r="K25" s="30">
+        <v>0</v>
+      </c>
+      <c r="L25" s="30">
+        <v>8</v>
+      </c>
+      <c r="M25" s="30">
+        <v>1</v>
+      </c>
+      <c r="N25" s="30">
+        <v>6</v>
+      </c>
+      <c r="O25" s="30">
+        <v>0</v>
+      </c>
+      <c r="P25" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R25" s="30" t="s">
+        <v>1237</v>
+      </c>
+      <c r="S25" s="30" t="s">
+        <v>1246</v>
+      </c>
+      <c r="U25" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PropertyItem&gt;
+&lt;Number&gt;23&lt;/Number&gt;
+&lt;Id&gt;69013&lt;/Id&gt;
+&lt;Type&gt;6&lt;/Type&gt;
+&lt;Name&gt;toffee apple&lt;/Name&gt;
+&lt;Tag&gt;fruit&lt;/Tag&gt;
+&lt;IsNew&gt;TRUE&lt;/IsNew&gt;
+&lt;IsCampain&gt;TRUE&lt;/IsCampain&gt;
+&lt;StartTime&gt;2019-10-27 00:00&lt;/StartTime&gt;
+&lt;EndTime&gt;2019-11-26 23:59&lt;/EndTime&gt;
+&lt;UnlockLevel&gt;1&lt;/UnlockLevel&gt;
+&lt;Rarity&gt;0&lt;/Rarity&gt;
+&lt;Price&gt;8&lt;/Price&gt;
+&lt;Sale&gt;1&lt;/Sale&gt;
+&lt;Hp&gt;6&lt;/Hp&gt;
+&lt;Exp&gt;0&lt;/Exp&gt;
+&lt;IsShow&gt;TRUE&lt;/IsShow&gt;
+&lt;AcquireWay&gt;Coin&lt;/AcquireWay&gt;
+&lt;DefaultIcon&gt;food_toffee_apple_small&lt;/DefaultIcon&gt;
+&lt;HighLightIcon&gt;food_toffee_apple&lt;/HighLightIcon&gt;
+&lt;ReactionAnim&gt;&lt;/ReactionAnim&gt;
+&lt;/PropertyItem&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="30">
+        <v>24</v>
+      </c>
+      <c r="B26" s="30">
+        <v>69014</v>
+      </c>
+      <c r="C26" s="30">
+        <v>6</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F26" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="31">
+        <v>43765</v>
+      </c>
+      <c r="I26" s="31">
+        <v>43795.999305555553</v>
+      </c>
+      <c r="J26" s="30">
+        <v>1</v>
+      </c>
+      <c r="K26" s="30">
+        <v>0</v>
+      </c>
+      <c r="L26" s="30">
+        <v>40</v>
+      </c>
+      <c r="M26" s="30">
+        <v>1</v>
+      </c>
+      <c r="N26" s="30">
+        <v>40</v>
+      </c>
+      <c r="O26" s="30">
+        <v>6</v>
+      </c>
+      <c r="P26" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R26" s="30" t="s">
+        <v>1234</v>
+      </c>
+      <c r="S26" s="30" t="s">
+        <v>1238</v>
+      </c>
+      <c r="U26" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PropertyItem&gt;
+&lt;Number&gt;24&lt;/Number&gt;
+&lt;Id&gt;69014&lt;/Id&gt;
+&lt;Type&gt;6&lt;/Type&gt;
+&lt;Name&gt;mummy chocolate&lt;/Name&gt;
+&lt;Tag&gt;snack&lt;/Tag&gt;
+&lt;IsNew&gt;TRUE&lt;/IsNew&gt;
+&lt;IsCampain&gt;TRUE&lt;/IsCampain&gt;
+&lt;StartTime&gt;2019-10-27 00:00&lt;/StartTime&gt;
+&lt;EndTime&gt;2019-11-26 23:59&lt;/EndTime&gt;
+&lt;UnlockLevel&gt;1&lt;/UnlockLevel&gt;
+&lt;Rarity&gt;0&lt;/Rarity&gt;
+&lt;Price&gt;40&lt;/Price&gt;
+&lt;Sale&gt;1&lt;/Sale&gt;
+&lt;Hp&gt;40&lt;/Hp&gt;
+&lt;Exp&gt;6&lt;/Exp&gt;
+&lt;IsShow&gt;TRUE&lt;/IsShow&gt;
+&lt;AcquireWay&gt;Coin&lt;/AcquireWay&gt;
+&lt;DefaultIcon&gt;food_mummy_chocolate_small&lt;/DefaultIcon&gt;
+&lt;HighLightIcon&gt;food_mummy_chocolate&lt;/HighLightIcon&gt;
+&lt;ReactionAnim&gt;&lt;/ReactionAnim&gt;
+&lt;/PropertyItem&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="30">
+        <v>25</v>
+      </c>
+      <c r="B27" s="30">
+        <v>69015</v>
+      </c>
+      <c r="C27" s="30">
+        <v>6</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F27" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="31">
+        <v>43765</v>
+      </c>
+      <c r="I27" s="31">
+        <v>43795.999305555553</v>
+      </c>
+      <c r="J27" s="30">
+        <v>1</v>
+      </c>
+      <c r="K27" s="30">
+        <v>0</v>
+      </c>
+      <c r="L27" s="30">
+        <v>20</v>
+      </c>
+      <c r="M27" s="30">
+        <v>1</v>
+      </c>
+      <c r="N27" s="30">
+        <v>25</v>
+      </c>
+      <c r="O27" s="30">
+        <v>2</v>
+      </c>
+      <c r="P27" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R27" s="30" t="s">
+        <v>1235</v>
+      </c>
+      <c r="S27" s="30" t="s">
+        <v>1249</v>
+      </c>
+      <c r="U27" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PropertyItem&gt;
+&lt;Number&gt;25&lt;/Number&gt;
+&lt;Id&gt;69015&lt;/Id&gt;
+&lt;Type&gt;6&lt;/Type&gt;
+&lt;Name&gt;skull cookie&lt;/Name&gt;
+&lt;Tag&gt;snack&lt;/Tag&gt;
+&lt;IsNew&gt;TRUE&lt;/IsNew&gt;
+&lt;IsCampain&gt;TRUE&lt;/IsCampain&gt;
+&lt;StartTime&gt;2019-10-27 00:00&lt;/StartTime&gt;
+&lt;EndTime&gt;2019-11-26 23:59&lt;/EndTime&gt;
+&lt;UnlockLevel&gt;1&lt;/UnlockLevel&gt;
+&lt;Rarity&gt;0&lt;/Rarity&gt;
+&lt;Price&gt;20&lt;/Price&gt;
+&lt;Sale&gt;1&lt;/Sale&gt;
+&lt;Hp&gt;25&lt;/Hp&gt;
+&lt;Exp&gt;2&lt;/Exp&gt;
+&lt;IsShow&gt;TRUE&lt;/IsShow&gt;
+&lt;AcquireWay&gt;Coin&lt;/AcquireWay&gt;
+&lt;DefaultIcon&gt;food_skull_cookie_small&lt;/DefaultIcon&gt;
+&lt;HighLightIcon&gt;food_skull_cookie&lt;/HighLightIcon&gt;
+&lt;ReactionAnim&gt;&lt;/ReactionAnim&gt;
+&lt;/PropertyItem&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26885271-E4E3-4655-B488-9966586C3BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147B0B1D-5675-448F-B1D1-F79B61E420DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7127,8 +7127,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{350DD965-7145-4FE0-968E-9354B018690E}" name="表1_32" displayName="表1_32" ref="B1:S87" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="B1:S87" xr:uid="{0B77F3DD-062A-4E4C-A15C-041DCCD5A7ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{350DD965-7145-4FE0-968E-9354B018690E}" name="表1_32" displayName="表1_32" ref="B1:S83" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="B1:S83" xr:uid="{4FAA39D5-DF71-4A63-BA43-580AA3A6E3AD}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{DD576350-F6C3-4247-BE6B-60A6FD6B462B}" name="Id" dataDxfId="37"/>
     <tableColumn id="3" xr3:uid="{A9F59448-DBE8-42AA-9B32-1837FDDF48C1}" name="Name" dataDxfId="36"/>
@@ -7156,8 +7156,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_34" displayName="表1_34" ref="B1:G1048485" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="B1:G1048485" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_34" displayName="表1_34" ref="B1:G1048477" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B1:G1048477" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="16"/>
@@ -15670,10 +15670,10 @@
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A80" sqref="A80:XFD83"/>
+      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15819,8 +15819,7 @@
         <f>MID(S3,FIND("Background=",S3)+12,FIND(""" Model=",S3)-FIND("Background=",S3)-12)</f>
         <v>Home_Backgrond_ocean brim (1)</v>
       </c>
-      <c r="E3" s="22" t="str">
-        <f>MID(S3,FIND("Model=",S3)+7,FIND(""" NimIcon=",S3)-FIND("Model=",S3)-7)</f>
+      <c r="E3" s="22">
         <v>11001</v>
       </c>
       <c r="F3" s="23" t="s">
@@ -19653,7 +19652,7 @@
         <v>8</v>
       </c>
       <c r="R67" s="19" t="str">
-        <f t="shared" ref="R67:R87" si="8">IF(B67&lt;&gt;"","&lt;Mission Id="""&amp;B67&amp;""" Name="""&amp;C67&amp;""" Background="""&amp;D67&amp;""" Model="""&amp;E67&amp;""" NimIcon="""&amp;F67&amp;""" QuestId="""&amp;G67&amp;""" dailyGoalPercent="""&amp;H67&amp;""" AwardCoin="""&amp;I67&amp;""" BGM="""&amp;J67&amp;""" Sound="""&amp;K67&amp;""" WaterDrop="""&amp;L67&amp;""" WaterDropAudio="""&amp;M67&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N67&amp;""" Height="""&amp;O67&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P67&amp;""" Height="""&amp;Q67&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
+        <f t="shared" ref="R67:R83" si="8">IF(B67&lt;&gt;"","&lt;Mission Id="""&amp;B67&amp;""" Name="""&amp;C67&amp;""" Background="""&amp;D67&amp;""" Model="""&amp;E67&amp;""" NimIcon="""&amp;F67&amp;""" QuestId="""&amp;G67&amp;""" dailyGoalPercent="""&amp;H67&amp;""" AwardCoin="""&amp;I67&amp;""" BGM="""&amp;J67&amp;""" Sound="""&amp;K67&amp;""" WaterDrop="""&amp;L67&amp;""" WaterDropAudio="""&amp;M67&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N67&amp;""" Height="""&amp;O67&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P67&amp;""" Height="""&amp;Q67&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
         <v>&lt;Mission Id="14002" Name="MissionName14002" Background="Home_Backgrond__mystery red0002" Model="14002" NimIcon="atom_icon0158" QuestId="20065" dailyGoalPercent="1.3" AwardCoin="160" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="10129" Height="3" /&gt;
   &lt;TreasureBox BoxId="10130" Height="8" /&gt;
@@ -20360,23 +20359,23 @@
       <c r="S79" s="6"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="87"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="29">
-        <v>82001</v>
+        <v>91001</v>
       </c>
       <c r="C80" s="28" t="str">
         <f>"MissionName"&amp;B80</f>
-        <v>MissionName82001</v>
+        <v>MissionName91001</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>1837</v>
+        <v>1229</v>
       </c>
       <c r="E80" s="29">
-        <v>82001</v>
+        <v>91001</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="29">
-        <v>20082</v>
+        <v>20074</v>
       </c>
       <c r="H80" s="50">
         <v>0.5</v>
@@ -20388,345 +20387,345 @@
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
       <c r="M80" s="23"/>
-      <c r="N80" s="28">
-        <v>81009</v>
+      <c r="N80" s="23">
+        <v>91001</v>
       </c>
       <c r="O80" s="23">
         <v>3</v>
       </c>
-      <c r="P80" s="28">
-        <v>81010</v>
+      <c r="P80" s="23">
+        <v>91002</v>
       </c>
       <c r="Q80" s="23">
         <v>8</v>
       </c>
       <c r="R80" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;Mission Id="82001" Name="MissionName82001" Background="Home_denmark_bg_01" Model="82001" NimIcon="" QuestId="20082" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
-  &lt;TreasureBox BoxId="81009" Height="3" /&gt;
-  &lt;TreasureBox BoxId="81010" Height="8" /&gt;
-&lt;/Mission&gt;</v>
-      </c>
-      <c r="S80" s="6"/>
-    </row>
-    <row r="81" spans="1:19">
-      <c r="A81" s="87"/>
-      <c r="B81" s="29">
-        <v>82002</v>
-      </c>
-      <c r="C81" s="28" t="str">
-        <f t="shared" ref="C81:C83" si="16">"MissionName"&amp;B81</f>
-        <v>MissionName82002</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E81" s="29">
-        <v>82002</v>
-      </c>
-      <c r="F81" s="28"/>
-      <c r="G81" s="29">
-        <v>20083</v>
-      </c>
-      <c r="H81" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I81" s="50">
-        <v>50</v>
-      </c>
-      <c r="J81" s="50"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="28">
-        <v>81011</v>
-      </c>
-      <c r="O81" s="23">
-        <v>3</v>
-      </c>
-      <c r="P81" s="28">
-        <v>81012</v>
-      </c>
-      <c r="Q81" s="23">
-        <v>8</v>
-      </c>
-      <c r="R81" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;Mission Id="82002" Name="MissionName82002" Background="Home_denmark_bg_01" Model="82002" NimIcon="" QuestId="20083" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
-  &lt;TreasureBox BoxId="81011" Height="3" /&gt;
-  &lt;TreasureBox BoxId="81012" Height="8" /&gt;
-&lt;/Mission&gt;</v>
-      </c>
-      <c r="S81" s="6"/>
-    </row>
-    <row r="82" spans="1:19">
-      <c r="A82" s="87"/>
-      <c r="B82" s="29">
-        <v>82003</v>
-      </c>
-      <c r="C82" s="28" t="str">
-        <f t="shared" si="16"/>
-        <v>MissionName82003</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E82" s="29">
-        <v>82003</v>
-      </c>
-      <c r="F82" s="28"/>
-      <c r="G82" s="29">
-        <v>20084</v>
-      </c>
-      <c r="H82" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I82" s="50">
-        <v>50</v>
-      </c>
-      <c r="J82" s="50"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="28">
-        <v>81013</v>
-      </c>
-      <c r="O82" s="23">
-        <v>3</v>
-      </c>
-      <c r="P82" s="28">
-        <v>81014</v>
-      </c>
-      <c r="Q82" s="23">
-        <v>8</v>
-      </c>
-      <c r="R82" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;Mission Id="82003" Name="MissionName82003" Background="Home_denmark_bg_01" Model="82003" NimIcon="" QuestId="20084" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
-  &lt;TreasureBox BoxId="81013" Height="3" /&gt;
-  &lt;TreasureBox BoxId="81014" Height="8" /&gt;
-&lt;/Mission&gt;</v>
-      </c>
-      <c r="S82" s="6"/>
-    </row>
-    <row r="83" spans="1:19">
-      <c r="A83" s="87"/>
-      <c r="B83" s="29">
-        <v>82004</v>
-      </c>
-      <c r="C83" s="28" t="str">
-        <f t="shared" si="16"/>
-        <v>MissionName82004</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E83" s="29">
-        <v>82004</v>
-      </c>
-      <c r="F83" s="28"/>
-      <c r="G83" s="29">
-        <v>20085</v>
-      </c>
-      <c r="H83" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I83" s="50">
-        <v>50</v>
-      </c>
-      <c r="J83" s="50"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="23"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="28">
-        <v>81015</v>
-      </c>
-      <c r="O83" s="23">
-        <v>3</v>
-      </c>
-      <c r="P83" s="28">
-        <v>81016</v>
-      </c>
-      <c r="Q83" s="23">
-        <v>8</v>
-      </c>
-      <c r="R83" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;Mission Id="82004" Name="MissionName82004" Background="Home_denmark_bg_01" Model="82004" NimIcon="" QuestId="20085" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
-  &lt;TreasureBox BoxId="81015" Height="3" /&gt;
-  &lt;TreasureBox BoxId="81016" Height="8" /&gt;
-&lt;/Mission&gt;</v>
-      </c>
-      <c r="S83" s="6"/>
-    </row>
-    <row r="84" spans="1:19">
-      <c r="A84" s="48"/>
-      <c r="B84" s="29">
-        <v>91001</v>
-      </c>
-      <c r="C84" s="28" t="str">
-        <f>"MissionName"&amp;B84</f>
-        <v>MissionName91001</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E84" s="29">
-        <v>91001</v>
-      </c>
-      <c r="F84" s="28"/>
-      <c r="G84" s="29">
-        <v>20074</v>
-      </c>
-      <c r="H84" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I84" s="50">
-        <v>50</v>
-      </c>
-      <c r="J84" s="50"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="23">
-        <v>91001</v>
-      </c>
-      <c r="O84" s="23">
-        <v>3</v>
-      </c>
-      <c r="P84" s="23">
-        <v>91002</v>
-      </c>
-      <c r="Q84" s="23">
-        <v>8</v>
-      </c>
-      <c r="R84" s="19" t="str">
         <f t="shared" si="8"/>
         <v>&lt;Mission Id="91001" Name="MissionName91001" Background="Home_Backgrond_nationalday_01" Model="91001" NimIcon="" QuestId="20074" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91001" Height="3" /&gt;
   &lt;TreasureBox BoxId="91002" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="S84" s="6"/>
-    </row>
-    <row r="85" spans="1:19">
-      <c r="A85" s="48"/>
-      <c r="B85" s="29">
+      <c r="S80" s="6"/>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="48"/>
+      <c r="B81" s="29">
         <v>91002</v>
       </c>
-      <c r="C85" s="28" t="str">
-        <f t="shared" ref="C85:C87" si="17">"MissionName"&amp;B85</f>
+      <c r="C81" s="28" t="str">
+        <f t="shared" ref="C81:C83" si="16">"MissionName"&amp;B81</f>
         <v>MissionName91002</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D81" s="28" t="s">
         <v>1230</v>
       </c>
-      <c r="E85" s="29">
+      <c r="E81" s="29">
         <v>91001</v>
       </c>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29">
+      <c r="F81" s="28"/>
+      <c r="G81" s="29">
         <v>20075</v>
       </c>
-      <c r="H85" s="50">
+      <c r="H81" s="50">
         <v>0.5</v>
       </c>
-      <c r="I85" s="50">
+      <c r="I81" s="50">
         <v>50</v>
       </c>
-      <c r="J85" s="50"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="23">
+      <c r="J81" s="50"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23">
         <v>91003</v>
       </c>
-      <c r="O85" s="23">
+      <c r="O81" s="23">
         <v>3</v>
       </c>
-      <c r="P85" s="23">
+      <c r="P81" s="23">
         <v>91004</v>
       </c>
-      <c r="Q85" s="23">
+      <c r="Q81" s="23">
         <v>8</v>
       </c>
-      <c r="R85" s="19" t="str">
+      <c r="R81" s="19" t="str">
         <f t="shared" si="8"/>
         <v>&lt;Mission Id="91002" Name="MissionName91002" Background="Home_Backgrond_nationalday_02" Model="91001" NimIcon="" QuestId="20075" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91003" Height="3" /&gt;
   &lt;TreasureBox BoxId="91004" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
-      <c r="S85" s="6"/>
-    </row>
-    <row r="86" spans="1:19">
-      <c r="A86" s="48"/>
-      <c r="B86" s="29">
+      <c r="S81" s="6"/>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="48"/>
+      <c r="B82" s="29">
         <v>91003</v>
       </c>
-      <c r="C86" s="28" t="str">
-        <f t="shared" si="17"/>
+      <c r="C82" s="28" t="str">
+        <f t="shared" si="16"/>
         <v>MissionName91003</v>
       </c>
-      <c r="D86" s="28" t="s">
+      <c r="D82" s="28" t="s">
         <v>1231</v>
       </c>
-      <c r="E86" s="29">
+      <c r="E82" s="29">
         <v>91001</v>
       </c>
-      <c r="F86" s="28"/>
-      <c r="G86" s="29">
+      <c r="F82" s="28"/>
+      <c r="G82" s="29">
         <v>20076</v>
       </c>
-      <c r="H86" s="50">
+      <c r="H82" s="50">
         <v>0.5</v>
       </c>
-      <c r="I86" s="50">
+      <c r="I82" s="50">
         <v>50</v>
       </c>
-      <c r="J86" s="50"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="23">
+      <c r="J82" s="50"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23">
         <v>91005</v>
       </c>
-      <c r="O86" s="23">
+      <c r="O82" s="23">
         <v>3</v>
       </c>
-      <c r="P86" s="23">
+      <c r="P82" s="23">
         <v>91006</v>
       </c>
-      <c r="Q86" s="23">
+      <c r="Q82" s="23">
         <v>8</v>
       </c>
-      <c r="R86" s="19" t="str">
+      <c r="R82" s="19" t="str">
         <f t="shared" si="8"/>
         <v>&lt;Mission Id="91003" Name="MissionName91003" Background="Home_Backgrond_nationalday_03" Model="91001" NimIcon="" QuestId="20076" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91005" Height="3" /&gt;
   &lt;TreasureBox BoxId="91006" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
+      <c r="S82" s="6"/>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="48"/>
+      <c r="B83" s="29">
+        <v>91004</v>
+      </c>
+      <c r="C83" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v>MissionName91004</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E83" s="29">
+        <v>91001</v>
+      </c>
+      <c r="F83" s="28"/>
+      <c r="G83" s="29">
+        <v>20077</v>
+      </c>
+      <c r="H83" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="I83" s="50">
+        <v>50</v>
+      </c>
+      <c r="J83" s="50"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23">
+        <v>91007</v>
+      </c>
+      <c r="O83" s="23">
+        <v>3</v>
+      </c>
+      <c r="P83" s="23">
+        <v>91008</v>
+      </c>
+      <c r="Q83" s="23">
+        <v>8</v>
+      </c>
+      <c r="R83" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Mission Id="91004" Name="MissionName91004" Background="Home_Backgrond_nationalday_04" Model="91001" NimIcon="" QuestId="20077" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+  &lt;TreasureBox BoxId="91007" Height="3" /&gt;
+  &lt;TreasureBox BoxId="91008" Height="8" /&gt;
+&lt;/Mission&gt;</v>
+      </c>
+      <c r="S83" s="6"/>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="87"/>
+      <c r="B84" s="29">
+        <v>92001</v>
+      </c>
+      <c r="C84" s="28" t="str">
+        <f>"MissionName"&amp;B84</f>
+        <v>MissionName92001</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E84" s="29">
+        <v>92001</v>
+      </c>
+      <c r="F84" s="28"/>
+      <c r="G84" s="29">
+        <v>20082</v>
+      </c>
+      <c r="H84" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="I84" s="50">
+        <v>50</v>
+      </c>
+      <c r="J84" s="50"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="28">
+        <v>81009</v>
+      </c>
+      <c r="O84" s="23">
+        <v>3</v>
+      </c>
+      <c r="P84" s="28">
+        <v>81010</v>
+      </c>
+      <c r="Q84" s="23">
+        <v>8</v>
+      </c>
+      <c r="R84" s="19" t="str">
+        <f>IF(B84&lt;&gt;"","&lt;Mission Id="""&amp;B84&amp;""" Name="""&amp;C84&amp;""" Background="""&amp;D84&amp;""" Model="""&amp;E84&amp;""" NimIcon="""&amp;F84&amp;""" QuestId="""&amp;G84&amp;""" dailyGoalPercent="""&amp;H84&amp;""" AwardCoin="""&amp;I84&amp;""" BGM="""&amp;J84&amp;""" Sound="""&amp;K84&amp;""" WaterDrop="""&amp;L84&amp;""" WaterDropAudio="""&amp;M84&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N84&amp;""" Height="""&amp;O84&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P84&amp;""" Height="""&amp;Q84&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
+        <v>&lt;Mission Id="92001" Name="MissionName92001" Background="Home_denmark_bg_01" Model="92001" NimIcon="" QuestId="20082" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+  &lt;TreasureBox BoxId="81009" Height="3" /&gt;
+  &lt;TreasureBox BoxId="81010" Height="8" /&gt;
+&lt;/Mission&gt;</v>
+      </c>
+      <c r="S84" s="6"/>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="87"/>
+      <c r="B85" s="29">
+        <v>92002</v>
+      </c>
+      <c r="C85" s="28" t="str">
+        <f t="shared" ref="C85:C87" si="17">"MissionName"&amp;B85</f>
+        <v>MissionName92002</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E85" s="29">
+        <v>92002</v>
+      </c>
+      <c r="F85" s="28"/>
+      <c r="G85" s="29">
+        <v>20083</v>
+      </c>
+      <c r="H85" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="I85" s="50">
+        <v>50</v>
+      </c>
+      <c r="J85" s="50"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="28">
+        <v>81011</v>
+      </c>
+      <c r="O85" s="23">
+        <v>3</v>
+      </c>
+      <c r="P85" s="28">
+        <v>81012</v>
+      </c>
+      <c r="Q85" s="23">
+        <v>8</v>
+      </c>
+      <c r="R85" s="19" t="str">
+        <f>IF(B85&lt;&gt;"","&lt;Mission Id="""&amp;B85&amp;""" Name="""&amp;C85&amp;""" Background="""&amp;D85&amp;""" Model="""&amp;E85&amp;""" NimIcon="""&amp;F85&amp;""" QuestId="""&amp;G85&amp;""" dailyGoalPercent="""&amp;H85&amp;""" AwardCoin="""&amp;I85&amp;""" BGM="""&amp;J85&amp;""" Sound="""&amp;K85&amp;""" WaterDrop="""&amp;L85&amp;""" WaterDropAudio="""&amp;M85&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N85&amp;""" Height="""&amp;O85&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P85&amp;""" Height="""&amp;Q85&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
+        <v>&lt;Mission Id="92002" Name="MissionName92002" Background="Home_denmark_bg_01" Model="92002" NimIcon="" QuestId="20083" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+  &lt;TreasureBox BoxId="81011" Height="3" /&gt;
+  &lt;TreasureBox BoxId="81012" Height="8" /&gt;
+&lt;/Mission&gt;</v>
+      </c>
+      <c r="S85" s="6"/>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" s="87"/>
+      <c r="B86" s="29">
+        <v>92003</v>
+      </c>
+      <c r="C86" s="28" t="str">
+        <f t="shared" si="17"/>
+        <v>MissionName92003</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E86" s="29">
+        <v>92003</v>
+      </c>
+      <c r="F86" s="28"/>
+      <c r="G86" s="29">
+        <v>20084</v>
+      </c>
+      <c r="H86" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="I86" s="50">
+        <v>50</v>
+      </c>
+      <c r="J86" s="50"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="28">
+        <v>81013</v>
+      </c>
+      <c r="O86" s="23">
+        <v>3</v>
+      </c>
+      <c r="P86" s="28">
+        <v>81014</v>
+      </c>
+      <c r="Q86" s="23">
+        <v>8</v>
+      </c>
+      <c r="R86" s="19" t="str">
+        <f>IF(B86&lt;&gt;"","&lt;Mission Id="""&amp;B86&amp;""" Name="""&amp;C86&amp;""" Background="""&amp;D86&amp;""" Model="""&amp;E86&amp;""" NimIcon="""&amp;F86&amp;""" QuestId="""&amp;G86&amp;""" dailyGoalPercent="""&amp;H86&amp;""" AwardCoin="""&amp;I86&amp;""" BGM="""&amp;J86&amp;""" Sound="""&amp;K86&amp;""" WaterDrop="""&amp;L86&amp;""" WaterDropAudio="""&amp;M86&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N86&amp;""" Height="""&amp;O86&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P86&amp;""" Height="""&amp;Q86&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
+        <v>&lt;Mission Id="92003" Name="MissionName92003" Background="Home_denmark_bg_01" Model="92003" NimIcon="" QuestId="20084" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+  &lt;TreasureBox BoxId="81013" Height="3" /&gt;
+  &lt;TreasureBox BoxId="81014" Height="8" /&gt;
+&lt;/Mission&gt;</v>
+      </c>
       <c r="S86" s="6"/>
     </row>
     <row r="87" spans="1:19">
-      <c r="A87" s="48"/>
+      <c r="A87" s="87"/>
       <c r="B87" s="29">
-        <v>91004</v>
+        <v>92004</v>
       </c>
       <c r="C87" s="28" t="str">
         <f t="shared" si="17"/>
-        <v>MissionName91004</v>
+        <v>MissionName92004</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>1232</v>
+        <v>1837</v>
       </c>
       <c r="E87" s="29">
-        <v>91001</v>
+        <v>92004</v>
       </c>
       <c r="F87" s="28"/>
       <c r="G87" s="29">
-        <v>20077</v>
+        <v>20085</v>
       </c>
       <c r="H87" s="50">
         <v>0.5</v>
@@ -20738,23 +20737,23 @@
       <c r="K87" s="23"/>
       <c r="L87" s="23"/>
       <c r="M87" s="23"/>
-      <c r="N87" s="23">
-        <v>91007</v>
+      <c r="N87" s="28">
+        <v>81015</v>
       </c>
       <c r="O87" s="23">
         <v>3</v>
       </c>
-      <c r="P87" s="23">
-        <v>91008</v>
+      <c r="P87" s="28">
+        <v>81016</v>
       </c>
       <c r="Q87" s="23">
         <v>8</v>
       </c>
       <c r="R87" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;Mission Id="91004" Name="MissionName91004" Background="Home_Backgrond_nationalday_04" Model="91001" NimIcon="" QuestId="20077" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
-  &lt;TreasureBox BoxId="91007" Height="3" /&gt;
-  &lt;TreasureBox BoxId="91008" Height="8" /&gt;
+        <f>IF(B87&lt;&gt;"","&lt;Mission Id="""&amp;B87&amp;""" Name="""&amp;C87&amp;""" Background="""&amp;D87&amp;""" Model="""&amp;E87&amp;""" NimIcon="""&amp;F87&amp;""" QuestId="""&amp;G87&amp;""" dailyGoalPercent="""&amp;H87&amp;""" AwardCoin="""&amp;I87&amp;""" BGM="""&amp;J87&amp;""" Sound="""&amp;K87&amp;""" WaterDrop="""&amp;L87&amp;""" WaterDropAudio="""&amp;M87&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N87&amp;""" Height="""&amp;O87&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P87&amp;""" Height="""&amp;Q87&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
+        <v>&lt;Mission Id="92004" Name="MissionName92004" Background="Home_denmark_bg_01" Model="92004" NimIcon="" QuestId="20085" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+  &lt;TreasureBox BoxId="81015" Height="3" /&gt;
+  &lt;TreasureBox BoxId="81016" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
       <c r="S87" s="6"/>
@@ -20775,7 +20774,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B156" sqref="B156"/>
+      <selection pane="bottomLeft" activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -23535,7 +23534,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="11" t="str">
-        <f t="shared" ref="G131:G171" si="2">IF(B131&lt;&gt;"","&lt;TreasureBox Id="""&amp;B131&amp;""" Type="""&amp;C131&amp;""" Name="""&amp;D131&amp;"""&gt;"&amp;CHAR(10)&amp;" &lt;Treasure ItemId="""&amp;E131&amp;""" Value="""&amp;F131&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/TreasureBox&gt;","")</f>
+        <f t="shared" ref="G131:G163" si="2">IF(B131&lt;&gt;"","&lt;TreasureBox Id="""&amp;B131&amp;""" Type="""&amp;C131&amp;""" Name="""&amp;D131&amp;"""&gt;"&amp;CHAR(10)&amp;" &lt;Treasure ItemId="""&amp;E131&amp;""" Value="""&amp;F131&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/TreasureBox&gt;","")</f>
         <v>&lt;TreasureBox Id="10130" Type="1" Name=""&gt;
  &lt;Treasure ItemId="40150" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
@@ -24046,338 +24045,338 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="92"/>
+      <c r="A156" s="49"/>
       <c r="B156" s="7">
-        <v>81009</v>
+        <v>91001</v>
       </c>
       <c r="C156" s="1">
         <v>2</v>
       </c>
       <c r="E156" s="6">
-        <v>69012</v>
+        <v>69004</v>
       </c>
       <c r="F156" s="1">
         <v>1</v>
       </c>
       <c r="G156" s="11" t="str">
-        <f t="shared" ref="G156:G163" si="3">IF(B156&lt;&gt;"","&lt;TreasureBox Id="""&amp;B156&amp;""" Type="""&amp;C156&amp;""" Name="""&amp;D156&amp;"""&gt;"&amp;CHAR(10)&amp;" &lt;Treasure ItemId="""&amp;E156&amp;""" Value="""&amp;F156&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/TreasureBox&gt;","")</f>
-        <v>&lt;TreasureBox Id="81009" Type="2" Name=""&gt;
- &lt;Treasure ItemId="69012" Value="1" /&gt;
-&lt;/TreasureBox&gt;</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="92"/>
-      <c r="B157" s="7">
-        <v>81010</v>
-      </c>
-      <c r="C157" s="1">
-        <v>2</v>
-      </c>
-      <c r="E157" s="6">
-        <v>69012</v>
-      </c>
-      <c r="F157" s="1">
-        <v>3</v>
-      </c>
-      <c r="G157" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;TreasureBox Id="81010" Type="2" Name=""&gt;
- &lt;Treasure ItemId="69012" Value="3" /&gt;
-&lt;/TreasureBox&gt;</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="92"/>
-      <c r="B158" s="7">
-        <v>81011</v>
-      </c>
-      <c r="C158" s="1">
-        <v>2</v>
-      </c>
-      <c r="E158" s="6">
-        <v>69013</v>
-      </c>
-      <c r="F158" s="1">
-        <v>1</v>
-      </c>
-      <c r="G158" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;TreasureBox Id="81011" Type="2" Name=""&gt;
- &lt;Treasure ItemId="69013" Value="1" /&gt;
-&lt;/TreasureBox&gt;</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="92"/>
-      <c r="B159" s="7">
-        <v>81012</v>
-      </c>
-      <c r="C159" s="1">
-        <v>2</v>
-      </c>
-      <c r="E159" s="6">
-        <v>69013</v>
-      </c>
-      <c r="F159" s="1">
-        <v>3</v>
-      </c>
-      <c r="G159" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;TreasureBox Id="81012" Type="2" Name=""&gt;
- &lt;Treasure ItemId="69013" Value="3" /&gt;
-&lt;/TreasureBox&gt;</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="92"/>
-      <c r="B160" s="7">
-        <v>81013</v>
-      </c>
-      <c r="C160" s="1">
-        <v>2</v>
-      </c>
-      <c r="E160" s="6">
-        <v>69014</v>
-      </c>
-      <c r="F160" s="1">
-        <v>1</v>
-      </c>
-      <c r="G160" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;TreasureBox Id="81013" Type="2" Name=""&gt;
- &lt;Treasure ItemId="69014" Value="1" /&gt;
-&lt;/TreasureBox&gt;</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="92"/>
-      <c r="B161" s="7">
-        <v>81014</v>
-      </c>
-      <c r="C161" s="1">
-        <v>2</v>
-      </c>
-      <c r="E161" s="6">
-        <v>69014</v>
-      </c>
-      <c r="F161" s="1">
-        <v>3</v>
-      </c>
-      <c r="G161" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;TreasureBox Id="81014" Type="2" Name=""&gt;
- &lt;Treasure ItemId="69014" Value="3" /&gt;
-&lt;/TreasureBox&gt;</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="92"/>
-      <c r="B162" s="7">
-        <v>81015</v>
-      </c>
-      <c r="C162" s="1">
-        <v>2</v>
-      </c>
-      <c r="E162" s="6">
-        <v>69015</v>
-      </c>
-      <c r="F162" s="1">
-        <v>1</v>
-      </c>
-      <c r="G162" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;TreasureBox Id="81015" Type="2" Name=""&gt;
- &lt;Treasure ItemId="69015" Value="1" /&gt;
-&lt;/TreasureBox&gt;</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="92"/>
-      <c r="B163" s="7">
-        <v>81016</v>
-      </c>
-      <c r="C163" s="1">
-        <v>2</v>
-      </c>
-      <c r="E163" s="6">
-        <v>69015</v>
-      </c>
-      <c r="F163" s="1">
-        <v>3</v>
-      </c>
-      <c r="G163" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;TreasureBox Id="81016" Type="2" Name=""&gt;
- &lt;Treasure ItemId="69015" Value="3" /&gt;
-&lt;/TreasureBox&gt;</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="49"/>
-      <c r="B164" s="7">
-        <v>91001</v>
-      </c>
-      <c r="C164" s="1">
-        <v>2</v>
-      </c>
-      <c r="E164" s="6">
-        <v>69004</v>
-      </c>
-      <c r="F164" s="1">
-        <v>1</v>
-      </c>
-      <c r="G164" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91001" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69004" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="49"/>
-      <c r="B165" s="7">
+    <row r="157" spans="1:7">
+      <c r="A157" s="49"/>
+      <c r="B157" s="7">
         <v>91002</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C157" s="1">
         <v>2</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E157" s="6">
         <v>69004</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F157" s="1">
         <v>3</v>
       </c>
-      <c r="G165" s="11" t="str">
+      <c r="G157" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91002" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69004" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="49"/>
-      <c r="B166" s="7">
+    <row r="158" spans="1:7">
+      <c r="A158" s="49"/>
+      <c r="B158" s="7">
         <v>91003</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C158" s="1">
         <v>2</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E158" s="6">
         <v>69005</v>
       </c>
-      <c r="F166" s="1">
-        <v>1</v>
-      </c>
-      <c r="G166" s="11" t="str">
+      <c r="F158" s="1">
+        <v>1</v>
+      </c>
+      <c r="G158" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91003" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69005" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="49"/>
-      <c r="B167" s="7">
+    <row r="159" spans="1:7">
+      <c r="A159" s="49"/>
+      <c r="B159" s="7">
         <v>91004</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C159" s="1">
         <v>2</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E159" s="6">
         <v>69005</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F159" s="1">
         <v>3</v>
       </c>
-      <c r="G167" s="11" t="str">
+      <c r="G159" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91004" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69005" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="49"/>
-      <c r="B168" s="7">
+    <row r="160" spans="1:7">
+      <c r="A160" s="49"/>
+      <c r="B160" s="7">
         <v>91005</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C160" s="1">
         <v>2</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E160" s="6">
         <v>69006</v>
       </c>
-      <c r="F168" s="1">
-        <v>1</v>
-      </c>
-      <c r="G168" s="11" t="str">
+      <c r="F160" s="1">
+        <v>1</v>
+      </c>
+      <c r="G160" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91005" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69006" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="49"/>
-      <c r="B169" s="7">
+    <row r="161" spans="1:7">
+      <c r="A161" s="49"/>
+      <c r="B161" s="7">
         <v>91006</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C161" s="1">
         <v>2</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E161" s="6">
         <v>69006</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F161" s="1">
         <v>3</v>
       </c>
-      <c r="G169" s="11" t="str">
+      <c r="G161" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91006" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69006" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="49"/>
-      <c r="B170" s="7">
+    <row r="162" spans="1:7">
+      <c r="A162" s="49"/>
+      <c r="B162" s="7">
         <v>91007</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C162" s="1">
         <v>2</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E162" s="6">
         <v>69007</v>
       </c>
-      <c r="F170" s="1">
-        <v>1</v>
-      </c>
-      <c r="G170" s="11" t="str">
+      <c r="F162" s="1">
+        <v>1</v>
+      </c>
+      <c r="G162" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91007" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69007" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="49"/>
-      <c r="B171" s="7">
+    <row r="163" spans="1:7">
+      <c r="A163" s="49"/>
+      <c r="B163" s="7">
         <v>91008</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C163" s="1">
         <v>2</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E163" s="6">
         <v>69007</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F163" s="1">
         <v>3</v>
       </c>
-      <c r="G171" s="11" t="str">
+      <c r="G163" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91008" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69007" Value="3" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="92"/>
+      <c r="B164" s="7">
+        <v>91009</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2</v>
+      </c>
+      <c r="E164" s="6">
+        <v>69012</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
+      <c r="G164" s="11" t="str">
+        <f t="shared" ref="G164:G171" si="3">IF(B164&lt;&gt;"","&lt;TreasureBox Id="""&amp;B164&amp;""" Type="""&amp;C164&amp;""" Name="""&amp;D164&amp;"""&gt;"&amp;CHAR(10)&amp;" &lt;Treasure ItemId="""&amp;E164&amp;""" Value="""&amp;F164&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/TreasureBox&gt;","")</f>
+        <v>&lt;TreasureBox Id="91009" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69012" Value="1" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="92"/>
+      <c r="B165" s="7">
+        <v>91010</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2</v>
+      </c>
+      <c r="E165" s="6">
+        <v>69012</v>
+      </c>
+      <c r="F165" s="1">
+        <v>3</v>
+      </c>
+      <c r="G165" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="91010" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69012" Value="3" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="92"/>
+      <c r="B166" s="7">
+        <v>91011</v>
+      </c>
+      <c r="C166" s="1">
+        <v>2</v>
+      </c>
+      <c r="E166" s="6">
+        <v>69013</v>
+      </c>
+      <c r="F166" s="1">
+        <v>1</v>
+      </c>
+      <c r="G166" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="91011" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69013" Value="1" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="92"/>
+      <c r="B167" s="7">
+        <v>91012</v>
+      </c>
+      <c r="C167" s="1">
+        <v>2</v>
+      </c>
+      <c r="E167" s="6">
+        <v>69013</v>
+      </c>
+      <c r="F167" s="1">
+        <v>3</v>
+      </c>
+      <c r="G167" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="91012" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69013" Value="3" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="92"/>
+      <c r="B168" s="7">
+        <v>91013</v>
+      </c>
+      <c r="C168" s="1">
+        <v>2</v>
+      </c>
+      <c r="E168" s="6">
+        <v>69014</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="91013" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69014" Value="1" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="92"/>
+      <c r="B169" s="7">
+        <v>91014</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2</v>
+      </c>
+      <c r="E169" s="6">
+        <v>69014</v>
+      </c>
+      <c r="F169" s="1">
+        <v>3</v>
+      </c>
+      <c r="G169" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="91014" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69014" Value="3" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="92"/>
+      <c r="B170" s="7">
+        <v>91015</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2</v>
+      </c>
+      <c r="E170" s="6">
+        <v>69015</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1</v>
+      </c>
+      <c r="G170" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="91015" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69015" Value="1" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="92"/>
+      <c r="B171" s="7">
+        <v>91016</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2</v>
+      </c>
+      <c r="E171" s="6">
+        <v>69015</v>
+      </c>
+      <c r="F171" s="1">
+        <v>3</v>
+      </c>
+      <c r="G171" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;TreasureBox Id="91016" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69015" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147B0B1D-5675-448F-B1D1-F79B61E420DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69618045-8879-4B44-AE3D-D5B47631F71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3319" uniqueCount="1838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3319" uniqueCount="1841">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6112,6 +6112,15 @@
   <si>
     <t>Home_denmark_bg_01</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home_denmark_bg_02</t>
+  </si>
+  <si>
+    <t>Home_denmark_bg_03</t>
+  </si>
+  <si>
+    <t>Home_denmark_bg_04</t>
   </si>
 </sst>
 </file>
@@ -15669,11 +15678,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A1297D-CA25-454C-8AB1-2D4EE96004F3}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
+      <selection pane="bottomRight" activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20588,13 +20597,13 @@
       <c r="L84" s="23"/>
       <c r="M84" s="23"/>
       <c r="N84" s="28">
-        <v>81009</v>
+        <v>91009</v>
       </c>
       <c r="O84" s="23">
         <v>3</v>
       </c>
       <c r="P84" s="28">
-        <v>81010</v>
+        <v>91010</v>
       </c>
       <c r="Q84" s="23">
         <v>8</v>
@@ -20602,8 +20611,8 @@
       <c r="R84" s="19" t="str">
         <f>IF(B84&lt;&gt;"","&lt;Mission Id="""&amp;B84&amp;""" Name="""&amp;C84&amp;""" Background="""&amp;D84&amp;""" Model="""&amp;E84&amp;""" NimIcon="""&amp;F84&amp;""" QuestId="""&amp;G84&amp;""" dailyGoalPercent="""&amp;H84&amp;""" AwardCoin="""&amp;I84&amp;""" BGM="""&amp;J84&amp;""" Sound="""&amp;K84&amp;""" WaterDrop="""&amp;L84&amp;""" WaterDropAudio="""&amp;M84&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N84&amp;""" Height="""&amp;O84&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P84&amp;""" Height="""&amp;Q84&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
         <v>&lt;Mission Id="92001" Name="MissionName92001" Background="Home_denmark_bg_01" Model="92001" NimIcon="" QuestId="20082" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
-  &lt;TreasureBox BoxId="81009" Height="3" /&gt;
-  &lt;TreasureBox BoxId="81010" Height="8" /&gt;
+  &lt;TreasureBox BoxId="91009" Height="3" /&gt;
+  &lt;TreasureBox BoxId="91010" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
       <c r="S84" s="6"/>
@@ -20618,7 +20627,7 @@
         <v>MissionName92002</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="E85" s="29">
         <v>92002</v>
@@ -20638,22 +20647,22 @@
       <c r="L85" s="23"/>
       <c r="M85" s="23"/>
       <c r="N85" s="28">
-        <v>81011</v>
+        <v>91011</v>
       </c>
       <c r="O85" s="23">
         <v>3</v>
       </c>
       <c r="P85" s="28">
-        <v>81012</v>
+        <v>91012</v>
       </c>
       <c r="Q85" s="23">
         <v>8</v>
       </c>
       <c r="R85" s="19" t="str">
         <f>IF(B85&lt;&gt;"","&lt;Mission Id="""&amp;B85&amp;""" Name="""&amp;C85&amp;""" Background="""&amp;D85&amp;""" Model="""&amp;E85&amp;""" NimIcon="""&amp;F85&amp;""" QuestId="""&amp;G85&amp;""" dailyGoalPercent="""&amp;H85&amp;""" AwardCoin="""&amp;I85&amp;""" BGM="""&amp;J85&amp;""" Sound="""&amp;K85&amp;""" WaterDrop="""&amp;L85&amp;""" WaterDropAudio="""&amp;M85&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N85&amp;""" Height="""&amp;O85&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P85&amp;""" Height="""&amp;Q85&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="92002" Name="MissionName92002" Background="Home_denmark_bg_01" Model="92002" NimIcon="" QuestId="20083" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
-  &lt;TreasureBox BoxId="81011" Height="3" /&gt;
-  &lt;TreasureBox BoxId="81012" Height="8" /&gt;
+        <v>&lt;Mission Id="92002" Name="MissionName92002" Background="Home_denmark_bg_02" Model="92002" NimIcon="" QuestId="20083" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+  &lt;TreasureBox BoxId="91011" Height="3" /&gt;
+  &lt;TreasureBox BoxId="91012" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
       <c r="S85" s="6"/>
@@ -20668,7 +20677,7 @@
         <v>MissionName92003</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="E86" s="29">
         <v>92003</v>
@@ -20688,22 +20697,22 @@
       <c r="L86" s="23"/>
       <c r="M86" s="23"/>
       <c r="N86" s="28">
-        <v>81013</v>
+        <v>91013</v>
       </c>
       <c r="O86" s="23">
         <v>3</v>
       </c>
       <c r="P86" s="28">
-        <v>81014</v>
+        <v>91014</v>
       </c>
       <c r="Q86" s="23">
         <v>8</v>
       </c>
       <c r="R86" s="19" t="str">
         <f>IF(B86&lt;&gt;"","&lt;Mission Id="""&amp;B86&amp;""" Name="""&amp;C86&amp;""" Background="""&amp;D86&amp;""" Model="""&amp;E86&amp;""" NimIcon="""&amp;F86&amp;""" QuestId="""&amp;G86&amp;""" dailyGoalPercent="""&amp;H86&amp;""" AwardCoin="""&amp;I86&amp;""" BGM="""&amp;J86&amp;""" Sound="""&amp;K86&amp;""" WaterDrop="""&amp;L86&amp;""" WaterDropAudio="""&amp;M86&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N86&amp;""" Height="""&amp;O86&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P86&amp;""" Height="""&amp;Q86&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="92003" Name="MissionName92003" Background="Home_denmark_bg_01" Model="92003" NimIcon="" QuestId="20084" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
-  &lt;TreasureBox BoxId="81013" Height="3" /&gt;
-  &lt;TreasureBox BoxId="81014" Height="8" /&gt;
+        <v>&lt;Mission Id="92003" Name="MissionName92003" Background="Home_denmark_bg_03" Model="92003" NimIcon="" QuestId="20084" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+  &lt;TreasureBox BoxId="91013" Height="3" /&gt;
+  &lt;TreasureBox BoxId="91014" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
       <c r="S86" s="6"/>
@@ -20718,7 +20727,7 @@
         <v>MissionName92004</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="E87" s="29">
         <v>92004</v>
@@ -20738,22 +20747,22 @@
       <c r="L87" s="23"/>
       <c r="M87" s="23"/>
       <c r="N87" s="28">
-        <v>81015</v>
+        <v>91015</v>
       </c>
       <c r="O87" s="23">
         <v>3</v>
       </c>
       <c r="P87" s="28">
-        <v>81016</v>
+        <v>91016</v>
       </c>
       <c r="Q87" s="23">
         <v>8</v>
       </c>
       <c r="R87" s="19" t="str">
         <f>IF(B87&lt;&gt;"","&lt;Mission Id="""&amp;B87&amp;""" Name="""&amp;C87&amp;""" Background="""&amp;D87&amp;""" Model="""&amp;E87&amp;""" NimIcon="""&amp;F87&amp;""" QuestId="""&amp;G87&amp;""" dailyGoalPercent="""&amp;H87&amp;""" AwardCoin="""&amp;I87&amp;""" BGM="""&amp;J87&amp;""" Sound="""&amp;K87&amp;""" WaterDrop="""&amp;L87&amp;""" WaterDropAudio="""&amp;M87&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N87&amp;""" Height="""&amp;O87&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P87&amp;""" Height="""&amp;Q87&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="92004" Name="MissionName92004" Background="Home_denmark_bg_01" Model="92004" NimIcon="" QuestId="20085" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
-  &lt;TreasureBox BoxId="81015" Height="3" /&gt;
-  &lt;TreasureBox BoxId="81016" Height="8" /&gt;
+        <v>&lt;Mission Id="92004" Name="MissionName92004" Background="Home_denmark_bg_04" Model="92004" NimIcon="" QuestId="20085" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+  &lt;TreasureBox BoxId="91015" Height="3" /&gt;
+  &lt;TreasureBox BoxId="91016" Height="8" /&gt;
 &lt;/Mission&gt;</v>
       </c>
       <c r="S87" s="6"/>
@@ -20772,7 +20781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E164" sqref="E164"/>
     </sheetView>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,29 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69618045-8879-4B44-AE3D-D5B47631F71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DEDDFF-78FE-4260-8E48-699DB43D51C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
     <sheet name="ItemFood" sheetId="12" r:id="rId2"/>
-    <sheet name="Image" sheetId="5" state="hidden" r:id="rId3"/>
-    <sheet name="Audio" sheetId="6" state="hidden" r:id="rId4"/>
-    <sheet name="Preview" sheetId="7" state="hidden" r:id="rId5"/>
-    <sheet name="Ocean" sheetId="2" state="hidden" r:id="rId6"/>
-    <sheet name="Forest" sheetId="3" state="hidden" r:id="rId7"/>
-    <sheet name="Desert" sheetId="4" state="hidden" r:id="rId8"/>
-    <sheet name="Rock" sheetId="8" state="hidden" r:id="rId9"/>
-    <sheet name="Mission" sheetId="16" r:id="rId10"/>
-    <sheet name="TreasureBox" sheetId="11" r:id="rId11"/>
-    <sheet name="Level" sheetId="13" r:id="rId12"/>
-    <sheet name="Sound" sheetId="17" r:id="rId13"/>
+    <sheet name="Accessory" sheetId="18" r:id="rId3"/>
+    <sheet name="Image" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Audio" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="Preview" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="Ocean" sheetId="2" state="hidden" r:id="rId7"/>
+    <sheet name="Forest" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="Desert" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="Rock" sheetId="8" state="hidden" r:id="rId10"/>
+    <sheet name="Mission" sheetId="16" r:id="rId11"/>
+    <sheet name="TreasureBox" sheetId="11" r:id="rId12"/>
+    <sheet name="Level" sheetId="13" r:id="rId13"/>
+    <sheet name="Sound" sheetId="17" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Item!$A$1:$O$151</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -357,6 +358,39 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{44A9AE18-2E78-4513-8459-B4331A613F2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">配饰类型：
+1-头部
+2-背部
+3-两侧
+4-套装
+5-精灵
+6-纹身
+7-背景
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{ECDF9F36-606B-4D0D-9EA3-D42F94200FA3}">
       <text>
         <r>
@@ -376,7 +410,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
@@ -416,7 +450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3319" uniqueCount="1841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="1876">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6121,6 +6155,139 @@
   </si>
   <si>
     <t>Home_denmark_bg_04</t>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock</t>
+  </si>
+  <si>
+    <t>PURPIE</t>
+  </si>
+  <si>
+    <t>DONNY</t>
+  </si>
+  <si>
+    <t>NINJI</t>
+  </si>
+  <si>
+    <t>SANSA</t>
+  </si>
+  <si>
+    <t>YOYO</t>
+  </si>
+  <si>
+    <t>NUO</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖紫适用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逗泥适用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小忍适用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊珊适用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呦呦适用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺诺适用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞帽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level|10#Date|2019-12-24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6130,7 +6297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6242,6 +6409,15 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6555,7 +6731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6840,6 +7016,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15675,14 +15857,215 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1" t="str">
+        <f>IF(A1&lt;&gt;"",A1,B1)</f>
+        <v>Home_box_nim_volcano01 (1)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C20" si="0">IF(A2&lt;&gt;"",A2,B2)</f>
+        <v>Home_box_nim_volcano02 (1)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano01 (2)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>869</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano02 (2)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>843</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano01 (3)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>872</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano02 (3)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>845</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano01 (4)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>874</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano02 (4)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>847</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano01 (5)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>876</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano02 (5)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>849</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano01 (6)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>878</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano02 (6)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>851</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano01 (7)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>880</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano02 (7)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>853</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano01 (8)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>882</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano02 (8)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>855</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano01 (9)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>884</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano02 (9)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>857</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano01 (10)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>886</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Home_box_nim_volcano02 (10)</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A1297D-CA25-454C-8AB1-2D4EE96004F3}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G74" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N90" sqref="N90"/>
+      <selection pane="bottomRight" activeCell="R74" sqref="R74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20777,7 +21160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H171"/>
   <sheetViews>
@@ -24400,7 +24783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829EB45C-A46A-4578-97E5-19D9DDC97897}">
   <dimension ref="A1:AB102"/>
   <sheetViews>
@@ -34181,7 +34564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DA095D-09EF-48A6-9C4D-15AC176FC818}">
   <dimension ref="A1:G767"/>
   <sheetViews>
@@ -55722,7 +56105,7 @@
   <dimension ref="A2:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -57963,6 +58346,200 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D96359-2238-4BA9-9F55-D3788226CAA7}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="8" width="9" style="6"/>
+    <col min="9" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="9" style="1"/>
+    <col min="18" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="103" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>1860</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>1862</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>1863</v>
+      </c>
+      <c r="K1" s="103" t="s">
+        <v>1864</v>
+      </c>
+      <c r="L1" s="103" t="s">
+        <v>1865</v>
+      </c>
+      <c r="M1" s="103" t="s">
+        <v>1866</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>1867</v>
+      </c>
+      <c r="O1" s="103" t="s">
+        <v>1868</v>
+      </c>
+      <c r="P1" s="103" t="s">
+        <v>1869</v>
+      </c>
+      <c r="Q1" s="103" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>1843</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>1844</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>1845</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>1846</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>1848</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1874</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="104">
+        <v>43823</v>
+      </c>
+      <c r="J3" s="104">
+        <v>43830</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>1875</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="6" t="str">
+        <f>IF(AND(A3&lt;&gt;"",B3&lt;&gt;""),"&lt;Accessory ID="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Index="""&amp;C3&amp;""" Name="""&amp;D3&amp;""" Prefab="""&amp;E3&amp;""" Region="""&amp;F3&amp;""" Purchase="""&amp;G3&amp;""" Price="""&amp;H3&amp;""" StartTime="""&amp;I3&amp;""" EndTime="""&amp;J3&amp;""" Unlock="""&amp;K3&amp;""" PURPIE="""&amp;L3&amp;""" DONNY="""&amp;M3&amp;""" NINJI="""&amp;N3&amp;""" SANSA="""&amp;O3&amp;""" YOYO="""&amp;P3&amp;""" NUO="""&amp;Q3&amp;""" /&gt;","")</f>
+        <v>&lt;Accessory ID="10000" Type="1" Index="1" Name="圣诞帽" Prefab="Hat" Region="Head" Purchase="Cash" Price="0.01" StartTime="43823" EndTime="43830" Unlock="Level|10#Date|2019-12-24" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G126"/>
   <sheetViews>
@@ -61377,7 +61954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C126"/>
   <sheetViews>
@@ -62907,7 +63484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C126"/>
   <sheetViews>
@@ -64440,7 +65017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -64837,7 +65414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -65234,7 +65811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -65631,205 +66208,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="2" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>837</v>
-      </c>
-      <c r="C1" t="str">
-        <f>IF(A1&lt;&gt;"",A1,B1)</f>
-        <v>Home_box_nim_volcano01 (1)</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C20" si="0">IF(A2&lt;&gt;"",A2,B2)</f>
-        <v>Home_box_nim_volcano02 (1)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>838</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano01 (2)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>869</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano02 (2)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>843</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano01 (3)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>872</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano02 (3)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>845</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano01 (4)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>874</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano02 (4)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>847</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano01 (5)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>876</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano02 (5)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>849</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano01 (6)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>878</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano02 (6)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>851</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano01 (7)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>880</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano02 (7)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>853</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano01 (8)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>882</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano02 (8)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>855</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano01 (9)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>884</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano02 (9)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>857</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano01 (10)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
-        <v>886</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>Home_box_nim_volcano02 (10)</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D781753-1185-4626-88AB-F0DB0329D6A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D8802B-2E6A-4FBF-BC2E-1D1D0226BF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -56492,11 +56492,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U24" sqref="U24:U27"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -58740,7 +58740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D8802B-2E6A-4FBF-BC2E-1D1D0226BF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BE2ACA-5C8D-4104-8AB1-367255FF0440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -6144,19 +6144,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Home_denmark_bg_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Home_denmark_bg_02</t>
-  </si>
-  <si>
-    <t>Home_denmark_bg_03</t>
-  </si>
-  <si>
-    <t>Home_denmark_bg_04</t>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -6397,6 +6384,19 @@
   <si>
     <t>解锁等级</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home_Backgrond_hfairy_tale_bg_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home_Backgrond_hfairy_tale_bg_02</t>
+  </si>
+  <si>
+    <t>Home_Backgrond_hfairy_tale_bg_03</t>
+  </si>
+  <si>
+    <t>Home_Backgrond_hfairy_tale_bg_04</t>
   </si>
 </sst>
 </file>
@@ -7784,7 +7784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N166" sqref="N166:N169"/>
+      <selection pane="bottomLeft" activeCell="A166" sqref="A166:A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -8099,7 +8099,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="99" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="B10" s="99"/>
       <c r="C10" s="99"/>
@@ -15894,7 +15894,7 @@
     </row>
     <row r="157" spans="1:15" ht="15.75">
       <c r="A157" s="99" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="B157" s="99"/>
       <c r="C157" s="99"/>
@@ -16512,11 +16512,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N84" sqref="N84"/>
+      <selection pane="bottomRight" activeCell="R84" sqref="R84:R87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -21348,7 +21348,7 @@
         <v>MissionName92001</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>1837</v>
+        <v>1900</v>
       </c>
       <c r="E84" s="29">
         <v>92001</v>
@@ -21381,7 +21381,7 @@
       </c>
       <c r="R84" s="19" t="str">
         <f>IF(B84&lt;&gt;"","&lt;Mission Id="""&amp;B84&amp;""" Name="""&amp;C84&amp;""" Background="""&amp;D84&amp;""" Model="""&amp;E84&amp;""" NimIcon="""&amp;F84&amp;""" QuestId="""&amp;G84&amp;""" dailyGoalPercent="""&amp;H84&amp;""" AwardCoin="""&amp;I84&amp;""" BGM="""&amp;J84&amp;""" Sound="""&amp;K84&amp;""" WaterDrop="""&amp;L84&amp;""" WaterDropAudio="""&amp;M84&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N84&amp;""" Height="""&amp;O84&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P84&amp;""" Height="""&amp;Q84&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="92001" Name="MissionName92001" Background="Home_denmark_bg_01" Model="92001" NimIcon="" QuestId="20082" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+        <v>&lt;Mission Id="92001" Name="MissionName92001" Background="Home_Backgrond_hfairy_tale_bg_01" Model="92001" NimIcon="" QuestId="20082" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91009" Height="3" /&gt;
   &lt;TreasureBox BoxId="91010" Height="8" /&gt;
 &lt;/Mission&gt;</v>
@@ -21398,7 +21398,7 @@
         <v>MissionName92002</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>1838</v>
+        <v>1901</v>
       </c>
       <c r="E85" s="29">
         <v>92002</v>
@@ -21431,7 +21431,7 @@
       </c>
       <c r="R85" s="19" t="str">
         <f>IF(B85&lt;&gt;"","&lt;Mission Id="""&amp;B85&amp;""" Name="""&amp;C85&amp;""" Background="""&amp;D85&amp;""" Model="""&amp;E85&amp;""" NimIcon="""&amp;F85&amp;""" QuestId="""&amp;G85&amp;""" dailyGoalPercent="""&amp;H85&amp;""" AwardCoin="""&amp;I85&amp;""" BGM="""&amp;J85&amp;""" Sound="""&amp;K85&amp;""" WaterDrop="""&amp;L85&amp;""" WaterDropAudio="""&amp;M85&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N85&amp;""" Height="""&amp;O85&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P85&amp;""" Height="""&amp;Q85&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="92002" Name="MissionName92002" Background="Home_denmark_bg_02" Model="92002" NimIcon="" QuestId="20083" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+        <v>&lt;Mission Id="92002" Name="MissionName92002" Background="Home_Backgrond_hfairy_tale_bg_02" Model="92002" NimIcon="" QuestId="20083" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91011" Height="3" /&gt;
   &lt;TreasureBox BoxId="91012" Height="8" /&gt;
 &lt;/Mission&gt;</v>
@@ -21448,7 +21448,7 @@
         <v>MissionName92003</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>1839</v>
+        <v>1902</v>
       </c>
       <c r="E86" s="29">
         <v>92003</v>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="R86" s="19" t="str">
         <f>IF(B86&lt;&gt;"","&lt;Mission Id="""&amp;B86&amp;""" Name="""&amp;C86&amp;""" Background="""&amp;D86&amp;""" Model="""&amp;E86&amp;""" NimIcon="""&amp;F86&amp;""" QuestId="""&amp;G86&amp;""" dailyGoalPercent="""&amp;H86&amp;""" AwardCoin="""&amp;I86&amp;""" BGM="""&amp;J86&amp;""" Sound="""&amp;K86&amp;""" WaterDrop="""&amp;L86&amp;""" WaterDropAudio="""&amp;M86&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N86&amp;""" Height="""&amp;O86&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P86&amp;""" Height="""&amp;Q86&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="92003" Name="MissionName92003" Background="Home_denmark_bg_03" Model="92003" NimIcon="" QuestId="20084" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+        <v>&lt;Mission Id="92003" Name="MissionName92003" Background="Home_Backgrond_hfairy_tale_bg_03" Model="92003" NimIcon="" QuestId="20084" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91013" Height="3" /&gt;
   &lt;TreasureBox BoxId="91014" Height="8" /&gt;
 &lt;/Mission&gt;</v>
@@ -21498,7 +21498,7 @@
         <v>MissionName92004</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>1840</v>
+        <v>1903</v>
       </c>
       <c r="E87" s="29">
         <v>92004</v>
@@ -21531,7 +21531,7 @@
       </c>
       <c r="R87" s="19" t="str">
         <f>IF(B87&lt;&gt;"","&lt;Mission Id="""&amp;B87&amp;""" Name="""&amp;C87&amp;""" Background="""&amp;D87&amp;""" Model="""&amp;E87&amp;""" NimIcon="""&amp;F87&amp;""" QuestId="""&amp;G87&amp;""" dailyGoalPercent="""&amp;H87&amp;""" AwardCoin="""&amp;I87&amp;""" BGM="""&amp;J87&amp;""" Sound="""&amp;K87&amp;""" WaterDrop="""&amp;L87&amp;""" WaterDropAudio="""&amp;M87&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N87&amp;""" Height="""&amp;O87&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P87&amp;""" Height="""&amp;Q87&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="92004" Name="MissionName92004" Background="Home_denmark_bg_04" Model="92004" NimIcon="" QuestId="20085" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+        <v>&lt;Mission Id="92004" Name="MissionName92004" Background="Home_Backgrond_hfairy_tale_bg_04" Model="92004" NimIcon="" QuestId="20085" dailyGoalPercent="0.5" AwardCoin="50" BGM="" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="91015" Height="3" /&gt;
   &lt;TreasureBox BoxId="91016" Height="8" /&gt;
 &lt;/Mission&gt;</v>
@@ -56492,11 +56492,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20:I23"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -58403,10 +58403,10 @@
         <v>6</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="F24" s="30" t="b">
         <v>1</v>
@@ -58445,10 +58445,10 @@
         <v>1050</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="S24" s="80" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="U24" s="30" t="str">
         <f t="shared" ref="U24:U27" si="1">"&lt;PropertyItem&gt;"&amp;CHAR(10)&amp;"&lt;Number&gt;"&amp;A24&amp;"&lt;/Number&gt;"&amp;CHAR(10)&amp;"&lt;Id&gt;"&amp;B24&amp;"&lt;/Id&gt;"&amp;CHAR(10)&amp;"&lt;Type&gt;"&amp;C24&amp;"&lt;/Type&gt;"&amp;CHAR(10)&amp;"&lt;Name&gt;"&amp;D24&amp;"&lt;/Name&gt;"&amp;CHAR(10)&amp;"&lt;Tag&gt;"&amp;E24&amp;"&lt;/Tag&gt;"&amp;CHAR(10)&amp;"&lt;IsNew&gt;"&amp;F24&amp;"&lt;/IsNew&gt;"&amp;CHAR(10)&amp;"&lt;IsCampain&gt;"&amp;G24&amp;"&lt;/IsCampain&gt;"&amp;CHAR(10)&amp;"&lt;StartTime&gt;"&amp;TEXT(H24,"yyyy-MM-dd HH:mm")&amp;"&lt;/StartTime&gt;"&amp;CHAR(10)&amp;"&lt;EndTime&gt;"&amp;TEXT(I24,"yyyy-MM-dd HH:mm")&amp;"&lt;/EndTime&gt;"&amp;CHAR(10)&amp;"&lt;UnlockLevel&gt;"&amp;J24&amp;"&lt;/UnlockLevel&gt;"&amp;CHAR(10)&amp;"&lt;Rarity&gt;"&amp;K24&amp;"&lt;/Rarity&gt;"&amp;CHAR(10)&amp;"&lt;Price&gt;"&amp;L24&amp;"&lt;/Price&gt;"&amp;CHAR(10)&amp;"&lt;Sale&gt;"&amp;M24&amp;"&lt;/Sale&gt;"&amp;CHAR(10)&amp;"&lt;Hp&gt;"&amp;N24&amp;"&lt;/Hp&gt;"&amp;CHAR(10)&amp;"&lt;Exp&gt;"&amp;O24&amp;"&lt;/Exp&gt;"&amp;CHAR(10)&amp;"&lt;IsShow&gt;"&amp;P24&amp;"&lt;/IsShow&gt;"&amp;CHAR(10)&amp;"&lt;AcquireWay&gt;"&amp;Q24&amp;"&lt;/AcquireWay&gt;"&amp;CHAR(10)&amp;"&lt;DefaultIcon&gt;"&amp;R24&amp;"&lt;/DefaultIcon&gt;"&amp;CHAR(10)&amp;"&lt;HighLightIcon&gt;"&amp;S24&amp;"&lt;/HighLightIcon&gt;"&amp;CHAR(10)&amp;"&lt;ReactionAnim&gt;"&amp;T24&amp;"&lt;/ReactionAnim&gt;"&amp;CHAR(10)&amp;"&lt;/PropertyItem&gt;"</f>
@@ -58487,10 +58487,10 @@
         <v>6</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="F25" s="30" t="b">
         <v>1</v>
@@ -58529,10 +58529,10 @@
         <v>1050</v>
       </c>
       <c r="R25" s="30" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="S25" s="80" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="U25" s="30" t="str">
         <f t="shared" si="1"/>
@@ -58571,10 +58571,10 @@
         <v>6</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="F26" s="30" t="b">
         <v>1</v>
@@ -58613,10 +58613,10 @@
         <v>1050</v>
       </c>
       <c r="R26" s="30" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="S26" s="80" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="U26" s="30" t="str">
         <f t="shared" si="1"/>
@@ -58655,10 +58655,10 @@
         <v>6</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="F27" s="30" t="b">
         <v>1</v>
@@ -58697,10 +58697,10 @@
         <v>1050</v>
       </c>
       <c r="R27" s="30" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="S27" s="80" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="U27" s="30" t="str">
         <f t="shared" si="1"/>
@@ -58761,58 +58761,58 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="79" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F1" s="79" t="s">
         <v>1853</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="G1" s="79" t="s">
         <v>1854</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="H1" s="79" t="s">
         <v>1855</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="I1" s="79" t="s">
         <v>1856</v>
       </c>
-      <c r="E1" s="79" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F1" s="79" t="s">
+      <c r="J1" s="79" t="s">
         <v>1857</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="K1" s="79" t="s">
         <v>1858</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="L1" s="79" t="s">
+        <v>1899</v>
+      </c>
+      <c r="M1" s="79" t="s">
         <v>1859</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="N1" s="79" t="s">
         <v>1860</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="O1" s="79" t="s">
         <v>1861</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="P1" s="79" t="s">
         <v>1862</v>
       </c>
-      <c r="L1" s="79" t="s">
-        <v>1903</v>
-      </c>
-      <c r="M1" s="79" t="s">
+      <c r="Q1" s="79" t="s">
         <v>1863</v>
       </c>
-      <c r="N1" s="79" t="s">
+      <c r="R1" s="79" t="s">
         <v>1864</v>
-      </c>
-      <c r="O1" s="79" t="s">
-        <v>1865</v>
-      </c>
-      <c r="P1" s="79" t="s">
-        <v>1866</v>
-      </c>
-      <c r="Q1" s="79" t="s">
-        <v>1867</v>
-      </c>
-      <c r="R1" s="79" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -58823,22 +58823,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>1037</v>
@@ -58850,28 +58850,28 @@
         <v>1034</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>1839</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>1840</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>1841</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>1842</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>1843</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>1844</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>1845</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>1846</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>1847</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75">
@@ -58885,19 +58885,19 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="E3" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="I3" s="6">
         <v>200</v>
@@ -58945,11 +58945,11 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="E4"/>
       <c r="H4" s="6" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="I4" s="6">
         <v>1800</v>
@@ -58997,11 +58997,11 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="E5"/>
       <c r="H5" s="6" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="I5" s="6">
         <v>800</v>
@@ -59049,11 +59049,11 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="E6"/>
       <c r="H6" s="6" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="I6" s="6">
         <v>300</v>
@@ -59101,11 +59101,11 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="E7"/>
       <c r="H7" s="6" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="I7" s="6">
         <v>1.99</v>
@@ -59153,11 +59153,11 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="E8"/>
       <c r="H8" s="6" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="I8" s="6">
         <v>1000</v>
@@ -59205,11 +59205,11 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="E9"/>
       <c r="H9" s="6" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="I9" s="6">
         <v>2000</v>
@@ -59257,11 +59257,11 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="E10"/>
       <c r="H10" s="6" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="I10" s="6">
         <v>500</v>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BE2ACA-5C8D-4104-8AB1-367255FF0440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977379D5-20B7-4C84-A940-D948B542B20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -450,7 +450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="1904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="1912">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6397,6 +6397,31 @@
   </si>
   <si>
     <t>Home_Backgrond_hfairy_tale_bg_04</t>
+  </si>
+  <si>
+    <t>feed_welcome_denmark</t>
+  </si>
+  <si>
+    <t>丹麦地图欢迎语音</t>
+  </si>
+  <si>
+    <t>feed_welcome_dk_001</t>
+  </si>
+  <si>
+    <t>feed_welcome_dk_002</t>
+  </si>
+  <si>
+    <t>feed_welcome_dk_003</t>
+  </si>
+  <si>
+    <t>feed_welcome_dk_004</t>
+  </si>
+  <si>
+    <t>feed_welcome_dk_005</t>
+  </si>
+  <si>
+    <t>我是一条分割线(下面的行，没有“输入”，内容手填)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6406,7 +6431,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6544,6 +6569,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="22">
     <fill>
@@ -6673,7 +6708,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -6865,6 +6900,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6872,7 +6944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7177,6 +7249,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7784,7 +7865,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166:A169"/>
+      <selection pane="bottomLeft" activeCell="A157" sqref="A157:O157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -16512,7 +16593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -34954,11 +35035,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G767"/>
+  <dimension ref="A1:G775"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A751" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A769" sqref="A769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -34967,7 +35048,7 @@
     <col min="2" max="2" width="24.625" style="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.125" style="74" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.125" style="74" customWidth="1"/>
-    <col min="5" max="5" width="24.625" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="74" customWidth="1"/>
     <col min="6" max="6" width="54.875" style="74" customWidth="1"/>
     <col min="7" max="7" width="8.875" style="74"/>
   </cols>
@@ -55310,7 +55391,7 @@
         <v>galaxy_new_world_welcome_002</v>
       </c>
       <c r="F727" s="74" t="str">
-        <f t="shared" ref="F727:F767" si="83">IF(A727="1","&lt;Sound Type="""&amp;B727&amp;""" Storage="""&amp;C727&amp;""" Dec="""&amp;D727&amp;"""&gt;",IF(A727="2","  &lt;Clip SoundPath="""&amp;E727&amp;""" /&gt;",IF(A727="3",G727,"")))</f>
+        <f t="shared" ref="F727:F775" si="83">IF(A727="1","&lt;Sound Type="""&amp;B727&amp;""" Storage="""&amp;C727&amp;""" Dec="""&amp;D727&amp;"""&gt;",IF(A727="2","  &lt;Clip SoundPath="""&amp;E727&amp;""" /&gt;",IF(A727="3",G727,"")))</f>
         <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_new_world_welcome_002" /&gt;</v>
       </c>
       <c r="G727" s="74" t="s">
@@ -56437,9 +56518,110 @@
         <v>1265</v>
       </c>
     </row>
+    <row r="768" spans="1:7">
+      <c r="A768" s="110" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B768" s="111"/>
+      <c r="C768" s="111"/>
+      <c r="D768" s="111"/>
+      <c r="E768" s="111"/>
+      <c r="F768" s="111"/>
+      <c r="G768" s="112"/>
+    </row>
+    <row r="769" spans="1:6">
+      <c r="A769" s="73">
+        <v>1</v>
+      </c>
+      <c r="B769" s="74" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C769" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D769" s="74" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F769" s="74" t="str">
+        <f>IF(A769=1,"&lt;Sound Type="""&amp;B769&amp;""" Storage="""&amp;C769&amp;""" Dec="""&amp;D769&amp;"""&gt;",IF(A769=2,"  &lt;Clip SoundPath="""&amp;E769&amp;""" /&gt;",IF(A769=3,G769,"")))</f>
+        <v>&lt;Sound Type="feed_welcome_denmark" Storage="Remote" Dec="丹麦地图欢迎语音"&gt;</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6">
+      <c r="A770" s="73">
+        <v>2</v>
+      </c>
+      <c r="E770" s="74" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F770" s="74" t="str">
+        <f t="shared" ref="F770:F775" si="85">IF(A770=1,"&lt;Sound Type="""&amp;B770&amp;""" Storage="""&amp;C770&amp;""" Dec="""&amp;D770&amp;"""&gt;",IF(A770=2,"  &lt;Clip SoundPath="""&amp;E770&amp;""" /&gt;",IF(A770=3,G770,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_dk_001" /&gt;</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6">
+      <c r="A771" s="73">
+        <v>2</v>
+      </c>
+      <c r="E771" s="74" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F771" s="74" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_dk_002" /&gt;</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6">
+      <c r="A772" s="73">
+        <v>2</v>
+      </c>
+      <c r="E772" s="74" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F772" s="74" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_dk_003" /&gt;</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6">
+      <c r="A773" s="73">
+        <v>2</v>
+      </c>
+      <c r="E773" s="74" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F773" s="74" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_dk_004" /&gt;</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6">
+      <c r="A774" s="73">
+        <v>2</v>
+      </c>
+      <c r="E774" s="74" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F774" s="74" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_dk_005" /&gt;</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6">
+      <c r="A775" s="73">
+        <v>3</v>
+      </c>
+      <c r="F775" s="74" t="str">
+        <f>IF(A775=1,"&lt;Sound Type="""&amp;B775&amp;""" Storage="""&amp;C775&amp;""" Dec="""&amp;D775&amp;"""&gt;",IF(A775=2,"  &lt;Clip SoundPath="""&amp;E775&amp;""" /&gt;",IF(A775=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A768:G768"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:G25 A437:G1048576 A29:G433">
+  <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977379D5-20B7-4C84-A940-D948B542B20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7471C393-F2D5-401D-A1D4-9C9DD25103FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="1912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="1922">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6422,6 +6422,39 @@
   <si>
     <t>我是一条分割线(下面的行，没有“输入”，内容手填)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>galaxy_unlock</t>
+  </si>
+  <si>
+    <t>星球或地图解锁提示音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>galaxy_unlock01</t>
+  </si>
+  <si>
+    <t>galaxy_unlock02</t>
+  </si>
+  <si>
+    <t>galaxy_unlock03</t>
+  </si>
+  <si>
+    <t>galaxy_unlock04</t>
+  </si>
+  <si>
+    <t>饮水解锁新地图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新地图稍后解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>galaxy_lock_drink</t>
+  </si>
+  <si>
+    <t>galaxy_lock_time</t>
   </si>
 </sst>
 </file>
@@ -35035,11 +35068,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G775"/>
+  <dimension ref="A1:G787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A751" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A769" sqref="A769"/>
+      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A787" sqref="A787:XFD789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -55391,7 +55424,7 @@
         <v>galaxy_new_world_welcome_002</v>
       </c>
       <c r="F727" s="74" t="str">
-        <f t="shared" ref="F727:F775" si="83">IF(A727="1","&lt;Sound Type="""&amp;B727&amp;""" Storage="""&amp;C727&amp;""" Dec="""&amp;D727&amp;"""&gt;",IF(A727="2","  &lt;Clip SoundPath="""&amp;E727&amp;""" /&gt;",IF(A727="3",G727,"")))</f>
+        <f t="shared" ref="F727:F767" si="83">IF(A727="1","&lt;Sound Type="""&amp;B727&amp;""" Storage="""&amp;C727&amp;""" Dec="""&amp;D727&amp;"""&gt;",IF(A727="2","  &lt;Clip SoundPath="""&amp;E727&amp;""" /&gt;",IF(A727="3",G727,"")))</f>
         <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_new_world_welcome_002" /&gt;</v>
       </c>
       <c r="G727" s="74" t="s">
@@ -56555,7 +56588,7 @@
         <v>1906</v>
       </c>
       <c r="F770" s="74" t="str">
-        <f t="shared" ref="F770:F775" si="85">IF(A770=1,"&lt;Sound Type="""&amp;B770&amp;""" Storage="""&amp;C770&amp;""" Dec="""&amp;D770&amp;"""&gt;",IF(A770=2,"  &lt;Clip SoundPath="""&amp;E770&amp;""" /&gt;",IF(A770=3,G770,"")))</f>
+        <f t="shared" ref="F770:F774" si="85">IF(A770=1,"&lt;Sound Type="""&amp;B770&amp;""" Storage="""&amp;C770&amp;""" Dec="""&amp;D770&amp;"""&gt;",IF(A770=2,"  &lt;Clip SoundPath="""&amp;E770&amp;""" /&gt;",IF(A770=3,G770,"")))</f>
         <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_dk_001" /&gt;</v>
       </c>
     </row>
@@ -56613,6 +56646,159 @@
       </c>
       <c r="F775" s="74" t="str">
         <f>IF(A775=1,"&lt;Sound Type="""&amp;B775&amp;""" Storage="""&amp;C775&amp;""" Dec="""&amp;D775&amp;"""&gt;",IF(A775=2,"  &lt;Clip SoundPath="""&amp;E775&amp;""" /&gt;",IF(A775=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6">
+      <c r="A776" s="73">
+        <v>1</v>
+      </c>
+      <c r="B776" s="74" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C776" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D776" s="74" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F776" s="74" t="str">
+        <f>IF(A776=1,"&lt;Sound Type="""&amp;B776&amp;""" Storage="""&amp;C776&amp;""" Dec="""&amp;D776&amp;"""&gt;",IF(A776=2,"  &lt;Clip SoundPath="""&amp;E776&amp;""" /&gt;",IF(A776=3,G776,"")))</f>
+        <v>&lt;Sound Type="galaxy_unlock" Storage="Remote" Dec="星球或地图解锁提示音"&gt;</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6">
+      <c r="A777" s="73">
+        <v>2</v>
+      </c>
+      <c r="E777" s="74" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F777" s="74" t="str">
+        <f t="shared" ref="F777:F780" si="86">IF(A777=1,"&lt;Sound Type="""&amp;B777&amp;""" Storage="""&amp;C777&amp;""" Dec="""&amp;D777&amp;"""&gt;",IF(A777=2,"  &lt;Clip SoundPath="""&amp;E777&amp;""" /&gt;",IF(A777=3,G777,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_unlock01" /&gt;</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6">
+      <c r="A778" s="73">
+        <v>2</v>
+      </c>
+      <c r="E778" s="74" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F778" s="74" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_unlock02" /&gt;</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6">
+      <c r="A779" s="73">
+        <v>2</v>
+      </c>
+      <c r="E779" s="74" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F779" s="74" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_unlock03" /&gt;</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6">
+      <c r="A780" s="73">
+        <v>2</v>
+      </c>
+      <c r="E780" s="74" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F780" s="74" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_unlock04" /&gt;</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6">
+      <c r="A781" s="73">
+        <v>3</v>
+      </c>
+      <c r="F781" s="74" t="str">
+        <f>IF(A781=1,"&lt;Sound Type="""&amp;B781&amp;""" Storage="""&amp;C781&amp;""" Dec="""&amp;D781&amp;"""&gt;",IF(A781=2,"  &lt;Clip SoundPath="""&amp;E781&amp;""" /&gt;",IF(A781=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6">
+      <c r="A782" s="73">
+        <v>1</v>
+      </c>
+      <c r="B782" s="74" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C782" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D782" s="74" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F782" s="74" t="str">
+        <f>IF(A782=1,"&lt;Sound Type="""&amp;B782&amp;""" Storage="""&amp;C782&amp;""" Dec="""&amp;D782&amp;"""&gt;",IF(A782=2,"  &lt;Clip SoundPath="""&amp;E782&amp;""" /&gt;",IF(A782=3,G782,"")))</f>
+        <v>&lt;Sound Type="galaxy_lock_drink" Storage="Remote" Dec="饮水解锁新地图"&gt;</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6">
+      <c r="A783" s="73">
+        <v>2</v>
+      </c>
+      <c r="E783" s="74" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F783" s="74" t="str">
+        <f t="shared" ref="F783" si="87">IF(A783=1,"&lt;Sound Type="""&amp;B783&amp;""" Storage="""&amp;C783&amp;""" Dec="""&amp;D783&amp;"""&gt;",IF(A783=2,"  &lt;Clip SoundPath="""&amp;E783&amp;""" /&gt;",IF(A783=3,G783,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_lock_drink" /&gt;</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6">
+      <c r="A784" s="73">
+        <v>3</v>
+      </c>
+      <c r="F784" s="74" t="str">
+        <f>IF(A784=1,"&lt;Sound Type="""&amp;B784&amp;""" Storage="""&amp;C784&amp;""" Dec="""&amp;D784&amp;"""&gt;",IF(A784=2,"  &lt;Clip SoundPath="""&amp;E784&amp;""" /&gt;",IF(A784=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6">
+      <c r="A785" s="73">
+        <v>1</v>
+      </c>
+      <c r="B785" s="74" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C785" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D785" s="74" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F785" s="74" t="str">
+        <f>IF(A785=1,"&lt;Sound Type="""&amp;B785&amp;""" Storage="""&amp;C785&amp;""" Dec="""&amp;D785&amp;"""&gt;",IF(A785=2,"  &lt;Clip SoundPath="""&amp;E785&amp;""" /&gt;",IF(A785=3,G785,"")))</f>
+        <v>&lt;Sound Type="galaxy_lock_time" Storage="Remote" Dec="新地图稍后解锁"&gt;</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6">
+      <c r="A786" s="73">
+        <v>2</v>
+      </c>
+      <c r="E786" s="74" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F786" s="74" t="str">
+        <f t="shared" ref="F786" si="88">IF(A786=1,"&lt;Sound Type="""&amp;B786&amp;""" Storage="""&amp;C786&amp;""" Dec="""&amp;D786&amp;"""&gt;",IF(A786=2,"  &lt;Clip SoundPath="""&amp;E786&amp;""" /&gt;",IF(A786=3,G786,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_lock_time" /&gt;</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6">
+      <c r="A787" s="73">
+        <v>3</v>
+      </c>
+      <c r="F787" s="74" t="str">
+        <f>IF(A787=1,"&lt;Sound Type="""&amp;B787&amp;""" Storage="""&amp;C787&amp;""" Dec="""&amp;D787&amp;"""&gt;",IF(A787=2,"  &lt;Clip SoundPath="""&amp;E787&amp;""" /&gt;",IF(A787=3,"&lt;/Sound&gt;","")))</f>
         <v>&lt;/Sound&gt;</v>
       </c>
     </row>
@@ -56622,46 +56808,46 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G1048576">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:G27 A28:F28">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A434:G436">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A434)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7471C393-F2D5-401D-A1D4-9C9DD25103FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2324EB86-2DCF-40B1-B214-D4E856884858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -450,7 +450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="1922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="1921">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6367,10 +6367,6 @@
   </si>
   <si>
     <t>Icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -7975,9 +7971,9 @@
         <f>Accessory!D3</f>
         <v>wizard hat</v>
       </c>
-      <c r="D2" s="81" t="str">
+      <c r="D2" s="81">
         <f>Accessory!E3</f>
-        <v>icon</v>
+        <v>20001</v>
       </c>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
@@ -7990,7 +7986,7 @@
       <c r="M2" s="81"/>
       <c r="N2" s="81" t="str">
         <f t="shared" ref="N2" si="0">"&lt;Item Id="""&amp;A2&amp;""" Type="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" getImage="""&amp;D2&amp;""" Icon="""&amp;E2&amp;""" StoryBg="""&amp;F2&amp;""" AudioId="""&amp;G2&amp;""" Description="""&amp;H2&amp;""" PetType="""&amp;I2&amp;""" Image="""&amp;J2&amp;""" Audio="""&amp;K2&amp;""" Animation="""&amp;L2&amp;""" Preview="""&amp;M2&amp;"""/&gt;"</f>
-        <v>&lt;Item Id="20001" Type="2" Name="wizard hat" getImage="icon" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20001" Type="2" Name="wizard hat" getImage="20001" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O2" s="82"/>
     </row>
@@ -8008,7 +8004,7 @@
       </c>
       <c r="D3" s="81">
         <f>Accessory!E4</f>
-        <v>0</v>
+        <v>20002</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="81"/>
@@ -8021,7 +8017,7 @@
       <c r="M3" s="81"/>
       <c r="N3" s="81" t="str">
         <f t="shared" ref="N3:N9" si="1">"&lt;Item Id="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Name="""&amp;C3&amp;""" getImage="""&amp;D3&amp;""" Icon="""&amp;E3&amp;""" StoryBg="""&amp;F3&amp;""" AudioId="""&amp;G3&amp;""" Description="""&amp;H3&amp;""" PetType="""&amp;I3&amp;""" Image="""&amp;J3&amp;""" Audio="""&amp;K3&amp;""" Animation="""&amp;L3&amp;""" Preview="""&amp;M3&amp;"""/&gt;"</f>
-        <v>&lt;Item Id="20002" Type="2" Name="devil wing" getImage="0" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20002" Type="2" Name="devil wing" getImage="20002" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O3" s="82"/>
     </row>
@@ -8039,7 +8035,7 @@
       </c>
       <c r="D4" s="81">
         <f>Accessory!E5</f>
-        <v>0</v>
+        <v>20003</v>
       </c>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
@@ -8052,7 +8048,7 @@
       <c r="M4" s="81"/>
       <c r="N4" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Item Id="20003" Type="2" Name="ghost" getImage="0" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20003" Type="2" Name="ghost" getImage="20003" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O4" s="82"/>
     </row>
@@ -8070,7 +8066,7 @@
       </c>
       <c r="D5" s="81">
         <f>Accessory!E6</f>
-        <v>0</v>
+        <v>20004</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
@@ -8083,7 +8079,7 @@
       <c r="M5" s="81"/>
       <c r="N5" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Item Id="20004" Type="2" Name="pumpkin" getImage="0" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20004" Type="2" Name="pumpkin" getImage="20004" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O5" s="82"/>
     </row>
@@ -8101,7 +8097,7 @@
       </c>
       <c r="D6" s="81">
         <f>Accessory!E7</f>
-        <v>0</v>
+        <v>20005</v>
       </c>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
@@ -8114,7 +8110,7 @@
       <c r="M6" s="81"/>
       <c r="N6" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Item Id="20005" Type="2" Name="snow cloud" getImage="0" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20005" Type="2" Name="snow cloud" getImage="20005" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O6" s="82"/>
     </row>
@@ -8132,7 +8128,7 @@
       </c>
       <c r="D7" s="81">
         <f>Accessory!E8</f>
-        <v>0</v>
+        <v>20006</v>
       </c>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
@@ -8145,7 +8141,7 @@
       <c r="M7" s="81"/>
       <c r="N7" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Item Id="20006" Type="2" Name="snow wing" getImage="0" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20006" Type="2" Name="snow wing" getImage="20006" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O7" s="82"/>
     </row>
@@ -8163,7 +8159,7 @@
       </c>
       <c r="D8" s="81">
         <f>Accessory!E9</f>
-        <v>0</v>
+        <v>20007</v>
       </c>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
@@ -8176,7 +8172,7 @@
       <c r="M8" s="81"/>
       <c r="N8" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Item Id="20007" Type="2" Name="cornu cervi" getImage="0" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20007" Type="2" Name="cornu cervi" getImage="20007" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O8" s="82"/>
     </row>
@@ -8194,7 +8190,7 @@
       </c>
       <c r="D9" s="81">
         <f>Accessory!E10</f>
-        <v>0</v>
+        <v>20008</v>
       </c>
       <c r="E9" s="81"/>
       <c r="F9" s="81"/>
@@ -8207,13 +8203,13 @@
       <c r="M9" s="81"/>
       <c r="N9" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Item Id="20008" Type="2" Name="snowman" getImage="0" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20008" Type="2" Name="snowman" getImage="20008" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O9" s="82"/>
     </row>
     <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="99" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B10" s="99"/>
       <c r="C10" s="99"/>
@@ -16008,7 +16004,7 @@
     </row>
     <row r="157" spans="1:15" ht="15.75">
       <c r="A157" s="99" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B157" s="99"/>
       <c r="C157" s="99"/>
@@ -21462,7 +21458,7 @@
         <v>MissionName92001</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E84" s="29">
         <v>92001</v>
@@ -21512,7 +21508,7 @@
         <v>MissionName92002</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E85" s="29">
         <v>92002</v>
@@ -21562,7 +21558,7 @@
         <v>MissionName92003</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="E86" s="29">
         <v>92003</v>
@@ -21612,7 +21608,7 @@
         <v>MissionName92004</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="E87" s="29">
         <v>92004</v>
@@ -35070,7 +35066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G787"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A787" sqref="A787:XFD789"/>
     </sheetView>
@@ -56553,7 +56549,7 @@
     </row>
     <row r="768" spans="1:7">
       <c r="A768" s="110" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B768" s="111"/>
       <c r="C768" s="111"/>
@@ -56567,13 +56563,13 @@
         <v>1</v>
       </c>
       <c r="B769" s="74" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C769" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D769" s="74" t="s">
         <v>1904</v>
-      </c>
-      <c r="C769" s="74" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D769" s="74" t="s">
-        <v>1905</v>
       </c>
       <c r="F769" s="74" t="str">
         <f>IF(A769=1,"&lt;Sound Type="""&amp;B769&amp;""" Storage="""&amp;C769&amp;""" Dec="""&amp;D769&amp;"""&gt;",IF(A769=2,"  &lt;Clip SoundPath="""&amp;E769&amp;""" /&gt;",IF(A769=3,G769,"")))</f>
@@ -56585,7 +56581,7 @@
         <v>2</v>
       </c>
       <c r="E770" s="74" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="F770" s="74" t="str">
         <f t="shared" ref="F770:F774" si="85">IF(A770=1,"&lt;Sound Type="""&amp;B770&amp;""" Storage="""&amp;C770&amp;""" Dec="""&amp;D770&amp;"""&gt;",IF(A770=2,"  &lt;Clip SoundPath="""&amp;E770&amp;""" /&gt;",IF(A770=3,G770,"")))</f>
@@ -56597,7 +56593,7 @@
         <v>2</v>
       </c>
       <c r="E771" s="74" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F771" s="74" t="str">
         <f t="shared" si="85"/>
@@ -56609,7 +56605,7 @@
         <v>2</v>
       </c>
       <c r="E772" s="74" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F772" s="74" t="str">
         <f t="shared" si="85"/>
@@ -56621,7 +56617,7 @@
         <v>2</v>
       </c>
       <c r="E773" s="74" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="F773" s="74" t="str">
         <f t="shared" si="85"/>
@@ -56633,7 +56629,7 @@
         <v>2</v>
       </c>
       <c r="E774" s="74" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="F774" s="74" t="str">
         <f t="shared" si="85"/>
@@ -56654,13 +56650,13 @@
         <v>1</v>
       </c>
       <c r="B776" s="74" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C776" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D776" s="74" t="s">
         <v>1912</v>
-      </c>
-      <c r="C776" s="74" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D776" s="74" t="s">
-        <v>1913</v>
       </c>
       <c r="F776" s="74" t="str">
         <f>IF(A776=1,"&lt;Sound Type="""&amp;B776&amp;""" Storage="""&amp;C776&amp;""" Dec="""&amp;D776&amp;"""&gt;",IF(A776=2,"  &lt;Clip SoundPath="""&amp;E776&amp;""" /&gt;",IF(A776=3,G776,"")))</f>
@@ -56672,7 +56668,7 @@
         <v>2</v>
       </c>
       <c r="E777" s="74" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F777" s="74" t="str">
         <f t="shared" ref="F777:F780" si="86">IF(A777=1,"&lt;Sound Type="""&amp;B777&amp;""" Storage="""&amp;C777&amp;""" Dec="""&amp;D777&amp;"""&gt;",IF(A777=2,"  &lt;Clip SoundPath="""&amp;E777&amp;""" /&gt;",IF(A777=3,G777,"")))</f>
@@ -56684,7 +56680,7 @@
         <v>2</v>
       </c>
       <c r="E778" s="74" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="F778" s="74" t="str">
         <f t="shared" si="86"/>
@@ -56696,7 +56692,7 @@
         <v>2</v>
       </c>
       <c r="E779" s="74" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="F779" s="74" t="str">
         <f t="shared" si="86"/>
@@ -56708,7 +56704,7 @@
         <v>2</v>
       </c>
       <c r="E780" s="74" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="F780" s="74" t="str">
         <f t="shared" si="86"/>
@@ -56729,13 +56725,13 @@
         <v>1</v>
       </c>
       <c r="B782" s="74" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="C782" s="74" t="s">
         <v>1823</v>
       </c>
       <c r="D782" s="74" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F782" s="74" t="str">
         <f>IF(A782=1,"&lt;Sound Type="""&amp;B782&amp;""" Storage="""&amp;C782&amp;""" Dec="""&amp;D782&amp;"""&gt;",IF(A782=2,"  &lt;Clip SoundPath="""&amp;E782&amp;""" /&gt;",IF(A782=3,G782,"")))</f>
@@ -56747,7 +56743,7 @@
         <v>2</v>
       </c>
       <c r="E783" s="74" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F783" s="74" t="str">
         <f t="shared" ref="F783" si="87">IF(A783=1,"&lt;Sound Type="""&amp;B783&amp;""" Storage="""&amp;C783&amp;""" Dec="""&amp;D783&amp;"""&gt;",IF(A783=2,"  &lt;Clip SoundPath="""&amp;E783&amp;""" /&gt;",IF(A783=3,G783,"")))</f>
@@ -56768,13 +56764,13 @@
         <v>1</v>
       </c>
       <c r="B785" s="74" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C785" s="74" t="s">
         <v>1823</v>
       </c>
       <c r="D785" s="74" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F785" s="74" t="str">
         <f>IF(A785=1,"&lt;Sound Type="""&amp;B785&amp;""" Storage="""&amp;C785&amp;""" Dec="""&amp;D785&amp;"""&gt;",IF(A785=2,"  &lt;Clip SoundPath="""&amp;E785&amp;""" /&gt;",IF(A785=3,G785,"")))</f>
@@ -56786,7 +56782,7 @@
         <v>2</v>
       </c>
       <c r="E786" s="74" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F786" s="74" t="str">
         <f t="shared" ref="F786" si="88">IF(A786=1,"&lt;Sound Type="""&amp;B786&amp;""" Storage="""&amp;C786&amp;""" Dec="""&amp;D786&amp;"""&gt;",IF(A786=2,"  &lt;Clip SoundPath="""&amp;E786&amp;""" /&gt;",IF(A786=3,G786,"")))</f>
@@ -59108,11 +59104,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3:T10"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -59162,7 +59158,7 @@
         <v>1858</v>
       </c>
       <c r="L1" s="79" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="M1" s="79" t="s">
         <v>1859</v>
@@ -59218,7 +59214,7 @@
         <v>1034</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>1838</v>
@@ -59255,8 +59251,8 @@
       <c r="D3" t="s">
         <v>1867</v>
       </c>
-      <c r="E3" t="s">
-        <v>1896</v>
+      <c r="E3" s="6">
+        <v>20001</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1865</v>
@@ -59299,7 +59295,7 @@
       </c>
       <c r="T3" s="6" t="str">
         <f>IF(AND(A3&lt;&gt;"",B3&lt;&gt;""),"&lt;Accessory ID="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Index="""&amp;C3&amp;""" Name="""&amp;D3&amp;""" Icon="""&amp;E3&amp;""" Prefab="""&amp;F3&amp;""" Region="""&amp;G3&amp;""" Purchase="""&amp;H3&amp;""" Price="""&amp;I3&amp;""" StartTime="""&amp;J3&amp;""" EndTime="""&amp;K3&amp;""" Level="""&amp;L3&amp;""" PURPIE="""&amp;M3&amp;""" DONNY="""&amp;N3&amp;""" NINJI="""&amp;O3&amp;""" SANSA="""&amp;P3&amp;""" YOYO="""&amp;Q3&amp;""" NUO="""&amp;R3&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20001" Type="1" Index="1" Name="wizard hat" Icon="icon" Prefab="Hat" Region="Head" Purchase="Coin" Price="200" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20001" Type="1" Index="1" Name="wizard hat" Icon="20001" Prefab="Hat" Region="Head" Purchase="Coin" Price="200" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75">
@@ -59315,7 +59311,9 @@
       <c r="D4" t="s">
         <v>1868</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" s="6">
+        <v>20002</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>1876</v>
       </c>
@@ -59351,7 +59349,7 @@
       </c>
       <c r="T4" s="6" t="str">
         <f t="shared" ref="T4:T10" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" Prefab="""&amp;F4&amp;""" Region="""&amp;G4&amp;""" Purchase="""&amp;H4&amp;""" Price="""&amp;I4&amp;""" StartTime="""&amp;J4&amp;""" EndTime="""&amp;K4&amp;""" Level="""&amp;L4&amp;""" PURPIE="""&amp;M4&amp;""" DONNY="""&amp;N4&amp;""" NINJI="""&amp;O4&amp;""" SANSA="""&amp;P4&amp;""" YOYO="""&amp;Q4&amp;""" NUO="""&amp;R4&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20002" Type="2" Index="6" Name="devil wing" Icon="" Prefab="" Region="" Purchase="Coin" Price="1800" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20002" Type="2" Index="6" Name="devil wing" Icon="20002" Prefab="" Region="" Purchase="Coin" Price="1800" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75">
@@ -59367,7 +59365,9 @@
       <c r="D5" t="s">
         <v>1869</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" s="6">
+        <v>20003</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>1876</v>
       </c>
@@ -59403,7 +59403,7 @@
       </c>
       <c r="T5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20003" Type="5" Index="3" Name="ghost" Icon="" Prefab="" Region="" Purchase="Coin" Price="800" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20003" Type="5" Index="3" Name="ghost" Icon="20003" Prefab="" Region="" Purchase="Coin" Price="800" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75">
@@ -59419,7 +59419,9 @@
       <c r="D6" t="s">
         <v>1870</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" s="6">
+        <v>20004</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>1876</v>
       </c>
@@ -59455,7 +59457,7 @@
       </c>
       <c r="T6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20004" Type="5" Index="2" Name="pumpkin" Icon="" Prefab="" Region="" Purchase="Coin" Price="300" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20004" Type="5" Index="2" Name="pumpkin" Icon="20004" Prefab="" Region="" Purchase="Coin" Price="300" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75">
@@ -59471,7 +59473,9 @@
       <c r="D7" t="s">
         <v>1871</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" s="6">
+        <v>20005</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>1875</v>
       </c>
@@ -59507,7 +59511,7 @@
       </c>
       <c r="T7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20005" Type="5" Index="4" Name="snow cloud" Icon="" Prefab="" Region="" Purchase="Cash" Price="1.99" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20005" Type="5" Index="4" Name="snow cloud" Icon="20005" Prefab="" Region="" Purchase="Cash" Price="1.99" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75">
@@ -59523,7 +59527,9 @@
       <c r="D8" t="s">
         <v>1872</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" s="6">
+        <v>20006</v>
+      </c>
       <c r="H8" s="6" t="s">
         <v>1877</v>
       </c>
@@ -59559,7 +59565,7 @@
       </c>
       <c r="T8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20006" Type="2" Index="5" Name="snow wing" Icon="" Prefab="" Region="" Purchase="Coin" Price="1000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20006" Type="2" Index="5" Name="snow wing" Icon="20006" Prefab="" Region="" Purchase="Coin" Price="1000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75">
@@ -59575,7 +59581,9 @@
       <c r="D9" t="s">
         <v>1873</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="6">
+        <v>20007</v>
+      </c>
       <c r="H9" s="6" t="s">
         <v>1877</v>
       </c>
@@ -59611,7 +59619,7 @@
       </c>
       <c r="T9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20007" Type="1" Index="7" Name="cornu cervi" Icon="" Prefab="" Region="" Purchase="Coin" Price="2000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20007" Type="1" Index="7" Name="cornu cervi" Icon="20007" Prefab="" Region="" Purchase="Coin" Price="2000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75">
@@ -59627,7 +59635,9 @@
       <c r="D10" t="s">
         <v>1874</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" s="6">
+        <v>20008</v>
+      </c>
       <c r="H10" s="6" t="s">
         <v>1877</v>
       </c>
@@ -59663,7 +59673,7 @@
       </c>
       <c r="T10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20008" Type="5" Index="8" Name="snowman" Icon="" Prefab="" Region="" Purchase="Coin" Price="500" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20008" Type="5" Index="8" Name="snowman" Icon="20008" Prefab="" Region="" Purchase="Coin" Price="500" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2324EB86-2DCF-40B1-B214-D4E856884858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57007B45-F166-4DCC-A4BB-4B940EFD31A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Item!$A$1:$O$161</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -450,7 +450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="1921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="1945">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6451,6 +6451,90 @@
   </si>
   <si>
     <t>galaxy_lock_time</t>
+  </si>
+  <si>
+    <t>mall_bgm</t>
+  </si>
+  <si>
+    <t>换装页背景音乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall_welcome</t>
+  </si>
+  <si>
+    <t>mall_welcome_001</t>
+  </si>
+  <si>
+    <t>mall_welcome_002</t>
+  </si>
+  <si>
+    <t>mall_welcome_003</t>
+  </si>
+  <si>
+    <t>mall_welcome_004</t>
+  </si>
+  <si>
+    <t>mall_welcome_005</t>
+  </si>
+  <si>
+    <t>换装页欢迎语音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall_purchase_lock</t>
+  </si>
+  <si>
+    <t>mall_suit_not_match</t>
+  </si>
+  <si>
+    <t>popup_goods_level_lock</t>
+  </si>
+  <si>
+    <t>mall_purchase_qr</t>
+  </si>
+  <si>
+    <t>mall_purchase_qr_complete</t>
+  </si>
+  <si>
+    <t>换装页今日饮水量未达标提醒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装页等级不够提醒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装页配饰不适用提醒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装页显示二维码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装页二维码购物成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall_purchase_lock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall_suit_not_match</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup_goods_level_lock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall_purchase_qr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall_purchase_qr_complete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7294,7 +7378,154 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="61">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7584,44 +7815,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_32" displayName="表1_32" ref="B1:S83" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_32" displayName="表1_32" ref="B1:S83" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="B1:S83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Background" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Model" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NimIcon" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="QuestId" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="dailyGoalPercent" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="AwardCoin" dataDxfId="30"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="BGM" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sound" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="WaterDrop" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="WaterDropAudio" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Box1 ID" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Box1 Height" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Box2 ID" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Box2 Height" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="输出" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Background" dataDxfId="56"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Model" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NimIcon" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="QuestId" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="dailyGoalPercent" dataDxfId="52"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="AwardCoin" dataDxfId="51"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="BGM" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sound" dataDxfId="49"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="WaterDrop" dataDxfId="48"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="WaterDropAudio" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Box1 ID" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Box1 Height" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Box2 ID" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Box2 Height" dataDxfId="43"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="输出" dataDxfId="42">
       <calculatedColumnFormula>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;""" WaterDropAudio="""&amp;M2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N2&amp;""" Height="""&amp;O2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P2&amp;""" Height="""&amp;Q2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="输入" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="输入" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_34" displayName="表1_34" ref="B1:G1048477" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_34" displayName="表1_34" ref="B1:G1048477" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="B1:G1048477" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ItemId" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Value" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="输出" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ItemId" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Value" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="输出" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -35064,11 +35295,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G787"/>
+  <dimension ref="A1:G813"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A787" sqref="A787:XFD789"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A789" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A814" sqref="A814"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -56798,52 +57029,450 @@
         <v>&lt;/Sound&gt;</v>
       </c>
     </row>
+    <row r="788" spans="1:6">
+      <c r="A788" s="73">
+        <v>1</v>
+      </c>
+      <c r="B788" s="74" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C788" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D788" s="74" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F788" s="74" t="str">
+        <f>IF(A788=1,"&lt;Sound Type="""&amp;B788&amp;""" Storage="""&amp;C788&amp;""" Dec="""&amp;D788&amp;"""&gt;",IF(A788=2,"  &lt;Clip SoundPath="""&amp;E788&amp;""" /&gt;",IF(A788=3,G788,"")))</f>
+        <v>&lt;Sound Type="mall_bgm" Storage="Remote" Dec="换装页背景音乐"&gt;</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6">
+      <c r="A789" s="73">
+        <v>2</v>
+      </c>
+      <c r="E789" s="74" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F789" s="74" t="str">
+        <f t="shared" ref="F789" si="89">IF(A789=1,"&lt;Sound Type="""&amp;B789&amp;""" Storage="""&amp;C789&amp;""" Dec="""&amp;D789&amp;"""&gt;",IF(A789=2,"  &lt;Clip SoundPath="""&amp;E789&amp;""" /&gt;",IF(A789=3,G789,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_bgm" /&gt;</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6">
+      <c r="A790" s="73">
+        <v>3</v>
+      </c>
+      <c r="F790" s="74" t="str">
+        <f>IF(A790=1,"&lt;Sound Type="""&amp;B790&amp;""" Storage="""&amp;C790&amp;""" Dec="""&amp;D790&amp;"""&gt;",IF(A790=2,"  &lt;Clip SoundPath="""&amp;E790&amp;""" /&gt;",IF(A790=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6">
+      <c r="A791" s="73">
+        <v>1</v>
+      </c>
+      <c r="B791" s="74" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C791" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D791" s="74" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F791" s="74" t="str">
+        <f>IF(A791=1,"&lt;Sound Type="""&amp;B791&amp;""" Storage="""&amp;C791&amp;""" Dec="""&amp;D791&amp;"""&gt;",IF(A791=2,"  &lt;Clip SoundPath="""&amp;E791&amp;""" /&gt;",IF(A791=3,G791,"")))</f>
+        <v>&lt;Sound Type="mall_welcome" Storage="Remote" Dec="换装页欢迎语音"&gt;</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6">
+      <c r="A792" s="73">
+        <v>2</v>
+      </c>
+      <c r="E792" s="74" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F792" s="74" t="str">
+        <f t="shared" ref="F792:F795" si="90">IF(A792=1,"&lt;Sound Type="""&amp;B792&amp;""" Storage="""&amp;C792&amp;""" Dec="""&amp;D792&amp;"""&gt;",IF(A792=2,"  &lt;Clip SoundPath="""&amp;E792&amp;""" /&gt;",IF(A792=3,G792,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_welcome_001" /&gt;</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6">
+      <c r="A793" s="73">
+        <v>2</v>
+      </c>
+      <c r="E793" s="74" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F793" s="74" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_welcome_002" /&gt;</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6">
+      <c r="A794" s="73">
+        <v>2</v>
+      </c>
+      <c r="E794" s="74" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F794" s="74" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_welcome_003" /&gt;</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6">
+      <c r="A795" s="73">
+        <v>2</v>
+      </c>
+      <c r="E795" s="74" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F795" s="74" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_welcome_004" /&gt;</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6">
+      <c r="A796" s="73">
+        <v>2</v>
+      </c>
+      <c r="E796" s="74" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F796" s="74" t="str">
+        <f t="shared" ref="F796" si="91">IF(A796=1,"&lt;Sound Type="""&amp;B796&amp;""" Storage="""&amp;C796&amp;""" Dec="""&amp;D796&amp;"""&gt;",IF(A796=2,"  &lt;Clip SoundPath="""&amp;E796&amp;""" /&gt;",IF(A796=3,G796,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_welcome_005" /&gt;</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6">
+      <c r="A797" s="73">
+        <v>3</v>
+      </c>
+      <c r="F797" s="74" t="str">
+        <f>IF(A797=1,"&lt;Sound Type="""&amp;B797&amp;""" Storage="""&amp;C797&amp;""" Dec="""&amp;D797&amp;"""&gt;",IF(A797=2,"  &lt;Clip SoundPath="""&amp;E797&amp;""" /&gt;",IF(A797=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6">
+      <c r="A799" s="73">
+        <v>1</v>
+      </c>
+      <c r="B799" s="74" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C799" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D799" s="74" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F799" s="74" t="str">
+        <f>IF(A799=1,"&lt;Sound Type="""&amp;B799&amp;""" Storage="""&amp;C799&amp;""" Dec="""&amp;D799&amp;"""&gt;",IF(A799=2,"  &lt;Clip SoundPath="""&amp;E799&amp;""" /&gt;",IF(A799=3,G799,"")))</f>
+        <v>&lt;Sound Type="mall_purchase_lock" Storage="Remote" Dec="换装页今日饮水量未达标提醒"&gt;</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6">
+      <c r="A800" s="73">
+        <v>2</v>
+      </c>
+      <c r="E800" s="74" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F800" s="74" t="str">
+        <f t="shared" ref="F800" si="92">IF(A800=1,"&lt;Sound Type="""&amp;B800&amp;""" Storage="""&amp;C800&amp;""" Dec="""&amp;D800&amp;"""&gt;",IF(A800=2,"  &lt;Clip SoundPath="""&amp;E800&amp;""" /&gt;",IF(A800=3,G800,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_lock" /&gt;</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6">
+      <c r="A801" s="73">
+        <v>3</v>
+      </c>
+      <c r="F801" s="74" t="str">
+        <f>IF(A801=1,"&lt;Sound Type="""&amp;B801&amp;""" Storage="""&amp;C801&amp;""" Dec="""&amp;D801&amp;"""&gt;",IF(A801=2,"  &lt;Clip SoundPath="""&amp;E801&amp;""" /&gt;",IF(A801=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6">
+      <c r="A802" s="73">
+        <v>1</v>
+      </c>
+      <c r="B802" s="74" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C802" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D802" s="74" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F802" s="74" t="str">
+        <f>IF(A802=1,"&lt;Sound Type="""&amp;B802&amp;""" Storage="""&amp;C802&amp;""" Dec="""&amp;D802&amp;"""&gt;",IF(A802=2,"  &lt;Clip SoundPath="""&amp;E802&amp;""" /&gt;",IF(A802=3,G802,"")))</f>
+        <v>&lt;Sound Type="mall_suit_not_match" Storage="Remote" Dec="换装页配饰不适用提醒"&gt;</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6">
+      <c r="A803" s="73">
+        <v>2</v>
+      </c>
+      <c r="E803" s="74" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F803" s="74" t="str">
+        <f t="shared" ref="F803" si="93">IF(A803=1,"&lt;Sound Type="""&amp;B803&amp;""" Storage="""&amp;C803&amp;""" Dec="""&amp;D803&amp;"""&gt;",IF(A803=2,"  &lt;Clip SoundPath="""&amp;E803&amp;""" /&gt;",IF(A803=3,G803,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_suit_not_match" /&gt;</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6">
+      <c r="A804" s="73">
+        <v>3</v>
+      </c>
+      <c r="F804" s="74" t="str">
+        <f>IF(A804=1,"&lt;Sound Type="""&amp;B804&amp;""" Storage="""&amp;C804&amp;""" Dec="""&amp;D804&amp;"""&gt;",IF(A804=2,"  &lt;Clip SoundPath="""&amp;E804&amp;""" /&gt;",IF(A804=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6">
+      <c r="A805" s="73">
+        <v>1</v>
+      </c>
+      <c r="B805" s="74" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C805" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D805" s="74" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F805" s="74" t="str">
+        <f>IF(A805=1,"&lt;Sound Type="""&amp;B805&amp;""" Storage="""&amp;C805&amp;""" Dec="""&amp;D805&amp;"""&gt;",IF(A805=2,"  &lt;Clip SoundPath="""&amp;E805&amp;""" /&gt;",IF(A805=3,G805,"")))</f>
+        <v>&lt;Sound Type="popup_goods_level_lock" Storage="Remote" Dec="换装页等级不够提醒"&gt;</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6">
+      <c r="A806" s="73">
+        <v>2</v>
+      </c>
+      <c r="E806" s="74" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F806" s="74" t="str">
+        <f t="shared" ref="F806" si="94">IF(A806=1,"&lt;Sound Type="""&amp;B806&amp;""" Storage="""&amp;C806&amp;""" Dec="""&amp;D806&amp;"""&gt;",IF(A806=2,"  &lt;Clip SoundPath="""&amp;E806&amp;""" /&gt;",IF(A806=3,G806,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_goods_level_lock" /&gt;</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6">
+      <c r="A807" s="73">
+        <v>3</v>
+      </c>
+      <c r="F807" s="74" t="str">
+        <f>IF(A807=1,"&lt;Sound Type="""&amp;B807&amp;""" Storage="""&amp;C807&amp;""" Dec="""&amp;D807&amp;"""&gt;",IF(A807=2,"  &lt;Clip SoundPath="""&amp;E807&amp;""" /&gt;",IF(A807=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6">
+      <c r="A808" s="73">
+        <v>1</v>
+      </c>
+      <c r="B808" s="74" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C808" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D808" s="74" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F808" s="74" t="str">
+        <f>IF(A808=1,"&lt;Sound Type="""&amp;B808&amp;""" Storage="""&amp;C808&amp;""" Dec="""&amp;D808&amp;"""&gt;",IF(A808=2,"  &lt;Clip SoundPath="""&amp;E808&amp;""" /&gt;",IF(A808=3,G808,"")))</f>
+        <v>&lt;Sound Type="mall_purchase_qr" Storage="Remote" Dec="换装页显示二维码"&gt;</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6">
+      <c r="A809" s="73">
+        <v>2</v>
+      </c>
+      <c r="E809" s="74" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F809" s="74" t="str">
+        <f t="shared" ref="F809" si="95">IF(A809=1,"&lt;Sound Type="""&amp;B809&amp;""" Storage="""&amp;C809&amp;""" Dec="""&amp;D809&amp;"""&gt;",IF(A809=2,"  &lt;Clip SoundPath="""&amp;E809&amp;""" /&gt;",IF(A809=3,G809,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_qr" /&gt;</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6">
+      <c r="A810" s="73">
+        <v>3</v>
+      </c>
+      <c r="F810" s="74" t="str">
+        <f>IF(A810=1,"&lt;Sound Type="""&amp;B810&amp;""" Storage="""&amp;C810&amp;""" Dec="""&amp;D810&amp;"""&gt;",IF(A810=2,"  &lt;Clip SoundPath="""&amp;E810&amp;""" /&gt;",IF(A810=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6">
+      <c r="A811" s="73">
+        <v>1</v>
+      </c>
+      <c r="B811" s="74" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C811" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D811" s="74" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F811" s="74" t="str">
+        <f>IF(A811=1,"&lt;Sound Type="""&amp;B811&amp;""" Storage="""&amp;C811&amp;""" Dec="""&amp;D811&amp;"""&gt;",IF(A811=2,"  &lt;Clip SoundPath="""&amp;E811&amp;""" /&gt;",IF(A811=3,G811,"")))</f>
+        <v>&lt;Sound Type="mall_purchase_qr_complete" Storage="Remote" Dec="换装页二维码购物成功"&gt;</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6">
+      <c r="A812" s="73">
+        <v>2</v>
+      </c>
+      <c r="E812" s="74" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F812" s="74" t="str">
+        <f t="shared" ref="F812" si="96">IF(A812=1,"&lt;Sound Type="""&amp;B812&amp;""" Storage="""&amp;C812&amp;""" Dec="""&amp;D812&amp;"""&gt;",IF(A812=2,"  &lt;Clip SoundPath="""&amp;E812&amp;""" /&gt;",IF(A812=3,G812,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_qr_complete" /&gt;</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6">
+      <c r="A813" s="73">
+        <v>3</v>
+      </c>
+      <c r="F813" s="74" t="str">
+        <f>IF(A813=1,"&lt;Sound Type="""&amp;B813&amp;""" Storage="""&amp;C813&amp;""" Dec="""&amp;D813&amp;"""&gt;",IF(A813=2,"  &lt;Clip SoundPath="""&amp;E813&amp;""" /&gt;",IF(A813=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A768:G768"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G1048576">
-    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="&lt;!--">
+  <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A798:G798 A814:G1048576">
+    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="17">
+    <cfRule type="expression" dxfId="31" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="18">
+    <cfRule type="expression" dxfId="30" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:G27 A28:F28">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="29" priority="34" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="28" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="27" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="25" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="24" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A434:G436">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A434)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="22" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="21" priority="30">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A791:G792 A797:G797 A793:D795 F793:G795 E793:E796">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A796:D796 F796:G796">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A799:G801">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A799)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A802:G804">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A802)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A805:G807">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A805)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A808:G810">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A808)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A811:G813">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A811)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59104,7 +59733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57007B45-F166-4DCC-A4BB-4B940EFD31A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1404872-F8CD-4BA2-8F30-29980C88BEF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35295,11 +35295,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G813"/>
+  <dimension ref="A1:G812"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A789" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A814" sqref="A814"/>
+      <pane ySplit="1" topLeftCell="A783" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B788" sqref="B788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -57155,198 +57155,198 @@
         <v>&lt;/Sound&gt;</v>
       </c>
     </row>
+    <row r="798" spans="1:6">
+      <c r="A798" s="73">
+        <v>1</v>
+      </c>
+      <c r="B798" s="74" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C798" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D798" s="74" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F798" s="74" t="str">
+        <f>IF(A798=1,"&lt;Sound Type="""&amp;B798&amp;""" Storage="""&amp;C798&amp;""" Dec="""&amp;D798&amp;"""&gt;",IF(A798=2,"  &lt;Clip SoundPath="""&amp;E798&amp;""" /&gt;",IF(A798=3,G798,"")))</f>
+        <v>&lt;Sound Type="mall_purchase_lock" Storage="Remote" Dec="换装页今日饮水量未达标提醒"&gt;</v>
+      </c>
+    </row>
     <row r="799" spans="1:6">
       <c r="A799" s="73">
-        <v>1</v>
-      </c>
-      <c r="B799" s="74" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C799" s="74" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D799" s="74" t="s">
-        <v>1935</v>
+        <v>2</v>
+      </c>
+      <c r="E799" s="74" t="s">
+        <v>1930</v>
       </c>
       <c r="F799" s="74" t="str">
-        <f>IF(A799=1,"&lt;Sound Type="""&amp;B799&amp;""" Storage="""&amp;C799&amp;""" Dec="""&amp;D799&amp;"""&gt;",IF(A799=2,"  &lt;Clip SoundPath="""&amp;E799&amp;""" /&gt;",IF(A799=3,G799,"")))</f>
-        <v>&lt;Sound Type="mall_purchase_lock" Storage="Remote" Dec="换装页今日饮水量未达标提醒"&gt;</v>
+        <f t="shared" ref="F799" si="92">IF(A799=1,"&lt;Sound Type="""&amp;B799&amp;""" Storage="""&amp;C799&amp;""" Dec="""&amp;D799&amp;"""&gt;",IF(A799=2,"  &lt;Clip SoundPath="""&amp;E799&amp;""" /&gt;",IF(A799=3,G799,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_lock" /&gt;</v>
       </c>
     </row>
     <row r="800" spans="1:6">
       <c r="A800" s="73">
-        <v>2</v>
-      </c>
-      <c r="E800" s="74" t="s">
-        <v>1930</v>
+        <v>3</v>
       </c>
       <c r="F800" s="74" t="str">
-        <f t="shared" ref="F800" si="92">IF(A800=1,"&lt;Sound Type="""&amp;B800&amp;""" Storage="""&amp;C800&amp;""" Dec="""&amp;D800&amp;"""&gt;",IF(A800=2,"  &lt;Clip SoundPath="""&amp;E800&amp;""" /&gt;",IF(A800=3,G800,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_lock" /&gt;</v>
+        <f>IF(A800=1,"&lt;Sound Type="""&amp;B800&amp;""" Storage="""&amp;C800&amp;""" Dec="""&amp;D800&amp;"""&gt;",IF(A800=2,"  &lt;Clip SoundPath="""&amp;E800&amp;""" /&gt;",IF(A800=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
       </c>
     </row>
     <row r="801" spans="1:6">
       <c r="A801" s="73">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B801" s="74" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C801" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D801" s="74" t="s">
+        <v>1937</v>
       </c>
       <c r="F801" s="74" t="str">
-        <f>IF(A801=1,"&lt;Sound Type="""&amp;B801&amp;""" Storage="""&amp;C801&amp;""" Dec="""&amp;D801&amp;"""&gt;",IF(A801=2,"  &lt;Clip SoundPath="""&amp;E801&amp;""" /&gt;",IF(A801=3,"&lt;/Sound&gt;","")))</f>
-        <v>&lt;/Sound&gt;</v>
+        <f>IF(A801=1,"&lt;Sound Type="""&amp;B801&amp;""" Storage="""&amp;C801&amp;""" Dec="""&amp;D801&amp;"""&gt;",IF(A801=2,"  &lt;Clip SoundPath="""&amp;E801&amp;""" /&gt;",IF(A801=3,G801,"")))</f>
+        <v>&lt;Sound Type="mall_suit_not_match" Storage="Remote" Dec="换装页配饰不适用提醒"&gt;</v>
       </c>
     </row>
     <row r="802" spans="1:6">
       <c r="A802" s="73">
-        <v>1</v>
-      </c>
-      <c r="B802" s="74" t="s">
-        <v>1941</v>
-      </c>
-      <c r="C802" s="74" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D802" s="74" t="s">
-        <v>1937</v>
+        <v>2</v>
+      </c>
+      <c r="E802" s="74" t="s">
+        <v>1931</v>
       </c>
       <c r="F802" s="74" t="str">
-        <f>IF(A802=1,"&lt;Sound Type="""&amp;B802&amp;""" Storage="""&amp;C802&amp;""" Dec="""&amp;D802&amp;"""&gt;",IF(A802=2,"  &lt;Clip SoundPath="""&amp;E802&amp;""" /&gt;",IF(A802=3,G802,"")))</f>
-        <v>&lt;Sound Type="mall_suit_not_match" Storage="Remote" Dec="换装页配饰不适用提醒"&gt;</v>
+        <f t="shared" ref="F802" si="93">IF(A802=1,"&lt;Sound Type="""&amp;B802&amp;""" Storage="""&amp;C802&amp;""" Dec="""&amp;D802&amp;"""&gt;",IF(A802=2,"  &lt;Clip SoundPath="""&amp;E802&amp;""" /&gt;",IF(A802=3,G802,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_suit_not_match" /&gt;</v>
       </c>
     </row>
     <row r="803" spans="1:6">
       <c r="A803" s="73">
-        <v>2</v>
-      </c>
-      <c r="E803" s="74" t="s">
-        <v>1931</v>
+        <v>3</v>
       </c>
       <c r="F803" s="74" t="str">
-        <f t="shared" ref="F803" si="93">IF(A803=1,"&lt;Sound Type="""&amp;B803&amp;""" Storage="""&amp;C803&amp;""" Dec="""&amp;D803&amp;"""&gt;",IF(A803=2,"  &lt;Clip SoundPath="""&amp;E803&amp;""" /&gt;",IF(A803=3,G803,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="mall_suit_not_match" /&gt;</v>
+        <f>IF(A803=1,"&lt;Sound Type="""&amp;B803&amp;""" Storage="""&amp;C803&amp;""" Dec="""&amp;D803&amp;"""&gt;",IF(A803=2,"  &lt;Clip SoundPath="""&amp;E803&amp;""" /&gt;",IF(A803=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
       </c>
     </row>
     <row r="804" spans="1:6">
       <c r="A804" s="73">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B804" s="74" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C804" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D804" s="74" t="s">
+        <v>1936</v>
       </c>
       <c r="F804" s="74" t="str">
-        <f>IF(A804=1,"&lt;Sound Type="""&amp;B804&amp;""" Storage="""&amp;C804&amp;""" Dec="""&amp;D804&amp;"""&gt;",IF(A804=2,"  &lt;Clip SoundPath="""&amp;E804&amp;""" /&gt;",IF(A804=3,"&lt;/Sound&gt;","")))</f>
-        <v>&lt;/Sound&gt;</v>
+        <f>IF(A804=1,"&lt;Sound Type="""&amp;B804&amp;""" Storage="""&amp;C804&amp;""" Dec="""&amp;D804&amp;"""&gt;",IF(A804=2,"  &lt;Clip SoundPath="""&amp;E804&amp;""" /&gt;",IF(A804=3,G804,"")))</f>
+        <v>&lt;Sound Type="popup_goods_level_lock" Storage="Remote" Dec="换装页等级不够提醒"&gt;</v>
       </c>
     </row>
     <row r="805" spans="1:6">
       <c r="A805" s="73">
-        <v>1</v>
-      </c>
-      <c r="B805" s="74" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C805" s="74" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D805" s="74" t="s">
-        <v>1936</v>
+        <v>2</v>
+      </c>
+      <c r="E805" s="74" t="s">
+        <v>1932</v>
       </c>
       <c r="F805" s="74" t="str">
-        <f>IF(A805=1,"&lt;Sound Type="""&amp;B805&amp;""" Storage="""&amp;C805&amp;""" Dec="""&amp;D805&amp;"""&gt;",IF(A805=2,"  &lt;Clip SoundPath="""&amp;E805&amp;""" /&gt;",IF(A805=3,G805,"")))</f>
-        <v>&lt;Sound Type="popup_goods_level_lock" Storage="Remote" Dec="换装页等级不够提醒"&gt;</v>
+        <f t="shared" ref="F805" si="94">IF(A805=1,"&lt;Sound Type="""&amp;B805&amp;""" Storage="""&amp;C805&amp;""" Dec="""&amp;D805&amp;"""&gt;",IF(A805=2,"  &lt;Clip SoundPath="""&amp;E805&amp;""" /&gt;",IF(A805=3,G805,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_goods_level_lock" /&gt;</v>
       </c>
     </row>
     <row r="806" spans="1:6">
       <c r="A806" s="73">
-        <v>2</v>
-      </c>
-      <c r="E806" s="74" t="s">
-        <v>1932</v>
+        <v>3</v>
       </c>
       <c r="F806" s="74" t="str">
-        <f t="shared" ref="F806" si="94">IF(A806=1,"&lt;Sound Type="""&amp;B806&amp;""" Storage="""&amp;C806&amp;""" Dec="""&amp;D806&amp;"""&gt;",IF(A806=2,"  &lt;Clip SoundPath="""&amp;E806&amp;""" /&gt;",IF(A806=3,G806,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="popup_goods_level_lock" /&gt;</v>
+        <f>IF(A806=1,"&lt;Sound Type="""&amp;B806&amp;""" Storage="""&amp;C806&amp;""" Dec="""&amp;D806&amp;"""&gt;",IF(A806=2,"  &lt;Clip SoundPath="""&amp;E806&amp;""" /&gt;",IF(A806=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
       </c>
     </row>
     <row r="807" spans="1:6">
       <c r="A807" s="73">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B807" s="74" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C807" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D807" s="74" t="s">
+        <v>1938</v>
       </c>
       <c r="F807" s="74" t="str">
-        <f>IF(A807=1,"&lt;Sound Type="""&amp;B807&amp;""" Storage="""&amp;C807&amp;""" Dec="""&amp;D807&amp;"""&gt;",IF(A807=2,"  &lt;Clip SoundPath="""&amp;E807&amp;""" /&gt;",IF(A807=3,"&lt;/Sound&gt;","")))</f>
-        <v>&lt;/Sound&gt;</v>
+        <f>IF(A807=1,"&lt;Sound Type="""&amp;B807&amp;""" Storage="""&amp;C807&amp;""" Dec="""&amp;D807&amp;"""&gt;",IF(A807=2,"  &lt;Clip SoundPath="""&amp;E807&amp;""" /&gt;",IF(A807=3,G807,"")))</f>
+        <v>&lt;Sound Type="mall_purchase_qr" Storage="Remote" Dec="换装页显示二维码"&gt;</v>
       </c>
     </row>
     <row r="808" spans="1:6">
       <c r="A808" s="73">
-        <v>1</v>
-      </c>
-      <c r="B808" s="74" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C808" s="74" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D808" s="74" t="s">
-        <v>1938</v>
+        <v>2</v>
+      </c>
+      <c r="E808" s="74" t="s">
+        <v>1933</v>
       </c>
       <c r="F808" s="74" t="str">
-        <f>IF(A808=1,"&lt;Sound Type="""&amp;B808&amp;""" Storage="""&amp;C808&amp;""" Dec="""&amp;D808&amp;"""&gt;",IF(A808=2,"  &lt;Clip SoundPath="""&amp;E808&amp;""" /&gt;",IF(A808=3,G808,"")))</f>
-        <v>&lt;Sound Type="mall_purchase_qr" Storage="Remote" Dec="换装页显示二维码"&gt;</v>
+        <f t="shared" ref="F808" si="95">IF(A808=1,"&lt;Sound Type="""&amp;B808&amp;""" Storage="""&amp;C808&amp;""" Dec="""&amp;D808&amp;"""&gt;",IF(A808=2,"  &lt;Clip SoundPath="""&amp;E808&amp;""" /&gt;",IF(A808=3,G808,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_qr" /&gt;</v>
       </c>
     </row>
     <row r="809" spans="1:6">
       <c r="A809" s="73">
-        <v>2</v>
-      </c>
-      <c r="E809" s="74" t="s">
-        <v>1933</v>
+        <v>3</v>
       </c>
       <c r="F809" s="74" t="str">
-        <f t="shared" ref="F809" si="95">IF(A809=1,"&lt;Sound Type="""&amp;B809&amp;""" Storage="""&amp;C809&amp;""" Dec="""&amp;D809&amp;"""&gt;",IF(A809=2,"  &lt;Clip SoundPath="""&amp;E809&amp;""" /&gt;",IF(A809=3,G809,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_qr" /&gt;</v>
+        <f>IF(A809=1,"&lt;Sound Type="""&amp;B809&amp;""" Storage="""&amp;C809&amp;""" Dec="""&amp;D809&amp;"""&gt;",IF(A809=2,"  &lt;Clip SoundPath="""&amp;E809&amp;""" /&gt;",IF(A809=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
       </c>
     </row>
     <row r="810" spans="1:6">
       <c r="A810" s="73">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B810" s="74" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C810" s="74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D810" s="74" t="s">
+        <v>1939</v>
       </c>
       <c r="F810" s="74" t="str">
-        <f>IF(A810=1,"&lt;Sound Type="""&amp;B810&amp;""" Storage="""&amp;C810&amp;""" Dec="""&amp;D810&amp;"""&gt;",IF(A810=2,"  &lt;Clip SoundPath="""&amp;E810&amp;""" /&gt;",IF(A810=3,"&lt;/Sound&gt;","")))</f>
-        <v>&lt;/Sound&gt;</v>
+        <f>IF(A810=1,"&lt;Sound Type="""&amp;B810&amp;""" Storage="""&amp;C810&amp;""" Dec="""&amp;D810&amp;"""&gt;",IF(A810=2,"  &lt;Clip SoundPath="""&amp;E810&amp;""" /&gt;",IF(A810=3,G810,"")))</f>
+        <v>&lt;Sound Type="mall_purchase_qr_complete" Storage="Remote" Dec="换装页二维码购物成功"&gt;</v>
       </c>
     </row>
     <row r="811" spans="1:6">
       <c r="A811" s="73">
-        <v>1</v>
-      </c>
-      <c r="B811" s="74" t="s">
-        <v>1944</v>
-      </c>
-      <c r="C811" s="74" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D811" s="74" t="s">
-        <v>1939</v>
+        <v>2</v>
+      </c>
+      <c r="E811" s="74" t="s">
+        <v>1934</v>
       </c>
       <c r="F811" s="74" t="str">
-        <f>IF(A811=1,"&lt;Sound Type="""&amp;B811&amp;""" Storage="""&amp;C811&amp;""" Dec="""&amp;D811&amp;"""&gt;",IF(A811=2,"  &lt;Clip SoundPath="""&amp;E811&amp;""" /&gt;",IF(A811=3,G811,"")))</f>
-        <v>&lt;Sound Type="mall_purchase_qr_complete" Storage="Remote" Dec="换装页二维码购物成功"&gt;</v>
+        <f t="shared" ref="F811" si="96">IF(A811=1,"&lt;Sound Type="""&amp;B811&amp;""" Storage="""&amp;C811&amp;""" Dec="""&amp;D811&amp;"""&gt;",IF(A811=2,"  &lt;Clip SoundPath="""&amp;E811&amp;""" /&gt;",IF(A811=3,G811,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_qr_complete" /&gt;</v>
       </c>
     </row>
     <row r="812" spans="1:6">
       <c r="A812" s="73">
-        <v>2</v>
-      </c>
-      <c r="E812" s="74" t="s">
-        <v>1934</v>
+        <v>3</v>
       </c>
       <c r="F812" s="74" t="str">
-        <f t="shared" ref="F812" si="96">IF(A812=1,"&lt;Sound Type="""&amp;B812&amp;""" Storage="""&amp;C812&amp;""" Dec="""&amp;D812&amp;"""&gt;",IF(A812=2,"  &lt;Clip SoundPath="""&amp;E812&amp;""" /&gt;",IF(A812=3,G812,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_qr_complete" /&gt;</v>
-      </c>
-    </row>
-    <row r="813" spans="1:6">
-      <c r="A813" s="73">
-        <v>3</v>
-      </c>
-      <c r="F813" s="74" t="str">
-        <f>IF(A813=1,"&lt;Sound Type="""&amp;B813&amp;""" Storage="""&amp;C813&amp;""" Dec="""&amp;D813&amp;"""&gt;",IF(A813=2,"  &lt;Clip SoundPath="""&amp;E813&amp;""" /&gt;",IF(A813=3,"&lt;/Sound&gt;","")))</f>
+        <f>IF(A812=1,"&lt;Sound Type="""&amp;B812&amp;""" Storage="""&amp;C812&amp;""" Dec="""&amp;D812&amp;"""&gt;",IF(A812=2,"  &lt;Clip SoundPath="""&amp;E812&amp;""" /&gt;",IF(A812=3,"&lt;/Sound&gt;","")))</f>
         <v>&lt;/Sound&gt;</v>
       </c>
     </row>
@@ -57355,7 +57355,7 @@
     <mergeCell ref="A768:G768"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A798:G798 A814:G1048576">
+  <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A813:G1048576">
     <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
@@ -57421,9 +57421,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A799:G801">
+  <conditionalFormatting sqref="A798:G800">
     <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A799)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
@@ -57432,9 +57432,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A802:G804">
+  <conditionalFormatting sqref="A801:G803">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A802)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
@@ -57443,9 +57443,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A805:G807">
+  <conditionalFormatting sqref="A804:G806">
     <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A805)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
@@ -57454,9 +57454,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A808:G810">
+  <conditionalFormatting sqref="A807:G809">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A808)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
@@ -57465,9 +57465,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A811:G813">
+  <conditionalFormatting sqref="A810:G812">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A811)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1404872-F8CD-4BA2-8F30-29980C88BEF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827E13D0-B279-471E-9ED2-414E762CA502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -450,7 +450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="1945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="1953">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6535,6 +6535,30 @@
   <si>
     <t>mall_purchase_qr_complete</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_head_hat</t>
+  </si>
+  <si>
+    <t>part_wing_bat</t>
+  </si>
+  <si>
+    <t>elf_up_ghost</t>
+  </si>
+  <si>
+    <t>elf_down_pumpkin</t>
+  </si>
+  <si>
+    <t>part_wing_snow</t>
+  </si>
+  <si>
+    <t>elf_up_cloud</t>
+  </si>
+  <si>
+    <t>part_head_antler</t>
+  </si>
+  <si>
+    <t>elf_down_snowman</t>
   </si>
 </sst>
 </file>
@@ -8202,9 +8226,9 @@
         <f>Accessory!D3</f>
         <v>wizard hat</v>
       </c>
-      <c r="D2" s="81">
+      <c r="D2" s="81" t="str">
         <f>Accessory!E3</f>
-        <v>20001</v>
+        <v>part_head_hat</v>
       </c>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
@@ -8217,7 +8241,7 @@
       <c r="M2" s="81"/>
       <c r="N2" s="81" t="str">
         <f t="shared" ref="N2" si="0">"&lt;Item Id="""&amp;A2&amp;""" Type="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" getImage="""&amp;D2&amp;""" Icon="""&amp;E2&amp;""" StoryBg="""&amp;F2&amp;""" AudioId="""&amp;G2&amp;""" Description="""&amp;H2&amp;""" PetType="""&amp;I2&amp;""" Image="""&amp;J2&amp;""" Audio="""&amp;K2&amp;""" Animation="""&amp;L2&amp;""" Preview="""&amp;M2&amp;"""/&gt;"</f>
-        <v>&lt;Item Id="20001" Type="2" Name="wizard hat" getImage="20001" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20001" Type="2" Name="wizard hat" getImage="part_head_hat" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O2" s="82"/>
     </row>
@@ -8233,9 +8257,9 @@
         <f>Accessory!D4</f>
         <v>devil wing</v>
       </c>
-      <c r="D3" s="81">
+      <c r="D3" s="81" t="str">
         <f>Accessory!E4</f>
-        <v>20002</v>
+        <v>part_wing_bat</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="81"/>
@@ -8248,7 +8272,7 @@
       <c r="M3" s="81"/>
       <c r="N3" s="81" t="str">
         <f t="shared" ref="N3:N9" si="1">"&lt;Item Id="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Name="""&amp;C3&amp;""" getImage="""&amp;D3&amp;""" Icon="""&amp;E3&amp;""" StoryBg="""&amp;F3&amp;""" AudioId="""&amp;G3&amp;""" Description="""&amp;H3&amp;""" PetType="""&amp;I3&amp;""" Image="""&amp;J3&amp;""" Audio="""&amp;K3&amp;""" Animation="""&amp;L3&amp;""" Preview="""&amp;M3&amp;"""/&gt;"</f>
-        <v>&lt;Item Id="20002" Type="2" Name="devil wing" getImage="20002" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20002" Type="2" Name="devil wing" getImage="part_wing_bat" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O3" s="82"/>
     </row>
@@ -8264,9 +8288,9 @@
         <f>Accessory!D5</f>
         <v>ghost</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="81" t="str">
         <f>Accessory!E5</f>
-        <v>20003</v>
+        <v>elf_up_ghost</v>
       </c>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
@@ -8279,7 +8303,7 @@
       <c r="M4" s="81"/>
       <c r="N4" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Item Id="20003" Type="2" Name="ghost" getImage="20003" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20003" Type="2" Name="ghost" getImage="elf_up_ghost" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O4" s="82"/>
     </row>
@@ -8295,9 +8319,9 @@
         <f>Accessory!D6</f>
         <v>pumpkin</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="81" t="str">
         <f>Accessory!E6</f>
-        <v>20004</v>
+        <v>elf_down_pumpkin</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
@@ -8310,7 +8334,7 @@
       <c r="M5" s="81"/>
       <c r="N5" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Item Id="20004" Type="2" Name="pumpkin" getImage="20004" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20004" Type="2" Name="pumpkin" getImage="elf_down_pumpkin" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O5" s="82"/>
     </row>
@@ -8326,9 +8350,9 @@
         <f>Accessory!D7</f>
         <v>snow cloud</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="81" t="str">
         <f>Accessory!E7</f>
-        <v>20005</v>
+        <v>elf_up_cloud</v>
       </c>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
@@ -8341,7 +8365,7 @@
       <c r="M6" s="81"/>
       <c r="N6" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Item Id="20005" Type="2" Name="snow cloud" getImage="20005" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20005" Type="2" Name="snow cloud" getImage="elf_up_cloud" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O6" s="82"/>
     </row>
@@ -8357,9 +8381,9 @@
         <f>Accessory!D8</f>
         <v>snow wing</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="81" t="str">
         <f>Accessory!E8</f>
-        <v>20006</v>
+        <v>part_wing_snow</v>
       </c>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
@@ -8372,7 +8396,7 @@
       <c r="M7" s="81"/>
       <c r="N7" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Item Id="20006" Type="2" Name="snow wing" getImage="20006" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20006" Type="2" Name="snow wing" getImage="part_wing_snow" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O7" s="82"/>
     </row>
@@ -8388,9 +8412,9 @@
         <f>Accessory!D9</f>
         <v>cornu cervi</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="81" t="str">
         <f>Accessory!E9</f>
-        <v>20007</v>
+        <v>part_head_antler</v>
       </c>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
@@ -8403,7 +8427,7 @@
       <c r="M8" s="81"/>
       <c r="N8" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Item Id="20007" Type="2" Name="cornu cervi" getImage="20007" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20007" Type="2" Name="cornu cervi" getImage="part_head_antler" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O8" s="82"/>
     </row>
@@ -8419,9 +8443,9 @@
         <f>Accessory!D10</f>
         <v>snowman</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="81" t="str">
         <f>Accessory!E10</f>
-        <v>20008</v>
+        <v>elf_down_snowman</v>
       </c>
       <c r="E9" s="81"/>
       <c r="F9" s="81"/>
@@ -8434,7 +8458,7 @@
       <c r="M9" s="81"/>
       <c r="N9" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Item Id="20008" Type="2" Name="snowman" getImage="20008" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+        <v>&lt;Item Id="20008" Type="2" Name="snowman" getImage="elf_down_snowman" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O9" s="82"/>
     </row>
@@ -35297,7 +35321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G812"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A783" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B788" sqref="B788"/>
     </sheetView>
@@ -59733,18 +59757,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E10"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="8.875" style="6"/>
     <col min="4" max="4" width="10.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="8.875" style="6"/>
     <col min="10" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
@@ -59880,8 +59904,8 @@
       <c r="D3" t="s">
         <v>1867</v>
       </c>
-      <c r="E3" s="6">
-        <v>20001</v>
+      <c r="E3" s="6" t="s">
+        <v>1945</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1865</v>
@@ -59905,7 +59929,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
@@ -59924,7 +59948,7 @@
       </c>
       <c r="T3" s="6" t="str">
         <f>IF(AND(A3&lt;&gt;"",B3&lt;&gt;""),"&lt;Accessory ID="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Index="""&amp;C3&amp;""" Name="""&amp;D3&amp;""" Icon="""&amp;E3&amp;""" Prefab="""&amp;F3&amp;""" Region="""&amp;G3&amp;""" Purchase="""&amp;H3&amp;""" Price="""&amp;I3&amp;""" StartTime="""&amp;J3&amp;""" EndTime="""&amp;K3&amp;""" Level="""&amp;L3&amp;""" PURPIE="""&amp;M3&amp;""" DONNY="""&amp;N3&amp;""" NINJI="""&amp;O3&amp;""" SANSA="""&amp;P3&amp;""" YOYO="""&amp;Q3&amp;""" NUO="""&amp;R3&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20001" Type="1" Index="1" Name="wizard hat" Icon="20001" Prefab="Hat" Region="Head" Purchase="Coin" Price="200" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20001" Type="1" Index="1" Name="wizard hat" Icon="part_head_hat" Prefab="Hat" Region="Head" Purchase="Coin" Price="200" StartTime="null" EndTime="null" Level="1" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75">
@@ -59940,8 +59964,8 @@
       <c r="D4" t="s">
         <v>1868</v>
       </c>
-      <c r="E4" s="6">
-        <v>20002</v>
+      <c r="E4" s="6" t="s">
+        <v>1946</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>1876</v>
@@ -59956,7 +59980,7 @@
         <v>1049</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -59978,7 +60002,7 @@
       </c>
       <c r="T4" s="6" t="str">
         <f t="shared" ref="T4:T10" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" Prefab="""&amp;F4&amp;""" Region="""&amp;G4&amp;""" Purchase="""&amp;H4&amp;""" Price="""&amp;I4&amp;""" StartTime="""&amp;J4&amp;""" EndTime="""&amp;K4&amp;""" Level="""&amp;L4&amp;""" PURPIE="""&amp;M4&amp;""" DONNY="""&amp;N4&amp;""" NINJI="""&amp;O4&amp;""" SANSA="""&amp;P4&amp;""" YOYO="""&amp;Q4&amp;""" NUO="""&amp;R4&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20002" Type="2" Index="6" Name="devil wing" Icon="20002" Prefab="" Region="" Purchase="Coin" Price="1800" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20002" Type="2" Index="6" Name="devil wing" Icon="part_wing_bat" Prefab="" Region="" Purchase="Coin" Price="1800" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75">
@@ -59994,8 +60018,8 @@
       <c r="D5" t="s">
         <v>1869</v>
       </c>
-      <c r="E5" s="6">
-        <v>20003</v>
+      <c r="E5" s="6" t="s">
+        <v>1947</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>1876</v>
@@ -60016,7 +60040,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -60032,7 +60056,7 @@
       </c>
       <c r="T5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20003" Type="5" Index="3" Name="ghost" Icon="20003" Prefab="" Region="" Purchase="Coin" Price="800" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20003" Type="5" Index="3" Name="ghost" Icon="elf_up_ghost" Prefab="" Region="" Purchase="Coin" Price="800" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="0" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75">
@@ -60048,8 +60072,8 @@
       <c r="D6" t="s">
         <v>1870</v>
       </c>
-      <c r="E6" s="6">
-        <v>20004</v>
+      <c r="E6" s="6" t="s">
+        <v>1948</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>1876</v>
@@ -60073,7 +60097,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
@@ -60086,7 +60110,7 @@
       </c>
       <c r="T6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20004" Type="5" Index="2" Name="pumpkin" Icon="20004" Prefab="" Region="" Purchase="Coin" Price="300" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20004" Type="5" Index="2" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="" Region="" Purchase="Coin" Price="300" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="0" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75">
@@ -60102,8 +60126,8 @@
       <c r="D7" t="s">
         <v>1871</v>
       </c>
-      <c r="E7" s="6">
-        <v>20005</v>
+      <c r="E7" s="6" t="s">
+        <v>1950</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>1875</v>
@@ -60140,7 +60164,7 @@
       </c>
       <c r="T7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20005" Type="5" Index="4" Name="snow cloud" Icon="20005" Prefab="" Region="" Purchase="Cash" Price="1.99" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20005" Type="5" Index="4" Name="snow cloud" Icon="elf_up_cloud" Prefab="" Region="" Purchase="Cash" Price="1.99" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75">
@@ -60156,8 +60180,8 @@
       <c r="D8" t="s">
         <v>1872</v>
       </c>
-      <c r="E8" s="6">
-        <v>20006</v>
+      <c r="E8" s="6" t="s">
+        <v>1949</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>1877</v>
@@ -60184,7 +60208,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
         <v>1</v>
@@ -60194,7 +60218,7 @@
       </c>
       <c r="T8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20006" Type="2" Index="5" Name="snow wing" Icon="20006" Prefab="" Region="" Purchase="Coin" Price="1000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20006" Type="2" Index="5" Name="snow wing" Icon="part_wing_snow" Prefab="" Region="" Purchase="Coin" Price="1000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="0" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75">
@@ -60210,8 +60234,8 @@
       <c r="D9" t="s">
         <v>1873</v>
       </c>
-      <c r="E9" s="6">
-        <v>20007</v>
+      <c r="E9" s="6" t="s">
+        <v>1951</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>1877</v>
@@ -60241,14 +60265,14 @@
         <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
       </c>
       <c r="T9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20007" Type="1" Index="7" Name="cornu cervi" Icon="20007" Prefab="" Region="" Purchase="Coin" Price="2000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20007" Type="1" Index="7" Name="cornu cervi" Icon="part_head_antler" Prefab="" Region="" Purchase="Coin" Price="2000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="0" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75">
@@ -60264,8 +60288,8 @@
       <c r="D10" t="s">
         <v>1874</v>
       </c>
-      <c r="E10" s="6">
-        <v>20008</v>
+      <c r="E10" s="6" t="s">
+        <v>1952</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>1877</v>
@@ -60280,10 +60304,10 @@
         <v>1049</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -60298,11 +60322,11 @@
         <v>1</v>
       </c>
       <c r="R10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20008" Type="5" Index="8" Name="snowman" Icon="20008" Prefab="" Region="" Purchase="Coin" Price="500" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20008" Type="5" Index="8" Name="snowman" Icon="elf_down_snowman" Prefab="" Region="" Purchase="Coin" Price="500" StartTime="null" EndTime="null" Level="10" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="0" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A98C72-A47C-4F74-A52E-57C1E78AEB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680DDA83-AF1F-4430-B1E0-E55DA25462B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -381,6 +381,24 @@
         </r>
       </text>
     </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{23FE6301-C0EC-44AF-A807-158311140B61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1.Dummy_head 头部挂点
+2.Dummy_wing 翅膀/套装挂点
+9.Host 小精灵根物体
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -450,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="1953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="1962">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6250,14 +6268,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Hat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Head</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>wizard hat</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -6559,14 +6569,49 @@
   </si>
   <si>
     <t>elf_down_snowman</t>
+  </si>
+  <si>
+    <t>cap_point</t>
+  </si>
+  <si>
+    <t>wing_point</t>
+  </si>
+  <si>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>pumpkin</t>
+  </si>
+  <si>
+    <t>cloud_snow</t>
+  </si>
+  <si>
+    <t>wing_snow</t>
+  </si>
+  <si>
+    <t>snowman</t>
+  </si>
+  <si>
+    <t>cornu cervi_point</t>
+  </si>
+  <si>
+    <t>Dummy_wing</t>
+  </si>
+  <si>
+    <t>Dummy_head</t>
+  </si>
+  <si>
+    <t>Host</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0000"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -7081,7 +7126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7396,6 +7441,18 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8464,7 +8521,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="99" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B10" s="99"/>
       <c r="C10" s="99"/>
@@ -16259,7 +16316,7 @@
     </row>
     <row r="157" spans="1:15" ht="15.75">
       <c r="A157" s="99" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B157" s="99"/>
       <c r="C157" s="99"/>
@@ -21713,7 +21770,7 @@
         <v>MissionName92001</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="E84" s="29">
         <v>92001</v>
@@ -21763,7 +21820,7 @@
         <v>MissionName92002</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="E85" s="29">
         <v>92002</v>
@@ -21813,7 +21870,7 @@
         <v>MissionName92003</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="E86" s="29">
         <v>92003</v>
@@ -21863,7 +21920,7 @@
         <v>MissionName92004</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="E87" s="29">
         <v>92004</v>
@@ -25540,7 +25597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -56804,7 +56861,7 @@
     </row>
     <row r="768" spans="1:7">
       <c r="A768" s="110" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="B768" s="111"/>
       <c r="C768" s="111"/>
@@ -56818,13 +56875,13 @@
         <v>1</v>
       </c>
       <c r="B769" s="73" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="C769" s="73" t="s">
         <v>1823</v>
       </c>
       <c r="D769" s="73" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="F769" s="73" t="str">
         <f>IF(A769=1,"&lt;Sound Type="""&amp;B769&amp;""" Storage="""&amp;C769&amp;""" Dec="""&amp;D769&amp;"""&gt;",IF(A769=2,"  &lt;Clip SoundPath="""&amp;E769&amp;""" /&gt;",IF(A769=3,G769,"")))</f>
@@ -56836,7 +56893,7 @@
         <v>2</v>
       </c>
       <c r="E770" s="73" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="F770" s="73" t="str">
         <f t="shared" ref="F770:F774" si="85">IF(A770=1,"&lt;Sound Type="""&amp;B770&amp;""" Storage="""&amp;C770&amp;""" Dec="""&amp;D770&amp;"""&gt;",IF(A770=2,"  &lt;Clip SoundPath="""&amp;E770&amp;""" /&gt;",IF(A770=3,G770,"")))</f>
@@ -56848,7 +56905,7 @@
         <v>2</v>
       </c>
       <c r="E771" s="73" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="F771" s="73" t="str">
         <f t="shared" si="85"/>
@@ -56860,7 +56917,7 @@
         <v>2</v>
       </c>
       <c r="E772" s="73" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="F772" s="73" t="str">
         <f t="shared" si="85"/>
@@ -56872,7 +56929,7 @@
         <v>2</v>
       </c>
       <c r="E773" s="73" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="F773" s="73" t="str">
         <f t="shared" si="85"/>
@@ -56884,7 +56941,7 @@
         <v>2</v>
       </c>
       <c r="E774" s="73" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="F774" s="73" t="str">
         <f t="shared" si="85"/>
@@ -56905,13 +56962,13 @@
         <v>1</v>
       </c>
       <c r="B776" s="73" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="C776" s="73" t="s">
         <v>1823</v>
       </c>
       <c r="D776" s="73" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="F776" s="73" t="str">
         <f>IF(A776=1,"&lt;Sound Type="""&amp;B776&amp;""" Storage="""&amp;C776&amp;""" Dec="""&amp;D776&amp;"""&gt;",IF(A776=2,"  &lt;Clip SoundPath="""&amp;E776&amp;""" /&gt;",IF(A776=3,G776,"")))</f>
@@ -56923,7 +56980,7 @@
         <v>2</v>
       </c>
       <c r="E777" s="73" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="F777" s="73" t="str">
         <f t="shared" ref="F777:F780" si="86">IF(A777=1,"&lt;Sound Type="""&amp;B777&amp;""" Storage="""&amp;C777&amp;""" Dec="""&amp;D777&amp;"""&gt;",IF(A777=2,"  &lt;Clip SoundPath="""&amp;E777&amp;""" /&gt;",IF(A777=3,G777,"")))</f>
@@ -56935,7 +56992,7 @@
         <v>2</v>
       </c>
       <c r="E778" s="73" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="F778" s="73" t="str">
         <f t="shared" si="86"/>
@@ -56947,7 +57004,7 @@
         <v>2</v>
       </c>
       <c r="E779" s="73" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="F779" s="73" t="str">
         <f t="shared" si="86"/>
@@ -56959,7 +57016,7 @@
         <v>2</v>
       </c>
       <c r="E780" s="73" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="F780" s="73" t="str">
         <f t="shared" si="86"/>
@@ -56980,13 +57037,13 @@
         <v>1</v>
       </c>
       <c r="B782" s="73" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="C782" s="73" t="s">
         <v>1823</v>
       </c>
       <c r="D782" s="73" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="F782" s="73" t="str">
         <f>IF(A782=1,"&lt;Sound Type="""&amp;B782&amp;""" Storage="""&amp;C782&amp;""" Dec="""&amp;D782&amp;"""&gt;",IF(A782=2,"  &lt;Clip SoundPath="""&amp;E782&amp;""" /&gt;",IF(A782=3,G782,"")))</f>
@@ -56998,7 +57055,7 @@
         <v>2</v>
       </c>
       <c r="E783" s="73" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="F783" s="73" t="str">
         <f t="shared" ref="F783" si="87">IF(A783=1,"&lt;Sound Type="""&amp;B783&amp;""" Storage="""&amp;C783&amp;""" Dec="""&amp;D783&amp;"""&gt;",IF(A783=2,"  &lt;Clip SoundPath="""&amp;E783&amp;""" /&gt;",IF(A783=3,G783,"")))</f>
@@ -57019,13 +57076,13 @@
         <v>1</v>
       </c>
       <c r="B785" s="73" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="C785" s="73" t="s">
         <v>1823</v>
       </c>
       <c r="D785" s="73" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="F785" s="73" t="str">
         <f>IF(A785=1,"&lt;Sound Type="""&amp;B785&amp;""" Storage="""&amp;C785&amp;""" Dec="""&amp;D785&amp;"""&gt;",IF(A785=2,"  &lt;Clip SoundPath="""&amp;E785&amp;""" /&gt;",IF(A785=3,G785,"")))</f>
@@ -57037,7 +57094,7 @@
         <v>2</v>
       </c>
       <c r="E786" s="73" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="F786" s="73" t="str">
         <f t="shared" ref="F786" si="88">IF(A786=1,"&lt;Sound Type="""&amp;B786&amp;""" Storage="""&amp;C786&amp;""" Dec="""&amp;D786&amp;"""&gt;",IF(A786=2,"  &lt;Clip SoundPath="""&amp;E786&amp;""" /&gt;",IF(A786=3,G786,"")))</f>
@@ -57058,13 +57115,13 @@
         <v>1</v>
       </c>
       <c r="B788" s="73" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="C788" s="73" t="s">
         <v>1823</v>
       </c>
       <c r="D788" s="73" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="F788" s="73" t="str">
         <f>IF(A788=1,"&lt;Sound Type="""&amp;B788&amp;""" Storage="""&amp;C788&amp;""" Dec="""&amp;D788&amp;"""&gt;",IF(A788=2,"  &lt;Clip SoundPath="""&amp;E788&amp;""" /&gt;",IF(A788=3,G788,"")))</f>
@@ -57076,7 +57133,7 @@
         <v>2</v>
       </c>
       <c r="E789" s="73" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="F789" s="73" t="str">
         <f t="shared" ref="F789" si="89">IF(A789=1,"&lt;Sound Type="""&amp;B789&amp;""" Storage="""&amp;C789&amp;""" Dec="""&amp;D789&amp;"""&gt;",IF(A789=2,"  &lt;Clip SoundPath="""&amp;E789&amp;""" /&gt;",IF(A789=3,G789,"")))</f>
@@ -57097,13 +57154,13 @@
         <v>1</v>
       </c>
       <c r="B791" s="73" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="C791" s="73" t="s">
         <v>1823</v>
       </c>
       <c r="D791" s="73" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="F791" s="73" t="str">
         <f>IF(A791=1,"&lt;Sound Type="""&amp;B791&amp;""" Storage="""&amp;C791&amp;""" Dec="""&amp;D791&amp;"""&gt;",IF(A791=2,"  &lt;Clip SoundPath="""&amp;E791&amp;""" /&gt;",IF(A791=3,G791,"")))</f>
@@ -57115,7 +57172,7 @@
         <v>2</v>
       </c>
       <c r="E792" s="73" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="F792" s="73" t="str">
         <f t="shared" ref="F792:F795" si="90">IF(A792=1,"&lt;Sound Type="""&amp;B792&amp;""" Storage="""&amp;C792&amp;""" Dec="""&amp;D792&amp;"""&gt;",IF(A792=2,"  &lt;Clip SoundPath="""&amp;E792&amp;""" /&gt;",IF(A792=3,G792,"")))</f>
@@ -57127,7 +57184,7 @@
         <v>2</v>
       </c>
       <c r="E793" s="73" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="F793" s="73" t="str">
         <f t="shared" si="90"/>
@@ -57139,7 +57196,7 @@
         <v>2</v>
       </c>
       <c r="E794" s="73" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="F794" s="73" t="str">
         <f t="shared" si="90"/>
@@ -57151,7 +57208,7 @@
         <v>2</v>
       </c>
       <c r="E795" s="73" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="F795" s="73" t="str">
         <f t="shared" si="90"/>
@@ -57163,7 +57220,7 @@
         <v>2</v>
       </c>
       <c r="E796" s="73" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="F796" s="73" t="str">
         <f t="shared" ref="F796" si="91">IF(A796=1,"&lt;Sound Type="""&amp;B796&amp;""" Storage="""&amp;C796&amp;""" Dec="""&amp;D796&amp;"""&gt;",IF(A796=2,"  &lt;Clip SoundPath="""&amp;E796&amp;""" /&gt;",IF(A796=3,G796,"")))</f>
@@ -57184,13 +57241,13 @@
         <v>1</v>
       </c>
       <c r="B798" s="73" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="C798" s="73" t="s">
         <v>1823</v>
       </c>
       <c r="D798" s="73" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="F798" s="73" t="str">
         <f>IF(A798=1,"&lt;Sound Type="""&amp;B798&amp;""" Storage="""&amp;C798&amp;""" Dec="""&amp;D798&amp;"""&gt;",IF(A798=2,"  &lt;Clip SoundPath="""&amp;E798&amp;""" /&gt;",IF(A798=3,G798,"")))</f>
@@ -57202,7 +57259,7 @@
         <v>2</v>
       </c>
       <c r="E799" s="73" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="F799" s="73" t="str">
         <f t="shared" ref="F799" si="92">IF(A799=1,"&lt;Sound Type="""&amp;B799&amp;""" Storage="""&amp;C799&amp;""" Dec="""&amp;D799&amp;"""&gt;",IF(A799=2,"  &lt;Clip SoundPath="""&amp;E799&amp;""" /&gt;",IF(A799=3,G799,"")))</f>
@@ -57223,13 +57280,13 @@
         <v>1</v>
       </c>
       <c r="B801" s="73" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C801" s="73" t="s">
         <v>1823</v>
       </c>
       <c r="D801" s="73" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F801" s="73" t="str">
         <f>IF(A801=1,"&lt;Sound Type="""&amp;B801&amp;""" Storage="""&amp;C801&amp;""" Dec="""&amp;D801&amp;"""&gt;",IF(A801=2,"  &lt;Clip SoundPath="""&amp;E801&amp;""" /&gt;",IF(A801=3,G801,"")))</f>
@@ -57241,7 +57298,7 @@
         <v>2</v>
       </c>
       <c r="E802" s="73" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="F802" s="73" t="str">
         <f t="shared" ref="F802" si="93">IF(A802=1,"&lt;Sound Type="""&amp;B802&amp;""" Storage="""&amp;C802&amp;""" Dec="""&amp;D802&amp;"""&gt;",IF(A802=2,"  &lt;Clip SoundPath="""&amp;E802&amp;""" /&gt;",IF(A802=3,G802,"")))</f>
@@ -57262,13 +57319,13 @@
         <v>1</v>
       </c>
       <c r="B804" s="73" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="C804" s="73" t="s">
         <v>1823</v>
       </c>
       <c r="D804" s="73" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="F804" s="73" t="str">
         <f>IF(A804=1,"&lt;Sound Type="""&amp;B804&amp;""" Storage="""&amp;C804&amp;""" Dec="""&amp;D804&amp;"""&gt;",IF(A804=2,"  &lt;Clip SoundPath="""&amp;E804&amp;""" /&gt;",IF(A804=3,G804,"")))</f>
@@ -57280,7 +57337,7 @@
         <v>2</v>
       </c>
       <c r="E805" s="73" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="F805" s="73" t="str">
         <f t="shared" ref="F805" si="94">IF(A805=1,"&lt;Sound Type="""&amp;B805&amp;""" Storage="""&amp;C805&amp;""" Dec="""&amp;D805&amp;"""&gt;",IF(A805=2,"  &lt;Clip SoundPath="""&amp;E805&amp;""" /&gt;",IF(A805=3,G805,"")))</f>
@@ -57301,13 +57358,13 @@
         <v>1</v>
       </c>
       <c r="B807" s="73" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="C807" s="73" t="s">
         <v>1823</v>
       </c>
       <c r="D807" s="73" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="F807" s="73" t="str">
         <f>IF(A807=1,"&lt;Sound Type="""&amp;B807&amp;""" Storage="""&amp;C807&amp;""" Dec="""&amp;D807&amp;"""&gt;",IF(A807=2,"  &lt;Clip SoundPath="""&amp;E807&amp;""" /&gt;",IF(A807=3,G807,"")))</f>
@@ -57319,7 +57376,7 @@
         <v>2</v>
       </c>
       <c r="E808" s="73" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="F808" s="73" t="str">
         <f t="shared" ref="F808" si="95">IF(A808=1,"&lt;Sound Type="""&amp;B808&amp;""" Storage="""&amp;C808&amp;""" Dec="""&amp;D808&amp;"""&gt;",IF(A808=2,"  &lt;Clip SoundPath="""&amp;E808&amp;""" /&gt;",IF(A808=3,G808,"")))</f>
@@ -57340,13 +57397,13 @@
         <v>1</v>
       </c>
       <c r="B810" s="73" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="C810" s="73" t="s">
         <v>1823</v>
       </c>
       <c r="D810" s="73" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="F810" s="73" t="str">
         <f>IF(A810=1,"&lt;Sound Type="""&amp;B810&amp;""" Storage="""&amp;C810&amp;""" Dec="""&amp;D810&amp;"""&gt;",IF(A810=2,"  &lt;Clip SoundPath="""&amp;E810&amp;""" /&gt;",IF(A810=3,G810,"")))</f>
@@ -57358,7 +57415,7 @@
         <v>2</v>
       </c>
       <c r="E811" s="73" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="F811" s="73" t="str">
         <f t="shared" ref="F811" si="96">IF(A811=1,"&lt;Sound Type="""&amp;B811&amp;""" Storage="""&amp;C811&amp;""" Dec="""&amp;D811&amp;"""&gt;",IF(A811=2,"  &lt;Clip SoundPath="""&amp;E811&amp;""" /&gt;",IF(A811=3,G811,"")))</f>
@@ -59420,10 +59477,10 @@
         <v>6</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="F24" s="30" t="b">
         <v>1</v>
@@ -59462,10 +59519,10 @@
         <v>1050</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="S24" s="79" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="U24" s="30" t="str">
         <f t="shared" ref="U24:U27" si="1">"&lt;PropertyItem&gt;"&amp;CHAR(10)&amp;"&lt;Number&gt;"&amp;A24&amp;"&lt;/Number&gt;"&amp;CHAR(10)&amp;"&lt;Id&gt;"&amp;B24&amp;"&lt;/Id&gt;"&amp;CHAR(10)&amp;"&lt;Type&gt;"&amp;C24&amp;"&lt;/Type&gt;"&amp;CHAR(10)&amp;"&lt;Name&gt;"&amp;D24&amp;"&lt;/Name&gt;"&amp;CHAR(10)&amp;"&lt;Tag&gt;"&amp;E24&amp;"&lt;/Tag&gt;"&amp;CHAR(10)&amp;"&lt;IsNew&gt;"&amp;F24&amp;"&lt;/IsNew&gt;"&amp;CHAR(10)&amp;"&lt;IsCampain&gt;"&amp;G24&amp;"&lt;/IsCampain&gt;"&amp;CHAR(10)&amp;"&lt;StartTime&gt;"&amp;TEXT(H24,"yyyy-MM-dd HH:mm")&amp;"&lt;/StartTime&gt;"&amp;CHAR(10)&amp;"&lt;EndTime&gt;"&amp;TEXT(I24,"yyyy-MM-dd HH:mm")&amp;"&lt;/EndTime&gt;"&amp;CHAR(10)&amp;"&lt;UnlockLevel&gt;"&amp;J24&amp;"&lt;/UnlockLevel&gt;"&amp;CHAR(10)&amp;"&lt;Rarity&gt;"&amp;K24&amp;"&lt;/Rarity&gt;"&amp;CHAR(10)&amp;"&lt;Price&gt;"&amp;L24&amp;"&lt;/Price&gt;"&amp;CHAR(10)&amp;"&lt;Sale&gt;"&amp;M24&amp;"&lt;/Sale&gt;"&amp;CHAR(10)&amp;"&lt;Hp&gt;"&amp;N24&amp;"&lt;/Hp&gt;"&amp;CHAR(10)&amp;"&lt;Exp&gt;"&amp;O24&amp;"&lt;/Exp&gt;"&amp;CHAR(10)&amp;"&lt;IsShow&gt;"&amp;P24&amp;"&lt;/IsShow&gt;"&amp;CHAR(10)&amp;"&lt;AcquireWay&gt;"&amp;Q24&amp;"&lt;/AcquireWay&gt;"&amp;CHAR(10)&amp;"&lt;DefaultIcon&gt;"&amp;R24&amp;"&lt;/DefaultIcon&gt;"&amp;CHAR(10)&amp;"&lt;HighLightIcon&gt;"&amp;S24&amp;"&lt;/HighLightIcon&gt;"&amp;CHAR(10)&amp;"&lt;ReactionAnim&gt;"&amp;T24&amp;"&lt;/ReactionAnim&gt;"&amp;CHAR(10)&amp;"&lt;/PropertyItem&gt;"</f>
@@ -59504,10 +59561,10 @@
         <v>6</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="F25" s="30" t="b">
         <v>1</v>
@@ -59546,10 +59603,10 @@
         <v>1050</v>
       </c>
       <c r="R25" s="30" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="S25" s="79" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="U25" s="30" t="str">
         <f t="shared" si="1"/>
@@ -59588,10 +59645,10 @@
         <v>6</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="F26" s="30" t="b">
         <v>1</v>
@@ -59630,10 +59687,10 @@
         <v>1050</v>
       </c>
       <c r="R26" s="30" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="S26" s="79" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="U26" s="30" t="str">
         <f t="shared" si="1"/>
@@ -59672,10 +59729,10 @@
         <v>6</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="F27" s="30" t="b">
         <v>1</v>
@@ -59714,10 +59771,10 @@
         <v>1050</v>
       </c>
       <c r="R27" s="30" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="S27" s="79" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="U27" s="30" t="str">
         <f t="shared" si="1"/>
@@ -59757,11 +59814,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -59769,8 +59826,10 @@
     <col min="1" max="3" width="8.875" style="6"/>
     <col min="4" max="4" width="10.375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.875" style="6"/>
-    <col min="10" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.875" style="6"/>
+    <col min="10" max="11" width="11.125" style="116" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="18" width="8.875" style="1"/>
     <col min="19" max="16384" width="8.875" style="6"/>
@@ -59790,7 +59849,7 @@
         <v>1852</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="F1" s="78" t="s">
         <v>1853</v>
@@ -59804,14 +59863,14 @@
       <c r="I1" s="78" t="s">
         <v>1856</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="113" t="s">
         <v>1857</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="113" t="s">
         <v>1858</v>
       </c>
       <c r="L1" s="78" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="M1" s="78" t="s">
         <v>1859</v>
@@ -59846,7 +59905,7 @@
         <v>1846</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>1847</v>
@@ -59860,14 +59919,14 @@
       <c r="I2" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="114" t="s">
         <v>1033</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="114" t="s">
         <v>1034</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>1838</v>
@@ -59902,27 +59961,27 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1865</v>
+        <v>1951</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1866</v>
+        <v>1960</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="I3" s="6">
         <v>200</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="115" t="s">
         <v>1049</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="115" t="s">
         <v>1049</v>
       </c>
       <c r="L3" s="1">
@@ -59948,7 +60007,7 @@
       </c>
       <c r="T3" s="6" t="str">
         <f>IF(AND(A3&lt;&gt;"",B3&lt;&gt;""),"&lt;Accessory ID="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Index="""&amp;C3&amp;""" Name="""&amp;D3&amp;""" Icon="""&amp;E3&amp;""" Prefab="""&amp;F3&amp;""" Region="""&amp;G3&amp;""" Purchase="""&amp;H3&amp;""" Price="""&amp;I3&amp;""" StartTime="""&amp;J3&amp;""" EndTime="""&amp;K3&amp;""" Level="""&amp;L3&amp;""" PURPIE="""&amp;M3&amp;""" DONNY="""&amp;N3&amp;""" NINJI="""&amp;O3&amp;""" SANSA="""&amp;P3&amp;""" YOYO="""&amp;Q3&amp;""" NUO="""&amp;R3&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20001" Type="1" Index="1" Name="wizard hat" Icon="part_head_hat" Prefab="Hat" Region="Head" Purchase="Coin" Price="200" StartTime="null" EndTime="null" Level="1" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20001" Type="1" Index="1" Name="wizard hat" Icon="part_head_hat" Prefab="cap_point" Region="Dummy_head" Purchase="Coin" Price="200" StartTime="null" EndTime="null" Level="1" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75">
@@ -59962,21 +60021,27 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1946</v>
+        <v>1944</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>1959</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="I4" s="6">
         <v>1800</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="115" t="s">
         <v>1049</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="115" t="s">
         <v>1049</v>
       </c>
       <c r="L4" s="1">
@@ -60002,7 +60067,7 @@
       </c>
       <c r="T4" s="6" t="str">
         <f t="shared" ref="T4:T10" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" Prefab="""&amp;F4&amp;""" Region="""&amp;G4&amp;""" Purchase="""&amp;H4&amp;""" Price="""&amp;I4&amp;""" StartTime="""&amp;J4&amp;""" EndTime="""&amp;K4&amp;""" Level="""&amp;L4&amp;""" PURPIE="""&amp;M4&amp;""" DONNY="""&amp;N4&amp;""" NINJI="""&amp;O4&amp;""" SANSA="""&amp;P4&amp;""" YOYO="""&amp;Q4&amp;""" NUO="""&amp;R4&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20002" Type="2" Index="6" Name="devil wing" Icon="part_wing_bat" Prefab="" Region="" Purchase="Coin" Price="1800" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20002" Type="2" Index="6" Name="devil wing" Icon="part_wing_bat" Prefab="wing_point" Region="Dummy_wing" Purchase="Coin" Price="1800" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75">
@@ -60016,21 +60081,27 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1947</v>
+        <v>1945</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1953</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1961</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="I5" s="6">
         <v>800</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="115" t="s">
         <v>1049</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="115" t="s">
         <v>1049</v>
       </c>
       <c r="L5" s="1">
@@ -60056,7 +60127,7 @@
       </c>
       <c r="T5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20003" Type="5" Index="3" Name="ghost" Icon="elf_up_ghost" Prefab="" Region="" Purchase="Coin" Price="800" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="0" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20003" Type="5" Index="3" Name="ghost" Icon="elf_up_ghost" Prefab="ghost" Region="Host" Purchase="Coin" Price="800" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="0" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75">
@@ -60070,21 +60141,27 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1948</v>
+        <v>1946</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>1961</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="I6" s="6">
         <v>300</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="115" t="s">
         <v>1049</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="115" t="s">
         <v>1049</v>
       </c>
       <c r="L6" s="1">
@@ -60110,7 +60187,7 @@
       </c>
       <c r="T6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20004" Type="5" Index="2" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="" Region="" Purchase="Coin" Price="300" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="0" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20004" Type="5" Index="2" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="Host" Purchase="Coin" Price="300" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="0" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75">
@@ -60124,21 +60201,27 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1950</v>
+        <v>1948</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1961</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="I7" s="6">
         <v>1.99</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="115" t="s">
         <v>1049</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="115" t="s">
         <v>1049</v>
       </c>
       <c r="L7" s="1">
@@ -60164,7 +60247,7 @@
       </c>
       <c r="T7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20005" Type="5" Index="4" Name="snow cloud" Icon="elf_up_cloud" Prefab="" Region="" Purchase="Cash" Price="1.99" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20005" Type="5" Index="4" Name="snow cloud" Icon="elf_up_cloud" Prefab="cloud_snow" Region="Host" Purchase="Cash" Price="1.99" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75">
@@ -60178,21 +60261,27 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1949</v>
+        <v>1947</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1959</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="I8" s="6">
         <v>1000</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="115" t="s">
         <v>1049</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="115" t="s">
         <v>1049</v>
       </c>
       <c r="L8" s="1">
@@ -60218,7 +60307,7 @@
       </c>
       <c r="T8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20006" Type="2" Index="5" Name="snow wing" Icon="part_wing_snow" Prefab="" Region="" Purchase="Coin" Price="1000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="0" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20006" Type="2" Index="5" Name="snow wing" Icon="part_wing_snow" Prefab="wing_snow" Region="Dummy_wing" Purchase="Coin" Price="1000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="0" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75">
@@ -60232,21 +60321,27 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1951</v>
+        <v>1949</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1960</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="I9" s="6">
         <v>2000</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="115" t="s">
         <v>1049</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="115" t="s">
         <v>1049</v>
       </c>
       <c r="L9" s="1">
@@ -60272,7 +60367,7 @@
       </c>
       <c r="T9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20007" Type="1" Index="7" Name="cornu cervi" Icon="part_head_antler" Prefab="" Region="" Purchase="Coin" Price="2000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="0" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20007" Type="1" Index="7" Name="cornu cervi" Icon="part_head_antler" Prefab="cornu cervi_point" Region="Dummy_head" Purchase="Coin" Price="2000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="0" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75">
@@ -60286,21 +60381,27 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1952</v>
+        <v>1950</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>1961</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="I10" s="6">
         <v>500</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="115" t="s">
         <v>1049</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="115" t="s">
         <v>1049</v>
       </c>
       <c r="L10" s="1">
@@ -60326,11 +60427,16 @@
       </c>
       <c r="T10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20008" Type="5" Index="8" Name="snowman" Icon="elf_down_snowman" Prefab="" Region="" Purchase="Coin" Price="500" StartTime="null" EndTime="null" Level="10" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="0" /&gt;</v>
+        <v>&lt;Accessory ID="20008" Type="5" Index="8" Name="snowman" Icon="elf_down_snowman" Prefab="snowman" Region="Host" Purchase="Coin" Price="500" StartTime="null" EndTime="null" Level="10" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="0" /&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{8175DBE4-02FD-49F6-AC93-070EC4D3D751}">
+      <formula1>"Dummy_head,Dummy_wing,Host"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680DDA83-AF1F-4430-B1E0-E55DA25462B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADABD87F-6F58-4B55-8F47-0407E9706386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="1962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3472" uniqueCount="1965">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6601,7 +6601,17 @@
     <t>Dummy_head</t>
   </si>
   <si>
-    <t>Host</t>
+    <t>TopLeft</t>
+  </si>
+  <si>
+    <t>BottomRight</t>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得经验</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7126,7 +7136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7400,6 +7410,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7442,16 +7464,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8520,23 +8542,23 @@
       <c r="O9" s="81"/>
     </row>
     <row r="10" spans="1:15" ht="15.75">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="103" t="s">
         <v>1894</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="91" t="str">
@@ -16315,23 +16337,23 @@
       <c r="O156" s="65"/>
     </row>
     <row r="157" spans="1:15" ht="15.75">
-      <c r="A157" s="99" t="s">
+      <c r="A157" s="103" t="s">
         <v>1894</v>
       </c>
-      <c r="B157" s="99"/>
-      <c r="C157" s="99"/>
-      <c r="D157" s="99"/>
-      <c r="E157" s="99"/>
-      <c r="F157" s="99"/>
-      <c r="G157" s="99"/>
-      <c r="H157" s="99"/>
-      <c r="I157" s="99"/>
-      <c r="J157" s="99"/>
-      <c r="K157" s="99"/>
-      <c r="L157" s="99"/>
-      <c r="M157" s="99"/>
-      <c r="N157" s="99"/>
-      <c r="O157" s="99"/>
+      <c r="B157" s="103"/>
+      <c r="C157" s="103"/>
+      <c r="D157" s="103"/>
+      <c r="E157" s="103"/>
+      <c r="F157" s="103"/>
+      <c r="G157" s="103"/>
+      <c r="H157" s="103"/>
+      <c r="I157" s="103"/>
+      <c r="J157" s="103"/>
+      <c r="K157" s="103"/>
+      <c r="L157" s="103"/>
+      <c r="M157" s="103"/>
+      <c r="N157" s="103"/>
+      <c r="O157" s="103"/>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="95">
@@ -25626,50 +25648,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="107" t="s">
         <v>1108</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="108" t="s">
         <v>1109</v>
       </c>
-      <c r="F1" s="104"/>
+      <c r="F1" s="108"/>
       <c r="G1" s="33" t="s">
         <v>1110</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="109" t="s">
         <v>1111</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="107" t="s">
+      <c r="I1" s="110"/>
+      <c r="J1" s="111" t="s">
         <v>1112</v>
       </c>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="108" t="s">
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="112" t="s">
         <v>1113</v>
       </c>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="109" t="s">
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="113" t="s">
         <v>1114</v>
       </c>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="100" t="s">
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="104" t="s">
         <v>1115</v>
       </c>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="101" t="s">
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="105" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -25753,7 +25775,7 @@
       <c r="AA2" s="41" t="s">
         <v>1128</v>
       </c>
-      <c r="AB2" s="102"/>
+      <c r="AB2" s="106"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="42" t="s">
@@ -56860,15 +56882,15 @@
       </c>
     </row>
     <row r="768" spans="1:7">
-      <c r="A768" s="110" t="s">
+      <c r="A768" s="114" t="s">
         <v>1908</v>
       </c>
-      <c r="B768" s="111"/>
-      <c r="C768" s="111"/>
-      <c r="D768" s="111"/>
-      <c r="E768" s="111"/>
-      <c r="F768" s="111"/>
-      <c r="G768" s="112"/>
+      <c r="B768" s="115"/>
+      <c r="C768" s="115"/>
+      <c r="D768" s="115"/>
+      <c r="E768" s="115"/>
+      <c r="F768" s="115"/>
+      <c r="G768" s="116"/>
     </row>
     <row r="769" spans="1:6">
       <c r="A769" s="72">
@@ -57570,7 +57592,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:A27"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -59812,13 +59834,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -59829,13 +59851,14 @@
     <col min="6" max="6" width="16.875" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.875" style="6"/>
-    <col min="10" max="11" width="11.125" style="116" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="8.875" style="1"/>
-    <col min="19" max="16384" width="8.875" style="6"/>
+    <col min="10" max="10" width="11.125" style="120" customWidth="1"/>
+    <col min="11" max="12" width="11.125" style="102" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="8.875" style="1"/>
+    <col min="20" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="78" t="s">
         <v>1849</v>
       </c>
@@ -59863,35 +59886,38 @@
       <c r="I1" s="78" t="s">
         <v>1856</v>
       </c>
-      <c r="J1" s="113" t="s">
+      <c r="J1" s="117" t="s">
+        <v>1964</v>
+      </c>
+      <c r="K1" s="99" t="s">
         <v>1857</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="L1" s="99" t="s">
         <v>1858</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="M1" s="78" t="s">
         <v>1896</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="N1" s="78" t="s">
         <v>1859</v>
       </c>
-      <c r="N1" s="78" t="s">
+      <c r="O1" s="78" t="s">
         <v>1860</v>
       </c>
-      <c r="O1" s="78" t="s">
+      <c r="P1" s="78" t="s">
         <v>1861</v>
       </c>
-      <c r="P1" s="78" t="s">
+      <c r="Q1" s="78" t="s">
         <v>1862</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="R1" s="78" t="s">
         <v>1863</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="S1" s="78" t="s">
         <v>1864</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -59919,38 +59945,41 @@
       <c r="I2" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="J2" s="114" t="s">
+      <c r="J2" s="118" t="s">
+        <v>1963</v>
+      </c>
+      <c r="K2" s="100" t="s">
         <v>1033</v>
       </c>
-      <c r="K2" s="114" t="s">
+      <c r="L2" s="100" t="s">
         <v>1034</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>1895</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>1838</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>1839</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>1840</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>1841</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>1842</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>1843</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>1845</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75">
+    <row r="3" spans="1:21" ht="15.75">
       <c r="A3" s="6">
         <v>20001</v>
       </c>
@@ -59978,21 +60007,21 @@
       <c r="I3" s="6">
         <v>200</v>
       </c>
-      <c r="J3" s="115" t="s">
+      <c r="J3" s="119">
+        <v>2</v>
+      </c>
+      <c r="K3" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="K3" s="115" t="s">
+      <c r="L3" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
       <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
@@ -60005,12 +60034,15 @@
       <c r="R3" s="1">
         <v>1</v>
       </c>
-      <c r="T3" s="6" t="str">
-        <f>IF(AND(A3&lt;&gt;"",B3&lt;&gt;""),"&lt;Accessory ID="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Index="""&amp;C3&amp;""" Name="""&amp;D3&amp;""" Icon="""&amp;E3&amp;""" Prefab="""&amp;F3&amp;""" Region="""&amp;G3&amp;""" Purchase="""&amp;H3&amp;""" Price="""&amp;I3&amp;""" StartTime="""&amp;J3&amp;""" EndTime="""&amp;K3&amp;""" Level="""&amp;L3&amp;""" PURPIE="""&amp;M3&amp;""" DONNY="""&amp;N3&amp;""" NINJI="""&amp;O3&amp;""" SANSA="""&amp;P3&amp;""" YOYO="""&amp;Q3&amp;""" NUO="""&amp;R3&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20001" Type="1" Index="1" Name="wizard hat" Icon="part_head_hat" Prefab="cap_point" Region="Dummy_head" Purchase="Coin" Price="200" StartTime="null" EndTime="null" Level="1" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75">
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6" t="str">
+        <f>IF(AND(A3&lt;&gt;"",B3&lt;&gt;""),"&lt;Accessory ID="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Index="""&amp;C3&amp;""" Name="""&amp;D3&amp;""" Icon="""&amp;E3&amp;""" Prefab="""&amp;F3&amp;""" Region="""&amp;G3&amp;""" Purchase="""&amp;H3&amp;""" Price="""&amp;I3&amp;""" Exp="""&amp;J3&amp;""" StartTime="""&amp;K3&amp;""" EndTime="""&amp;L3&amp;""" Level="""&amp;M3&amp;""" PURPIE="""&amp;N3&amp;""" DONNY="""&amp;O3&amp;""" NINJI="""&amp;P3&amp;""" SANSA="""&amp;Q3&amp;""" YOYO="""&amp;R3&amp;""" NUO="""&amp;S3&amp;""" /&gt;","")</f>
+        <v>&lt;Accessory ID="20001" Type="1" Index="1" Name="wizard hat" Icon="part_head_hat" Prefab="cap_point" Region="Dummy_head" Purchase="Coin" Price="200" Exp="2" StartTime="null" EndTime="null" Level="1" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75">
       <c r="A4" s="6">
         <v>20002</v>
       </c>
@@ -60038,18 +60070,18 @@
       <c r="I4" s="6">
         <v>1800</v>
       </c>
-      <c r="J4" s="115" t="s">
+      <c r="J4" s="119">
+        <v>18</v>
+      </c>
+      <c r="K4" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="K4" s="115" t="s">
+      <c r="L4" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>6</v>
       </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
       <c r="N4" s="1">
         <v>1</v>
       </c>
@@ -60065,12 +60097,15 @@
       <c r="R4" s="1">
         <v>1</v>
       </c>
-      <c r="T4" s="6" t="str">
-        <f t="shared" ref="T4:T10" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" Prefab="""&amp;F4&amp;""" Region="""&amp;G4&amp;""" Purchase="""&amp;H4&amp;""" Price="""&amp;I4&amp;""" StartTime="""&amp;J4&amp;""" EndTime="""&amp;K4&amp;""" Level="""&amp;L4&amp;""" PURPIE="""&amp;M4&amp;""" DONNY="""&amp;N4&amp;""" NINJI="""&amp;O4&amp;""" SANSA="""&amp;P4&amp;""" YOYO="""&amp;Q4&amp;""" NUO="""&amp;R4&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20002" Type="2" Index="6" Name="devil wing" Icon="part_wing_bat" Prefab="wing_point" Region="Dummy_wing" Purchase="Coin" Price="1800" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75">
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6" t="str">
+        <f t="shared" ref="U4:U10" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" Prefab="""&amp;F4&amp;""" Region="""&amp;G4&amp;""" Purchase="""&amp;H4&amp;""" Price="""&amp;I4&amp;""" Exp="""&amp;J4&amp;""" StartTime="""&amp;K4&amp;""" EndTime="""&amp;L4&amp;""" Level="""&amp;M4&amp;""" PURPIE="""&amp;N4&amp;""" DONNY="""&amp;O4&amp;""" NINJI="""&amp;P4&amp;""" SANSA="""&amp;Q4&amp;""" YOYO="""&amp;R4&amp;""" NUO="""&amp;S4&amp;""" /&gt;","")</f>
+        <v>&lt;Accessory ID="20002" Type="2" Index="6" Name="devil wing" Icon="part_wing_bat" Prefab="wing_point" Region="Dummy_wing" Purchase="Coin" Price="1800" Exp="18" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75">
       <c r="A5" s="6">
         <v>20003</v>
       </c>
@@ -60098,24 +60133,24 @@
       <c r="I5" s="6">
         <v>800</v>
       </c>
-      <c r="J5" s="115" t="s">
+      <c r="J5" s="119">
+        <v>8</v>
+      </c>
+      <c r="K5" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="K5" s="115" t="s">
+      <c r="L5" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -60125,12 +60160,15 @@
       <c r="R5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="6" t="str">
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20003" Type="5" Index="3" Name="ghost" Icon="elf_up_ghost" Prefab="ghost" Region="Host" Purchase="Coin" Price="800" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="0" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75">
+        <v>&lt;Accessory ID="20003" Type="5" Index="3" Name="ghost" Icon="elf_up_ghost" Prefab="ghost" Region="TopLeft" Purchase="Coin" Price="800" Exp="8" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="0" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75">
       <c r="A6" s="6">
         <v>20004</v>
       </c>
@@ -60150,7 +60188,7 @@
         <v>1954</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>1874</v>
@@ -60158,15 +60196,15 @@
       <c r="I6" s="6">
         <v>300</v>
       </c>
-      <c r="J6" s="115" t="s">
+      <c r="J6" s="119">
+        <v>3</v>
+      </c>
+      <c r="K6" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="K6" s="115" t="s">
+      <c r="L6" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
@@ -60174,23 +60212,26 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
       <c r="Q6" s="1">
         <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="6" t="str">
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20004" Type="5" Index="2" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="Host" Purchase="Coin" Price="300" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="0" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75">
+        <v>&lt;Accessory ID="20004" Type="5" Index="2" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="BottomRight" Purchase="Coin" Price="300" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="0" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75">
       <c r="A7" s="6">
         <v>20005</v>
       </c>
@@ -60218,15 +60259,15 @@
       <c r="I7" s="6">
         <v>1.99</v>
       </c>
-      <c r="J7" s="115" t="s">
+      <c r="J7" s="119">
+        <v>19</v>
+      </c>
+      <c r="K7" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="K7" s="115" t="s">
+      <c r="L7" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
@@ -60245,12 +60286,15 @@
       <c r="R7" s="1">
         <v>1</v>
       </c>
-      <c r="T7" s="6" t="str">
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20005" Type="5" Index="4" Name="snow cloud" Icon="elf_up_cloud" Prefab="cloud_snow" Region="Host" Purchase="Cash" Price="1.99" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75">
+        <v>&lt;Accessory ID="20005" Type="5" Index="4" Name="snow cloud" Icon="elf_up_cloud" Prefab="cloud_snow" Region="TopLeft" Purchase="Cash" Price="1.99" Exp="19" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75">
       <c r="A8" s="6">
         <v>20006</v>
       </c>
@@ -60278,15 +60322,15 @@
       <c r="I8" s="6">
         <v>1000</v>
       </c>
-      <c r="J8" s="115" t="s">
+      <c r="J8" s="119">
+        <v>10</v>
+      </c>
+      <c r="K8" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="K8" s="115" t="s">
+      <c r="L8" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
@@ -60297,20 +60341,23 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
         <v>0</v>
       </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
       <c r="R8" s="1">
         <v>1</v>
       </c>
-      <c r="T8" s="6" t="str">
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20006" Type="2" Index="5" Name="snow wing" Icon="part_wing_snow" Prefab="wing_snow" Region="Dummy_wing" Purchase="Coin" Price="1000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="0" YOYO="1" NUO="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75">
+        <v>&lt;Accessory ID="20006" Type="2" Index="5" Name="snow wing" Icon="part_wing_snow" Prefab="wing_snow" Region="Dummy_wing" Purchase="Coin" Price="1000" Exp="10" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="0" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75">
       <c r="A9" s="6">
         <v>20007</v>
       </c>
@@ -60338,15 +60385,15 @@
       <c r="I9" s="6">
         <v>2000</v>
       </c>
-      <c r="J9" s="115" t="s">
+      <c r="J9" s="119">
+        <v>20</v>
+      </c>
+      <c r="K9" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="K9" s="115" t="s">
+      <c r="L9" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
@@ -60360,17 +60407,20 @@
         <v>1</v>
       </c>
       <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="R9" s="1">
-        <v>1</v>
-      </c>
-      <c r="T9" s="6" t="str">
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20007" Type="1" Index="7" Name="cornu cervi" Icon="part_head_antler" Prefab="cornu cervi_point" Region="Dummy_head" Purchase="Coin" Price="2000" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="0" NUO="1" /&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75">
+        <v>&lt;Accessory ID="20007" Type="1" Index="7" Name="cornu cervi" Icon="part_head_antler" Prefab="cornu cervi_point" Region="Dummy_head" Purchase="Coin" Price="2000" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="0" NUO="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75">
       <c r="A10" s="6">
         <v>20008</v>
       </c>
@@ -60390,7 +60440,7 @@
         <v>1957</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>1875</v>
@@ -60398,21 +60448,21 @@
       <c r="I10" s="6">
         <v>500</v>
       </c>
-      <c r="J10" s="115" t="s">
+      <c r="J10" s="119">
+        <v>5</v>
+      </c>
+      <c r="K10" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="K10" s="115" t="s">
+      <c r="L10" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>10</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
       <c r="O10" s="1">
         <v>1</v>
       </c>
@@ -60423,11 +60473,14 @@
         <v>1</v>
       </c>
       <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
         <v>0</v>
       </c>
-      <c r="T10" s="6" t="str">
+      <c r="U10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20008" Type="5" Index="8" Name="snowman" Icon="elf_down_snowman" Prefab="snowman" Region="Host" Purchase="Coin" Price="500" StartTime="null" EndTime="null" Level="10" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="0" /&gt;</v>
+        <v>&lt;Accessory ID="20008" Type="5" Index="8" Name="snowman" Icon="elf_down_snowman" Prefab="snowman" Region="BottomRight" Purchase="Coin" Price="500" Exp="5" StartTime="null" EndTime="null" Level="10" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="0" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADABD87F-6F58-4B55-8F47-0407E9706386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B630F9-E345-4903-AEDE-AD68E81CC53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3472" uniqueCount="1965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="1975">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6612,6 +6612,41 @@
   </si>
   <si>
     <t>获得经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall_change_item</t>
+  </si>
+  <si>
+    <t>mall_put_on_accessory</t>
+  </si>
+  <si>
+    <t>mall_take_off_accessory</t>
+  </si>
+  <si>
+    <t>mall_spirit_in</t>
+  </si>
+  <si>
+    <t>mall_spirit_out</t>
+  </si>
+  <si>
+    <t>换装页切换配饰/小精灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装页穿上配饰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装页脱下配饰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装页小精灵出场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装页小精灵退场</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7422,6 +7457,18 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7464,24 +7511,117 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="76">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7918,44 +8058,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_32" displayName="表1_32" ref="B1:S83" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_32" displayName="表1_32" ref="B1:S83" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="B1:S83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Background" dataDxfId="56"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Model" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NimIcon" dataDxfId="54"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="QuestId" dataDxfId="53"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="dailyGoalPercent" dataDxfId="52"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="AwardCoin" dataDxfId="51"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="BGM" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sound" dataDxfId="49"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="WaterDrop" dataDxfId="48"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="WaterDropAudio" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Box1 ID" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Box1 Height" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Box2 ID" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Box2 Height" dataDxfId="43"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="输出" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Background" dataDxfId="71"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Model" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NimIcon" dataDxfId="69"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="QuestId" dataDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="dailyGoalPercent" dataDxfId="67"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="AwardCoin" dataDxfId="66"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="BGM" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sound" dataDxfId="64"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="WaterDrop" dataDxfId="63"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="WaterDropAudio" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Box1 ID" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Box1 Height" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Box2 ID" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Box2 Height" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="输出" dataDxfId="57">
       <calculatedColumnFormula>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;""" WaterDropAudio="""&amp;M2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N2&amp;""" Height="""&amp;O2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P2&amp;""" Height="""&amp;Q2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="输入" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="输入" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_34" displayName="表1_34" ref="B1:G1048477" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_34" displayName="表1_34" ref="B1:G1048477" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="B1:G1048477" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ItemId" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Value" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="输出" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="51"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ItemId" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Value" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="输出" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8542,23 +8682,23 @@
       <c r="O9" s="81"/>
     </row>
     <row r="10" spans="1:15" ht="15.75">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="107" t="s">
         <v>1894</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="91" t="str">
@@ -16337,23 +16477,23 @@
       <c r="O156" s="65"/>
     </row>
     <row r="157" spans="1:15" ht="15.75">
-      <c r="A157" s="103" t="s">
+      <c r="A157" s="107" t="s">
         <v>1894</v>
       </c>
-      <c r="B157" s="103"/>
-      <c r="C157" s="103"/>
-      <c r="D157" s="103"/>
-      <c r="E157" s="103"/>
-      <c r="F157" s="103"/>
-      <c r="G157" s="103"/>
-      <c r="H157" s="103"/>
-      <c r="I157" s="103"/>
-      <c r="J157" s="103"/>
-      <c r="K157" s="103"/>
-      <c r="L157" s="103"/>
-      <c r="M157" s="103"/>
-      <c r="N157" s="103"/>
-      <c r="O157" s="103"/>
+      <c r="B157" s="107"/>
+      <c r="C157" s="107"/>
+      <c r="D157" s="107"/>
+      <c r="E157" s="107"/>
+      <c r="F157" s="107"/>
+      <c r="G157" s="107"/>
+      <c r="H157" s="107"/>
+      <c r="I157" s="107"/>
+      <c r="J157" s="107"/>
+      <c r="K157" s="107"/>
+      <c r="L157" s="107"/>
+      <c r="M157" s="107"/>
+      <c r="N157" s="107"/>
+      <c r="O157" s="107"/>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="95">
@@ -25648,50 +25788,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="111" t="s">
         <v>1108</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="112" t="s">
         <v>1109</v>
       </c>
-      <c r="F1" s="108"/>
+      <c r="F1" s="112"/>
       <c r="G1" s="33" t="s">
         <v>1110</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="113" t="s">
         <v>1111</v>
       </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="111" t="s">
+      <c r="I1" s="114"/>
+      <c r="J1" s="115" t="s">
         <v>1112</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="112" t="s">
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="116" t="s">
         <v>1113</v>
       </c>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="113" t="s">
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="117" t="s">
         <v>1114</v>
       </c>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="104" t="s">
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="108" t="s">
         <v>1115</v>
       </c>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="105" t="s">
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="109" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -25775,7 +25915,7 @@
       <c r="AA2" s="41" t="s">
         <v>1128</v>
       </c>
-      <c r="AB2" s="106"/>
+      <c r="AB2" s="110"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="42" t="s">
@@ -35398,11 +35538,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G812"/>
+  <dimension ref="A1:G827"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A783" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B788" sqref="B788"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A804" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A813" sqref="A813:XFD813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -56882,15 +57022,15 @@
       </c>
     </row>
     <row r="768" spans="1:7">
-      <c r="A768" s="114" t="s">
+      <c r="A768" s="118" t="s">
         <v>1908</v>
       </c>
-      <c r="B768" s="115"/>
-      <c r="C768" s="115"/>
-      <c r="D768" s="115"/>
-      <c r="E768" s="115"/>
-      <c r="F768" s="115"/>
-      <c r="G768" s="116"/>
+      <c r="B768" s="119"/>
+      <c r="C768" s="119"/>
+      <c r="D768" s="119"/>
+      <c r="E768" s="119"/>
+      <c r="F768" s="119"/>
+      <c r="G768" s="120"/>
     </row>
     <row r="769" spans="1:6">
       <c r="A769" s="72">
@@ -57450,6 +57590,201 @@
       </c>
       <c r="F812" s="73" t="str">
         <f>IF(A812=1,"&lt;Sound Type="""&amp;B812&amp;""" Storage="""&amp;C812&amp;""" Dec="""&amp;D812&amp;"""&gt;",IF(A812=2,"  &lt;Clip SoundPath="""&amp;E812&amp;""" /&gt;",IF(A812=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6">
+      <c r="A813" s="72">
+        <v>1</v>
+      </c>
+      <c r="B813" s="73" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C813" s="73" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D813" s="73" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F813" s="73" t="str">
+        <f>IF(A813=1,"&lt;Sound Type="""&amp;B813&amp;""" Storage="""&amp;C813&amp;""" Dec="""&amp;D813&amp;"""&gt;",IF(A813=2,"  &lt;Clip SoundPath="""&amp;E813&amp;""" /&gt;",IF(A813=3,G813,"")))</f>
+        <v>&lt;Sound Type="mall_change_item" Storage="Remote" Dec="换装页切换配饰/小精灵"&gt;</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6">
+      <c r="A814" s="72">
+        <v>2</v>
+      </c>
+      <c r="E814" s="73" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F814" s="73" t="str">
+        <f t="shared" ref="F814" si="97">IF(A814=1,"&lt;Sound Type="""&amp;B814&amp;""" Storage="""&amp;C814&amp;""" Dec="""&amp;D814&amp;"""&gt;",IF(A814=2,"  &lt;Clip SoundPath="""&amp;E814&amp;""" /&gt;",IF(A814=3,G814,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_change_item" /&gt;</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6">
+      <c r="A815" s="72">
+        <v>3</v>
+      </c>
+      <c r="F815" s="73" t="str">
+        <f>IF(A815=1,"&lt;Sound Type="""&amp;B815&amp;""" Storage="""&amp;C815&amp;""" Dec="""&amp;D815&amp;"""&gt;",IF(A815=2,"  &lt;Clip SoundPath="""&amp;E815&amp;""" /&gt;",IF(A815=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6">
+      <c r="A816" s="72">
+        <v>1</v>
+      </c>
+      <c r="B816" s="73" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C816" s="73" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D816" s="73" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F816" s="73" t="str">
+        <f>IF(A816=1,"&lt;Sound Type="""&amp;B816&amp;""" Storage="""&amp;C816&amp;""" Dec="""&amp;D816&amp;"""&gt;",IF(A816=2,"  &lt;Clip SoundPath="""&amp;E816&amp;""" /&gt;",IF(A816=3,G816,"")))</f>
+        <v>&lt;Sound Type="mall_put_on_accessory" Storage="Remote" Dec="换装页穿上配饰"&gt;</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6">
+      <c r="A817" s="72">
+        <v>2</v>
+      </c>
+      <c r="E817" s="73" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F817" s="73" t="str">
+        <f t="shared" ref="F817" si="98">IF(A817=1,"&lt;Sound Type="""&amp;B817&amp;""" Storage="""&amp;C817&amp;""" Dec="""&amp;D817&amp;"""&gt;",IF(A817=2,"  &lt;Clip SoundPath="""&amp;E817&amp;""" /&gt;",IF(A817=3,G817,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_put_on_accessory" /&gt;</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6">
+      <c r="A818" s="72">
+        <v>3</v>
+      </c>
+      <c r="F818" s="73" t="str">
+        <f>IF(A818=1,"&lt;Sound Type="""&amp;B818&amp;""" Storage="""&amp;C818&amp;""" Dec="""&amp;D818&amp;"""&gt;",IF(A818=2,"  &lt;Clip SoundPath="""&amp;E818&amp;""" /&gt;",IF(A818=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6">
+      <c r="A819" s="72">
+        <v>1</v>
+      </c>
+      <c r="B819" s="73" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C819" s="73" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D819" s="73" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F819" s="73" t="str">
+        <f>IF(A819=1,"&lt;Sound Type="""&amp;B819&amp;""" Storage="""&amp;C819&amp;""" Dec="""&amp;D819&amp;"""&gt;",IF(A819=2,"  &lt;Clip SoundPath="""&amp;E819&amp;""" /&gt;",IF(A819=3,G819,"")))</f>
+        <v>&lt;Sound Type="mall_take_off_accessory" Storage="Remote" Dec="换装页脱下配饰"&gt;</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6">
+      <c r="A820" s="72">
+        <v>2</v>
+      </c>
+      <c r="E820" s="73" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F820" s="73" t="str">
+        <f t="shared" ref="F820" si="99">IF(A820=1,"&lt;Sound Type="""&amp;B820&amp;""" Storage="""&amp;C820&amp;""" Dec="""&amp;D820&amp;"""&gt;",IF(A820=2,"  &lt;Clip SoundPath="""&amp;E820&amp;""" /&gt;",IF(A820=3,G820,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_take_off_accessory" /&gt;</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6">
+      <c r="A821" s="72">
+        <v>3</v>
+      </c>
+      <c r="F821" s="73" t="str">
+        <f>IF(A821=1,"&lt;Sound Type="""&amp;B821&amp;""" Storage="""&amp;C821&amp;""" Dec="""&amp;D821&amp;"""&gt;",IF(A821=2,"  &lt;Clip SoundPath="""&amp;E821&amp;""" /&gt;",IF(A821=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6">
+      <c r="A822" s="72">
+        <v>1</v>
+      </c>
+      <c r="B822" s="73" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C822" s="73" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D822" s="73" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F822" s="73" t="str">
+        <f>IF(A822=1,"&lt;Sound Type="""&amp;B822&amp;""" Storage="""&amp;C822&amp;""" Dec="""&amp;D822&amp;"""&gt;",IF(A822=2,"  &lt;Clip SoundPath="""&amp;E822&amp;""" /&gt;",IF(A822=3,G822,"")))</f>
+        <v>&lt;Sound Type="mall_spirit_in" Storage="Remote" Dec="换装页小精灵出场"&gt;</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6">
+      <c r="A823" s="72">
+        <v>2</v>
+      </c>
+      <c r="E823" s="73" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F823" s="73" t="str">
+        <f t="shared" ref="F823" si="100">IF(A823=1,"&lt;Sound Type="""&amp;B823&amp;""" Storage="""&amp;C823&amp;""" Dec="""&amp;D823&amp;"""&gt;",IF(A823=2,"  &lt;Clip SoundPath="""&amp;E823&amp;""" /&gt;",IF(A823=3,G823,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_spirit_in" /&gt;</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6">
+      <c r="A824" s="72">
+        <v>3</v>
+      </c>
+      <c r="F824" s="73" t="str">
+        <f>IF(A824=1,"&lt;Sound Type="""&amp;B824&amp;""" Storage="""&amp;C824&amp;""" Dec="""&amp;D824&amp;"""&gt;",IF(A824=2,"  &lt;Clip SoundPath="""&amp;E824&amp;""" /&gt;",IF(A824=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6">
+      <c r="A825" s="72">
+        <v>1</v>
+      </c>
+      <c r="B825" s="73" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C825" s="73" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D825" s="73" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F825" s="73" t="str">
+        <f>IF(A825=1,"&lt;Sound Type="""&amp;B825&amp;""" Storage="""&amp;C825&amp;""" Dec="""&amp;D825&amp;"""&gt;",IF(A825=2,"  &lt;Clip SoundPath="""&amp;E825&amp;""" /&gt;",IF(A825=3,G825,"")))</f>
+        <v>&lt;Sound Type="mall_spirit_out" Storage="Remote" Dec="换装页小精灵退场"&gt;</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6">
+      <c r="A826" s="72">
+        <v>2</v>
+      </c>
+      <c r="E826" s="73" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F826" s="73" t="str">
+        <f t="shared" ref="F826" si="101">IF(A826=1,"&lt;Sound Type="""&amp;B826&amp;""" Storage="""&amp;C826&amp;""" Dec="""&amp;D826&amp;"""&gt;",IF(A826=2,"  &lt;Clip SoundPath="""&amp;E826&amp;""" /&gt;",IF(A826=3,G826,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_spirit_out" /&gt;</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6">
+      <c r="A827" s="72">
+        <v>3</v>
+      </c>
+      <c r="F827" s="73" t="str">
+        <f>IF(A827=1,"&lt;Sound Type="""&amp;B827&amp;""" Storage="""&amp;C827&amp;""" Dec="""&amp;D827&amp;"""&gt;",IF(A827=2,"  &lt;Clip SoundPath="""&amp;E827&amp;""" /&gt;",IF(A827=3,"&lt;/Sound&gt;","")))</f>
         <v>&lt;/Sound&gt;</v>
       </c>
     </row>
@@ -57458,53 +57793,108 @@
     <mergeCell ref="A768:G768"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A813:G1048576">
-    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="&lt;!--">
+  <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A828:G1048576">
+    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="38">
+    <cfRule type="expression" dxfId="46" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="39">
+    <cfRule type="expression" dxfId="45" priority="54">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:G27 A28:F28">
-    <cfRule type="containsText" dxfId="29" priority="34" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="35">
+    <cfRule type="expression" dxfId="43" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="36">
+    <cfRule type="expression" dxfId="42" priority="51">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="41" priority="46" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="32">
+    <cfRule type="expression" dxfId="40" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="33">
+    <cfRule type="expression" dxfId="39" priority="48">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A434:G436">
-    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A434)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="29">
+    <cfRule type="expression" dxfId="37" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="30">
+    <cfRule type="expression" dxfId="36" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791:G792 A797:G797 A793:D795 F793:G795 E793:E796">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="36">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A796:D796 F796:G796">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="33">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A798:G800">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="30">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A801:G803">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="27">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A804:G806">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="24">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A807:G809">
     <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
@@ -57513,9 +57903,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A796:D796 F796:G796">
+  <conditionalFormatting sqref="A810:G812">
     <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
@@ -57524,9 +57914,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A798:G800">
+  <conditionalFormatting sqref="A813:G815">
     <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A813)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
@@ -57535,9 +57925,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A801:G803">
+  <conditionalFormatting sqref="A816:G818">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A816)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
@@ -57546,9 +57936,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A804:G806">
+  <conditionalFormatting sqref="A819:G821">
     <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A819)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
@@ -57557,9 +57947,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A807:G809">
+  <conditionalFormatting sqref="A822:G824">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A822)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
@@ -57568,9 +57958,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A810:G812">
+  <conditionalFormatting sqref="A825:G827">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A825)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
@@ -59836,7 +60226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -59851,7 +60241,7 @@
     <col min="6" max="6" width="16.875" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.875" style="6"/>
-    <col min="10" max="10" width="11.125" style="120" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="106" customWidth="1"/>
     <col min="11" max="12" width="11.125" style="102" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="8.875" style="1"/>
@@ -59886,7 +60276,7 @@
       <c r="I1" s="78" t="s">
         <v>1856</v>
       </c>
-      <c r="J1" s="117" t="s">
+      <c r="J1" s="103" t="s">
         <v>1964</v>
       </c>
       <c r="K1" s="99" t="s">
@@ -59945,7 +60335,7 @@
       <c r="I2" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="J2" s="118" t="s">
+      <c r="J2" s="104" t="s">
         <v>1963</v>
       </c>
       <c r="K2" s="100" t="s">
@@ -60007,7 +60397,7 @@
       <c r="I3" s="6">
         <v>200</v>
       </c>
-      <c r="J3" s="119">
+      <c r="J3" s="105">
         <v>2</v>
       </c>
       <c r="K3" s="101" t="s">
@@ -60070,7 +60460,7 @@
       <c r="I4" s="6">
         <v>1800</v>
       </c>
-      <c r="J4" s="119">
+      <c r="J4" s="105">
         <v>18</v>
       </c>
       <c r="K4" s="101" t="s">
@@ -60133,7 +60523,7 @@
       <c r="I5" s="6">
         <v>800</v>
       </c>
-      <c r="J5" s="119">
+      <c r="J5" s="105">
         <v>8</v>
       </c>
       <c r="K5" s="101" t="s">
@@ -60196,7 +60586,7 @@
       <c r="I6" s="6">
         <v>300</v>
       </c>
-      <c r="J6" s="119">
+      <c r="J6" s="105">
         <v>3</v>
       </c>
       <c r="K6" s="101" t="s">
@@ -60259,7 +60649,7 @@
       <c r="I7" s="6">
         <v>1.99</v>
       </c>
-      <c r="J7" s="119">
+      <c r="J7" s="105">
         <v>19</v>
       </c>
       <c r="K7" s="101" t="s">
@@ -60322,7 +60712,7 @@
       <c r="I8" s="6">
         <v>1000</v>
       </c>
-      <c r="J8" s="119">
+      <c r="J8" s="105">
         <v>10</v>
       </c>
       <c r="K8" s="101" t="s">
@@ -60385,7 +60775,7 @@
       <c r="I9" s="6">
         <v>2000</v>
       </c>
-      <c r="J9" s="119">
+      <c r="J9" s="105">
         <v>20</v>
       </c>
       <c r="K9" s="101" t="s">
@@ -60448,7 +60838,7 @@
       <c r="I10" s="6">
         <v>500</v>
       </c>
-      <c r="J10" s="119">
+      <c r="J10" s="105">
         <v>5</v>
       </c>
       <c r="K10" s="101" t="s">

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B630F9-E345-4903-AEDE-AD68E81CC53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D19FCE-01BE-42EA-B1A5-72477C2F5725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -374,9 +374,10 @@
 2-背部
 3-两侧
 4-套装
-5-精灵
-6-纹身
-7-背景
+5-精灵上
+6-精灵下
+7-纹身
+8-背景
 </t>
         </r>
       </text>
@@ -35540,7 +35541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G827"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A804" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A813" sqref="A813:XFD813"/>
     </sheetView>
@@ -60226,11 +60227,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3:U10"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -60563,7 +60564,7 @@
         <v>20004</v>
       </c>
       <c r="B6" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -60618,7 +60619,7 @@
       </c>
       <c r="U6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20004" Type="5" Index="2" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="BottomRight" Purchase="Coin" Price="300" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="0" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20004" Type="6" Index="2" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="BottomRight" Purchase="Coin" Price="300" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="0" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75">
@@ -60815,7 +60816,7 @@
         <v>20008</v>
       </c>
       <c r="B10" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6">
         <v>8</v>
@@ -60870,7 +60871,7 @@
       </c>
       <c r="U10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20008" Type="5" Index="8" Name="snowman" Icon="elf_down_snowman" Prefab="snowman" Region="BottomRight" Purchase="Coin" Price="500" Exp="5" StartTime="null" EndTime="null" Level="10" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="0" /&gt;</v>
+        <v>&lt;Accessory ID="20008" Type="6" Index="8" Name="snowman" Icon="elf_down_snowman" Prefab="snowman" Region="BottomRight" Purchase="Coin" Price="500" Exp="5" StartTime="null" EndTime="null" Level="10" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="0" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C140FEC0-90A2-4C6A-9DE8-9B07913220DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C09374B-8F67-46C4-9984-CEFFF573B6A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -6914,7 +6914,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7044,6 +7044,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0C1FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD5FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7284,7 +7296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7635,6 +7647,25 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8111,15 +8142,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEAD5FF"/>
+      <color rgb="FFEEDDFF"/>
+      <color rgb="FFE0C1FF"/>
       <color rgb="FFFFAFAF"/>
       <color rgb="FFFFFF5B"/>
       <color rgb="FFFFFFA7"/>
-      <color rgb="FFE0C1FF"/>
       <color rgb="FF007635"/>
       <color rgb="FFC7EB53"/>
       <color rgb="FF5BD4FF"/>
       <color rgb="FF3BABFF"/>
-      <color rgb="FFC4E59F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -8212,8 +8244,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_34" displayName="表1_34" ref="B1:G1048477" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="B1:G1048477" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_34" displayName="表1_34" ref="B1:G1048485" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="B1:G1048485" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="53"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="52"/>
@@ -8489,11 +8521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O169"/>
+  <dimension ref="A1:O174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A157" sqref="A157:O157"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -17003,6 +17035,166 @@
         <v>&lt;Item Id="69015" Type="6" Name="meatball" getImage="food_meatball" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
       <c r="O169" s="75"/>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170" s="125">
+        <f>ItemFood!B28</f>
+        <v>69016</v>
+      </c>
+      <c r="B170" s="126">
+        <f>ItemFood!C20</f>
+        <v>6</v>
+      </c>
+      <c r="C170" s="127" t="str">
+        <f>ItemFood!D28</f>
+        <v>cake</v>
+      </c>
+      <c r="D170" s="127" t="str">
+        <f>ItemFood!S28</f>
+        <v>food_cake</v>
+      </c>
+      <c r="E170" s="128"/>
+      <c r="F170" s="128"/>
+      <c r="G170" s="128"/>
+      <c r="H170" s="128"/>
+      <c r="I170" s="129"/>
+      <c r="J170" s="128"/>
+      <c r="K170" s="128"/>
+      <c r="L170" s="129"/>
+      <c r="M170" s="128"/>
+      <c r="N170" s="127" t="str">
+        <f t="shared" ref="N170:N174" si="23">"&lt;Item Id="""&amp;A170&amp;""" Type="""&amp;B170&amp;""" Name="""&amp;C170&amp;""" getImage="""&amp;D170&amp;""" Icon="""&amp;E170&amp;""" StoryBg="""&amp;F170&amp;""" AudioId="""&amp;G170&amp;""" Description="""&amp;H170&amp;""" PetType="""&amp;I170&amp;""" Image="""&amp;J170&amp;""" Audio="""&amp;K170&amp;""" Animation="""&amp;L170&amp;""" Preview="""&amp;M170&amp;"""/&gt;"</f>
+        <v>&lt;Item Id="69016" Type="6" Name="cake" getImage="food_cake" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+      </c>
+      <c r="O170" s="130"/>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171" s="125">
+        <f>ItemFood!B29</f>
+        <v>69017</v>
+      </c>
+      <c r="B171" s="126">
+        <f>ItemFood!C21</f>
+        <v>6</v>
+      </c>
+      <c r="C171" s="127" t="str">
+        <f>ItemFood!D29</f>
+        <v>candy</v>
+      </c>
+      <c r="D171" s="127" t="str">
+        <f>ItemFood!S29</f>
+        <v>food_candy</v>
+      </c>
+      <c r="E171" s="128"/>
+      <c r="F171" s="128"/>
+      <c r="G171" s="128"/>
+      <c r="H171" s="128"/>
+      <c r="I171" s="129"/>
+      <c r="J171" s="128"/>
+      <c r="K171" s="128"/>
+      <c r="L171" s="129"/>
+      <c r="M171" s="128"/>
+      <c r="N171" s="127" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;Item Id="69017" Type="6" Name="candy" getImage="food_candy" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+      </c>
+      <c r="O171" s="130"/>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" s="125">
+        <f>ItemFood!B30</f>
+        <v>69018</v>
+      </c>
+      <c r="B172" s="126">
+        <f>ItemFood!C22</f>
+        <v>6</v>
+      </c>
+      <c r="C172" s="127" t="str">
+        <f>ItemFood!D30</f>
+        <v>chicken</v>
+      </c>
+      <c r="D172" s="127" t="str">
+        <f>ItemFood!S30</f>
+        <v>food_chicken</v>
+      </c>
+      <c r="E172" s="128"/>
+      <c r="F172" s="128"/>
+      <c r="G172" s="128"/>
+      <c r="H172" s="128"/>
+      <c r="I172" s="129"/>
+      <c r="J172" s="128"/>
+      <c r="K172" s="128"/>
+      <c r="L172" s="129"/>
+      <c r="M172" s="128"/>
+      <c r="N172" s="127" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;Item Id="69018" Type="6" Name="chicken" getImage="food_chicken" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+      </c>
+      <c r="O172" s="130"/>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" s="125">
+        <f>ItemFood!B31</f>
+        <v>69019</v>
+      </c>
+      <c r="B173" s="126">
+        <f>ItemFood!C23</f>
+        <v>6</v>
+      </c>
+      <c r="C173" s="127" t="str">
+        <f>ItemFood!D31</f>
+        <v>ginger bread</v>
+      </c>
+      <c r="D173" s="127" t="str">
+        <f>ItemFood!S31</f>
+        <v>food_gingerbread</v>
+      </c>
+      <c r="E173" s="128"/>
+      <c r="F173" s="128"/>
+      <c r="G173" s="128"/>
+      <c r="H173" s="128"/>
+      <c r="I173" s="129"/>
+      <c r="J173" s="128"/>
+      <c r="K173" s="128"/>
+      <c r="L173" s="129"/>
+      <c r="M173" s="128"/>
+      <c r="N173" s="127" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;Item Id="69019" Type="6" Name="ginger bread" getImage="food_gingerbread" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+      </c>
+      <c r="O173" s="130"/>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174" s="125">
+        <f>ItemFood!B32</f>
+        <v>69020</v>
+      </c>
+      <c r="B174" s="126">
+        <f>ItemFood!C24</f>
+        <v>6</v>
+      </c>
+      <c r="C174" s="127" t="str">
+        <f>ItemFood!D32</f>
+        <v>pudding</v>
+      </c>
+      <c r="D174" s="127" t="str">
+        <f>ItemFood!S32</f>
+        <v>food_pudding</v>
+      </c>
+      <c r="E174" s="128"/>
+      <c r="F174" s="128"/>
+      <c r="G174" s="128"/>
+      <c r="H174" s="128"/>
+      <c r="I174" s="129"/>
+      <c r="J174" s="128"/>
+      <c r="K174" s="128"/>
+      <c r="L174" s="129"/>
+      <c r="M174" s="128"/>
+      <c r="N174" s="127" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;Item Id="69020" Type="6" Name="pudding" getImage="food_pudding" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
+      </c>
+      <c r="O174" s="130"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -17225,7 +17417,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L80" sqref="L80"/>
+      <selection pane="bottomRight" activeCell="N80" sqref="N80:P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -22467,11 +22659,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G156" sqref="G156:G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -25231,7 +25423,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="11" t="str">
-        <f t="shared" ref="G131:G163" si="2">IF(B131&lt;&gt;"","&lt;TreasureBox Id="""&amp;B131&amp;""" Type="""&amp;C131&amp;""" Name="""&amp;D131&amp;"""&gt;"&amp;CHAR(10)&amp;" &lt;Treasure ItemId="""&amp;E131&amp;""" Value="""&amp;F131&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/TreasureBox&gt;","")</f>
+        <f t="shared" ref="G131:G171" si="2">IF(B131&lt;&gt;"","&lt;TreasureBox Id="""&amp;B131&amp;""" Type="""&amp;C131&amp;""" Name="""&amp;D131&amp;"""&gt;"&amp;CHAR(10)&amp;" &lt;Treasure ItemId="""&amp;E131&amp;""" Value="""&amp;F131&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/TreasureBox&gt;","")</f>
         <v>&lt;TreasureBox Id="10130" Type="1" Name=""&gt;
  &lt;Treasure ItemId="40150" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
@@ -25742,335 +25934,503 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="47"/>
+      <c r="A156" s="131"/>
       <c r="B156" s="7">
-        <v>91001</v>
+        <v>81009</v>
       </c>
       <c r="C156" s="1">
         <v>2</v>
       </c>
       <c r="E156" s="6">
+        <v>69016</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+      <c r="G156" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;TreasureBox Id="81009" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69016" Value="1" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="131"/>
+      <c r="B157" s="7">
+        <v>81010</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2</v>
+      </c>
+      <c r="E157" s="6">
+        <v>69016</v>
+      </c>
+      <c r="F157" s="1">
+        <v>3</v>
+      </c>
+      <c r="G157" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;TreasureBox Id="81010" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69016" Value="3" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="131"/>
+      <c r="B158" s="7">
+        <v>81011</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2</v>
+      </c>
+      <c r="E158" s="6">
+        <v>69017</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1</v>
+      </c>
+      <c r="G158" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;TreasureBox Id="81011" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69017" Value="1" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="131"/>
+      <c r="B159" s="7">
+        <v>81012</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2</v>
+      </c>
+      <c r="E159" s="6">
+        <v>69017</v>
+      </c>
+      <c r="F159" s="1">
+        <v>3</v>
+      </c>
+      <c r="G159" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;TreasureBox Id="81012" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69017" Value="3" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="131"/>
+      <c r="B160" s="7">
+        <v>81013</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2</v>
+      </c>
+      <c r="E160" s="6">
+        <v>69018</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1</v>
+      </c>
+      <c r="G160" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;TreasureBox Id="81013" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69018" Value="1" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="131"/>
+      <c r="B161" s="7">
+        <v>81014</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2</v>
+      </c>
+      <c r="E161" s="6">
+        <v>69018</v>
+      </c>
+      <c r="F161" s="1">
+        <v>3</v>
+      </c>
+      <c r="G161" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;TreasureBox Id="81014" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69018" Value="3" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="131"/>
+      <c r="B162" s="7">
+        <v>81015</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2</v>
+      </c>
+      <c r="E162" s="6">
+        <v>69019</v>
+      </c>
+      <c r="F162" s="1">
+        <v>3</v>
+      </c>
+      <c r="G162" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;TreasureBox Id="81015" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69019" Value="3" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="131"/>
+      <c r="B163" s="7">
+        <v>81016</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2</v>
+      </c>
+      <c r="E163" s="6">
+        <v>69020</v>
+      </c>
+      <c r="F163" s="1">
+        <v>3</v>
+      </c>
+      <c r="G163" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;TreasureBox Id="81016" Type="2" Name=""&gt;
+ &lt;Treasure ItemId="69020" Value="3" /&gt;
+&lt;/TreasureBox&gt;</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="47"/>
+      <c r="B164" s="7">
+        <v>91001</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2</v>
+      </c>
+      <c r="E164" s="6">
         <v>69004</v>
       </c>
-      <c r="F156" s="1">
-        <v>1</v>
-      </c>
-      <c r="G156" s="11" t="str">
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
+      <c r="G164" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91001" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69004" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="47"/>
-      <c r="B157" s="7">
+    <row r="165" spans="1:7">
+      <c r="A165" s="47"/>
+      <c r="B165" s="7">
         <v>91002</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C165" s="1">
         <v>2</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E165" s="6">
         <v>69004</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F165" s="1">
         <v>3</v>
       </c>
-      <c r="G157" s="11" t="str">
+      <c r="G165" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91002" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69004" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="47"/>
-      <c r="B158" s="7">
+    <row r="166" spans="1:7">
+      <c r="A166" s="47"/>
+      <c r="B166" s="7">
         <v>91003</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C166" s="1">
         <v>2</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E166" s="6">
         <v>69005</v>
       </c>
-      <c r="F158" s="1">
-        <v>1</v>
-      </c>
-      <c r="G158" s="11" t="str">
+      <c r="F166" s="1">
+        <v>1</v>
+      </c>
+      <c r="G166" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91003" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69005" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="47"/>
-      <c r="B159" s="7">
+    <row r="167" spans="1:7">
+      <c r="A167" s="47"/>
+      <c r="B167" s="7">
         <v>91004</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C167" s="1">
         <v>2</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E167" s="6">
         <v>69005</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F167" s="1">
         <v>3</v>
       </c>
-      <c r="G159" s="11" t="str">
+      <c r="G167" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91004" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69005" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="47"/>
-      <c r="B160" s="7">
+    <row r="168" spans="1:7">
+      <c r="A168" s="47"/>
+      <c r="B168" s="7">
         <v>91005</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C168" s="1">
         <v>2</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E168" s="6">
         <v>69006</v>
       </c>
-      <c r="F160" s="1">
-        <v>1</v>
-      </c>
-      <c r="G160" s="11" t="str">
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91005" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69006" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="47"/>
-      <c r="B161" s="7">
+    <row r="169" spans="1:7">
+      <c r="A169" s="47"/>
+      <c r="B169" s="7">
         <v>91006</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C169" s="1">
         <v>2</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E169" s="6">
         <v>69006</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F169" s="1">
         <v>3</v>
       </c>
-      <c r="G161" s="11" t="str">
+      <c r="G169" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91006" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69006" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="47"/>
-      <c r="B162" s="7">
+    <row r="170" spans="1:7">
+      <c r="A170" s="47"/>
+      <c r="B170" s="7">
         <v>91007</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C170" s="1">
         <v>2</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E170" s="6">
         <v>69007</v>
       </c>
-      <c r="F162" s="1">
-        <v>1</v>
-      </c>
-      <c r="G162" s="11" t="str">
+      <c r="F170" s="1">
+        <v>1</v>
+      </c>
+      <c r="G170" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91007" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69007" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="47"/>
-      <c r="B163" s="7">
+    <row r="171" spans="1:7">
+      <c r="A171" s="47"/>
+      <c r="B171" s="7">
         <v>91008</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C171" s="1">
         <v>2</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E171" s="6">
         <v>69007</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F171" s="1">
         <v>3</v>
       </c>
-      <c r="G163" s="11" t="str">
+      <c r="G171" s="11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;TreasureBox Id="91008" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69007" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="76"/>
-      <c r="B164" s="7">
+    <row r="172" spans="1:7">
+      <c r="A172" s="76"/>
+      <c r="B172" s="7">
         <v>91009</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C172" s="1">
         <v>2</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E172" s="6">
         <v>69012</v>
       </c>
-      <c r="F164" s="1">
-        <v>1</v>
-      </c>
-      <c r="G164" s="11" t="str">
-        <f t="shared" ref="G164:G171" si="3">IF(B164&lt;&gt;"","&lt;TreasureBox Id="""&amp;B164&amp;""" Type="""&amp;C164&amp;""" Name="""&amp;D164&amp;"""&gt;"&amp;CHAR(10)&amp;" &lt;Treasure ItemId="""&amp;E164&amp;""" Value="""&amp;F164&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/TreasureBox&gt;","")</f>
+      <c r="F172" s="1">
+        <v>1</v>
+      </c>
+      <c r="G172" s="11" t="str">
+        <f t="shared" ref="G172:G179" si="3">IF(B172&lt;&gt;"","&lt;TreasureBox Id="""&amp;B172&amp;""" Type="""&amp;C172&amp;""" Name="""&amp;D172&amp;"""&gt;"&amp;CHAR(10)&amp;" &lt;Treasure ItemId="""&amp;E172&amp;""" Value="""&amp;F172&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/TreasureBox&gt;","")</f>
         <v>&lt;TreasureBox Id="91009" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69012" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="76"/>
-      <c r="B165" s="7">
+    <row r="173" spans="1:7">
+      <c r="A173" s="76"/>
+      <c r="B173" s="7">
         <v>91010</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C173" s="1">
         <v>2</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E173" s="6">
         <v>69012</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F173" s="1">
         <v>3</v>
       </c>
-      <c r="G165" s="11" t="str">
+      <c r="G173" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;TreasureBox Id="91010" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69012" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="76"/>
-      <c r="B166" s="7">
+    <row r="174" spans="1:7">
+      <c r="A174" s="76"/>
+      <c r="B174" s="7">
         <v>91011</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C174" s="1">
         <v>2</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E174" s="6">
         <v>69013</v>
       </c>
-      <c r="F166" s="1">
-        <v>1</v>
-      </c>
-      <c r="G166" s="11" t="str">
+      <c r="F174" s="1">
+        <v>1</v>
+      </c>
+      <c r="G174" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;TreasureBox Id="91011" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69013" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="76"/>
-      <c r="B167" s="7">
+    <row r="175" spans="1:7">
+      <c r="A175" s="76"/>
+      <c r="B175" s="7">
         <v>91012</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C175" s="1">
         <v>2</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E175" s="6">
         <v>69013</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F175" s="1">
         <v>3</v>
       </c>
-      <c r="G167" s="11" t="str">
+      <c r="G175" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;TreasureBox Id="91012" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69013" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="76"/>
-      <c r="B168" s="7">
+    <row r="176" spans="1:7">
+      <c r="A176" s="76"/>
+      <c r="B176" s="7">
         <v>91013</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C176" s="1">
         <v>2</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E176" s="6">
         <v>69014</v>
       </c>
-      <c r="F168" s="1">
-        <v>1</v>
-      </c>
-      <c r="G168" s="11" t="str">
+      <c r="F176" s="1">
+        <v>1</v>
+      </c>
+      <c r="G176" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;TreasureBox Id="91013" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69014" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="76"/>
-      <c r="B169" s="7">
+    <row r="177" spans="1:7">
+      <c r="A177" s="76"/>
+      <c r="B177" s="7">
         <v>91014</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C177" s="1">
         <v>2</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E177" s="6">
         <v>69014</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F177" s="1">
         <v>3</v>
       </c>
-      <c r="G169" s="11" t="str">
+      <c r="G177" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;TreasureBox Id="91014" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69014" Value="3" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="76"/>
-      <c r="B170" s="7">
+    <row r="178" spans="1:7">
+      <c r="A178" s="76"/>
+      <c r="B178" s="7">
         <v>91015</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C178" s="1">
         <v>2</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E178" s="6">
         <v>69015</v>
       </c>
-      <c r="F170" s="1">
-        <v>1</v>
-      </c>
-      <c r="G170" s="11" t="str">
+      <c r="F178" s="1">
+        <v>1</v>
+      </c>
+      <c r="G178" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;TreasureBox Id="91015" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69015" Value="1" /&gt;
 &lt;/TreasureBox&gt;</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="76"/>
-      <c r="B171" s="7">
+    <row r="179" spans="1:7">
+      <c r="A179" s="76"/>
+      <c r="B179" s="7">
         <v>91016</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C179" s="1">
         <v>2</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E179" s="6">
         <v>69015</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F179" s="1">
         <v>3</v>
       </c>
-      <c r="G171" s="11" t="str">
+      <c r="G179" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;TreasureBox Id="91016" Type="2" Name=""&gt;
  &lt;Treasure ItemId="69015" Value="3" /&gt;
@@ -58311,11 +58671,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B119BCFA-09BC-475D-A16B-4C7B39B13A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39997AA3-0E82-42E4-9C48-A36029F8D856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="1978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="1991">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6710,6 +6710,48 @@
   <si>
     <t>xmas_bgm</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed_welcome_xmas</t>
+  </si>
+  <si>
+    <t>feed_welcome_xmas_001</t>
+  </si>
+  <si>
+    <t>feed_welcome_xmas_002</t>
+  </si>
+  <si>
+    <t>feed_welcome_xmas_003</t>
+  </si>
+  <si>
+    <t>feed_welcome_xmas_004</t>
+  </si>
+  <si>
+    <t>feed_welcome_xmas_005</t>
+  </si>
+  <si>
+    <t>feed_bgm_xmas</t>
+  </si>
+  <si>
+    <t>喂食页圣诞节欢迎语音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂食页圣诞节背景音乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home_christmas_bg_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home_christmas_bg_02</t>
+  </si>
+  <si>
+    <t>Home_christmas_bg_03</t>
+  </si>
+  <si>
+    <t>Home_christmas_bg_04</t>
   </si>
 </sst>
 </file>
@@ -7628,7 +7670,70 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="85">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8171,44 +8276,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_32" displayName="表1_32" ref="B1:S87" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_32" displayName="表1_32" ref="B1:S87" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="B1:S87" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Background" dataDxfId="71"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Model" dataDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NimIcon" dataDxfId="69"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="QuestId" dataDxfId="68"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="dailyGoalPercent" dataDxfId="67"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="AwardCoin" dataDxfId="66"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="BGM" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sound" dataDxfId="64"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="WaterDrop" dataDxfId="63"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="WaterDropAudio" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Box1 ID" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Box1 Height" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Box2 ID" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Box2 Height" dataDxfId="58"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="输出" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Background" dataDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Model" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NimIcon" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="QuestId" dataDxfId="77"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="dailyGoalPercent" dataDxfId="76"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="AwardCoin" dataDxfId="75"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="BGM" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sound" dataDxfId="73"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="WaterDrop" dataDxfId="72"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="WaterDropAudio" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Box1 ID" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Box1 Height" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Box2 ID" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Box2 Height" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="输出" dataDxfId="66">
       <calculatedColumnFormula>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;""" WaterDropAudio="""&amp;M2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N2&amp;""" Height="""&amp;O2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P2&amp;""" Height="""&amp;Q2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="输入" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="输入" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_34" displayName="表1_34" ref="B1:G1048485" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_34" displayName="表1_34" ref="B1:G1048485" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="B1:G1048485" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="51"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ItemId" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Value" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="输出" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="60"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ItemId" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Value" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="输出" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8480,7 +8585,7 @@
   <dimension ref="A1:O174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
@@ -17369,11 +17474,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N80" sqref="N80:P83"/>
+      <selection pane="bottomRight" activeCell="D80" sqref="D80:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -22005,7 +22110,7 @@
         <v>MissionName82001</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>1220</v>
+        <v>1987</v>
       </c>
       <c r="E80" s="29">
         <v>82001</v>
@@ -22040,7 +22145,7 @@
       </c>
       <c r="R80" s="19" t="str">
         <f>IF(B80&lt;&gt;"","&lt;Mission Id="""&amp;B80&amp;""" Name="""&amp;C80&amp;""" Background="""&amp;D80&amp;""" Model="""&amp;E80&amp;""" NimIcon="""&amp;F80&amp;""" QuestId="""&amp;G80&amp;""" dailyGoalPercent="""&amp;H80&amp;""" AwardCoin="""&amp;I80&amp;""" BGM="""&amp;J80&amp;""" Sound="""&amp;K80&amp;""" WaterDrop="""&amp;L80&amp;""" WaterDropAudio="""&amp;M80&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N80&amp;""" Height="""&amp;O80&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P80&amp;""" Height="""&amp;Q80&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="82001" Name="MissionName82001" Background="Home_hallowmas__bg_01" Model="82001" NimIcon="" QuestId="20086" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+        <v>&lt;Mission Id="82001" Name="MissionName82001" Background="Home_christmas_bg_01" Model="82001" NimIcon="" QuestId="20086" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="81009" Height="3" /&gt;
   &lt;TreasureBox BoxId="81010" Height="8" /&gt;
 &lt;/Mission&gt;</v>
@@ -22057,7 +22162,7 @@
         <v>MissionName82002</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>1226</v>
+        <v>1988</v>
       </c>
       <c r="E81" s="29">
         <v>82002</v>
@@ -22092,7 +22197,7 @@
       </c>
       <c r="R81" s="19" t="str">
         <f>IF(B81&lt;&gt;"","&lt;Mission Id="""&amp;B81&amp;""" Name="""&amp;C81&amp;""" Background="""&amp;D81&amp;""" Model="""&amp;E81&amp;""" NimIcon="""&amp;F81&amp;""" QuestId="""&amp;G81&amp;""" dailyGoalPercent="""&amp;H81&amp;""" AwardCoin="""&amp;I81&amp;""" BGM="""&amp;J81&amp;""" Sound="""&amp;K81&amp;""" WaterDrop="""&amp;L81&amp;""" WaterDropAudio="""&amp;M81&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N81&amp;""" Height="""&amp;O81&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P81&amp;""" Height="""&amp;Q81&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="82002" Name="MissionName82002" Background="Home_hallowmas__bg_02" Model="82002" NimIcon="" QuestId="20087" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+        <v>&lt;Mission Id="82002" Name="MissionName82002" Background="Home_christmas_bg_02" Model="82002" NimIcon="" QuestId="20087" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="81011" Height="3" /&gt;
   &lt;TreasureBox BoxId="81012" Height="8" /&gt;
 &lt;/Mission&gt;</v>
@@ -22109,7 +22214,7 @@
         <v>MissionName82003</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>1227</v>
+        <v>1989</v>
       </c>
       <c r="E82" s="29">
         <v>82003</v>
@@ -22144,7 +22249,7 @@
       </c>
       <c r="R82" s="19" t="str">
         <f>IF(B82&lt;&gt;"","&lt;Mission Id="""&amp;B82&amp;""" Name="""&amp;C82&amp;""" Background="""&amp;D82&amp;""" Model="""&amp;E82&amp;""" NimIcon="""&amp;F82&amp;""" QuestId="""&amp;G82&amp;""" dailyGoalPercent="""&amp;H82&amp;""" AwardCoin="""&amp;I82&amp;""" BGM="""&amp;J82&amp;""" Sound="""&amp;K82&amp;""" WaterDrop="""&amp;L82&amp;""" WaterDropAudio="""&amp;M82&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N82&amp;""" Height="""&amp;O82&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P82&amp;""" Height="""&amp;Q82&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="82003" Name="MissionName82003" Background="Home_hallowmas__bg_03" Model="82003" NimIcon="" QuestId="20088" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+        <v>&lt;Mission Id="82003" Name="MissionName82003" Background="Home_christmas_bg_03" Model="82003" NimIcon="" QuestId="20088" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="81013" Height="3" /&gt;
   &lt;TreasureBox BoxId="81014" Height="8" /&gt;
 &lt;/Mission&gt;</v>
@@ -22161,7 +22266,7 @@
         <v>MissionName82004</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>1228</v>
+        <v>1990</v>
       </c>
       <c r="E83" s="29">
         <v>82004</v>
@@ -22196,7 +22301,7 @@
       </c>
       <c r="R83" s="19" t="str">
         <f>IF(B83&lt;&gt;"","&lt;Mission Id="""&amp;B83&amp;""" Name="""&amp;C83&amp;""" Background="""&amp;D83&amp;""" Model="""&amp;E83&amp;""" NimIcon="""&amp;F83&amp;""" QuestId="""&amp;G83&amp;""" dailyGoalPercent="""&amp;H83&amp;""" AwardCoin="""&amp;I83&amp;""" BGM="""&amp;J83&amp;""" Sound="""&amp;K83&amp;""" WaterDrop="""&amp;L83&amp;""" WaterDropAudio="""&amp;M83&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N83&amp;""" Height="""&amp;O83&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P83&amp;""" Height="""&amp;Q83&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="82004" Name="MissionName82004" Background="Home_hallowmas__bg_04" Model="82004" NimIcon="" QuestId="20089" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+        <v>&lt;Mission Id="82004" Name="MissionName82004" Background="Home_christmas_bg_04" Model="82004" NimIcon="" QuestId="20089" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="81015" Height="3" /&gt;
   &lt;TreasureBox BoxId="81016" Height="8" /&gt;
 &lt;/Mission&gt;</v>
@@ -36187,11 +36292,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G827"/>
+  <dimension ref="A1:G837"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A804" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A813" sqref="A813:XFD813"/>
+      <pane ySplit="1" topLeftCell="A816" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F828" sqref="F828:F837"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -58437,168 +58542,327 @@
         <v>&lt;/Sound&gt;</v>
       </c>
     </row>
+    <row r="828" spans="1:6">
+      <c r="A828" s="71">
+        <v>1</v>
+      </c>
+      <c r="B828" s="72" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C828" s="72" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D828" s="72" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F828" s="72" t="str">
+        <f>IF(A828=1,"&lt;Sound Type="""&amp;B828&amp;""" Storage="""&amp;C828&amp;""" Dec="""&amp;D828&amp;"""&gt;",IF(A828=2,"  &lt;Clip SoundPath="""&amp;E828&amp;""" /&gt;",IF(A828=3,G828,"")))</f>
+        <v>&lt;Sound Type="feed_welcome_xmas" Storage="Remote" Dec="喂食页圣诞节欢迎语音"&gt;</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6">
+      <c r="A829" s="71">
+        <v>2</v>
+      </c>
+      <c r="E829" s="72" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F829" s="72" t="str">
+        <f t="shared" ref="F829:F833" si="102">IF(A829=1,"&lt;Sound Type="""&amp;B829&amp;""" Storage="""&amp;C829&amp;""" Dec="""&amp;D829&amp;"""&gt;",IF(A829=2,"  &lt;Clip SoundPath="""&amp;E829&amp;""" /&gt;",IF(A829=3,G829,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_001" /&gt;</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6">
+      <c r="A830" s="71">
+        <v>2</v>
+      </c>
+      <c r="E830" s="72" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F830" s="72" t="str">
+        <f t="shared" si="102"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_002" /&gt;</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6">
+      <c r="A831" s="71">
+        <v>2</v>
+      </c>
+      <c r="E831" s="72" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F831" s="72" t="str">
+        <f t="shared" si="102"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_003" /&gt;</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6">
+      <c r="A832" s="71">
+        <v>2</v>
+      </c>
+      <c r="E832" s="72" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F832" s="72" t="str">
+        <f t="shared" si="102"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_004" /&gt;</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6">
+      <c r="A833" s="71">
+        <v>2</v>
+      </c>
+      <c r="E833" s="72" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F833" s="72" t="str">
+        <f t="shared" si="102"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_005" /&gt;</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6">
+      <c r="A834" s="71">
+        <v>3</v>
+      </c>
+      <c r="F834" s="72" t="str">
+        <f>IF(A834=1,"&lt;Sound Type="""&amp;B834&amp;""" Storage="""&amp;C834&amp;""" Dec="""&amp;D834&amp;"""&gt;",IF(A834=2,"  &lt;Clip SoundPath="""&amp;E834&amp;""" /&gt;",IF(A834=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6">
+      <c r="A835" s="71">
+        <v>1</v>
+      </c>
+      <c r="B835" s="72" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C835" s="72" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D835" s="72" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F835" s="72" t="str">
+        <f>IF(A835=1,"&lt;Sound Type="""&amp;B835&amp;""" Storage="""&amp;C835&amp;""" Dec="""&amp;D835&amp;"""&gt;",IF(A835=2,"  &lt;Clip SoundPath="""&amp;E835&amp;""" /&gt;",IF(A835=3,G835,"")))</f>
+        <v>&lt;Sound Type="feed_bgm_xmas" Storage="Remote" Dec="喂食页圣诞节背景音乐"&gt;</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6">
+      <c r="A836" s="71">
+        <v>2</v>
+      </c>
+      <c r="E836" s="72" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F836" s="72" t="str">
+        <f t="shared" ref="F836" si="103">IF(A836=1,"&lt;Sound Type="""&amp;B836&amp;""" Storage="""&amp;C836&amp;""" Dec="""&amp;D836&amp;"""&gt;",IF(A836=2,"  &lt;Clip SoundPath="""&amp;E836&amp;""" /&gt;",IF(A836=3,G836,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_bgm_xmas" /&gt;</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6">
+      <c r="A837" s="71">
+        <v>3</v>
+      </c>
+      <c r="F837" s="72" t="str">
+        <f>IF(A837=1,"&lt;Sound Type="""&amp;B837&amp;""" Storage="""&amp;C837&amp;""" Dec="""&amp;D837&amp;"""&gt;",IF(A837=2,"  &lt;Clip SoundPath="""&amp;E837&amp;""" /&gt;",IF(A837=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A768:G768"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A828:G1048576">
-    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="&lt;!--">
+  <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A838:G1048576">
+    <cfRule type="containsText" dxfId="56" priority="64" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="53">
+    <cfRule type="expression" dxfId="55" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="54">
+    <cfRule type="expression" dxfId="54" priority="66">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:G27 A28:F28">
-    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="53" priority="61" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="50">
+    <cfRule type="expression" dxfId="52" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="51">
+    <cfRule type="expression" dxfId="51" priority="63">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="41" priority="46" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="50" priority="58" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="47">
+    <cfRule type="expression" dxfId="49" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="48">
+    <cfRule type="expression" dxfId="48" priority="60">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A434:G436">
-    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="47" priority="55" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A434)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="44">
+    <cfRule type="expression" dxfId="46" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="45">
+    <cfRule type="expression" dxfId="45" priority="57">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791:G792 A797:G797 A793:D795 F793:G795 E793:E796">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="42" priority="48">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A796:D796 F796:G796">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="39" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798:G800">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="36" priority="42">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A801:G803">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804:G806">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="30" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A807:G809">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="27" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A810:G812">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A813:G815">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A813)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A816:G818">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A816)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A819:G821">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A819)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A822:G824">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A822)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A825:G827">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A825)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A828:G833">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A828)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A835:G837">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A822)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A835)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
@@ -58607,9 +58871,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A825:G827">
+  <conditionalFormatting sqref="A834:G834">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A825)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A834)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
@@ -58627,11 +58891,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -60562,7 +60826,7 @@
         <v>43823</v>
       </c>
       <c r="I24" s="106">
-        <v>43845</v>
+        <v>43851</v>
       </c>
       <c r="J24" s="30">
         <v>1</v>
@@ -60605,7 +60869,7 @@
 &lt;IsNew&gt;TRUE&lt;/IsNew&gt;
 &lt;IsCampain&gt;TRUE&lt;/IsCampain&gt;
 &lt;StartTime&gt;2019-12-24 00:00&lt;/StartTime&gt;
-&lt;EndTime&gt;2020-01-15 00:00&lt;/EndTime&gt;
+&lt;EndTime&gt;2020-01-21 00:00&lt;/EndTime&gt;
 &lt;UnlockLevel&gt;1&lt;/UnlockLevel&gt;
 &lt;Rarity&gt;0&lt;/Rarity&gt;
 &lt;Price&gt;10&lt;/Price&gt;
@@ -60647,7 +60911,7 @@
         <v>43823</v>
       </c>
       <c r="I25" s="106">
-        <v>43845</v>
+        <v>43851</v>
       </c>
       <c r="J25" s="30">
         <v>1</v>
@@ -60690,7 +60954,7 @@
 &lt;IsNew&gt;TRUE&lt;/IsNew&gt;
 &lt;IsCampain&gt;TRUE&lt;/IsCampain&gt;
 &lt;StartTime&gt;2019-12-24 00:00&lt;/StartTime&gt;
-&lt;EndTime&gt;2020-01-15 00:00&lt;/EndTime&gt;
+&lt;EndTime&gt;2020-01-21 00:00&lt;/EndTime&gt;
 &lt;UnlockLevel&gt;1&lt;/UnlockLevel&gt;
 &lt;Rarity&gt;0&lt;/Rarity&gt;
 &lt;Price&gt;25&lt;/Price&gt;
@@ -60732,7 +60996,7 @@
         <v>43823</v>
       </c>
       <c r="I26" s="106">
-        <v>43845</v>
+        <v>43851</v>
       </c>
       <c r="J26" s="30">
         <v>1</v>
@@ -60775,7 +61039,7 @@
 &lt;IsNew&gt;TRUE&lt;/IsNew&gt;
 &lt;IsCampain&gt;TRUE&lt;/IsCampain&gt;
 &lt;StartTime&gt;2019-12-24 00:00&lt;/StartTime&gt;
-&lt;EndTime&gt;2020-01-15 00:00&lt;/EndTime&gt;
+&lt;EndTime&gt;2020-01-21 00:00&lt;/EndTime&gt;
 &lt;UnlockLevel&gt;1&lt;/UnlockLevel&gt;
 &lt;Rarity&gt;0&lt;/Rarity&gt;
 &lt;Price&gt;40&lt;/Price&gt;
@@ -60817,7 +61081,7 @@
         <v>43823</v>
       </c>
       <c r="I27" s="106">
-        <v>43845</v>
+        <v>43851</v>
       </c>
       <c r="J27" s="30">
         <v>1</v>
@@ -60860,7 +61124,7 @@
 &lt;IsNew&gt;TRUE&lt;/IsNew&gt;
 &lt;IsCampain&gt;TRUE&lt;/IsCampain&gt;
 &lt;StartTime&gt;2019-12-24 00:00&lt;/StartTime&gt;
-&lt;EndTime&gt;2020-01-15 00:00&lt;/EndTime&gt;
+&lt;EndTime&gt;2020-01-21 00:00&lt;/EndTime&gt;
 &lt;UnlockLevel&gt;1&lt;/UnlockLevel&gt;
 &lt;Rarity&gt;0&lt;/Rarity&gt;
 &lt;Price&gt;30&lt;/Price&gt;
@@ -60902,7 +61166,7 @@
         <v>43823</v>
       </c>
       <c r="I28" s="106">
-        <v>43845</v>
+        <v>43851</v>
       </c>
       <c r="J28" s="30">
         <v>1</v>
@@ -60945,7 +61209,7 @@
 &lt;IsNew&gt;TRUE&lt;/IsNew&gt;
 &lt;IsCampain&gt;TRUE&lt;/IsCampain&gt;
 &lt;StartTime&gt;2019-12-24 00:00&lt;/StartTime&gt;
-&lt;EndTime&gt;2020-01-15 00:00&lt;/EndTime&gt;
+&lt;EndTime&gt;2020-01-21 00:00&lt;/EndTime&gt;
 &lt;UnlockLevel&gt;1&lt;/UnlockLevel&gt;
 &lt;Rarity&gt;0&lt;/Rarity&gt;
 &lt;Price&gt;20&lt;/Price&gt;

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39997AA3-0E82-42E4-9C48-A36029F8D856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E049A1E-CE1D-4608-A355-1D370F25FC53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,8 @@
           </rPr>
           <t xml:space="preserve">1.Dummy_head 头部挂点
 2.Dummy_wing 翅膀/套装挂点
-9.Host 小精灵根物体
+8.TopLet 左上角小精灵根物体
+9.BottomRight 右下角小精灵根物体
 </t>
         </r>
       </text>
@@ -469,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="1991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="2010">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6753,15 +6754,77 @@
   <si>
     <t>Home_christmas_bg_04</t>
   </si>
+  <si>
+    <t>christmas hat_point</t>
+  </si>
+  <si>
+    <t>christmas_point</t>
+  </si>
+  <si>
+    <t>elk</t>
+  </si>
+  <si>
+    <t>giftbox</t>
+  </si>
+  <si>
+    <t>antler_ponit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>antler ponit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>christmas hat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>christmas point</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_head_antler02</t>
+  </si>
+  <si>
+    <t>part_head_merryhat</t>
+  </si>
+  <si>
+    <t>suit_pur_merry</t>
+  </si>
+  <si>
+    <t>elf_down_deer</t>
+  </si>
+  <si>
+    <t>elf_up_gift</t>
+  </si>
+  <si>
+    <t>giftbox02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftbox_A</t>
+  </si>
+  <si>
+    <t>elf_up_gift02</t>
+  </si>
+  <si>
+    <t>elk_A</t>
+  </si>
+  <si>
+    <t>elf_down_deer02</t>
+  </si>
+  <si>
+    <t>elk02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0000"/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -7294,7 +7357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7565,31 +7628,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7622,6 +7667,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8900,23 +8960,23 @@
       <c r="O9" s="80"/>
     </row>
     <row r="10" spans="1:15" ht="15.75">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="117" t="s">
         <v>1881</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="90" t="str">
@@ -16695,23 +16755,23 @@
       <c r="O156" s="64"/>
     </row>
     <row r="157" spans="1:15" ht="15.75">
-      <c r="A157" s="118" t="s">
+      <c r="A157" s="117" t="s">
         <v>1881</v>
       </c>
-      <c r="B157" s="118"/>
-      <c r="C157" s="118"/>
-      <c r="D157" s="118"/>
-      <c r="E157" s="118"/>
-      <c r="F157" s="118"/>
-      <c r="G157" s="118"/>
-      <c r="H157" s="118"/>
-      <c r="I157" s="118"/>
-      <c r="J157" s="118"/>
-      <c r="K157" s="118"/>
-      <c r="L157" s="118"/>
-      <c r="M157" s="118"/>
-      <c r="N157" s="118"/>
-      <c r="O157" s="118"/>
+      <c r="B157" s="117"/>
+      <c r="C157" s="117"/>
+      <c r="D157" s="117"/>
+      <c r="E157" s="117"/>
+      <c r="F157" s="117"/>
+      <c r="G157" s="117"/>
+      <c r="H157" s="117"/>
+      <c r="I157" s="117"/>
+      <c r="J157" s="117"/>
+      <c r="K157" s="117"/>
+      <c r="L157" s="117"/>
+      <c r="M157" s="117"/>
+      <c r="N157" s="117"/>
+      <c r="O157" s="117"/>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="94">
@@ -17098,164 +17158,164 @@
       <c r="O169" s="75"/>
     </row>
     <row r="170" spans="1:15">
-      <c r="A170" s="111">
+      <c r="A170" s="105">
         <f>ItemFood!B24</f>
         <v>69016</v>
       </c>
-      <c r="B170" s="112">
+      <c r="B170" s="106">
         <f>ItemFood!C16</f>
         <v>6</v>
       </c>
-      <c r="C170" s="113" t="str">
+      <c r="C170" s="107" t="str">
         <f>ItemFood!D24</f>
         <v>cake</v>
       </c>
-      <c r="D170" s="113" t="str">
+      <c r="D170" s="107" t="str">
         <f>ItemFood!S24</f>
         <v>food_cake</v>
       </c>
-      <c r="E170" s="114"/>
-      <c r="F170" s="114"/>
-      <c r="G170" s="114"/>
-      <c r="H170" s="114"/>
-      <c r="I170" s="115"/>
-      <c r="J170" s="114"/>
-      <c r="K170" s="114"/>
-      <c r="L170" s="115"/>
-      <c r="M170" s="114"/>
-      <c r="N170" s="113" t="str">
+      <c r="E170" s="108"/>
+      <c r="F170" s="108"/>
+      <c r="G170" s="108"/>
+      <c r="H170" s="108"/>
+      <c r="I170" s="109"/>
+      <c r="J170" s="108"/>
+      <c r="K170" s="108"/>
+      <c r="L170" s="109"/>
+      <c r="M170" s="108"/>
+      <c r="N170" s="107" t="str">
         <f t="shared" ref="N170:N174" si="23">"&lt;Item Id="""&amp;A170&amp;""" Type="""&amp;B170&amp;""" Name="""&amp;C170&amp;""" getImage="""&amp;D170&amp;""" Icon="""&amp;E170&amp;""" StoryBg="""&amp;F170&amp;""" AudioId="""&amp;G170&amp;""" Description="""&amp;H170&amp;""" PetType="""&amp;I170&amp;""" Image="""&amp;J170&amp;""" Audio="""&amp;K170&amp;""" Animation="""&amp;L170&amp;""" Preview="""&amp;M170&amp;"""/&gt;"</f>
         <v>&lt;Item Id="69016" Type="6" Name="cake" getImage="food_cake" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
-      <c r="O170" s="116"/>
+      <c r="O170" s="110"/>
     </row>
     <row r="171" spans="1:15">
-      <c r="A171" s="111">
+      <c r="A171" s="105">
         <f>ItemFood!B25</f>
         <v>69017</v>
       </c>
-      <c r="B171" s="112">
+      <c r="B171" s="106">
         <f>ItemFood!C17</f>
         <v>6</v>
       </c>
-      <c r="C171" s="113" t="str">
+      <c r="C171" s="107" t="str">
         <f>ItemFood!D25</f>
         <v>candy</v>
       </c>
-      <c r="D171" s="113" t="str">
+      <c r="D171" s="107" t="str">
         <f>ItemFood!S25</f>
         <v>food_candy</v>
       </c>
-      <c r="E171" s="114"/>
-      <c r="F171" s="114"/>
-      <c r="G171" s="114"/>
-      <c r="H171" s="114"/>
-      <c r="I171" s="115"/>
-      <c r="J171" s="114"/>
-      <c r="K171" s="114"/>
-      <c r="L171" s="115"/>
-      <c r="M171" s="114"/>
-      <c r="N171" s="113" t="str">
+      <c r="E171" s="108"/>
+      <c r="F171" s="108"/>
+      <c r="G171" s="108"/>
+      <c r="H171" s="108"/>
+      <c r="I171" s="109"/>
+      <c r="J171" s="108"/>
+      <c r="K171" s="108"/>
+      <c r="L171" s="109"/>
+      <c r="M171" s="108"/>
+      <c r="N171" s="107" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Item Id="69017" Type="6" Name="candy" getImage="food_candy" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
-      <c r="O171" s="116"/>
+      <c r="O171" s="110"/>
     </row>
     <row r="172" spans="1:15">
-      <c r="A172" s="111">
+      <c r="A172" s="105">
         <f>ItemFood!B26</f>
         <v>69018</v>
       </c>
-      <c r="B172" s="112">
+      <c r="B172" s="106">
         <f>ItemFood!C18</f>
         <v>6</v>
       </c>
-      <c r="C172" s="113" t="str">
+      <c r="C172" s="107" t="str">
         <f>ItemFood!D26</f>
         <v>chicken</v>
       </c>
-      <c r="D172" s="113" t="str">
+      <c r="D172" s="107" t="str">
         <f>ItemFood!S26</f>
         <v>food_chicken</v>
       </c>
-      <c r="E172" s="114"/>
-      <c r="F172" s="114"/>
-      <c r="G172" s="114"/>
-      <c r="H172" s="114"/>
-      <c r="I172" s="115"/>
-      <c r="J172" s="114"/>
-      <c r="K172" s="114"/>
-      <c r="L172" s="115"/>
-      <c r="M172" s="114"/>
-      <c r="N172" s="113" t="str">
+      <c r="E172" s="108"/>
+      <c r="F172" s="108"/>
+      <c r="G172" s="108"/>
+      <c r="H172" s="108"/>
+      <c r="I172" s="109"/>
+      <c r="J172" s="108"/>
+      <c r="K172" s="108"/>
+      <c r="L172" s="109"/>
+      <c r="M172" s="108"/>
+      <c r="N172" s="107" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Item Id="69018" Type="6" Name="chicken" getImage="food_chicken" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
-      <c r="O172" s="116"/>
+      <c r="O172" s="110"/>
     </row>
     <row r="173" spans="1:15">
-      <c r="A173" s="111">
+      <c r="A173" s="105">
         <f>ItemFood!B27</f>
         <v>69019</v>
       </c>
-      <c r="B173" s="112">
+      <c r="B173" s="106">
         <f>ItemFood!C19</f>
         <v>6</v>
       </c>
-      <c r="C173" s="113" t="str">
+      <c r="C173" s="107" t="str">
         <f>ItemFood!D27</f>
         <v>ginger bread</v>
       </c>
-      <c r="D173" s="113" t="str">
+      <c r="D173" s="107" t="str">
         <f>ItemFood!S27</f>
         <v>food_gingerbread</v>
       </c>
-      <c r="E173" s="114"/>
-      <c r="F173" s="114"/>
-      <c r="G173" s="114"/>
-      <c r="H173" s="114"/>
-      <c r="I173" s="115"/>
-      <c r="J173" s="114"/>
-      <c r="K173" s="114"/>
-      <c r="L173" s="115"/>
-      <c r="M173" s="114"/>
-      <c r="N173" s="113" t="str">
+      <c r="E173" s="108"/>
+      <c r="F173" s="108"/>
+      <c r="G173" s="108"/>
+      <c r="H173" s="108"/>
+      <c r="I173" s="109"/>
+      <c r="J173" s="108"/>
+      <c r="K173" s="108"/>
+      <c r="L173" s="109"/>
+      <c r="M173" s="108"/>
+      <c r="N173" s="107" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Item Id="69019" Type="6" Name="ginger bread" getImage="food_gingerbread" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
-      <c r="O173" s="116"/>
+      <c r="O173" s="110"/>
     </row>
     <row r="174" spans="1:15">
-      <c r="A174" s="111">
+      <c r="A174" s="105">
         <f>ItemFood!B28</f>
         <v>69020</v>
       </c>
-      <c r="B174" s="112">
+      <c r="B174" s="106">
         <f>ItemFood!C20</f>
         <v>6</v>
       </c>
-      <c r="C174" s="113" t="str">
+      <c r="C174" s="107" t="str">
         <f>ItemFood!D28</f>
         <v>pudding</v>
       </c>
-      <c r="D174" s="113" t="str">
+      <c r="D174" s="107" t="str">
         <f>ItemFood!S28</f>
         <v>food_pudding</v>
       </c>
-      <c r="E174" s="114"/>
-      <c r="F174" s="114"/>
-      <c r="G174" s="114"/>
-      <c r="H174" s="114"/>
-      <c r="I174" s="115"/>
-      <c r="J174" s="114"/>
-      <c r="K174" s="114"/>
-      <c r="L174" s="115"/>
-      <c r="M174" s="114"/>
-      <c r="N174" s="113" t="str">
+      <c r="E174" s="108"/>
+      <c r="F174" s="108"/>
+      <c r="G174" s="108"/>
+      <c r="H174" s="108"/>
+      <c r="I174" s="109"/>
+      <c r="J174" s="108"/>
+      <c r="K174" s="108"/>
+      <c r="L174" s="109"/>
+      <c r="M174" s="108"/>
+      <c r="N174" s="107" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Item Id="69020" Type="6" Name="pudding" getImage="food_pudding" Icon="" StoryBg="" AudioId="" Description="" PetType="" Image="" Audio="" Animation="" Preview=""/&gt;</v>
       </c>
-      <c r="O174" s="116"/>
+      <c r="O174" s="110"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -17478,7 +17538,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D80" sqref="D80:D83"/>
+      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -17491,7 +17551,7 @@
     <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="110" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="104" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="23.125" bestFit="1" customWidth="1"/>
@@ -17527,7 +17587,7 @@
       <c r="I1" s="13" t="s">
         <v>997</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="103" t="s">
         <v>1239</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -22101,7 +22161,7 @@
       <c r="S79" s="6"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="107"/>
+      <c r="A80" s="101"/>
       <c r="B80" s="29">
         <v>82001</v>
       </c>
@@ -22113,7 +22173,7 @@
         <v>1987</v>
       </c>
       <c r="E80" s="29">
-        <v>82001</v>
+        <v>82002</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="29">
@@ -22145,7 +22205,7 @@
       </c>
       <c r="R80" s="19" t="str">
         <f>IF(B80&lt;&gt;"","&lt;Mission Id="""&amp;B80&amp;""" Name="""&amp;C80&amp;""" Background="""&amp;D80&amp;""" Model="""&amp;E80&amp;""" NimIcon="""&amp;F80&amp;""" QuestId="""&amp;G80&amp;""" dailyGoalPercent="""&amp;H80&amp;""" AwardCoin="""&amp;I80&amp;""" BGM="""&amp;J80&amp;""" Sound="""&amp;K80&amp;""" WaterDrop="""&amp;L80&amp;""" WaterDropAudio="""&amp;M80&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N80&amp;""" Height="""&amp;O80&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P80&amp;""" Height="""&amp;Q80&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="82001" Name="MissionName82001" Background="Home_christmas_bg_01" Model="82001" NimIcon="" QuestId="20086" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+        <v>&lt;Mission Id="82001" Name="MissionName82001" Background="Home_christmas_bg_01" Model="82002" NimIcon="" QuestId="20086" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="81009" Height="3" /&gt;
   &lt;TreasureBox BoxId="81010" Height="8" /&gt;
 &lt;/Mission&gt;</v>
@@ -22153,7 +22213,7 @@
       <c r="S80" s="6"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="107"/>
+      <c r="A81" s="101"/>
       <c r="B81" s="29">
         <v>82002</v>
       </c>
@@ -22165,7 +22225,7 @@
         <v>1988</v>
       </c>
       <c r="E81" s="29">
-        <v>82002</v>
+        <v>82001</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="29">
@@ -22197,7 +22257,7 @@
       </c>
       <c r="R81" s="19" t="str">
         <f>IF(B81&lt;&gt;"","&lt;Mission Id="""&amp;B81&amp;""" Name="""&amp;C81&amp;""" Background="""&amp;D81&amp;""" Model="""&amp;E81&amp;""" NimIcon="""&amp;F81&amp;""" QuestId="""&amp;G81&amp;""" dailyGoalPercent="""&amp;H81&amp;""" AwardCoin="""&amp;I81&amp;""" BGM="""&amp;J81&amp;""" Sound="""&amp;K81&amp;""" WaterDrop="""&amp;L81&amp;""" WaterDropAudio="""&amp;M81&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N81&amp;""" Height="""&amp;O81&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P81&amp;""" Height="""&amp;Q81&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="82002" Name="MissionName82002" Background="Home_christmas_bg_02" Model="82002" NimIcon="" QuestId="20087" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+        <v>&lt;Mission Id="82002" Name="MissionName82002" Background="Home_christmas_bg_02" Model="82001" NimIcon="" QuestId="20087" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="81011" Height="3" /&gt;
   &lt;TreasureBox BoxId="81012" Height="8" /&gt;
 &lt;/Mission&gt;</v>
@@ -22205,7 +22265,7 @@
       <c r="S81" s="6"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="107"/>
+      <c r="A82" s="101"/>
       <c r="B82" s="29">
         <v>82003</v>
       </c>
@@ -22257,7 +22317,7 @@
       <c r="S82" s="6"/>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="107"/>
+      <c r="A83" s="101"/>
       <c r="B83" s="29">
         <v>82004</v>
       </c>
@@ -22269,7 +22329,7 @@
         <v>1990</v>
       </c>
       <c r="E83" s="29">
-        <v>82004</v>
+        <v>82001</v>
       </c>
       <c r="F83" s="28"/>
       <c r="G83" s="29">
@@ -22301,7 +22361,7 @@
       </c>
       <c r="R83" s="19" t="str">
         <f>IF(B83&lt;&gt;"","&lt;Mission Id="""&amp;B83&amp;""" Name="""&amp;C83&amp;""" Background="""&amp;D83&amp;""" Model="""&amp;E83&amp;""" NimIcon="""&amp;F83&amp;""" QuestId="""&amp;G83&amp;""" dailyGoalPercent="""&amp;H83&amp;""" AwardCoin="""&amp;I83&amp;""" BGM="""&amp;J83&amp;""" Sound="""&amp;K83&amp;""" WaterDrop="""&amp;L83&amp;""" WaterDropAudio="""&amp;M83&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N83&amp;""" Height="""&amp;O83&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P83&amp;""" Height="""&amp;Q83&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</f>
-        <v>&lt;Mission Id="82004" Name="MissionName82004" Background="Home_christmas_bg_04" Model="82004" NimIcon="" QuestId="20089" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
+        <v>&lt;Mission Id="82004" Name="MissionName82004" Background="Home_christmas_bg_04" Model="82001" NimIcon="" QuestId="20089" dailyGoalPercent="0.5" AwardCoin="50" BGM="xmas_bgm" Sound="" WaterDrop="" WaterDropAudio=""&gt;
   &lt;TreasureBox BoxId="81015" Height="3" /&gt;
   &lt;TreasureBox BoxId="81016" Height="8" /&gt;
 &lt;/Mission&gt;</v>
@@ -25995,7 +26055,7 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="117"/>
+      <c r="A156" s="111"/>
       <c r="B156" s="7">
         <v>81009</v>
       </c>
@@ -26016,7 +26076,7 @@
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="117"/>
+      <c r="A157" s="111"/>
       <c r="B157" s="7">
         <v>81010</v>
       </c>
@@ -26037,7 +26097,7 @@
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="117"/>
+      <c r="A158" s="111"/>
       <c r="B158" s="7">
         <v>81011</v>
       </c>
@@ -26058,7 +26118,7 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="117"/>
+      <c r="A159" s="111"/>
       <c r="B159" s="7">
         <v>81012</v>
       </c>
@@ -26079,7 +26139,7 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="117"/>
+      <c r="A160" s="111"/>
       <c r="B160" s="7">
         <v>81013</v>
       </c>
@@ -26100,7 +26160,7 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="117"/>
+      <c r="A161" s="111"/>
       <c r="B161" s="7">
         <v>81014</v>
       </c>
@@ -26121,7 +26181,7 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="117"/>
+      <c r="A162" s="111"/>
       <c r="B162" s="7">
         <v>81015</v>
       </c>
@@ -26142,7 +26202,7 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="117"/>
+      <c r="A163" s="111"/>
       <c r="B163" s="7">
         <v>81016</v>
       </c>
@@ -26542,50 +26602,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="121" t="s">
         <v>1095</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="122" t="s">
         <v>1096</v>
       </c>
-      <c r="F1" s="123"/>
+      <c r="F1" s="122"/>
       <c r="G1" s="32" t="s">
         <v>1097</v>
       </c>
-      <c r="H1" s="124" t="s">
+      <c r="H1" s="123" t="s">
         <v>1098</v>
       </c>
-      <c r="I1" s="125"/>
-      <c r="J1" s="126" t="s">
+      <c r="I1" s="124"/>
+      <c r="J1" s="125" t="s">
         <v>1099</v>
       </c>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="127" t="s">
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="126" t="s">
         <v>1100</v>
       </c>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="128" t="s">
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="127" t="s">
         <v>1101</v>
       </c>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="119" t="s">
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="118" t="s">
         <v>1102</v>
       </c>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="120" t="s">
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="119" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -26669,7 +26729,7 @@
       <c r="AA2" s="40" t="s">
         <v>1115</v>
       </c>
-      <c r="AB2" s="121"/>
+      <c r="AB2" s="120"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="41" t="s">
@@ -57776,15 +57836,15 @@
       </c>
     </row>
     <row r="768" spans="1:7">
-      <c r="A768" s="129" t="s">
+      <c r="A768" s="128" t="s">
         <v>1895</v>
       </c>
-      <c r="B768" s="130"/>
-      <c r="C768" s="130"/>
-      <c r="D768" s="130"/>
-      <c r="E768" s="130"/>
-      <c r="F768" s="130"/>
-      <c r="G768" s="131"/>
+      <c r="B768" s="129"/>
+      <c r="C768" s="129"/>
+      <c r="D768" s="129"/>
+      <c r="E768" s="129"/>
+      <c r="F768" s="129"/>
+      <c r="G768" s="130"/>
     </row>
     <row r="769" spans="1:6">
       <c r="A769" s="71">
@@ -58907,7 +58967,7 @@
     <col min="5" max="5" width="10.5" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.125" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.125" style="100" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="30" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="30" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="30" bestFit="1" customWidth="1"/>
@@ -58945,10 +59005,10 @@
       <c r="G2" s="30" t="s">
         <v>1032</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="100" t="s">
         <v>1033</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="100" t="s">
         <v>1034</v>
       </c>
       <c r="J2" s="30" t="s">
@@ -59010,10 +59070,10 @@
       <c r="G3" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="100" t="s">
         <v>1049</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="100" t="s">
         <v>1049</v>
       </c>
       <c r="J3" s="30">
@@ -59098,10 +59158,10 @@
       <c r="G4" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="100" t="s">
         <v>1049</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="100" t="s">
         <v>1049</v>
       </c>
       <c r="J4" s="30">
@@ -59186,10 +59246,10 @@
       <c r="G5" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="106" t="s">
+      <c r="H5" s="100" t="s">
         <v>1049</v>
       </c>
-      <c r="I5" s="106" t="s">
+      <c r="I5" s="100" t="s">
         <v>1049</v>
       </c>
       <c r="J5" s="30">
@@ -59274,10 +59334,10 @@
       <c r="G6" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="106" t="s">
+      <c r="H6" s="100" t="s">
         <v>1049</v>
       </c>
-      <c r="I6" s="106" t="s">
+      <c r="I6" s="100" t="s">
         <v>1049</v>
       </c>
       <c r="J6" s="30">
@@ -59362,10 +59422,10 @@
       <c r="G7" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="106" t="s">
+      <c r="H7" s="100" t="s">
         <v>1049</v>
       </c>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="100" t="s">
         <v>1049</v>
       </c>
       <c r="J7" s="30">
@@ -59450,10 +59510,10 @@
       <c r="G8" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="106" t="s">
+      <c r="H8" s="100" t="s">
         <v>1049</v>
       </c>
-      <c r="I8" s="106" t="s">
+      <c r="I8" s="100" t="s">
         <v>1049</v>
       </c>
       <c r="J8" s="30">
@@ -59538,10 +59598,10 @@
       <c r="G9" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="106">
+      <c r="H9" s="100">
         <v>43719</v>
       </c>
-      <c r="I9" s="106">
+      <c r="I9" s="100">
         <v>43732.999305555553</v>
       </c>
       <c r="J9" s="30">
@@ -59626,10 +59686,10 @@
       <c r="G10" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="106">
+      <c r="H10" s="100">
         <v>43719</v>
       </c>
-      <c r="I10" s="106">
+      <c r="I10" s="100">
         <v>43732.999305555553</v>
       </c>
       <c r="J10" s="30">
@@ -59714,10 +59774,10 @@
       <c r="G11" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="106">
+      <c r="H11" s="100">
         <v>43719</v>
       </c>
-      <c r="I11" s="106">
+      <c r="I11" s="100">
         <v>43732.999305555553</v>
       </c>
       <c r="J11" s="30">
@@ -59802,10 +59862,10 @@
       <c r="G12" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="106">
+      <c r="H12" s="100">
         <v>43735</v>
       </c>
-      <c r="I12" s="106">
+      <c r="I12" s="100">
         <v>43764.999988425923</v>
       </c>
       <c r="J12" s="30">
@@ -59887,10 +59947,10 @@
       <c r="G13" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="106">
+      <c r="H13" s="100">
         <v>43735</v>
       </c>
-      <c r="I13" s="106">
+      <c r="I13" s="100">
         <v>43764.999988425923</v>
       </c>
       <c r="J13" s="30">
@@ -59972,10 +60032,10 @@
       <c r="G14" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="106">
+      <c r="H14" s="100">
         <v>43735</v>
       </c>
-      <c r="I14" s="106">
+      <c r="I14" s="100">
         <v>43764.999988425923</v>
       </c>
       <c r="J14" s="30">
@@ -60057,10 +60117,10 @@
       <c r="G15" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="106">
+      <c r="H15" s="100">
         <v>43735</v>
       </c>
-      <c r="I15" s="106">
+      <c r="I15" s="100">
         <v>43764.999988425923</v>
       </c>
       <c r="J15" s="30">
@@ -60142,10 +60202,10 @@
       <c r="G16" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="106">
+      <c r="H16" s="100">
         <v>43765</v>
       </c>
-      <c r="I16" s="106">
+      <c r="I16" s="100">
         <v>43795.999305555553</v>
       </c>
       <c r="J16" s="30">
@@ -60227,10 +60287,10 @@
       <c r="G17" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H17" s="106">
+      <c r="H17" s="100">
         <v>43765</v>
       </c>
-      <c r="I17" s="106">
+      <c r="I17" s="100">
         <v>43795.999305555553</v>
       </c>
       <c r="J17" s="30">
@@ -60312,10 +60372,10 @@
       <c r="G18" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H18" s="106">
+      <c r="H18" s="100">
         <v>43765</v>
       </c>
-      <c r="I18" s="106">
+      <c r="I18" s="100">
         <v>43795.999305555553</v>
       </c>
       <c r="J18" s="30">
@@ -60397,10 +60457,10 @@
       <c r="G19" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H19" s="106">
+      <c r="H19" s="100">
         <v>43765</v>
       </c>
-      <c r="I19" s="106">
+      <c r="I19" s="100">
         <v>43795.999305555553</v>
       </c>
       <c r="J19" s="30">
@@ -60482,10 +60542,10 @@
       <c r="G20" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="100">
         <v>43796</v>
       </c>
-      <c r="I20" s="106">
+      <c r="I20" s="100">
         <v>43818.999305555553</v>
       </c>
       <c r="J20" s="30">
@@ -60567,10 +60627,10 @@
       <c r="G21" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="106">
+      <c r="H21" s="100">
         <v>43796</v>
       </c>
-      <c r="I21" s="106">
+      <c r="I21" s="100">
         <v>43818.999305555553</v>
       </c>
       <c r="J21" s="30">
@@ -60652,10 +60712,10 @@
       <c r="G22" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H22" s="106">
+      <c r="H22" s="100">
         <v>43796</v>
       </c>
-      <c r="I22" s="106">
+      <c r="I22" s="100">
         <v>43818.999305555553</v>
       </c>
       <c r="J22" s="30">
@@ -60737,10 +60797,10 @@
       <c r="G23" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H23" s="106">
+      <c r="H23" s="100">
         <v>43796</v>
       </c>
-      <c r="I23" s="106">
+      <c r="I23" s="100">
         <v>43818.999305555553</v>
       </c>
       <c r="J23" s="30">
@@ -60822,10 +60882,10 @@
       <c r="G24" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H24" s="106">
+      <c r="H24" s="100">
         <v>43823</v>
       </c>
-      <c r="I24" s="106">
+      <c r="I24" s="100">
         <v>43851</v>
       </c>
       <c r="J24" s="30">
@@ -60834,16 +60894,16 @@
       <c r="K24" s="30">
         <v>0</v>
       </c>
-      <c r="L24" s="108">
+      <c r="L24" s="102">
         <v>10</v>
       </c>
-      <c r="M24" s="108">
-        <v>1</v>
-      </c>
-      <c r="N24" s="108">
+      <c r="M24" s="102">
+        <v>1</v>
+      </c>
+      <c r="N24" s="102">
         <v>10</v>
       </c>
-      <c r="O24" s="108">
+      <c r="O24" s="102">
         <v>2</v>
       </c>
       <c r="P24" s="30" t="b">
@@ -60907,10 +60967,10 @@
       <c r="G25" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H25" s="106">
+      <c r="H25" s="100">
         <v>43823</v>
       </c>
-      <c r="I25" s="106">
+      <c r="I25" s="100">
         <v>43851</v>
       </c>
       <c r="J25" s="30">
@@ -60919,16 +60979,16 @@
       <c r="K25" s="30">
         <v>0</v>
       </c>
-      <c r="L25" s="108">
+      <c r="L25" s="102">
         <v>25</v>
       </c>
-      <c r="M25" s="108">
-        <v>1</v>
-      </c>
-      <c r="N25" s="108">
+      <c r="M25" s="102">
+        <v>1</v>
+      </c>
+      <c r="N25" s="102">
         <v>30</v>
       </c>
-      <c r="O25" s="108">
+      <c r="O25" s="102">
         <v>5</v>
       </c>
       <c r="P25" s="30" t="b">
@@ -60992,10 +61052,10 @@
       <c r="G26" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H26" s="106">
+      <c r="H26" s="100">
         <v>43823</v>
       </c>
-      <c r="I26" s="106">
+      <c r="I26" s="100">
         <v>43851</v>
       </c>
       <c r="J26" s="30">
@@ -61004,16 +61064,16 @@
       <c r="K26" s="30">
         <v>0</v>
       </c>
-      <c r="L26" s="108">
+      <c r="L26" s="102">
         <v>40</v>
       </c>
-      <c r="M26" s="108">
-        <v>1</v>
-      </c>
-      <c r="N26" s="108">
+      <c r="M26" s="102">
+        <v>1</v>
+      </c>
+      <c r="N26" s="102">
         <v>45</v>
       </c>
-      <c r="O26" s="108">
+      <c r="O26" s="102">
         <v>20</v>
       </c>
       <c r="P26" s="30" t="b">
@@ -61077,10 +61137,10 @@
       <c r="G27" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="106">
+      <c r="H27" s="100">
         <v>43823</v>
       </c>
-      <c r="I27" s="106">
+      <c r="I27" s="100">
         <v>43851</v>
       </c>
       <c r="J27" s="30">
@@ -61089,16 +61149,16 @@
       <c r="K27" s="30">
         <v>0</v>
       </c>
-      <c r="L27" s="108">
+      <c r="L27" s="102">
         <v>30</v>
       </c>
-      <c r="M27" s="108">
-        <v>1</v>
-      </c>
-      <c r="N27" s="108">
+      <c r="M27" s="102">
+        <v>1</v>
+      </c>
+      <c r="N27" s="102">
         <v>35</v>
       </c>
-      <c r="O27" s="108">
+      <c r="O27" s="102">
         <v>8</v>
       </c>
       <c r="P27" s="30" t="b">
@@ -61162,10 +61222,10 @@
       <c r="G28" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H28" s="106">
+      <c r="H28" s="100">
         <v>43823</v>
       </c>
-      <c r="I28" s="106">
+      <c r="I28" s="100">
         <v>43851</v>
       </c>
       <c r="J28" s="30">
@@ -61174,16 +61234,16 @@
       <c r="K28" s="30">
         <v>0</v>
       </c>
-      <c r="L28" s="108">
+      <c r="L28" s="102">
         <v>20</v>
       </c>
-      <c r="M28" s="108">
-        <v>1</v>
-      </c>
-      <c r="N28" s="108">
+      <c r="M28" s="102">
+        <v>1</v>
+      </c>
+      <c r="N28" s="102">
         <v>18</v>
       </c>
-      <c r="O28" s="108">
+      <c r="O28" s="102">
         <v>10</v>
       </c>
       <c r="P28" s="30" t="b">
@@ -61234,25 +61294,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="U11" sqref="U11:V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="8.875" style="6"/>
-    <col min="4" max="4" width="10.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.875" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.875" style="6"/>
-    <col min="10" max="10" width="11.125" style="105" customWidth="1"/>
-    <col min="11" max="12" width="11.125" style="101" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="112" customWidth="1"/>
+    <col min="11" max="12" width="11.125" style="116" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="8.875" style="1"/>
     <col min="20" max="16384" width="8.875" style="6"/>
@@ -61286,13 +61346,13 @@
       <c r="I1" s="77" t="s">
         <v>1843</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="98" t="s">
         <v>1951</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="114" t="s">
         <v>1844</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="114" t="s">
         <v>1845</v>
       </c>
       <c r="M1" s="77" t="s">
@@ -61345,13 +61405,13 @@
       <c r="I2" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="J2" s="103" t="s">
+      <c r="J2" s="99" t="s">
         <v>1950</v>
       </c>
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="115" t="s">
         <v>1033</v>
       </c>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="115" t="s">
         <v>1034</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -61407,7 +61467,7 @@
       <c r="I3" s="6">
         <v>200</v>
       </c>
-      <c r="J3" s="104">
+      <c r="J3" s="113">
         <v>2</v>
       </c>
       <c r="K3" s="100" t="s">
@@ -61470,7 +61530,7 @@
       <c r="I4" s="6">
         <v>1800</v>
       </c>
-      <c r="J4" s="104">
+      <c r="J4" s="113">
         <v>18</v>
       </c>
       <c r="K4" s="100" t="s">
@@ -61501,7 +61561,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="6" t="str">
-        <f t="shared" ref="U4:U10" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" Prefab="""&amp;F4&amp;""" Region="""&amp;G4&amp;""" Purchase="""&amp;H4&amp;""" Price="""&amp;I4&amp;""" Exp="""&amp;J4&amp;""" StartTime="""&amp;K4&amp;""" EndTime="""&amp;L4&amp;""" Level="""&amp;M4&amp;""" PURPIE="""&amp;N4&amp;""" DONNY="""&amp;O4&amp;""" NINJI="""&amp;P4&amp;""" SANSA="""&amp;Q4&amp;""" YOYO="""&amp;R4&amp;""" NUO="""&amp;S4&amp;""" /&gt;","")</f>
+        <f t="shared" ref="U4:U16" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" Prefab="""&amp;F4&amp;""" Region="""&amp;G4&amp;""" Purchase="""&amp;H4&amp;""" Price="""&amp;I4&amp;""" Exp="""&amp;J4&amp;""" StartTime="""&amp;K4&amp;""" EndTime="""&amp;L4&amp;""" Level="""&amp;M4&amp;""" PURPIE="""&amp;N4&amp;""" DONNY="""&amp;O4&amp;""" NINJI="""&amp;P4&amp;""" SANSA="""&amp;Q4&amp;""" YOYO="""&amp;R4&amp;""" NUO="""&amp;S4&amp;""" /&gt;","")</f>
         <v>&lt;Accessory ID="20002" Type="2" Index="6" Name="devil wing" Icon="part_wing_bat" Prefab="wing_point" Region="Dummy_wing" Purchase="Coin" Price="1800" Exp="18" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
@@ -61533,7 +61593,7 @@
       <c r="I5" s="6">
         <v>800</v>
       </c>
-      <c r="J5" s="104">
+      <c r="J5" s="113">
         <v>8</v>
       </c>
       <c r="K5" s="100" t="s">
@@ -61596,7 +61656,7 @@
       <c r="I6" s="6">
         <v>300</v>
       </c>
-      <c r="J6" s="104">
+      <c r="J6" s="113">
         <v>3</v>
       </c>
       <c r="K6" s="100" t="s">
@@ -61627,7 +61687,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(A6&lt;&gt;"",B6&lt;&gt;""),"&lt;Accessory ID="""&amp;A6&amp;""" Type="""&amp;B6&amp;""" Index="""&amp;C6&amp;""" Name="""&amp;D6&amp;""" Icon="""&amp;E6&amp;""" Prefab="""&amp;F6&amp;""" Region="""&amp;G16&amp;""" Purchase="""&amp;H6&amp;""" Price="""&amp;I6&amp;""" Exp="""&amp;J6&amp;""" StartTime="""&amp;K6&amp;""" EndTime="""&amp;L6&amp;""" Level="""&amp;M6&amp;""" PURPIE="""&amp;N6&amp;""" DONNY="""&amp;O6&amp;""" NINJI="""&amp;P6&amp;""" SANSA="""&amp;Q6&amp;""" YOYO="""&amp;R6&amp;""" NUO="""&amp;S6&amp;""" /&gt;","")</f>
         <v>&lt;Accessory ID="20004" Type="6" Index="2" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="BottomRight" Purchase="Coin" Price="300" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="0" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
@@ -61659,7 +61719,7 @@
       <c r="I7" s="6">
         <v>1.99</v>
       </c>
-      <c r="J7" s="104">
+      <c r="J7" s="113">
         <v>19</v>
       </c>
       <c r="K7" s="100" t="s">
@@ -61722,7 +61782,7 @@
       <c r="I8" s="6">
         <v>1000</v>
       </c>
-      <c r="J8" s="104">
+      <c r="J8" s="113">
         <v>10</v>
       </c>
       <c r="K8" s="100" t="s">
@@ -61785,7 +61845,7 @@
       <c r="I9" s="6">
         <v>2000</v>
       </c>
-      <c r="J9" s="104">
+      <c r="J9" s="113">
         <v>20</v>
       </c>
       <c r="K9" s="100" t="s">
@@ -61848,7 +61908,7 @@
       <c r="I10" s="6">
         <v>500</v>
       </c>
-      <c r="J10" s="104">
+      <c r="J10" s="113">
         <v>5</v>
       </c>
       <c r="K10" s="100" t="s">
@@ -61881,6 +61941,447 @@
       <c r="U10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Accessory ID="20008" Type="6" Index="8" Name="snowman" Icon="elf_down_snowman" Prefab="snowman" Region="BottomRight" Purchase="Coin" Price="500" Exp="5" StartTime="null" EndTime="null" Level="10" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="0" /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75">
+      <c r="A11" s="6">
+        <v>20009</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1995</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I11" s="6">
+        <v>200</v>
+      </c>
+      <c r="J11" s="112">
+        <v>20</v>
+      </c>
+      <c r="K11" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L11" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Accessory ID="20009" Type="1" Index="9" Name="antler ponit" Icon="part_head_antler02" Prefab="antler_ponit" Region="Dummy_head" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75">
+      <c r="A12" s="6">
+        <v>20010</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I12" s="6">
+        <v>200</v>
+      </c>
+      <c r="J12" s="112">
+        <v>20</v>
+      </c>
+      <c r="K12" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L12" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Accessory ID="20010" Type="1" Index="10" Name="christmas hat" Icon="part_head_merryhat" Prefab="christmas hat_point" Region="Dummy_head" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75">
+      <c r="A13" s="6">
+        <v>20011</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I13" s="6">
+        <v>200</v>
+      </c>
+      <c r="J13" s="112">
+        <v>20</v>
+      </c>
+      <c r="K13" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L13" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Accessory ID="20011" Type="4" Index="11" Name="christmas point" Icon="suit_pur_merry" Prefab="christmas_point" Region="Dummy_wing" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75">
+      <c r="A14" s="6">
+        <v>20012</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I14" s="6">
+        <v>200</v>
+      </c>
+      <c r="J14" s="112">
+        <v>20</v>
+      </c>
+      <c r="K14" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L14" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Accessory ID="20012" Type="6" Index="12" Name="elk" Icon="elf_down_deer" Prefab="elk" Region="TopLeft" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75">
+      <c r="A15" s="6">
+        <v>20013</v>
+      </c>
+      <c r="B15" s="6">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I15" s="6">
+        <v>200</v>
+      </c>
+      <c r="J15" s="112">
+        <v>20</v>
+      </c>
+      <c r="K15" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L15" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="6" t="str">
+        <f t="shared" ref="U15" si="1">IF(AND(A15&lt;&gt;"",B15&lt;&gt;""),"&lt;Accessory ID="""&amp;A15&amp;""" Type="""&amp;B15&amp;""" Index="""&amp;C15&amp;""" Name="""&amp;D15&amp;""" Icon="""&amp;E15&amp;""" Prefab="""&amp;F15&amp;""" Region="""&amp;G15&amp;""" Purchase="""&amp;H15&amp;""" Price="""&amp;I15&amp;""" Exp="""&amp;J15&amp;""" StartTime="""&amp;K15&amp;""" EndTime="""&amp;L15&amp;""" Level="""&amp;M15&amp;""" PURPIE="""&amp;N15&amp;""" DONNY="""&amp;O15&amp;""" NINJI="""&amp;P15&amp;""" SANSA="""&amp;Q15&amp;""" YOYO="""&amp;R15&amp;""" NUO="""&amp;S15&amp;""" /&gt;","")</f>
+        <v>&lt;Accessory ID="20013" Type="6" Index="13" Name="elk02" Icon="elf_down_deer02" Prefab="elk_A" Region="TopLeft" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75">
+      <c r="A16" s="6">
+        <v>20014</v>
+      </c>
+      <c r="B16" s="6">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1994</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I16" s="6">
+        <v>200</v>
+      </c>
+      <c r="J16" s="112">
+        <v>20</v>
+      </c>
+      <c r="K16" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L16" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Accessory ID="20014" Type="5" Index="14" Name="giftbox" Icon="elf_up_gift" Prefab="giftbox" Region="BottomRight" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75">
+      <c r="A17" s="6">
+        <v>20015</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>2005</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I17" s="6">
+        <v>200</v>
+      </c>
+      <c r="J17" s="112">
+        <v>20</v>
+      </c>
+      <c r="K17" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L17" s="100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="6" t="str">
+        <f t="shared" ref="U17" si="2">IF(AND(A17&lt;&gt;"",B17&lt;&gt;""),"&lt;Accessory ID="""&amp;A17&amp;""" Type="""&amp;B17&amp;""" Index="""&amp;C17&amp;""" Name="""&amp;D17&amp;""" Icon="""&amp;E17&amp;""" Prefab="""&amp;F17&amp;""" Region="""&amp;G17&amp;""" Purchase="""&amp;H17&amp;""" Price="""&amp;I17&amp;""" Exp="""&amp;J17&amp;""" StartTime="""&amp;K17&amp;""" EndTime="""&amp;L17&amp;""" Level="""&amp;M17&amp;""" PURPIE="""&amp;N17&amp;""" DONNY="""&amp;O17&amp;""" NINJI="""&amp;P17&amp;""" SANSA="""&amp;Q17&amp;""" YOYO="""&amp;R17&amp;""" NUO="""&amp;S17&amp;""" /&gt;","")</f>
+        <v>&lt;Accessory ID="20015" Type="5" Index="15" Name="giftbox02" Icon="elf_up_gift02" Prefab="giftbox_A" Region="BottomRight" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E049A1E-CE1D-4608-A355-1D370F25FC53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513CB59F-BF99-472C-9110-D64568A1FDC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -394,7 +394,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1.Dummy_head 头部挂点
-2.Dummy_wing 翅膀/套装挂点
+2.Dummy_wing 翅膀挂点
+3.Dummy_taozhuang套装挂点
 8.TopLet 左上角小精灵根物体
 9.BottomRight 右下角小精灵根物体
 </t>
@@ -470,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="2011">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6816,6 +6817,9 @@
   <si>
     <t>elk02</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy_taozhuang</t>
   </si>
 </sst>
 </file>
@@ -17534,8 +17538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
@@ -61296,11 +61300,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11:V17"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -61688,7 +61692,7 @@
       </c>
       <c r="U6" s="6" t="str">
         <f>IF(AND(A6&lt;&gt;"",B6&lt;&gt;""),"&lt;Accessory ID="""&amp;A6&amp;""" Type="""&amp;B6&amp;""" Index="""&amp;C6&amp;""" Name="""&amp;D6&amp;""" Icon="""&amp;E6&amp;""" Prefab="""&amp;F6&amp;""" Region="""&amp;G16&amp;""" Purchase="""&amp;H6&amp;""" Price="""&amp;I6&amp;""" Exp="""&amp;J6&amp;""" StartTime="""&amp;K6&amp;""" EndTime="""&amp;L6&amp;""" Level="""&amp;M6&amp;""" PURPIE="""&amp;N6&amp;""" DONNY="""&amp;O6&amp;""" NINJI="""&amp;P6&amp;""" SANSA="""&amp;Q6&amp;""" YOYO="""&amp;R6&amp;""" NUO="""&amp;S6&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20004" Type="6" Index="2" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="BottomRight" Purchase="Coin" Price="300" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="0" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20004" Type="6" Index="2" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="TopLeft" Purchase="Coin" Price="300" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="0" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75">
@@ -62089,7 +62093,7 @@
         <v>1992</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>1946</v>
+        <v>2010</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>1861</v>
@@ -62113,23 +62117,23 @@
         <v>1</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20011" Type="4" Index="11" Name="christmas point" Icon="suit_pur_merry" Prefab="christmas_point" Region="Dummy_wing" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20011" Type="4" Index="11" Name="christmas point" Icon="suit_pur_merry" Prefab="christmas_point" Region="Dummy_taozhuang" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="0" NINJI="0" SANSA="0" YOYO="0" NUO="0" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75">
@@ -62152,7 +62156,7 @@
         <v>1993</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>1861</v>
@@ -62192,7 +62196,7 @@
       </c>
       <c r="U14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20012" Type="6" Index="12" Name="elk" Icon="elf_down_deer" Prefab="elk" Region="TopLeft" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20012" Type="6" Index="12" Name="elk" Icon="elf_down_deer" Prefab="elk" Region="BottomRight" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75">
@@ -62215,7 +62219,7 @@
         <v>2007</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>1861</v>
@@ -62255,7 +62259,7 @@
       </c>
       <c r="U15" s="6" t="str">
         <f t="shared" ref="U15" si="1">IF(AND(A15&lt;&gt;"",B15&lt;&gt;""),"&lt;Accessory ID="""&amp;A15&amp;""" Type="""&amp;B15&amp;""" Index="""&amp;C15&amp;""" Name="""&amp;D15&amp;""" Icon="""&amp;E15&amp;""" Prefab="""&amp;F15&amp;""" Region="""&amp;G15&amp;""" Purchase="""&amp;H15&amp;""" Price="""&amp;I15&amp;""" Exp="""&amp;J15&amp;""" StartTime="""&amp;K15&amp;""" EndTime="""&amp;L15&amp;""" Level="""&amp;M15&amp;""" PURPIE="""&amp;N15&amp;""" DONNY="""&amp;O15&amp;""" NINJI="""&amp;P15&amp;""" SANSA="""&amp;Q15&amp;""" YOYO="""&amp;R15&amp;""" NUO="""&amp;S15&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20013" Type="6" Index="13" Name="elk02" Icon="elf_down_deer02" Prefab="elk_A" Region="TopLeft" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20013" Type="6" Index="13" Name="elk02" Icon="elf_down_deer02" Prefab="elk_A" Region="BottomRight" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75">
@@ -62278,7 +62282,7 @@
         <v>1994</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>1861</v>
@@ -62318,7 +62322,7 @@
       </c>
       <c r="U16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20014" Type="5" Index="14" Name="giftbox" Icon="elf_up_gift" Prefab="giftbox" Region="BottomRight" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20014" Type="5" Index="14" Name="giftbox" Icon="elf_up_gift" Prefab="giftbox" Region="TopLeft" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75">
@@ -62341,7 +62345,7 @@
         <v>2005</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>1861</v>
@@ -62381,7 +62385,7 @@
       </c>
       <c r="U17" s="6" t="str">
         <f t="shared" ref="U17" si="2">IF(AND(A17&lt;&gt;"",B17&lt;&gt;""),"&lt;Accessory ID="""&amp;A17&amp;""" Type="""&amp;B17&amp;""" Index="""&amp;C17&amp;""" Name="""&amp;D17&amp;""" Icon="""&amp;E17&amp;""" Prefab="""&amp;F17&amp;""" Region="""&amp;G17&amp;""" Purchase="""&amp;H17&amp;""" Price="""&amp;I17&amp;""" Exp="""&amp;J17&amp;""" StartTime="""&amp;K17&amp;""" EndTime="""&amp;L17&amp;""" Level="""&amp;M17&amp;""" PURPIE="""&amp;N17&amp;""" DONNY="""&amp;O17&amp;""" NINJI="""&amp;P17&amp;""" SANSA="""&amp;Q17&amp;""" YOYO="""&amp;R17&amp;""" NUO="""&amp;S17&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20015" Type="5" Index="15" Name="giftbox02" Icon="elf_up_gift02" Prefab="giftbox_A" Region="BottomRight" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20015" Type="5" Index="15" Name="giftbox02" Icon="elf_up_gift02" Prefab="giftbox_A" Region="TopLeft" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C0FFC-9FA7-4407-B0FE-3367CE42EBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7606BE1-22BE-48C8-BFC4-8EB15C0BF124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{23FE6301-C0EC-44AF-A807-158311140B61}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -414,7 +414,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A953BD75-8195-40A3-8707-76EEC3385289}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +453,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -473,53 +473,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="2025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="2026">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>getImage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>StoryBg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AudioId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Image</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Audio</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Animation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;Item Id="40002" Type="4" Name="nim0102" getImage="Home_box_nim_ocean brim02 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
@@ -898,11 +898,11 @@
   </si>
   <si>
     <t>输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>nim_01_01_SkeletonData.asset</t>
@@ -1029,7 +1029,7 @@
   </si>
   <si>
     <t>nim_02_17_SkeletonData.asset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>nim_03_01_SkeletonData.asset</t>
@@ -1096,7 +1096,7 @@
   </si>
   <si>
     <t>Home_Nim_desert daze19_SkeletonData.asset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1-1-128.mp3</t>
@@ -1478,7 +1478,7 @@
   </si>
   <si>
     <t>PetType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>atom_icon0001</t>
@@ -1854,15 +1854,15 @@
   </si>
   <si>
     <t>Sea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Forest</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Desert</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sea/1-1-128</t>
@@ -2244,11 +2244,11 @@
   </si>
   <si>
     <t>Preview</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ocean</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>imgNim01011</t>
@@ -3017,7 +3017,7 @@
   </si>
   <si>
     <t>Rock/imgNim04011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>atom_icon0148</t>
@@ -3078,39 +3078,39 @@
   </si>
   <si>
     <t>Rock/imgNim04021</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04022</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04031</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04032</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04041</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04042</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04051</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04052</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04061</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Home_box_nim_volcano02 (2)</t>
@@ -3171,42 +3171,42 @@
   </si>
   <si>
     <t>Rock/imgNim04071</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04072</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04081</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04082</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04091</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04092</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04101</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/imgNim04102</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Home_box_nim_volcano02 (1)</t>
   </si>
   <si>
     <t>nim0401</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>nim0402</t>
@@ -3489,59 +3489,59 @@
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Background</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NimIcon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>QuestId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>dailyGoalPercent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AwardCoin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Box1 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Box1 Height</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Box2 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Box2 Height</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>atom_icon0043</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>atom_icon0106</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>atom_icon0157</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ItemId</t>
@@ -3551,174 +3551,174 @@
   </si>
   <si>
     <t>Rock/1-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/1-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/2-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/2-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/3-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/3-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/4-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/4-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/5-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/5-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/6-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/6-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/7-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/7-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/8-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/8-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/9-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/9-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/10-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rock/10-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Number</t>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Tag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IsNew</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IsCampain</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>StartTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EndTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UnlockLevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rarity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sale</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Hp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Exp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IsShow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcquireWay</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DefaultIcon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HighLightIcon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ReactionAnim</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>XML</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bread</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mainFood</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Coin</t>
@@ -3731,82 +3731,82 @@
   </si>
   <si>
     <t>NINJI:1;SANSA:1;PURPIE:1;DONNY:1;YOYO:1;NUO:1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>milk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>drink</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_milk_small</t>
   </si>
   <si>
     <t>food_milk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NINJI:2;SANSA:2;PURPIE:2;DONNY:2;YOYO:2;NUO:2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_rice_small</t>
   </si>
   <si>
     <t>food_rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>donut</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>snack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_donut_small</t>
   </si>
   <si>
     <t>food_donut</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NINJI:3;SANSA:3;PURPIE:3;DONNY:3;YOYO:3;NUO:3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>salad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_salad_small</t>
   </si>
   <si>
     <t>food_salad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>chocolate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_chocolate_small</t>
   </si>
   <si>
     <t>food_chocolate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>pork mooncake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>moomcake_small</t>
@@ -3816,7 +3816,7 @@
   </si>
   <si>
     <t>yolk mooncake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>yolk_small</t>
@@ -3826,11 +3826,11 @@
   </si>
   <si>
     <t>NINJI:2;SANSA:2;PURPIE:2;DONNY2;YOYO:2;NUO:2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>kernel mooncake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>taro_small</t>
@@ -3840,138 +3840,138 @@
   </si>
   <si>
     <t>flagjuice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_flagjuice_small</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_flagjuice</t>
   </si>
   <si>
     <t>bombmuffin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_bombmuffin_small</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_bombmuffin</t>
   </si>
   <si>
     <t>nestcake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_nestcake_small</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_nestcake</t>
   </si>
   <si>
     <t>rocketcookie</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_rocketcookie_small</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_rocketcookie</t>
   </si>
   <si>
     <t>数据提取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数据复制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>饥饿值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>升级奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每口奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每日目标30%奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每日目标60%奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每日目标100%奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>格式化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>原始xml数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>exp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>hunger</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>coinDL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>coinUL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>expN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>expG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>rate30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>rateMore</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>expDL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>expUL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;LevelUp level="1" exp="45"/&gt;</t>
   </si>
   <si>
     <t>&lt;LevelUp level="2" exp="70"/&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;LevelUp level="3" exp="105"/&gt;</t>
@@ -4284,79 +4284,79 @@
   </si>
   <si>
     <t>food_mummy_chocolate_small</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_skull_cookie_small</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_spider_cake_small</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_toffee_apple_small</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_mummy_chocolate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Home_hallowmas__bg_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Home_hallowmas__bg_03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Home_hallowmas__bg_04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>spider cake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_spider_cake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>toffee apple</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>fruit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_toffee_apple</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mummy chocolate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>skull cookie</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_skull_cookie</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sound</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>hallowmas_effect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BGM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>hallowmas_bgm</t>
@@ -4390,7 +4390,7 @@
   </si>
   <si>
     <t>WaterDropAudio</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;Sound Type="nin_level_end_01"&gt;</t>
@@ -5780,15 +5780,15 @@
   </si>
   <si>
     <t>SoundPath</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;Clip SoundPath="dony_eat_act_loop" /&gt;</t>
@@ -6074,7 +6074,7 @@
   </si>
   <si>
     <t>Remote</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;Sound Type="welcome_halloween" Des="万圣节欢迎音频"&gt;</t>
@@ -6096,35 +6096,35 @@
   </si>
   <si>
     <t>Des</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;Clip SoundPath="level_up_nuo_01" /&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;Clip SoundPath="level_up_nuo_02" /&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;Sound Type="nin_friend_guest_back_01"&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;Clip SoundPath="nin_friend_guest_back_01" /&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;Sound Type="nuo_friend_guest_out_01"&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;Clip SoundPath="nuo_friend_guest_out_01" /&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PURPIE</t>
@@ -6146,215 +6146,211 @@
   </si>
   <si>
     <t>Purchase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>XML</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Region</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>显示序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>预制体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>部位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>购买方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>开始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>胖紫适用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>逗泥适用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小忍适用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>珊珊适用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>呦呦适用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>诺诺适用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>wizard hat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>devil wing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ghost</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>pumpkin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>snow cloud</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>snow wing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cornu cervi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>snowman</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Coin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Coin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>opensandwich</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mainFood</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>fruitdanish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>snack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>herring</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>fish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>meatball</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mainFood</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_fruitdanish_small</t>
   </si>
   <si>
     <t>food_fruitdanish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_herring_small</t>
   </si>
   <si>
     <t>food_herring</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_meatball_small</t>
   </si>
   <si>
     <t>food_meatball</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>food_opensandwich_small</t>
   </si>
   <si>
     <t>food_opensandwich</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>我是一条分割线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>解锁等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Home_Backgrond_hfairy_tale_bg_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Home_Backgrond_hfairy_tale_bg_02</t>
@@ -6388,14 +6384,14 @@
   </si>
   <si>
     <t>我是一条分割线(下面的行，没有“输入”，内容手填)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>galaxy_unlock</t>
   </si>
   <si>
     <t>星球或地图解锁提示音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>galaxy_unlock01</t>
@@ -6411,11 +6407,11 @@
   </si>
   <si>
     <t>饮水解锁新地图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新地图稍后解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>galaxy_lock_drink</t>
@@ -6428,7 +6424,7 @@
   </si>
   <si>
     <t>换装页背景音乐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mall_welcome</t>
@@ -6450,7 +6446,7 @@
   </si>
   <si>
     <t>换装页欢迎语音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mall_purchase_lock</t>
@@ -6469,43 +6465,43 @@
   </si>
   <si>
     <t>换装页今日饮水量未达标提醒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>换装页等级不够提醒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>换装页配饰不适用提醒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>换装页显示二维码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>换装页二维码购物成功</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mall_purchase_lock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mall_suit_not_match</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>popup_goods_level_lock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mall_purchase_qr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mall_purchase_qr_complete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>part_head_hat</t>
@@ -6569,11 +6565,11 @@
   </si>
   <si>
     <t>Exp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获得经验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mall_change_item</t>
@@ -6592,23 +6588,23 @@
   </si>
   <si>
     <t>换装页切换配饰/小精灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>换装页穿上配饰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>换装页脱下配饰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>换装页小精灵出场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>换装页小精灵退场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6625,7 +6621,7 @@
       </rPr>
       <t>ake</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6642,7 +6638,7 @@
       </rPr>
       <t>andy</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6659,7 +6655,7 @@
       </rPr>
       <t>hicken</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6676,7 +6672,7 @@
       </rPr>
       <t>inger bread</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>pudding</t>
@@ -6713,7 +6709,7 @@
   </si>
   <si>
     <t>xmas_bgm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>feed_welcome_xmas</t>
@@ -6738,15 +6734,15 @@
   </si>
   <si>
     <t>喂食页圣诞节欢迎语音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>喂食页圣诞节背景音乐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Home_christmas_bg_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Home_christmas_bg_02</t>
@@ -6771,19 +6767,19 @@
   </si>
   <si>
     <t>antler_ponit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>antler ponit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>christmas hat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>christmas point</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>part_head_antler02</t>
@@ -6802,7 +6798,7 @@
   </si>
   <si>
     <t>giftbox02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>giftbox_A</t>
@@ -6818,34 +6814,34 @@
   </si>
   <si>
     <t>elk02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Dummy_taozhuang</t>
   </si>
   <si>
     <t>配置编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>配置描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>金币或道具百分比</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>道具来源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Percent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Source</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>普通30%dailyGoal宝箱</t>
@@ -6855,11 +6851,11 @@
     <rPh sb="14" eb="15">
       <t>bao'xiang</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Food</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>普通60%dailyGoal宝箱</t>
@@ -6869,7 +6865,7 @@
     <rPh sb="14" eb="15">
       <t>bao'xiang</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>普通100%dailyGoal宝箱</t>
@@ -6879,21 +6875,29 @@
     <rPh sb="15" eb="16">
       <t>bao'xiang</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>coin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>award</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>coin</t>
   </si>
   <si>
     <t>award</t>
+  </si>
+  <si>
+    <t>Cash</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6904,12 +6908,20 @@
     <numFmt numFmtId="176" formatCode="0000"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7063,7 +7075,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -7463,11 +7474,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7503,7 +7514,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7512,19 +7523,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7554,11 +7565,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7595,10 +7606,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7607,10 +7615,13 @@
     <xf numFmtId="0" fontId="13" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7649,15 +7660,15 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7669,10 +7680,10 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7729,22 +7740,22 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7772,10 +7783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -7793,7 +7801,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7808,7 +7837,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7826,35 +7855,21 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8879,8 +8894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
@@ -9195,23 +9210,23 @@
       <c r="O9" s="78"/>
     </row>
     <row r="10" spans="1:15" ht="15.75">
-      <c r="A10" s="117" t="s">
-        <v>1881</v>
-      </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
+      <c r="A10" s="127" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="88" t="str">
@@ -16990,23 +17005,23 @@
       <c r="O156" s="62"/>
     </row>
     <row r="157" spans="1:15" ht="15.75">
-      <c r="A157" s="117" t="s">
-        <v>1881</v>
-      </c>
-      <c r="B157" s="117"/>
-      <c r="C157" s="117"/>
-      <c r="D157" s="117"/>
-      <c r="E157" s="117"/>
-      <c r="F157" s="117"/>
-      <c r="G157" s="117"/>
-      <c r="H157" s="117"/>
-      <c r="I157" s="117"/>
-      <c r="J157" s="117"/>
-      <c r="K157" s="117"/>
-      <c r="L157" s="117"/>
-      <c r="M157" s="117"/>
-      <c r="N157" s="117"/>
-      <c r="O157" s="117"/>
+      <c r="A157" s="127" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B157" s="127"/>
+      <c r="C157" s="127"/>
+      <c r="D157" s="127"/>
+      <c r="E157" s="127"/>
+      <c r="F157" s="127"/>
+      <c r="G157" s="127"/>
+      <c r="H157" s="127"/>
+      <c r="I157" s="127"/>
+      <c r="J157" s="127"/>
+      <c r="K157" s="127"/>
+      <c r="L157" s="127"/>
+      <c r="M157" s="127"/>
+      <c r="N157" s="127"/>
+      <c r="O157" s="127"/>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="92">
@@ -17558,7 +17573,7 @@
     <mergeCell ref="A157:O157"/>
     <mergeCell ref="A10:O10"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17759,21 +17774,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B1B26C-FFB5-438F-A867-820418F46D08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB3" sqref="AB3"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -17788,60 +17803,60 @@
     <col min="8" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="6.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7" style="124" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7" style="124" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7" style="124" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="131" t="s">
         <v>1095</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="132" t="s">
         <v>1096</v>
       </c>
-      <c r="F1" s="122"/>
+      <c r="F1" s="132"/>
       <c r="G1" s="32" t="s">
         <v>1097</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="H1" s="133" t="s">
         <v>1098</v>
       </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="125" t="s">
+      <c r="I1" s="134"/>
+      <c r="J1" s="135" t="s">
         <v>1099</v>
       </c>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="126" t="s">
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="136" t="s">
         <v>1100</v>
       </c>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="127" t="s">
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="137" t="s">
         <v>1101</v>
       </c>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="118" t="s">
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="128" t="s">
         <v>1102</v>
       </c>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="119" t="s">
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="129" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -17849,10 +17864,10 @@
       <c r="A2" s="33" t="s">
         <v>1104</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="113" t="s">
         <v>1105</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="113" t="s">
         <v>1106</v>
       </c>
       <c r="D2" s="34"/>
@@ -17871,41 +17886,41 @@
       <c r="I2" s="36" t="s">
         <v>1109</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="114" t="s">
         <v>1108</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="114" t="s">
         <v>1109</v>
       </c>
-      <c r="L2" s="115" t="s">
+      <c r="L2" s="114" t="s">
         <v>1110</v>
       </c>
-      <c r="M2" s="115" t="s">
+      <c r="M2" s="114" t="s">
         <v>1111</v>
       </c>
-      <c r="N2" s="115" t="s">
+      <c r="N2" s="114" t="s">
         <v>1112</v>
       </c>
-      <c r="O2" s="115" t="s">
+      <c r="O2" s="114" t="s">
         <v>1113</v>
       </c>
-      <c r="P2" s="137" t="s">
+      <c r="P2" s="122" t="s">
+        <v>2020</v>
+      </c>
+      <c r="Q2" s="122" t="s">
         <v>2021</v>
       </c>
-      <c r="Q2" s="137" t="s">
+      <c r="R2" s="115" t="s">
+        <v>1114</v>
+      </c>
+      <c r="S2" s="115" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T2" s="125" t="s">
         <v>2022</v>
       </c>
-      <c r="R2" s="116" t="s">
-        <v>1114</v>
-      </c>
-      <c r="S2" s="116" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T2" s="138" t="s">
+      <c r="U2" s="125" t="s">
         <v>2023</v>
-      </c>
-      <c r="U2" s="138" t="s">
-        <v>2024</v>
       </c>
       <c r="V2" s="37" t="s">
         <v>1114</v>
@@ -17913,11 +17928,11 @@
       <c r="W2" s="37" t="s">
         <v>1115</v>
       </c>
-      <c r="X2" s="139" t="s">
+      <c r="X2" s="126" t="s">
+        <v>2022</v>
+      </c>
+      <c r="Y2" s="126" t="s">
         <v>2023</v>
-      </c>
-      <c r="Y2" s="139" t="s">
-        <v>2024</v>
       </c>
       <c r="Z2" s="38" t="s">
         <v>1114</v>
@@ -17925,7 +17940,7 @@
       <c r="AA2" s="38" t="s">
         <v>1115</v>
       </c>
-      <c r="AB2" s="120"/>
+      <c r="AB2" s="130"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="39" t="s">
@@ -17974,10 +17989,10 @@
       <c r="O3" s="42">
         <v>0.1</v>
       </c>
-      <c r="P3" s="140">
+      <c r="P3" s="123">
         <v>37</v>
       </c>
-      <c r="Q3" s="140">
+      <c r="Q3" s="123">
         <v>10000</v>
       </c>
       <c r="R3" s="43">
@@ -17986,10 +18001,10 @@
       <c r="S3" s="43">
         <v>10</v>
       </c>
-      <c r="T3" s="138">
+      <c r="T3" s="37">
         <v>51</v>
       </c>
-      <c r="U3" s="138">
+      <c r="U3" s="125">
         <v>10001</v>
       </c>
       <c r="V3" s="37">
@@ -17998,10 +18013,10 @@
       <c r="W3" s="37">
         <v>15</v>
       </c>
-      <c r="X3" s="139">
+      <c r="X3" s="126">
         <v>104</v>
       </c>
-      <c r="Y3" s="139">
+      <c r="Y3" s="126">
         <v>10002</v>
       </c>
       <c r="Z3" s="38">
@@ -18067,10 +18082,10 @@
       <c r="O4" s="42">
         <v>0.1</v>
       </c>
-      <c r="P4" s="140">
+      <c r="P4" s="123">
         <v>40</v>
       </c>
-      <c r="Q4" s="140">
+      <c r="Q4" s="123">
         <v>10000</v>
       </c>
       <c r="R4" s="43">
@@ -18079,10 +18094,10 @@
       <c r="S4" s="43">
         <v>12</v>
       </c>
-      <c r="T4" s="138">
+      <c r="T4" s="37">
         <v>53</v>
       </c>
-      <c r="U4" s="138">
+      <c r="U4" s="125">
         <v>10001</v>
       </c>
       <c r="V4" s="37">
@@ -18091,10 +18106,10 @@
       <c r="W4" s="37">
         <v>18</v>
       </c>
-      <c r="X4" s="139">
+      <c r="X4" s="126">
         <v>107</v>
       </c>
-      <c r="Y4" s="139">
+      <c r="Y4" s="126">
         <v>10002</v>
       </c>
       <c r="Z4" s="38">
@@ -18160,10 +18175,10 @@
       <c r="O5" s="42">
         <v>0.1</v>
       </c>
-      <c r="P5" s="140">
+      <c r="P5" s="123">
         <v>41</v>
       </c>
-      <c r="Q5" s="140">
+      <c r="Q5" s="123">
         <v>10000</v>
       </c>
       <c r="R5" s="43">
@@ -18172,10 +18187,10 @@
       <c r="S5" s="43">
         <v>14</v>
       </c>
-      <c r="T5" s="138">
+      <c r="T5" s="37">
         <v>55</v>
       </c>
-      <c r="U5" s="138">
+      <c r="U5" s="125">
         <v>10001</v>
       </c>
       <c r="V5" s="37">
@@ -18184,10 +18199,10 @@
       <c r="W5" s="37">
         <v>21</v>
       </c>
-      <c r="X5" s="139">
+      <c r="X5" s="126">
         <v>109</v>
       </c>
-      <c r="Y5" s="139">
+      <c r="Y5" s="126">
         <v>10002</v>
       </c>
       <c r="Z5" s="38">
@@ -18253,10 +18268,10 @@
       <c r="O6" s="42">
         <v>0.1</v>
       </c>
-      <c r="P6" s="140">
+      <c r="P6" s="123">
         <v>43</v>
       </c>
-      <c r="Q6" s="140">
+      <c r="Q6" s="123">
         <v>10000</v>
       </c>
       <c r="R6" s="43">
@@ -18265,10 +18280,10 @@
       <c r="S6" s="43">
         <v>16</v>
       </c>
-      <c r="T6" s="138">
+      <c r="T6" s="37">
         <v>57</v>
       </c>
-      <c r="U6" s="138">
+      <c r="U6" s="125">
         <v>10001</v>
       </c>
       <c r="V6" s="37">
@@ -18277,10 +18292,10 @@
       <c r="W6" s="37">
         <v>24</v>
       </c>
-      <c r="X6" s="139">
+      <c r="X6" s="126">
         <v>112</v>
       </c>
-      <c r="Y6" s="139">
+      <c r="Y6" s="126">
         <v>10002</v>
       </c>
       <c r="Z6" s="38">
@@ -18346,10 +18361,10 @@
       <c r="O7" s="42">
         <v>0.1</v>
       </c>
-      <c r="P7" s="140">
+      <c r="P7" s="123">
         <v>44</v>
       </c>
-      <c r="Q7" s="140">
+      <c r="Q7" s="123">
         <v>10000</v>
       </c>
       <c r="R7" s="43">
@@ -18358,10 +18373,10 @@
       <c r="S7" s="43">
         <v>18</v>
       </c>
-      <c r="T7" s="138">
+      <c r="T7" s="37">
         <v>59</v>
       </c>
-      <c r="U7" s="138">
+      <c r="U7" s="125">
         <v>10001</v>
       </c>
       <c r="V7" s="37">
@@ -18370,10 +18385,10 @@
       <c r="W7" s="37">
         <v>27</v>
       </c>
-      <c r="X7" s="139">
+      <c r="X7" s="126">
         <v>113</v>
       </c>
-      <c r="Y7" s="139">
+      <c r="Y7" s="126">
         <v>10002</v>
       </c>
       <c r="Z7" s="38">
@@ -18439,10 +18454,10 @@
       <c r="O8" s="42">
         <v>0.1</v>
       </c>
-      <c r="P8" s="140">
+      <c r="P8" s="123">
         <v>45</v>
       </c>
-      <c r="Q8" s="140">
+      <c r="Q8" s="123">
         <v>10000</v>
       </c>
       <c r="R8" s="43">
@@ -18451,10 +18466,10 @@
       <c r="S8" s="43">
         <v>20</v>
       </c>
-      <c r="T8" s="138">
+      <c r="T8" s="37">
         <v>60</v>
       </c>
-      <c r="U8" s="138">
+      <c r="U8" s="125">
         <v>10001</v>
       </c>
       <c r="V8" s="37">
@@ -18463,10 +18478,10 @@
       <c r="W8" s="37">
         <v>30</v>
       </c>
-      <c r="X8" s="139">
+      <c r="X8" s="126">
         <v>115</v>
       </c>
-      <c r="Y8" s="139">
+      <c r="Y8" s="126">
         <v>10002</v>
       </c>
       <c r="Z8" s="38">
@@ -18532,10 +18547,10 @@
       <c r="O9" s="42">
         <v>0.1</v>
       </c>
-      <c r="P9" s="140">
+      <c r="P9" s="123">
         <v>47</v>
       </c>
-      <c r="Q9" s="140">
+      <c r="Q9" s="123">
         <v>10000</v>
       </c>
       <c r="R9" s="43">
@@ -18544,10 +18559,10 @@
       <c r="S9" s="43">
         <v>22</v>
       </c>
-      <c r="T9" s="138">
+      <c r="T9" s="37">
         <v>61</v>
       </c>
-      <c r="U9" s="138">
+      <c r="U9" s="125">
         <v>10001</v>
       </c>
       <c r="V9" s="37">
@@ -18556,10 +18571,10 @@
       <c r="W9" s="37">
         <v>33</v>
       </c>
-      <c r="X9" s="139">
+      <c r="X9" s="126">
         <v>117</v>
       </c>
-      <c r="Y9" s="139">
+      <c r="Y9" s="126">
         <v>10002</v>
       </c>
       <c r="Z9" s="38">
@@ -18625,10 +18640,10 @@
       <c r="O10" s="42">
         <v>0.1</v>
       </c>
-      <c r="P10" s="140">
+      <c r="P10" s="123">
         <v>48</v>
       </c>
-      <c r="Q10" s="140">
+      <c r="Q10" s="123">
         <v>10000</v>
       </c>
       <c r="R10" s="43">
@@ -18637,10 +18652,10 @@
       <c r="S10" s="43">
         <v>24</v>
       </c>
-      <c r="T10" s="138">
+      <c r="T10" s="37">
         <v>62</v>
       </c>
-      <c r="U10" s="138">
+      <c r="U10" s="125">
         <v>10001</v>
       </c>
       <c r="V10" s="37">
@@ -18649,10 +18664,10 @@
       <c r="W10" s="37">
         <v>36</v>
       </c>
-      <c r="X10" s="139">
+      <c r="X10" s="126">
         <v>118</v>
       </c>
-      <c r="Y10" s="139">
+      <c r="Y10" s="126">
         <v>10002</v>
       </c>
       <c r="Z10" s="38">
@@ -18718,10 +18733,10 @@
       <c r="O11" s="42">
         <v>0.1</v>
       </c>
-      <c r="P11" s="140">
+      <c r="P11" s="123">
         <v>49</v>
       </c>
-      <c r="Q11" s="140">
+      <c r="Q11" s="123">
         <v>10000</v>
       </c>
       <c r="R11" s="43">
@@ -18730,10 +18745,10 @@
       <c r="S11" s="43">
         <v>26</v>
       </c>
-      <c r="T11" s="138">
+      <c r="T11" s="37">
         <v>64</v>
       </c>
-      <c r="U11" s="138">
+      <c r="U11" s="125">
         <v>10001</v>
       </c>
       <c r="V11" s="37">
@@ -18742,10 +18757,10 @@
       <c r="W11" s="37">
         <v>39</v>
       </c>
-      <c r="X11" s="139">
+      <c r="X11" s="126">
         <v>120</v>
       </c>
-      <c r="Y11" s="139">
+      <c r="Y11" s="126">
         <v>10002</v>
       </c>
       <c r="Z11" s="38">
@@ -18811,10 +18826,10 @@
       <c r="O12" s="42">
         <v>0.1</v>
       </c>
-      <c r="P12" s="140">
+      <c r="P12" s="123">
         <v>49</v>
       </c>
-      <c r="Q12" s="140">
+      <c r="Q12" s="123">
         <v>10000</v>
       </c>
       <c r="R12" s="43">
@@ -18823,10 +18838,10 @@
       <c r="S12" s="43">
         <v>28</v>
       </c>
-      <c r="T12" s="138">
+      <c r="T12" s="37">
         <v>65</v>
       </c>
-      <c r="U12" s="138">
+      <c r="U12" s="125">
         <v>10001</v>
       </c>
       <c r="V12" s="37">
@@ -18835,10 +18850,10 @@
       <c r="W12" s="37">
         <v>42</v>
       </c>
-      <c r="X12" s="139">
+      <c r="X12" s="126">
         <v>121</v>
       </c>
-      <c r="Y12" s="139">
+      <c r="Y12" s="126">
         <v>10002</v>
       </c>
       <c r="Z12" s="38">
@@ -18904,10 +18919,10 @@
       <c r="O13" s="42">
         <v>0.1</v>
       </c>
-      <c r="P13" s="140">
+      <c r="P13" s="123">
         <v>50</v>
       </c>
-      <c r="Q13" s="140">
+      <c r="Q13" s="123">
         <v>10000</v>
       </c>
       <c r="R13" s="43">
@@ -18916,10 +18931,10 @@
       <c r="S13" s="43">
         <v>30</v>
       </c>
-      <c r="T13" s="138">
+      <c r="T13" s="37">
         <v>66</v>
       </c>
-      <c r="U13" s="138">
+      <c r="U13" s="125">
         <v>10001</v>
       </c>
       <c r="V13" s="37">
@@ -18928,10 +18943,10 @@
       <c r="W13" s="37">
         <v>45</v>
       </c>
-      <c r="X13" s="139">
+      <c r="X13" s="126">
         <v>122</v>
       </c>
-      <c r="Y13" s="139">
+      <c r="Y13" s="126">
         <v>10002</v>
       </c>
       <c r="Z13" s="38">
@@ -18997,10 +19012,10 @@
       <c r="O14" s="42">
         <v>0.1</v>
       </c>
-      <c r="P14" s="140">
+      <c r="P14" s="123">
         <v>51</v>
       </c>
-      <c r="Q14" s="140">
+      <c r="Q14" s="123">
         <v>10000</v>
       </c>
       <c r="R14" s="43">
@@ -19009,10 +19024,10 @@
       <c r="S14" s="43">
         <v>32</v>
       </c>
-      <c r="T14" s="138">
+      <c r="T14" s="37">
         <v>66</v>
       </c>
-      <c r="U14" s="138">
+      <c r="U14" s="125">
         <v>10001</v>
       </c>
       <c r="V14" s="37">
@@ -19021,10 +19036,10 @@
       <c r="W14" s="37">
         <v>48</v>
       </c>
-      <c r="X14" s="139">
+      <c r="X14" s="126">
         <v>123</v>
       </c>
-      <c r="Y14" s="139">
+      <c r="Y14" s="126">
         <v>10002</v>
       </c>
       <c r="Z14" s="38">
@@ -19090,10 +19105,10 @@
       <c r="O15" s="42">
         <v>0.1</v>
       </c>
-      <c r="P15" s="140">
+      <c r="P15" s="123">
         <v>52</v>
       </c>
-      <c r="Q15" s="140">
+      <c r="Q15" s="123">
         <v>10000</v>
       </c>
       <c r="R15" s="43">
@@ -19102,10 +19117,10 @@
       <c r="S15" s="43">
         <v>34</v>
       </c>
-      <c r="T15" s="138">
+      <c r="T15" s="37">
         <v>67</v>
       </c>
-      <c r="U15" s="138">
+      <c r="U15" s="125">
         <v>10001</v>
       </c>
       <c r="V15" s="37">
@@ -19114,10 +19129,10 @@
       <c r="W15" s="37">
         <v>51</v>
       </c>
-      <c r="X15" s="139">
+      <c r="X15" s="126">
         <v>124</v>
       </c>
-      <c r="Y15" s="139">
+      <c r="Y15" s="126">
         <v>10002</v>
       </c>
       <c r="Z15" s="38">
@@ -19183,10 +19198,10 @@
       <c r="O16" s="42">
         <v>0.1</v>
       </c>
-      <c r="P16" s="140">
+      <c r="P16" s="123">
         <v>53</v>
       </c>
-      <c r="Q16" s="140">
+      <c r="Q16" s="123">
         <v>10000</v>
       </c>
       <c r="R16" s="43">
@@ -19195,10 +19210,10 @@
       <c r="S16" s="43">
         <v>36</v>
       </c>
-      <c r="T16" s="138">
+      <c r="T16" s="37">
         <v>68</v>
       </c>
-      <c r="U16" s="138">
+      <c r="U16" s="125">
         <v>10001</v>
       </c>
       <c r="V16" s="37">
@@ -19207,10 +19222,10 @@
       <c r="W16" s="37">
         <v>54</v>
       </c>
-      <c r="X16" s="139">
+      <c r="X16" s="126">
         <v>125</v>
       </c>
-      <c r="Y16" s="139">
+      <c r="Y16" s="126">
         <v>10002</v>
       </c>
       <c r="Z16" s="38">
@@ -19276,10 +19291,10 @@
       <c r="O17" s="42">
         <v>0.1</v>
       </c>
-      <c r="P17" s="140">
+      <c r="P17" s="123">
         <v>53</v>
       </c>
-      <c r="Q17" s="140">
+      <c r="Q17" s="123">
         <v>10000</v>
       </c>
       <c r="R17" s="43">
@@ -19288,10 +19303,10 @@
       <c r="S17" s="43">
         <v>38</v>
       </c>
-      <c r="T17" s="138">
+      <c r="T17" s="37">
         <v>69</v>
       </c>
-      <c r="U17" s="138">
+      <c r="U17" s="125">
         <v>10001</v>
       </c>
       <c r="V17" s="37">
@@ -19300,10 +19315,10 @@
       <c r="W17" s="37">
         <v>57</v>
       </c>
-      <c r="X17" s="139">
+      <c r="X17" s="126">
         <v>126</v>
       </c>
-      <c r="Y17" s="139">
+      <c r="Y17" s="126">
         <v>10002</v>
       </c>
       <c r="Z17" s="38">
@@ -19369,10 +19384,10 @@
       <c r="O18" s="42">
         <v>0.1</v>
       </c>
-      <c r="P18" s="140">
+      <c r="P18" s="123">
         <v>54</v>
       </c>
-      <c r="Q18" s="140">
+      <c r="Q18" s="123">
         <v>10000</v>
       </c>
       <c r="R18" s="43">
@@ -19381,10 +19396,10 @@
       <c r="S18" s="43">
         <v>40</v>
       </c>
-      <c r="T18" s="138">
+      <c r="T18" s="37">
         <v>70</v>
       </c>
-      <c r="U18" s="138">
+      <c r="U18" s="125">
         <v>10001</v>
       </c>
       <c r="V18" s="37">
@@ -19393,10 +19408,10 @@
       <c r="W18" s="37">
         <v>60</v>
       </c>
-      <c r="X18" s="139">
+      <c r="X18" s="126">
         <v>128</v>
       </c>
-      <c r="Y18" s="139">
+      <c r="Y18" s="126">
         <v>10002</v>
       </c>
       <c r="Z18" s="38">
@@ -19462,10 +19477,10 @@
       <c r="O19" s="42">
         <v>0.1</v>
       </c>
-      <c r="P19" s="140">
+      <c r="P19" s="123">
         <v>55</v>
       </c>
-      <c r="Q19" s="140">
+      <c r="Q19" s="123">
         <v>10000</v>
       </c>
       <c r="R19" s="43">
@@ -19474,10 +19489,10 @@
       <c r="S19" s="43">
         <v>42</v>
       </c>
-      <c r="T19" s="138">
+      <c r="T19" s="37">
         <v>71</v>
       </c>
-      <c r="U19" s="138">
+      <c r="U19" s="125">
         <v>10001</v>
       </c>
       <c r="V19" s="37">
@@ -19486,10 +19501,10 @@
       <c r="W19" s="37">
         <v>63</v>
       </c>
-      <c r="X19" s="139">
+      <c r="X19" s="126">
         <v>128</v>
       </c>
-      <c r="Y19" s="139">
+      <c r="Y19" s="126">
         <v>10002</v>
       </c>
       <c r="Z19" s="38">
@@ -19555,10 +19570,10 @@
       <c r="O20" s="42">
         <v>0.1</v>
       </c>
-      <c r="P20" s="140">
+      <c r="P20" s="123">
         <v>55</v>
       </c>
-      <c r="Q20" s="140">
+      <c r="Q20" s="123">
         <v>10000</v>
       </c>
       <c r="R20" s="43">
@@ -19567,10 +19582,10 @@
       <c r="S20" s="43">
         <v>44</v>
       </c>
-      <c r="T20" s="138">
+      <c r="T20" s="37">
         <v>71</v>
       </c>
-      <c r="U20" s="138">
+      <c r="U20" s="125">
         <v>10001</v>
       </c>
       <c r="V20" s="37">
@@ -19579,10 +19594,10 @@
       <c r="W20" s="37">
         <v>66</v>
       </c>
-      <c r="X20" s="139">
+      <c r="X20" s="126">
         <v>129</v>
       </c>
-      <c r="Y20" s="139">
+      <c r="Y20" s="126">
         <v>10002</v>
       </c>
       <c r="Z20" s="38">
@@ -19648,10 +19663,10 @@
       <c r="O21" s="42">
         <v>0.1</v>
       </c>
-      <c r="P21" s="140">
+      <c r="P21" s="123">
         <v>56</v>
       </c>
-      <c r="Q21" s="140">
+      <c r="Q21" s="123">
         <v>10000</v>
       </c>
       <c r="R21" s="43">
@@ -19660,10 +19675,10 @@
       <c r="S21" s="43">
         <v>46</v>
       </c>
-      <c r="T21" s="138">
+      <c r="T21" s="37">
         <v>72</v>
       </c>
-      <c r="U21" s="138">
+      <c r="U21" s="125">
         <v>10001</v>
       </c>
       <c r="V21" s="37">
@@ -19672,10 +19687,10 @@
       <c r="W21" s="37">
         <v>69</v>
       </c>
-      <c r="X21" s="139">
+      <c r="X21" s="126">
         <v>130</v>
       </c>
-      <c r="Y21" s="139">
+      <c r="Y21" s="126">
         <v>10002</v>
       </c>
       <c r="Z21" s="38">
@@ -19741,10 +19756,10 @@
       <c r="O22" s="42">
         <v>0.1</v>
       </c>
-      <c r="P22" s="140">
+      <c r="P22" s="123">
         <v>57</v>
       </c>
-      <c r="Q22" s="140">
+      <c r="Q22" s="123">
         <v>10000</v>
       </c>
       <c r="R22" s="43">
@@ -19753,10 +19768,10 @@
       <c r="S22" s="43">
         <v>48</v>
       </c>
-      <c r="T22" s="138">
+      <c r="T22" s="37">
         <v>73</v>
       </c>
-      <c r="U22" s="138">
+      <c r="U22" s="125">
         <v>10001</v>
       </c>
       <c r="V22" s="37">
@@ -19765,10 +19780,10 @@
       <c r="W22" s="37">
         <v>72</v>
       </c>
-      <c r="X22" s="139">
+      <c r="X22" s="126">
         <v>131</v>
       </c>
-      <c r="Y22" s="139">
+      <c r="Y22" s="126">
         <v>10002</v>
       </c>
       <c r="Z22" s="38">
@@ -19834,10 +19849,10 @@
       <c r="O23" s="42">
         <v>0.1</v>
       </c>
-      <c r="P23" s="140">
+      <c r="P23" s="123">
         <v>57</v>
       </c>
-      <c r="Q23" s="140">
+      <c r="Q23" s="123">
         <v>10000</v>
       </c>
       <c r="R23" s="43">
@@ -19846,10 +19861,10 @@
       <c r="S23" s="43">
         <v>50</v>
       </c>
-      <c r="T23" s="138">
+      <c r="T23" s="37">
         <v>74</v>
       </c>
-      <c r="U23" s="138">
+      <c r="U23" s="125">
         <v>10001</v>
       </c>
       <c r="V23" s="37">
@@ -19858,10 +19873,10 @@
       <c r="W23" s="37">
         <v>75</v>
       </c>
-      <c r="X23" s="139">
+      <c r="X23" s="126">
         <v>132</v>
       </c>
-      <c r="Y23" s="139">
+      <c r="Y23" s="126">
         <v>10002</v>
       </c>
       <c r="Z23" s="38">
@@ -19927,10 +19942,10 @@
       <c r="O24" s="42">
         <v>0.1</v>
       </c>
-      <c r="P24" s="140">
+      <c r="P24" s="123">
         <v>58</v>
       </c>
-      <c r="Q24" s="140">
+      <c r="Q24" s="123">
         <v>10000</v>
       </c>
       <c r="R24" s="43">
@@ -19939,10 +19954,10 @@
       <c r="S24" s="43">
         <v>52</v>
       </c>
-      <c r="T24" s="138">
+      <c r="T24" s="37">
         <v>74</v>
       </c>
-      <c r="U24" s="138">
+      <c r="U24" s="125">
         <v>10001</v>
       </c>
       <c r="V24" s="37">
@@ -19951,10 +19966,10 @@
       <c r="W24" s="37">
         <v>78</v>
       </c>
-      <c r="X24" s="139">
+      <c r="X24" s="126">
         <v>133</v>
       </c>
-      <c r="Y24" s="139">
+      <c r="Y24" s="126">
         <v>10002</v>
       </c>
       <c r="Z24" s="38">
@@ -20020,10 +20035,10 @@
       <c r="O25" s="42">
         <v>0.1</v>
       </c>
-      <c r="P25" s="140">
+      <c r="P25" s="123">
         <v>59</v>
       </c>
-      <c r="Q25" s="140">
+      <c r="Q25" s="123">
         <v>10000</v>
       </c>
       <c r="R25" s="43">
@@ -20032,10 +20047,10 @@
       <c r="S25" s="43">
         <v>54</v>
       </c>
-      <c r="T25" s="138">
+      <c r="T25" s="37">
         <v>75</v>
       </c>
-      <c r="U25" s="138">
+      <c r="U25" s="125">
         <v>10001</v>
       </c>
       <c r="V25" s="37">
@@ -20044,10 +20059,10 @@
       <c r="W25" s="37">
         <v>81</v>
       </c>
-      <c r="X25" s="139">
+      <c r="X25" s="126">
         <v>134</v>
       </c>
-      <c r="Y25" s="139">
+      <c r="Y25" s="126">
         <v>10002</v>
       </c>
       <c r="Z25" s="38">
@@ -20113,10 +20128,10 @@
       <c r="O26" s="42">
         <v>0.1</v>
       </c>
-      <c r="P26" s="140">
+      <c r="P26" s="123">
         <v>59</v>
       </c>
-      <c r="Q26" s="140">
+      <c r="Q26" s="123">
         <v>10000</v>
       </c>
       <c r="R26" s="43">
@@ -20125,10 +20140,10 @@
       <c r="S26" s="43">
         <v>56</v>
       </c>
-      <c r="T26" s="138">
+      <c r="T26" s="37">
         <v>76</v>
       </c>
-      <c r="U26" s="138">
+      <c r="U26" s="125">
         <v>10001</v>
       </c>
       <c r="V26" s="37">
@@ -20137,10 +20152,10 @@
       <c r="W26" s="37">
         <v>84</v>
       </c>
-      <c r="X26" s="139">
+      <c r="X26" s="126">
         <v>135</v>
       </c>
-      <c r="Y26" s="139">
+      <c r="Y26" s="126">
         <v>10002</v>
       </c>
       <c r="Z26" s="38">
@@ -20206,10 +20221,10 @@
       <c r="O27" s="42">
         <v>0.1</v>
       </c>
-      <c r="P27" s="140">
+      <c r="P27" s="123">
         <v>60</v>
       </c>
-      <c r="Q27" s="140">
+      <c r="Q27" s="123">
         <v>10000</v>
       </c>
       <c r="R27" s="43">
@@ -20218,10 +20233,10 @@
       <c r="S27" s="43">
         <v>58</v>
       </c>
-      <c r="T27" s="138">
+      <c r="T27" s="37">
         <v>76</v>
       </c>
-      <c r="U27" s="138">
+      <c r="U27" s="125">
         <v>10001</v>
       </c>
       <c r="V27" s="37">
@@ -20230,10 +20245,10 @@
       <c r="W27" s="37">
         <v>87</v>
       </c>
-      <c r="X27" s="139">
+      <c r="X27" s="126">
         <v>136</v>
       </c>
-      <c r="Y27" s="139">
+      <c r="Y27" s="126">
         <v>10002</v>
       </c>
       <c r="Z27" s="38">
@@ -20299,10 +20314,10 @@
       <c r="O28" s="42">
         <v>0.1</v>
       </c>
-      <c r="P28" s="140">
+      <c r="P28" s="123">
         <v>60</v>
       </c>
-      <c r="Q28" s="140">
+      <c r="Q28" s="123">
         <v>10000</v>
       </c>
       <c r="R28" s="43">
@@ -20311,10 +20326,10 @@
       <c r="S28" s="43">
         <v>60</v>
       </c>
-      <c r="T28" s="138">
+      <c r="T28" s="37">
         <v>77</v>
       </c>
-      <c r="U28" s="138">
+      <c r="U28" s="125">
         <v>10001</v>
       </c>
       <c r="V28" s="37">
@@ -20323,10 +20338,10 @@
       <c r="W28" s="37">
         <v>90</v>
       </c>
-      <c r="X28" s="139">
+      <c r="X28" s="126">
         <v>136</v>
       </c>
-      <c r="Y28" s="139">
+      <c r="Y28" s="126">
         <v>10002</v>
       </c>
       <c r="Z28" s="38">
@@ -20392,10 +20407,10 @@
       <c r="O29" s="42">
         <v>0.1</v>
       </c>
-      <c r="P29" s="140">
+      <c r="P29" s="123">
         <v>61</v>
       </c>
-      <c r="Q29" s="140">
+      <c r="Q29" s="123">
         <v>10000</v>
       </c>
       <c r="R29" s="43">
@@ -20404,10 +20419,10 @@
       <c r="S29" s="43">
         <v>62</v>
       </c>
-      <c r="T29" s="138">
+      <c r="T29" s="37">
         <v>78</v>
       </c>
-      <c r="U29" s="138">
+      <c r="U29" s="125">
         <v>10001</v>
       </c>
       <c r="V29" s="37">
@@ -20416,10 +20431,10 @@
       <c r="W29" s="37">
         <v>93</v>
       </c>
-      <c r="X29" s="139">
+      <c r="X29" s="126">
         <v>137</v>
       </c>
-      <c r="Y29" s="139">
+      <c r="Y29" s="126">
         <v>10002</v>
       </c>
       <c r="Z29" s="38">
@@ -20485,10 +20500,10 @@
       <c r="O30" s="42">
         <v>0.1</v>
       </c>
-      <c r="P30" s="140">
+      <c r="P30" s="123">
         <v>61</v>
       </c>
-      <c r="Q30" s="140">
+      <c r="Q30" s="123">
         <v>10000</v>
       </c>
       <c r="R30" s="43">
@@ -20497,10 +20512,10 @@
       <c r="S30" s="43">
         <v>64</v>
       </c>
-      <c r="T30" s="138">
+      <c r="T30" s="37">
         <v>78</v>
       </c>
-      <c r="U30" s="138">
+      <c r="U30" s="125">
         <v>10001</v>
       </c>
       <c r="V30" s="37">
@@ -20509,10 +20524,10 @@
       <c r="W30" s="37">
         <v>96</v>
       </c>
-      <c r="X30" s="139">
+      <c r="X30" s="126">
         <v>138</v>
       </c>
-      <c r="Y30" s="139">
+      <c r="Y30" s="126">
         <v>10002</v>
       </c>
       <c r="Z30" s="38">
@@ -20578,10 +20593,10 @@
       <c r="O31" s="42">
         <v>0.1</v>
       </c>
-      <c r="P31" s="140">
+      <c r="P31" s="123">
         <v>62</v>
       </c>
-      <c r="Q31" s="140">
+      <c r="Q31" s="123">
         <v>10000</v>
       </c>
       <c r="R31" s="43">
@@ -20590,10 +20605,10 @@
       <c r="S31" s="43">
         <v>66</v>
       </c>
-      <c r="T31" s="138">
+      <c r="T31" s="37">
         <v>79</v>
       </c>
-      <c r="U31" s="138">
+      <c r="U31" s="125">
         <v>10001</v>
       </c>
       <c r="V31" s="37">
@@ -20602,10 +20617,10 @@
       <c r="W31" s="37">
         <v>99</v>
       </c>
-      <c r="X31" s="139">
+      <c r="X31" s="126">
         <v>139</v>
       </c>
-      <c r="Y31" s="139">
+      <c r="Y31" s="126">
         <v>10002</v>
       </c>
       <c r="Z31" s="38">
@@ -20671,10 +20686,10 @@
       <c r="O32" s="42">
         <v>0.1</v>
       </c>
-      <c r="P32" s="140">
+      <c r="P32" s="123">
         <v>62</v>
       </c>
-      <c r="Q32" s="140">
+      <c r="Q32" s="123">
         <v>10000</v>
       </c>
       <c r="R32" s="43">
@@ -20683,10 +20698,10 @@
       <c r="S32" s="43">
         <v>68</v>
       </c>
-      <c r="T32" s="138">
+      <c r="T32" s="37">
         <v>79</v>
       </c>
-      <c r="U32" s="138">
+      <c r="U32" s="125">
         <v>10001</v>
       </c>
       <c r="V32" s="37">
@@ -20695,10 +20710,10 @@
       <c r="W32" s="37">
         <v>102</v>
       </c>
-      <c r="X32" s="139">
+      <c r="X32" s="126">
         <v>139</v>
       </c>
-      <c r="Y32" s="139">
+      <c r="Y32" s="126">
         <v>10002</v>
       </c>
       <c r="Z32" s="38">
@@ -20764,10 +20779,10 @@
       <c r="O33" s="42">
         <v>0.1</v>
       </c>
-      <c r="P33" s="140">
+      <c r="P33" s="123">
         <v>63</v>
       </c>
-      <c r="Q33" s="140">
+      <c r="Q33" s="123">
         <v>10000</v>
       </c>
       <c r="R33" s="43">
@@ -20776,10 +20791,10 @@
       <c r="S33" s="43">
         <v>70</v>
       </c>
-      <c r="T33" s="138">
+      <c r="T33" s="37">
         <v>80</v>
       </c>
-      <c r="U33" s="138">
+      <c r="U33" s="125">
         <v>10001</v>
       </c>
       <c r="V33" s="37">
@@ -20788,10 +20803,10 @@
       <c r="W33" s="37">
         <v>105</v>
       </c>
-      <c r="X33" s="139">
+      <c r="X33" s="126">
         <v>140</v>
       </c>
-      <c r="Y33" s="139">
+      <c r="Y33" s="126">
         <v>10002</v>
       </c>
       <c r="Z33" s="38">
@@ -20857,10 +20872,10 @@
       <c r="O34" s="42">
         <v>0.1</v>
       </c>
-      <c r="P34" s="140">
+      <c r="P34" s="123">
         <v>63</v>
       </c>
-      <c r="Q34" s="140">
+      <c r="Q34" s="123">
         <v>10000</v>
       </c>
       <c r="R34" s="43">
@@ -20869,10 +20884,10 @@
       <c r="S34" s="43">
         <v>72</v>
       </c>
-      <c r="T34" s="138">
+      <c r="T34" s="37">
         <v>81</v>
       </c>
-      <c r="U34" s="138">
+      <c r="U34" s="125">
         <v>10001</v>
       </c>
       <c r="V34" s="37">
@@ -20881,10 +20896,10 @@
       <c r="W34" s="37">
         <v>108</v>
       </c>
-      <c r="X34" s="139">
+      <c r="X34" s="126">
         <v>141</v>
       </c>
-      <c r="Y34" s="139">
+      <c r="Y34" s="126">
         <v>10002</v>
       </c>
       <c r="Z34" s="38">
@@ -20950,10 +20965,10 @@
       <c r="O35" s="42">
         <v>0.1</v>
       </c>
-      <c r="P35" s="140">
+      <c r="P35" s="123">
         <v>64</v>
       </c>
-      <c r="Q35" s="140">
+      <c r="Q35" s="123">
         <v>10000</v>
       </c>
       <c r="R35" s="43">
@@ -20962,10 +20977,10 @@
       <c r="S35" s="43">
         <v>74</v>
       </c>
-      <c r="T35" s="138">
+      <c r="T35" s="37">
         <v>81</v>
       </c>
-      <c r="U35" s="138">
+      <c r="U35" s="125">
         <v>10001</v>
       </c>
       <c r="V35" s="37">
@@ -20974,10 +20989,10 @@
       <c r="W35" s="37">
         <v>111</v>
       </c>
-      <c r="X35" s="139">
+      <c r="X35" s="126">
         <v>141</v>
       </c>
-      <c r="Y35" s="139">
+      <c r="Y35" s="126">
         <v>10002</v>
       </c>
       <c r="Z35" s="38">
@@ -21043,10 +21058,10 @@
       <c r="O36" s="42">
         <v>0.1</v>
       </c>
-      <c r="P36" s="140">
+      <c r="P36" s="123">
         <v>64</v>
       </c>
-      <c r="Q36" s="140">
+      <c r="Q36" s="123">
         <v>10000</v>
       </c>
       <c r="R36" s="43">
@@ -21055,10 +21070,10 @@
       <c r="S36" s="43">
         <v>76</v>
       </c>
-      <c r="T36" s="138">
+      <c r="T36" s="37">
         <v>82</v>
       </c>
-      <c r="U36" s="138">
+      <c r="U36" s="125">
         <v>10001</v>
       </c>
       <c r="V36" s="37">
@@ -21067,10 +21082,10 @@
       <c r="W36" s="37">
         <v>114</v>
       </c>
-      <c r="X36" s="139">
+      <c r="X36" s="126">
         <v>142</v>
       </c>
-      <c r="Y36" s="139">
+      <c r="Y36" s="126">
         <v>10002</v>
       </c>
       <c r="Z36" s="38">
@@ -21136,10 +21151,10 @@
       <c r="O37" s="42">
         <v>0.1</v>
       </c>
-      <c r="P37" s="140">
+      <c r="P37" s="123">
         <v>65</v>
       </c>
-      <c r="Q37" s="140">
+      <c r="Q37" s="123">
         <v>10000</v>
       </c>
       <c r="R37" s="43">
@@ -21148,10 +21163,10 @@
       <c r="S37" s="43">
         <v>78</v>
       </c>
-      <c r="T37" s="138">
+      <c r="T37" s="37">
         <v>82</v>
       </c>
-      <c r="U37" s="138">
+      <c r="U37" s="125">
         <v>10001</v>
       </c>
       <c r="V37" s="37">
@@ -21160,10 +21175,10 @@
       <c r="W37" s="37">
         <v>117</v>
       </c>
-      <c r="X37" s="139">
+      <c r="X37" s="126">
         <v>143</v>
       </c>
-      <c r="Y37" s="139">
+      <c r="Y37" s="126">
         <v>10002</v>
       </c>
       <c r="Z37" s="38">
@@ -21229,10 +21244,10 @@
       <c r="O38" s="42">
         <v>0.1</v>
       </c>
-      <c r="P38" s="140">
+      <c r="P38" s="123">
         <v>65</v>
       </c>
-      <c r="Q38" s="140">
+      <c r="Q38" s="123">
         <v>10000</v>
       </c>
       <c r="R38" s="43">
@@ -21241,10 +21256,10 @@
       <c r="S38" s="43">
         <v>80</v>
       </c>
-      <c r="T38" s="138">
+      <c r="T38" s="37">
         <v>83</v>
       </c>
-      <c r="U38" s="138">
+      <c r="U38" s="125">
         <v>10001</v>
       </c>
       <c r="V38" s="37">
@@ -21253,10 +21268,10 @@
       <c r="W38" s="37">
         <v>120</v>
       </c>
-      <c r="X38" s="139">
+      <c r="X38" s="126">
         <v>144</v>
       </c>
-      <c r="Y38" s="139">
+      <c r="Y38" s="126">
         <v>10002</v>
       </c>
       <c r="Z38" s="38">
@@ -21322,10 +21337,10 @@
       <c r="O39" s="42">
         <v>0.1</v>
       </c>
-      <c r="P39" s="140">
+      <c r="P39" s="123">
         <v>66</v>
       </c>
-      <c r="Q39" s="140">
+      <c r="Q39" s="123">
         <v>10000</v>
       </c>
       <c r="R39" s="43">
@@ -21334,10 +21349,10 @@
       <c r="S39" s="43">
         <v>82</v>
       </c>
-      <c r="T39" s="138">
+      <c r="T39" s="37">
         <v>83</v>
       </c>
-      <c r="U39" s="138">
+      <c r="U39" s="125">
         <v>10001</v>
       </c>
       <c r="V39" s="37">
@@ -21346,10 +21361,10 @@
       <c r="W39" s="37">
         <v>123</v>
       </c>
-      <c r="X39" s="139">
+      <c r="X39" s="126">
         <v>144</v>
       </c>
-      <c r="Y39" s="139">
+      <c r="Y39" s="126">
         <v>10002</v>
       </c>
       <c r="Z39" s="38">
@@ -21415,10 +21430,10 @@
       <c r="O40" s="42">
         <v>0.1</v>
       </c>
-      <c r="P40" s="140">
+      <c r="P40" s="123">
         <v>66</v>
       </c>
-      <c r="Q40" s="140">
+      <c r="Q40" s="123">
         <v>10000</v>
       </c>
       <c r="R40" s="43">
@@ -21427,10 +21442,10 @@
       <c r="S40" s="43">
         <v>84</v>
       </c>
-      <c r="T40" s="138">
+      <c r="T40" s="37">
         <v>84</v>
       </c>
-      <c r="U40" s="138">
+      <c r="U40" s="125">
         <v>10001</v>
       </c>
       <c r="V40" s="37">
@@ -21439,10 +21454,10 @@
       <c r="W40" s="37">
         <v>126</v>
       </c>
-      <c r="X40" s="139">
+      <c r="X40" s="126">
         <v>145</v>
       </c>
-      <c r="Y40" s="139">
+      <c r="Y40" s="126">
         <v>10002</v>
       </c>
       <c r="Z40" s="38">
@@ -21508,10 +21523,10 @@
       <c r="O41" s="42">
         <v>0.1</v>
       </c>
-      <c r="P41" s="140">
+      <c r="P41" s="123">
         <v>67</v>
       </c>
-      <c r="Q41" s="140">
+      <c r="Q41" s="123">
         <v>10000</v>
       </c>
       <c r="R41" s="43">
@@ -21520,10 +21535,10 @@
       <c r="S41" s="43">
         <v>86</v>
       </c>
-      <c r="T41" s="138">
+      <c r="T41" s="37">
         <v>84</v>
       </c>
-      <c r="U41" s="138">
+      <c r="U41" s="125">
         <v>10001</v>
       </c>
       <c r="V41" s="37">
@@ -21532,10 +21547,10 @@
       <c r="W41" s="37">
         <v>129</v>
       </c>
-      <c r="X41" s="139">
+      <c r="X41" s="126">
         <v>145</v>
       </c>
-      <c r="Y41" s="139">
+      <c r="Y41" s="126">
         <v>10002</v>
       </c>
       <c r="Z41" s="38">
@@ -21601,10 +21616,10 @@
       <c r="O42" s="42">
         <v>0.1</v>
       </c>
-      <c r="P42" s="140">
+      <c r="P42" s="123">
         <v>67</v>
       </c>
-      <c r="Q42" s="140">
+      <c r="Q42" s="123">
         <v>10000</v>
       </c>
       <c r="R42" s="43">
@@ -21613,10 +21628,10 @@
       <c r="S42" s="43">
         <v>88</v>
       </c>
-      <c r="T42" s="138">
+      <c r="T42" s="37">
         <v>85</v>
       </c>
-      <c r="U42" s="138">
+      <c r="U42" s="125">
         <v>10001</v>
       </c>
       <c r="V42" s="37">
@@ -21625,10 +21640,10 @@
       <c r="W42" s="37">
         <v>132</v>
       </c>
-      <c r="X42" s="139">
+      <c r="X42" s="126">
         <v>146</v>
       </c>
-      <c r="Y42" s="139">
+      <c r="Y42" s="126">
         <v>10002</v>
       </c>
       <c r="Z42" s="38">
@@ -21694,10 +21709,10 @@
       <c r="O43" s="42">
         <v>0.1</v>
       </c>
-      <c r="P43" s="140">
+      <c r="P43" s="123">
         <v>68</v>
       </c>
-      <c r="Q43" s="140">
+      <c r="Q43" s="123">
         <v>10000</v>
       </c>
       <c r="R43" s="43">
@@ -21706,10 +21721,10 @@
       <c r="S43" s="43">
         <v>90</v>
       </c>
-      <c r="T43" s="138">
+      <c r="T43" s="37">
         <v>85</v>
       </c>
-      <c r="U43" s="138">
+      <c r="U43" s="125">
         <v>10001</v>
       </c>
       <c r="V43" s="37">
@@ -21718,10 +21733,10 @@
       <c r="W43" s="37">
         <v>135</v>
       </c>
-      <c r="X43" s="139">
+      <c r="X43" s="126">
         <v>147</v>
       </c>
-      <c r="Y43" s="139">
+      <c r="Y43" s="126">
         <v>10002</v>
       </c>
       <c r="Z43" s="38">
@@ -21787,10 +21802,10 @@
       <c r="O44" s="42">
         <v>0.1</v>
       </c>
-      <c r="P44" s="140">
+      <c r="P44" s="123">
         <v>68</v>
       </c>
-      <c r="Q44" s="140">
+      <c r="Q44" s="123">
         <v>10000</v>
       </c>
       <c r="R44" s="43">
@@ -21799,10 +21814,10 @@
       <c r="S44" s="43">
         <v>92</v>
       </c>
-      <c r="T44" s="138">
+      <c r="T44" s="37">
         <v>86</v>
       </c>
-      <c r="U44" s="138">
+      <c r="U44" s="125">
         <v>10001</v>
       </c>
       <c r="V44" s="37">
@@ -21811,10 +21826,10 @@
       <c r="W44" s="37">
         <v>138</v>
       </c>
-      <c r="X44" s="139">
+      <c r="X44" s="126">
         <v>147</v>
       </c>
-      <c r="Y44" s="139">
+      <c r="Y44" s="126">
         <v>10002</v>
       </c>
       <c r="Z44" s="38">
@@ -21880,10 +21895,10 @@
       <c r="O45" s="42">
         <v>0.1</v>
       </c>
-      <c r="P45" s="140">
+      <c r="P45" s="123">
         <v>68</v>
       </c>
-      <c r="Q45" s="140">
+      <c r="Q45" s="123">
         <v>10000</v>
       </c>
       <c r="R45" s="43">
@@ -21892,10 +21907,10 @@
       <c r="S45" s="43">
         <v>94</v>
       </c>
-      <c r="T45" s="138">
+      <c r="T45" s="37">
         <v>86</v>
       </c>
-      <c r="U45" s="138">
+      <c r="U45" s="125">
         <v>10001</v>
       </c>
       <c r="V45" s="37">
@@ -21904,10 +21919,10 @@
       <c r="W45" s="37">
         <v>141</v>
       </c>
-      <c r="X45" s="139">
+      <c r="X45" s="126">
         <v>148</v>
       </c>
-      <c r="Y45" s="139">
+      <c r="Y45" s="126">
         <v>10002</v>
       </c>
       <c r="Z45" s="38">
@@ -21973,10 +21988,10 @@
       <c r="O46" s="42">
         <v>0.1</v>
       </c>
-      <c r="P46" s="140">
+      <c r="P46" s="123">
         <v>69</v>
       </c>
-      <c r="Q46" s="140">
+      <c r="Q46" s="123">
         <v>10000</v>
       </c>
       <c r="R46" s="43">
@@ -21985,10 +22000,10 @@
       <c r="S46" s="43">
         <v>96</v>
       </c>
-      <c r="T46" s="138">
+      <c r="T46" s="37">
         <v>87</v>
       </c>
-      <c r="U46" s="138">
+      <c r="U46" s="125">
         <v>10001</v>
       </c>
       <c r="V46" s="37">
@@ -21997,10 +22012,10 @@
       <c r="W46" s="37">
         <v>144</v>
       </c>
-      <c r="X46" s="139">
+      <c r="X46" s="126">
         <v>149</v>
       </c>
-      <c r="Y46" s="139">
+      <c r="Y46" s="126">
         <v>10002</v>
       </c>
       <c r="Z46" s="38">
@@ -22066,10 +22081,10 @@
       <c r="O47" s="42">
         <v>0.1</v>
       </c>
-      <c r="P47" s="140">
+      <c r="P47" s="123">
         <v>69</v>
       </c>
-      <c r="Q47" s="140">
+      <c r="Q47" s="123">
         <v>10000</v>
       </c>
       <c r="R47" s="43">
@@ -22078,10 +22093,10 @@
       <c r="S47" s="43">
         <v>98</v>
       </c>
-      <c r="T47" s="138">
+      <c r="T47" s="37">
         <v>87</v>
       </c>
-      <c r="U47" s="138">
+      <c r="U47" s="125">
         <v>10001</v>
       </c>
       <c r="V47" s="37">
@@ -22090,10 +22105,10 @@
       <c r="W47" s="37">
         <v>147</v>
       </c>
-      <c r="X47" s="139">
+      <c r="X47" s="126">
         <v>149</v>
       </c>
-      <c r="Y47" s="139">
+      <c r="Y47" s="126">
         <v>10002</v>
       </c>
       <c r="Z47" s="38">
@@ -22159,10 +22174,10 @@
       <c r="O48" s="42">
         <v>0.1</v>
       </c>
-      <c r="P48" s="140">
+      <c r="P48" s="123">
         <v>70</v>
       </c>
-      <c r="Q48" s="140">
+      <c r="Q48" s="123">
         <v>10000</v>
       </c>
       <c r="R48" s="43">
@@ -22171,10 +22186,10 @@
       <c r="S48" s="43">
         <v>100</v>
       </c>
-      <c r="T48" s="138">
+      <c r="T48" s="37">
         <v>88</v>
       </c>
-      <c r="U48" s="138">
+      <c r="U48" s="125">
         <v>10001</v>
       </c>
       <c r="V48" s="37">
@@ -22183,10 +22198,10 @@
       <c r="W48" s="37">
         <v>150</v>
       </c>
-      <c r="X48" s="139">
+      <c r="X48" s="126">
         <v>150</v>
       </c>
-      <c r="Y48" s="139">
+      <c r="Y48" s="126">
         <v>10002</v>
       </c>
       <c r="Z48" s="38">
@@ -22252,10 +22267,10 @@
       <c r="O49" s="42">
         <v>0.1</v>
       </c>
-      <c r="P49" s="140">
+      <c r="P49" s="123">
         <v>70</v>
       </c>
-      <c r="Q49" s="140">
+      <c r="Q49" s="123">
         <v>10000</v>
       </c>
       <c r="R49" s="43">
@@ -22264,10 +22279,10 @@
       <c r="S49" s="43">
         <v>102</v>
       </c>
-      <c r="T49" s="138">
+      <c r="T49" s="37">
         <v>88</v>
       </c>
-      <c r="U49" s="138">
+      <c r="U49" s="125">
         <v>10001</v>
       </c>
       <c r="V49" s="37">
@@ -22276,10 +22291,10 @@
       <c r="W49" s="37">
         <v>153</v>
       </c>
-      <c r="X49" s="139">
+      <c r="X49" s="126">
         <v>150</v>
       </c>
-      <c r="Y49" s="139">
+      <c r="Y49" s="126">
         <v>10002</v>
       </c>
       <c r="Z49" s="38">
@@ -22345,10 +22360,10 @@
       <c r="O50" s="42">
         <v>0.1</v>
       </c>
-      <c r="P50" s="140">
+      <c r="P50" s="123">
         <v>70</v>
       </c>
-      <c r="Q50" s="140">
+      <c r="Q50" s="123">
         <v>10000</v>
       </c>
       <c r="R50" s="43">
@@ -22357,10 +22372,10 @@
       <c r="S50" s="43">
         <v>104</v>
       </c>
-      <c r="T50" s="138">
+      <c r="T50" s="37">
         <v>89</v>
       </c>
-      <c r="U50" s="138">
+      <c r="U50" s="125">
         <v>10001</v>
       </c>
       <c r="V50" s="37">
@@ -22369,10 +22384,10 @@
       <c r="W50" s="37">
         <v>156</v>
       </c>
-      <c r="X50" s="139">
+      <c r="X50" s="126">
         <v>151</v>
       </c>
-      <c r="Y50" s="139">
+      <c r="Y50" s="126">
         <v>10002</v>
       </c>
       <c r="Z50" s="38">
@@ -22438,10 +22453,10 @@
       <c r="O51" s="42">
         <v>0.1</v>
       </c>
-      <c r="P51" s="140">
+      <c r="P51" s="123">
         <v>71</v>
       </c>
-      <c r="Q51" s="140">
+      <c r="Q51" s="123">
         <v>10000</v>
       </c>
       <c r="R51" s="43">
@@ -22450,10 +22465,10 @@
       <c r="S51" s="43">
         <v>106</v>
       </c>
-      <c r="T51" s="138">
+      <c r="T51" s="37">
         <v>89</v>
       </c>
-      <c r="U51" s="138">
+      <c r="U51" s="125">
         <v>10001</v>
       </c>
       <c r="V51" s="37">
@@ -22462,10 +22477,10 @@
       <c r="W51" s="37">
         <v>159</v>
       </c>
-      <c r="X51" s="139">
+      <c r="X51" s="126">
         <v>152</v>
       </c>
-      <c r="Y51" s="139">
+      <c r="Y51" s="126">
         <v>10002</v>
       </c>
       <c r="Z51" s="38">
@@ -22531,10 +22546,10 @@
       <c r="O52" s="42">
         <v>0.1</v>
       </c>
-      <c r="P52" s="140">
+      <c r="P52" s="123">
         <v>71</v>
       </c>
-      <c r="Q52" s="140">
+      <c r="Q52" s="123">
         <v>10000</v>
       </c>
       <c r="R52" s="43">
@@ -22543,10 +22558,10 @@
       <c r="S52" s="43">
         <v>108</v>
       </c>
-      <c r="T52" s="138">
+      <c r="T52" s="37">
         <v>90</v>
       </c>
-      <c r="U52" s="138">
+      <c r="U52" s="125">
         <v>10001</v>
       </c>
       <c r="V52" s="37">
@@ -22555,10 +22570,10 @@
       <c r="W52" s="37">
         <v>162</v>
       </c>
-      <c r="X52" s="139">
+      <c r="X52" s="126">
         <v>152</v>
       </c>
-      <c r="Y52" s="139">
+      <c r="Y52" s="126">
         <v>10002</v>
       </c>
       <c r="Z52" s="38">
@@ -22624,10 +22639,10 @@
       <c r="O53" s="42">
         <v>0.1</v>
       </c>
-      <c r="P53" s="140">
+      <c r="P53" s="123">
         <v>72</v>
       </c>
-      <c r="Q53" s="140">
+      <c r="Q53" s="123">
         <v>10000</v>
       </c>
       <c r="R53" s="43">
@@ -22636,10 +22651,10 @@
       <c r="S53" s="43">
         <v>110</v>
       </c>
-      <c r="T53" s="138">
+      <c r="T53" s="37">
         <v>90</v>
       </c>
-      <c r="U53" s="138">
+      <c r="U53" s="125">
         <v>10001</v>
       </c>
       <c r="V53" s="37">
@@ -22648,10 +22663,10 @@
       <c r="W53" s="37">
         <v>165</v>
       </c>
-      <c r="X53" s="139">
+      <c r="X53" s="126">
         <v>153</v>
       </c>
-      <c r="Y53" s="139">
+      <c r="Y53" s="126">
         <v>10002</v>
       </c>
       <c r="Z53" s="38">
@@ -22717,10 +22732,10 @@
       <c r="O54" s="42">
         <v>0.1</v>
       </c>
-      <c r="P54" s="140">
+      <c r="P54" s="123">
         <v>72</v>
       </c>
-      <c r="Q54" s="140">
+      <c r="Q54" s="123">
         <v>10000</v>
       </c>
       <c r="R54" s="43">
@@ -22729,10 +22744,10 @@
       <c r="S54" s="43">
         <v>112</v>
       </c>
-      <c r="T54" s="138">
+      <c r="T54" s="37">
         <v>90</v>
       </c>
-      <c r="U54" s="138">
+      <c r="U54" s="125">
         <v>10001</v>
       </c>
       <c r="V54" s="37">
@@ -22741,10 +22756,10 @@
       <c r="W54" s="37">
         <v>168</v>
       </c>
-      <c r="X54" s="139">
+      <c r="X54" s="126">
         <v>153</v>
       </c>
-      <c r="Y54" s="139">
+      <c r="Y54" s="126">
         <v>10002</v>
       </c>
       <c r="Z54" s="38">
@@ -22810,10 +22825,10 @@
       <c r="O55" s="42">
         <v>0.1</v>
       </c>
-      <c r="P55" s="140">
+      <c r="P55" s="123">
         <v>72</v>
       </c>
-      <c r="Q55" s="140">
+      <c r="Q55" s="123">
         <v>10000</v>
       </c>
       <c r="R55" s="43">
@@ -22822,10 +22837,10 @@
       <c r="S55" s="43">
         <v>114</v>
       </c>
-      <c r="T55" s="138">
+      <c r="T55" s="37">
         <v>91</v>
       </c>
-      <c r="U55" s="138">
+      <c r="U55" s="125">
         <v>10001</v>
       </c>
       <c r="V55" s="37">
@@ -22834,10 +22849,10 @@
       <c r="W55" s="37">
         <v>171</v>
       </c>
-      <c r="X55" s="139">
+      <c r="X55" s="126">
         <v>154</v>
       </c>
-      <c r="Y55" s="139">
+      <c r="Y55" s="126">
         <v>10002</v>
       </c>
       <c r="Z55" s="38">
@@ -22903,10 +22918,10 @@
       <c r="O56" s="42">
         <v>0.1</v>
       </c>
-      <c r="P56" s="140">
+      <c r="P56" s="123">
         <v>73</v>
       </c>
-      <c r="Q56" s="140">
+      <c r="Q56" s="123">
         <v>10000</v>
       </c>
       <c r="R56" s="43">
@@ -22915,10 +22930,10 @@
       <c r="S56" s="43">
         <v>116</v>
       </c>
-      <c r="T56" s="138">
+      <c r="T56" s="37">
         <v>91</v>
       </c>
-      <c r="U56" s="138">
+      <c r="U56" s="125">
         <v>10001</v>
       </c>
       <c r="V56" s="37">
@@ -22927,10 +22942,10 @@
       <c r="W56" s="37">
         <v>174</v>
       </c>
-      <c r="X56" s="139">
+      <c r="X56" s="126">
         <v>154</v>
       </c>
-      <c r="Y56" s="139">
+      <c r="Y56" s="126">
         <v>10002</v>
       </c>
       <c r="Z56" s="38">
@@ -22996,10 +23011,10 @@
       <c r="O57" s="42">
         <v>0.1</v>
       </c>
-      <c r="P57" s="140">
+      <c r="P57" s="123">
         <v>73</v>
       </c>
-      <c r="Q57" s="140">
+      <c r="Q57" s="123">
         <v>10000</v>
       </c>
       <c r="R57" s="43">
@@ -23008,10 +23023,10 @@
       <c r="S57" s="43">
         <v>118</v>
       </c>
-      <c r="T57" s="138">
+      <c r="T57" s="37">
         <v>92</v>
       </c>
-      <c r="U57" s="138">
+      <c r="U57" s="125">
         <v>10001</v>
       </c>
       <c r="V57" s="37">
@@ -23020,10 +23035,10 @@
       <c r="W57" s="37">
         <v>177</v>
       </c>
-      <c r="X57" s="139">
+      <c r="X57" s="126">
         <v>155</v>
       </c>
-      <c r="Y57" s="139">
+      <c r="Y57" s="126">
         <v>10002</v>
       </c>
       <c r="Z57" s="38">
@@ -23089,10 +23104,10 @@
       <c r="O58" s="42">
         <v>0.1</v>
       </c>
-      <c r="P58" s="140">
+      <c r="P58" s="123">
         <v>74</v>
       </c>
-      <c r="Q58" s="140">
+      <c r="Q58" s="123">
         <v>10000</v>
       </c>
       <c r="R58" s="43">
@@ -23101,10 +23116,10 @@
       <c r="S58" s="43">
         <v>120</v>
       </c>
-      <c r="T58" s="138">
+      <c r="T58" s="37">
         <v>92</v>
       </c>
-      <c r="U58" s="138">
+      <c r="U58" s="125">
         <v>10001</v>
       </c>
       <c r="V58" s="37">
@@ -23113,10 +23128,10 @@
       <c r="W58" s="37">
         <v>180</v>
       </c>
-      <c r="X58" s="139">
+      <c r="X58" s="126">
         <v>155</v>
       </c>
-      <c r="Y58" s="139">
+      <c r="Y58" s="126">
         <v>10002</v>
       </c>
       <c r="Z58" s="38">
@@ -23182,10 +23197,10 @@
       <c r="O59" s="42">
         <v>0.1</v>
       </c>
-      <c r="P59" s="140">
+      <c r="P59" s="123">
         <v>74</v>
       </c>
-      <c r="Q59" s="140">
+      <c r="Q59" s="123">
         <v>10000</v>
       </c>
       <c r="R59" s="43">
@@ -23194,10 +23209,10 @@
       <c r="S59" s="43">
         <v>122</v>
       </c>
-      <c r="T59" s="138">
+      <c r="T59" s="37">
         <v>93</v>
       </c>
-      <c r="U59" s="138">
+      <c r="U59" s="125">
         <v>10001</v>
       </c>
       <c r="V59" s="37">
@@ -23206,10 +23221,10 @@
       <c r="W59" s="37">
         <v>183</v>
       </c>
-      <c r="X59" s="139">
+      <c r="X59" s="126">
         <v>156</v>
       </c>
-      <c r="Y59" s="139">
+      <c r="Y59" s="126">
         <v>10002</v>
       </c>
       <c r="Z59" s="38">
@@ -23275,10 +23290,10 @@
       <c r="O60" s="42">
         <v>0.1</v>
       </c>
-      <c r="P60" s="140">
+      <c r="P60" s="123">
         <v>74</v>
       </c>
-      <c r="Q60" s="140">
+      <c r="Q60" s="123">
         <v>10000</v>
       </c>
       <c r="R60" s="43">
@@ -23287,10 +23302,10 @@
       <c r="S60" s="43">
         <v>124</v>
       </c>
-      <c r="T60" s="138">
+      <c r="T60" s="37">
         <v>93</v>
       </c>
-      <c r="U60" s="138">
+      <c r="U60" s="125">
         <v>10001</v>
       </c>
       <c r="V60" s="37">
@@ -23299,10 +23314,10 @@
       <c r="W60" s="37">
         <v>186</v>
       </c>
-      <c r="X60" s="139">
+      <c r="X60" s="126">
         <v>156</v>
       </c>
-      <c r="Y60" s="139">
+      <c r="Y60" s="126">
         <v>10002</v>
       </c>
       <c r="Z60" s="38">
@@ -23368,10 +23383,10 @@
       <c r="O61" s="42">
         <v>0.1</v>
       </c>
-      <c r="P61" s="140">
+      <c r="P61" s="123">
         <v>75</v>
       </c>
-      <c r="Q61" s="140">
+      <c r="Q61" s="123">
         <v>10000</v>
       </c>
       <c r="R61" s="43">
@@ -23380,10 +23395,10 @@
       <c r="S61" s="43">
         <v>126</v>
       </c>
-      <c r="T61" s="138">
+      <c r="T61" s="37">
         <v>93</v>
       </c>
-      <c r="U61" s="138">
+      <c r="U61" s="125">
         <v>10001</v>
       </c>
       <c r="V61" s="37">
@@ -23392,10 +23407,10 @@
       <c r="W61" s="37">
         <v>189</v>
       </c>
-      <c r="X61" s="139">
+      <c r="X61" s="126">
         <v>157</v>
       </c>
-      <c r="Y61" s="139">
+      <c r="Y61" s="126">
         <v>10002</v>
       </c>
       <c r="Z61" s="38">
@@ -23461,10 +23476,10 @@
       <c r="O62" s="42">
         <v>0.1</v>
       </c>
-      <c r="P62" s="140">
+      <c r="P62" s="123">
         <v>75</v>
       </c>
-      <c r="Q62" s="140">
+      <c r="Q62" s="123">
         <v>10000</v>
       </c>
       <c r="R62" s="43">
@@ -23473,10 +23488,10 @@
       <c r="S62" s="43">
         <v>128</v>
       </c>
-      <c r="T62" s="138">
+      <c r="T62" s="37">
         <v>94</v>
       </c>
-      <c r="U62" s="138">
+      <c r="U62" s="125">
         <v>10001</v>
       </c>
       <c r="V62" s="37">
@@ -23485,10 +23500,10 @@
       <c r="W62" s="37">
         <v>192</v>
       </c>
-      <c r="X62" s="139">
+      <c r="X62" s="126">
         <v>157</v>
       </c>
-      <c r="Y62" s="139">
+      <c r="Y62" s="126">
         <v>10002</v>
       </c>
       <c r="Z62" s="38">
@@ -23554,10 +23569,10 @@
       <c r="O63" s="42">
         <v>0.1</v>
       </c>
-      <c r="P63" s="140">
+      <c r="P63" s="123">
         <v>75</v>
       </c>
-      <c r="Q63" s="140">
+      <c r="Q63" s="123">
         <v>10000</v>
       </c>
       <c r="R63" s="43">
@@ -23566,10 +23581,10 @@
       <c r="S63" s="43">
         <v>130</v>
       </c>
-      <c r="T63" s="138">
+      <c r="T63" s="37">
         <v>94</v>
       </c>
-      <c r="U63" s="138">
+      <c r="U63" s="125">
         <v>10001</v>
       </c>
       <c r="V63" s="37">
@@ -23578,10 +23593,10 @@
       <c r="W63" s="37">
         <v>195</v>
       </c>
-      <c r="X63" s="139">
+      <c r="X63" s="126">
         <v>158</v>
       </c>
-      <c r="Y63" s="139">
+      <c r="Y63" s="126">
         <v>10002</v>
       </c>
       <c r="Z63" s="38">
@@ -23647,10 +23662,10 @@
       <c r="O64" s="42">
         <v>0.1</v>
       </c>
-      <c r="P64" s="140">
+      <c r="P64" s="123">
         <v>76</v>
       </c>
-      <c r="Q64" s="140">
+      <c r="Q64" s="123">
         <v>10000</v>
       </c>
       <c r="R64" s="43">
@@ -23659,10 +23674,10 @@
       <c r="S64" s="43">
         <v>132</v>
       </c>
-      <c r="T64" s="138">
+      <c r="T64" s="37">
         <v>95</v>
       </c>
-      <c r="U64" s="138">
+      <c r="U64" s="125">
         <v>10001</v>
       </c>
       <c r="V64" s="37">
@@ -23671,10 +23686,10 @@
       <c r="W64" s="37">
         <v>198</v>
       </c>
-      <c r="X64" s="139">
+      <c r="X64" s="126">
         <v>158</v>
       </c>
-      <c r="Y64" s="139">
+      <c r="Y64" s="126">
         <v>10002</v>
       </c>
       <c r="Z64" s="38">
@@ -23740,10 +23755,10 @@
       <c r="O65" s="42">
         <v>0.1</v>
       </c>
-      <c r="P65" s="140">
+      <c r="P65" s="123">
         <v>76</v>
       </c>
-      <c r="Q65" s="140">
+      <c r="Q65" s="123">
         <v>10000</v>
       </c>
       <c r="R65" s="43">
@@ -23752,10 +23767,10 @@
       <c r="S65" s="43">
         <v>134</v>
       </c>
-      <c r="T65" s="138">
+      <c r="T65" s="37">
         <v>95</v>
       </c>
-      <c r="U65" s="138">
+      <c r="U65" s="125">
         <v>10001</v>
       </c>
       <c r="V65" s="37">
@@ -23764,10 +23779,10 @@
       <c r="W65" s="37">
         <v>201</v>
       </c>
-      <c r="X65" s="139">
+      <c r="X65" s="126">
         <v>159</v>
       </c>
-      <c r="Y65" s="139">
+      <c r="Y65" s="126">
         <v>10002</v>
       </c>
       <c r="Z65" s="38">
@@ -23833,10 +23848,10 @@
       <c r="O66" s="42">
         <v>0.1</v>
       </c>
-      <c r="P66" s="140">
+      <c r="P66" s="123">
         <v>77</v>
       </c>
-      <c r="Q66" s="140">
+      <c r="Q66" s="123">
         <v>10000</v>
       </c>
       <c r="R66" s="43">
@@ -23845,10 +23860,10 @@
       <c r="S66" s="43">
         <v>136</v>
       </c>
-      <c r="T66" s="138">
+      <c r="T66" s="37">
         <v>96</v>
       </c>
-      <c r="U66" s="138">
+      <c r="U66" s="125">
         <v>10001</v>
       </c>
       <c r="V66" s="37">
@@ -23857,10 +23872,10 @@
       <c r="W66" s="37">
         <v>204</v>
       </c>
-      <c r="X66" s="139">
+      <c r="X66" s="126">
         <v>160</v>
       </c>
-      <c r="Y66" s="139">
+      <c r="Y66" s="126">
         <v>10002</v>
       </c>
       <c r="Z66" s="38">
@@ -23926,10 +23941,10 @@
       <c r="O67" s="42">
         <v>0.1</v>
       </c>
-      <c r="P67" s="140">
+      <c r="P67" s="123">
         <v>77</v>
       </c>
-      <c r="Q67" s="140">
+      <c r="Q67" s="123">
         <v>10000</v>
       </c>
       <c r="R67" s="43">
@@ -23938,10 +23953,10 @@
       <c r="S67" s="43">
         <v>138</v>
       </c>
-      <c r="T67" s="138">
+      <c r="T67" s="37">
         <v>96</v>
       </c>
-      <c r="U67" s="138">
+      <c r="U67" s="125">
         <v>10001</v>
       </c>
       <c r="V67" s="37">
@@ -23950,10 +23965,10 @@
       <c r="W67" s="37">
         <v>207</v>
       </c>
-      <c r="X67" s="139">
+      <c r="X67" s="126">
         <v>160</v>
       </c>
-      <c r="Y67" s="139">
+      <c r="Y67" s="126">
         <v>10002</v>
       </c>
       <c r="Z67" s="38">
@@ -24019,10 +24034,10 @@
       <c r="O68" s="42">
         <v>0.1</v>
       </c>
-      <c r="P68" s="140">
+      <c r="P68" s="123">
         <v>77</v>
       </c>
-      <c r="Q68" s="140">
+      <c r="Q68" s="123">
         <v>10000</v>
       </c>
       <c r="R68" s="43">
@@ -24031,10 +24046,10 @@
       <c r="S68" s="43">
         <v>140</v>
       </c>
-      <c r="T68" s="138">
+      <c r="T68" s="37">
         <v>96</v>
       </c>
-      <c r="U68" s="138">
+      <c r="U68" s="125">
         <v>10001</v>
       </c>
       <c r="V68" s="37">
@@ -24043,10 +24058,10 @@
       <c r="W68" s="37">
         <v>210</v>
       </c>
-      <c r="X68" s="139">
+      <c r="X68" s="126">
         <v>160</v>
       </c>
-      <c r="Y68" s="139">
+      <c r="Y68" s="126">
         <v>10002</v>
       </c>
       <c r="Z68" s="38">
@@ -24112,10 +24127,10 @@
       <c r="O69" s="42">
         <v>0.1</v>
       </c>
-      <c r="P69" s="140">
+      <c r="P69" s="123">
         <v>78</v>
       </c>
-      <c r="Q69" s="140">
+      <c r="Q69" s="123">
         <v>10000</v>
       </c>
       <c r="R69" s="43">
@@ -24124,10 +24139,10 @@
       <c r="S69" s="43">
         <v>142</v>
       </c>
-      <c r="T69" s="138">
+      <c r="T69" s="37">
         <v>97</v>
       </c>
-      <c r="U69" s="138">
+      <c r="U69" s="125">
         <v>10001</v>
       </c>
       <c r="V69" s="37">
@@ -24136,10 +24151,10 @@
       <c r="W69" s="37">
         <v>213</v>
       </c>
-      <c r="X69" s="139">
+      <c r="X69" s="126">
         <v>161</v>
       </c>
-      <c r="Y69" s="139">
+      <c r="Y69" s="126">
         <v>10002</v>
       </c>
       <c r="Z69" s="38">
@@ -24205,10 +24220,10 @@
       <c r="O70" s="42">
         <v>0.1</v>
       </c>
-      <c r="P70" s="140">
+      <c r="P70" s="123">
         <v>78</v>
       </c>
-      <c r="Q70" s="140">
+      <c r="Q70" s="123">
         <v>10000</v>
       </c>
       <c r="R70" s="43">
@@ -24217,10 +24232,10 @@
       <c r="S70" s="43">
         <v>144</v>
       </c>
-      <c r="T70" s="138">
+      <c r="T70" s="37">
         <v>97</v>
       </c>
-      <c r="U70" s="138">
+      <c r="U70" s="125">
         <v>10001</v>
       </c>
       <c r="V70" s="37">
@@ -24229,10 +24244,10 @@
       <c r="W70" s="37">
         <v>216</v>
       </c>
-      <c r="X70" s="139">
+      <c r="X70" s="126">
         <v>161</v>
       </c>
-      <c r="Y70" s="139">
+      <c r="Y70" s="126">
         <v>10002</v>
       </c>
       <c r="Z70" s="38">
@@ -24298,10 +24313,10 @@
       <c r="O71" s="42">
         <v>0.1</v>
       </c>
-      <c r="P71" s="140">
+      <c r="P71" s="123">
         <v>78</v>
       </c>
-      <c r="Q71" s="140">
+      <c r="Q71" s="123">
         <v>10000</v>
       </c>
       <c r="R71" s="43">
@@ -24310,10 +24325,10 @@
       <c r="S71" s="43">
         <v>146</v>
       </c>
-      <c r="T71" s="138">
+      <c r="T71" s="37">
         <v>97</v>
       </c>
-      <c r="U71" s="138">
+      <c r="U71" s="125">
         <v>10001</v>
       </c>
       <c r="V71" s="37">
@@ -24322,10 +24337,10 @@
       <c r="W71" s="37">
         <v>219</v>
       </c>
-      <c r="X71" s="139">
+      <c r="X71" s="126">
         <v>162</v>
       </c>
-      <c r="Y71" s="139">
+      <c r="Y71" s="126">
         <v>10002</v>
       </c>
       <c r="Z71" s="38">
@@ -24391,10 +24406,10 @@
       <c r="O72" s="42">
         <v>0.1</v>
       </c>
-      <c r="P72" s="140">
+      <c r="P72" s="123">
         <v>79</v>
       </c>
-      <c r="Q72" s="140">
+      <c r="Q72" s="123">
         <v>10000</v>
       </c>
       <c r="R72" s="43">
@@ -24403,10 +24418,10 @@
       <c r="S72" s="43">
         <v>148</v>
       </c>
-      <c r="T72" s="138">
+      <c r="T72" s="37">
         <v>98</v>
       </c>
-      <c r="U72" s="138">
+      <c r="U72" s="125">
         <v>10001</v>
       </c>
       <c r="V72" s="37">
@@ -24415,10 +24430,10 @@
       <c r="W72" s="37">
         <v>222</v>
       </c>
-      <c r="X72" s="139">
+      <c r="X72" s="126">
         <v>162</v>
       </c>
-      <c r="Y72" s="139">
+      <c r="Y72" s="126">
         <v>10002</v>
       </c>
       <c r="Z72" s="38">
@@ -24484,10 +24499,10 @@
       <c r="O73" s="42">
         <v>0.1</v>
       </c>
-      <c r="P73" s="140">
+      <c r="P73" s="123">
         <v>79</v>
       </c>
-      <c r="Q73" s="140">
+      <c r="Q73" s="123">
         <v>10000</v>
       </c>
       <c r="R73" s="43">
@@ -24496,10 +24511,10 @@
       <c r="S73" s="43">
         <v>150</v>
       </c>
-      <c r="T73" s="138">
+      <c r="T73" s="37">
         <v>98</v>
       </c>
-      <c r="U73" s="138">
+      <c r="U73" s="125">
         <v>10001</v>
       </c>
       <c r="V73" s="37">
@@ -24508,10 +24523,10 @@
       <c r="W73" s="37">
         <v>225</v>
       </c>
-      <c r="X73" s="139">
+      <c r="X73" s="126">
         <v>163</v>
       </c>
-      <c r="Y73" s="139">
+      <c r="Y73" s="126">
         <v>10002</v>
       </c>
       <c r="Z73" s="38">
@@ -24577,10 +24592,10 @@
       <c r="O74" s="42">
         <v>0.1</v>
       </c>
-      <c r="P74" s="140">
+      <c r="P74" s="123">
         <v>79</v>
       </c>
-      <c r="Q74" s="140">
+      <c r="Q74" s="123">
         <v>10000</v>
       </c>
       <c r="R74" s="43">
@@ -24589,10 +24604,10 @@
       <c r="S74" s="43">
         <v>152</v>
       </c>
-      <c r="T74" s="138">
+      <c r="T74" s="37">
         <v>99</v>
       </c>
-      <c r="U74" s="138">
+      <c r="U74" s="125">
         <v>10001</v>
       </c>
       <c r="V74" s="37">
@@ -24601,10 +24616,10 @@
       <c r="W74" s="37">
         <v>228</v>
       </c>
-      <c r="X74" s="139">
+      <c r="X74" s="126">
         <v>163</v>
       </c>
-      <c r="Y74" s="139">
+      <c r="Y74" s="126">
         <v>10002</v>
       </c>
       <c r="Z74" s="38">
@@ -24670,10 +24685,10 @@
       <c r="O75" s="42">
         <v>0.1</v>
       </c>
-      <c r="P75" s="140">
+      <c r="P75" s="123">
         <v>80</v>
       </c>
-      <c r="Q75" s="140">
+      <c r="Q75" s="123">
         <v>10000</v>
       </c>
       <c r="R75" s="43">
@@ -24682,10 +24697,10 @@
       <c r="S75" s="43">
         <v>154</v>
       </c>
-      <c r="T75" s="138">
+      <c r="T75" s="37">
         <v>99</v>
       </c>
-      <c r="U75" s="138">
+      <c r="U75" s="125">
         <v>10001</v>
       </c>
       <c r="V75" s="37">
@@ -24694,10 +24709,10 @@
       <c r="W75" s="37">
         <v>231</v>
       </c>
-      <c r="X75" s="139">
+      <c r="X75" s="126">
         <v>164</v>
       </c>
-      <c r="Y75" s="139">
+      <c r="Y75" s="126">
         <v>10002</v>
       </c>
       <c r="Z75" s="38">
@@ -24763,10 +24778,10 @@
       <c r="O76" s="42">
         <v>0.1</v>
       </c>
-      <c r="P76" s="140">
+      <c r="P76" s="123">
         <v>80</v>
       </c>
-      <c r="Q76" s="140">
+      <c r="Q76" s="123">
         <v>10000</v>
       </c>
       <c r="R76" s="43">
@@ -24775,10 +24790,10 @@
       <c r="S76" s="43">
         <v>156</v>
       </c>
-      <c r="T76" s="138">
+      <c r="T76" s="37">
         <v>99</v>
       </c>
-      <c r="U76" s="138">
+      <c r="U76" s="125">
         <v>10001</v>
       </c>
       <c r="V76" s="37">
@@ -24787,10 +24802,10 @@
       <c r="W76" s="37">
         <v>234</v>
       </c>
-      <c r="X76" s="139">
+      <c r="X76" s="126">
         <v>164</v>
       </c>
-      <c r="Y76" s="139">
+      <c r="Y76" s="126">
         <v>10002</v>
       </c>
       <c r="Z76" s="38">
@@ -24856,10 +24871,10 @@
       <c r="O77" s="42">
         <v>0.1</v>
       </c>
-      <c r="P77" s="140">
+      <c r="P77" s="123">
         <v>80</v>
       </c>
-      <c r="Q77" s="140">
+      <c r="Q77" s="123">
         <v>10000</v>
       </c>
       <c r="R77" s="43">
@@ -24868,10 +24883,10 @@
       <c r="S77" s="43">
         <v>158</v>
       </c>
-      <c r="T77" s="138">
+      <c r="T77" s="37">
         <v>100</v>
       </c>
-      <c r="U77" s="138">
+      <c r="U77" s="125">
         <v>10001</v>
       </c>
       <c r="V77" s="37">
@@ -24880,10 +24895,10 @@
       <c r="W77" s="37">
         <v>237</v>
       </c>
-      <c r="X77" s="139">
+      <c r="X77" s="126">
         <v>165</v>
       </c>
-      <c r="Y77" s="139">
+      <c r="Y77" s="126">
         <v>10002</v>
       </c>
       <c r="Z77" s="38">
@@ -24949,10 +24964,10 @@
       <c r="O78" s="42">
         <v>0.1</v>
       </c>
-      <c r="P78" s="140">
+      <c r="P78" s="123">
         <v>81</v>
       </c>
-      <c r="Q78" s="140">
+      <c r="Q78" s="123">
         <v>10000</v>
       </c>
       <c r="R78" s="43">
@@ -24961,10 +24976,10 @@
       <c r="S78" s="43">
         <v>160</v>
       </c>
-      <c r="T78" s="138">
+      <c r="T78" s="37">
         <v>100</v>
       </c>
-      <c r="U78" s="138">
+      <c r="U78" s="125">
         <v>10001</v>
       </c>
       <c r="V78" s="37">
@@ -24973,10 +24988,10 @@
       <c r="W78" s="37">
         <v>240</v>
       </c>
-      <c r="X78" s="139">
+      <c r="X78" s="126">
         <v>165</v>
       </c>
-      <c r="Y78" s="139">
+      <c r="Y78" s="126">
         <v>10002</v>
       </c>
       <c r="Z78" s="38">
@@ -25042,10 +25057,10 @@
       <c r="O79" s="42">
         <v>0.1</v>
       </c>
-      <c r="P79" s="140">
+      <c r="P79" s="123">
         <v>81</v>
       </c>
-      <c r="Q79" s="140">
+      <c r="Q79" s="123">
         <v>10000</v>
       </c>
       <c r="R79" s="43">
@@ -25054,10 +25069,10 @@
       <c r="S79" s="43">
         <v>162</v>
       </c>
-      <c r="T79" s="138">
+      <c r="T79" s="37">
         <v>100</v>
       </c>
-      <c r="U79" s="138">
+      <c r="U79" s="125">
         <v>10001</v>
       </c>
       <c r="V79" s="37">
@@ -25066,10 +25081,10 @@
       <c r="W79" s="37">
         <v>243</v>
       </c>
-      <c r="X79" s="139">
+      <c r="X79" s="126">
         <v>166</v>
       </c>
-      <c r="Y79" s="139">
+      <c r="Y79" s="126">
         <v>10002</v>
       </c>
       <c r="Z79" s="38">
@@ -25135,10 +25150,10 @@
       <c r="O80" s="42">
         <v>0.1</v>
       </c>
-      <c r="P80" s="140">
+      <c r="P80" s="123">
         <v>81</v>
       </c>
-      <c r="Q80" s="140">
+      <c r="Q80" s="123">
         <v>10000</v>
       </c>
       <c r="R80" s="43">
@@ -25147,10 +25162,10 @@
       <c r="S80" s="43">
         <v>164</v>
       </c>
-      <c r="T80" s="138">
+      <c r="T80" s="37">
         <v>101</v>
       </c>
-      <c r="U80" s="138">
+      <c r="U80" s="125">
         <v>10001</v>
       </c>
       <c r="V80" s="37">
@@ -25159,10 +25174,10 @@
       <c r="W80" s="37">
         <v>246</v>
       </c>
-      <c r="X80" s="139">
+      <c r="X80" s="126">
         <v>166</v>
       </c>
-      <c r="Y80" s="139">
+      <c r="Y80" s="126">
         <v>10002</v>
       </c>
       <c r="Z80" s="38">
@@ -25228,10 +25243,10 @@
       <c r="O81" s="42">
         <v>0.1</v>
       </c>
-      <c r="P81" s="140">
+      <c r="P81" s="123">
         <v>81</v>
       </c>
-      <c r="Q81" s="140">
+      <c r="Q81" s="123">
         <v>10000</v>
       </c>
       <c r="R81" s="43">
@@ -25240,10 +25255,10 @@
       <c r="S81" s="43">
         <v>166</v>
       </c>
-      <c r="T81" s="138">
+      <c r="T81" s="37">
         <v>101</v>
       </c>
-      <c r="U81" s="138">
+      <c r="U81" s="125">
         <v>10001</v>
       </c>
       <c r="V81" s="37">
@@ -25252,10 +25267,10 @@
       <c r="W81" s="37">
         <v>249</v>
       </c>
-      <c r="X81" s="139">
+      <c r="X81" s="126">
         <v>167</v>
       </c>
-      <c r="Y81" s="139">
+      <c r="Y81" s="126">
         <v>10002</v>
       </c>
       <c r="Z81" s="38">
@@ -25321,10 +25336,10 @@
       <c r="O82" s="42">
         <v>0.1</v>
       </c>
-      <c r="P82" s="140">
+      <c r="P82" s="123">
         <v>82</v>
       </c>
-      <c r="Q82" s="140">
+      <c r="Q82" s="123">
         <v>10000</v>
       </c>
       <c r="R82" s="43">
@@ -25333,10 +25348,10 @@
       <c r="S82" s="43">
         <v>168</v>
       </c>
-      <c r="T82" s="138">
+      <c r="T82" s="37">
         <v>102</v>
       </c>
-      <c r="U82" s="138">
+      <c r="U82" s="125">
         <v>10001</v>
       </c>
       <c r="V82" s="37">
@@ -25345,10 +25360,10 @@
       <c r="W82" s="37">
         <v>252</v>
       </c>
-      <c r="X82" s="139">
+      <c r="X82" s="126">
         <v>167</v>
       </c>
-      <c r="Y82" s="139">
+      <c r="Y82" s="126">
         <v>10002</v>
       </c>
       <c r="Z82" s="38">
@@ -25414,10 +25429,10 @@
       <c r="O83" s="42">
         <v>0.1</v>
       </c>
-      <c r="P83" s="140">
+      <c r="P83" s="123">
         <v>82</v>
       </c>
-      <c r="Q83" s="140">
+      <c r="Q83" s="123">
         <v>10000</v>
       </c>
       <c r="R83" s="43">
@@ -25426,10 +25441,10 @@
       <c r="S83" s="43">
         <v>170</v>
       </c>
-      <c r="T83" s="138">
+      <c r="T83" s="37">
         <v>102</v>
       </c>
-      <c r="U83" s="138">
+      <c r="U83" s="125">
         <v>10001</v>
       </c>
       <c r="V83" s="37">
@@ -25438,10 +25453,10 @@
       <c r="W83" s="37">
         <v>255</v>
       </c>
-      <c r="X83" s="139">
+      <c r="X83" s="126">
         <v>168</v>
       </c>
-      <c r="Y83" s="139">
+      <c r="Y83" s="126">
         <v>10002</v>
       </c>
       <c r="Z83" s="38">
@@ -25507,10 +25522,10 @@
       <c r="O84" s="42">
         <v>0.1</v>
       </c>
-      <c r="P84" s="140">
+      <c r="P84" s="123">
         <v>82</v>
       </c>
-      <c r="Q84" s="140">
+      <c r="Q84" s="123">
         <v>10000</v>
       </c>
       <c r="R84" s="43">
@@ -25519,10 +25534,10 @@
       <c r="S84" s="43">
         <v>172</v>
       </c>
-      <c r="T84" s="138">
+      <c r="T84" s="37">
         <v>102</v>
       </c>
-      <c r="U84" s="138">
+      <c r="U84" s="125">
         <v>10001</v>
       </c>
       <c r="V84" s="37">
@@ -25531,10 +25546,10 @@
       <c r="W84" s="37">
         <v>258</v>
       </c>
-      <c r="X84" s="139">
+      <c r="X84" s="126">
         <v>168</v>
       </c>
-      <c r="Y84" s="139">
+      <c r="Y84" s="126">
         <v>10002</v>
       </c>
       <c r="Z84" s="38">
@@ -25600,10 +25615,10 @@
       <c r="O85" s="42">
         <v>0.1</v>
       </c>
-      <c r="P85" s="140">
+      <c r="P85" s="123">
         <v>83</v>
       </c>
-      <c r="Q85" s="140">
+      <c r="Q85" s="123">
         <v>10000</v>
       </c>
       <c r="R85" s="43">
@@ -25612,10 +25627,10 @@
       <c r="S85" s="43">
         <v>174</v>
       </c>
-      <c r="T85" s="138">
+      <c r="T85" s="37">
         <v>103</v>
       </c>
-      <c r="U85" s="138">
+      <c r="U85" s="125">
         <v>10001</v>
       </c>
       <c r="V85" s="37">
@@ -25624,10 +25639,10 @@
       <c r="W85" s="37">
         <v>261</v>
       </c>
-      <c r="X85" s="139">
+      <c r="X85" s="126">
         <v>168</v>
       </c>
-      <c r="Y85" s="139">
+      <c r="Y85" s="126">
         <v>10002</v>
       </c>
       <c r="Z85" s="38">
@@ -25693,10 +25708,10 @@
       <c r="O86" s="42">
         <v>0.1</v>
       </c>
-      <c r="P86" s="140">
+      <c r="P86" s="123">
         <v>83</v>
       </c>
-      <c r="Q86" s="140">
+      <c r="Q86" s="123">
         <v>10000</v>
       </c>
       <c r="R86" s="43">
@@ -25705,10 +25720,10 @@
       <c r="S86" s="43">
         <v>176</v>
       </c>
-      <c r="T86" s="138">
+      <c r="T86" s="37">
         <v>103</v>
       </c>
-      <c r="U86" s="138">
+      <c r="U86" s="125">
         <v>10001</v>
       </c>
       <c r="V86" s="37">
@@ -25717,10 +25732,10 @@
       <c r="W86" s="37">
         <v>264</v>
       </c>
-      <c r="X86" s="139">
+      <c r="X86" s="126">
         <v>169</v>
       </c>
-      <c r="Y86" s="139">
+      <c r="Y86" s="126">
         <v>10002</v>
       </c>
       <c r="Z86" s="38">
@@ -25786,10 +25801,10 @@
       <c r="O87" s="42">
         <v>0.1</v>
       </c>
-      <c r="P87" s="140">
+      <c r="P87" s="123">
         <v>83</v>
       </c>
-      <c r="Q87" s="140">
+      <c r="Q87" s="123">
         <v>10000</v>
       </c>
       <c r="R87" s="43">
@@ -25798,10 +25813,10 @@
       <c r="S87" s="43">
         <v>178</v>
       </c>
-      <c r="T87" s="138">
+      <c r="T87" s="37">
         <v>103</v>
       </c>
-      <c r="U87" s="138">
+      <c r="U87" s="125">
         <v>10001</v>
       </c>
       <c r="V87" s="37">
@@ -25810,10 +25825,10 @@
       <c r="W87" s="37">
         <v>267</v>
       </c>
-      <c r="X87" s="139">
+      <c r="X87" s="126">
         <v>169</v>
       </c>
-      <c r="Y87" s="139">
+      <c r="Y87" s="126">
         <v>10002</v>
       </c>
       <c r="Z87" s="38">
@@ -25879,10 +25894,10 @@
       <c r="O88" s="42">
         <v>0.1</v>
       </c>
-      <c r="P88" s="140">
+      <c r="P88" s="123">
         <v>84</v>
       </c>
-      <c r="Q88" s="140">
+      <c r="Q88" s="123">
         <v>10000</v>
       </c>
       <c r="R88" s="43">
@@ -25891,10 +25906,10 @@
       <c r="S88" s="43">
         <v>180</v>
       </c>
-      <c r="T88" s="138">
+      <c r="T88" s="37">
         <v>104</v>
       </c>
-      <c r="U88" s="138">
+      <c r="U88" s="125">
         <v>10001</v>
       </c>
       <c r="V88" s="37">
@@ -25903,10 +25918,10 @@
       <c r="W88" s="37">
         <v>270</v>
       </c>
-      <c r="X88" s="139">
+      <c r="X88" s="126">
         <v>170</v>
       </c>
-      <c r="Y88" s="139">
+      <c r="Y88" s="126">
         <v>10002</v>
       </c>
       <c r="Z88" s="38">
@@ -25972,10 +25987,10 @@
       <c r="O89" s="42">
         <v>0.1</v>
       </c>
-      <c r="P89" s="140">
+      <c r="P89" s="123">
         <v>84</v>
       </c>
-      <c r="Q89" s="140">
+      <c r="Q89" s="123">
         <v>10000</v>
       </c>
       <c r="R89" s="43">
@@ -25984,10 +25999,10 @@
       <c r="S89" s="43">
         <v>182</v>
       </c>
-      <c r="T89" s="138">
+      <c r="T89" s="37">
         <v>104</v>
       </c>
-      <c r="U89" s="138">
+      <c r="U89" s="125">
         <v>10001</v>
       </c>
       <c r="V89" s="37">
@@ -25996,10 +26011,10 @@
       <c r="W89" s="37">
         <v>273</v>
       </c>
-      <c r="X89" s="139">
+      <c r="X89" s="126">
         <v>170</v>
       </c>
-      <c r="Y89" s="139">
+      <c r="Y89" s="126">
         <v>10002</v>
       </c>
       <c r="Z89" s="38">
@@ -26065,10 +26080,10 @@
       <c r="O90" s="42">
         <v>0.1</v>
       </c>
-      <c r="P90" s="140">
+      <c r="P90" s="123">
         <v>84</v>
       </c>
-      <c r="Q90" s="140">
+      <c r="Q90" s="123">
         <v>10000</v>
       </c>
       <c r="R90" s="43">
@@ -26077,10 +26092,10 @@
       <c r="S90" s="43">
         <v>184</v>
       </c>
-      <c r="T90" s="138">
+      <c r="T90" s="37">
         <v>104</v>
       </c>
-      <c r="U90" s="138">
+      <c r="U90" s="125">
         <v>10001</v>
       </c>
       <c r="V90" s="37">
@@ -26089,10 +26104,10 @@
       <c r="W90" s="37">
         <v>276</v>
       </c>
-      <c r="X90" s="139">
+      <c r="X90" s="126">
         <v>171</v>
       </c>
-      <c r="Y90" s="139">
+      <c r="Y90" s="126">
         <v>10002</v>
       </c>
       <c r="Z90" s="38">
@@ -26158,10 +26173,10 @@
       <c r="O91" s="42">
         <v>0.1</v>
       </c>
-      <c r="P91" s="140">
+      <c r="P91" s="123">
         <v>85</v>
       </c>
-      <c r="Q91" s="140">
+      <c r="Q91" s="123">
         <v>10000</v>
       </c>
       <c r="R91" s="43">
@@ -26170,10 +26185,10 @@
       <c r="S91" s="43">
         <v>186</v>
       </c>
-      <c r="T91" s="138">
+      <c r="T91" s="37">
         <v>105</v>
       </c>
-      <c r="U91" s="138">
+      <c r="U91" s="125">
         <v>10001</v>
       </c>
       <c r="V91" s="37">
@@ -26182,10 +26197,10 @@
       <c r="W91" s="37">
         <v>279</v>
       </c>
-      <c r="X91" s="139">
+      <c r="X91" s="126">
         <v>171</v>
       </c>
-      <c r="Y91" s="139">
+      <c r="Y91" s="126">
         <v>10002</v>
       </c>
       <c r="Z91" s="38">
@@ -26251,10 +26266,10 @@
       <c r="O92" s="42">
         <v>0.1</v>
       </c>
-      <c r="P92" s="140">
+      <c r="P92" s="123">
         <v>85</v>
       </c>
-      <c r="Q92" s="140">
+      <c r="Q92" s="123">
         <v>10000</v>
       </c>
       <c r="R92" s="43">
@@ -26263,10 +26278,10 @@
       <c r="S92" s="43">
         <v>188</v>
       </c>
-      <c r="T92" s="138">
+      <c r="T92" s="37">
         <v>105</v>
       </c>
-      <c r="U92" s="138">
+      <c r="U92" s="125">
         <v>10001</v>
       </c>
       <c r="V92" s="37">
@@ -26275,10 +26290,10 @@
       <c r="W92" s="37">
         <v>282</v>
       </c>
-      <c r="X92" s="139">
+      <c r="X92" s="126">
         <v>171</v>
       </c>
-      <c r="Y92" s="139">
+      <c r="Y92" s="126">
         <v>10002</v>
       </c>
       <c r="Z92" s="38">
@@ -26344,10 +26359,10 @@
       <c r="O93" s="42">
         <v>0.1</v>
       </c>
-      <c r="P93" s="140">
+      <c r="P93" s="123">
         <v>85</v>
       </c>
-      <c r="Q93" s="140">
+      <c r="Q93" s="123">
         <v>10000</v>
       </c>
       <c r="R93" s="43">
@@ -26356,10 +26371,10 @@
       <c r="S93" s="43">
         <v>190</v>
       </c>
-      <c r="T93" s="138">
+      <c r="T93" s="37">
         <v>105</v>
       </c>
-      <c r="U93" s="138">
+      <c r="U93" s="125">
         <v>10001</v>
       </c>
       <c r="V93" s="37">
@@ -26368,10 +26383,10 @@
       <c r="W93" s="37">
         <v>285</v>
       </c>
-      <c r="X93" s="139">
+      <c r="X93" s="126">
         <v>172</v>
       </c>
-      <c r="Y93" s="139">
+      <c r="Y93" s="126">
         <v>10002</v>
       </c>
       <c r="Z93" s="38">
@@ -26437,10 +26452,10 @@
       <c r="O94" s="42">
         <v>0.1</v>
       </c>
-      <c r="P94" s="140">
+      <c r="P94" s="123">
         <v>85</v>
       </c>
-      <c r="Q94" s="140">
+      <c r="Q94" s="123">
         <v>10000</v>
       </c>
       <c r="R94" s="43">
@@ -26449,10 +26464,10 @@
       <c r="S94" s="43">
         <v>192</v>
       </c>
-      <c r="T94" s="138">
+      <c r="T94" s="37">
         <v>106</v>
       </c>
-      <c r="U94" s="138">
+      <c r="U94" s="125">
         <v>10001</v>
       </c>
       <c r="V94" s="37">
@@ -26461,10 +26476,10 @@
       <c r="W94" s="37">
         <v>288</v>
       </c>
-      <c r="X94" s="139">
+      <c r="X94" s="126">
         <v>172</v>
       </c>
-      <c r="Y94" s="139">
+      <c r="Y94" s="126">
         <v>10002</v>
       </c>
       <c r="Z94" s="38">
@@ -26530,10 +26545,10 @@
       <c r="O95" s="42">
         <v>0.1</v>
       </c>
-      <c r="P95" s="140">
+      <c r="P95" s="123">
         <v>86</v>
       </c>
-      <c r="Q95" s="140">
+      <c r="Q95" s="123">
         <v>10000</v>
       </c>
       <c r="R95" s="43">
@@ -26542,10 +26557,10 @@
       <c r="S95" s="43">
         <v>194</v>
       </c>
-      <c r="T95" s="138">
+      <c r="T95" s="37">
         <v>106</v>
       </c>
-      <c r="U95" s="138">
+      <c r="U95" s="125">
         <v>10001</v>
       </c>
       <c r="V95" s="37">
@@ -26554,10 +26569,10 @@
       <c r="W95" s="37">
         <v>291</v>
       </c>
-      <c r="X95" s="139">
+      <c r="X95" s="126">
         <v>173</v>
       </c>
-      <c r="Y95" s="139">
+      <c r="Y95" s="126">
         <v>10002</v>
       </c>
       <c r="Z95" s="38">
@@ -26623,10 +26638,10 @@
       <c r="O96" s="42">
         <v>0.1</v>
       </c>
-      <c r="P96" s="140">
+      <c r="P96" s="123">
         <v>86</v>
       </c>
-      <c r="Q96" s="140">
+      <c r="Q96" s="123">
         <v>10000</v>
       </c>
       <c r="R96" s="43">
@@ -26635,10 +26650,10 @@
       <c r="S96" s="43">
         <v>196</v>
       </c>
-      <c r="T96" s="138">
+      <c r="T96" s="37">
         <v>106</v>
       </c>
-      <c r="U96" s="138">
+      <c r="U96" s="125">
         <v>10001</v>
       </c>
       <c r="V96" s="37">
@@ -26647,10 +26662,10 @@
       <c r="W96" s="37">
         <v>294</v>
       </c>
-      <c r="X96" s="139">
+      <c r="X96" s="126">
         <v>173</v>
       </c>
-      <c r="Y96" s="139">
+      <c r="Y96" s="126">
         <v>10002</v>
       </c>
       <c r="Z96" s="38">
@@ -26716,10 +26731,10 @@
       <c r="O97" s="42">
         <v>0.1</v>
       </c>
-      <c r="P97" s="140">
+      <c r="P97" s="123">
         <v>86</v>
       </c>
-      <c r="Q97" s="140">
+      <c r="Q97" s="123">
         <v>10000</v>
       </c>
       <c r="R97" s="43">
@@ -26728,10 +26743,10 @@
       <c r="S97" s="43">
         <v>198</v>
       </c>
-      <c r="T97" s="138">
+      <c r="T97" s="37">
         <v>107</v>
       </c>
-      <c r="U97" s="138">
+      <c r="U97" s="125">
         <v>10001</v>
       </c>
       <c r="V97" s="37">
@@ -26740,10 +26755,10 @@
       <c r="W97" s="37">
         <v>297</v>
       </c>
-      <c r="X97" s="139">
+      <c r="X97" s="126">
         <v>173</v>
       </c>
-      <c r="Y97" s="139">
+      <c r="Y97" s="126">
         <v>10002</v>
       </c>
       <c r="Z97" s="38">
@@ -26809,10 +26824,10 @@
       <c r="O98" s="42">
         <v>0.1</v>
       </c>
-      <c r="P98" s="140">
+      <c r="P98" s="123">
         <v>87</v>
       </c>
-      <c r="Q98" s="140">
+      <c r="Q98" s="123">
         <v>10000</v>
       </c>
       <c r="R98" s="43">
@@ -26821,10 +26836,10 @@
       <c r="S98" s="43">
         <v>200</v>
       </c>
-      <c r="T98" s="138">
+      <c r="T98" s="37">
         <v>107</v>
       </c>
-      <c r="U98" s="138">
+      <c r="U98" s="125">
         <v>10001</v>
       </c>
       <c r="V98" s="37">
@@ -26833,10 +26848,10 @@
       <c r="W98" s="37">
         <v>300</v>
       </c>
-      <c r="X98" s="139">
+      <c r="X98" s="126">
         <v>174</v>
       </c>
-      <c r="Y98" s="139">
+      <c r="Y98" s="126">
         <v>10002</v>
       </c>
       <c r="Z98" s="38">
@@ -26902,10 +26917,10 @@
       <c r="O99" s="42">
         <v>0.1</v>
       </c>
-      <c r="P99" s="140">
+      <c r="P99" s="123">
         <v>87</v>
       </c>
-      <c r="Q99" s="140">
+      <c r="Q99" s="123">
         <v>10000</v>
       </c>
       <c r="R99" s="43">
@@ -26914,10 +26929,10 @@
       <c r="S99" s="43">
         <v>202</v>
       </c>
-      <c r="T99" s="138">
+      <c r="T99" s="37">
         <v>107</v>
       </c>
-      <c r="U99" s="138">
+      <c r="U99" s="125">
         <v>10001</v>
       </c>
       <c r="V99" s="37">
@@ -26926,10 +26941,10 @@
       <c r="W99" s="37">
         <v>303</v>
       </c>
-      <c r="X99" s="139">
+      <c r="X99" s="126">
         <v>174</v>
       </c>
-      <c r="Y99" s="139">
+      <c r="Y99" s="126">
         <v>10002</v>
       </c>
       <c r="Z99" s="38">
@@ -26995,10 +27010,10 @@
       <c r="O100" s="42">
         <v>0.1</v>
       </c>
-      <c r="P100" s="140">
+      <c r="P100" s="123">
         <v>87</v>
       </c>
-      <c r="Q100" s="140">
+      <c r="Q100" s="123">
         <v>10000</v>
       </c>
       <c r="R100" s="43">
@@ -27007,10 +27022,10 @@
       <c r="S100" s="43">
         <v>204</v>
       </c>
-      <c r="T100" s="138">
+      <c r="T100" s="37">
         <v>108</v>
       </c>
-      <c r="U100" s="138">
+      <c r="U100" s="125">
         <v>10001</v>
       </c>
       <c r="V100" s="37">
@@ -27019,10 +27034,10 @@
       <c r="W100" s="37">
         <v>306</v>
       </c>
-      <c r="X100" s="139">
+      <c r="X100" s="126">
         <v>175</v>
       </c>
-      <c r="Y100" s="139">
+      <c r="Y100" s="126">
         <v>10002</v>
       </c>
       <c r="Z100" s="38">
@@ -27088,10 +27103,10 @@
       <c r="O101" s="42">
         <v>0.1</v>
       </c>
-      <c r="P101" s="140">
+      <c r="P101" s="123">
         <v>87</v>
       </c>
-      <c r="Q101" s="140">
+      <c r="Q101" s="123">
         <v>10000</v>
       </c>
       <c r="R101" s="43">
@@ -27100,10 +27115,10 @@
       <c r="S101" s="43">
         <v>206</v>
       </c>
-      <c r="T101" s="138">
+      <c r="T101" s="37">
         <v>108</v>
       </c>
-      <c r="U101" s="138">
+      <c r="U101" s="125">
         <v>10001</v>
       </c>
       <c r="V101" s="37">
@@ -27112,10 +27127,10 @@
       <c r="W101" s="37">
         <v>309</v>
       </c>
-      <c r="X101" s="139">
+      <c r="X101" s="126">
         <v>175</v>
       </c>
-      <c r="Y101" s="139">
+      <c r="Y101" s="126">
         <v>10002</v>
       </c>
       <c r="Z101" s="38">
@@ -27181,10 +27196,10 @@
       <c r="O102" s="42">
         <v>0.1</v>
       </c>
-      <c r="P102" s="140">
+      <c r="P102" s="123">
         <v>88</v>
       </c>
-      <c r="Q102" s="140">
+      <c r="Q102" s="123">
         <v>10000</v>
       </c>
       <c r="R102" s="43">
@@ -27193,10 +27208,10 @@
       <c r="S102" s="43">
         <v>208</v>
       </c>
-      <c r="T102" s="138">
+      <c r="T102" s="37">
         <v>108</v>
       </c>
-      <c r="U102" s="138">
+      <c r="U102" s="125">
         <v>10001</v>
       </c>
       <c r="V102" s="37">
@@ -27205,10 +27220,10 @@
       <c r="W102" s="37">
         <v>312</v>
       </c>
-      <c r="X102" s="139">
+      <c r="X102" s="126">
         <v>176</v>
       </c>
-      <c r="Y102" s="139">
+      <c r="Y102" s="126">
         <v>10002</v>
       </c>
       <c r="Z102" s="38">
@@ -27238,7 +27253,7 @@
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -27247,14 +27262,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -31886,7 +31901,7 @@
         <v>MissionName82001</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E80" s="29">
         <v>82002</v>
@@ -31902,7 +31917,7 @@
         <v>50</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
@@ -31938,7 +31953,7 @@
         <v>MissionName82002</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E81" s="29">
         <v>82001</v>
@@ -31954,7 +31969,7 @@
         <v>50</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
@@ -31990,7 +32005,7 @@
         <v>MissionName82003</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E82" s="29">
         <v>82003</v>
@@ -32006,7 +32021,7 @@
         <v>50</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
@@ -32042,7 +32057,7 @@
         <v>MissionName82004</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E83" s="29">
         <v>82001</v>
@@ -32058,7 +32073,7 @@
         <v>50</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="K83" s="23"/>
       <c r="L83" s="23"/>
@@ -32294,7 +32309,7 @@
         <v>MissionName92001</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E88" s="29">
         <v>92001</v>
@@ -32344,7 +32359,7 @@
         <v>MissionName92002</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E89" s="29">
         <v>92002</v>
@@ -32394,7 +32409,7 @@
         <v>MissionName92003</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E90" s="29">
         <v>92003</v>
@@ -32444,7 +32459,7 @@
         <v>MissionName92004</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E91" s="29">
         <v>92004</v>
@@ -32485,7 +32500,7 @@
       <c r="S91" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -32495,12 +32510,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G156" sqref="G156:G164"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -36275,7 +36290,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -57771,28 +57786,28 @@
       </c>
     </row>
     <row r="768" spans="1:7">
-      <c r="A768" s="128" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B768" s="129"/>
-      <c r="C768" s="129"/>
-      <c r="D768" s="129"/>
-      <c r="E768" s="129"/>
-      <c r="F768" s="129"/>
-      <c r="G768" s="130"/>
+      <c r="A768" s="138" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B768" s="139"/>
+      <c r="C768" s="139"/>
+      <c r="D768" s="139"/>
+      <c r="E768" s="139"/>
+      <c r="F768" s="139"/>
+      <c r="G768" s="140"/>
     </row>
     <row r="769" spans="1:6">
       <c r="A769" s="69">
         <v>1</v>
       </c>
       <c r="B769" s="70" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C769" s="70" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D769" s="70" t="s">
         <v>1888</v>
-      </c>
-      <c r="C769" s="70" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D769" s="70" t="s">
-        <v>1889</v>
       </c>
       <c r="F769" s="70" t="str">
         <f>IF(A769=1,"&lt;Sound Type="""&amp;B769&amp;""" Storage="""&amp;C769&amp;""" Dec="""&amp;D769&amp;"""&gt;",IF(A769=2,"  &lt;Clip SoundPath="""&amp;E769&amp;""" /&gt;",IF(A769=3,G769,"")))</f>
@@ -57804,7 +57819,7 @@
         <v>2</v>
       </c>
       <c r="E770" s="70" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F770" s="70" t="str">
         <f t="shared" ref="F770:F774" si="85">IF(A770=1,"&lt;Sound Type="""&amp;B770&amp;""" Storage="""&amp;C770&amp;""" Dec="""&amp;D770&amp;"""&gt;",IF(A770=2,"  &lt;Clip SoundPath="""&amp;E770&amp;""" /&gt;",IF(A770=3,G770,"")))</f>
@@ -57816,7 +57831,7 @@
         <v>2</v>
       </c>
       <c r="E771" s="70" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F771" s="70" t="str">
         <f t="shared" si="85"/>
@@ -57828,7 +57843,7 @@
         <v>2</v>
       </c>
       <c r="E772" s="70" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F772" s="70" t="str">
         <f t="shared" si="85"/>
@@ -57840,7 +57855,7 @@
         <v>2</v>
       </c>
       <c r="E773" s="70" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F773" s="70" t="str">
         <f t="shared" si="85"/>
@@ -57852,7 +57867,7 @@
         <v>2</v>
       </c>
       <c r="E774" s="70" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="F774" s="70" t="str">
         <f t="shared" si="85"/>
@@ -57873,13 +57888,13 @@
         <v>1</v>
       </c>
       <c r="B776" s="70" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C776" s="70" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D776" s="70" t="s">
         <v>1896</v>
-      </c>
-      <c r="C776" s="70" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D776" s="70" t="s">
-        <v>1897</v>
       </c>
       <c r="F776" s="70" t="str">
         <f>IF(A776=1,"&lt;Sound Type="""&amp;B776&amp;""" Storage="""&amp;C776&amp;""" Dec="""&amp;D776&amp;"""&gt;",IF(A776=2,"  &lt;Clip SoundPath="""&amp;E776&amp;""" /&gt;",IF(A776=3,G776,"")))</f>
@@ -57891,7 +57906,7 @@
         <v>2</v>
       </c>
       <c r="E777" s="70" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="F777" s="70" t="str">
         <f t="shared" ref="F777:F780" si="86">IF(A777=1,"&lt;Sound Type="""&amp;B777&amp;""" Storage="""&amp;C777&amp;""" Dec="""&amp;D777&amp;"""&gt;",IF(A777=2,"  &lt;Clip SoundPath="""&amp;E777&amp;""" /&gt;",IF(A777=3,G777,"")))</f>
@@ -57903,7 +57918,7 @@
         <v>2</v>
       </c>
       <c r="E778" s="70" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="F778" s="70" t="str">
         <f t="shared" si="86"/>
@@ -57915,7 +57930,7 @@
         <v>2</v>
       </c>
       <c r="E779" s="70" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="F779" s="70" t="str">
         <f t="shared" si="86"/>
@@ -57927,7 +57942,7 @@
         <v>2</v>
       </c>
       <c r="E780" s="70" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="F780" s="70" t="str">
         <f t="shared" si="86"/>
@@ -57948,13 +57963,13 @@
         <v>1</v>
       </c>
       <c r="B782" s="70" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C782" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D782" s="70" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="F782" s="70" t="str">
         <f>IF(A782=1,"&lt;Sound Type="""&amp;B782&amp;""" Storage="""&amp;C782&amp;""" Dec="""&amp;D782&amp;"""&gt;",IF(A782=2,"  &lt;Clip SoundPath="""&amp;E782&amp;""" /&gt;",IF(A782=3,G782,"")))</f>
@@ -57966,7 +57981,7 @@
         <v>2</v>
       </c>
       <c r="E783" s="70" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F783" s="70" t="str">
         <f t="shared" ref="F783" si="87">IF(A783=1,"&lt;Sound Type="""&amp;B783&amp;""" Storage="""&amp;C783&amp;""" Dec="""&amp;D783&amp;"""&gt;",IF(A783=2,"  &lt;Clip SoundPath="""&amp;E783&amp;""" /&gt;",IF(A783=3,G783,"")))</f>
@@ -57987,13 +58002,13 @@
         <v>1</v>
       </c>
       <c r="B785" s="70" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C785" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D785" s="70" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F785" s="70" t="str">
         <f>IF(A785=1,"&lt;Sound Type="""&amp;B785&amp;""" Storage="""&amp;C785&amp;""" Dec="""&amp;D785&amp;"""&gt;",IF(A785=2,"  &lt;Clip SoundPath="""&amp;E785&amp;""" /&gt;",IF(A785=3,G785,"")))</f>
@@ -58005,7 +58020,7 @@
         <v>2</v>
       </c>
       <c r="E786" s="70" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F786" s="70" t="str">
         <f t="shared" ref="F786" si="88">IF(A786=1,"&lt;Sound Type="""&amp;B786&amp;""" Storage="""&amp;C786&amp;""" Dec="""&amp;D786&amp;"""&gt;",IF(A786=2,"  &lt;Clip SoundPath="""&amp;E786&amp;""" /&gt;",IF(A786=3,G786,"")))</f>
@@ -58026,13 +58041,13 @@
         <v>1</v>
       </c>
       <c r="B788" s="70" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C788" s="70" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D788" s="70" t="s">
         <v>1906</v>
-      </c>
-      <c r="C788" s="70" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D788" s="70" t="s">
-        <v>1907</v>
       </c>
       <c r="F788" s="70" t="str">
         <f>IF(A788=1,"&lt;Sound Type="""&amp;B788&amp;""" Storage="""&amp;C788&amp;""" Dec="""&amp;D788&amp;"""&gt;",IF(A788=2,"  &lt;Clip SoundPath="""&amp;E788&amp;""" /&gt;",IF(A788=3,G788,"")))</f>
@@ -58044,7 +58059,7 @@
         <v>2</v>
       </c>
       <c r="E789" s="70" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="F789" s="70" t="str">
         <f t="shared" ref="F789" si="89">IF(A789=1,"&lt;Sound Type="""&amp;B789&amp;""" Storage="""&amp;C789&amp;""" Dec="""&amp;D789&amp;"""&gt;",IF(A789=2,"  &lt;Clip SoundPath="""&amp;E789&amp;""" /&gt;",IF(A789=3,G789,"")))</f>
@@ -58065,13 +58080,13 @@
         <v>1</v>
       </c>
       <c r="B791" s="70" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C791" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D791" s="70" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F791" s="70" t="str">
         <f>IF(A791=1,"&lt;Sound Type="""&amp;B791&amp;""" Storage="""&amp;C791&amp;""" Dec="""&amp;D791&amp;"""&gt;",IF(A791=2,"  &lt;Clip SoundPath="""&amp;E791&amp;""" /&gt;",IF(A791=3,G791,"")))</f>
@@ -58083,7 +58098,7 @@
         <v>2</v>
       </c>
       <c r="E792" s="70" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="F792" s="70" t="str">
         <f t="shared" ref="F792:F795" si="90">IF(A792=1,"&lt;Sound Type="""&amp;B792&amp;""" Storage="""&amp;C792&amp;""" Dec="""&amp;D792&amp;"""&gt;",IF(A792=2,"  &lt;Clip SoundPath="""&amp;E792&amp;""" /&gt;",IF(A792=3,G792,"")))</f>
@@ -58095,7 +58110,7 @@
         <v>2</v>
       </c>
       <c r="E793" s="70" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="F793" s="70" t="str">
         <f t="shared" si="90"/>
@@ -58107,7 +58122,7 @@
         <v>2</v>
       </c>
       <c r="E794" s="70" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="F794" s="70" t="str">
         <f t="shared" si="90"/>
@@ -58119,7 +58134,7 @@
         <v>2</v>
       </c>
       <c r="E795" s="70" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="F795" s="70" t="str">
         <f t="shared" si="90"/>
@@ -58131,7 +58146,7 @@
         <v>2</v>
       </c>
       <c r="E796" s="70" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="F796" s="70" t="str">
         <f t="shared" ref="F796" si="91">IF(A796=1,"&lt;Sound Type="""&amp;B796&amp;""" Storage="""&amp;C796&amp;""" Dec="""&amp;D796&amp;"""&gt;",IF(A796=2,"  &lt;Clip SoundPath="""&amp;E796&amp;""" /&gt;",IF(A796=3,G796,"")))</f>
@@ -58152,13 +58167,13 @@
         <v>1</v>
       </c>
       <c r="B798" s="70" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C798" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D798" s="70" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F798" s="70" t="str">
         <f>IF(A798=1,"&lt;Sound Type="""&amp;B798&amp;""" Storage="""&amp;C798&amp;""" Dec="""&amp;D798&amp;"""&gt;",IF(A798=2,"  &lt;Clip SoundPath="""&amp;E798&amp;""" /&gt;",IF(A798=3,G798,"")))</f>
@@ -58170,7 +58185,7 @@
         <v>2</v>
       </c>
       <c r="E799" s="70" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="F799" s="70" t="str">
         <f t="shared" ref="F799" si="92">IF(A799=1,"&lt;Sound Type="""&amp;B799&amp;""" Storage="""&amp;C799&amp;""" Dec="""&amp;D799&amp;"""&gt;",IF(A799=2,"  &lt;Clip SoundPath="""&amp;E799&amp;""" /&gt;",IF(A799=3,G799,"")))</f>
@@ -58191,13 +58206,13 @@
         <v>1</v>
       </c>
       <c r="B801" s="70" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C801" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D801" s="70" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F801" s="70" t="str">
         <f>IF(A801=1,"&lt;Sound Type="""&amp;B801&amp;""" Storage="""&amp;C801&amp;""" Dec="""&amp;D801&amp;"""&gt;",IF(A801=2,"  &lt;Clip SoundPath="""&amp;E801&amp;""" /&gt;",IF(A801=3,G801,"")))</f>
@@ -58209,7 +58224,7 @@
         <v>2</v>
       </c>
       <c r="E802" s="70" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="F802" s="70" t="str">
         <f t="shared" ref="F802" si="93">IF(A802=1,"&lt;Sound Type="""&amp;B802&amp;""" Storage="""&amp;C802&amp;""" Dec="""&amp;D802&amp;"""&gt;",IF(A802=2,"  &lt;Clip SoundPath="""&amp;E802&amp;""" /&gt;",IF(A802=3,G802,"")))</f>
@@ -58230,13 +58245,13 @@
         <v>1</v>
       </c>
       <c r="B804" s="70" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C804" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D804" s="70" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F804" s="70" t="str">
         <f>IF(A804=1,"&lt;Sound Type="""&amp;B804&amp;""" Storage="""&amp;C804&amp;""" Dec="""&amp;D804&amp;"""&gt;",IF(A804=2,"  &lt;Clip SoundPath="""&amp;E804&amp;""" /&gt;",IF(A804=3,G804,"")))</f>
@@ -58248,7 +58263,7 @@
         <v>2</v>
       </c>
       <c r="E805" s="70" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="F805" s="70" t="str">
         <f t="shared" ref="F805" si="94">IF(A805=1,"&lt;Sound Type="""&amp;B805&amp;""" Storage="""&amp;C805&amp;""" Dec="""&amp;D805&amp;"""&gt;",IF(A805=2,"  &lt;Clip SoundPath="""&amp;E805&amp;""" /&gt;",IF(A805=3,G805,"")))</f>
@@ -58269,13 +58284,13 @@
         <v>1</v>
       </c>
       <c r="B807" s="70" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C807" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D807" s="70" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F807" s="70" t="str">
         <f>IF(A807=1,"&lt;Sound Type="""&amp;B807&amp;""" Storage="""&amp;C807&amp;""" Dec="""&amp;D807&amp;"""&gt;",IF(A807=2,"  &lt;Clip SoundPath="""&amp;E807&amp;""" /&gt;",IF(A807=3,G807,"")))</f>
@@ -58287,7 +58302,7 @@
         <v>2</v>
       </c>
       <c r="E808" s="70" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F808" s="70" t="str">
         <f t="shared" ref="F808" si="95">IF(A808=1,"&lt;Sound Type="""&amp;B808&amp;""" Storage="""&amp;C808&amp;""" Dec="""&amp;D808&amp;"""&gt;",IF(A808=2,"  &lt;Clip SoundPath="""&amp;E808&amp;""" /&gt;",IF(A808=3,G808,"")))</f>
@@ -58308,13 +58323,13 @@
         <v>1</v>
       </c>
       <c r="B810" s="70" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C810" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D810" s="70" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F810" s="70" t="str">
         <f>IF(A810=1,"&lt;Sound Type="""&amp;B810&amp;""" Storage="""&amp;C810&amp;""" Dec="""&amp;D810&amp;"""&gt;",IF(A810=2,"  &lt;Clip SoundPath="""&amp;E810&amp;""" /&gt;",IF(A810=3,G810,"")))</f>
@@ -58326,7 +58341,7 @@
         <v>2</v>
       </c>
       <c r="E811" s="70" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F811" s="70" t="str">
         <f t="shared" ref="F811" si="96">IF(A811=1,"&lt;Sound Type="""&amp;B811&amp;""" Storage="""&amp;C811&amp;""" Dec="""&amp;D811&amp;"""&gt;",IF(A811=2,"  &lt;Clip SoundPath="""&amp;E811&amp;""" /&gt;",IF(A811=3,G811,"")))</f>
@@ -58347,13 +58362,13 @@
         <v>1</v>
       </c>
       <c r="B813" s="70" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C813" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D813" s="70" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="F813" s="70" t="str">
         <f>IF(A813=1,"&lt;Sound Type="""&amp;B813&amp;""" Storage="""&amp;C813&amp;""" Dec="""&amp;D813&amp;"""&gt;",IF(A813=2,"  &lt;Clip SoundPath="""&amp;E813&amp;""" /&gt;",IF(A813=3,G813,"")))</f>
@@ -58365,7 +58380,7 @@
         <v>2</v>
       </c>
       <c r="E814" s="70" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="F814" s="70" t="str">
         <f t="shared" ref="F814" si="97">IF(A814=1,"&lt;Sound Type="""&amp;B814&amp;""" Storage="""&amp;C814&amp;""" Dec="""&amp;D814&amp;"""&gt;",IF(A814=2,"  &lt;Clip SoundPath="""&amp;E814&amp;""" /&gt;",IF(A814=3,G814,"")))</f>
@@ -58386,13 +58401,13 @@
         <v>1</v>
       </c>
       <c r="B816" s="70" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C816" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D816" s="70" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="F816" s="70" t="str">
         <f>IF(A816=1,"&lt;Sound Type="""&amp;B816&amp;""" Storage="""&amp;C816&amp;""" Dec="""&amp;D816&amp;"""&gt;",IF(A816=2,"  &lt;Clip SoundPath="""&amp;E816&amp;""" /&gt;",IF(A816=3,G816,"")))</f>
@@ -58404,7 +58419,7 @@
         <v>2</v>
       </c>
       <c r="E817" s="70" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="F817" s="70" t="str">
         <f t="shared" ref="F817" si="98">IF(A817=1,"&lt;Sound Type="""&amp;B817&amp;""" Storage="""&amp;C817&amp;""" Dec="""&amp;D817&amp;"""&gt;",IF(A817=2,"  &lt;Clip SoundPath="""&amp;E817&amp;""" /&gt;",IF(A817=3,G817,"")))</f>
@@ -58425,13 +58440,13 @@
         <v>1</v>
       </c>
       <c r="B819" s="70" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C819" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D819" s="70" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="F819" s="70" t="str">
         <f>IF(A819=1,"&lt;Sound Type="""&amp;B819&amp;""" Storage="""&amp;C819&amp;""" Dec="""&amp;D819&amp;"""&gt;",IF(A819=2,"  &lt;Clip SoundPath="""&amp;E819&amp;""" /&gt;",IF(A819=3,G819,"")))</f>
@@ -58443,7 +58458,7 @@
         <v>2</v>
       </c>
       <c r="E820" s="70" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F820" s="70" t="str">
         <f t="shared" ref="F820" si="99">IF(A820=1,"&lt;Sound Type="""&amp;B820&amp;""" Storage="""&amp;C820&amp;""" Dec="""&amp;D820&amp;"""&gt;",IF(A820=2,"  &lt;Clip SoundPath="""&amp;E820&amp;""" /&gt;",IF(A820=3,G820,"")))</f>
@@ -58464,13 +58479,13 @@
         <v>1</v>
       </c>
       <c r="B822" s="70" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C822" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D822" s="70" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="F822" s="70" t="str">
         <f>IF(A822=1,"&lt;Sound Type="""&amp;B822&amp;""" Storage="""&amp;C822&amp;""" Dec="""&amp;D822&amp;"""&gt;",IF(A822=2,"  &lt;Clip SoundPath="""&amp;E822&amp;""" /&gt;",IF(A822=3,G822,"")))</f>
@@ -58482,7 +58497,7 @@
         <v>2</v>
       </c>
       <c r="E823" s="70" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="F823" s="70" t="str">
         <f t="shared" ref="F823" si="100">IF(A823=1,"&lt;Sound Type="""&amp;B823&amp;""" Storage="""&amp;C823&amp;""" Dec="""&amp;D823&amp;"""&gt;",IF(A823=2,"  &lt;Clip SoundPath="""&amp;E823&amp;""" /&gt;",IF(A823=3,G823,"")))</f>
@@ -58503,13 +58518,13 @@
         <v>1</v>
       </c>
       <c r="B825" s="70" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C825" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D825" s="70" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="F825" s="70" t="str">
         <f>IF(A825=1,"&lt;Sound Type="""&amp;B825&amp;""" Storage="""&amp;C825&amp;""" Dec="""&amp;D825&amp;"""&gt;",IF(A825=2,"  &lt;Clip SoundPath="""&amp;E825&amp;""" /&gt;",IF(A825=3,G825,"")))</f>
@@ -58521,7 +58536,7 @@
         <v>2</v>
       </c>
       <c r="E826" s="70" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="F826" s="70" t="str">
         <f t="shared" ref="F826" si="101">IF(A826=1,"&lt;Sound Type="""&amp;B826&amp;""" Storage="""&amp;C826&amp;""" Dec="""&amp;D826&amp;"""&gt;",IF(A826=2,"  &lt;Clip SoundPath="""&amp;E826&amp;""" /&gt;",IF(A826=3,G826,"")))</f>
@@ -58542,13 +58557,13 @@
         <v>1</v>
       </c>
       <c r="B828" s="70" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C828" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D828" s="70" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F828" s="70" t="str">
         <f>IF(A828=1,"&lt;Sound Type="""&amp;B828&amp;""" Storage="""&amp;C828&amp;""" Dec="""&amp;D828&amp;"""&gt;",IF(A828=2,"  &lt;Clip SoundPath="""&amp;E828&amp;""" /&gt;",IF(A828=3,G828,"")))</f>
@@ -58560,7 +58575,7 @@
         <v>2</v>
       </c>
       <c r="E829" s="70" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="F829" s="70" t="str">
         <f t="shared" ref="F829:F833" si="102">IF(A829=1,"&lt;Sound Type="""&amp;B829&amp;""" Storage="""&amp;C829&amp;""" Dec="""&amp;D829&amp;"""&gt;",IF(A829=2,"  &lt;Clip SoundPath="""&amp;E829&amp;""" /&gt;",IF(A829=3,G829,"")))</f>
@@ -58572,7 +58587,7 @@
         <v>2</v>
       </c>
       <c r="E830" s="70" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="F830" s="70" t="str">
         <f t="shared" si="102"/>
@@ -58584,7 +58599,7 @@
         <v>2</v>
       </c>
       <c r="E831" s="70" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F831" s="70" t="str">
         <f t="shared" si="102"/>
@@ -58596,7 +58611,7 @@
         <v>2</v>
       </c>
       <c r="E832" s="70" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F832" s="70" t="str">
         <f t="shared" si="102"/>
@@ -58608,7 +58623,7 @@
         <v>2</v>
       </c>
       <c r="E833" s="70" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="F833" s="70" t="str">
         <f t="shared" si="102"/>
@@ -58629,13 +58644,13 @@
         <v>1</v>
       </c>
       <c r="B835" s="70" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C835" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D835" s="70" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F835" s="70" t="str">
         <f>IF(A835=1,"&lt;Sound Type="""&amp;B835&amp;""" Storage="""&amp;C835&amp;""" Dec="""&amp;D835&amp;"""&gt;",IF(A835=2,"  &lt;Clip SoundPath="""&amp;E835&amp;""" /&gt;",IF(A835=3,G835,"")))</f>
@@ -58647,7 +58662,7 @@
         <v>2</v>
       </c>
       <c r="E836" s="70" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F836" s="70" t="str">
         <f t="shared" ref="F836" si="103">IF(A836=1,"&lt;Sound Type="""&amp;B836&amp;""" Storage="""&amp;C836&amp;""" Dec="""&amp;D836&amp;"""&gt;",IF(A836=2,"  &lt;Clip SoundPath="""&amp;E836&amp;""" /&gt;",IF(A836=3,G836,"")))</f>
@@ -58667,7 +58682,7 @@
   <mergeCells count="1">
     <mergeCell ref="A768:G768"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A838:G1048576">
     <cfRule type="containsText" dxfId="71" priority="64" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
@@ -58883,7 +58898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7878498-7163-4FF9-9615-E24260D521BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -58894,48 +58909,48 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.125" style="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="136" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="121" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="70" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="70" customWidth="1"/>
     <col min="6" max="6" width="54.875" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="116" t="s">
         <v>1715</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="117" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C1" s="118" t="s">
         <v>2011</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="D1" s="118" t="s">
         <v>2012</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="E1" s="118" t="s">
         <v>2013</v>
       </c>
-      <c r="E1" s="133" t="s">
+      <c r="F1" s="118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D2" s="119" t="s">
         <v>2014</v>
       </c>
-      <c r="F1" s="133" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="134"/>
-      <c r="B2" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="134" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D2" s="134" t="s">
+      <c r="E2" s="119" t="s">
         <v>2015</v>
       </c>
-      <c r="E2" s="134" t="s">
-        <v>2016</v>
-      </c>
-      <c r="F2" s="134"/>
+      <c r="F2" s="119"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="70">
@@ -58945,7 +58960,7 @@
         <v>10000</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F3" s="70" t="str">
         <f>IF(A3=1,"&lt;AwardConfig ID="""&amp;B3&amp;""" Desc="""&amp;C3&amp;""" &gt;",IF(A3=2,"  &lt;Coin Percent="""&amp;D3&amp;""" /&gt;",IF(A3=3,"  &lt;Prop Percent="""&amp;D3&amp;""" Source="""&amp;E3&amp;""" /&gt;",IF(A3=4,"&lt;/AwardConfig&gt;",""))))</f>
@@ -58974,7 +58989,7 @@
         <v>0.4</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F5" s="70" t="str">
         <f t="shared" si="0"/>
@@ -58999,7 +59014,7 @@
         <v>10001</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F7" s="70" t="str">
         <f t="shared" si="0"/>
@@ -59028,7 +59043,7 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="70" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F9" s="70" t="str">
         <f t="shared" si="0"/>
@@ -59053,7 +59068,7 @@
         <v>10002</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F11" s="70" t="str">
         <f t="shared" si="0"/>
@@ -59082,7 +59097,7 @@
         <v>0.6</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F13" s="70" t="str">
         <f t="shared" si="0"/>
@@ -59100,7 +59115,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A15:F1048576">
     <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A15)))</formula>
@@ -59165,11 +59180,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24:I28"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
@@ -60745,10 +60760,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>1863</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>1864</v>
       </c>
       <c r="F20" s="30" t="b">
         <v>1</v>
@@ -60787,10 +60802,10 @@
         <v>1050</v>
       </c>
       <c r="R20" s="30" t="s">
+        <v>1876</v>
+      </c>
+      <c r="S20" s="76" t="s">
         <v>1877</v>
-      </c>
-      <c r="S20" s="76" t="s">
-        <v>1878</v>
       </c>
       <c r="U20" s="30" t="str">
         <f t="shared" ref="U20:U28" si="2">"&lt;PropertyItem&gt;"&amp;CHAR(10)&amp;"&lt;Number&gt;"&amp;A20&amp;"&lt;/Number&gt;"&amp;CHAR(10)&amp;"&lt;Id&gt;"&amp;B20&amp;"&lt;/Id&gt;"&amp;CHAR(10)&amp;"&lt;Type&gt;"&amp;C20&amp;"&lt;/Type&gt;"&amp;CHAR(10)&amp;"&lt;Name&gt;"&amp;D20&amp;"&lt;/Name&gt;"&amp;CHAR(10)&amp;"&lt;Tag&gt;"&amp;E20&amp;"&lt;/Tag&gt;"&amp;CHAR(10)&amp;"&lt;IsNew&gt;"&amp;F20&amp;"&lt;/IsNew&gt;"&amp;CHAR(10)&amp;"&lt;IsCampain&gt;"&amp;G20&amp;"&lt;/IsCampain&gt;"&amp;CHAR(10)&amp;"&lt;StartTime&gt;"&amp;TEXT(H20,"yyyy-MM-dd HH:mm")&amp;"&lt;/StartTime&gt;"&amp;CHAR(10)&amp;"&lt;EndTime&gt;"&amp;TEXT(I20,"yyyy-MM-dd HH:mm")&amp;"&lt;/EndTime&gt;"&amp;CHAR(10)&amp;"&lt;UnlockLevel&gt;"&amp;J20&amp;"&lt;/UnlockLevel&gt;"&amp;CHAR(10)&amp;"&lt;Rarity&gt;"&amp;K20&amp;"&lt;/Rarity&gt;"&amp;CHAR(10)&amp;"&lt;Price&gt;"&amp;L20&amp;"&lt;/Price&gt;"&amp;CHAR(10)&amp;"&lt;Sale&gt;"&amp;M20&amp;"&lt;/Sale&gt;"&amp;CHAR(10)&amp;"&lt;Hp&gt;"&amp;N20&amp;"&lt;/Hp&gt;"&amp;CHAR(10)&amp;"&lt;Exp&gt;"&amp;O20&amp;"&lt;/Exp&gt;"&amp;CHAR(10)&amp;"&lt;IsShow&gt;"&amp;P20&amp;"&lt;/IsShow&gt;"&amp;CHAR(10)&amp;"&lt;AcquireWay&gt;"&amp;Q20&amp;"&lt;/AcquireWay&gt;"&amp;CHAR(10)&amp;"&lt;DefaultIcon&gt;"&amp;R20&amp;"&lt;/DefaultIcon&gt;"&amp;CHAR(10)&amp;"&lt;HighLightIcon&gt;"&amp;S20&amp;"&lt;/HighLightIcon&gt;"&amp;CHAR(10)&amp;"&lt;ReactionAnim&gt;"&amp;T20&amp;"&lt;/ReactionAnim&gt;"&amp;CHAR(10)&amp;"&lt;/PropertyItem&gt;"</f>
@@ -60830,10 +60845,10 @@
         <v>6</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>1865</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>1866</v>
       </c>
       <c r="F21" s="30" t="b">
         <v>1</v>
@@ -60872,10 +60887,10 @@
         <v>1050</v>
       </c>
       <c r="R21" s="30" t="s">
+        <v>1870</v>
+      </c>
+      <c r="S21" s="76" t="s">
         <v>1871</v>
-      </c>
-      <c r="S21" s="76" t="s">
-        <v>1872</v>
       </c>
       <c r="U21" s="30" t="str">
         <f t="shared" si="2"/>
@@ -60915,10 +60930,10 @@
         <v>6</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>1867</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>1868</v>
       </c>
       <c r="F22" s="30" t="b">
         <v>1</v>
@@ -60957,10 +60972,10 @@
         <v>1050</v>
       </c>
       <c r="R22" s="30" t="s">
+        <v>1872</v>
+      </c>
+      <c r="S22" s="76" t="s">
         <v>1873</v>
-      </c>
-      <c r="S22" s="76" t="s">
-        <v>1874</v>
       </c>
       <c r="U22" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61000,10 +61015,10 @@
         <v>6</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>1869</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>1870</v>
       </c>
       <c r="F23" s="30" t="b">
         <v>1</v>
@@ -61042,10 +61057,10 @@
         <v>1050</v>
       </c>
       <c r="R23" s="30" t="s">
+        <v>1874</v>
+      </c>
+      <c r="S23" s="76" t="s">
         <v>1875</v>
-      </c>
-      <c r="S23" s="76" t="s">
-        <v>1876</v>
       </c>
       <c r="U23" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61085,7 +61100,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>1048</v>
@@ -61109,16 +61124,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="99">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M24" s="99">
         <v>1</v>
       </c>
       <c r="N24" s="99">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="O24" s="99">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P24" s="30" t="b">
         <v>1</v>
@@ -61127,10 +61142,10 @@
         <v>1050</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="S24" s="30" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="U24" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61146,10 +61161,10 @@
 &lt;EndTime&gt;2020-01-21 00:00&lt;/EndTime&gt;
 &lt;UnlockLevel&gt;1&lt;/UnlockLevel&gt;
 &lt;Rarity&gt;0&lt;/Rarity&gt;
-&lt;Price&gt;10&lt;/Price&gt;
+&lt;Price&gt;30&lt;/Price&gt;
 &lt;Sale&gt;1&lt;/Sale&gt;
-&lt;Hp&gt;10&lt;/Hp&gt;
-&lt;Exp&gt;2&lt;/Exp&gt;
+&lt;Hp&gt;35&lt;/Hp&gt;
+&lt;Exp&gt;8&lt;/Exp&gt;
 &lt;IsShow&gt;TRUE&lt;/IsShow&gt;
 &lt;AcquireWay&gt;Coin&lt;/AcquireWay&gt;
 &lt;DefaultIcon&gt;food_cake_small&lt;/DefaultIcon&gt;
@@ -61170,7 +61185,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="76" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>1063</v>
@@ -61194,16 +61209,16 @@
         <v>0</v>
       </c>
       <c r="L25" s="99">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M25" s="99">
         <v>1</v>
       </c>
       <c r="N25" s="99">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O25" s="99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P25" s="30" t="b">
         <v>1</v>
@@ -61212,10 +61227,10 @@
         <v>1050</v>
       </c>
       <c r="R25" s="30" t="s">
+        <v>1968</v>
+      </c>
+      <c r="S25" s="30" t="s">
         <v>1969</v>
-      </c>
-      <c r="S25" s="30" t="s">
-        <v>1970</v>
       </c>
       <c r="U25" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61231,10 +61246,10 @@
 &lt;EndTime&gt;2020-01-21 00:00&lt;/EndTime&gt;
 &lt;UnlockLevel&gt;1&lt;/UnlockLevel&gt;
 &lt;Rarity&gt;0&lt;/Rarity&gt;
-&lt;Price&gt;25&lt;/Price&gt;
+&lt;Price&gt;15&lt;/Price&gt;
 &lt;Sale&gt;1&lt;/Sale&gt;
-&lt;Hp&gt;30&lt;/Hp&gt;
-&lt;Exp&gt;5&lt;/Exp&gt;
+&lt;Hp&gt;20&lt;/Hp&gt;
+&lt;Exp&gt;2&lt;/Exp&gt;
 &lt;IsShow&gt;TRUE&lt;/IsShow&gt;
 &lt;AcquireWay&gt;Coin&lt;/AcquireWay&gt;
 &lt;DefaultIcon&gt;food_candy_small&lt;/DefaultIcon&gt;
@@ -61255,7 +61270,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="76" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>1048</v>
@@ -61297,10 +61312,10 @@
         <v>1050</v>
       </c>
       <c r="R26" s="30" t="s">
+        <v>1970</v>
+      </c>
+      <c r="S26" s="30" t="s">
         <v>1971</v>
-      </c>
-      <c r="S26" s="30" t="s">
-        <v>1972</v>
       </c>
       <c r="U26" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61340,7 +61355,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="76" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>1048</v>
@@ -61382,10 +61397,10 @@
         <v>1050</v>
       </c>
       <c r="R27" s="30" t="s">
+        <v>1972</v>
+      </c>
+      <c r="S27" s="30" t="s">
         <v>1973</v>
-      </c>
-      <c r="S27" s="30" t="s">
-        <v>1974</v>
       </c>
       <c r="U27" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61425,7 +61440,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>1063</v>
@@ -61449,16 +61464,16 @@
         <v>0</v>
       </c>
       <c r="L28" s="99">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M28" s="99">
         <v>1</v>
       </c>
       <c r="N28" s="99">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O28" s="99">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P28" s="30" t="b">
         <v>1</v>
@@ -61467,10 +61482,10 @@
         <v>1050</v>
       </c>
       <c r="R28" s="30" t="s">
+        <v>1974</v>
+      </c>
+      <c r="S28" s="30" t="s">
         <v>1975</v>
-      </c>
-      <c r="S28" s="30" t="s">
-        <v>1976</v>
       </c>
       <c r="U28" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61486,10 +61501,10 @@
 &lt;EndTime&gt;2020-01-21 00:00&lt;/EndTime&gt;
 &lt;UnlockLevel&gt;1&lt;/UnlockLevel&gt;
 &lt;Rarity&gt;0&lt;/Rarity&gt;
-&lt;Price&gt;20&lt;/Price&gt;
+&lt;Price&gt;10&lt;/Price&gt;
 &lt;Sale&gt;1&lt;/Sale&gt;
-&lt;Hp&gt;18&lt;/Hp&gt;
-&lt;Exp&gt;10&lt;/Exp&gt;
+&lt;Hp&gt;12&lt;/Hp&gt;
+&lt;Exp&gt;3&lt;/Exp&gt;
 &lt;IsShow&gt;TRUE&lt;/IsShow&gt;
 &lt;AcquireWay&gt;Coin&lt;/AcquireWay&gt;
 &lt;DefaultIcon&gt;food_pudding_small&lt;/DefaultIcon&gt;
@@ -61499,7 +61514,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -61511,22 +61526,22 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3:U17"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="8.875" style="6"/>
-    <col min="4" max="4" width="14.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.875" style="6"/>
     <col min="10" max="10" width="11.125" style="109" customWidth="1"/>
-    <col min="11" max="12" width="11.125" style="113" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.125" style="112" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="8.875" style="1"/>
     <col min="20" max="16384" width="8.875" style="6"/>
@@ -61546,7 +61561,7 @@
         <v>1839</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F1" s="75" t="s">
         <v>1840</v>
@@ -61561,16 +61576,16 @@
         <v>1843</v>
       </c>
       <c r="J1" s="95" t="s">
-        <v>1951</v>
-      </c>
-      <c r="K1" s="111" t="s">
+        <v>1950</v>
+      </c>
+      <c r="K1" s="110" t="s">
         <v>1844</v>
       </c>
-      <c r="L1" s="111" t="s">
+      <c r="L1" s="110" t="s">
         <v>1845</v>
       </c>
       <c r="M1" s="75" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="N1" s="75" t="s">
         <v>1846</v>
@@ -61605,7 +61620,7 @@
         <v>1833</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>1834</v>
@@ -61620,16 +61635,16 @@
         <v>1037</v>
       </c>
       <c r="J2" s="96" t="s">
-        <v>1950</v>
-      </c>
-      <c r="K2" s="112" t="s">
+        <v>1949</v>
+      </c>
+      <c r="K2" s="111" t="s">
         <v>1033</v>
       </c>
-      <c r="L2" s="112" t="s">
+      <c r="L2" s="111" t="s">
         <v>1034</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>1825</v>
@@ -61660,28 +61675,28 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
+      <c r="C3" s="11">
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>1852</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I3" s="6">
+        <v>1860</v>
+      </c>
+      <c r="I3" s="11">
         <v>200</v>
       </c>
-      <c r="J3" s="110">
+      <c r="J3" s="141">
         <v>2</v>
       </c>
       <c r="K3" s="97" t="s">
@@ -61690,11 +61705,11 @@
       <c r="L3" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="15">
         <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
@@ -61713,7 +61728,7 @@
       </c>
       <c r="U3" s="6" t="str">
         <f>IF(AND(A3&lt;&gt;"",B3&lt;&gt;""),"&lt;Accessory ID="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Index="""&amp;C3&amp;""" Name="""&amp;D3&amp;""" Icon="""&amp;E3&amp;""" Prefab="""&amp;F3&amp;""" Region="""&amp;G3&amp;""" Purchase="""&amp;H3&amp;""" Price="""&amp;I3&amp;""" Exp="""&amp;J3&amp;""" StartTime="""&amp;K3&amp;""" EndTime="""&amp;L3&amp;""" Level="""&amp;M3&amp;""" PURPIE="""&amp;N3&amp;""" DONNY="""&amp;O3&amp;""" NINJI="""&amp;P3&amp;""" SANSA="""&amp;Q3&amp;""" YOYO="""&amp;R3&amp;""" NUO="""&amp;S3&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20001" Type="1" Index="1" Name="wizard hat" Icon="part_head_hat" Prefab="cap_point" Region="Dummy_head" Purchase="Coin" Price="200" Exp="2" StartTime="null" EndTime="null" Level="1" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20001" Type="1" Index="4" Name="wizard hat" Icon="part_head_hat" Prefab="cap_point" Region="Dummy_head" Purchase="Coin" Price="200" Exp="2" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75">
@@ -61723,28 +61738,28 @@
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
-        <v>6</v>
+      <c r="C4" s="11">
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>1853</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I4" s="6">
+        <v>1860</v>
+      </c>
+      <c r="I4" s="11">
         <v>500</v>
       </c>
-      <c r="J4" s="110">
+      <c r="J4" s="141">
         <v>18</v>
       </c>
       <c r="K4" s="97" t="s">
@@ -61753,7 +61768,7 @@
       <c r="L4" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="15">
         <v>6</v>
       </c>
       <c r="N4" s="1">
@@ -61776,7 +61791,7 @@
       </c>
       <c r="U4" s="6" t="str">
         <f t="shared" ref="U4:U16" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" Prefab="""&amp;F4&amp;""" Region="""&amp;G4&amp;""" Purchase="""&amp;H4&amp;""" Price="""&amp;I4&amp;""" Exp="""&amp;J4&amp;""" StartTime="""&amp;K4&amp;""" EndTime="""&amp;L4&amp;""" Level="""&amp;M4&amp;""" PURPIE="""&amp;N4&amp;""" DONNY="""&amp;O4&amp;""" NINJI="""&amp;P4&amp;""" SANSA="""&amp;Q4&amp;""" YOYO="""&amp;R4&amp;""" NUO="""&amp;S4&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20002" Type="2" Index="6" Name="devil wing" Icon="part_wing_bat" Prefab="wing_point" Region="Dummy_wing" Purchase="Coin" Price="500" Exp="18" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20002" Type="2" Index="5" Name="devil wing" Icon="part_wing_bat" Prefab="wing_point" Region="Dummy_wing" Purchase="Coin" Price="500" Exp="18" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75">
@@ -61786,28 +61801,28 @@
       <c r="B5" s="6">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
-        <v>3</v>
+      <c r="C5" s="11">
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>1854</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I5" s="6">
+        <v>1860</v>
+      </c>
+      <c r="I5" s="11">
         <v>2000</v>
       </c>
-      <c r="J5" s="110">
+      <c r="J5" s="141">
         <v>8</v>
       </c>
       <c r="K5" s="97" t="s">
@@ -61816,14 +61831,14 @@
       <c r="L5" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="15">
         <v>1</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
@@ -61839,7 +61854,7 @@
       </c>
       <c r="U5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20003" Type="5" Index="3" Name="ghost" Icon="elf_up_ghost" Prefab="ghost" Region="TopLeft" Purchase="Coin" Price="2000" Exp="8" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="0" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20003" Type="5" Index="6" Name="ghost" Icon="elf_up_ghost" Prefab="ghost" Region="TopLeft" Purchase="Coin" Price="2000" Exp="8" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75">
@@ -61849,28 +61864,28 @@
       <c r="B6" s="6">
         <v>6</v>
       </c>
-      <c r="C6" s="6">
-        <v>2</v>
+      <c r="C6" s="11">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>1855</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I6" s="6">
+        <v>1860</v>
+      </c>
+      <c r="I6" s="11">
         <v>800</v>
       </c>
-      <c r="J6" s="110">
+      <c r="J6" s="141">
         <v>3</v>
       </c>
       <c r="K6" s="97" t="s">
@@ -61879,7 +61894,7 @@
       <c r="L6" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="15">
         <v>1</v>
       </c>
       <c r="N6" s="1">
@@ -61889,7 +61904,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>
@@ -61902,7 +61917,7 @@
       </c>
       <c r="U6" s="6" t="str">
         <f>IF(AND(A6&lt;&gt;"",B6&lt;&gt;""),"&lt;Accessory ID="""&amp;A6&amp;""" Type="""&amp;B6&amp;""" Index="""&amp;C6&amp;""" Name="""&amp;D6&amp;""" Icon="""&amp;E6&amp;""" Prefab="""&amp;F6&amp;""" Region="""&amp;G16&amp;""" Purchase="""&amp;H6&amp;""" Price="""&amp;I6&amp;""" Exp="""&amp;J6&amp;""" StartTime="""&amp;K6&amp;""" EndTime="""&amp;L6&amp;""" Level="""&amp;M6&amp;""" PURPIE="""&amp;N6&amp;""" DONNY="""&amp;O6&amp;""" NINJI="""&amp;P6&amp;""" SANSA="""&amp;Q6&amp;""" YOYO="""&amp;R6&amp;""" NUO="""&amp;S6&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20004" Type="6" Index="2" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="TopLeft" Purchase="Coin" Price="800" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="0" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20004" Type="6" Index="1" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="TopLeft" Purchase="Coin" Price="800" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75">
@@ -61912,28 +61927,28 @@
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
-        <v>4</v>
+      <c r="C7" s="11">
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>1856</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1860</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1.99</v>
-      </c>
-      <c r="J7" s="110">
+        <v>2025</v>
+      </c>
+      <c r="I7" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J7" s="141">
         <v>19</v>
       </c>
       <c r="K7" s="97" t="s">
@@ -61942,7 +61957,7 @@
       <c r="L7" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="15">
         <v>1</v>
       </c>
       <c r="N7" s="1">
@@ -61965,7 +61980,7 @@
       </c>
       <c r="U7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20005" Type="5" Index="4" Name="snow cloud" Icon="elf_up_cloud" Prefab="cloud_snow" Region="TopLeft" Purchase="Cash" Price="1.99" Exp="19" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20005" Type="5" Index="7" Name="snow cloud" Icon="elf_up_cloud" Prefab="cloud_snow" Region="TopLeft" Purchase="Coin" Price="2500" Exp="19" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75">
@@ -61975,28 +61990,28 @@
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
-        <v>5</v>
+      <c r="C8" s="11">
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>1857</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1862</v>
-      </c>
-      <c r="I8" s="6">
+        <v>1861</v>
+      </c>
+      <c r="I8" s="11">
         <v>1200</v>
       </c>
-      <c r="J8" s="110">
+      <c r="J8" s="141">
         <v>10</v>
       </c>
       <c r="K8" s="97" t="s">
@@ -62005,7 +62020,7 @@
       <c r="L8" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="15">
         <v>1</v>
       </c>
       <c r="N8" s="1">
@@ -62018,7 +62033,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
@@ -62028,7 +62043,7 @@
       </c>
       <c r="U8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20006" Type="2" Index="5" Name="snow wing" Icon="part_wing_snow" Prefab="wing_snow" Region="Dummy_wing" Purchase="Coin" Price="1200" Exp="10" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="0" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20006" Type="2" Index="6" Name="snow wing" Icon="part_wing_snow" Prefab="wing_snow" Region="Dummy_wing" Purchase="Coin" Price="1200" Exp="10" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75">
@@ -62038,28 +62053,28 @@
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
-        <v>7</v>
+      <c r="C9" s="11">
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>1858</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1862</v>
-      </c>
-      <c r="I9" s="6">
+        <v>1861</v>
+      </c>
+      <c r="I9" s="11">
         <v>1800</v>
       </c>
-      <c r="J9" s="110">
+      <c r="J9" s="141">
         <v>20</v>
       </c>
       <c r="K9" s="97" t="s">
@@ -62068,7 +62083,7 @@
       <c r="L9" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="15">
         <v>1</v>
       </c>
       <c r="N9" s="1">
@@ -62084,14 +62099,14 @@
         <v>1</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
         <v>1</v>
       </c>
       <c r="U9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20007" Type="1" Index="7" Name="cornu cervi" Icon="part_head_antler" Prefab="cornu cervi_point" Region="Dummy_head" Purchase="Coin" Price="1800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="0" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20007" Type="1" Index="3" Name="cornu cervi" Icon="part_head_antler" Prefab="cornu cervi_point" Region="Dummy_head" Purchase="Coin" Price="1800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75">
@@ -62101,28 +62116,28 @@
       <c r="B10" s="6">
         <v>6</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="11">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>1859</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>1862</v>
-      </c>
-      <c r="I10" s="6">
+        <v>1861</v>
+      </c>
+      <c r="I10" s="11">
         <v>1000</v>
       </c>
-      <c r="J10" s="110">
+      <c r="J10" s="141">
         <v>5</v>
       </c>
       <c r="K10" s="97" t="s">
@@ -62131,11 +62146,11 @@
       <c r="L10" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="15">
         <v>10</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -62150,11 +62165,11 @@
         <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20008" Type="6" Index="8" Name="snowman" Icon="elf_down_snowman" Prefab="snowman" Region="BottomRight" Purchase="Coin" Price="1000" Exp="5" StartTime="null" EndTime="null" Level="10" PURPIE="0" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="0" /&gt;</v>
+        <v>&lt;Accessory ID="20008" Type="6" Index="8" Name="snowman" Icon="elf_down_snowman" Prefab="snowman" Region="BottomRight" Purchase="Coin" Price="1000" Exp="5" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75">
@@ -62164,28 +62179,28 @@
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="6">
-        <v>9</v>
+      <c r="C11" s="11">
+        <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I11" s="6">
-        <v>200</v>
-      </c>
-      <c r="J11" s="109">
+        <v>1860</v>
+      </c>
+      <c r="I11" s="11">
+        <v>300</v>
+      </c>
+      <c r="J11" s="142">
         <v>20</v>
       </c>
       <c r="K11" s="97" t="s">
@@ -62194,7 +62209,7 @@
       <c r="L11" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="15">
         <v>1</v>
       </c>
       <c r="N11" s="1">
@@ -62217,7 +62232,7 @@
       </c>
       <c r="U11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20009" Type="1" Index="9" Name="antler ponit" Icon="part_head_antler02" Prefab="antler_ponit" Region="Dummy_head" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20009" Type="1" Index="1" Name="antler ponit" Icon="part_head_antler02" Prefab="antler_ponit" Region="Dummy_head" Purchase="Coin" Price="300" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75">
@@ -62227,28 +62242,28 @@
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="6">
-        <v>10</v>
+      <c r="C12" s="11">
+        <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I12" s="6">
-        <v>200</v>
-      </c>
-      <c r="J12" s="109">
+        <v>1860</v>
+      </c>
+      <c r="I12" s="11">
+        <v>800</v>
+      </c>
+      <c r="J12" s="142">
         <v>20</v>
       </c>
       <c r="K12" s="97" t="s">
@@ -62257,7 +62272,7 @@
       <c r="L12" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="15">
         <v>1</v>
       </c>
       <c r="N12" s="1">
@@ -62280,7 +62295,7 @@
       </c>
       <c r="U12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20010" Type="1" Index="10" Name="christmas hat" Icon="part_head_merryhat" Prefab="christmas hat_point" Region="Dummy_head" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20010" Type="1" Index="2" Name="christmas hat" Icon="part_head_merryhat" Prefab="christmas hat_point" Region="Dummy_head" Purchase="Coin" Price="800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75">
@@ -62290,28 +62305,28 @@
       <c r="B13" s="6">
         <v>4</v>
       </c>
-      <c r="C13" s="6">
-        <v>11</v>
+      <c r="C13" s="11">
+        <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I13" s="6">
-        <v>200</v>
-      </c>
-      <c r="J13" s="109">
+        <v>1860</v>
+      </c>
+      <c r="I13" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J13" s="142">
         <v>20</v>
       </c>
       <c r="K13" s="97" t="s">
@@ -62320,8 +62335,8 @@
       <c r="L13" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M13" s="1">
-        <v>1</v>
+      <c r="M13" s="15">
+        <v>10</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
@@ -62343,7 +62358,7 @@
       </c>
       <c r="U13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20011" Type="4" Index="11" Name="christmas point" Icon="suit_pur_merry" Prefab="christmas_point" Region="Dummy_taozhuang" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="0" NINJI="0" SANSA="0" YOYO="0" NUO="0" /&gt;</v>
+        <v>&lt;Accessory ID="20011" Type="4" Index="1" Name="christmas point" Icon="suit_pur_merry" Prefab="christmas_point" Region="Dummy_taozhuang" Purchase="Coin" Price="2500" Exp="20" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="0" NINJI="0" SANSA="0" YOYO="0" NUO="0" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75">
@@ -62353,28 +62368,28 @@
       <c r="B14" s="6">
         <v>6</v>
       </c>
-      <c r="C14" s="6">
-        <v>12</v>
+      <c r="C14" s="11">
+        <v>4</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I14" s="6">
-        <v>200</v>
-      </c>
-      <c r="J14" s="109">
+        <v>1860</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1500</v>
+      </c>
+      <c r="J14" s="142">
         <v>20</v>
       </c>
       <c r="K14" s="97" t="s">
@@ -62383,7 +62398,7 @@
       <c r="L14" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="15">
         <v>1</v>
       </c>
       <c r="N14" s="1">
@@ -62406,7 +62421,7 @@
       </c>
       <c r="U14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20012" Type="6" Index="12" Name="elk" Icon="elf_down_deer" Prefab="elk" Region="BottomRight" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20012" Type="6" Index="4" Name="elk" Icon="elf_down_deer" Prefab="elk" Region="BottomRight" Purchase="Coin" Price="1500" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75">
@@ -62416,28 +62431,28 @@
       <c r="B15" s="6">
         <v>6</v>
       </c>
-      <c r="C15" s="6">
-        <v>13</v>
+      <c r="C15" s="11">
+        <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I15" s="6">
-        <v>200</v>
-      </c>
-      <c r="J15" s="109">
+        <v>2024</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.99</v>
+      </c>
+      <c r="J15" s="142">
         <v>20</v>
       </c>
       <c r="K15" s="97" t="s">
@@ -62446,7 +62461,7 @@
       <c r="L15" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="15">
         <v>1</v>
       </c>
       <c r="N15" s="1">
@@ -62469,7 +62484,7 @@
       </c>
       <c r="U15" s="6" t="str">
         <f t="shared" ref="U15" si="1">IF(AND(A15&lt;&gt;"",B15&lt;&gt;""),"&lt;Accessory ID="""&amp;A15&amp;""" Type="""&amp;B15&amp;""" Index="""&amp;C15&amp;""" Name="""&amp;D15&amp;""" Icon="""&amp;E15&amp;""" Prefab="""&amp;F15&amp;""" Region="""&amp;G15&amp;""" Purchase="""&amp;H15&amp;""" Price="""&amp;I15&amp;""" Exp="""&amp;J15&amp;""" StartTime="""&amp;K15&amp;""" EndTime="""&amp;L15&amp;""" Level="""&amp;M15&amp;""" PURPIE="""&amp;N15&amp;""" DONNY="""&amp;O15&amp;""" NINJI="""&amp;P15&amp;""" SANSA="""&amp;Q15&amp;""" YOYO="""&amp;R15&amp;""" NUO="""&amp;S15&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20013" Type="6" Index="13" Name="elk02" Icon="elf_down_deer02" Prefab="elk_A" Region="BottomRight" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20013" Type="6" Index="5" Name="elk02" Icon="elf_down_deer02" Prefab="elk_A" Region="BottomRight" Purchase="Cash" Price="1.99" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75">
@@ -62479,28 +62494,28 @@
       <c r="B16" s="6">
         <v>5</v>
       </c>
-      <c r="C16" s="6">
-        <v>14</v>
+      <c r="C16" s="11">
+        <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I16" s="6">
-        <v>200</v>
-      </c>
-      <c r="J16" s="109">
+        <v>1860</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="142">
         <v>20</v>
       </c>
       <c r="K16" s="97" t="s">
@@ -62509,7 +62524,7 @@
       <c r="L16" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="15">
         <v>1</v>
       </c>
       <c r="N16" s="1">
@@ -62532,7 +62547,7 @@
       </c>
       <c r="U16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20014" Type="5" Index="14" Name="giftbox" Icon="elf_up_gift" Prefab="giftbox" Region="TopLeft" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20014" Type="5" Index="2" Name="giftbox" Icon="elf_up_gift" Prefab="giftbox" Region="TopLeft" Purchase="Coin" Price="1000" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75">
@@ -62542,28 +62557,28 @@
       <c r="B17" s="6">
         <v>5</v>
       </c>
-      <c r="C17" s="6">
-        <v>15</v>
+      <c r="C17" s="11">
+        <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>2004</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>2006</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>2005</v>
-      </c>
       <c r="G17" s="6" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I17" s="6">
-        <v>200</v>
-      </c>
-      <c r="J17" s="109">
+        <v>1860</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1800</v>
+      </c>
+      <c r="J17" s="142">
         <v>20</v>
       </c>
       <c r="K17" s="97" t="s">
@@ -62572,7 +62587,7 @@
       <c r="L17" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="15">
         <v>1</v>
       </c>
       <c r="N17" s="1">
@@ -62595,14 +62610,14 @@
       </c>
       <c r="U17" s="6" t="str">
         <f t="shared" ref="U17" si="2">IF(AND(A17&lt;&gt;"",B17&lt;&gt;""),"&lt;Accessory ID="""&amp;A17&amp;""" Type="""&amp;B17&amp;""" Index="""&amp;C17&amp;""" Name="""&amp;D17&amp;""" Icon="""&amp;E17&amp;""" Prefab="""&amp;F17&amp;""" Region="""&amp;G17&amp;""" Purchase="""&amp;H17&amp;""" Price="""&amp;I17&amp;""" Exp="""&amp;J17&amp;""" StartTime="""&amp;K17&amp;""" EndTime="""&amp;L17&amp;""" Level="""&amp;M17&amp;""" PURPIE="""&amp;N17&amp;""" DONNY="""&amp;O17&amp;""" NINJI="""&amp;P17&amp;""" SANSA="""&amp;Q17&amp;""" YOYO="""&amp;R17&amp;""" NUO="""&amp;S17&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20015" Type="5" Index="15" Name="giftbox02" Icon="elf_up_gift02" Prefab="giftbox_A" Region="TopLeft" Purchase="Coin" Price="200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20015" Type="5" Index="3" Name="giftbox02" Icon="elf_up_gift02" Prefab="giftbox_A" Region="TopLeft" Purchase="Coin" Price="1800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S17" xr:uid="{54FAA6EF-9D74-4FB2-8EBC-B5B03A234EAD}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{8175DBE4-02FD-49F6-AC93-070EC4D3D751}">
+  <autoFilter ref="A1:S17" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Dummy_head,Dummy_wing,Host"</formula1>
     </dataValidation>
   </dataValidations>
@@ -66022,7 +66037,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -67552,7 +67567,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -69084,7 +69099,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -69482,7 +69497,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -69879,7 +69894,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -70278,7 +70293,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7606BE1-22BE-48C8-BFC4-8EB15C0BF124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D32561-BE06-4BDC-A6F0-FBFB18E14B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -7822,6 +7822,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7863,12 +7869,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9210,23 +9210,23 @@
       <c r="O9" s="78"/>
     </row>
     <row r="10" spans="1:15" ht="15.75">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="129" t="s">
         <v>1880</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="88" t="str">
@@ -17005,23 +17005,23 @@
       <c r="O156" s="62"/>
     </row>
     <row r="157" spans="1:15" ht="15.75">
-      <c r="A157" s="127" t="s">
+      <c r="A157" s="129" t="s">
         <v>1880</v>
       </c>
-      <c r="B157" s="127"/>
-      <c r="C157" s="127"/>
-      <c r="D157" s="127"/>
-      <c r="E157" s="127"/>
-      <c r="F157" s="127"/>
-      <c r="G157" s="127"/>
-      <c r="H157" s="127"/>
-      <c r="I157" s="127"/>
-      <c r="J157" s="127"/>
-      <c r="K157" s="127"/>
-      <c r="L157" s="127"/>
-      <c r="M157" s="127"/>
-      <c r="N157" s="127"/>
-      <c r="O157" s="127"/>
+      <c r="B157" s="129"/>
+      <c r="C157" s="129"/>
+      <c r="D157" s="129"/>
+      <c r="E157" s="129"/>
+      <c r="F157" s="129"/>
+      <c r="G157" s="129"/>
+      <c r="H157" s="129"/>
+      <c r="I157" s="129"/>
+      <c r="J157" s="129"/>
+      <c r="K157" s="129"/>
+      <c r="L157" s="129"/>
+      <c r="M157" s="129"/>
+      <c r="N157" s="129"/>
+      <c r="O157" s="129"/>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="92">
@@ -17813,50 +17813,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="133" t="s">
         <v>1095</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="134" t="s">
         <v>1096</v>
       </c>
-      <c r="F1" s="132"/>
+      <c r="F1" s="134"/>
       <c r="G1" s="32" t="s">
         <v>1097</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="135" t="s">
         <v>1098</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="135" t="s">
+      <c r="I1" s="136"/>
+      <c r="J1" s="137" t="s">
         <v>1099</v>
       </c>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="136" t="s">
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="138" t="s">
         <v>1100</v>
       </c>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="137" t="s">
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="139" t="s">
         <v>1101</v>
       </c>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="128" t="s">
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="130" t="s">
         <v>1102</v>
       </c>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="129" t="s">
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="131" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -17940,7 +17940,7 @@
       <c r="AA2" s="38" t="s">
         <v>1115</v>
       </c>
-      <c r="AB2" s="130"/>
+      <c r="AB2" s="132"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="39" t="s">
@@ -57786,15 +57786,15 @@
       </c>
     </row>
     <row r="768" spans="1:7">
-      <c r="A768" s="138" t="s">
+      <c r="A768" s="140" t="s">
         <v>1894</v>
       </c>
-      <c r="B768" s="139"/>
-      <c r="C768" s="139"/>
-      <c r="D768" s="139"/>
-      <c r="E768" s="139"/>
-      <c r="F768" s="139"/>
-      <c r="G768" s="140"/>
+      <c r="B768" s="141"/>
+      <c r="C768" s="141"/>
+      <c r="D768" s="141"/>
+      <c r="E768" s="141"/>
+      <c r="F768" s="141"/>
+      <c r="G768" s="142"/>
     </row>
     <row r="769" spans="1:6">
       <c r="A769" s="69">
@@ -59180,7 +59180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -61525,11 +61525,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -61696,7 +61696,7 @@
       <c r="I3" s="11">
         <v>200</v>
       </c>
-      <c r="J3" s="141">
+      <c r="J3" s="127">
         <v>2</v>
       </c>
       <c r="K3" s="97" t="s">
@@ -61759,7 +61759,7 @@
       <c r="I4" s="11">
         <v>500</v>
       </c>
-      <c r="J4" s="141">
+      <c r="J4" s="127">
         <v>18</v>
       </c>
       <c r="K4" s="97" t="s">
@@ -61790,7 +61790,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="6" t="str">
-        <f t="shared" ref="U4:U16" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" Prefab="""&amp;F4&amp;""" Region="""&amp;G4&amp;""" Purchase="""&amp;H4&amp;""" Price="""&amp;I4&amp;""" Exp="""&amp;J4&amp;""" StartTime="""&amp;K4&amp;""" EndTime="""&amp;L4&amp;""" Level="""&amp;M4&amp;""" PURPIE="""&amp;N4&amp;""" DONNY="""&amp;O4&amp;""" NINJI="""&amp;P4&amp;""" SANSA="""&amp;Q4&amp;""" YOYO="""&amp;R4&amp;""" NUO="""&amp;S4&amp;""" /&gt;","")</f>
+        <f t="shared" ref="U4:U17" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" Prefab="""&amp;F4&amp;""" Region="""&amp;G4&amp;""" Purchase="""&amp;H4&amp;""" Price="""&amp;I4&amp;""" Exp="""&amp;J4&amp;""" StartTime="""&amp;K4&amp;""" EndTime="""&amp;L4&amp;""" Level="""&amp;M4&amp;""" PURPIE="""&amp;N4&amp;""" DONNY="""&amp;O4&amp;""" NINJI="""&amp;P4&amp;""" SANSA="""&amp;Q4&amp;""" YOYO="""&amp;R4&amp;""" NUO="""&amp;S4&amp;""" /&gt;","")</f>
         <v>&lt;Accessory ID="20002" Type="2" Index="5" Name="devil wing" Icon="part_wing_bat" Prefab="wing_point" Region="Dummy_wing" Purchase="Coin" Price="500" Exp="18" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
@@ -61822,7 +61822,7 @@
       <c r="I5" s="11">
         <v>2000</v>
       </c>
-      <c r="J5" s="141">
+      <c r="J5" s="127">
         <v>8</v>
       </c>
       <c r="K5" s="97" t="s">
@@ -61885,7 +61885,7 @@
       <c r="I6" s="11">
         <v>800</v>
       </c>
-      <c r="J6" s="141">
+      <c r="J6" s="127">
         <v>3</v>
       </c>
       <c r="K6" s="97" t="s">
@@ -61916,8 +61916,8 @@
         <v>1</v>
       </c>
       <c r="U6" s="6" t="str">
-        <f>IF(AND(A6&lt;&gt;"",B6&lt;&gt;""),"&lt;Accessory ID="""&amp;A6&amp;""" Type="""&amp;B6&amp;""" Index="""&amp;C6&amp;""" Name="""&amp;D6&amp;""" Icon="""&amp;E6&amp;""" Prefab="""&amp;F6&amp;""" Region="""&amp;G16&amp;""" Purchase="""&amp;H6&amp;""" Price="""&amp;I6&amp;""" Exp="""&amp;J6&amp;""" StartTime="""&amp;K6&amp;""" EndTime="""&amp;L6&amp;""" Level="""&amp;M6&amp;""" PURPIE="""&amp;N6&amp;""" DONNY="""&amp;O6&amp;""" NINJI="""&amp;P6&amp;""" SANSA="""&amp;Q6&amp;""" YOYO="""&amp;R6&amp;""" NUO="""&amp;S6&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20004" Type="6" Index="1" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="TopLeft" Purchase="Coin" Price="800" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;Accessory ID="20004" Type="6" Index="1" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="BottomRight" Purchase="Coin" Price="800" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75">
@@ -61948,7 +61948,7 @@
       <c r="I7" s="11">
         <v>2500</v>
       </c>
-      <c r="J7" s="141">
+      <c r="J7" s="127">
         <v>19</v>
       </c>
       <c r="K7" s="97" t="s">
@@ -62011,7 +62011,7 @@
       <c r="I8" s="11">
         <v>1200</v>
       </c>
-      <c r="J8" s="141">
+      <c r="J8" s="127">
         <v>10</v>
       </c>
       <c r="K8" s="97" t="s">
@@ -62074,7 +62074,7 @@
       <c r="I9" s="11">
         <v>1800</v>
       </c>
-      <c r="J9" s="141">
+      <c r="J9" s="127">
         <v>20</v>
       </c>
       <c r="K9" s="97" t="s">
@@ -62137,7 +62137,7 @@
       <c r="I10" s="11">
         <v>1000</v>
       </c>
-      <c r="J10" s="141">
+      <c r="J10" s="127">
         <v>5</v>
       </c>
       <c r="K10" s="97" t="s">
@@ -62200,7 +62200,7 @@
       <c r="I11" s="11">
         <v>300</v>
       </c>
-      <c r="J11" s="142">
+      <c r="J11" s="128">
         <v>20</v>
       </c>
       <c r="K11" s="97" t="s">
@@ -62263,7 +62263,7 @@
       <c r="I12" s="11">
         <v>800</v>
       </c>
-      <c r="J12" s="142">
+      <c r="J12" s="128">
         <v>20</v>
       </c>
       <c r="K12" s="97" t="s">
@@ -62326,7 +62326,7 @@
       <c r="I13" s="11">
         <v>2500</v>
       </c>
-      <c r="J13" s="142">
+      <c r="J13" s="128">
         <v>20</v>
       </c>
       <c r="K13" s="97" t="s">
@@ -62389,7 +62389,7 @@
       <c r="I14" s="11">
         <v>1500</v>
       </c>
-      <c r="J14" s="142">
+      <c r="J14" s="128">
         <v>20</v>
       </c>
       <c r="K14" s="97" t="s">
@@ -62452,7 +62452,7 @@
       <c r="I15" s="11">
         <v>1.99</v>
       </c>
-      <c r="J15" s="142">
+      <c r="J15" s="128">
         <v>20</v>
       </c>
       <c r="K15" s="97" t="s">
@@ -62483,7 +62483,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="6" t="str">
-        <f t="shared" ref="U15" si="1">IF(AND(A15&lt;&gt;"",B15&lt;&gt;""),"&lt;Accessory ID="""&amp;A15&amp;""" Type="""&amp;B15&amp;""" Index="""&amp;C15&amp;""" Name="""&amp;D15&amp;""" Icon="""&amp;E15&amp;""" Prefab="""&amp;F15&amp;""" Region="""&amp;G15&amp;""" Purchase="""&amp;H15&amp;""" Price="""&amp;I15&amp;""" Exp="""&amp;J15&amp;""" StartTime="""&amp;K15&amp;""" EndTime="""&amp;L15&amp;""" Level="""&amp;M15&amp;""" PURPIE="""&amp;N15&amp;""" DONNY="""&amp;O15&amp;""" NINJI="""&amp;P15&amp;""" SANSA="""&amp;Q15&amp;""" YOYO="""&amp;R15&amp;""" NUO="""&amp;S15&amp;""" /&gt;","")</f>
+        <f t="shared" si="0"/>
         <v>&lt;Accessory ID="20013" Type="6" Index="5" Name="elk02" Icon="elf_down_deer02" Prefab="elk_A" Region="BottomRight" Purchase="Cash" Price="1.99" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
@@ -62515,7 +62515,7 @@
       <c r="I16" s="11">
         <v>1000</v>
       </c>
-      <c r="J16" s="142">
+      <c r="J16" s="128">
         <v>20</v>
       </c>
       <c r="K16" s="97" t="s">
@@ -62578,7 +62578,7 @@
       <c r="I17" s="11">
         <v>1800</v>
       </c>
-      <c r="J17" s="142">
+      <c r="J17" s="128">
         <v>20</v>
       </c>
       <c r="K17" s="97" t="s">
@@ -62609,14 +62609,14 @@
         <v>1</v>
       </c>
       <c r="U17" s="6" t="str">
-        <f t="shared" ref="U17" si="2">IF(AND(A17&lt;&gt;"",B17&lt;&gt;""),"&lt;Accessory ID="""&amp;A17&amp;""" Type="""&amp;B17&amp;""" Index="""&amp;C17&amp;""" Name="""&amp;D17&amp;""" Icon="""&amp;E17&amp;""" Prefab="""&amp;F17&amp;""" Region="""&amp;G17&amp;""" Purchase="""&amp;H17&amp;""" Price="""&amp;I17&amp;""" Exp="""&amp;J17&amp;""" StartTime="""&amp;K17&amp;""" EndTime="""&amp;L17&amp;""" Level="""&amp;M17&amp;""" PURPIE="""&amp;N17&amp;""" DONNY="""&amp;O17&amp;""" NINJI="""&amp;P17&amp;""" SANSA="""&amp;Q17&amp;""" YOYO="""&amp;R17&amp;""" NUO="""&amp;S17&amp;""" /&gt;","")</f>
+        <f t="shared" si="0"/>
         <v>&lt;Accessory ID="20015" Type="5" Index="3" Name="giftbox02" Icon="elf_up_gift02" Prefab="giftbox_A" Region="TopLeft" Purchase="Coin" Price="1800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S17" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Dummy_head,Dummy_wing,Host"</formula1>
     </dataValidation>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D32561-BE06-4BDC-A6F0-FBFB18E14B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420F20BE-C6FE-7542-80B4-C9940F383258}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4660" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -35,12 +35,6 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -473,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="2026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3586" uniqueCount="2035">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6897,6 +6891,42 @@
   </si>
   <si>
     <t>Coin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed_bgm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂食场景背景音乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed_bgm_denmark</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_spend</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_scene_wheel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换场景</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed_hp_increase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加能量值</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7875,7 +7905,91 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="112">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8586,44 +8700,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_32" displayName="表1_32" ref="B1:S87" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_32" displayName="表1_32" ref="B1:S87" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
   <autoFilter ref="B1:S87" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Background" dataDxfId="95"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Model" dataDxfId="94"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NimIcon" dataDxfId="93"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="QuestId" dataDxfId="92"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="dailyGoalPercent" dataDxfId="91"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="AwardCoin" dataDxfId="90"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="BGM" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sound" dataDxfId="88"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="WaterDrop" dataDxfId="87"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="WaterDropAudio" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Box1 ID" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Box1 Height" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Box2 ID" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Box2 Height" dataDxfId="82"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="输出" dataDxfId="81">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Background" dataDxfId="107"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Model" dataDxfId="106"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NimIcon" dataDxfId="105"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="QuestId" dataDxfId="104"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="dailyGoalPercent" dataDxfId="103"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="AwardCoin" dataDxfId="102"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="BGM" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sound" dataDxfId="100"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="WaterDrop" dataDxfId="99"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="WaterDropAudio" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Box1 ID" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Box1 Height" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Box2 ID" dataDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Box2 Height" dataDxfId="94"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="输出" dataDxfId="93">
       <calculatedColumnFormula>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;""" WaterDropAudio="""&amp;M2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N2&amp;""" Height="""&amp;O2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P2&amp;""" Height="""&amp;Q2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="输入" dataDxfId="80"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="输入" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_34" displayName="表1_34" ref="B1:G1048485" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_34" displayName="表1_34" ref="B1:G1048485" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="B1:G1048485" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="75"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ItemId" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Value" dataDxfId="73"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="输出" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Name" dataDxfId="87"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ItemId" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Value" dataDxfId="85"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="输出" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8899,22 +9013,22 @@
       <selection pane="bottomLeft" activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1">
+    <row r="1" spans="1:15" ht="16" thickBot="1">
       <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
@@ -8961,7 +9075,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickTop="1">
+    <row r="2" spans="1:15" ht="16" thickTop="1">
       <c r="A2" s="87">
         <f>Accessory!A3</f>
         <v>20001</v>
@@ -9209,7 +9323,7 @@
       </c>
       <c r="O9" s="78"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75">
+    <row r="10" spans="1:15">
       <c r="A10" s="129" t="s">
         <v>1880</v>
       </c>
@@ -17004,7 +17118,7 @@
       </c>
       <c r="O156" s="62"/>
     </row>
-    <row r="157" spans="1:15" ht="15.75">
+    <row r="157" spans="1:15">
       <c r="A157" s="129" t="s">
         <v>1880</v>
       </c>
@@ -17587,9 +17701,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17791,25 +17905,25 @@
       <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.625" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.625" customWidth="1"/>
-    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
     <col min="8" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="7" style="124" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="7" style="124" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="7" style="124" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.625" customWidth="1"/>
+    <col min="26" max="27" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -27272,23 +27386,23 @@
       <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="101" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="101" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32518,16 +32632,16 @@
       <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="94.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="6"/>
+    <col min="7" max="7" width="94.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -36302,25 +36416,25 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G837"/>
+  <dimension ref="A1:G849"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A816" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F828" sqref="F828:F837"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A808" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E851" sqref="E851"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="70" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="70" customWidth="1"/>
     <col min="5" max="5" width="29" style="70" customWidth="1"/>
-    <col min="6" max="6" width="54.875" style="70" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="70"/>
+    <col min="6" max="6" width="125.33203125" style="70" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" s="67" t="s">
         <v>1715</v>
       </c>
@@ -58678,58 +58792,258 @@
         <v>&lt;/Sound&gt;</v>
       </c>
     </row>
+    <row r="838" spans="1:6">
+      <c r="A838" s="69">
+        <v>1</v>
+      </c>
+      <c r="B838" s="70" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C838" s="70" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D838" s="70" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F838" s="70" t="str">
+        <f>IF(A838=1,"&lt;Sound Type="""&amp;B838&amp;""" Storage="""&amp;C838&amp;""" Dec="""&amp;D838&amp;"""&gt;",IF(A838=2,"  &lt;Clip SoundPath="""&amp;E838&amp;""" /&gt;",IF(A838=3,G838,"")))</f>
+        <v>&lt;Sound Type="feed_bgm" Storage="Remote" Dec="喂食场景背景音乐"&gt;</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6">
+      <c r="A839" s="69">
+        <v>2</v>
+      </c>
+      <c r="E839" s="70" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F839" s="70" t="str">
+        <f t="shared" ref="F839" si="104">IF(A839=1,"&lt;Sound Type="""&amp;B839&amp;""" Storage="""&amp;C839&amp;""" Dec="""&amp;D839&amp;"""&gt;",IF(A839=2,"  &lt;Clip SoundPath="""&amp;E839&amp;""" /&gt;",IF(A839=3,G839,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_bgm_denmark" /&gt;</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6">
+      <c r="A840" s="69">
+        <v>3</v>
+      </c>
+      <c r="F840" s="70" t="str">
+        <f>IF(A840=1,"&lt;Sound Type="""&amp;B840&amp;""" Storage="""&amp;C840&amp;""" Dec="""&amp;D840&amp;"""&gt;",IF(A840=2,"  &lt;Clip SoundPath="""&amp;E840&amp;""" /&gt;",IF(A840=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6">
+      <c r="A841" s="69">
+        <v>1</v>
+      </c>
+      <c r="B841" s="70" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C841" s="70" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D841" s="70" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F841" s="70" t="str">
+        <f>IF(A841=1,"&lt;Sound Type="""&amp;B841&amp;""" Storage="""&amp;C841&amp;""" Dec="""&amp;D841&amp;"""&gt;",IF(A841=2,"  &lt;Clip SoundPath="""&amp;E841&amp;""" /&gt;",IF(A841=3,G841,"")))</f>
+        <v>&lt;Sound Type="coin_spend" Storage="Remote" Dec="消耗金币"&gt;</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6">
+      <c r="A842" s="69">
+        <v>2</v>
+      </c>
+      <c r="E842" s="70" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F842" s="70" t="str">
+        <f t="shared" ref="F842" si="105">IF(A842=1,"&lt;Sound Type="""&amp;B842&amp;""" Storage="""&amp;C842&amp;""" Dec="""&amp;D842&amp;"""&gt;",IF(A842=2,"  &lt;Clip SoundPath="""&amp;E842&amp;""" /&gt;",IF(A842=3,G842,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="coin_spend" /&gt;</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6">
+      <c r="A843" s="69">
+        <v>3</v>
+      </c>
+      <c r="F843" s="70" t="str">
+        <f>IF(A843=1,"&lt;Sound Type="""&amp;B843&amp;""" Storage="""&amp;C843&amp;""" Dec="""&amp;D843&amp;"""&gt;",IF(A843=2,"  &lt;Clip SoundPath="""&amp;E843&amp;""" /&gt;",IF(A843=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6">
+      <c r="A844" s="69">
+        <v>1</v>
+      </c>
+      <c r="B844" s="70" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C844" s="70" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D844" s="70" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F844" s="70" t="str">
+        <f>IF(A844=1,"&lt;Sound Type="""&amp;B844&amp;""" Storage="""&amp;C844&amp;""" Dec="""&amp;D844&amp;"""&gt;",IF(A844=2,"  &lt;Clip SoundPath="""&amp;E844&amp;""" /&gt;",IF(A844=3,G844,"")))</f>
+        <v>&lt;Sound Type="main_scene_wheel" Storage="Remote" Dec="切换场景"&gt;</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6">
+      <c r="A845" s="69">
+        <v>2</v>
+      </c>
+      <c r="E845" s="70" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F845" s="70" t="str">
+        <f t="shared" ref="F845" si="106">IF(A845=1,"&lt;Sound Type="""&amp;B845&amp;""" Storage="""&amp;C845&amp;""" Dec="""&amp;D845&amp;"""&gt;",IF(A845=2,"  &lt;Clip SoundPath="""&amp;E845&amp;""" /&gt;",IF(A845=3,G845,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="main_scene_wheel" /&gt;</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" ht="16" customHeight="1">
+      <c r="A846" s="69">
+        <v>3</v>
+      </c>
+      <c r="F846" s="70" t="str">
+        <f>IF(A846=1,"&lt;Sound Type="""&amp;B846&amp;""" Storage="""&amp;C846&amp;""" Dec="""&amp;D846&amp;"""&gt;",IF(A846=2,"  &lt;Clip SoundPath="""&amp;E846&amp;""" /&gt;",IF(A846=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6">
+      <c r="A847" s="69">
+        <v>1</v>
+      </c>
+      <c r="B847" s="70" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C847" s="70" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D847" s="70" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F847" s="70" t="str">
+        <f>IF(A847=1,"&lt;Sound Type="""&amp;B847&amp;""" Storage="""&amp;C847&amp;""" Dec="""&amp;D847&amp;"""&gt;",IF(A847=2,"  &lt;Clip SoundPath="""&amp;E847&amp;""" /&gt;",IF(A847=3,G847,"")))</f>
+        <v>&lt;Sound Type="feed_hp_increase" Storage="Remote" Dec="增加能量值"&gt;</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6">
+      <c r="A848" s="69">
+        <v>2</v>
+      </c>
+      <c r="E848" s="70" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F848" s="70" t="str">
+        <f t="shared" ref="F848" si="107">IF(A848=1,"&lt;Sound Type="""&amp;B848&amp;""" Storage="""&amp;C848&amp;""" Dec="""&amp;D848&amp;"""&gt;",IF(A848=2,"  &lt;Clip SoundPath="""&amp;E848&amp;""" /&gt;",IF(A848=3,G848,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_hp_increase" /&gt;</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" ht="16" customHeight="1">
+      <c r="A849" s="69">
+        <v>3</v>
+      </c>
+      <c r="F849" s="70" t="str">
+        <f>IF(A849=1,"&lt;Sound Type="""&amp;B849&amp;""" Storage="""&amp;C849&amp;""" Dec="""&amp;D849&amp;"""&gt;",IF(A849=2,"  &lt;Clip SoundPath="""&amp;E849&amp;""" /&gt;",IF(A849=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A768:G768"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A838:G1048576">
-    <cfRule type="containsText" dxfId="71" priority="64" operator="containsText" text="&lt;!--">
+  <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A850:G1048576">
+    <cfRule type="containsText" dxfId="83" priority="76" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="65">
+    <cfRule type="expression" dxfId="82" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="66">
+    <cfRule type="expression" dxfId="81" priority="78">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:G27 A28:F28">
-    <cfRule type="containsText" dxfId="68" priority="61" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="80" priority="73" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="62">
+    <cfRule type="expression" dxfId="79" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="63">
+    <cfRule type="expression" dxfId="78" priority="75">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="65" priority="58" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="77" priority="70" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="59">
+    <cfRule type="expression" dxfId="76" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="60">
+    <cfRule type="expression" dxfId="75" priority="72">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A434:G436">
-    <cfRule type="containsText" dxfId="62" priority="55" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="74" priority="67" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A434)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="56">
+    <cfRule type="expression" dxfId="73" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="57">
+    <cfRule type="expression" dxfId="72" priority="69">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791:G792 A797:G797 A793:D795 F793:G795 E793:E796">
+    <cfRule type="containsText" dxfId="71" priority="58" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="59">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="60">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A796:D796 F796:G796">
+    <cfRule type="containsText" dxfId="68" priority="55" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="56">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="57">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A798:G800">
+    <cfRule type="containsText" dxfId="65" priority="52" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="53">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="54">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A801:G803">
+    <cfRule type="containsText" dxfId="62" priority="49" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="50">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="51">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A804:G806">
     <cfRule type="containsText" dxfId="59" priority="46" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
@@ -58738,9 +59052,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A796:D796 F796:G796">
+  <conditionalFormatting sqref="A807:G809">
     <cfRule type="containsText" dxfId="56" priority="43" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="55" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
@@ -58749,9 +59063,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A798:G800">
+  <conditionalFormatting sqref="A810:G812">
     <cfRule type="containsText" dxfId="53" priority="40" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="52" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
@@ -58760,9 +59074,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A801:G803">
+  <conditionalFormatting sqref="A813:G815">
     <cfRule type="containsText" dxfId="50" priority="37" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A813)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="49" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
@@ -58771,9 +59085,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A804:G806">
+  <conditionalFormatting sqref="A816:G818">
     <cfRule type="containsText" dxfId="47" priority="34" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A816)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
@@ -58782,9 +59096,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A807:G809">
+  <conditionalFormatting sqref="A819:G821">
     <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A819)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
@@ -58793,9 +59107,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A810:G812">
+  <conditionalFormatting sqref="A822:G824">
     <cfRule type="containsText" dxfId="41" priority="28" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A822)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
@@ -58804,9 +59118,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A813:G815">
+  <conditionalFormatting sqref="A825:G827">
     <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A813)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A825)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
@@ -58815,9 +59129,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A816:G818">
+  <conditionalFormatting sqref="A828:G833">
     <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A816)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A828)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
@@ -58826,69 +59140,69 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A819:G821">
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A819)))</formula>
+  <conditionalFormatting sqref="A835:G837">
+    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A835)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="20">
+    <cfRule type="expression" dxfId="31" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="21">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A822:G824">
-    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A822)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="18">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A825:G827">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A825)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A828:G833">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A828)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A835:G837">
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A835)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A834:G834">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A834)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="28" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="27" priority="15">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A838:G840">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A838)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A841:G843">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A841)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A844:G846">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A844)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A847:G849">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A847)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58906,14 +59220,14 @@
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="121" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="121" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="70" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="70" customWidth="1"/>
-    <col min="6" max="6" width="54.875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="54.83203125" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -59117,57 +59431,57 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A15:F1048576">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="25" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="22" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="19" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:F10">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:F14">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59187,29 +59501,29 @@
       <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.5" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.125" style="97" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.1640625" style="97" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="30" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="30" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="30" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" style="30" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.5" style="30" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.5" style="30" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="43.875" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.875" style="30" customWidth="1"/>
-    <col min="22" max="16384" width="9.125" style="30"/>
+    <col min="17" max="17" width="11.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.83203125" style="30" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="30"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
@@ -61525,26 +61839,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="8.875" style="6"/>
-    <col min="4" max="4" width="14.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.875" style="6"/>
-    <col min="10" max="10" width="11.125" style="109" customWidth="1"/>
-    <col min="11" max="12" width="11.125" style="112" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.83203125" style="6"/>
+    <col min="4" max="4" width="14.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="6"/>
+    <col min="10" max="10" width="11.1640625" style="109" customWidth="1"/>
+    <col min="11" max="12" width="11.1640625" style="112" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="8.875" style="1"/>
-    <col min="20" max="16384" width="8.875" style="6"/>
+    <col min="14" max="19" width="8.83203125" style="1"/>
+    <col min="20" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -61668,7 +61982,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75">
+    <row r="3" spans="1:21" ht="16">
       <c r="A3" s="6">
         <v>20001</v>
       </c>
@@ -61731,7 +62045,7 @@
         <v>&lt;Accessory ID="20001" Type="1" Index="4" Name="wizard hat" Icon="part_head_hat" Prefab="cap_point" Region="Dummy_head" Purchase="Coin" Price="200" Exp="2" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75">
+    <row r="4" spans="1:21" ht="16">
       <c r="A4" s="6">
         <v>20002</v>
       </c>
@@ -61794,7 +62108,7 @@
         <v>&lt;Accessory ID="20002" Type="2" Index="5" Name="devil wing" Icon="part_wing_bat" Prefab="wing_point" Region="Dummy_wing" Purchase="Coin" Price="500" Exp="18" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75">
+    <row r="5" spans="1:21" ht="16">
       <c r="A5" s="6">
         <v>20003</v>
       </c>
@@ -61857,7 +62171,7 @@
         <v>&lt;Accessory ID="20003" Type="5" Index="6" Name="ghost" Icon="elf_up_ghost" Prefab="ghost" Region="TopLeft" Purchase="Coin" Price="2000" Exp="8" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75">
+    <row r="6" spans="1:21" ht="16">
       <c r="A6" s="6">
         <v>20004</v>
       </c>
@@ -61920,7 +62234,7 @@
         <v>&lt;Accessory ID="20004" Type="6" Index="1" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="BottomRight" Purchase="Coin" Price="800" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75">
+    <row r="7" spans="1:21" ht="16">
       <c r="A7" s="6">
         <v>20005</v>
       </c>
@@ -61983,7 +62297,7 @@
         <v>&lt;Accessory ID="20005" Type="5" Index="7" Name="snow cloud" Icon="elf_up_cloud" Prefab="cloud_snow" Region="TopLeft" Purchase="Coin" Price="2500" Exp="19" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75">
+    <row r="8" spans="1:21" ht="16">
       <c r="A8" s="6">
         <v>20006</v>
       </c>
@@ -62046,7 +62360,7 @@
         <v>&lt;Accessory ID="20006" Type="2" Index="6" Name="snow wing" Icon="part_wing_snow" Prefab="wing_snow" Region="Dummy_wing" Purchase="Coin" Price="1200" Exp="10" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75">
+    <row r="9" spans="1:21" ht="16">
       <c r="A9" s="6">
         <v>20007</v>
       </c>
@@ -62109,7 +62423,7 @@
         <v>&lt;Accessory ID="20007" Type="1" Index="3" Name="cornu cervi" Icon="part_head_antler" Prefab="cornu cervi_point" Region="Dummy_head" Purchase="Coin" Price="1800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75">
+    <row r="10" spans="1:21" ht="16">
       <c r="A10" s="6">
         <v>20008</v>
       </c>
@@ -62172,7 +62486,7 @@
         <v>&lt;Accessory ID="20008" Type="6" Index="8" Name="snowman" Icon="elf_down_snowman" Prefab="snowman" Region="BottomRight" Purchase="Coin" Price="1000" Exp="5" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75">
+    <row r="11" spans="1:21" ht="16">
       <c r="A11" s="6">
         <v>20009</v>
       </c>
@@ -62235,7 +62549,7 @@
         <v>&lt;Accessory ID="20009" Type="1" Index="1" Name="antler ponit" Icon="part_head_antler02" Prefab="antler_ponit" Region="Dummy_head" Purchase="Coin" Price="300" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75">
+    <row r="12" spans="1:21" ht="16">
       <c r="A12" s="6">
         <v>20010</v>
       </c>
@@ -62298,7 +62612,7 @@
         <v>&lt;Accessory ID="20010" Type="1" Index="2" Name="christmas hat" Icon="part_head_merryhat" Prefab="christmas hat_point" Region="Dummy_head" Purchase="Coin" Price="800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75">
+    <row r="13" spans="1:21" ht="16">
       <c r="A13" s="6">
         <v>20011</v>
       </c>
@@ -62361,7 +62675,7 @@
         <v>&lt;Accessory ID="20011" Type="4" Index="1" Name="christmas point" Icon="suit_pur_merry" Prefab="christmas_point" Region="Dummy_taozhuang" Purchase="Coin" Price="2500" Exp="20" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="0" NINJI="0" SANSA="0" YOYO="0" NUO="0" /&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75">
+    <row r="14" spans="1:21" ht="16">
       <c r="A14" s="6">
         <v>20012</v>
       </c>
@@ -62424,7 +62738,7 @@
         <v>&lt;Accessory ID="20012" Type="6" Index="4" Name="elk" Icon="elf_down_deer" Prefab="elk" Region="BottomRight" Purchase="Coin" Price="1500" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75">
+    <row r="15" spans="1:21" ht="16">
       <c r="A15" s="6">
         <v>20013</v>
       </c>
@@ -62487,7 +62801,7 @@
         <v>&lt;Accessory ID="20013" Type="6" Index="5" Name="elk02" Icon="elf_down_deer02" Prefab="elk_A" Region="BottomRight" Purchase="Cash" Price="1.99" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75">
+    <row r="16" spans="1:21" ht="16">
       <c r="A16" s="6">
         <v>20014</v>
       </c>
@@ -62550,7 +62864,7 @@
         <v>&lt;Accessory ID="20014" Type="5" Index="2" Name="giftbox" Icon="elf_up_gift" Prefab="giftbox" Region="TopLeft" Purchase="Coin" Price="1000" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75">
+    <row r="17" spans="1:21" ht="16">
       <c r="A17" s="6">
         <v>20015</v>
       </c>
@@ -62633,10 +62947,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="2"/>
+    <col min="1" max="3" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="2"/>
     <col min="7" max="7" width="20" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -66048,10 +66362,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -67580,10 +67894,10 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -69111,11 +69425,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.625" customWidth="1"/>
-    <col min="2" max="2" width="43.625" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -69508,11 +69822,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.625" customWidth="1"/>
-    <col min="2" max="2" width="43.625" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -69907,11 +70221,11 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.625" customWidth="1"/>
-    <col min="2" max="2" width="43.625" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7319E3-14BD-4346-9C0E-10574877ADC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E18AC27-A069-49B4-81F6-5689345A63C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -473,7 +473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="2026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="2039">
   <si>
     <t>&lt;Item Id="40001" Type="4" Name="nim0101" getImage="Home_box_nim_ocean brim01 (1)" Icon="" StoryBg="" AudioId="" Description=""/&gt;</t>
   </si>
@@ -6265,10 +6265,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Coin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>opensandwich</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -6526,30 +6522,6 @@
   </si>
   <si>
     <t>elf_down_snowman</t>
-  </si>
-  <si>
-    <t>cap_point</t>
-  </si>
-  <si>
-    <t>wing_point</t>
-  </si>
-  <si>
-    <t>ghost</t>
-  </si>
-  <si>
-    <t>pumpkin</t>
-  </si>
-  <si>
-    <t>cloud_snow</t>
-  </si>
-  <si>
-    <t>wing_snow</t>
-  </si>
-  <si>
-    <t>snowman</t>
-  </si>
-  <si>
-    <t>cornu cervi_point</t>
   </si>
   <si>
     <t>Dummy_wing</t>
@@ -6754,20 +6726,10 @@
     <t>Home_christmas_bg_04</t>
   </si>
   <si>
-    <t>christmas hat_point</t>
-  </si>
-  <si>
-    <t>christmas_point</t>
-  </si>
-  <si>
     <t>elk</t>
   </si>
   <si>
     <t>giftbox</t>
-  </si>
-  <si>
-    <t>antler_ponit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>antler ponit</t>
@@ -6801,13 +6763,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>giftbox_A</t>
-  </si>
-  <si>
     <t>elf_up_gift02</t>
-  </si>
-  <si>
-    <t>elk_A</t>
   </si>
   <si>
     <t>elf_down_deer02</t>
@@ -6896,8 +6852,91 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Coin</t>
+    <t>role/cap</t>
+  </si>
+  <si>
+    <t>cap_point_prefab</t>
+  </si>
+  <si>
+    <t>role/wing</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wing_point_prefab</t>
+  </si>
+  <si>
+    <t>role/ghost</t>
+  </si>
+  <si>
+    <t>ghost_prefab</t>
+  </si>
+  <si>
+    <t>role/pumpkin</t>
+  </si>
+  <si>
+    <t>pumpkin_prefab</t>
+  </si>
+  <si>
+    <t>role/cloud_snow</t>
+  </si>
+  <si>
+    <t>cloud_snow_prefab</t>
+  </si>
+  <si>
+    <t>role/wing_snow</t>
+  </si>
+  <si>
+    <t>wing_snow_prefab</t>
+  </si>
+  <si>
+    <t>role/cornu cervi</t>
+  </si>
+  <si>
+    <t>cornu cervi_point_prefab</t>
+  </si>
+  <si>
+    <t>role/snowman</t>
+  </si>
+  <si>
+    <t>snowman_prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/antler</t>
+  </si>
+  <si>
+    <t>antler_ponit_prefab</t>
+  </si>
+  <si>
+    <t>role/christmas hat</t>
+  </si>
+  <si>
+    <t>christmas hat_point_prefab</t>
+  </si>
+  <si>
+    <t>role/christmas</t>
+  </si>
+  <si>
+    <t>christmas_point_prefab</t>
+  </si>
+  <si>
+    <t>role/elk</t>
+  </si>
+  <si>
+    <t>elk_A_prefab</t>
+  </si>
+  <si>
+    <t>elk_B_prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/giftbox</t>
+  </si>
+  <si>
+    <t>giftbox_prefab</t>
+  </si>
+  <si>
+    <t>giftbox_A_prefab</t>
   </si>
 </sst>
 </file>
@@ -7822,12 +7861,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7869,6 +7902,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8894,7 +8933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -9428,23 +9467,23 @@
       <c r="O16" s="78"/>
     </row>
     <row r="17" spans="1:15" ht="15.75">
-      <c r="A17" s="129" t="s">
-        <v>1880</v>
-      </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
+      <c r="A17" s="127" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="88" t="str">
@@ -17223,23 +17262,23 @@
       <c r="O163" s="62"/>
     </row>
     <row r="164" spans="1:15" ht="15.75">
-      <c r="A164" s="129" t="s">
-        <v>1880</v>
-      </c>
-      <c r="B164" s="129"/>
-      <c r="C164" s="129"/>
-      <c r="D164" s="129"/>
-      <c r="E164" s="129"/>
-      <c r="F164" s="129"/>
-      <c r="G164" s="129"/>
-      <c r="H164" s="129"/>
-      <c r="I164" s="129"/>
-      <c r="J164" s="129"/>
-      <c r="K164" s="129"/>
-      <c r="L164" s="129"/>
-      <c r="M164" s="129"/>
-      <c r="N164" s="129"/>
-      <c r="O164" s="129"/>
+      <c r="A164" s="127" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B164" s="127"/>
+      <c r="C164" s="127"/>
+      <c r="D164" s="127"/>
+      <c r="E164" s="127"/>
+      <c r="F164" s="127"/>
+      <c r="G164" s="127"/>
+      <c r="H164" s="127"/>
+      <c r="I164" s="127"/>
+      <c r="J164" s="127"/>
+      <c r="K164" s="127"/>
+      <c r="L164" s="127"/>
+      <c r="M164" s="127"/>
+      <c r="N164" s="127"/>
+      <c r="O164" s="127"/>
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="92">
@@ -18031,50 +18070,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="131" t="s">
         <v>1095</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="132" t="s">
         <v>1096</v>
       </c>
-      <c r="F1" s="134"/>
+      <c r="F1" s="132"/>
       <c r="G1" s="32" t="s">
         <v>1097</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="133" t="s">
         <v>1098</v>
       </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="137" t="s">
+      <c r="I1" s="134"/>
+      <c r="J1" s="135" t="s">
         <v>1099</v>
       </c>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="138" t="s">
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="136" t="s">
         <v>1100</v>
       </c>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="139" t="s">
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="137" t="s">
         <v>1101</v>
       </c>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="130" t="s">
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="128" t="s">
         <v>1102</v>
       </c>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="131" t="s">
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="129" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -18123,10 +18162,10 @@
         <v>1113</v>
       </c>
       <c r="P2" s="122" t="s">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="Q2" s="122" t="s">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="R2" s="115" t="s">
         <v>1114</v>
@@ -18135,10 +18174,10 @@
         <v>1115</v>
       </c>
       <c r="T2" s="125" t="s">
-        <v>2022</v>
+        <v>2008</v>
       </c>
       <c r="U2" s="125" t="s">
-        <v>2023</v>
+        <v>2009</v>
       </c>
       <c r="V2" s="37" t="s">
         <v>1114</v>
@@ -18147,10 +18186,10 @@
         <v>1115</v>
       </c>
       <c r="X2" s="126" t="s">
-        <v>2022</v>
+        <v>2008</v>
       </c>
       <c r="Y2" s="126" t="s">
-        <v>2023</v>
+        <v>2009</v>
       </c>
       <c r="Z2" s="38" t="s">
         <v>1114</v>
@@ -18158,7 +18197,7 @@
       <c r="AA2" s="38" t="s">
         <v>1115</v>
       </c>
-      <c r="AB2" s="132"/>
+      <c r="AB2" s="130"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="39" t="s">
@@ -32119,7 +32158,7 @@
         <v>MissionName82001</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>1986</v>
+        <v>1977</v>
       </c>
       <c r="E80" s="29">
         <v>82002</v>
@@ -32135,7 +32174,7 @@
         <v>50</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
@@ -32171,7 +32210,7 @@
         <v>MissionName82002</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>1987</v>
+        <v>1978</v>
       </c>
       <c r="E81" s="29">
         <v>82001</v>
@@ -32187,7 +32226,7 @@
         <v>50</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
@@ -32223,7 +32262,7 @@
         <v>MissionName82003</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="E82" s="29">
         <v>82003</v>
@@ -32239,7 +32278,7 @@
         <v>50</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
@@ -32275,7 +32314,7 @@
         <v>MissionName82004</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="E83" s="29">
         <v>82001</v>
@@ -32291,7 +32330,7 @@
         <v>50</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="K83" s="23"/>
       <c r="L83" s="23"/>
@@ -32527,7 +32566,7 @@
         <v>MissionName92001</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E88" s="29">
         <v>92001</v>
@@ -32577,7 +32616,7 @@
         <v>MissionName92002</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E89" s="29">
         <v>92002</v>
@@ -32627,7 +32666,7 @@
         <v>MissionName92003</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E90" s="29">
         <v>92003</v>
@@ -32677,7 +32716,7 @@
         <v>MissionName92004</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E91" s="29">
         <v>92004</v>
@@ -58004,28 +58043,28 @@
       </c>
     </row>
     <row r="768" spans="1:7">
-      <c r="A768" s="140" t="s">
-        <v>1894</v>
-      </c>
-      <c r="B768" s="141"/>
-      <c r="C768" s="141"/>
-      <c r="D768" s="141"/>
-      <c r="E768" s="141"/>
-      <c r="F768" s="141"/>
-      <c r="G768" s="142"/>
+      <c r="A768" s="138" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B768" s="139"/>
+      <c r="C768" s="139"/>
+      <c r="D768" s="139"/>
+      <c r="E768" s="139"/>
+      <c r="F768" s="139"/>
+      <c r="G768" s="140"/>
     </row>
     <row r="769" spans="1:6">
       <c r="A769" s="69">
         <v>1</v>
       </c>
       <c r="B769" s="70" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C769" s="70" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D769" s="70" t="s">
         <v>1887</v>
-      </c>
-      <c r="C769" s="70" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D769" s="70" t="s">
-        <v>1888</v>
       </c>
       <c r="F769" s="70" t="str">
         <f>IF(A769=1,"&lt;Sound Type="""&amp;B769&amp;""" Storage="""&amp;C769&amp;""" Dec="""&amp;D769&amp;"""&gt;",IF(A769=2,"  &lt;Clip SoundPath="""&amp;E769&amp;""" /&gt;",IF(A769=3,G769,"")))</f>
@@ -58037,7 +58076,7 @@
         <v>2</v>
       </c>
       <c r="E770" s="70" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="F770" s="70" t="str">
         <f t="shared" ref="F770:F774" si="85">IF(A770=1,"&lt;Sound Type="""&amp;B770&amp;""" Storage="""&amp;C770&amp;""" Dec="""&amp;D770&amp;"""&gt;",IF(A770=2,"  &lt;Clip SoundPath="""&amp;E770&amp;""" /&gt;",IF(A770=3,G770,"")))</f>
@@ -58049,7 +58088,7 @@
         <v>2</v>
       </c>
       <c r="E771" s="70" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F771" s="70" t="str">
         <f t="shared" si="85"/>
@@ -58061,7 +58100,7 @@
         <v>2</v>
       </c>
       <c r="E772" s="70" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F772" s="70" t="str">
         <f t="shared" si="85"/>
@@ -58073,7 +58112,7 @@
         <v>2</v>
       </c>
       <c r="E773" s="70" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F773" s="70" t="str">
         <f t="shared" si="85"/>
@@ -58085,7 +58124,7 @@
         <v>2</v>
       </c>
       <c r="E774" s="70" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F774" s="70" t="str">
         <f t="shared" si="85"/>
@@ -58106,13 +58145,13 @@
         <v>1</v>
       </c>
       <c r="B776" s="70" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C776" s="70" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D776" s="70" t="s">
         <v>1895</v>
-      </c>
-      <c r="C776" s="70" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D776" s="70" t="s">
-        <v>1896</v>
       </c>
       <c r="F776" s="70" t="str">
         <f>IF(A776=1,"&lt;Sound Type="""&amp;B776&amp;""" Storage="""&amp;C776&amp;""" Dec="""&amp;D776&amp;"""&gt;",IF(A776=2,"  &lt;Clip SoundPath="""&amp;E776&amp;""" /&gt;",IF(A776=3,G776,"")))</f>
@@ -58124,7 +58163,7 @@
         <v>2</v>
       </c>
       <c r="E777" s="70" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="F777" s="70" t="str">
         <f t="shared" ref="F777:F780" si="86">IF(A777=1,"&lt;Sound Type="""&amp;B777&amp;""" Storage="""&amp;C777&amp;""" Dec="""&amp;D777&amp;"""&gt;",IF(A777=2,"  &lt;Clip SoundPath="""&amp;E777&amp;""" /&gt;",IF(A777=3,G777,"")))</f>
@@ -58136,7 +58175,7 @@
         <v>2</v>
       </c>
       <c r="E778" s="70" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="F778" s="70" t="str">
         <f t="shared" si="86"/>
@@ -58148,7 +58187,7 @@
         <v>2</v>
       </c>
       <c r="E779" s="70" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="F779" s="70" t="str">
         <f t="shared" si="86"/>
@@ -58160,7 +58199,7 @@
         <v>2</v>
       </c>
       <c r="E780" s="70" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="F780" s="70" t="str">
         <f t="shared" si="86"/>
@@ -58181,13 +58220,13 @@
         <v>1</v>
       </c>
       <c r="B782" s="70" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C782" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D782" s="70" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="F782" s="70" t="str">
         <f>IF(A782=1,"&lt;Sound Type="""&amp;B782&amp;""" Storage="""&amp;C782&amp;""" Dec="""&amp;D782&amp;"""&gt;",IF(A782=2,"  &lt;Clip SoundPath="""&amp;E782&amp;""" /&gt;",IF(A782=3,G782,"")))</f>
@@ -58199,7 +58238,7 @@
         <v>2</v>
       </c>
       <c r="E783" s="70" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F783" s="70" t="str">
         <f t="shared" ref="F783" si="87">IF(A783=1,"&lt;Sound Type="""&amp;B783&amp;""" Storage="""&amp;C783&amp;""" Dec="""&amp;D783&amp;"""&gt;",IF(A783=2,"  &lt;Clip SoundPath="""&amp;E783&amp;""" /&gt;",IF(A783=3,G783,"")))</f>
@@ -58220,13 +58259,13 @@
         <v>1</v>
       </c>
       <c r="B785" s="70" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C785" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D785" s="70" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="F785" s="70" t="str">
         <f>IF(A785=1,"&lt;Sound Type="""&amp;B785&amp;""" Storage="""&amp;C785&amp;""" Dec="""&amp;D785&amp;"""&gt;",IF(A785=2,"  &lt;Clip SoundPath="""&amp;E785&amp;""" /&gt;",IF(A785=3,G785,"")))</f>
@@ -58238,7 +58277,7 @@
         <v>2</v>
       </c>
       <c r="E786" s="70" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F786" s="70" t="str">
         <f t="shared" ref="F786" si="88">IF(A786=1,"&lt;Sound Type="""&amp;B786&amp;""" Storage="""&amp;C786&amp;""" Dec="""&amp;D786&amp;"""&gt;",IF(A786=2,"  &lt;Clip SoundPath="""&amp;E786&amp;""" /&gt;",IF(A786=3,G786,"")))</f>
@@ -58259,13 +58298,13 @@
         <v>1</v>
       </c>
       <c r="B788" s="70" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C788" s="70" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D788" s="70" t="s">
         <v>1905</v>
-      </c>
-      <c r="C788" s="70" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D788" s="70" t="s">
-        <v>1906</v>
       </c>
       <c r="F788" s="70" t="str">
         <f>IF(A788=1,"&lt;Sound Type="""&amp;B788&amp;""" Storage="""&amp;C788&amp;""" Dec="""&amp;D788&amp;"""&gt;",IF(A788=2,"  &lt;Clip SoundPath="""&amp;E788&amp;""" /&gt;",IF(A788=3,G788,"")))</f>
@@ -58277,7 +58316,7 @@
         <v>2</v>
       </c>
       <c r="E789" s="70" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F789" s="70" t="str">
         <f t="shared" ref="F789" si="89">IF(A789=1,"&lt;Sound Type="""&amp;B789&amp;""" Storage="""&amp;C789&amp;""" Dec="""&amp;D789&amp;"""&gt;",IF(A789=2,"  &lt;Clip SoundPath="""&amp;E789&amp;""" /&gt;",IF(A789=3,G789,"")))</f>
@@ -58298,13 +58337,13 @@
         <v>1</v>
       </c>
       <c r="B791" s="70" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C791" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D791" s="70" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="F791" s="70" t="str">
         <f>IF(A791=1,"&lt;Sound Type="""&amp;B791&amp;""" Storage="""&amp;C791&amp;""" Dec="""&amp;D791&amp;"""&gt;",IF(A791=2,"  &lt;Clip SoundPath="""&amp;E791&amp;""" /&gt;",IF(A791=3,G791,"")))</f>
@@ -58316,7 +58355,7 @@
         <v>2</v>
       </c>
       <c r="E792" s="70" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F792" s="70" t="str">
         <f t="shared" ref="F792:F795" si="90">IF(A792=1,"&lt;Sound Type="""&amp;B792&amp;""" Storage="""&amp;C792&amp;""" Dec="""&amp;D792&amp;"""&gt;",IF(A792=2,"  &lt;Clip SoundPath="""&amp;E792&amp;""" /&gt;",IF(A792=3,G792,"")))</f>
@@ -58328,7 +58367,7 @@
         <v>2</v>
       </c>
       <c r="E793" s="70" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="F793" s="70" t="str">
         <f t="shared" si="90"/>
@@ -58340,7 +58379,7 @@
         <v>2</v>
       </c>
       <c r="E794" s="70" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="F794" s="70" t="str">
         <f t="shared" si="90"/>
@@ -58352,7 +58391,7 @@
         <v>2</v>
       </c>
       <c r="E795" s="70" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="F795" s="70" t="str">
         <f t="shared" si="90"/>
@@ -58364,7 +58403,7 @@
         <v>2</v>
       </c>
       <c r="E796" s="70" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="F796" s="70" t="str">
         <f t="shared" ref="F796" si="91">IF(A796=1,"&lt;Sound Type="""&amp;B796&amp;""" Storage="""&amp;C796&amp;""" Dec="""&amp;D796&amp;"""&gt;",IF(A796=2,"  &lt;Clip SoundPath="""&amp;E796&amp;""" /&gt;",IF(A796=3,G796,"")))</f>
@@ -58385,13 +58424,13 @@
         <v>1</v>
       </c>
       <c r="B798" s="70" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C798" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D798" s="70" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F798" s="70" t="str">
         <f>IF(A798=1,"&lt;Sound Type="""&amp;B798&amp;""" Storage="""&amp;C798&amp;""" Dec="""&amp;D798&amp;"""&gt;",IF(A798=2,"  &lt;Clip SoundPath="""&amp;E798&amp;""" /&gt;",IF(A798=3,G798,"")))</f>
@@ -58403,7 +58442,7 @@
         <v>2</v>
       </c>
       <c r="E799" s="70" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F799" s="70" t="str">
         <f t="shared" ref="F799" si="92">IF(A799=1,"&lt;Sound Type="""&amp;B799&amp;""" Storage="""&amp;C799&amp;""" Dec="""&amp;D799&amp;"""&gt;",IF(A799=2,"  &lt;Clip SoundPath="""&amp;E799&amp;""" /&gt;",IF(A799=3,G799,"")))</f>
@@ -58424,13 +58463,13 @@
         <v>1</v>
       </c>
       <c r="B801" s="70" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C801" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D801" s="70" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F801" s="70" t="str">
         <f>IF(A801=1,"&lt;Sound Type="""&amp;B801&amp;""" Storage="""&amp;C801&amp;""" Dec="""&amp;D801&amp;"""&gt;",IF(A801=2,"  &lt;Clip SoundPath="""&amp;E801&amp;""" /&gt;",IF(A801=3,G801,"")))</f>
@@ -58442,7 +58481,7 @@
         <v>2</v>
       </c>
       <c r="E802" s="70" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="F802" s="70" t="str">
         <f t="shared" ref="F802" si="93">IF(A802=1,"&lt;Sound Type="""&amp;B802&amp;""" Storage="""&amp;C802&amp;""" Dec="""&amp;D802&amp;"""&gt;",IF(A802=2,"  &lt;Clip SoundPath="""&amp;E802&amp;""" /&gt;",IF(A802=3,G802,"")))</f>
@@ -58463,13 +58502,13 @@
         <v>1</v>
       </c>
       <c r="B804" s="70" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C804" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D804" s="70" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F804" s="70" t="str">
         <f>IF(A804=1,"&lt;Sound Type="""&amp;B804&amp;""" Storage="""&amp;C804&amp;""" Dec="""&amp;D804&amp;"""&gt;",IF(A804=2,"  &lt;Clip SoundPath="""&amp;E804&amp;""" /&gt;",IF(A804=3,G804,"")))</f>
@@ -58481,7 +58520,7 @@
         <v>2</v>
       </c>
       <c r="E805" s="70" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="F805" s="70" t="str">
         <f t="shared" ref="F805" si="94">IF(A805=1,"&lt;Sound Type="""&amp;B805&amp;""" Storage="""&amp;C805&amp;""" Dec="""&amp;D805&amp;"""&gt;",IF(A805=2,"  &lt;Clip SoundPath="""&amp;E805&amp;""" /&gt;",IF(A805=3,G805,"")))</f>
@@ -58502,13 +58541,13 @@
         <v>1</v>
       </c>
       <c r="B807" s="70" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C807" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D807" s="70" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F807" s="70" t="str">
         <f>IF(A807=1,"&lt;Sound Type="""&amp;B807&amp;""" Storage="""&amp;C807&amp;""" Dec="""&amp;D807&amp;"""&gt;",IF(A807=2,"  &lt;Clip SoundPath="""&amp;E807&amp;""" /&gt;",IF(A807=3,G807,"")))</f>
@@ -58520,7 +58559,7 @@
         <v>2</v>
       </c>
       <c r="E808" s="70" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="F808" s="70" t="str">
         <f t="shared" ref="F808" si="95">IF(A808=1,"&lt;Sound Type="""&amp;B808&amp;""" Storage="""&amp;C808&amp;""" Dec="""&amp;D808&amp;"""&gt;",IF(A808=2,"  &lt;Clip SoundPath="""&amp;E808&amp;""" /&gt;",IF(A808=3,G808,"")))</f>
@@ -58541,13 +58580,13 @@
         <v>1</v>
       </c>
       <c r="B810" s="70" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C810" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D810" s="70" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F810" s="70" t="str">
         <f>IF(A810=1,"&lt;Sound Type="""&amp;B810&amp;""" Storage="""&amp;C810&amp;""" Dec="""&amp;D810&amp;"""&gt;",IF(A810=2,"  &lt;Clip SoundPath="""&amp;E810&amp;""" /&gt;",IF(A810=3,G810,"")))</f>
@@ -58559,7 +58598,7 @@
         <v>2</v>
       </c>
       <c r="E811" s="70" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F811" s="70" t="str">
         <f t="shared" ref="F811" si="96">IF(A811=1,"&lt;Sound Type="""&amp;B811&amp;""" Storage="""&amp;C811&amp;""" Dec="""&amp;D811&amp;"""&gt;",IF(A811=2,"  &lt;Clip SoundPath="""&amp;E811&amp;""" /&gt;",IF(A811=3,G811,"")))</f>
@@ -58580,13 +58619,13 @@
         <v>1</v>
       </c>
       <c r="B813" s="70" t="s">
-        <v>1951</v>
+        <v>1942</v>
       </c>
       <c r="C813" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D813" s="70" t="s">
-        <v>1956</v>
+        <v>1947</v>
       </c>
       <c r="F813" s="70" t="str">
         <f>IF(A813=1,"&lt;Sound Type="""&amp;B813&amp;""" Storage="""&amp;C813&amp;""" Dec="""&amp;D813&amp;"""&gt;",IF(A813=2,"  &lt;Clip SoundPath="""&amp;E813&amp;""" /&gt;",IF(A813=3,G813,"")))</f>
@@ -58598,7 +58637,7 @@
         <v>2</v>
       </c>
       <c r="E814" s="70" t="s">
-        <v>1951</v>
+        <v>1942</v>
       </c>
       <c r="F814" s="70" t="str">
         <f t="shared" ref="F814" si="97">IF(A814=1,"&lt;Sound Type="""&amp;B814&amp;""" Storage="""&amp;C814&amp;""" Dec="""&amp;D814&amp;"""&gt;",IF(A814=2,"  &lt;Clip SoundPath="""&amp;E814&amp;""" /&gt;",IF(A814=3,G814,"")))</f>
@@ -58619,13 +58658,13 @@
         <v>1</v>
       </c>
       <c r="B816" s="70" t="s">
-        <v>1952</v>
+        <v>1943</v>
       </c>
       <c r="C816" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D816" s="70" t="s">
-        <v>1957</v>
+        <v>1948</v>
       </c>
       <c r="F816" s="70" t="str">
         <f>IF(A816=1,"&lt;Sound Type="""&amp;B816&amp;""" Storage="""&amp;C816&amp;""" Dec="""&amp;D816&amp;"""&gt;",IF(A816=2,"  &lt;Clip SoundPath="""&amp;E816&amp;""" /&gt;",IF(A816=3,G816,"")))</f>
@@ -58637,7 +58676,7 @@
         <v>2</v>
       </c>
       <c r="E817" s="70" t="s">
-        <v>1952</v>
+        <v>1943</v>
       </c>
       <c r="F817" s="70" t="str">
         <f t="shared" ref="F817" si="98">IF(A817=1,"&lt;Sound Type="""&amp;B817&amp;""" Storage="""&amp;C817&amp;""" Dec="""&amp;D817&amp;"""&gt;",IF(A817=2,"  &lt;Clip SoundPath="""&amp;E817&amp;""" /&gt;",IF(A817=3,G817,"")))</f>
@@ -58658,13 +58697,13 @@
         <v>1</v>
       </c>
       <c r="B819" s="70" t="s">
-        <v>1953</v>
+        <v>1944</v>
       </c>
       <c r="C819" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D819" s="70" t="s">
-        <v>1958</v>
+        <v>1949</v>
       </c>
       <c r="F819" s="70" t="str">
         <f>IF(A819=1,"&lt;Sound Type="""&amp;B819&amp;""" Storage="""&amp;C819&amp;""" Dec="""&amp;D819&amp;"""&gt;",IF(A819=2,"  &lt;Clip SoundPath="""&amp;E819&amp;""" /&gt;",IF(A819=3,G819,"")))</f>
@@ -58676,7 +58715,7 @@
         <v>2</v>
       </c>
       <c r="E820" s="70" t="s">
-        <v>1953</v>
+        <v>1944</v>
       </c>
       <c r="F820" s="70" t="str">
         <f t="shared" ref="F820" si="99">IF(A820=1,"&lt;Sound Type="""&amp;B820&amp;""" Storage="""&amp;C820&amp;""" Dec="""&amp;D820&amp;"""&gt;",IF(A820=2,"  &lt;Clip SoundPath="""&amp;E820&amp;""" /&gt;",IF(A820=3,G820,"")))</f>
@@ -58697,13 +58736,13 @@
         <v>1</v>
       </c>
       <c r="B822" s="70" t="s">
-        <v>1954</v>
+        <v>1945</v>
       </c>
       <c r="C822" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D822" s="70" t="s">
-        <v>1959</v>
+        <v>1950</v>
       </c>
       <c r="F822" s="70" t="str">
         <f>IF(A822=1,"&lt;Sound Type="""&amp;B822&amp;""" Storage="""&amp;C822&amp;""" Dec="""&amp;D822&amp;"""&gt;",IF(A822=2,"  &lt;Clip SoundPath="""&amp;E822&amp;""" /&gt;",IF(A822=3,G822,"")))</f>
@@ -58715,7 +58754,7 @@
         <v>2</v>
       </c>
       <c r="E823" s="70" t="s">
-        <v>1954</v>
+        <v>1945</v>
       </c>
       <c r="F823" s="70" t="str">
         <f t="shared" ref="F823" si="100">IF(A823=1,"&lt;Sound Type="""&amp;B823&amp;""" Storage="""&amp;C823&amp;""" Dec="""&amp;D823&amp;"""&gt;",IF(A823=2,"  &lt;Clip SoundPath="""&amp;E823&amp;""" /&gt;",IF(A823=3,G823,"")))</f>
@@ -58736,13 +58775,13 @@
         <v>1</v>
       </c>
       <c r="B825" s="70" t="s">
-        <v>1955</v>
+        <v>1946</v>
       </c>
       <c r="C825" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D825" s="70" t="s">
-        <v>1960</v>
+        <v>1951</v>
       </c>
       <c r="F825" s="70" t="str">
         <f>IF(A825=1,"&lt;Sound Type="""&amp;B825&amp;""" Storage="""&amp;C825&amp;""" Dec="""&amp;D825&amp;"""&gt;",IF(A825=2,"  &lt;Clip SoundPath="""&amp;E825&amp;""" /&gt;",IF(A825=3,G825,"")))</f>
@@ -58754,7 +58793,7 @@
         <v>2</v>
       </c>
       <c r="E826" s="70" t="s">
-        <v>1955</v>
+        <v>1946</v>
       </c>
       <c r="F826" s="70" t="str">
         <f t="shared" ref="F826" si="101">IF(A826=1,"&lt;Sound Type="""&amp;B826&amp;""" Storage="""&amp;C826&amp;""" Dec="""&amp;D826&amp;"""&gt;",IF(A826=2,"  &lt;Clip SoundPath="""&amp;E826&amp;""" /&gt;",IF(A826=3,G826,"")))</f>
@@ -58775,13 +58814,13 @@
         <v>1</v>
       </c>
       <c r="B828" s="70" t="s">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="C828" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D828" s="70" t="s">
-        <v>1984</v>
+        <v>1975</v>
       </c>
       <c r="F828" s="70" t="str">
         <f>IF(A828=1,"&lt;Sound Type="""&amp;B828&amp;""" Storage="""&amp;C828&amp;""" Dec="""&amp;D828&amp;"""&gt;",IF(A828=2,"  &lt;Clip SoundPath="""&amp;E828&amp;""" /&gt;",IF(A828=3,G828,"")))</f>
@@ -58793,7 +58832,7 @@
         <v>2</v>
       </c>
       <c r="E829" s="70" t="s">
-        <v>1978</v>
+        <v>1969</v>
       </c>
       <c r="F829" s="70" t="str">
         <f t="shared" ref="F829:F833" si="102">IF(A829=1,"&lt;Sound Type="""&amp;B829&amp;""" Storage="""&amp;C829&amp;""" Dec="""&amp;D829&amp;"""&gt;",IF(A829=2,"  &lt;Clip SoundPath="""&amp;E829&amp;""" /&gt;",IF(A829=3,G829,"")))</f>
@@ -58805,7 +58844,7 @@
         <v>2</v>
       </c>
       <c r="E830" s="70" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
       <c r="F830" s="70" t="str">
         <f t="shared" si="102"/>
@@ -58817,7 +58856,7 @@
         <v>2</v>
       </c>
       <c r="E831" s="70" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="F831" s="70" t="str">
         <f t="shared" si="102"/>
@@ -58829,7 +58868,7 @@
         <v>2</v>
       </c>
       <c r="E832" s="70" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="F832" s="70" t="str">
         <f t="shared" si="102"/>
@@ -58841,7 +58880,7 @@
         <v>2</v>
       </c>
       <c r="E833" s="70" t="s">
-        <v>1982</v>
+        <v>1973</v>
       </c>
       <c r="F833" s="70" t="str">
         <f t="shared" si="102"/>
@@ -58862,13 +58901,13 @@
         <v>1</v>
       </c>
       <c r="B835" s="70" t="s">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="C835" s="70" t="s">
         <v>1810</v>
       </c>
       <c r="D835" s="70" t="s">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="F835" s="70" t="str">
         <f>IF(A835=1,"&lt;Sound Type="""&amp;B835&amp;""" Storage="""&amp;C835&amp;""" Dec="""&amp;D835&amp;"""&gt;",IF(A835=2,"  &lt;Clip SoundPath="""&amp;E835&amp;""" /&gt;",IF(A835=3,G835,"")))</f>
@@ -58880,7 +58919,7 @@
         <v>2</v>
       </c>
       <c r="E836" s="70" t="s">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="F836" s="70" t="str">
         <f t="shared" ref="F836" si="103">IF(A836=1,"&lt;Sound Type="""&amp;B836&amp;""" Storage="""&amp;C836&amp;""" Dec="""&amp;D836&amp;"""&gt;",IF(A836=2,"  &lt;Clip SoundPath="""&amp;E836&amp;""" /&gt;",IF(A836=3,G836,"")))</f>
@@ -59139,16 +59178,16 @@
         <v>1715</v>
       </c>
       <c r="B1" s="117" t="s">
-        <v>2010</v>
+        <v>1996</v>
       </c>
       <c r="C1" s="118" t="s">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="D1" s="118" t="s">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="E1" s="118" t="s">
-        <v>2013</v>
+        <v>1999</v>
       </c>
       <c r="F1" s="118" t="s">
         <v>137</v>
@@ -59163,10 +59202,10 @@
         <v>1817</v>
       </c>
       <c r="D2" s="119" t="s">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="E2" s="119" t="s">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="F2" s="119"/>
     </row>
@@ -59178,7 +59217,7 @@
         <v>10000</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="F3" s="70" t="str">
         <f>IF(A3=1,"&lt;AwardConfig ID="""&amp;B3&amp;""" Desc="""&amp;C3&amp;""" &gt;",IF(A3=2,"  &lt;Coin Percent="""&amp;D3&amp;""" /&gt;",IF(A3=3,"  &lt;Prop Percent="""&amp;D3&amp;""" Source="""&amp;E3&amp;""" /&gt;",IF(A3=4,"&lt;/AwardConfig&gt;",""))))</f>
@@ -59207,7 +59246,7 @@
         <v>0.4</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="F5" s="70" t="str">
         <f t="shared" si="0"/>
@@ -59232,7 +59271,7 @@
         <v>10001</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="F7" s="70" t="str">
         <f t="shared" si="0"/>
@@ -59261,7 +59300,7 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="70" t="s">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="F9" s="70" t="str">
         <f t="shared" si="0"/>
@@ -59286,7 +59325,7 @@
         <v>10002</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="F11" s="70" t="str">
         <f t="shared" si="0"/>
@@ -59315,7 +59354,7 @@
         <v>0.6</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="F13" s="70" t="str">
         <f t="shared" si="0"/>
@@ -60978,10 +61017,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>1862</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>1863</v>
       </c>
       <c r="F20" s="30" t="b">
         <v>1</v>
@@ -61020,10 +61059,10 @@
         <v>1050</v>
       </c>
       <c r="R20" s="30" t="s">
+        <v>1875</v>
+      </c>
+      <c r="S20" s="76" t="s">
         <v>1876</v>
-      </c>
-      <c r="S20" s="76" t="s">
-        <v>1877</v>
       </c>
       <c r="U20" s="30" t="str">
         <f t="shared" ref="U20:U28" si="2">"&lt;PropertyItem&gt;"&amp;CHAR(10)&amp;"&lt;Number&gt;"&amp;A20&amp;"&lt;/Number&gt;"&amp;CHAR(10)&amp;"&lt;Id&gt;"&amp;B20&amp;"&lt;/Id&gt;"&amp;CHAR(10)&amp;"&lt;Type&gt;"&amp;C20&amp;"&lt;/Type&gt;"&amp;CHAR(10)&amp;"&lt;Name&gt;"&amp;D20&amp;"&lt;/Name&gt;"&amp;CHAR(10)&amp;"&lt;Tag&gt;"&amp;E20&amp;"&lt;/Tag&gt;"&amp;CHAR(10)&amp;"&lt;IsNew&gt;"&amp;F20&amp;"&lt;/IsNew&gt;"&amp;CHAR(10)&amp;"&lt;IsCampain&gt;"&amp;G20&amp;"&lt;/IsCampain&gt;"&amp;CHAR(10)&amp;"&lt;StartTime&gt;"&amp;TEXT(H20,"yyyy-MM-dd HH:mm")&amp;"&lt;/StartTime&gt;"&amp;CHAR(10)&amp;"&lt;EndTime&gt;"&amp;TEXT(I20,"yyyy-MM-dd HH:mm")&amp;"&lt;/EndTime&gt;"&amp;CHAR(10)&amp;"&lt;UnlockLevel&gt;"&amp;J20&amp;"&lt;/UnlockLevel&gt;"&amp;CHAR(10)&amp;"&lt;Rarity&gt;"&amp;K20&amp;"&lt;/Rarity&gt;"&amp;CHAR(10)&amp;"&lt;Price&gt;"&amp;L20&amp;"&lt;/Price&gt;"&amp;CHAR(10)&amp;"&lt;Sale&gt;"&amp;M20&amp;"&lt;/Sale&gt;"&amp;CHAR(10)&amp;"&lt;Hp&gt;"&amp;N20&amp;"&lt;/Hp&gt;"&amp;CHAR(10)&amp;"&lt;Exp&gt;"&amp;O20&amp;"&lt;/Exp&gt;"&amp;CHAR(10)&amp;"&lt;IsShow&gt;"&amp;P20&amp;"&lt;/IsShow&gt;"&amp;CHAR(10)&amp;"&lt;AcquireWay&gt;"&amp;Q20&amp;"&lt;/AcquireWay&gt;"&amp;CHAR(10)&amp;"&lt;DefaultIcon&gt;"&amp;R20&amp;"&lt;/DefaultIcon&gt;"&amp;CHAR(10)&amp;"&lt;HighLightIcon&gt;"&amp;S20&amp;"&lt;/HighLightIcon&gt;"&amp;CHAR(10)&amp;"&lt;ReactionAnim&gt;"&amp;T20&amp;"&lt;/ReactionAnim&gt;"&amp;CHAR(10)&amp;"&lt;/PropertyItem&gt;"</f>
@@ -61063,10 +61102,10 @@
         <v>6</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>1864</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>1865</v>
       </c>
       <c r="F21" s="30" t="b">
         <v>1</v>
@@ -61105,10 +61144,10 @@
         <v>1050</v>
       </c>
       <c r="R21" s="30" t="s">
+        <v>1869</v>
+      </c>
+      <c r="S21" s="76" t="s">
         <v>1870</v>
-      </c>
-      <c r="S21" s="76" t="s">
-        <v>1871</v>
       </c>
       <c r="U21" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61148,10 +61187,10 @@
         <v>6</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>1866</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>1867</v>
       </c>
       <c r="F22" s="30" t="b">
         <v>1</v>
@@ -61190,10 +61229,10 @@
         <v>1050</v>
       </c>
       <c r="R22" s="30" t="s">
+        <v>1871</v>
+      </c>
+      <c r="S22" s="76" t="s">
         <v>1872</v>
-      </c>
-      <c r="S22" s="76" t="s">
-        <v>1873</v>
       </c>
       <c r="U22" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61233,10 +61272,10 @@
         <v>6</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>1868</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>1869</v>
       </c>
       <c r="F23" s="30" t="b">
         <v>1</v>
@@ -61275,10 +61314,10 @@
         <v>1050</v>
       </c>
       <c r="R23" s="30" t="s">
+        <v>1873</v>
+      </c>
+      <c r="S23" s="76" t="s">
         <v>1874</v>
-      </c>
-      <c r="S23" s="76" t="s">
-        <v>1875</v>
       </c>
       <c r="U23" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61318,7 +61357,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>1961</v>
+        <v>1952</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>1048</v>
@@ -61360,10 +61399,10 @@
         <v>1050</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>1967</v>
+        <v>1958</v>
       </c>
       <c r="S24" s="30" t="s">
-        <v>1966</v>
+        <v>1957</v>
       </c>
       <c r="U24" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61403,7 +61442,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="76" t="s">
-        <v>1962</v>
+        <v>1953</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>1063</v>
@@ -61445,10 +61484,10 @@
         <v>1050</v>
       </c>
       <c r="R25" s="30" t="s">
-        <v>1968</v>
+        <v>1959</v>
       </c>
       <c r="S25" s="30" t="s">
-        <v>1969</v>
+        <v>1960</v>
       </c>
       <c r="U25" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61488,7 +61527,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="76" t="s">
-        <v>1963</v>
+        <v>1954</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>1048</v>
@@ -61530,10 +61569,10 @@
         <v>1050</v>
       </c>
       <c r="R26" s="30" t="s">
-        <v>1970</v>
+        <v>1961</v>
       </c>
       <c r="S26" s="30" t="s">
-        <v>1971</v>
+        <v>1962</v>
       </c>
       <c r="U26" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61573,7 +61612,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="76" t="s">
-        <v>1964</v>
+        <v>1955</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>1048</v>
@@ -61615,10 +61654,10 @@
         <v>1050</v>
       </c>
       <c r="R27" s="30" t="s">
-        <v>1972</v>
+        <v>1963</v>
       </c>
       <c r="S27" s="30" t="s">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="U27" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61658,7 +61697,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>1965</v>
+        <v>1956</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>1063</v>
@@ -61700,10 +61739,10 @@
         <v>1050</v>
       </c>
       <c r="R28" s="30" t="s">
-        <v>1974</v>
+        <v>1965</v>
       </c>
       <c r="S28" s="30" t="s">
-        <v>1975</v>
+        <v>1966</v>
       </c>
       <c r="U28" s="30" t="str">
         <f t="shared" si="2"/>
@@ -61743,11 +61782,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -61779,7 +61818,7 @@
         <v>1839</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="F1" s="75" t="s">
         <v>1840</v>
@@ -61794,7 +61833,7 @@
         <v>1843</v>
       </c>
       <c r="J1" s="95" t="s">
-        <v>1950</v>
+        <v>1941</v>
       </c>
       <c r="K1" s="110" t="s">
         <v>1844</v>
@@ -61803,7 +61842,7 @@
         <v>1845</v>
       </c>
       <c r="M1" s="75" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="N1" s="75" t="s">
         <v>1846</v>
@@ -61838,7 +61877,7 @@
         <v>1833</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>1834</v>
@@ -61853,7 +61892,7 @@
         <v>1037</v>
       </c>
       <c r="J2" s="96" t="s">
-        <v>1949</v>
+        <v>1940</v>
       </c>
       <c r="K2" s="111" t="s">
         <v>1033</v>
@@ -61862,7 +61901,7 @@
         <v>1034</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>1825</v>
@@ -61893,38 +61932,38 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="6">
         <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>1852</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>1937</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>1946</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>1860</v>
       </c>
-      <c r="I3" s="11">
+      <c r="J3" s="6">
         <v>200</v>
       </c>
-      <c r="J3" s="127">
+      <c r="K3" s="141">
         <v>2</v>
-      </c>
-      <c r="K3" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L3" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M3" s="15">
-        <v>1</v>
+      <c r="M3" s="97" t="s">
+        <v>1049</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
@@ -61944,9 +61983,12 @@
       <c r="S3" s="1">
         <v>1</v>
       </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
       <c r="U3" s="6" t="str">
-        <f>IF(AND(A3&lt;&gt;"",B3&lt;&gt;""),"&lt;Accessory ID="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Index="""&amp;C3&amp;""" Name="""&amp;D3&amp;""" Icon="""&amp;E3&amp;""" Prefab="""&amp;F3&amp;""" Region="""&amp;G3&amp;""" Purchase="""&amp;H3&amp;""" Price="""&amp;I3&amp;""" Exp="""&amp;J3&amp;""" StartTime="""&amp;K3&amp;""" EndTime="""&amp;L3&amp;""" Level="""&amp;M3&amp;""" PURPIE="""&amp;N3&amp;""" DONNY="""&amp;O3&amp;""" NINJI="""&amp;P3&amp;""" SANSA="""&amp;Q3&amp;""" YOYO="""&amp;R3&amp;""" NUO="""&amp;S3&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20001" Type="1" Index="4" Name="wizard hat" Icon="part_head_hat" Prefab="cap_point" Region="Dummy_head" Purchase="Coin" Price="200" Exp="2" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <f>IF(AND(A3&lt;&gt;"",B3&lt;&gt;""),"&lt;Accessory ID="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Index="""&amp;C3&amp;""" Name="""&amp;D3&amp;""" Icon="""&amp;E3&amp;""" AB="""&amp;F3&amp;""" Prefab="""&amp;G3&amp;""" Region="""&amp;H3&amp;""" Purchase="""&amp;I3&amp;""" Price="""&amp;J3&amp;""" Exp="""&amp;K3&amp;""" StartTime="""&amp;L3&amp;""" EndTime="""&amp;M3&amp;""" Level="""&amp;N3&amp;""" PURPIE="""&amp;O3&amp;""" DONNY="""&amp;P3&amp;""" NINJI="""&amp;Q3&amp;""" SANSA="""&amp;R3&amp;""" YOYO="""&amp;S3&amp;""" NUO="""&amp;T3&amp;""" /&gt;","")</f>
+        <v>&lt;Accessory ID="20001" Type="1" Index="4" Name="wizard hat" Icon="part_head_hat" AB="role/cap" Prefab="cap_point_prefab" Region="Dummy_head" Purchase="Coin" Price="200" Exp="2" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75">
@@ -61956,42 +61998,42 @@
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="6">
         <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>1853</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1938</v>
+        <v>2013</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>1945</v>
+        <v>2014</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>1860</v>
       </c>
-      <c r="I4" s="11">
+      <c r="J4" s="6">
         <v>500</v>
       </c>
-      <c r="J4" s="127">
+      <c r="K4" s="141">
         <v>18</v>
-      </c>
-      <c r="K4" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L4" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="97" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N4" s="1">
         <v>6</v>
       </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
@@ -62007,9 +62049,12 @@
       <c r="S4" s="1">
         <v>1</v>
       </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
       <c r="U4" s="6" t="str">
-        <f t="shared" ref="U4:U17" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" Prefab="""&amp;F4&amp;""" Region="""&amp;G4&amp;""" Purchase="""&amp;H4&amp;""" Price="""&amp;I4&amp;""" Exp="""&amp;J4&amp;""" StartTime="""&amp;K4&amp;""" EndTime="""&amp;L4&amp;""" Level="""&amp;M4&amp;""" PURPIE="""&amp;N4&amp;""" DONNY="""&amp;O4&amp;""" NINJI="""&amp;P4&amp;""" SANSA="""&amp;Q4&amp;""" YOYO="""&amp;R4&amp;""" NUO="""&amp;S4&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20002" Type="2" Index="5" Name="devil wing" Icon="part_wing_bat" Prefab="wing_point" Region="Dummy_wing" Purchase="Coin" Price="500" Exp="18" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <f t="shared" ref="U4:U17" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" AB="""&amp;F4&amp;""" Prefab="""&amp;G4&amp;""" Region="""&amp;H4&amp;""" Purchase="""&amp;I4&amp;""" Price="""&amp;J4&amp;""" Exp="""&amp;K4&amp;""" StartTime="""&amp;L4&amp;""" EndTime="""&amp;M4&amp;""" Level="""&amp;N4&amp;""" PURPIE="""&amp;O4&amp;""" DONNY="""&amp;P4&amp;""" NINJI="""&amp;Q4&amp;""" SANSA="""&amp;R4&amp;""" YOYO="""&amp;S4&amp;""" NUO="""&amp;T4&amp;""" /&gt;","")</f>
+        <v>&lt;Accessory ID="20002" Type="2" Index="5" Name="devil wing" Icon="part_wing_bat" AB="role/wing" Prefab="wing_point_prefab" Region="Dummy_wing" Purchase="Coin" Price="500" Exp="18" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75">
@@ -62019,38 +62064,38 @@
       <c r="B5" s="6">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="6">
         <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>1854</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1939</v>
+        <v>2015</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1947</v>
+        <v>2016</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>1860</v>
       </c>
-      <c r="I5" s="11">
+      <c r="J5" s="6">
         <v>2000</v>
       </c>
-      <c r="J5" s="127">
+      <c r="K5" s="141">
         <v>8</v>
-      </c>
-      <c r="K5" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L5" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M5" s="15">
-        <v>1</v>
+      <c r="M5" s="97" t="s">
+        <v>1049</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -62068,11 +62113,14 @@
         <v>1</v>
       </c>
       <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
         <v>1</v>
       </c>
       <c r="U5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20003" Type="5" Index="6" Name="ghost" Icon="elf_up_ghost" Prefab="ghost" Region="TopLeft" Purchase="Coin" Price="2000" Exp="8" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20003" Type="5" Index="6" Name="ghost" Icon="elf_up_ghost" AB="role/ghost" Prefab="ghost_prefab" Region="TopLeft" Purchase="Coin" Price="2000" Exp="8" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75">
@@ -62082,38 +62130,38 @@
       <c r="B6" s="6">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>1855</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1940</v>
+        <v>2017</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>1948</v>
+        <v>2018</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>1860</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="6">
         <v>800</v>
       </c>
-      <c r="J6" s="127">
+      <c r="K6" s="141">
         <v>3</v>
-      </c>
-      <c r="K6" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L6" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M6" s="15">
-        <v>1</v>
+      <c r="M6" s="97" t="s">
+        <v>1049</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -62131,11 +62179,14 @@
         <v>1</v>
       </c>
       <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
         <v>1</v>
       </c>
       <c r="U6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20004" Type="6" Index="1" Name="pumpkin" Icon="elf_down_pumpkin" Prefab="pumpkin" Region="BottomRight" Purchase="Coin" Price="800" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20004" Type="6" Index="1" Name="pumpkin" Icon="elf_down_pumpkin" AB="role/pumpkin" Prefab="pumpkin_prefab" Region="BottomRight" Purchase="Coin" Price="800" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75">
@@ -62145,38 +62196,38 @@
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="6">
         <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>1856</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1941</v>
+        <v>2019</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>1947</v>
+        <v>2020</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>2025</v>
-      </c>
-      <c r="I7" s="11">
+        <v>1938</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1860</v>
+      </c>
+      <c r="J7" s="6">
         <v>2500</v>
       </c>
-      <c r="J7" s="127">
+      <c r="K7" s="141">
         <v>19</v>
-      </c>
-      <c r="K7" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L7" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M7" s="15">
-        <v>1</v>
+      <c r="M7" s="97" t="s">
+        <v>1049</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -62194,11 +62245,14 @@
         <v>1</v>
       </c>
       <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
         <v>1</v>
       </c>
       <c r="U7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20005" Type="5" Index="7" Name="snow cloud" Icon="elf_up_cloud" Prefab="cloud_snow" Region="TopLeft" Purchase="Coin" Price="2500" Exp="19" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20005" Type="5" Index="7" Name="snow cloud" Icon="elf_up_cloud" AB="role/cloud_snow" Prefab="cloud_snow_prefab" Region="TopLeft" Purchase="Coin" Price="2500" Exp="19" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75">
@@ -62208,38 +62262,38 @@
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>1857</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1942</v>
+        <v>2021</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>1945</v>
+        <v>2022</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I8" s="11">
+        <v>1936</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>1860</v>
+      </c>
+      <c r="J8" s="6">
         <v>1200</v>
       </c>
-      <c r="J8" s="127">
+      <c r="K8" s="141">
         <v>10</v>
-      </c>
-      <c r="K8" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L8" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M8" s="15">
-        <v>1</v>
+      <c r="M8" s="97" t="s">
+        <v>1049</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
@@ -62257,11 +62311,14 @@
         <v>1</v>
       </c>
       <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
         <v>1</v>
       </c>
       <c r="U8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20006" Type="2" Index="6" Name="snow wing" Icon="part_wing_snow" Prefab="wing_snow" Region="Dummy_wing" Purchase="Coin" Price="1200" Exp="10" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20006" Type="2" Index="6" Name="snow wing" Icon="part_wing_snow" AB="role/wing_snow" Prefab="wing_snow_prefab" Region="Dummy_wing" Purchase="Coin" Price="1200" Exp="10" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75">
@@ -62271,38 +62328,38 @@
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>1858</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1944</v>
+        <v>2023</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1946</v>
+        <v>2024</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I9" s="11">
+        <v>1937</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>1860</v>
+      </c>
+      <c r="J9" s="6">
         <v>1800</v>
       </c>
-      <c r="J9" s="127">
+      <c r="K9" s="141">
         <v>20</v>
-      </c>
-      <c r="K9" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L9" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M9" s="15">
-        <v>1</v>
+      <c r="M9" s="97" t="s">
+        <v>1049</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -62320,11 +62377,14 @@
         <v>1</v>
       </c>
       <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
         <v>1</v>
       </c>
       <c r="U9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20007" Type="1" Index="3" Name="cornu cervi" Icon="part_head_antler" Prefab="cornu cervi_point" Region="Dummy_head" Purchase="Coin" Price="1800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20007" Type="1" Index="3" Name="cornu cervi" Icon="part_head_antler" AB="role/cornu cervi" Prefab="cornu cervi_point_prefab" Region="Dummy_head" Purchase="Coin" Price="1800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75">
@@ -62334,42 +62394,42 @@
       <c r="B10" s="6">
         <v>6</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="6">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>1859</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1943</v>
+        <v>2025</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>1948</v>
+        <v>2026</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="I10" s="11">
+        <v>1939</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>1860</v>
+      </c>
+      <c r="J10" s="6">
         <v>1000</v>
       </c>
-      <c r="J10" s="127">
+      <c r="K10" s="141">
         <v>5</v>
-      </c>
-      <c r="K10" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L10" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="97" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N10" s="1">
         <v>10</v>
       </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
       <c r="O10" s="1">
         <v>1</v>
       </c>
@@ -62383,11 +62443,14 @@
         <v>1</v>
       </c>
       <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
         <v>1</v>
       </c>
       <c r="U10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20008" Type="6" Index="8" Name="snowman" Icon="elf_down_snowman" Prefab="snowman" Region="BottomRight" Purchase="Coin" Price="1000" Exp="5" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20008" Type="6" Index="8" Name="snowman" Icon="elf_down_snowman" AB="role/snowman" Prefab="snowman_prefab" Region="BottomRight" Purchase="Coin" Price="1000" Exp="5" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75">
@@ -62397,38 +62460,38 @@
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1995</v>
+        <v>1983</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1998</v>
+        <v>1986</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1994</v>
+        <v>2027</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>1946</v>
+        <v>2028</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>1937</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>1860</v>
       </c>
-      <c r="I11" s="11">
+      <c r="J11" s="6">
         <v>300</v>
       </c>
-      <c r="J11" s="128">
+      <c r="K11" s="142">
         <v>20</v>
-      </c>
-      <c r="K11" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L11" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M11" s="15">
-        <v>1</v>
+      <c r="M11" s="97" t="s">
+        <v>1049</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
@@ -62446,11 +62509,14 @@
         <v>1</v>
       </c>
       <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
         <v>1</v>
       </c>
       <c r="U11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20009" Type="1" Index="1" Name="antler ponit" Icon="part_head_antler02" Prefab="antler_ponit" Region="Dummy_head" Purchase="Coin" Price="300" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20009" Type="1" Index="1" Name="antler ponit" Icon="part_head_antler02" AB="role/antler" Prefab="antler_ponit_prefab" Region="Dummy_head" Purchase="Coin" Price="300" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75">
@@ -62460,38 +62526,38 @@
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1996</v>
+        <v>1984</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1999</v>
+        <v>1987</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1990</v>
+        <v>2029</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>1946</v>
+        <v>2030</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>1937</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>1860</v>
       </c>
-      <c r="I12" s="11">
+      <c r="J12" s="6">
         <v>800</v>
       </c>
-      <c r="J12" s="128">
+      <c r="K12" s="142">
         <v>20</v>
-      </c>
-      <c r="K12" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L12" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M12" s="15">
-        <v>1</v>
+      <c r="M12" s="97" t="s">
+        <v>1049</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -62509,11 +62575,14 @@
         <v>1</v>
       </c>
       <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
         <v>1</v>
       </c>
       <c r="U12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20010" Type="1" Index="2" Name="christmas hat" Icon="part_head_merryhat" Prefab="christmas hat_point" Region="Dummy_head" Purchase="Coin" Price="800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20010" Type="1" Index="2" Name="christmas hat" Icon="part_head_merryhat" AB="role/christmas hat" Prefab="christmas hat_point_prefab" Region="Dummy_head" Purchase="Coin" Price="800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75">
@@ -62523,44 +62592,44 @@
       <c r="B13" s="6">
         <v>4</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1997</v>
+        <v>1985</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1991</v>
+        <v>2031</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>2009</v>
+        <v>2032</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>1995</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>1860</v>
       </c>
-      <c r="I13" s="11">
+      <c r="J13" s="6">
         <v>2500</v>
       </c>
-      <c r="J13" s="128">
+      <c r="K13" s="142">
         <v>20</v>
-      </c>
-      <c r="K13" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L13" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="97" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N13" s="1">
         <v>10</v>
       </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="1">
         <v>0</v>
@@ -62574,9 +62643,12 @@
       <c r="S13" s="1">
         <v>0</v>
       </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
       <c r="U13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20011" Type="4" Index="1" Name="christmas point" Icon="suit_pur_merry" Prefab="christmas_point" Region="Dummy_taozhuang" Purchase="Coin" Price="2500" Exp="20" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="0" NINJI="0" SANSA="0" YOYO="0" NUO="0" /&gt;</v>
+        <v>&lt;Accessory ID="20011" Type="4" Index="1" Name="christmas point" Icon="suit_pur_merry" AB="role/christmas" Prefab="christmas_point_prefab" Region="Dummy_taozhuang" Purchase="Coin" Price="2500" Exp="20" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="0" NINJI="0" SANSA="0" YOYO="0" NUO="0" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75">
@@ -62586,38 +62658,38 @@
       <c r="B14" s="6">
         <v>6</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <v>4</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1992</v>
+        <v>1981</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1992</v>
+        <v>2033</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1948</v>
+        <v>2034</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>1860</v>
       </c>
-      <c r="I14" s="11">
+      <c r="J14" s="6">
         <v>1500</v>
       </c>
-      <c r="J14" s="128">
+      <c r="K14" s="142">
         <v>20</v>
-      </c>
-      <c r="K14" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L14" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M14" s="15">
-        <v>1</v>
+      <c r="M14" s="97" t="s">
+        <v>1049</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
@@ -62635,11 +62707,14 @@
         <v>1</v>
       </c>
       <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
         <v>1</v>
       </c>
       <c r="U14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20012" Type="6" Index="4" Name="elk" Icon="elf_down_deer" Prefab="elk" Region="BottomRight" Purchase="Coin" Price="1500" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20012" Type="6" Index="4" Name="elk" Icon="elf_down_deer" AB="role/elk" Prefab="elk_A_prefab" Region="BottomRight" Purchase="Coin" Price="1500" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75">
@@ -62649,38 +62724,38 @@
       <c r="B15" s="6">
         <v>6</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="6">
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2008</v>
+        <v>1994</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>2006</v>
+        <v>2033</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>1948</v>
+        <v>2035</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>2024</v>
-      </c>
-      <c r="I15" s="11">
+        <v>1939</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>2010</v>
+      </c>
+      <c r="J15" s="6">
         <v>1.99</v>
       </c>
-      <c r="J15" s="128">
+      <c r="K15" s="142">
         <v>20</v>
-      </c>
-      <c r="K15" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L15" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M15" s="15">
-        <v>1</v>
+      <c r="M15" s="97" t="s">
+        <v>1049</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
@@ -62698,11 +62773,14 @@
         <v>1</v>
       </c>
       <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
         <v>1</v>
       </c>
       <c r="U15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20013" Type="6" Index="5" Name="elk02" Icon="elf_down_deer02" Prefab="elk_A" Region="BottomRight" Purchase="Cash" Price="1.99" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20013" Type="6" Index="5" Name="elk02" Icon="elf_down_deer02" AB="role/elk" Prefab="elk_B_prefab" Region="BottomRight" Purchase="Cash" Price="1.99" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75">
@@ -62712,38 +62790,38 @@
       <c r="B16" s="6">
         <v>5</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="6">
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1993</v>
+        <v>1982</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1993</v>
+        <v>2036</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>1947</v>
+        <v>2037</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>1860</v>
       </c>
-      <c r="I16" s="11">
+      <c r="J16" s="6">
         <v>1000</v>
       </c>
-      <c r="J16" s="128">
+      <c r="K16" s="142">
         <v>20</v>
-      </c>
-      <c r="K16" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L16" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M16" s="15">
-        <v>1</v>
+      <c r="M16" s="97" t="s">
+        <v>1049</v>
       </c>
       <c r="N16" s="1">
         <v>1</v>
@@ -62761,11 +62839,14 @@
         <v>1</v>
       </c>
       <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
         <v>1</v>
       </c>
       <c r="U16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20014" Type="5" Index="2" Name="giftbox" Icon="elf_up_gift" Prefab="giftbox" Region="TopLeft" Purchase="Coin" Price="1000" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20014" Type="5" Index="2" Name="giftbox" Icon="elf_up_gift" AB="role/giftbox" Prefab="giftbox_prefab" Region="TopLeft" Purchase="Coin" Price="1000" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75">
@@ -62775,38 +62856,38 @@
       <c r="B17" s="6">
         <v>5</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="6">
         <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>2004</v>
+        <v>2036</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1947</v>
+        <v>2038</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>1860</v>
       </c>
-      <c r="I17" s="11">
+      <c r="J17" s="6">
         <v>1800</v>
       </c>
-      <c r="J17" s="128">
+      <c r="K17" s="142">
         <v>20</v>
-      </c>
-      <c r="K17" s="97" t="s">
-        <v>1049</v>
       </c>
       <c r="L17" s="97" t="s">
         <v>1049</v>
       </c>
-      <c r="M17" s="15">
-        <v>1</v>
+      <c r="M17" s="97" t="s">
+        <v>1049</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
@@ -62824,18 +62905,21 @@
         <v>1</v>
       </c>
       <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
         <v>1</v>
       </c>
       <c r="U17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Accessory ID="20015" Type="5" Index="3" Name="giftbox02" Icon="elf_up_gift02" Prefab="giftbox_A" Region="TopLeft" Purchase="Coin" Price="1800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20015" Type="5" Index="3" Name="giftbox02" Icon="elf_up_gift02" AB="role/giftbox" Prefab="giftbox_A_prefab" Region="TopLeft" Purchase="Coin" Price="1800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S17" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G2 G18:G1048576 H3:H17" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Dummy_head,Dummy_wing,Host"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA98CCE-5C95-4D76-943F-77046D4D8400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B75BC7-79E2-4841-9CDB-52A6F21B7F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="454" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -58,6 +58,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">配饰类型：
@@ -80,6 +81,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1.Dummy_head 头部挂点
@@ -108,6 +110,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">GaoBo:
@@ -117,6 +120,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1.coinDL coinDownLimit
@@ -143,6 +147,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Value：道具的数量</t>
@@ -6741,12 +6746,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7212,7 +7219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7679,11 +7686,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="111">
     <dxf>
@@ -8783,9 +8793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -63194,7 +63204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -63367,8 +63377,8 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
-        <v>4</v>
+      <c r="C3" s="19">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>806</v>
@@ -63425,7 +63435,7 @@
       <c r="U3" s="86"/>
       <c r="V3" s="13" t="str">
         <f>IF(AND(A3&lt;&gt;"",B3&lt;&gt;""),"&lt;Accessory ID="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Index="""&amp;C3&amp;""" Name="""&amp;D3&amp;""" Icon="""&amp;E3&amp;""" AB="""&amp;F3&amp;""" Prefab="""&amp;G3&amp;""" Region="""&amp;H3&amp;""" Purchase="""&amp;I3&amp;""" Price="""&amp;J3&amp;""" Exp="""&amp;K3&amp;""" StartTime="""&amp;TEXT(L3,"yyyy-MM-dd HH:mm")&amp;""" EndTime="""&amp;TEXT(M3,"yyyy-MM-dd HH:mm")&amp;""" Level="""&amp;N3&amp;""" PURPIE="""&amp;O3&amp;""" DONNY="""&amp;P3&amp;""" NINJI="""&amp;Q3&amp;""" SANSA="""&amp;R3&amp;""" YOYO="""&amp;S3&amp;""" NUO="""&amp;T3&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20001" Type="1" Index="4" Name="wizard hat" Icon="part_head_hat" AB="role/cap" Prefab="cap_point_prefab" Region="Dummy_head" Purchase="Coin" Price="200" Exp="2" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20001" Type="1" Index="8" Name="wizard hat" Icon="part_head_hat" AB="role/cap" Prefab="cap_point_prefab" Region="Dummy_head" Purchase="Coin" Price="200" Exp="2" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W3" s="13" t="str">
         <f>"var/vault_apk_res/Model/"&amp;F3&amp;".ab"</f>
@@ -63439,8 +63449,8 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
-        <v>5</v>
+      <c r="C4" s="19">
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>810</v>
@@ -63497,7 +63507,7 @@
       <c r="U4" s="86"/>
       <c r="V4" s="13" t="str">
         <f t="shared" ref="V4:V27" si="1">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" AB="""&amp;F4&amp;""" Prefab="""&amp;G4&amp;""" Region="""&amp;H4&amp;""" Purchase="""&amp;I4&amp;""" Price="""&amp;J4&amp;""" Exp="""&amp;K4&amp;""" StartTime="""&amp;TEXT(L4,"yyyy-MM-dd HH:mm")&amp;""" EndTime="""&amp;TEXT(M4,"yyyy-MM-dd HH:mm")&amp;""" Level="""&amp;N4&amp;""" PURPIE="""&amp;O4&amp;""" DONNY="""&amp;P4&amp;""" NINJI="""&amp;Q4&amp;""" SANSA="""&amp;R4&amp;""" YOYO="""&amp;S4&amp;""" NUO="""&amp;T4&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20002" Type="2" Index="5" Name="devil wing" Icon="part_wing_bat" AB="role/wing" Prefab="wing_point_prefab" Region="Dummy_wing" Purchase="Coin" Price="500" Exp="18" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20002" Type="2" Index="9" Name="devil wing" Icon="part_wing_bat" AB="role/wing" Prefab="wing_point_prefab" Region="Dummy_wing" Purchase="Coin" Price="500" Exp="18" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W4" s="13" t="str">
         <f t="shared" ref="W4:W27" si="2">"var/vault_apk_res/Model/"&amp;F4&amp;".ab"</f>
@@ -63511,8 +63521,8 @@
       <c r="B5" s="11">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
-        <v>6</v>
+      <c r="C5" s="19">
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>814</v>
@@ -63569,7 +63579,7 @@
       <c r="U5" s="86"/>
       <c r="V5" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20003" Type="5" Index="6" Name="ghost" Icon="elf_up_ghost" AB="role/ghost" Prefab="ghost_prefab" Region="TopLeft" Purchase="Coin" Price="2000" Exp="8" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20003" Type="5" Index="15" Name="ghost" Icon="elf_up_ghost" AB="role/ghost" Prefab="ghost_prefab" Region="TopLeft" Purchase="Coin" Price="2000" Exp="8" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W5" s="13" t="str">
         <f t="shared" si="2"/>
@@ -63583,8 +63593,8 @@
       <c r="B6" s="11">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
-        <v>1</v>
+      <c r="C6" s="19">
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>818</v>
@@ -63641,7 +63651,7 @@
       <c r="U6" s="86"/>
       <c r="V6" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20004" Type="6" Index="1" Name="pumpkin" Icon="elf_down_pumpkin" AB="role/pumpkin" Prefab="pumpkin_prefab" Region="BottomRight" Purchase="Coin" Price="800" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20004" Type="6" Index="14" Name="pumpkin" Icon="elf_down_pumpkin" AB="role/pumpkin" Prefab="pumpkin_prefab" Region="BottomRight" Purchase="Coin" Price="800" Exp="3" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W6" s="13" t="str">
         <f t="shared" si="2"/>
@@ -63655,8 +63665,8 @@
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
-        <v>7</v>
+      <c r="C7" s="19">
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>822</v>
@@ -63713,7 +63723,7 @@
       <c r="U7" s="86"/>
       <c r="V7" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20005" Type="5" Index="7" Name="snow cloud" Icon="elf_up_cloud" AB="role/cloud_snow" Prefab="cloud_snow_prefab" Region="TopLeft" Purchase="Coin" Price="2500" Exp="19" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20005" Type="5" Index="10" Name="snow cloud" Icon="elf_up_cloud" AB="role/cloud_snow" Prefab="cloud_snow_prefab" Region="TopLeft" Purchase="Coin" Price="2500" Exp="19" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W7" s="13" t="str">
         <f t="shared" si="2"/>
@@ -63727,7 +63737,7 @@
       <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="19">
         <v>6</v>
       </c>
       <c r="D8" t="s">
@@ -63799,8 +63809,8 @@
       <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="11">
-        <v>3</v>
+      <c r="C9" s="19">
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>830</v>
@@ -63857,7 +63867,7 @@
       <c r="U9" s="86"/>
       <c r="V9" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20007" Type="1" Index="3" Name="cornu cervi" Icon="part_head_antler" AB="role/cornu cervi" Prefab="cornu cervi_point_prefab" Region="Dummy_head" Purchase="Coin" Price="1800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20007" Type="1" Index="7" Name="cornu cervi" Icon="part_head_antler" AB="role/cornu cervi" Prefab="cornu cervi_point_prefab" Region="Dummy_head" Purchase="Coin" Price="1800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W9" s="13" t="str">
         <f t="shared" si="2"/>
@@ -63871,8 +63881,8 @@
       <c r="B10" s="11">
         <v>6</v>
       </c>
-      <c r="C10" s="11">
-        <v>8</v>
+      <c r="C10" s="19">
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>834</v>
@@ -63929,7 +63939,7 @@
       <c r="U10" s="86"/>
       <c r="V10" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20008" Type="6" Index="8" Name="snowman" Icon="elf_down_snowman" AB="role/snowman" Prefab="snowman_prefab" Region="BottomRight" Purchase="Coin" Price="1000" Exp="5" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20008" Type="6" Index="13" Name="snowman" Icon="elf_down_snowman" AB="role/snowman" Prefab="snowman_prefab" Region="BottomRight" Purchase="Coin" Price="1000" Exp="5" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W10" s="13" t="str">
         <f t="shared" si="2"/>
@@ -63943,8 +63953,8 @@
       <c r="B11" s="11">
         <v>1</v>
       </c>
-      <c r="C11" s="11">
-        <v>1</v>
+      <c r="C11" s="19">
+        <v>4</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>838</v>
@@ -64001,7 +64011,7 @@
       <c r="U11" s="86"/>
       <c r="V11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20009" Type="1" Index="1" Name="antler ponit" Icon="part_head_antler02" AB="role/antler" Prefab="antler_ponit_prefab" Region="Dummy_head" Purchase="Coin" Price="300" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20009" Type="1" Index="4" Name="antler ponit" Icon="part_head_antler02" AB="role/antler" Prefab="antler_ponit_prefab" Region="Dummy_head" Purchase="Coin" Price="300" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W11" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64015,8 +64025,8 @@
       <c r="B12" s="11">
         <v>1</v>
       </c>
-      <c r="C12" s="11">
-        <v>2</v>
+      <c r="C12" s="19">
+        <v>5</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>842</v>
@@ -64073,7 +64083,7 @@
       <c r="U12" s="86"/>
       <c r="V12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20010" Type="1" Index="2" Name="christmas hat" Icon="part_head_merryhat" AB="role/christmas hat" Prefab="christmas hat_point_prefab" Region="Dummy_head" Purchase="Coin" Price="800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20010" Type="1" Index="5" Name="christmas hat" Icon="part_head_merryhat" AB="role/christmas hat" Prefab="christmas hat_point_prefab" Region="Dummy_head" Purchase="Coin" Price="800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W12" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64087,8 +64097,8 @@
       <c r="B13" s="11">
         <v>4</v>
       </c>
-      <c r="C13" s="11">
-        <v>1</v>
+      <c r="C13" s="19">
+        <v>2</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>846</v>
@@ -64145,7 +64155,7 @@
       <c r="U13" s="86"/>
       <c r="V13" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20011" Type="4" Index="1" Name="christmas point" Icon="suit_pur_merry" AB="role/christmas" Prefab="christmas_point_prefab" Region="Dummy_taozhuang" Purchase="Coin" Price="2500" Exp="20" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="0" NINJI="0" SANSA="0" YOYO="0" NUO="0" /&gt;</v>
+        <v>&lt;Accessory ID="20011" Type="4" Index="2" Name="christmas point" Icon="suit_pur_merry" AB="role/christmas" Prefab="christmas_point_prefab" Region="Dummy_taozhuang" Purchase="Coin" Price="2500" Exp="20" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="0" NINJI="0" SANSA="0" YOYO="0" NUO="0" /&gt;</v>
       </c>
       <c r="W13" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64159,8 +64169,8 @@
       <c r="B14" s="11">
         <v>6</v>
       </c>
-      <c r="C14" s="11">
-        <v>4</v>
+      <c r="C14" s="19">
+        <v>8</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>850</v>
@@ -64217,7 +64227,7 @@
       <c r="U14" s="86"/>
       <c r="V14" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20012" Type="6" Index="4" Name="elk" Icon="elf_down_deer" AB="role/elk" Prefab="elk_A_prefab" Region="BottomRight" Purchase="Coin" Price="1500" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20012" Type="6" Index="8" Name="elk" Icon="elf_down_deer" AB="role/elk" Prefab="elk_A_prefab" Region="BottomRight" Purchase="Coin" Price="1500" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W14" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64231,8 +64241,8 @@
       <c r="B15" s="11">
         <v>6</v>
       </c>
-      <c r="C15" s="11">
-        <v>5</v>
+      <c r="C15" s="19">
+        <v>9</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>854</v>
@@ -64289,7 +64299,7 @@
       <c r="U15" s="86"/>
       <c r="V15" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20013" Type="6" Index="5" Name="elk02" Icon="elf_down_deer02" AB="role/elk" Prefab="elk_B_prefab" Region="BottomRight" Purchase="Cash" Price="1.99" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20013" Type="6" Index="9" Name="elk02" Icon="elf_down_deer02" AB="role/elk" Prefab="elk_B_prefab" Region="BottomRight" Purchase="Cash" Price="1.99" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W15" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64303,8 +64313,8 @@
       <c r="B16" s="11">
         <v>5</v>
       </c>
-      <c r="C16" s="11">
-        <v>2</v>
+      <c r="C16" s="19">
+        <v>11</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>858</v>
@@ -64361,7 +64371,7 @@
       <c r="U16" s="86"/>
       <c r="V16" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20014" Type="5" Index="2" Name="giftbox" Icon="elf_up_gift" AB="role/giftbox" Prefab="giftbox_prefab" Region="TopLeft" Purchase="Coin" Price="1000" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20014" Type="5" Index="11" Name="giftbox" Icon="elf_up_gift" AB="role/giftbox" Prefab="giftbox_prefab" Region="TopLeft" Purchase="Coin" Price="1000" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W16" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64375,8 +64385,8 @@
       <c r="B17" s="11">
         <v>5</v>
       </c>
-      <c r="C17" s="11">
-        <v>3</v>
+      <c r="C17" s="19">
+        <v>12</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>862</v>
@@ -64433,7 +64443,7 @@
       <c r="U17" s="86"/>
       <c r="V17" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20015" Type="5" Index="3" Name="giftbox02" Icon="elf_up_gift02" AB="role/giftbox" Prefab="giftbox_A_prefab" Region="TopLeft" Purchase="Coin" Price="1800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20015" Type="5" Index="12" Name="giftbox02" Icon="elf_up_gift02" AB="role/giftbox" Prefab="giftbox_A_prefab" Region="TopLeft" Purchase="Coin" Price="1800" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W17" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64447,8 +64457,8 @@
       <c r="B18" s="79">
         <v>1</v>
       </c>
-      <c r="C18" s="79">
-        <v>5</v>
+      <c r="C18" s="170">
+        <v>3</v>
       </c>
       <c r="D18" s="80" t="s">
         <v>865</v>
@@ -64505,7 +64515,7 @@
       <c r="U18" s="87"/>
       <c r="V18" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20016" Type="1" Index="5" Name="part_head" Icon="part_head_hat02" AB="role/cap" Prefab="cap_pointA_prefab" Region="Dummy_head" Purchase="Coin" Price="300" Exp="5" StartTime="2020-01-24 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20016" Type="1" Index="3" Name="part_head" Icon="part_head_hat02" AB="role/cap" Prefab="cap_pointA_prefab" Region="Dummy_head" Purchase="Coin" Price="300" Exp="5" StartTime="2020-01-24 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W18" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64519,8 +64529,8 @@
       <c r="B19" s="79">
         <v>1</v>
       </c>
-      <c r="C19" s="79">
-        <v>7</v>
+      <c r="C19" s="170">
+        <v>1</v>
       </c>
       <c r="D19" s="75" t="s">
         <v>868</v>
@@ -64577,7 +64587,7 @@
       <c r="U19" s="88"/>
       <c r="V19" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20017" Type="1" Index="7" Name="coin hat" Icon="part_head_coinhat" AB="role/coin hat" Prefab="coin hat_point_prefab" Region="Dummy_head" Purchase="Coin" Price="900" Exp="25" StartTime="2020-01-23 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20017" Type="1" Index="1" Name="coin hat" Icon="part_head_coinhat" AB="role/coin hat" Prefab="coin hat_point_prefab" Region="Dummy_head" Purchase="Coin" Price="900" Exp="25" StartTime="2020-01-23 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W19" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64591,8 +64601,8 @@
       <c r="B20" s="79">
         <v>2</v>
       </c>
-      <c r="C20" s="79">
-        <v>8</v>
+      <c r="C20" s="170">
+        <v>2</v>
       </c>
       <c r="D20" s="75" t="s">
         <v>872</v>
@@ -64649,7 +64659,7 @@
       <c r="U20" s="88"/>
       <c r="V20" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20018" Type="2" Index="8" Name="fan wing" Icon="part_wing_fan" AB="role/fan wing" Prefab="fan wing_point_prefab" Region="Dummy_wing" Purchase="Coin" Price="1000" Exp="30" StartTime="2020-01-25 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20018" Type="2" Index="2" Name="fan wing" Icon="part_wing_fan" AB="role/fan wing" Prefab="fan wing_point_prefab" Region="Dummy_wing" Purchase="Coin" Price="1000" Exp="30" StartTime="2020-01-25 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W20" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64663,8 +64673,8 @@
       <c r="B21" s="79">
         <v>4</v>
       </c>
-      <c r="C21" s="79">
-        <v>2</v>
+      <c r="C21" s="170">
+        <v>1</v>
       </c>
       <c r="D21" s="75" t="s">
         <v>876</v>
@@ -64721,7 +64731,7 @@
       <c r="U21" s="88"/>
       <c r="V21" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20019" Type="4" Index="2" Name="mouse spring" Icon="suit_yoyo_mousespring" AB="role/mouse spring" Prefab="mouse spring_prefab" Region="Dummy_taozhuang" Purchase="Coin" Price="200" Exp="34" StartTime="2020-01-23 18:00" EndTime="null" Level="1" PURPIE="0" DONNY="0" NINJI="0" SANSA="0" YOYO="1" NUO="0" /&gt;</v>
+        <v>&lt;Accessory ID="20019" Type="4" Index="1" Name="mouse spring" Icon="suit_yoyo_mousespring" AB="role/mouse spring" Prefab="mouse spring_prefab" Region="Dummy_taozhuang" Purchase="Coin" Price="200" Exp="34" StartTime="2020-01-23 18:00" EndTime="null" Level="1" PURPIE="0" DONNY="0" NINJI="0" SANSA="0" YOYO="1" NUO="0" /&gt;</v>
       </c>
       <c r="W21" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64735,8 +64745,8 @@
       <c r="B22" s="79">
         <v>5</v>
       </c>
-      <c r="C22" s="79">
-        <v>9</v>
+      <c r="C22" s="170">
+        <v>1</v>
       </c>
       <c r="D22" s="75" t="s">
         <v>879</v>
@@ -64764,7 +64774,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="121">
-        <v>43854.75</v>
+        <v>43853.75</v>
       </c>
       <c r="M22" s="122" t="s">
         <v>659</v>
@@ -64793,7 +64803,7 @@
       <c r="U22" s="88"/>
       <c r="V22" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20020" Type="5" Index="9" Name="cloud02" Icon="elf_up_cloud02" AB="role/cloud_snow" Prefab="cloud_snowA_prefab" Region="TopLeft" Purchase="Coin" Price="2500" Exp="20" StartTime="2020-01-24 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20020" Type="5" Index="1" Name="cloud02" Icon="elf_up_cloud02" AB="role/cloud_snow" Prefab="cloud_snowA_prefab" Region="TopLeft" Purchase="Coin" Price="2500" Exp="20" StartTime="2020-01-23 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W22" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64807,8 +64817,8 @@
       <c r="B23" s="79">
         <v>6</v>
       </c>
-      <c r="C23" s="79">
-        <v>10</v>
+      <c r="C23" s="170">
+        <v>2</v>
       </c>
       <c r="D23" s="75" t="s">
         <v>882</v>
@@ -64836,7 +64846,7 @@
         <v>10</v>
       </c>
       <c r="L23" s="121">
-        <v>43853.75</v>
+        <v>43854.75</v>
       </c>
       <c r="M23" s="122" t="s">
         <v>659</v>
@@ -64865,7 +64875,7 @@
       <c r="U23" s="88"/>
       <c r="V23" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20021" Type="6" Index="10" Name="snowman02" Icon="elf_down_snowman02" AB="role/snowman" Prefab="snowmanB_prefab" Region="BottomRight" Purchase="Coin" Price="1200" Exp="10" StartTime="2020-01-23 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20021" Type="6" Index="2" Name="snowman02" Icon="elf_down_snowman02" AB="role/snowman" Prefab="snowmanB_prefab" Region="BottomRight" Purchase="Coin" Price="1200" Exp="10" StartTime="2020-01-24 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W23" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64879,8 +64889,8 @@
       <c r="B24" s="79">
         <v>6</v>
       </c>
-      <c r="C24" s="79">
-        <v>11</v>
+      <c r="C24" s="170">
+        <v>3</v>
       </c>
       <c r="D24" s="75" t="s">
         <v>885</v>
@@ -64937,7 +64947,7 @@
       <c r="U24" s="88"/>
       <c r="V24" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20022" Type="6" Index="11" Name="snowman03" Icon="elf_down_snowman03" AB="role/snowman" Prefab="snowmanA_prefab" Region="BottomRight" Purchase="Coin" Price="1200" Exp="10" StartTime="2020-01-26 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20022" Type="6" Index="3" Name="snowman03" Icon="elf_down_snowman03" AB="role/snowman" Prefab="snowmanA_prefab" Region="BottomRight" Purchase="Coin" Price="1200" Exp="10" StartTime="2020-01-26 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W24" s="13" t="str">
         <f t="shared" si="2"/>
@@ -64951,8 +64961,8 @@
       <c r="B25" s="79">
         <v>6</v>
       </c>
-      <c r="C25" s="79">
-        <v>12</v>
+      <c r="C25" s="170">
+        <v>4</v>
       </c>
       <c r="D25" s="75" t="s">
         <v>888</v>
@@ -65009,7 +65019,7 @@
       <c r="U25" s="88"/>
       <c r="V25" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20023" Type="6" Index="12" Name="minions" Icon="elf_down_minions" AB="role/elk" Prefab="elk_C_prefab" Region="BottomRight" Purchase="Coin" Price="1700" Exp="15" StartTime="2020-01-27 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20023" Type="6" Index="4" Name="minions" Icon="elf_down_minions" AB="role/elk" Prefab="elk_C_prefab" Region="BottomRight" Purchase="Coin" Price="1700" Exp="15" StartTime="2020-01-27 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W25" s="13" t="str">
         <f t="shared" si="2"/>
@@ -65023,8 +65033,8 @@
       <c r="B26" s="79">
         <v>6</v>
       </c>
-      <c r="C26" s="79">
-        <v>13</v>
+      <c r="C26" s="170">
+        <v>5</v>
       </c>
       <c r="D26" s="75" t="s">
         <v>891</v>
@@ -65081,7 +65091,7 @@
       <c r="U26" s="88"/>
       <c r="V26" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20024" Type="6" Index="13" Name="Batman" Icon="elf_down_Batman" AB="role/elk" Prefab="elk_D_prefab" Region="BottomRight" Purchase="Coin" Price="1700" Exp="15" StartTime="2020-01-28 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20024" Type="6" Index="5" Name="Batman" Icon="elf_down_Batman" AB="role/elk" Prefab="elk_D_prefab" Region="BottomRight" Purchase="Coin" Price="1700" Exp="15" StartTime="2020-01-28 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W26" s="13" t="str">
         <f t="shared" si="2"/>
@@ -65095,8 +65105,8 @@
       <c r="B27" s="79">
         <v>6</v>
       </c>
-      <c r="C27" s="79">
-        <v>14</v>
+      <c r="C27" s="170">
+        <v>6</v>
       </c>
       <c r="D27" s="75" t="s">
         <v>894</v>
@@ -65153,7 +65163,7 @@
       <c r="U27" s="88"/>
       <c r="V27" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Accessory ID="20025" Type="6" Index="14" Name="little mouse" Icon="elf_down_lmouse" AB="role/little mouse" Prefab="little mouse_prefab" Region="BottomRight" Purchase="Cash" Price="1.99" Exp="30" StartTime="2020-01-29 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20025" Type="6" Index="6" Name="little mouse" Icon="elf_down_lmouse" AB="role/little mouse" Prefab="little mouse_prefab" Region="BottomRight" Purchase="Cash" Price="1.99" Exp="30" StartTime="2020-01-29 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W27" s="13" t="str">
         <f t="shared" si="2"/>
@@ -65167,8 +65177,8 @@
       <c r="B28" s="11">
         <v>6</v>
       </c>
-      <c r="C28" s="11">
-        <v>15</v>
+      <c r="C28" s="19">
+        <v>7</v>
       </c>
       <c r="D28" s="154" t="s">
         <v>2115</v>
@@ -65225,7 +65235,7 @@
       <c r="U28" s="88"/>
       <c r="V28" s="13" t="str">
         <f t="shared" ref="V28" si="3">IF(AND(A28&lt;&gt;"",B28&lt;&gt;""),"&lt;Accessory ID="""&amp;A28&amp;""" Type="""&amp;B28&amp;""" Index="""&amp;C28&amp;""" Name="""&amp;D28&amp;""" Icon="""&amp;E28&amp;""" AB="""&amp;F28&amp;""" Prefab="""&amp;G28&amp;""" Region="""&amp;H28&amp;""" Purchase="""&amp;I28&amp;""" Price="""&amp;J28&amp;""" Exp="""&amp;K28&amp;""" StartTime="""&amp;TEXT(L28,"yyyy-MM-dd HH:mm")&amp;""" EndTime="""&amp;TEXT(M28,"yyyy-MM-dd HH:mm")&amp;""" Level="""&amp;N28&amp;""" PURPIE="""&amp;O28&amp;""" DONNY="""&amp;P28&amp;""" NINJI="""&amp;Q28&amp;""" SANSA="""&amp;R28&amp;""" YOYO="""&amp;S28&amp;""" NUO="""&amp;T28&amp;""" /&gt;","")</f>
-        <v>&lt;Accessory ID="20026" Type="6" Index="15" Name="papercut mice" Icon="elf_down_papercut_mice" AB="role/papercut mice" Prefab="papercut mice_prefab" Region="BottomRight" Purchase="Coin" Price="1500" Exp="15" StartTime="2020-01-29 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+        <v>&lt;Accessory ID="20026" Type="6" Index="7" Name="papercut mice" Icon="elf_down_papercut_mice" AB="role/papercut mice" Prefab="papercut mice_prefab" Region="BottomRight" Purchase="Coin" Price="1500" Exp="15" StartTime="2020-01-29 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
       <c r="W28" s="13" t="str">
         <f t="shared" ref="W28" si="4">"var/vault_apk_res/Model/"&amp;F28&amp;".ab"</f>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B75BC7-79E2-4841-9CDB-52A6F21B7F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC32AA7-1028-40E2-B964-BCE60229348D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="454" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="454" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3723" uniqueCount="2119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="2121">
   <si>
     <t>ID</t>
   </si>
@@ -6620,6 +6620,13 @@
   </si>
   <si>
     <t>elf_down_papercut_mice</t>
+  </si>
+  <si>
+    <t>mall_lock_time</t>
+  </si>
+  <si>
+    <t>配饰未开放提示音</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7644,6 +7651,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7686,16 +7696,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="117">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -8491,28 +8540,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1_32" displayName="表1_32" ref="B1:S91" totalsRowShown="0">
   <autoFilter ref="B1:S91" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="109">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="115">
       <calculatedColumnFormula>"MissionName"&amp;B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Background" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Model" dataDxfId="107"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NimIcon" dataDxfId="106"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="QuestId" dataDxfId="105"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="dailyGoalPercent" dataDxfId="104"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="AwardCoin" dataDxfId="103"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BGM" dataDxfId="102"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Sound" dataDxfId="101"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="WaterDrop" dataDxfId="100"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="WaterDropAudio" dataDxfId="99"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Box1 ID" dataDxfId="98"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Box1 Height" dataDxfId="97"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Box2 ID" dataDxfId="96"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Box2 Height" dataDxfId="95"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="输出" dataDxfId="94">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Background" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Model" dataDxfId="113"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NimIcon" dataDxfId="112"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="QuestId" dataDxfId="111"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="dailyGoalPercent" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="AwardCoin" dataDxfId="109"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BGM" dataDxfId="108"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Sound" dataDxfId="107"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="WaterDrop" dataDxfId="106"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="WaterDropAudio" dataDxfId="105"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Box1 ID" dataDxfId="104"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Box1 Height" dataDxfId="103"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Box2 ID" dataDxfId="102"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Box2 Height" dataDxfId="101"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="输出" dataDxfId="100">
       <calculatedColumnFormula>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;""" WaterDropAudio="""&amp;M2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N2&amp;""" Height="""&amp;O2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P2&amp;""" Height="""&amp;Q2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="输入" dataDxfId="93"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="输入" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8522,12 +8571,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_34" displayName="表1_34" ref="B1:G1048493" totalsRowShown="0">
   <autoFilter ref="B1:G1048493" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Type" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Name" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ItemId" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Value" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="输出" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Type" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Name" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ItemId" dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Value" dataDxfId="94"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="输出" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9668,23 +9717,23 @@
       <c r="O27" s="151"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="157" t="s">
         <v>2112</v>
       </c>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
     </row>
     <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="102" t="str">
@@ -17463,23 +17512,23 @@
       <c r="O174" s="119"/>
     </row>
     <row r="175" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="156" t="s">
+      <c r="A175" s="157" t="s">
         <v>2112</v>
       </c>
-      <c r="B175" s="156"/>
-      <c r="C175" s="156"/>
-      <c r="D175" s="156"/>
-      <c r="E175" s="156"/>
-      <c r="F175" s="156"/>
-      <c r="G175" s="156"/>
-      <c r="H175" s="156"/>
-      <c r="I175" s="156"/>
-      <c r="J175" s="156"/>
-      <c r="K175" s="156"/>
-      <c r="L175" s="156"/>
-      <c r="M175" s="156"/>
-      <c r="N175" s="156"/>
-      <c r="O175" s="156"/>
+      <c r="B175" s="157"/>
+      <c r="C175" s="157"/>
+      <c r="D175" s="157"/>
+      <c r="E175" s="157"/>
+      <c r="F175" s="157"/>
+      <c r="G175" s="157"/>
+      <c r="H175" s="157"/>
+      <c r="I175" s="157"/>
+      <c r="J175" s="157"/>
+      <c r="K175" s="157"/>
+      <c r="L175" s="157"/>
+      <c r="M175" s="157"/>
+      <c r="N175" s="157"/>
+      <c r="O175" s="157"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="126">
@@ -18394,50 +18443,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="162" t="s">
         <v>1217</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
       <c r="D1" s="52"/>
-      <c r="E1" s="162" t="s">
+      <c r="E1" s="163" t="s">
         <v>1218</v>
       </c>
-      <c r="F1" s="162"/>
+      <c r="F1" s="163"/>
       <c r="G1" s="53" t="s">
         <v>1219</v>
       </c>
-      <c r="H1" s="163" t="s">
+      <c r="H1" s="164" t="s">
         <v>1220</v>
       </c>
-      <c r="I1" s="164"/>
-      <c r="J1" s="165" t="s">
+      <c r="I1" s="165"/>
+      <c r="J1" s="166" t="s">
         <v>1221</v>
       </c>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="166" t="s">
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="167" t="s">
         <v>1222</v>
       </c>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="157" t="s">
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="158" t="s">
         <v>1223</v>
       </c>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="158" t="s">
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="159" t="s">
         <v>1224</v>
       </c>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="159" t="s">
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="160" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -18521,7 +18570,7 @@
       <c r="AA2" s="70" t="s">
         <v>1239</v>
       </c>
-      <c r="AB2" s="160"/>
+      <c r="AB2" s="161"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
@@ -37250,11 +37299,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G852"/>
+  <dimension ref="A1:G856"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A834" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A853" sqref="A853"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A786" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A856" sqref="A856:XFD859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -58734,15 +58783,15 @@
       </c>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A768" s="167" t="s">
+      <c r="A768" s="168" t="s">
         <v>2034</v>
       </c>
-      <c r="B768" s="168"/>
-      <c r="C768" s="168"/>
-      <c r="D768" s="168"/>
-      <c r="E768" s="168"/>
-      <c r="F768" s="168"/>
-      <c r="G768" s="169"/>
+      <c r="B768" s="169"/>
+      <c r="C768" s="169"/>
+      <c r="D768" s="169"/>
+      <c r="E768" s="169"/>
+      <c r="F768" s="169"/>
+      <c r="G768" s="170"/>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
@@ -59232,17 +59281,17 @@
         <v>1</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>2067</v>
+        <v>2119</v>
       </c>
       <c r="C807" s="3" t="s">
         <v>1465</v>
       </c>
-      <c r="D807" s="3" t="s">
-        <v>2068</v>
+      <c r="D807" s="125" t="s">
+        <v>2120</v>
       </c>
       <c r="F807" s="3" t="str">
         <f>IF(A807=1,"&lt;Sound Type="""&amp;B807&amp;""" Storage="""&amp;C807&amp;""" Dec="""&amp;D807&amp;"""&gt;",IF(A807=2,"  &lt;Clip SoundPath="""&amp;E807&amp;""" /&gt;",IF(A807=3,G807,"")))</f>
-        <v>&lt;Sound Type="mall_purchase_qr" Storage="Remote" Dec="换装页显示二维码"&gt;</v>
+        <v>&lt;Sound Type="mall_lock_time" Storage="Remote" Dec="配饰未开放提示音"&gt;</v>
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.2">
@@ -59250,11 +59299,11 @@
         <v>2</v>
       </c>
       <c r="E808" s="3" t="s">
-        <v>2067</v>
+        <v>2119</v>
       </c>
       <c r="F808" s="3" t="str">
         <f t="shared" ref="F808" si="95">IF(A808=1,"&lt;Sound Type="""&amp;B808&amp;""" Storage="""&amp;C808&amp;""" Dec="""&amp;D808&amp;"""&gt;",IF(A808=2,"  &lt;Clip SoundPath="""&amp;E808&amp;""" /&gt;",IF(A808=3,G808,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_qr" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_lock_time" /&gt;</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.2">
@@ -59271,17 +59320,17 @@
         <v>1</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="C810" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="D810" s="3" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="F810" s="3" t="str">
         <f>IF(A810=1,"&lt;Sound Type="""&amp;B810&amp;""" Storage="""&amp;C810&amp;""" Dec="""&amp;D810&amp;"""&gt;",IF(A810=2,"  &lt;Clip SoundPath="""&amp;E810&amp;""" /&gt;",IF(A810=3,G810,"")))</f>
-        <v>&lt;Sound Type="mall_purchase_qr_complete" Storage="Remote" Dec="换装页二维码购物成功"&gt;</v>
+        <v>&lt;Sound Type="mall_purchase_qr" Storage="Remote" Dec="换装页显示二维码"&gt;</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.2">
@@ -59289,11 +59338,11 @@
         <v>2</v>
       </c>
       <c r="E811" s="3" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="F811" s="3" t="str">
         <f t="shared" ref="F811" si="96">IF(A811=1,"&lt;Sound Type="""&amp;B811&amp;""" Storage="""&amp;C811&amp;""" Dec="""&amp;D811&amp;"""&gt;",IF(A811=2,"  &lt;Clip SoundPath="""&amp;E811&amp;""" /&gt;",IF(A811=3,G811,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_qr_complete" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_qr" /&gt;</v>
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.2">
@@ -59310,17 +59359,17 @@
         <v>1</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="C813" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="D813" s="3" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="F813" s="3" t="str">
         <f>IF(A813=1,"&lt;Sound Type="""&amp;B813&amp;""" Storage="""&amp;C813&amp;""" Dec="""&amp;D813&amp;"""&gt;",IF(A813=2,"  &lt;Clip SoundPath="""&amp;E813&amp;""" /&gt;",IF(A813=3,G813,"")))</f>
-        <v>&lt;Sound Type="mall_change_item" Storage="Remote" Dec="换装页切换配饰/小精灵"&gt;</v>
+        <v>&lt;Sound Type="mall_purchase_qr_complete" Storage="Remote" Dec="换装页二维码购物成功"&gt;</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.2">
@@ -59328,11 +59377,11 @@
         <v>2</v>
       </c>
       <c r="E814" s="3" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="F814" s="3" t="str">
         <f t="shared" ref="F814" si="97">IF(A814=1,"&lt;Sound Type="""&amp;B814&amp;""" Storage="""&amp;C814&amp;""" Dec="""&amp;D814&amp;"""&gt;",IF(A814=2,"  &lt;Clip SoundPath="""&amp;E814&amp;""" /&gt;",IF(A814=3,G814,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="mall_change_item" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_qr_complete" /&gt;</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.2">
@@ -59349,17 +59398,17 @@
         <v>1</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="C816" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="D816" s="3" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="F816" s="3" t="str">
         <f>IF(A816=1,"&lt;Sound Type="""&amp;B816&amp;""" Storage="""&amp;C816&amp;""" Dec="""&amp;D816&amp;"""&gt;",IF(A816=2,"  &lt;Clip SoundPath="""&amp;E816&amp;""" /&gt;",IF(A816=3,G816,"")))</f>
-        <v>&lt;Sound Type="mall_put_on_accessory" Storage="Remote" Dec="换装页穿上配饰"&gt;</v>
+        <v>&lt;Sound Type="mall_change_item" Storage="Remote" Dec="换装页切换配饰/小精灵"&gt;</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.2">
@@ -59367,11 +59416,11 @@
         <v>2</v>
       </c>
       <c r="E817" s="3" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="F817" s="3" t="str">
         <f t="shared" ref="F817" si="98">IF(A817=1,"&lt;Sound Type="""&amp;B817&amp;""" Storage="""&amp;C817&amp;""" Dec="""&amp;D817&amp;"""&gt;",IF(A817=2,"  &lt;Clip SoundPath="""&amp;E817&amp;""" /&gt;",IF(A817=3,G817,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="mall_put_on_accessory" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_change_item" /&gt;</v>
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.2">
@@ -59388,17 +59437,17 @@
         <v>1</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="C819" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="D819" s="3" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="F819" s="3" t="str">
         <f>IF(A819=1,"&lt;Sound Type="""&amp;B819&amp;""" Storage="""&amp;C819&amp;""" Dec="""&amp;D819&amp;"""&gt;",IF(A819=2,"  &lt;Clip SoundPath="""&amp;E819&amp;""" /&gt;",IF(A819=3,G819,"")))</f>
-        <v>&lt;Sound Type="mall_take_off_accessory" Storage="Remote" Dec="换装页脱下配饰"&gt;</v>
+        <v>&lt;Sound Type="mall_put_on_accessory" Storage="Remote" Dec="换装页穿上配饰"&gt;</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.2">
@@ -59406,11 +59455,11 @@
         <v>2</v>
       </c>
       <c r="E820" s="3" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="F820" s="3" t="str">
         <f t="shared" ref="F820" si="99">IF(A820=1,"&lt;Sound Type="""&amp;B820&amp;""" Storage="""&amp;C820&amp;""" Dec="""&amp;D820&amp;"""&gt;",IF(A820=2,"  &lt;Clip SoundPath="""&amp;E820&amp;""" /&gt;",IF(A820=3,G820,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="mall_take_off_accessory" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_put_on_accessory" /&gt;</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.2">
@@ -59427,17 +59476,17 @@
         <v>1</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="C822" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="F822" s="3" t="str">
         <f>IF(A822=1,"&lt;Sound Type="""&amp;B822&amp;""" Storage="""&amp;C822&amp;""" Dec="""&amp;D822&amp;"""&gt;",IF(A822=2,"  &lt;Clip SoundPath="""&amp;E822&amp;""" /&gt;",IF(A822=3,G822,"")))</f>
-        <v>&lt;Sound Type="mall_spirit_in" Storage="Remote" Dec="换装页小精灵出场"&gt;</v>
+        <v>&lt;Sound Type="mall_take_off_accessory" Storage="Remote" Dec="换装页脱下配饰"&gt;</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.2">
@@ -59445,11 +59494,11 @@
         <v>2</v>
       </c>
       <c r="E823" s="3" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="F823" s="3" t="str">
         <f t="shared" ref="F823" si="100">IF(A823=1,"&lt;Sound Type="""&amp;B823&amp;""" Storage="""&amp;C823&amp;""" Dec="""&amp;D823&amp;"""&gt;",IF(A823=2,"  &lt;Clip SoundPath="""&amp;E823&amp;""" /&gt;",IF(A823=3,G823,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="mall_spirit_in" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_take_off_accessory" /&gt;</v>
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.2">
@@ -59466,17 +59515,17 @@
         <v>1</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="C825" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="D825" s="3" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="F825" s="3" t="str">
         <f>IF(A825=1,"&lt;Sound Type="""&amp;B825&amp;""" Storage="""&amp;C825&amp;""" Dec="""&amp;D825&amp;"""&gt;",IF(A825=2,"  &lt;Clip SoundPath="""&amp;E825&amp;""" /&gt;",IF(A825=3,G825,"")))</f>
-        <v>&lt;Sound Type="mall_spirit_out" Storage="Remote" Dec="换装页小精灵退场"&gt;</v>
+        <v>&lt;Sound Type="mall_spirit_in" Storage="Remote" Dec="换装页小精灵出场"&gt;</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.2">
@@ -59484,11 +59533,11 @@
         <v>2</v>
       </c>
       <c r="E826" s="3" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="F826" s="3" t="str">
         <f t="shared" ref="F826" si="101">IF(A826=1,"&lt;Sound Type="""&amp;B826&amp;""" Storage="""&amp;C826&amp;""" Dec="""&amp;D826&amp;"""&gt;",IF(A826=2,"  &lt;Clip SoundPath="""&amp;E826&amp;""" /&gt;",IF(A826=3,G826,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="mall_spirit_out" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_spirit_in" /&gt;</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.2">
@@ -59505,17 +59554,17 @@
         <v>1</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="C828" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="D828" s="3" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="F828" s="3" t="str">
         <f>IF(A828=1,"&lt;Sound Type="""&amp;B828&amp;""" Storage="""&amp;C828&amp;""" Dec="""&amp;D828&amp;"""&gt;",IF(A828=2,"  &lt;Clip SoundPath="""&amp;E828&amp;""" /&gt;",IF(A828=3,G828,"")))</f>
-        <v>&lt;Sound Type="feed_welcome_xmas" Storage="Remote" Dec="喂食页圣诞节欢迎语音"&gt;</v>
+        <v>&lt;Sound Type="mall_spirit_out" Storage="Remote" Dec="换装页小精灵退场"&gt;</v>
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.2">
@@ -59523,35 +59572,38 @@
         <v>2</v>
       </c>
       <c r="E829" s="3" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="F829" s="3" t="str">
-        <f t="shared" ref="F829:F833" si="102">IF(A829=1,"&lt;Sound Type="""&amp;B829&amp;""" Storage="""&amp;C829&amp;""" Dec="""&amp;D829&amp;"""&gt;",IF(A829=2,"  &lt;Clip SoundPath="""&amp;E829&amp;""" /&gt;",IF(A829=3,G829,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_001" /&gt;</v>
+        <f t="shared" ref="F829" si="102">IF(A829=1,"&lt;Sound Type="""&amp;B829&amp;""" Storage="""&amp;C829&amp;""" Dec="""&amp;D829&amp;"""&gt;",IF(A829=2,"  &lt;Clip SoundPath="""&amp;E829&amp;""" /&gt;",IF(A829=3,G829,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_spirit_out" /&gt;</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
-        <v>2</v>
-      </c>
-      <c r="E830" s="3" t="s">
-        <v>2084</v>
+        <v>3</v>
       </c>
       <c r="F830" s="3" t="str">
-        <f t="shared" si="102"/>
-        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_002" /&gt;</v>
+        <f>IF(A830=1,"&lt;Sound Type="""&amp;B830&amp;""" Storage="""&amp;C830&amp;""" Dec="""&amp;D830&amp;"""&gt;",IF(A830=2,"  &lt;Clip SoundPath="""&amp;E830&amp;""" /&gt;",IF(A830=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
-        <v>2</v>
-      </c>
-      <c r="E831" s="3" t="s">
-        <v>2085</v>
+        <v>1</v>
+      </c>
+      <c r="B831" s="3" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C831" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D831" s="3" t="s">
+        <v>2082</v>
       </c>
       <c r="F831" s="3" t="str">
-        <f t="shared" si="102"/>
-        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_003" /&gt;</v>
+        <f>IF(A831=1,"&lt;Sound Type="""&amp;B831&amp;""" Storage="""&amp;C831&amp;""" Dec="""&amp;D831&amp;"""&gt;",IF(A831=2,"  &lt;Clip SoundPath="""&amp;E831&amp;""" /&gt;",IF(A831=3,G831,"")))</f>
+        <v>&lt;Sound Type="feed_welcome_xmas" Storage="Remote" Dec="喂食页圣诞节欢迎语音"&gt;</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.2">
@@ -59559,11 +59611,11 @@
         <v>2</v>
       </c>
       <c r="E832" s="3" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="F832" s="3" t="str">
-        <f t="shared" si="102"/>
-        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_004" /&gt;</v>
+        <f t="shared" ref="F832:F836" si="103">IF(A832=1,"&lt;Sound Type="""&amp;B832&amp;""" Storage="""&amp;C832&amp;""" Dec="""&amp;D832&amp;"""&gt;",IF(A832=2,"  &lt;Clip SoundPath="""&amp;E832&amp;""" /&gt;",IF(A832=3,G832,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_001" /&gt;</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.2">
@@ -59571,38 +59623,35 @@
         <v>2</v>
       </c>
       <c r="E833" s="3" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="F833" s="3" t="str">
-        <f t="shared" si="102"/>
-        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_005" /&gt;</v>
+        <f t="shared" si="103"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_002" /&gt;</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E834" s="3" t="s">
+        <v>2085</v>
       </c>
       <c r="F834" s="3" t="str">
-        <f>IF(A834=1,"&lt;Sound Type="""&amp;B834&amp;""" Storage="""&amp;C834&amp;""" Dec="""&amp;D834&amp;"""&gt;",IF(A834=2,"  &lt;Clip SoundPath="""&amp;E834&amp;""" /&gt;",IF(A834=3,"&lt;/Sound&gt;","")))</f>
-        <v>&lt;/Sound&gt;</v>
+        <f t="shared" si="103"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_003" /&gt;</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
-        <v>1</v>
-      </c>
-      <c r="B835" s="3" t="s">
-        <v>2088</v>
-      </c>
-      <c r="C835" s="3" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D835" s="3" t="s">
-        <v>2089</v>
+        <v>2</v>
+      </c>
+      <c r="E835" s="3" t="s">
+        <v>2086</v>
       </c>
       <c r="F835" s="3" t="str">
-        <f>IF(A835=1,"&lt;Sound Type="""&amp;B835&amp;""" Storage="""&amp;C835&amp;""" Dec="""&amp;D835&amp;"""&gt;",IF(A835=2,"  &lt;Clip SoundPath="""&amp;E835&amp;""" /&gt;",IF(A835=3,G835,"")))</f>
-        <v>&lt;Sound Type="feed_bgm_xmas" Storage="Remote" Dec="喂食页圣诞节背景音乐"&gt;</v>
+        <f t="shared" si="103"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_004" /&gt;</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.2">
@@ -59610,11 +59659,11 @@
         <v>2</v>
       </c>
       <c r="E836" s="3" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F836" s="3" t="str">
-        <f t="shared" ref="F836" si="103">IF(A836=1,"&lt;Sound Type="""&amp;B836&amp;""" Storage="""&amp;C836&amp;""" Dec="""&amp;D836&amp;"""&gt;",IF(A836=2,"  &lt;Clip SoundPath="""&amp;E836&amp;""" /&gt;",IF(A836=3,G836,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="feed_bgm_xmas" /&gt;</v>
+        <f t="shared" si="103"/>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_005" /&gt;</v>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.2">
@@ -59631,17 +59680,17 @@
         <v>1</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="C838" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="D838" s="3" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="F838" s="3" t="str">
         <f>IF(A838=1,"&lt;Sound Type="""&amp;B838&amp;""" Storage="""&amp;C838&amp;""" Dec="""&amp;D838&amp;"""&gt;",IF(A838=2,"  &lt;Clip SoundPath="""&amp;E838&amp;""" /&gt;",IF(A838=3,G838,"")))</f>
-        <v>&lt;Sound Type="feed_bgm" Storage="Remote" Dec="喂食场景背景音乐"&gt;</v>
+        <v>&lt;Sound Type="feed_bgm_xmas" Storage="Remote" Dec="喂食页圣诞节背景音乐"&gt;</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.2">
@@ -59649,11 +59698,11 @@
         <v>2</v>
       </c>
       <c r="E839" s="3" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="F839" s="3" t="str">
         <f t="shared" ref="F839" si="104">IF(A839=1,"&lt;Sound Type="""&amp;B839&amp;""" Storage="""&amp;C839&amp;""" Dec="""&amp;D839&amp;"""&gt;",IF(A839=2,"  &lt;Clip SoundPath="""&amp;E839&amp;""" /&gt;",IF(A839=3,G839,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="feed_bgm_denmark" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_bgm_xmas" /&gt;</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.2">
@@ -59670,17 +59719,17 @@
         <v>1</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="C841" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="D841" s="3" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="F841" s="3" t="str">
         <f>IF(A841=1,"&lt;Sound Type="""&amp;B841&amp;""" Storage="""&amp;C841&amp;""" Dec="""&amp;D841&amp;"""&gt;",IF(A841=2,"  &lt;Clip SoundPath="""&amp;E841&amp;""" /&gt;",IF(A841=3,G841,"")))</f>
-        <v>&lt;Sound Type="coin_spend" Storage="Remote" Dec="消耗金币"&gt;</v>
+        <v>&lt;Sound Type="feed_bgm" Storage="Remote" Dec="喂食场景背景音乐"&gt;</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.2">
@@ -59688,11 +59737,11 @@
         <v>2</v>
       </c>
       <c r="E842" s="3" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="F842" s="3" t="str">
         <f t="shared" ref="F842" si="105">IF(A842=1,"&lt;Sound Type="""&amp;B842&amp;""" Storage="""&amp;C842&amp;""" Dec="""&amp;D842&amp;"""&gt;",IF(A842=2,"  &lt;Clip SoundPath="""&amp;E842&amp;""" /&gt;",IF(A842=3,G842,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="coin_spend" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_bgm_denmark" /&gt;</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.2">
@@ -59709,17 +59758,17 @@
         <v>1</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="C844" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="D844" s="3" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F844" s="3" t="str">
         <f>IF(A844=1,"&lt;Sound Type="""&amp;B844&amp;""" Storage="""&amp;C844&amp;""" Dec="""&amp;D844&amp;"""&gt;",IF(A844=2,"  &lt;Clip SoundPath="""&amp;E844&amp;""" /&gt;",IF(A844=3,G844,"")))</f>
-        <v>&lt;Sound Type="main_scene_wheel" Storage="Remote" Dec="切换场景"&gt;</v>
+        <v>&lt;Sound Type="coin_spend" Storage="Remote" Dec="消耗金币"&gt;</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.2">
@@ -59727,11 +59776,11 @@
         <v>2</v>
       </c>
       <c r="E845" s="3" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="F845" s="3" t="str">
         <f t="shared" ref="F845" si="106">IF(A845=1,"&lt;Sound Type="""&amp;B845&amp;""" Storage="""&amp;C845&amp;""" Dec="""&amp;D845&amp;"""&gt;",IF(A845=2,"  &lt;Clip SoundPath="""&amp;E845&amp;""" /&gt;",IF(A845=3,G845,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="main_scene_wheel" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="coin_spend" /&gt;</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.2">
@@ -59748,17 +59797,17 @@
         <v>1</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="C847" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="D847" s="3" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F847" s="3" t="str">
         <f>IF(A847=1,"&lt;Sound Type="""&amp;B847&amp;""" Storage="""&amp;C847&amp;""" Dec="""&amp;D847&amp;"""&gt;",IF(A847=2,"  &lt;Clip SoundPath="""&amp;E847&amp;""" /&gt;",IF(A847=3,G847,"")))</f>
-        <v>&lt;Sound Type="feed_hp_increase" Storage="Remote" Dec="增加能量值"&gt;</v>
+        <v>&lt;Sound Type="main_scene_wheel" Storage="Remote" Dec="切换场景"&gt;</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.2">
@@ -59766,11 +59815,11 @@
         <v>2</v>
       </c>
       <c r="E848" s="3" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F848" s="3" t="str">
         <f t="shared" ref="F848" si="107">IF(A848=1,"&lt;Sound Type="""&amp;B848&amp;""" Storage="""&amp;C848&amp;""" Dec="""&amp;D848&amp;"""&gt;",IF(A848=2,"  &lt;Clip SoundPath="""&amp;E848&amp;""" /&gt;",IF(A848=3,G848,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="feed_hp_increase" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="main_scene_wheel" /&gt;</v>
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.2">
@@ -59787,17 +59836,17 @@
         <v>1</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>2110</v>
+        <v>2097</v>
       </c>
       <c r="C850" s="3" t="s">
         <v>1465</v>
       </c>
-      <c r="D850" s="125" t="s">
-        <v>2111</v>
+      <c r="D850" s="3" t="s">
+        <v>2098</v>
       </c>
       <c r="F850" s="3" t="str">
         <f>IF(A850=1,"&lt;Sound Type="""&amp;B850&amp;""" Storage="""&amp;C850&amp;""" Dec="""&amp;D850&amp;"""&gt;",IF(A850=2,"  &lt;Clip SoundPath="""&amp;E850&amp;""" /&gt;",IF(A850=3,G850,"")))</f>
-        <v>&lt;Sound Type="feed_bgm_mouse" Storage="Remote" Dec="喂食页鼠年春节背景音乐"&gt;</v>
+        <v>&lt;Sound Type="feed_hp_increase" Storage="Remote" Dec="增加能量值"&gt;</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.2">
@@ -59805,11 +59854,11 @@
         <v>2</v>
       </c>
       <c r="E851" s="3" t="s">
-        <v>2110</v>
+        <v>2097</v>
       </c>
       <c r="F851" s="3" t="str">
         <f t="shared" ref="F851" si="108">IF(A851=1,"&lt;Sound Type="""&amp;B851&amp;""" Storage="""&amp;C851&amp;""" Dec="""&amp;D851&amp;"""&gt;",IF(A851=2,"  &lt;Clip SoundPath="""&amp;E851&amp;""" /&gt;",IF(A851=3,G851,"")))</f>
-        <v xml:space="preserve">  &lt;Clip SoundPath="feed_bgm_mouse" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_hp_increase" /&gt;</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.2">
@@ -59820,6 +59869,48 @@
         <f>IF(A852=1,"&lt;Sound Type="""&amp;B852&amp;""" Storage="""&amp;C852&amp;""" Dec="""&amp;D852&amp;"""&gt;",IF(A852=2,"  &lt;Clip SoundPath="""&amp;E852&amp;""" /&gt;",IF(A852=3,"&lt;/Sound&gt;","")))</f>
         <v>&lt;/Sound&gt;</v>
       </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A853" s="1">
+        <v>1</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C853" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D853" s="125" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F853" s="3" t="str">
+        <f>IF(A853=1,"&lt;Sound Type="""&amp;B853&amp;""" Storage="""&amp;C853&amp;""" Dec="""&amp;D853&amp;"""&gt;",IF(A853=2,"  &lt;Clip SoundPath="""&amp;E853&amp;""" /&gt;",IF(A853=3,G853,"")))</f>
+        <v>&lt;Sound Type="feed_bgm_mouse" Storage="Remote" Dec="喂食页鼠年春节背景音乐"&gt;</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A854" s="1">
+        <v>2</v>
+      </c>
+      <c r="E854" s="3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F854" s="3" t="str">
+        <f t="shared" ref="F854" si="109">IF(A854=1,"&lt;Sound Type="""&amp;B854&amp;""" Storage="""&amp;C854&amp;""" Dec="""&amp;D854&amp;"""&gt;",IF(A854=2,"  &lt;Clip SoundPath="""&amp;E854&amp;""" /&gt;",IF(A854=3,G854,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_bgm_mouse" /&gt;</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A855" s="1">
+        <v>3</v>
+      </c>
+      <c r="F855" s="3" t="str">
+        <f>IF(A855=1,"&lt;Sound Type="""&amp;B855&amp;""" Storage="""&amp;C855&amp;""" Dec="""&amp;D855&amp;"""&gt;",IF(A855=2,"  &lt;Clip SoundPath="""&amp;E855&amp;""" /&gt;",IF(A855=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D856" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -59827,63 +59918,85 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="86" priority="73" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="92" priority="79" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="74">
+    <cfRule type="expression" dxfId="91" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="75">
+    <cfRule type="expression" dxfId="90" priority="81">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A834:G834">
-    <cfRule type="containsText" dxfId="83" priority="16" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A834)))</formula>
+  <conditionalFormatting sqref="A837:G837">
+    <cfRule type="containsText" dxfId="89" priority="22" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A837)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="17">
+    <cfRule type="expression" dxfId="88" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="18">
+    <cfRule type="expression" dxfId="87" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A853:G1048576 G838:G849">
-    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="&lt;!--">
+  <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A859:G1048576 G841:G852">
+    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="80">
+    <cfRule type="expression" dxfId="85" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="81">
+    <cfRule type="expression" dxfId="84" priority="87">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:G27 A28:F28">
-    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="82" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="78">
+    <cfRule type="expression" dxfId="81" priority="84">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A434:G436">
-    <cfRule type="containsText" dxfId="74" priority="70" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="80" priority="76" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A434)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="71">
+    <cfRule type="expression" dxfId="79" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="72">
+    <cfRule type="expression" dxfId="78" priority="78">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791:G792 A797:G797 A793:D795 F793:G795 E793:E796">
+    <cfRule type="containsText" dxfId="77" priority="67" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="68">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="69">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A796:D796 F796:G796">
+    <cfRule type="containsText" dxfId="74" priority="64" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="65">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="66">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A798:G800">
     <cfRule type="containsText" dxfId="71" priority="61" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="70" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
@@ -59892,9 +60005,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A796:D796 F796:G796">
+  <conditionalFormatting sqref="A801:G803">
     <cfRule type="containsText" dxfId="68" priority="58" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="67" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
@@ -59903,9 +60016,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A798:G800">
+  <conditionalFormatting sqref="A804:G806">
     <cfRule type="containsText" dxfId="65" priority="55" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="64" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
@@ -59914,9 +60027,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A801:G803">
+  <conditionalFormatting sqref="A810:G812">
     <cfRule type="containsText" dxfId="62" priority="52" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="61" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
@@ -59925,9 +60038,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A804:G806">
+  <conditionalFormatting sqref="A813:G815">
     <cfRule type="containsText" dxfId="59" priority="49" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A813)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
@@ -59936,9 +60049,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A807:G809">
+  <conditionalFormatting sqref="A816:G818">
     <cfRule type="containsText" dxfId="56" priority="46" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A816)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="55" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
@@ -59947,9 +60060,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A810:G812">
+  <conditionalFormatting sqref="A819:G821">
     <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A819)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="52" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
@@ -59958,9 +60071,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A813:G815">
+  <conditionalFormatting sqref="A822:G824">
     <cfRule type="containsText" dxfId="50" priority="40" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A813)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A822)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="49" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
@@ -59969,9 +60082,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A816:G818">
+  <conditionalFormatting sqref="A825:G827">
     <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A816)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A825)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
@@ -59980,9 +60093,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A819:G821">
+  <conditionalFormatting sqref="A828:G830">
     <cfRule type="containsText" dxfId="44" priority="34" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A819)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A828)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
@@ -59991,9 +60104,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A822:G824">
+  <conditionalFormatting sqref="A831:G836">
     <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A822)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A831)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
@@ -60002,42 +60115,42 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A825:G827">
-    <cfRule type="containsText" dxfId="38" priority="28" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A825)))</formula>
+  <conditionalFormatting sqref="A838:G840">
+    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A838)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="29">
+    <cfRule type="expression" dxfId="37" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="36" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A828:G833">
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A828)))</formula>
+  <conditionalFormatting sqref="A841:F843">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A841)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="26">
+    <cfRule type="expression" dxfId="34" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="33" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A835:G837">
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A835)))</formula>
+  <conditionalFormatting sqref="A844:F846">
+    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A844)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="20">
+    <cfRule type="expression" dxfId="31" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="21">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A838:F840">
+  <conditionalFormatting sqref="A847:F849">
     <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A838)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A847)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
@@ -60046,9 +60159,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A841:F843">
+  <conditionalFormatting sqref="A850:F852">
     <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A841)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A850)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
@@ -60057,9 +60170,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A844:F846">
+  <conditionalFormatting sqref="A853:G855">
     <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A844)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A853)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
@@ -60068,9 +60181,9 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A847:F849">
+  <conditionalFormatting sqref="A856:G858">
     <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A847)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A856)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
@@ -60079,19 +60192,19 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A850:G852">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A850)))</formula>
+  <conditionalFormatting sqref="A807:G809">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -60315,57 +60428,57 @@
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:F10">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:F14">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:F1048576">
-    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63204,7 +63317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -64457,7 +64570,7 @@
       <c r="B18" s="79">
         <v>1</v>
       </c>
-      <c r="C18" s="170">
+      <c r="C18" s="156">
         <v>3</v>
       </c>
       <c r="D18" s="80" t="s">
@@ -64529,7 +64642,7 @@
       <c r="B19" s="79">
         <v>1</v>
       </c>
-      <c r="C19" s="170">
+      <c r="C19" s="156">
         <v>1</v>
       </c>
       <c r="D19" s="75" t="s">
@@ -64601,7 +64714,7 @@
       <c r="B20" s="79">
         <v>2</v>
       </c>
-      <c r="C20" s="170">
+      <c r="C20" s="156">
         <v>2</v>
       </c>
       <c r="D20" s="75" t="s">
@@ -64673,7 +64786,7 @@
       <c r="B21" s="79">
         <v>4</v>
       </c>
-      <c r="C21" s="170">
+      <c r="C21" s="156">
         <v>1</v>
       </c>
       <c r="D21" s="75" t="s">
@@ -64745,7 +64858,7 @@
       <c r="B22" s="79">
         <v>5</v>
       </c>
-      <c r="C22" s="170">
+      <c r="C22" s="156">
         <v>1</v>
       </c>
       <c r="D22" s="75" t="s">
@@ -64817,7 +64930,7 @@
       <c r="B23" s="79">
         <v>6</v>
       </c>
-      <c r="C23" s="170">
+      <c r="C23" s="156">
         <v>2</v>
       </c>
       <c r="D23" s="75" t="s">
@@ -64889,7 +65002,7 @@
       <c r="B24" s="79">
         <v>6</v>
       </c>
-      <c r="C24" s="170">
+      <c r="C24" s="156">
         <v>3</v>
       </c>
       <c r="D24" s="75" t="s">
@@ -64961,7 +65074,7 @@
       <c r="B25" s="79">
         <v>6</v>
       </c>
-      <c r="C25" s="170">
+      <c r="C25" s="156">
         <v>4</v>
       </c>
       <c r="D25" s="75" t="s">
@@ -65033,7 +65146,7 @@
       <c r="B26" s="79">
         <v>6</v>
       </c>
-      <c r="C26" s="170">
+      <c r="C26" s="156">
         <v>5</v>
       </c>
       <c r="D26" s="75" t="s">
@@ -65105,7 +65218,7 @@
       <c r="B27" s="79">
         <v>6</v>
       </c>
-      <c r="C27" s="170">
+      <c r="C27" s="156">
         <v>6</v>
       </c>
       <c r="D27" s="75" t="s">

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="2216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="2224">
   <si>
     <t>ID</t>
   </si>
@@ -6809,6 +6809,30 @@
   <si>
     <t>PetDress/Accessories/</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>default_pet</t>
+  </si>
+  <si>
+    <t>limited_CHS</t>
+  </si>
+  <si>
+    <t>limited_CHT</t>
+  </si>
+  <si>
+    <t>limited_EN</t>
+  </si>
+  <si>
+    <t>limited_JP</t>
+  </si>
+  <si>
+    <t>red_dot</t>
+  </si>
+  <si>
+    <t>sea_small</t>
   </si>
 </sst>
 </file>
@@ -7901,49 +7925,7 @@
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="147">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
+  <dxfs count="141">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -8916,7 +8898,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8949,28 +8931,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_32" displayName="表1_32" ref="B1:S91" totalsRowShown="0">
   <autoFilter ref="B1:S91"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Id" dataDxfId="146"/>
-    <tableColumn id="2" name="Name" dataDxfId="145">
+    <tableColumn id="1" name="Id" dataDxfId="140"/>
+    <tableColumn id="2" name="Name" dataDxfId="139">
       <calculatedColumnFormula>"MissionName"&amp;B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Background" dataDxfId="144"/>
-    <tableColumn id="4" name="Model" dataDxfId="143"/>
-    <tableColumn id="5" name="NimIcon" dataDxfId="142"/>
-    <tableColumn id="6" name="QuestId" dataDxfId="141"/>
-    <tableColumn id="7" name="dailyGoalPercent" dataDxfId="140"/>
-    <tableColumn id="8" name="AwardCoin" dataDxfId="139"/>
-    <tableColumn id="9" name="BGM" dataDxfId="138"/>
-    <tableColumn id="10" name="Sound" dataDxfId="137"/>
-    <tableColumn id="11" name="WaterDrop" dataDxfId="136"/>
-    <tableColumn id="12" name="WaterDropAudio" dataDxfId="135"/>
-    <tableColumn id="13" name="Box1 ID" dataDxfId="134"/>
-    <tableColumn id="14" name="Box1 Height" dataDxfId="133"/>
-    <tableColumn id="15" name="Box2 ID" dataDxfId="132"/>
-    <tableColumn id="16" name="Box2 Height" dataDxfId="131"/>
-    <tableColumn id="17" name="输出" dataDxfId="130">
+    <tableColumn id="3" name="Background" dataDxfId="138"/>
+    <tableColumn id="4" name="Model" dataDxfId="137"/>
+    <tableColumn id="5" name="NimIcon" dataDxfId="136"/>
+    <tableColumn id="6" name="QuestId" dataDxfId="135"/>
+    <tableColumn id="7" name="dailyGoalPercent" dataDxfId="134"/>
+    <tableColumn id="8" name="AwardCoin" dataDxfId="133"/>
+    <tableColumn id="9" name="BGM" dataDxfId="132"/>
+    <tableColumn id="10" name="Sound" dataDxfId="131"/>
+    <tableColumn id="11" name="WaterDrop" dataDxfId="130"/>
+    <tableColumn id="12" name="WaterDropAudio" dataDxfId="129"/>
+    <tableColumn id="13" name="Box1 ID" dataDxfId="128"/>
+    <tableColumn id="14" name="Box1 Height" dataDxfId="127"/>
+    <tableColumn id="15" name="Box2 ID" dataDxfId="126"/>
+    <tableColumn id="16" name="Box2 Height" dataDxfId="125"/>
+    <tableColumn id="17" name="输出" dataDxfId="124">
       <calculatedColumnFormula>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;""" WaterDropAudio="""&amp;M2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N2&amp;""" Height="""&amp;O2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P2&amp;""" Height="""&amp;Q2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="输入" dataDxfId="129"/>
+    <tableColumn id="18" name="输入" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8980,12 +8962,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="B1:G1048493" totalsRowShown="0">
   <autoFilter ref="B1:G1048493"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="128"/>
-    <tableColumn id="2" name="Type" dataDxfId="127"/>
-    <tableColumn id="3" name="Name" dataDxfId="126"/>
-    <tableColumn id="4" name="ItemId" dataDxfId="125"/>
-    <tableColumn id="5" name="Value" dataDxfId="124"/>
-    <tableColumn id="6" name="输出" dataDxfId="123"/>
+    <tableColumn id="1" name="Id" dataDxfId="122"/>
+    <tableColumn id="2" name="Type" dataDxfId="121"/>
+    <tableColumn id="3" name="Name" dataDxfId="120"/>
+    <tableColumn id="4" name="ItemId" dataDxfId="119"/>
+    <tableColumn id="5" name="Value" dataDxfId="118"/>
+    <tableColumn id="6" name="输出" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -59180,288 +59162,288 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="122" priority="79" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="116" priority="79" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="80">
+    <cfRule type="expression" dxfId="115" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="81">
+    <cfRule type="expression" dxfId="114" priority="81">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A837:G837">
-    <cfRule type="containsText" dxfId="119" priority="22" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="113" priority="22" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A837)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="23">
+    <cfRule type="expression" dxfId="112" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="24">
+    <cfRule type="expression" dxfId="111" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A859:G1048576 G841:G852">
-    <cfRule type="containsText" dxfId="116" priority="85" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="110" priority="85" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="86">
+    <cfRule type="expression" dxfId="109" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="87">
+    <cfRule type="expression" dxfId="108" priority="87">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:G27 A28:F28">
-    <cfRule type="containsText" dxfId="113" priority="82" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="107" priority="82" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="83">
+    <cfRule type="expression" dxfId="106" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="84">
+    <cfRule type="expression" dxfId="105" priority="84">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A434:G436">
-    <cfRule type="containsText" dxfId="110" priority="76" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="104" priority="76" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A434)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="77">
+    <cfRule type="expression" dxfId="103" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="78">
+    <cfRule type="expression" dxfId="102" priority="78">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791:G792 A797:G797 A793:D795 F793:G795 E793:E796">
-    <cfRule type="containsText" dxfId="107" priority="67" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="101" priority="67" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="68">
+    <cfRule type="expression" dxfId="100" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="69">
+    <cfRule type="expression" dxfId="99" priority="69">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A796:D796 F796:G796">
-    <cfRule type="containsText" dxfId="104" priority="64" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="98" priority="64" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="65">
+    <cfRule type="expression" dxfId="97" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="66">
+    <cfRule type="expression" dxfId="96" priority="66">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798:G800">
-    <cfRule type="containsText" dxfId="101" priority="61" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="95" priority="61" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="62">
+    <cfRule type="expression" dxfId="94" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="63">
+    <cfRule type="expression" dxfId="93" priority="63">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A801:G803">
-    <cfRule type="containsText" dxfId="98" priority="58" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="92" priority="58" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="59">
+    <cfRule type="expression" dxfId="91" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="60">
+    <cfRule type="expression" dxfId="90" priority="60">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804:G806">
-    <cfRule type="containsText" dxfId="95" priority="55" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="89" priority="55" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="56">
+    <cfRule type="expression" dxfId="88" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="57">
+    <cfRule type="expression" dxfId="87" priority="57">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A810:G812">
-    <cfRule type="containsText" dxfId="92" priority="52" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="86" priority="52" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="53">
+    <cfRule type="expression" dxfId="85" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="54">
+    <cfRule type="expression" dxfId="84" priority="54">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A813:G815">
-    <cfRule type="containsText" dxfId="89" priority="49" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="83" priority="49" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A813)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="50">
+    <cfRule type="expression" dxfId="82" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="51">
+    <cfRule type="expression" dxfId="81" priority="51">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A816:G818">
-    <cfRule type="containsText" dxfId="86" priority="46" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="80" priority="46" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A816)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="47">
+    <cfRule type="expression" dxfId="79" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="48">
+    <cfRule type="expression" dxfId="78" priority="48">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A819:G821">
-    <cfRule type="containsText" dxfId="83" priority="43" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="77" priority="43" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A819)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="44">
+    <cfRule type="expression" dxfId="76" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="45">
+    <cfRule type="expression" dxfId="75" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A822:G824">
-    <cfRule type="containsText" dxfId="80" priority="40" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="74" priority="40" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A822)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="41">
+    <cfRule type="expression" dxfId="73" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="42">
+    <cfRule type="expression" dxfId="72" priority="42">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A825:G827">
-    <cfRule type="containsText" dxfId="77" priority="37" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="71" priority="37" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A825)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="38">
+    <cfRule type="expression" dxfId="70" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="39">
+    <cfRule type="expression" dxfId="69" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A828:G830">
-    <cfRule type="containsText" dxfId="74" priority="34" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="68" priority="34" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A828)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="35">
+    <cfRule type="expression" dxfId="67" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="36">
+    <cfRule type="expression" dxfId="66" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A831:G836">
-    <cfRule type="containsText" dxfId="71" priority="31" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="65" priority="31" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A831)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="32">
+    <cfRule type="expression" dxfId="64" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="33">
+    <cfRule type="expression" dxfId="63" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A838:G840">
-    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="62" priority="25" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A838)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="26">
+    <cfRule type="expression" dxfId="61" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="27">
+    <cfRule type="expression" dxfId="60" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A841:F843">
-    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A841)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="20">
+    <cfRule type="expression" dxfId="58" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="21">
+    <cfRule type="expression" dxfId="57" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A844:F846">
-    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="56" priority="16" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A844)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="17">
+    <cfRule type="expression" dxfId="55" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="18">
+    <cfRule type="expression" dxfId="54" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A847:F849">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A847)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="14">
+    <cfRule type="expression" dxfId="52" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="15">
+    <cfRule type="expression" dxfId="51" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A850:F852">
-    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A850)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="11">
+    <cfRule type="expression" dxfId="49" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="12">
+    <cfRule type="expression" dxfId="48" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A853:G855">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A853)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="8">
+    <cfRule type="expression" dxfId="46" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="9">
+    <cfRule type="expression" dxfId="45" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A856:G858">
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A856)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="6">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A807:G809">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59690,57 +59672,57 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="containsText" dxfId="44" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="14">
+    <cfRule type="expression" dxfId="37" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="15">
+    <cfRule type="expression" dxfId="36" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="containsText" dxfId="41" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="11">
+    <cfRule type="expression" dxfId="34" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="12">
+    <cfRule type="expression" dxfId="33" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:F10">
-    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8">
+    <cfRule type="expression" dxfId="31" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9">
+    <cfRule type="expression" dxfId="30" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:F14">
-    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="5">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="6">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:F1048576">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59751,11 +59733,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -59870,7 +59852,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>2133</v>
+        <v>2216</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2212</v>
@@ -59880,7 +59862,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="code_bg" Path="PetDress/View/code_bg" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="clock" Path="PetDress/View/clock" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -59889,7 +59871,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1236</v>
+        <v>2133</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>2212</v>
@@ -59899,7 +59881,7 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="coin" Path="PetDress/View/coin" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="code_bg" Path="PetDress/View/code_bg" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -59908,7 +59890,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>2134</v>
+        <v>1236</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2212</v>
@@ -59918,7 +59900,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="coin_bg" Path="PetDress/View/coin_bg" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="coin" Path="PetDress/View/coin" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -59927,7 +59909,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>2212</v>
@@ -59937,7 +59919,7 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="disable" Path="PetDress/View/disable" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="coin_bg" Path="PetDress/View/coin_bg" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -59946,7 +59928,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>2136</v>
+        <v>2217</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>2212</v>
@@ -59956,7 +59938,7 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="disable_big" Path="PetDress/View/disable_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="default_pet" Path="PetDress/View/default_pet" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -59965,7 +59947,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>2212</v>
@@ -59975,7 +59957,7 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="icon_disable" Path="PetDress/View/icon_disable" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="disable" Path="PetDress/View/disable" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -59984,7 +59966,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2212</v>
@@ -59994,7 +59976,7 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="lock_bg" Path="PetDress/View/lock_bg" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="disable_big" Path="PetDress/View/disable_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -60003,7 +59985,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>2212</v>
@@ -60013,7 +59995,7 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="needcoin" Path="PetDress/View/needcoin" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="icon_disable" Path="PetDress/View/icon_disable" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -60022,7 +60004,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>2140</v>
+        <v>2218</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>2212</v>
@@ -60032,7 +60014,7 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="net_no" Path="PetDress/View/net_no" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="limited_CHS" Path="PetDress/View/limited_CHS" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -60041,7 +60023,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>2141</v>
+        <v>2219</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>2212</v>
@@ -60051,7 +60033,7 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="nocoin" Path="PetDress/View/nocoin" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="limited_CHT" Path="PetDress/View/limited_CHT" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -60060,7 +60042,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>2142</v>
+        <v>2220</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>2212</v>
@@ -60070,7 +60052,7 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="nonpayment" Path="PetDress/View/nonpayment" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="limited_EN" Path="PetDress/View/limited_EN" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -60079,7 +60061,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>2143</v>
+        <v>2221</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>2212</v>
@@ -60089,7 +60071,7 @@
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="phone_pay" Path="PetDress/View/phone_pay" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="limited_JP" Path="PetDress/View/limited_JP" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -60098,7 +60080,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>2212</v>
@@ -60108,7 +60090,7 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="special_label_activity 1" Path="PetDress/View/special_label_activity 1" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="lock_bg" Path="PetDress/View/lock_bg" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -60117,7 +60099,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>2212</v>
@@ -60127,7 +60109,7 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="Tips_bg" Path="PetDress/View/Tips_bg" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="needcoin" Path="PetDress/View/needcoin" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -60136,7 +60118,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>2212</v>
@@ -60146,7 +60128,7 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="title_have" Path="PetDress/View/title_have" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="net_no" Path="PetDress/View/net_no" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -60155,7 +60137,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>2212</v>
@@ -60165,7 +60147,7 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="Unlock_bg" Path="PetDress/View/Unlock_bg" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="nocoin" Path="PetDress/View/nocoin" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -60174,7 +60156,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>2129</v>
+        <v>2142</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>2212</v>
@@ -60184,7 +60166,7 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="wardrobe_bg" Path="PetDress/View/wardrobe_bg" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="nonpayment" Path="PetDress/View/nonpayment" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -60193,17 +60175,17 @@
       </c>
       <c r="B23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>2214</v>
+        <v>2130</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="acc_big" Path="PetDress/Types/acc_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="phone_pay" Path="PetDress/View/phone_pay" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -60211,17 +60193,17 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>2150</v>
+        <v>2222</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>2214</v>
+        <v>2130</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="acc_small" Path="PetDress/Types/acc_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="red_dot" Path="PetDress/View/red_dot" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -60229,17 +60211,17 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>2151</v>
+        <v>2223</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>2214</v>
+        <v>2130</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="board_left" Path="PetDress/Types/board_left" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="sea_small" Path="PetDress/View/sea_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -60247,17 +60229,17 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>2152</v>
+        <v>2144</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>2214</v>
+        <v>2130</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="board_left_light" Path="PetDress/Types/board_left_light" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="special_label_activity 1" Path="PetDress/View/special_label_activity 1" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -60265,17 +60247,17 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>2153</v>
+        <v>2145</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>2214</v>
+        <v>2130</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_big" Path="PetDress/Types/elf_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="Tips_bg" Path="PetDress/View/Tips_bg" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -60283,17 +60265,17 @@
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>2154</v>
+        <v>2146</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>2214</v>
+        <v>2130</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_small" Path="PetDress/Types/elf_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="title_have" Path="PetDress/View/title_have" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -60301,17 +60283,17 @@
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2155</v>
+        <v>2147</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>2214</v>
+        <v>2130</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="return_big" Path="PetDress/Types/return_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="Unlock_bg" Path="PetDress/View/Unlock_bg" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -60319,17 +60301,17 @@
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2156</v>
+        <v>2129</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>2214</v>
+        <v>2130</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="return_small" Path="PetDress/Types/return_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="wardrobe_bg" Path="PetDress/View/wardrobe_bg" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -60337,7 +60319,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2157</v>
+        <v>2149</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>2212</v>
@@ -60347,7 +60329,7 @@
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="suit_big" Path="PetDress/Types/suit_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="acc_big" Path="PetDress/Types/acc_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -60355,7 +60337,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2158</v>
+        <v>2150</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>2212</v>
@@ -60365,7 +60347,7 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="suit_small" Path="PetDress/Types/suit_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="acc_small" Path="PetDress/Types/acc_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -60373,17 +60355,17 @@
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2159</v>
+        <v>2151</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="G33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_Batman_big" Path="PetDress/Accessories/elf_down_Batman_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="board_left" Path="PetDress/Types/board_left" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -60391,17 +60373,17 @@
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2160</v>
+        <v>2152</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_Batman_small" Path="PetDress/Accessories/elf_down_Batman_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="board_left_light" Path="PetDress/Types/board_left_light" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -60409,17 +60391,17 @@
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2161</v>
+        <v>2153</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="G35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_deer02_big" Path="PetDress/Accessories/elf_down_deer02_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_big" Path="PetDress/Types/elf_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -60427,17 +60409,17 @@
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2162</v>
+        <v>2154</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_deer02_small" Path="PetDress/Accessories/elf_down_deer02_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_small" Path="PetDress/Types/elf_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -60445,17 +60427,17 @@
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2163</v>
+        <v>2155</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="G37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_deer_big" Path="PetDress/Accessories/elf_down_deer_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="return_big" Path="PetDress/Types/return_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -60463,17 +60445,17 @@
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2164</v>
+        <v>2156</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="G38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_deer_small" Path="PetDress/Accessories/elf_down_deer_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="return_small" Path="PetDress/Types/return_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -60481,17 +60463,17 @@
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2165</v>
+        <v>2157</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="G39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_lmouse_big" Path="PetDress/Accessories/elf_down_lmouse_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="suit_big" Path="PetDress/Types/suit_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -60499,17 +60481,17 @@
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2166</v>
+        <v>2158</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="G40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_lmouse_small" Path="PetDress/Accessories/elf_down_lmouse_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="suit_small" Path="PetDress/Types/suit_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -60517,7 +60499,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>2167</v>
+        <v>2159</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>2212</v>
@@ -60527,7 +60509,7 @@
       </c>
       <c r="G41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_minions_big" Path="PetDress/Accessories/elf_down_minions_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_Batman_big" Path="PetDress/Accessories/elf_down_Batman_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -60535,7 +60517,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>2168</v>
+        <v>2160</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>2212</v>
@@ -60545,7 +60527,7 @@
       </c>
       <c r="G42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_minions_small" Path="PetDress/Accessories/elf_down_minions_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_Batman_small" Path="PetDress/Accessories/elf_down_Batman_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -60553,7 +60535,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>2169</v>
+        <v>2161</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>2212</v>
@@ -60563,7 +60545,7 @@
       </c>
       <c r="G43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_papercut_mice_big" Path="PetDress/Accessories/elf_down_papercut_mice_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_deer02_big" Path="PetDress/Accessories/elf_down_deer02_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -60571,7 +60553,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>2170</v>
+        <v>2162</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>2212</v>
@@ -60581,7 +60563,7 @@
       </c>
       <c r="G44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_papercut_mice_small" Path="PetDress/Accessories/elf_down_papercut_mice_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_deer02_small" Path="PetDress/Accessories/elf_down_deer02_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -60589,7 +60571,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>2171</v>
+        <v>2163</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>2212</v>
@@ -60599,7 +60581,7 @@
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_pumpkin_big" Path="PetDress/Accessories/elf_down_pumpkin_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_deer_big" Path="PetDress/Accessories/elf_down_deer_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -60607,7 +60589,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>2172</v>
+        <v>2164</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>2212</v>
@@ -60617,7 +60599,7 @@
       </c>
       <c r="G46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_pumpkin_small" Path="PetDress/Accessories/elf_down_pumpkin_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_deer_small" Path="PetDress/Accessories/elf_down_deer_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -60625,7 +60607,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>2173</v>
+        <v>2165</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>2212</v>
@@ -60635,7 +60617,7 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_snowman02_big" Path="PetDress/Accessories/elf_down_snowman02_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_lmouse_big" Path="PetDress/Accessories/elf_down_lmouse_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -60643,7 +60625,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>2174</v>
+        <v>2166</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>2212</v>
@@ -60653,7 +60635,7 @@
       </c>
       <c r="G48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_snowman02_small" Path="PetDress/Accessories/elf_down_snowman02_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_lmouse_small" Path="PetDress/Accessories/elf_down_lmouse_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -60661,7 +60643,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>2175</v>
+        <v>2167</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>2212</v>
@@ -60671,7 +60653,7 @@
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_snowman03_big" Path="PetDress/Accessories/elf_down_snowman03_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_minions_big" Path="PetDress/Accessories/elf_down_minions_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -60679,7 +60661,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>2176</v>
+        <v>2168</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>2212</v>
@@ -60689,7 +60671,7 @@
       </c>
       <c r="G50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_snowman03_small" Path="PetDress/Accessories/elf_down_snowman03_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_minions_small" Path="PetDress/Accessories/elf_down_minions_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -60697,7 +60679,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>2177</v>
+        <v>2169</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>2212</v>
@@ -60707,7 +60689,7 @@
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_snowman_big" Path="PetDress/Accessories/elf_down_snowman_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_papercut_mice_big" Path="PetDress/Accessories/elf_down_papercut_mice_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -60715,7 +60697,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>2178</v>
+        <v>2170</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>2212</v>
@@ -60725,7 +60707,7 @@
       </c>
       <c r="G52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_snowman_small" Path="PetDress/Accessories/elf_down_snowman_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_papercut_mice_small" Path="PetDress/Accessories/elf_down_papercut_mice_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -60733,7 +60715,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>2179</v>
+        <v>2171</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>2212</v>
@@ -60743,7 +60725,7 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_cloud02_big" Path="PetDress/Accessories/elf_up_cloud02_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_pumpkin_big" Path="PetDress/Accessories/elf_down_pumpkin_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -60751,7 +60733,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>2180</v>
+        <v>2172</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>2212</v>
@@ -60761,7 +60743,7 @@
       </c>
       <c r="G54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_cloud02_small" Path="PetDress/Accessories/elf_up_cloud02_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_pumpkin_small" Path="PetDress/Accessories/elf_down_pumpkin_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -60769,7 +60751,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>2181</v>
+        <v>2173</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>2212</v>
@@ -60779,7 +60761,7 @@
       </c>
       <c r="G55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_cloud_big" Path="PetDress/Accessories/elf_up_cloud_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_snowman02_big" Path="PetDress/Accessories/elf_down_snowman02_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -60787,7 +60769,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>2182</v>
+        <v>2174</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>2212</v>
@@ -60797,7 +60779,7 @@
       </c>
       <c r="G56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_cloud_small" Path="PetDress/Accessories/elf_up_cloud_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_snowman02_small" Path="PetDress/Accessories/elf_down_snowman02_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -60805,7 +60787,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>2183</v>
+        <v>2175</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>2212</v>
@@ -60815,7 +60797,7 @@
       </c>
       <c r="G57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_ghost_big" Path="PetDress/Accessories/elf_up_ghost_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_snowman03_big" Path="PetDress/Accessories/elf_down_snowman03_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -60823,7 +60805,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>2184</v>
+        <v>2176</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>2212</v>
@@ -60833,7 +60815,7 @@
       </c>
       <c r="G58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_ghost_small" Path="PetDress/Accessories/elf_up_ghost_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_snowman03_small" Path="PetDress/Accessories/elf_down_snowman03_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -60841,7 +60823,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>2185</v>
+        <v>2177</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>2212</v>
@@ -60851,7 +60833,7 @@
       </c>
       <c r="G59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_gift02_big" Path="PetDress/Accessories/elf_up_gift02_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_snowman_big" Path="PetDress/Accessories/elf_down_snowman_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -60859,7 +60841,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>2186</v>
+        <v>2178</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>2212</v>
@@ -60869,7 +60851,7 @@
       </c>
       <c r="G60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_gift02_small" Path="PetDress/Accessories/elf_up_gift02_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_down_snowman_small" Path="PetDress/Accessories/elf_down_snowman_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -60877,7 +60859,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>2187</v>
+        <v>2179</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>2212</v>
@@ -60887,7 +60869,7 @@
       </c>
       <c r="G61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_gift_big" Path="PetDress/Accessories/elf_up_gift_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_up_cloud02_big" Path="PetDress/Accessories/elf_up_cloud02_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -60895,7 +60877,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>2188</v>
+        <v>2180</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>2212</v>
@@ -60905,7 +60887,7 @@
       </c>
       <c r="G62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_gift_small" Path="PetDress/Accessories/elf_up_gift_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_up_cloud02_small" Path="PetDress/Accessories/elf_up_cloud02_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -60913,7 +60895,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>2189</v>
+        <v>2181</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>2212</v>
@@ -60923,7 +60905,7 @@
       </c>
       <c r="G63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_antler02_big" Path="PetDress/Accessories/part_head_antler02_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_up_cloud_big" Path="PetDress/Accessories/elf_up_cloud_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -60931,7 +60913,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>2190</v>
+        <v>2182</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>2212</v>
@@ -60941,7 +60923,7 @@
       </c>
       <c r="G64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_antler02_small" Path="PetDress/Accessories/part_head_antler02_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_up_cloud_small" Path="PetDress/Accessories/elf_up_cloud_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -60949,7 +60931,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>2191</v>
+        <v>2183</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>2212</v>
@@ -60959,7 +60941,7 @@
       </c>
       <c r="G65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_antler_big" Path="PetDress/Accessories/part_head_antler_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_up_ghost_big" Path="PetDress/Accessories/elf_up_ghost_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -60967,7 +60949,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>2192</v>
+        <v>2184</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>2212</v>
@@ -60977,7 +60959,7 @@
       </c>
       <c r="G66" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_antler_small" Path="PetDress/Accessories/part_head_antler_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_up_ghost_small" Path="PetDress/Accessories/elf_up_ghost_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -60985,7 +60967,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>2193</v>
+        <v>2185</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>2212</v>
@@ -60995,7 +60977,7 @@
       </c>
       <c r="G67" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_coinhat_big" Path="PetDress/Accessories/part_head_coinhat_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_up_gift02_big" Path="PetDress/Accessories/elf_up_gift02_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -61003,7 +60985,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>2194</v>
+        <v>2186</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>2212</v>
@@ -61012,8 +60994,8 @@
         <v>2215</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f t="shared" ref="G68:G85" si="1">IF(A68=1,"&lt;Module Name="""&amp;B68&amp;""" Desc="""&amp;C68&amp;""" &gt;",IF(A68=2,"  &lt;File Name="""&amp;D68&amp;""" Path="""&amp;F68&amp;D68&amp;""" Type="""&amp;E68&amp;""" /&gt;",IF(A68=3,"&lt;/Module&gt;","")))</f>
-        <v xml:space="preserve">  &lt;File Name="part_head_coinhat_small" Path="PetDress/Accessories/part_head_coinhat_small" Type="Image" /&gt;</v>
+        <f t="shared" ref="G68:G93" si="1">IF(A68=1,"&lt;Module Name="""&amp;B68&amp;""" Desc="""&amp;C68&amp;""" &gt;",IF(A68=2,"  &lt;File Name="""&amp;D68&amp;""" Path="""&amp;F68&amp;D68&amp;""" Type="""&amp;E68&amp;""" /&gt;",IF(A68=3,"&lt;/Module&gt;","")))</f>
+        <v xml:space="preserve">  &lt;File Name="elf_up_gift02_small" Path="PetDress/Accessories/elf_up_gift02_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -61021,7 +61003,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>2195</v>
+        <v>2187</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>2212</v>
@@ -61031,7 +61013,7 @@
       </c>
       <c r="G69" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_hat02_big" Path="PetDress/Accessories/part_head_hat02_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_up_gift_big" Path="PetDress/Accessories/elf_up_gift_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -61039,7 +61021,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>2196</v>
+        <v>2188</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>2212</v>
@@ -61049,7 +61031,7 @@
       </c>
       <c r="G70" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_hat02_small" Path="PetDress/Accessories/part_head_hat02_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="elf_up_gift_small" Path="PetDress/Accessories/elf_up_gift_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -61057,7 +61039,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>2197</v>
+        <v>2189</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>2212</v>
@@ -61067,7 +61049,7 @@
       </c>
       <c r="G71" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_hat_big" Path="PetDress/Accessories/part_head_hat_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_head_antler02_big" Path="PetDress/Accessories/part_head_antler02_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -61075,7 +61057,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>2198</v>
+        <v>2190</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>2212</v>
@@ -61085,7 +61067,7 @@
       </c>
       <c r="G72" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_hat_small" Path="PetDress/Accessories/part_head_hat_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_head_antler02_small" Path="PetDress/Accessories/part_head_antler02_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -61093,7 +61075,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>2199</v>
+        <v>2191</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>2212</v>
@@ -61103,7 +61085,7 @@
       </c>
       <c r="G73" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_merryhat_big" Path="PetDress/Accessories/part_head_merryhat_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_head_antler_big" Path="PetDress/Accessories/part_head_antler_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -61111,7 +61093,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>2200</v>
+        <v>2192</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>2212</v>
@@ -61121,7 +61103,7 @@
       </c>
       <c r="G74" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_merryhat_small" Path="PetDress/Accessories/part_head_merryhat_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_head_antler_small" Path="PetDress/Accessories/part_head_antler_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -61129,7 +61111,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>2201</v>
+        <v>2193</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>2212</v>
@@ -61139,7 +61121,7 @@
       </c>
       <c r="G75" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_wing_bat_big" Path="PetDress/Accessories/part_wing_bat_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_head_coinhat_big" Path="PetDress/Accessories/part_head_coinhat_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -61147,7 +61129,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>2202</v>
+        <v>2194</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>2212</v>
@@ -61157,7 +61139,7 @@
       </c>
       <c r="G76" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_wing_bat_small" Path="PetDress/Accessories/part_wing_bat_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_head_coinhat_small" Path="PetDress/Accessories/part_head_coinhat_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -61165,7 +61147,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>2203</v>
+        <v>2195</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>2212</v>
@@ -61175,7 +61157,7 @@
       </c>
       <c r="G77" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_wing_fan_big" Path="PetDress/Accessories/part_wing_fan_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_head_hat02_big" Path="PetDress/Accessories/part_head_hat02_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -61183,7 +61165,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>2204</v>
+        <v>2196</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>2212</v>
@@ -61193,7 +61175,7 @@
       </c>
       <c r="G78" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_wing_fan_small" Path="PetDress/Accessories/part_wing_fan_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_head_hat02_small" Path="PetDress/Accessories/part_head_hat02_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -61201,7 +61183,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>2205</v>
+        <v>2197</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>2212</v>
@@ -61211,7 +61193,7 @@
       </c>
       <c r="G79" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_wing_snow_big" Path="PetDress/Accessories/part_wing_snow_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_head_hat_big" Path="PetDress/Accessories/part_head_hat_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -61219,7 +61201,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>2206</v>
+        <v>2198</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>2212</v>
@@ -61229,7 +61211,7 @@
       </c>
       <c r="G80" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_wing_snow_small" Path="PetDress/Accessories/part_wing_snow_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_head_hat_small" Path="PetDress/Accessories/part_head_hat_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -61237,7 +61219,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>2207</v>
+        <v>2199</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>2212</v>
@@ -61247,7 +61229,7 @@
       </c>
       <c r="G81" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="suit_pur_merry_big" Path="PetDress/Accessories/suit_pur_merry_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_head_merryhat_big" Path="PetDress/Accessories/part_head_merryhat_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -61255,7 +61237,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>2208</v>
+        <v>2200</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>2212</v>
@@ -61265,7 +61247,7 @@
       </c>
       <c r="G82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="suit_pur_merry_small" Path="PetDress/Accessories/suit_pur_merry_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_head_merryhat_small" Path="PetDress/Accessories/part_head_merryhat_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -61273,7 +61255,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>2209</v>
+        <v>2201</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>2212</v>
@@ -61283,7 +61265,7 @@
       </c>
       <c r="G83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="suit_yoyo_mousespring_big" Path="PetDress/Accessories/suit_yoyo_mousespring_big" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_wing_bat_big" Path="PetDress/Accessories/part_wing_bat_big" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -61291,7 +61273,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>2210</v>
+        <v>2202</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>2212</v>
@@ -61301,94 +61283,172 @@
       </c>
       <c r="G84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="suit_yoyo_mousespring_small" Path="PetDress/Accessories/suit_yoyo_mousespring_small" Type="Image" /&gt;</v>
+        <v xml:space="preserve">  &lt;File Name="part_wing_bat_small" Path="PetDress/Accessories/part_wing_bat_small" Type="Image" /&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="164">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>2215</v>
       </c>
       <c r="G85" s="3" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_wing_fan_big" Path="PetDress/Accessories/part_wing_fan_big" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="164">
+        <v>2</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_wing_fan_small" Path="PetDress/Accessories/part_wing_fan_small" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="164">
+        <v>2</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_wing_snow_big" Path="PetDress/Accessories/part_wing_snow_big" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="164">
+        <v>2</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_wing_snow_small" Path="PetDress/Accessories/part_wing_snow_small" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="164">
+        <v>2</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G89" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="suit_pur_merry_big" Path="PetDress/Accessories/suit_pur_merry_big" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="164">
+        <v>2</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G90" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="suit_pur_merry_small" Path="PetDress/Accessories/suit_pur_merry_small" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="164">
+        <v>2</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G91" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="suit_yoyo_mousespring_big" Path="PetDress/Accessories/suit_yoyo_mousespring_big" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="164">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G92" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="suit_yoyo_mousespring_small" Path="PetDress/Accessories/suit_yoyo_mousespring_small" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="164">
+        <v>3</v>
+      </c>
+      <c r="G93" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="A1:G7 E5:E84 G4:G85">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="&lt;!--">
+  <conditionalFormatting sqref="A1:G1048576">
+    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="13" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:G1048576">
-    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:G23 A23:A84 G23:G85 F24:F84">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A20)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:G10">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:G13">
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:G16">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:G19">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="&lt;!--">
-      <formula>NOT(ISERROR(SEARCH("&lt;!--",A17)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="12" priority="30">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="2147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="2150">
   <si>
     <t>ID</t>
   </si>
@@ -6597,6 +6597,17 @@
   </si>
   <si>
     <t>Dummy_wing</t>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -7663,7 +7674,43 @@
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="117">
+  <dxfs count="120">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -8425,6 +8472,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF4B4B"/>
       <color rgb="FFFFFFA7"/>
       <color rgb="FFEEDDFF"/>
       <color rgb="FFFF481D"/>
@@ -8434,7 +8482,6 @@
       <color rgb="FFFFAFAF"/>
       <color rgb="FFFFFF5B"/>
       <color rgb="FF007635"/>
-      <color rgb="FFC7EB53"/>
     </mruColors>
   </colors>
   <extLst>
@@ -8492,24 +8539,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_32" displayName="表1_32" ref="B1:S91" totalsRowShown="0">
   <autoFilter ref="B1:S91"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Id" dataDxfId="116"/>
-    <tableColumn id="2" name="Name" dataDxfId="115"/>
-    <tableColumn id="3" name="Background" dataDxfId="114"/>
-    <tableColumn id="4" name="Model" dataDxfId="113"/>
-    <tableColumn id="5" name="NimIcon" dataDxfId="112"/>
-    <tableColumn id="6" name="QuestId" dataDxfId="111"/>
-    <tableColumn id="7" name="dailyGoalPercent" dataDxfId="110"/>
-    <tableColumn id="8" name="AwardCoin" dataDxfId="109"/>
-    <tableColumn id="9" name="BGM" dataDxfId="108"/>
-    <tableColumn id="10" name="Sound" dataDxfId="107"/>
-    <tableColumn id="11" name="WaterDrop" dataDxfId="106"/>
-    <tableColumn id="12" name="WaterDropAudio" dataDxfId="105"/>
-    <tableColumn id="13" name="Box1 ID" dataDxfId="104"/>
-    <tableColumn id="14" name="Box1 Height" dataDxfId="103"/>
-    <tableColumn id="15" name="Box2 ID" dataDxfId="102"/>
-    <tableColumn id="16" name="Box2 Height" dataDxfId="101"/>
-    <tableColumn id="17" name="输出" dataDxfId="100"/>
-    <tableColumn id="18" name="输入" dataDxfId="99"/>
+    <tableColumn id="1" name="Id" dataDxfId="119"/>
+    <tableColumn id="2" name="Name" dataDxfId="118"/>
+    <tableColumn id="3" name="Background" dataDxfId="117"/>
+    <tableColumn id="4" name="Model" dataDxfId="116"/>
+    <tableColumn id="5" name="NimIcon" dataDxfId="115"/>
+    <tableColumn id="6" name="QuestId" dataDxfId="114"/>
+    <tableColumn id="7" name="dailyGoalPercent" dataDxfId="113"/>
+    <tableColumn id="8" name="AwardCoin" dataDxfId="112"/>
+    <tableColumn id="9" name="BGM" dataDxfId="111"/>
+    <tableColumn id="10" name="Sound" dataDxfId="110"/>
+    <tableColumn id="11" name="WaterDrop" dataDxfId="109"/>
+    <tableColumn id="12" name="WaterDropAudio" dataDxfId="108"/>
+    <tableColumn id="13" name="Box1 ID" dataDxfId="107"/>
+    <tableColumn id="14" name="Box1 Height" dataDxfId="106"/>
+    <tableColumn id="15" name="Box2 ID" dataDxfId="105"/>
+    <tableColumn id="16" name="Box2 Height" dataDxfId="104"/>
+    <tableColumn id="17" name="输出" dataDxfId="103"/>
+    <tableColumn id="18" name="输入" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8519,12 +8566,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="B1:G1048493" totalsRowShown="0">
   <autoFilter ref="B1:G1048493"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="98"/>
-    <tableColumn id="2" name="Type" dataDxfId="97"/>
-    <tableColumn id="3" name="Name" dataDxfId="96"/>
-    <tableColumn id="4" name="ItemId" dataDxfId="95"/>
-    <tableColumn id="5" name="Value" dataDxfId="94"/>
-    <tableColumn id="6" name="输出" dataDxfId="93"/>
+    <tableColumn id="1" name="Id" dataDxfId="101"/>
+    <tableColumn id="2" name="Type" dataDxfId="100"/>
+    <tableColumn id="3" name="Name" dataDxfId="99"/>
+    <tableColumn id="4" name="ItemId" dataDxfId="98"/>
+    <tableColumn id="5" name="Value" dataDxfId="97"/>
+    <tableColumn id="6" name="输出" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -58896,288 +58943,288 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="92" priority="79" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="95" priority="79" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="80">
+    <cfRule type="expression" dxfId="94" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="81">
+    <cfRule type="expression" dxfId="93" priority="81">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A837:G837">
-    <cfRule type="containsText" dxfId="89" priority="22" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="92" priority="22" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A837)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="23">
+    <cfRule type="expression" dxfId="91" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="24">
+    <cfRule type="expression" dxfId="90" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A859:G1048576 G841:G852">
-    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="89" priority="85" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="86">
+    <cfRule type="expression" dxfId="88" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="87">
+    <cfRule type="expression" dxfId="87" priority="87">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:G27 A28:F28">
-    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="86" priority="82" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="83">
+    <cfRule type="expression" dxfId="85" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="84">
+    <cfRule type="expression" dxfId="84" priority="84">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A434:G436">
-    <cfRule type="containsText" dxfId="80" priority="76" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="83" priority="76" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A434)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="77">
+    <cfRule type="expression" dxfId="82" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="78">
+    <cfRule type="expression" dxfId="81" priority="78">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791:G792 A797:G797 A793:D795 F793:G795 E793:E796">
-    <cfRule type="containsText" dxfId="77" priority="67" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="80" priority="67" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="68">
+    <cfRule type="expression" dxfId="79" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="69">
+    <cfRule type="expression" dxfId="78" priority="69">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A796:D796 F796:G796">
-    <cfRule type="containsText" dxfId="74" priority="64" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="77" priority="64" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="65">
+    <cfRule type="expression" dxfId="76" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="66">
+    <cfRule type="expression" dxfId="75" priority="66">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798:G800">
-    <cfRule type="containsText" dxfId="71" priority="61" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="74" priority="61" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="62">
+    <cfRule type="expression" dxfId="73" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="63">
+    <cfRule type="expression" dxfId="72" priority="63">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A801:G803">
-    <cfRule type="containsText" dxfId="68" priority="58" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="71" priority="58" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="59">
+    <cfRule type="expression" dxfId="70" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="60">
+    <cfRule type="expression" dxfId="69" priority="60">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804:G806">
-    <cfRule type="containsText" dxfId="65" priority="55" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="68" priority="55" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="56">
+    <cfRule type="expression" dxfId="67" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="57">
+    <cfRule type="expression" dxfId="66" priority="57">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A807:G809">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="3">
+    <cfRule type="expression" dxfId="63" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A810:G812">
-    <cfRule type="containsText" dxfId="59" priority="52" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="62" priority="52" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="53">
+    <cfRule type="expression" dxfId="61" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="54">
+    <cfRule type="expression" dxfId="60" priority="54">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A813:G815">
-    <cfRule type="containsText" dxfId="56" priority="49" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="59" priority="49" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A813)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="50">
+    <cfRule type="expression" dxfId="58" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="51">
+    <cfRule type="expression" dxfId="57" priority="51">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A816:G818">
-    <cfRule type="containsText" dxfId="53" priority="46" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="56" priority="46" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A816)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="47">
+    <cfRule type="expression" dxfId="55" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="48">
+    <cfRule type="expression" dxfId="54" priority="48">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A819:G821">
-    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A819)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="44">
+    <cfRule type="expression" dxfId="52" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="45">
+    <cfRule type="expression" dxfId="51" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A822:G824">
-    <cfRule type="containsText" dxfId="47" priority="40" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="50" priority="40" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A822)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="41">
+    <cfRule type="expression" dxfId="49" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="42">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A825:G827">
-    <cfRule type="containsText" dxfId="44" priority="37" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A825)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="38">
+    <cfRule type="expression" dxfId="46" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A828:G830">
-    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="44" priority="34" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A828)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="35">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="42" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A831:G836">
-    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A831)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="32">
+    <cfRule type="expression" dxfId="40" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="33">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A838:G840">
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A838)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="26">
+    <cfRule type="expression" dxfId="37" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="36" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A841:F843">
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A841)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="20">
+    <cfRule type="expression" dxfId="34" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="21">
+    <cfRule type="expression" dxfId="33" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A844:F846">
-    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A844)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="17">
+    <cfRule type="expression" dxfId="31" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A847:F849">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A847)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14">
+    <cfRule type="expression" dxfId="28" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A850:F852">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A850)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A853:G855">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A853)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A856:G858">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A856)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59406,57 +59453,57 @@
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:F10">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:F14">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:F1048576">
-    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61663,13 +61710,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W102"/>
+  <dimension ref="A1:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="Q17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W17" sqref="W17:W34"/>
+      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -61688,12 +61735,12 @@
     <col min="12" max="12" width="16.625" style="78" customWidth="1"/>
     <col min="13" max="13" width="16.625" style="12" customWidth="1"/>
     <col min="14" max="19" width="8.875" style="12"/>
-    <col min="20" max="20" width="8.5" style="14" customWidth="1"/>
-    <col min="21" max="21" width="0.875" style="13" customWidth="1"/>
-    <col min="22" max="16384" width="8.875" style="14"/>
+    <col min="20" max="21" width="8.5" style="14" customWidth="1"/>
+    <col min="22" max="22" width="0.875" style="13" customWidth="1"/>
+    <col min="23" max="16384" width="8.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="15" customFormat="1">
+    <row r="1" spans="1:24" s="15" customFormat="1">
       <c r="A1" s="79" t="s">
         <v>778</v>
       </c>
@@ -61754,15 +61801,18 @@
       <c r="T1" s="79" t="s">
         <v>794</v>
       </c>
-      <c r="U1" s="100"/>
-      <c r="V1" s="79" t="s">
+      <c r="U1" s="79" t="s">
+        <v>2147</v>
+      </c>
+      <c r="V1" s="100"/>
+      <c r="W1" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="79" t="s">
+      <c r="X1" s="79" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="15" customFormat="1">
+    <row r="2" spans="1:24" s="15" customFormat="1">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -61823,15 +61873,15 @@
       <c r="T2" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="U2" s="101"/>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="101"/>
+      <c r="W2" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.25">
+    <row r="3" spans="1:24" ht="14.25">
       <c r="A3" s="12">
         <v>20001</v>
       </c>
@@ -61893,17 +61943,20 @@
       <c r="T3" s="12">
         <v>1</v>
       </c>
-      <c r="U3" s="102"/>
-      <c r="V3" s="14" t="str">
-        <f>IF(AND(A3&lt;&gt;"",B3&lt;&gt;""),"&lt;Accessory ID="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Index="""&amp;C3&amp;""" Name="""&amp;D3&amp;""" Icon="""&amp;E3&amp;""" AB="""&amp;F3&amp;""" Prefab="""&amp;G3&amp;""" Region="""&amp;H3&amp;""" Purchase="""&amp;I3&amp;""" Price="""&amp;J3&amp;""" Exp="""&amp;K3&amp;""" StartTime="""&amp;TEXT(L3,"yyyy-MM-dd HH:mm")&amp;""" EndTime="""&amp;TEXT(M3,"yyyy-MM-dd HH:mm")&amp;""" Level="""&amp;N3&amp;""" PURPIE="""&amp;O3&amp;""" DONNY="""&amp;P3&amp;""" NINJI="""&amp;Q3&amp;""" SANSA="""&amp;R3&amp;""" YOYO="""&amp;S3&amp;""" NUO="""&amp;T3&amp;""" /&gt;","")</f>
+      <c r="U3" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V3" s="102"/>
+      <c r="W3" s="14" t="str">
+        <f>IF(AND(A3&lt;&gt;"",B3&lt;&gt;"",U3="是"),"&lt;Accessory ID="""&amp;A3&amp;""" Type="""&amp;B3&amp;""" Index="""&amp;C3&amp;""" Name="""&amp;D3&amp;""" Icon="""&amp;E3&amp;""" AB="""&amp;F3&amp;""" Prefab="""&amp;G3&amp;""" Region="""&amp;H3&amp;""" Purchase="""&amp;I3&amp;""" Price="""&amp;J3&amp;""" Exp="""&amp;K3&amp;""" StartTime="""&amp;TEXT(L3,"yyyy-MM-dd HH:mm")&amp;""" EndTime="""&amp;TEXT(M3,"yyyy-MM-dd HH:mm")&amp;""" Level="""&amp;N3&amp;""" PURPIE="""&amp;O3&amp;""" DONNY="""&amp;P3&amp;""" NINJI="""&amp;Q3&amp;""" SANSA="""&amp;R3&amp;""" YOYO="""&amp;S3&amp;""" NUO="""&amp;T3&amp;""" /&gt;","")</f>
         <v>&lt;Accessory ID="20001" Type="1" Index="14" Name="wizard hat" Icon="part_head_hat" AB="role/cap" Prefab="cap_point_prefab" Region="Dummy_head" Purchase="Coin" Price="200" Exp="10" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W3" s="14" t="str">
+      <c r="X3" s="14" t="str">
         <f>"var/vault_apk_res/Model/"&amp;F3&amp;".ab"</f>
         <v>var/vault_apk_res/Model/role/cap.ab</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.25">
+    <row r="4" spans="1:24" ht="14.25">
       <c r="A4" s="12">
         <v>20002</v>
       </c>
@@ -61965,17 +62018,20 @@
       <c r="T4" s="12">
         <v>1</v>
       </c>
-      <c r="U4" s="102"/>
-      <c r="V4" s="14" t="str">
-        <f t="shared" ref="V4:V27" si="1">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" AB="""&amp;F4&amp;""" Prefab="""&amp;G4&amp;""" Region="""&amp;H4&amp;""" Purchase="""&amp;I4&amp;""" Price="""&amp;J4&amp;""" Exp="""&amp;K4&amp;""" StartTime="""&amp;TEXT(L4,"yyyy-MM-dd HH:mm")&amp;""" EndTime="""&amp;TEXT(M4,"yyyy-MM-dd HH:mm")&amp;""" Level="""&amp;N4&amp;""" PURPIE="""&amp;O4&amp;""" DONNY="""&amp;P4&amp;""" NINJI="""&amp;Q4&amp;""" SANSA="""&amp;R4&amp;""" YOYO="""&amp;S4&amp;""" NUO="""&amp;T4&amp;""" /&gt;","")</f>
+      <c r="U4" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V4" s="102"/>
+      <c r="W4" s="14" t="str">
+        <f t="shared" ref="W4:W34" si="1">IF(AND(A4&lt;&gt;"",B4&lt;&gt;"",U4="是"),"&lt;Accessory ID="""&amp;A4&amp;""" Type="""&amp;B4&amp;""" Index="""&amp;C4&amp;""" Name="""&amp;D4&amp;""" Icon="""&amp;E4&amp;""" AB="""&amp;F4&amp;""" Prefab="""&amp;G4&amp;""" Region="""&amp;H4&amp;""" Purchase="""&amp;I4&amp;""" Price="""&amp;J4&amp;""" Exp="""&amp;K4&amp;""" StartTime="""&amp;TEXT(L4,"yyyy-MM-dd HH:mm")&amp;""" EndTime="""&amp;TEXT(M4,"yyyy-MM-dd HH:mm")&amp;""" Level="""&amp;N4&amp;""" PURPIE="""&amp;O4&amp;""" DONNY="""&amp;P4&amp;""" NINJI="""&amp;Q4&amp;""" SANSA="""&amp;R4&amp;""" YOYO="""&amp;S4&amp;""" NUO="""&amp;T4&amp;""" /&gt;","")</f>
         <v>&lt;Accessory ID="20002" Type="2" Index="15" Name="devil wing" Icon="part_wing_bat" AB="role/wing" Prefab="wing_point_prefab" Region="Dummy_wing" Purchase="Coin" Price="500" Exp="13" StartTime="null" EndTime="null" Level="6" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W4" s="14" t="str">
-        <f t="shared" ref="W4:W34" si="2">"var/vault_apk_res/Model/"&amp;F4&amp;".ab"</f>
+      <c r="X4" s="14" t="str">
+        <f t="shared" ref="X4:X34" si="2">"var/vault_apk_res/Model/"&amp;F4&amp;".ab"</f>
         <v>var/vault_apk_res/Model/role/wing.ab</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.25">
+    <row r="5" spans="1:24" ht="14.25">
       <c r="A5" s="12">
         <v>20003</v>
       </c>
@@ -62037,17 +62093,20 @@
       <c r="T5" s="12">
         <v>1</v>
       </c>
-      <c r="U5" s="102"/>
-      <c r="V5" s="14" t="str">
+      <c r="U5" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V5" s="102"/>
+      <c r="W5" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20003" Type="5" Index="15" Name="ghost" Icon="elf_up_ghost" AB="role/ghost" Prefab="ghost_prefab" Region="TopLeft" Purchase="Coin" Price="2000" Exp="28" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W5" s="14" t="str">
+      <c r="X5" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/ghost.ab</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.25">
+    <row r="6" spans="1:24" ht="14.25">
       <c r="A6" s="12">
         <v>20004</v>
       </c>
@@ -62109,17 +62168,20 @@
       <c r="T6" s="12">
         <v>1</v>
       </c>
-      <c r="U6" s="102"/>
-      <c r="V6" s="14" t="str">
+      <c r="U6" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V6" s="102"/>
+      <c r="W6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20004" Type="6" Index="14" Name="pumpkin" Icon="elf_down_pumpkin" AB="role/pumpkin" Prefab="pumpkin_prefab" Region="BottomRight" Purchase="Coin" Price="800" Exp="16" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W6" s="14" t="str">
+      <c r="X6" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/pumpkin.ab</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.25">
+    <row r="7" spans="1:24" ht="14.25">
       <c r="A7" s="12">
         <v>20005</v>
       </c>
@@ -62181,17 +62243,20 @@
       <c r="T7" s="12">
         <v>1</v>
       </c>
-      <c r="U7" s="102"/>
-      <c r="V7" s="14" t="str">
+      <c r="U7" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V7" s="102"/>
+      <c r="W7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20005" Type="5" Index="10" Name="snow cloud" Icon="elf_up_cloud" AB="role/cloud_snow" Prefab="cloud_snow_prefab" Region="TopLeft" Purchase="Coin" Price="2500" Exp="33" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W7" s="14" t="str">
+      <c r="X7" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/cloud_snow.ab</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.25">
+    <row r="8" spans="1:24" ht="14.25">
       <c r="A8" s="12">
         <v>20006</v>
       </c>
@@ -62253,17 +62318,20 @@
       <c r="T8" s="12">
         <v>1</v>
       </c>
-      <c r="U8" s="102"/>
-      <c r="V8" s="14" t="str">
+      <c r="U8" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V8" s="102"/>
+      <c r="W8" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20006" Type="2" Index="12" Name="snow wing" Icon="part_wing_snow" AB="role/wing_snow" Prefab="wing_snow_prefab" Region="Dummy_wing" Purchase="Coin" Price="1200" Exp="20" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W8" s="14" t="str">
+      <c r="X8" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/wing_snow.ab</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.25">
+    <row r="9" spans="1:24" ht="14.25">
       <c r="A9" s="12">
         <v>20007</v>
       </c>
@@ -62325,17 +62393,20 @@
       <c r="T9" s="12">
         <v>1</v>
       </c>
-      <c r="U9" s="102"/>
-      <c r="V9" s="14" t="str">
+      <c r="U9" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V9" s="102"/>
+      <c r="W9" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20007" Type="1" Index="13" Name="cornu cervi" Icon="part_head_antler" AB="role/cornu cervi" Prefab="cornu cervi_point_prefab" Region="Dummy_head" Purchase="Coin" Price="1800" Exp="26" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W9" s="14" t="str">
+      <c r="X9" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/cornu cervi.ab</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.25">
+    <row r="10" spans="1:24" ht="14.25">
       <c r="A10" s="12">
         <v>20008</v>
       </c>
@@ -62397,17 +62468,20 @@
       <c r="T10" s="12">
         <v>1</v>
       </c>
-      <c r="U10" s="102"/>
-      <c r="V10" s="14" t="str">
+      <c r="U10" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V10" s="102"/>
+      <c r="W10" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20008" Type="6" Index="13" Name="snowman" Icon="elf_down_snowman" AB="role/snowman" Prefab="snowman_prefab" Region="BottomRight" Purchase="Coin" Price="1000" Exp="18" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W10" s="14" t="str">
+      <c r="X10" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/snowman.ab</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.25">
+    <row r="11" spans="1:24" ht="14.25">
       <c r="A11" s="12">
         <v>20009</v>
       </c>
@@ -62469,17 +62543,20 @@
       <c r="T11" s="12">
         <v>1</v>
       </c>
-      <c r="U11" s="102"/>
-      <c r="V11" s="14" t="str">
+      <c r="U11" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V11" s="102"/>
+      <c r="W11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20009" Type="1" Index="10" Name="antler ponit" Icon="part_head_antler02" AB="role/antler" Prefab="antler_ponit_prefab" Region="Dummy_head" Purchase="Coin" Price="300" Exp="11" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W11" s="14" t="str">
+      <c r="X11" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/antler.ab</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.25">
+    <row r="12" spans="1:24" ht="14.25">
       <c r="A12" s="12">
         <v>20010</v>
       </c>
@@ -62541,17 +62618,20 @@
       <c r="T12" s="12">
         <v>1</v>
       </c>
-      <c r="U12" s="102"/>
-      <c r="V12" s="14" t="str">
+      <c r="U12" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V12" s="102"/>
+      <c r="W12" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20010" Type="1" Index="11" Name="christmas hat" Icon="part_head_merryhat" AB="role/christmas hat" Prefab="christmas hat_point_prefab" Region="Dummy_head" Purchase="Coin" Price="800" Exp="16" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W12" s="14" t="str">
+      <c r="X12" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/christmas hat.ab</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.25">
+    <row r="13" spans="1:24" ht="14.25">
       <c r="A13" s="12">
         <v>20011</v>
       </c>
@@ -62613,17 +62693,20 @@
       <c r="T13" s="12">
         <v>0</v>
       </c>
-      <c r="U13" s="102"/>
-      <c r="V13" s="14" t="str">
+      <c r="U13" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V13" s="102"/>
+      <c r="W13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20011" Type="4" Index="2" Name="christmas point" Icon="suit_pur_merry" AB="role/christmas" Prefab="christmas_point_prefab" Region="Dummy_taozhuang" Purchase="Coin" Price="2500" Exp="33" StartTime="null" EndTime="null" Level="10" PURPIE="1" DONNY="0" NINJI="0" SANSA="0" YOYO="0" NUO="0" /&gt;</v>
       </c>
-      <c r="W13" s="14" t="str">
+      <c r="X13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/christmas.ab</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.25">
+    <row r="14" spans="1:24" ht="14.25">
       <c r="A14" s="12">
         <v>20012</v>
       </c>
@@ -62685,17 +62768,20 @@
       <c r="T14" s="12">
         <v>1</v>
       </c>
-      <c r="U14" s="102"/>
-      <c r="V14" s="14" t="str">
+      <c r="U14" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V14" s="102"/>
+      <c r="W14" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20012" Type="6" Index="8" Name="elk" Icon="elf_down_deer" AB="role/elk" Prefab="elk_A_prefab" Region="BottomRight" Purchase="Coin" Price="1500" Exp="23" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W14" s="14" t="str">
+      <c r="X14" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/elk.ab</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.25">
+    <row r="15" spans="1:24" ht="14.25">
       <c r="A15" s="12">
         <v>20013</v>
       </c>
@@ -62757,17 +62843,20 @@
       <c r="T15" s="12">
         <v>1</v>
       </c>
-      <c r="U15" s="102"/>
-      <c r="V15" s="14" t="str">
+      <c r="U15" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V15" s="102"/>
+      <c r="W15" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20013" Type="6" Index="9" Name="elk02" Icon="elf_down_deer02" AB="role/elk" Prefab="elk_B_prefab" Region="BottomRight" Purchase="Cash" Price="1.99" Exp="30" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W15" s="14" t="str">
+      <c r="X15" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/elk.ab</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.25">
+    <row r="16" spans="1:24" ht="14.25">
       <c r="A16" s="12">
         <v>20014</v>
       </c>
@@ -62829,17 +62918,20 @@
       <c r="T16" s="12">
         <v>1</v>
       </c>
-      <c r="U16" s="102"/>
-      <c r="V16" s="14" t="str">
+      <c r="U16" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V16" s="102"/>
+      <c r="W16" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20014" Type="5" Index="11" Name="giftbox" Icon="elf_up_gift" AB="role/giftbox" Prefab="giftbox_prefab" Region="TopLeft" Purchase="Coin" Price="1000" Exp="18" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W16" s="14" t="str">
+      <c r="X16" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/giftbox.ab</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.25">
+    <row r="17" spans="1:24" ht="14.25">
       <c r="A17" s="12">
         <v>20015</v>
       </c>
@@ -62901,17 +62993,20 @@
       <c r="T17" s="12">
         <v>1</v>
       </c>
-      <c r="U17" s="102"/>
-      <c r="V17" s="14" t="str">
+      <c r="U17" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V17" s="102"/>
+      <c r="W17" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20015" Type="5" Index="12" Name="giftbox02" Icon="elf_up_gift02" AB="role/giftbox" Prefab="giftbox_A_prefab" Region="TopLeft" Purchase="Coin" Price="1800" Exp="26" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W17" s="14" t="str">
+      <c r="X17" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/giftbox.ab</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="76" customFormat="1" ht="14.25">
+    <row r="18" spans="1:24" s="76" customFormat="1" ht="14.25">
       <c r="A18" s="81">
         <v>20016</v>
       </c>
@@ -62973,17 +63068,20 @@
       <c r="T18" s="81">
         <v>1</v>
       </c>
-      <c r="U18" s="103"/>
-      <c r="V18" s="14" t="str">
+      <c r="U18" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V18" s="103"/>
+      <c r="W18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20016" Type="1" Index="9" Name="part_head" Icon="part_head_hat02" AB="role/cap" Prefab="cap_pointA_prefab" Region="Dummy_head" Purchase="Coin" Price="300" Exp="11" StartTime="2020-01-24 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W18" s="14" t="str">
+      <c r="X18" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/cap.ab</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="76" customFormat="1" ht="14.25">
+    <row r="19" spans="1:24" s="76" customFormat="1" ht="14.25">
       <c r="A19" s="81">
         <v>20017</v>
       </c>
@@ -63045,17 +63143,20 @@
       <c r="T19" s="81">
         <v>1</v>
       </c>
-      <c r="U19" s="104"/>
-      <c r="V19" s="14" t="str">
+      <c r="U19" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V19" s="104"/>
+      <c r="W19" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20017" Type="1" Index="7" Name="coin hat" Icon="part_head_coinhat" AB="role/coin hat" Prefab="coin hat_point_prefab" Region="Dummy_head" Purchase="Coin" Price="900" Exp="17" StartTime="2020-01-23 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W19" s="14" t="str">
+      <c r="X19" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/coin hat.ab</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="76" customFormat="1" ht="14.25">
+    <row r="20" spans="1:24" s="76" customFormat="1" ht="14.25">
       <c r="A20" s="81">
         <v>20018</v>
       </c>
@@ -63117,17 +63218,20 @@
       <c r="T20" s="81">
         <v>1</v>
       </c>
-      <c r="U20" s="104"/>
-      <c r="V20" s="14" t="str">
+      <c r="U20" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V20" s="104"/>
+      <c r="W20" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20018" Type="2" Index="8" Name="fan wing" Icon="part_wing_fan" AB="role/fan wing" Prefab="fan wing_point_prefab" Region="Dummy_wing" Purchase="Coin" Price="1000" Exp="18" StartTime="2020-01-25 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W20" s="14" t="str">
+      <c r="X20" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/fan wing.ab</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="76" customFormat="1" ht="14.25">
+    <row r="21" spans="1:24" s="76" customFormat="1" ht="14.25">
       <c r="A21" s="81">
         <v>20019</v>
       </c>
@@ -63189,17 +63293,20 @@
       <c r="T21" s="81">
         <v>0</v>
       </c>
-      <c r="U21" s="104"/>
-      <c r="V21" s="14" t="str">
+      <c r="U21" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V21" s="104"/>
+      <c r="W21" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20019" Type="4" Index="1" Name="mouse spring" Icon="suit_yoyo_mousespring" AB="role/mouse spring" Prefab="mouse spring_prefab" Region="Dummy_taozhuang" Purchase="Coin" Price="200" Exp="10" StartTime="2020-01-23 18:00" EndTime="null" Level="1" PURPIE="0" DONNY="0" NINJI="0" SANSA="0" YOYO="1" NUO="0" /&gt;</v>
       </c>
-      <c r="W21" s="14" t="str">
+      <c r="X21" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/mouse spring.ab</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="76" customFormat="1" ht="14.25">
+    <row r="22" spans="1:24" s="76" customFormat="1" ht="14.25">
       <c r="A22" s="81">
         <v>20020</v>
       </c>
@@ -63261,17 +63368,20 @@
       <c r="T22" s="81">
         <v>1</v>
       </c>
-      <c r="U22" s="104"/>
-      <c r="V22" s="14" t="str">
+      <c r="U22" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V22" s="104"/>
+      <c r="W22" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20020" Type="5" Index="1" Name="cloud02" Icon="elf_up_cloud02" AB="role/cloud_snow" Prefab="cloud_snowA_prefab" Region="TopLeft" Purchase="Coin" Price="2500" Exp="33" StartTime="2020-01-23 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W22" s="14" t="str">
+      <c r="X22" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/cloud_snow.ab</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="76" customFormat="1" ht="14.25">
+    <row r="23" spans="1:24" s="76" customFormat="1" ht="14.25">
       <c r="A23" s="81">
         <v>20021</v>
       </c>
@@ -63333,17 +63443,20 @@
       <c r="T23" s="81">
         <v>1</v>
       </c>
-      <c r="U23" s="104"/>
-      <c r="V23" s="14" t="str">
+      <c r="U23" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V23" s="104"/>
+      <c r="W23" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20021" Type="6" Index="2" Name="snowman02" Icon="elf_down_snowman02" AB="role/snowman" Prefab="snowmanB_prefab" Region="BottomRight" Purchase="Coin" Price="1200" Exp="20" StartTime="2020-01-24 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W23" s="14" t="str">
+      <c r="X23" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/snowman.ab</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="76" customFormat="1" ht="14.25">
+    <row r="24" spans="1:24" s="76" customFormat="1" ht="14.25">
       <c r="A24" s="81">
         <v>20022</v>
       </c>
@@ -63405,17 +63518,20 @@
       <c r="T24" s="81">
         <v>1</v>
       </c>
-      <c r="U24" s="104"/>
-      <c r="V24" s="14" t="str">
+      <c r="U24" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V24" s="104"/>
+      <c r="W24" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20022" Type="6" Index="3" Name="snowman03" Icon="elf_down_snowman03" AB="role/snowman" Prefab="snowmanA_prefab" Region="BottomRight" Purchase="Coin" Price="1200" Exp="20" StartTime="2020-01-26 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W24" s="14" t="str">
+      <c r="X24" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/snowman.ab</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="76" customFormat="1" ht="14.25">
+    <row r="25" spans="1:24" s="76" customFormat="1" ht="14.25">
       <c r="A25" s="81">
         <v>20023</v>
       </c>
@@ -63477,17 +63593,20 @@
       <c r="T25" s="81">
         <v>1</v>
       </c>
-      <c r="U25" s="104"/>
-      <c r="V25" s="14" t="str">
+      <c r="U25" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V25" s="104"/>
+      <c r="W25" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20023" Type="6" Index="4" Name="minions" Icon="elf_down_minions" AB="role/elk" Prefab="elk_C_prefab" Region="BottomRight" Purchase="Coin" Price="1700" Exp="25" StartTime="2020-01-27 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W25" s="14" t="str">
+      <c r="X25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/elk.ab</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="76" customFormat="1" ht="14.25">
+    <row r="26" spans="1:24" s="76" customFormat="1" ht="14.25">
       <c r="A26" s="81">
         <v>20024</v>
       </c>
@@ -63549,17 +63668,20 @@
       <c r="T26" s="81">
         <v>1</v>
       </c>
-      <c r="U26" s="104"/>
-      <c r="V26" s="14" t="str">
+      <c r="U26" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V26" s="104"/>
+      <c r="W26" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20024" Type="6" Index="5" Name="Batman" Icon="elf_down_Batman" AB="role/elk" Prefab="elk_D_prefab" Region="BottomRight" Purchase="Coin" Price="1700" Exp="25" StartTime="2020-01-28 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W26" s="14" t="str">
+      <c r="X26" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/elk.ab</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="76" customFormat="1" ht="14.25">
+    <row r="27" spans="1:24" s="76" customFormat="1" ht="14.25">
       <c r="A27" s="81">
         <v>20025</v>
       </c>
@@ -63621,17 +63743,20 @@
       <c r="T27" s="81">
         <v>1</v>
       </c>
-      <c r="U27" s="104"/>
-      <c r="V27" s="14" t="str">
+      <c r="U27" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V27" s="104"/>
+      <c r="W27" s="14" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20025" Type="6" Index="6" Name="little mouse" Icon="elf_down_lmouse" AB="role/little mouse" Prefab="little mouse_prefab" Region="BottomRight" Purchase="Cash" Price="1.99" Exp="30" StartTime="2020-01-29 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W27" s="14" t="str">
+      <c r="X27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/little mouse.ab</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14.25">
+    <row r="28" spans="1:24" ht="14.25">
       <c r="A28" s="12">
         <v>20026</v>
       </c>
@@ -63693,17 +63818,20 @@
       <c r="T28" s="81">
         <v>1</v>
       </c>
-      <c r="U28" s="104"/>
-      <c r="V28" s="14" t="str">
-        <f t="shared" ref="V28:V34" si="3">IF(AND(A28&lt;&gt;"",B28&lt;&gt;""),"&lt;Accessory ID="""&amp;A28&amp;""" Type="""&amp;B28&amp;""" Index="""&amp;C28&amp;""" Name="""&amp;D28&amp;""" Icon="""&amp;E28&amp;""" AB="""&amp;F28&amp;""" Prefab="""&amp;G28&amp;""" Region="""&amp;H28&amp;""" Purchase="""&amp;I28&amp;""" Price="""&amp;J28&amp;""" Exp="""&amp;K28&amp;""" StartTime="""&amp;TEXT(L28,"yyyy-MM-dd HH:mm")&amp;""" EndTime="""&amp;TEXT(M28,"yyyy-MM-dd HH:mm")&amp;""" Level="""&amp;N28&amp;""" PURPIE="""&amp;O28&amp;""" DONNY="""&amp;P28&amp;""" NINJI="""&amp;Q28&amp;""" SANSA="""&amp;R28&amp;""" YOYO="""&amp;S28&amp;""" NUO="""&amp;T28&amp;""" /&gt;","")</f>
+      <c r="U28" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V28" s="104"/>
+      <c r="W28" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20026" Type="6" Index="7" Name="papercut mice" Icon="elf_down_papercut_mice" AB="role/papercut mice" Prefab="papercut mice_prefab" Region="BottomRight" Purchase="Coin" Price="1500" Exp="23" StartTime="2020-01-29 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W28" s="14" t="str">
+      <c r="X28" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/papercut mice.ab</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14.25">
+    <row r="29" spans="1:24" ht="14.25">
       <c r="A29" s="12">
         <v>20027</v>
       </c>
@@ -63764,17 +63892,20 @@
       <c r="T29" s="82">
         <v>1</v>
       </c>
-      <c r="U29" s="105"/>
-      <c r="V29" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="U29" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V29" s="105"/>
+      <c r="W29" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20027" Type="1" Index="3" Name="giftcap" Icon="part_ head_giftcap" AB="role/lovehat" Prefab="lovehat_point_prefab" Region="Dummy_head" Purchase="Cash" Price="5.2" Exp="80" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W29" s="14" t="str">
+      <c r="X29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/lovehat.ab</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14.25">
+    <row r="30" spans="1:24" ht="14.25">
       <c r="A30" s="12">
         <v>20028</v>
       </c>
@@ -63835,17 +63966,20 @@
       <c r="T30" s="82">
         <v>1</v>
       </c>
-      <c r="U30" s="105"/>
-      <c r="V30" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="U30" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V30" s="105"/>
+      <c r="W30" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20028" Type="1" Index="4" Name="glasses" Icon="part_ head_glasses" AB="role/glasses" Prefab="glasses_point_prefab" Region="Dummy_head" Purchase="Coin" Price="600" Exp="14" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W30" s="14" t="str">
+      <c r="X30" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/glasses.ab</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14.25">
+    <row r="31" spans="1:24" ht="14.25">
       <c r="A31" s="12">
         <v>20029</v>
       </c>
@@ -63879,8 +64013,8 @@
       <c r="K31" s="97">
         <v>11</v>
       </c>
-      <c r="L31" s="98" t="s">
-        <v>660</v>
+      <c r="L31" s="98">
+        <v>43898.75</v>
       </c>
       <c r="M31" s="98" t="s">
         <v>660</v>
@@ -63906,17 +64040,20 @@
       <c r="T31" s="82">
         <v>1</v>
       </c>
-      <c r="U31" s="105"/>
-      <c r="V31" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Accessory ID="20029" Type="1" Index="2" Name="halo" Icon="part_ head_halo" AB="role/suit_valentine01" Prefab="suit_valentine01_point_prefab" Region="Dummy_head" Purchase="Coin" Price="300" Exp="11" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
-      </c>
+      <c r="U31" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V31" s="105"/>
       <c r="W31" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Accessory ID="20029" Type="1" Index="2" Name="halo" Icon="part_ head_halo" AB="role/suit_valentine01" Prefab="suit_valentine01_point_prefab" Region="Dummy_head" Purchase="Coin" Price="300" Exp="11" StartTime="2020-03-08 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+      <c r="X31" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/suit_valentine01.ab</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14.25">
+    <row r="32" spans="1:24" ht="14.25">
       <c r="A32" s="12">
         <v>20030</v>
       </c>
@@ -63977,17 +64114,20 @@
       <c r="T32" s="82">
         <v>1</v>
       </c>
-      <c r="U32" s="105"/>
-      <c r="V32" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Accessory ID="20030" Type="1" Index="6" Name="rose" Icon="part_ head_rose" AB="role/garland" Prefab="garland_point_prefab" Region="Dummy_head" Purchase="Coin" Price="1000" Exp="18" StartTime="2020-02-28 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
-      </c>
+      <c r="U32" s="12" t="s">
+        <v>2149</v>
+      </c>
+      <c r="V32" s="105"/>
       <c r="W32" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X32" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/garland.ab</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14.25">
+    <row r="33" spans="1:24" ht="14.25">
       <c r="A33" s="12">
         <v>20031</v>
       </c>
@@ -64022,7 +64162,7 @@
         <v>10</v>
       </c>
       <c r="L33" s="99">
-        <v>43888.75</v>
+        <v>43895.75</v>
       </c>
       <c r="M33" s="98" t="s">
         <v>660</v>
@@ -64048,17 +64188,20 @@
       <c r="T33" s="82">
         <v>1</v>
       </c>
-      <c r="U33" s="105"/>
-      <c r="V33" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Accessory ID="20031" Type="2" Index="5" Name="bow" Icon="part_ wing_bow" AB="role/suit_valentine" Prefab="suit_valentine_point_prefab" Region="Dummy_wing" Purchase="Coin" Price="800" Exp="10" StartTime="2020-02-27 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
-      </c>
+      <c r="U33" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V33" s="105"/>
       <c r="W33" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Accessory ID="20031" Type="2" Index="5" Name="bow" Icon="part_ wing_bow" AB="role/suit_valentine" Prefab="suit_valentine_point_prefab" Region="Dummy_wing" Purchase="Coin" Price="800" Exp="10" StartTime="2020-03-05 18:00" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
+      </c>
+      <c r="X33" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/suit_valentine.ab</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14.25">
+    <row r="34" spans="1:24" ht="14.25">
       <c r="A34" s="12">
         <v>20032</v>
       </c>
@@ -64119,501 +64262,512 @@
       <c r="T34" s="82">
         <v>1</v>
       </c>
-      <c r="U34" s="105"/>
-      <c r="V34" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="U34" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="V34" s="105"/>
+      <c r="W34" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;Accessory ID="20032" Type="2" Index="1" Name="love" Icon="part_ wing_love" AB="role/suit_valentine02" Prefab="suit_valentine02_point_prefab" Region="Dummy_wing" Purchase="Coin" Price="500" Exp="25" StartTime="null" EndTime="null" Level="1" PURPIE="1" DONNY="1" NINJI="1" SANSA="1" YOYO="1" NUO="1" /&gt;</v>
       </c>
-      <c r="W34" s="14" t="str">
+      <c r="X34" s="14" t="str">
         <f t="shared" si="2"/>
         <v>var/vault_apk_res/Model/role/suit_valentine02.ab</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="H35" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U35" s="105"/>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="V35" s="105"/>
+    </row>
+    <row r="36" spans="1:24">
       <c r="H36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U36" s="105"/>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="V36" s="105"/>
+    </row>
+    <row r="37" spans="1:24">
       <c r="H37" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U37" s="105"/>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="V37" s="105"/>
+    </row>
+    <row r="38" spans="1:24">
       <c r="H38" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U38" s="105"/>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="V38" s="105"/>
+    </row>
+    <row r="39" spans="1:24">
       <c r="H39" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U39" s="105"/>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="V39" s="105"/>
+    </row>
+    <row r="40" spans="1:24">
       <c r="H40" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U40" s="105"/>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="V40" s="105"/>
+    </row>
+    <row r="41" spans="1:24">
       <c r="H41" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U41" s="105"/>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="V41" s="105"/>
+    </row>
+    <row r="42" spans="1:24">
       <c r="H42" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U42" s="105"/>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="V42" s="105"/>
+    </row>
+    <row r="43" spans="1:24">
       <c r="H43" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U43" s="105"/>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="V43" s="105"/>
+    </row>
+    <row r="44" spans="1:24">
       <c r="H44" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U44" s="105"/>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="V44" s="105"/>
+    </row>
+    <row r="45" spans="1:24">
       <c r="H45" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U45" s="105"/>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="V45" s="105"/>
+    </row>
+    <row r="46" spans="1:24">
       <c r="H46" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U46" s="105"/>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="V46" s="105"/>
+    </row>
+    <row r="47" spans="1:24">
       <c r="H47" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U47" s="105"/>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="V47" s="105"/>
+    </row>
+    <row r="48" spans="1:24">
       <c r="H48" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U48" s="105"/>
-    </row>
-    <row r="49" spans="8:21">
+      <c r="V48" s="105"/>
+    </row>
+    <row r="49" spans="8:22">
       <c r="H49" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U49" s="105"/>
-    </row>
-    <row r="50" spans="8:21">
+      <c r="V49" s="105"/>
+    </row>
+    <row r="50" spans="8:22">
       <c r="H50" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U50" s="105"/>
-    </row>
-    <row r="51" spans="8:21">
+      <c r="V50" s="105"/>
+    </row>
+    <row r="51" spans="8:22">
       <c r="H51" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U51" s="105"/>
-    </row>
-    <row r="52" spans="8:21">
+      <c r="V51" s="105"/>
+    </row>
+    <row r="52" spans="8:22">
       <c r="H52" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U52" s="105"/>
-    </row>
-    <row r="53" spans="8:21">
+      <c r="V52" s="105"/>
+    </row>
+    <row r="53" spans="8:22">
       <c r="H53" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U53" s="105"/>
-    </row>
-    <row r="54" spans="8:21">
+      <c r="V53" s="105"/>
+    </row>
+    <row r="54" spans="8:22">
       <c r="H54" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U54" s="105"/>
-    </row>
-    <row r="55" spans="8:21">
+      <c r="V54" s="105"/>
+    </row>
+    <row r="55" spans="8:22">
       <c r="H55" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U55" s="105"/>
-    </row>
-    <row r="56" spans="8:21">
+      <c r="V55" s="105"/>
+    </row>
+    <row r="56" spans="8:22">
       <c r="H56" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U56" s="105"/>
-    </row>
-    <row r="57" spans="8:21">
+      <c r="V56" s="105"/>
+    </row>
+    <row r="57" spans="8:22">
       <c r="H57" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U57" s="105"/>
-    </row>
-    <row r="58" spans="8:21">
+      <c r="V57" s="105"/>
+    </row>
+    <row r="58" spans="8:22">
       <c r="H58" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U58" s="105"/>
-    </row>
-    <row r="59" spans="8:21">
+      <c r="V58" s="105"/>
+    </row>
+    <row r="59" spans="8:22">
       <c r="H59" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U59" s="105"/>
-    </row>
-    <row r="60" spans="8:21">
+      <c r="V59" s="105"/>
+    </row>
+    <row r="60" spans="8:22">
       <c r="H60" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U60" s="105"/>
-    </row>
-    <row r="61" spans="8:21">
+      <c r="V60" s="105"/>
+    </row>
+    <row r="61" spans="8:22">
       <c r="H61" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U61" s="105"/>
-    </row>
-    <row r="62" spans="8:21">
+      <c r="V61" s="105"/>
+    </row>
+    <row r="62" spans="8:22">
       <c r="H62" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U62" s="105"/>
-    </row>
-    <row r="63" spans="8:21">
+      <c r="V62" s="105"/>
+    </row>
+    <row r="63" spans="8:22">
       <c r="H63" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U63" s="105"/>
-    </row>
-    <row r="64" spans="8:21">
+      <c r="V63" s="105"/>
+    </row>
+    <row r="64" spans="8:22">
       <c r="H64" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U64" s="105"/>
-    </row>
-    <row r="65" spans="8:21">
+      <c r="V64" s="105"/>
+    </row>
+    <row r="65" spans="8:22">
       <c r="H65" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U65" s="105"/>
-    </row>
-    <row r="66" spans="8:21">
+      <c r="V65" s="105"/>
+    </row>
+    <row r="66" spans="8:22">
       <c r="H66" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U66" s="105"/>
-    </row>
-    <row r="67" spans="8:21">
+      <c r="V66" s="105"/>
+    </row>
+    <row r="67" spans="8:22">
       <c r="H67" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U67" s="105"/>
-    </row>
-    <row r="68" spans="8:21">
+      <c r="V67" s="105"/>
+    </row>
+    <row r="68" spans="8:22">
       <c r="H68" s="14" t="str">
-        <f t="shared" ref="H68:H102" si="4">IF(B68=1,"Dummy_head",IF(B68=2,"Dummy_wing",IF(B68=4,"Dummy_taozhuang",IF(B68=5,"TopLeft",IF(B68=6,"BottomRight","")))))</f>
-        <v/>
-      </c>
-      <c r="U68" s="105"/>
-    </row>
-    <row r="69" spans="8:21">
+        <f t="shared" ref="H68:H102" si="3">IF(B68=1,"Dummy_head",IF(B68=2,"Dummy_wing",IF(B68=4,"Dummy_taozhuang",IF(B68=5,"TopLeft",IF(B68=6,"BottomRight","")))))</f>
+        <v/>
+      </c>
+      <c r="V68" s="105"/>
+    </row>
+    <row r="69" spans="8:22">
       <c r="H69" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U69" s="105"/>
-    </row>
-    <row r="70" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V69" s="105"/>
+    </row>
+    <row r="70" spans="8:22">
       <c r="H70" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U70" s="105"/>
-    </row>
-    <row r="71" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V70" s="105"/>
+    </row>
+    <row r="71" spans="8:22">
       <c r="H71" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U71" s="105"/>
-    </row>
-    <row r="72" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V71" s="105"/>
+    </row>
+    <row r="72" spans="8:22">
       <c r="H72" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U72" s="105"/>
-    </row>
-    <row r="73" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V72" s="105"/>
+    </row>
+    <row r="73" spans="8:22">
       <c r="H73" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U73" s="105"/>
-    </row>
-    <row r="74" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V73" s="105"/>
+    </row>
+    <row r="74" spans="8:22">
       <c r="H74" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U74" s="105"/>
-    </row>
-    <row r="75" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V74" s="105"/>
+    </row>
+    <row r="75" spans="8:22">
       <c r="H75" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U75" s="105"/>
-    </row>
-    <row r="76" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V75" s="105"/>
+    </row>
+    <row r="76" spans="8:22">
       <c r="H76" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U76" s="105"/>
-    </row>
-    <row r="77" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V76" s="105"/>
+    </row>
+    <row r="77" spans="8:22">
       <c r="H77" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U77" s="105"/>
-    </row>
-    <row r="78" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V77" s="105"/>
+    </row>
+    <row r="78" spans="8:22">
       <c r="H78" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U78" s="105"/>
-    </row>
-    <row r="79" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V78" s="105"/>
+    </row>
+    <row r="79" spans="8:22">
       <c r="H79" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U79" s="105"/>
-    </row>
-    <row r="80" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V79" s="105"/>
+    </row>
+    <row r="80" spans="8:22">
       <c r="H80" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U80" s="105"/>
-    </row>
-    <row r="81" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V80" s="105"/>
+    </row>
+    <row r="81" spans="8:22">
       <c r="H81" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U81" s="105"/>
-    </row>
-    <row r="82" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V81" s="105"/>
+    </row>
+    <row r="82" spans="8:22">
       <c r="H82" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U82" s="105"/>
-    </row>
-    <row r="83" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V82" s="105"/>
+    </row>
+    <row r="83" spans="8:22">
       <c r="H83" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U83" s="105"/>
-    </row>
-    <row r="84" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V83" s="105"/>
+    </row>
+    <row r="84" spans="8:22">
       <c r="H84" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U84" s="105"/>
-    </row>
-    <row r="85" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V84" s="105"/>
+    </row>
+    <row r="85" spans="8:22">
       <c r="H85" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U85" s="105"/>
-    </row>
-    <row r="86" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V85" s="105"/>
+    </row>
+    <row r="86" spans="8:22">
       <c r="H86" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U86" s="105"/>
-    </row>
-    <row r="87" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V86" s="105"/>
+    </row>
+    <row r="87" spans="8:22">
       <c r="H87" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U87" s="105"/>
-    </row>
-    <row r="88" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V87" s="105"/>
+    </row>
+    <row r="88" spans="8:22">
       <c r="H88" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U88" s="105"/>
-    </row>
-    <row r="89" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V88" s="105"/>
+    </row>
+    <row r="89" spans="8:22">
       <c r="H89" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U89" s="105"/>
-    </row>
-    <row r="90" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V89" s="105"/>
+    </row>
+    <row r="90" spans="8:22">
       <c r="H90" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U90" s="105"/>
-    </row>
-    <row r="91" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V90" s="105"/>
+    </row>
+    <row r="91" spans="8:22">
       <c r="H91" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U91" s="105"/>
-    </row>
-    <row r="92" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V91" s="105"/>
+    </row>
+    <row r="92" spans="8:22">
       <c r="H92" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U92" s="105"/>
-    </row>
-    <row r="93" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V92" s="105"/>
+    </row>
+    <row r="93" spans="8:22">
       <c r="H93" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U93" s="105"/>
-    </row>
-    <row r="94" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V93" s="105"/>
+    </row>
+    <row r="94" spans="8:22">
       <c r="H94" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U94" s="105"/>
-    </row>
-    <row r="95" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V94" s="105"/>
+    </row>
+    <row r="95" spans="8:22">
       <c r="H95" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U95" s="105"/>
-    </row>
-    <row r="96" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V95" s="105"/>
+    </row>
+    <row r="96" spans="8:22">
       <c r="H96" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U96" s="105"/>
-    </row>
-    <row r="97" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V96" s="105"/>
+    </row>
+    <row r="97" spans="8:22">
       <c r="H97" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U97" s="105"/>
-    </row>
-    <row r="98" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V97" s="105"/>
+    </row>
+    <row r="98" spans="8:22">
       <c r="H98" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U98" s="105"/>
-    </row>
-    <row r="99" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V98" s="105"/>
+    </row>
+    <row r="99" spans="8:22">
       <c r="H99" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U99" s="105"/>
-    </row>
-    <row r="100" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V99" s="105"/>
+    </row>
+    <row r="100" spans="8:22">
       <c r="H100" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U100" s="105"/>
-    </row>
-    <row r="101" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V100" s="105"/>
+    </row>
+    <row r="101" spans="8:22">
       <c r="H101" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U101" s="105"/>
-    </row>
-    <row r="102" spans="8:21">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V101" s="105"/>
+    </row>
+    <row r="102" spans="8:22">
       <c r="H102" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U102" s="105"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V102" s="105"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T102"/>
   <phoneticPr fontId="17" type="noConversion"/>
-  <dataValidations count="2">
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"Dummy_head,Dummy_wing,Host"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>"Coin,Cash"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
+      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="454" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="454" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="15" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="2150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="2152">
   <si>
     <t>ID</t>
   </si>
@@ -6608,6 +6608,13 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>导航轮盘切换图标</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>navigator_change_icon</t>
   </si>
 </sst>
 </file>
@@ -7674,16 +7681,18 @@
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="136">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B4B"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14990691854609822"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7691,11 +7700,20 @@
       <font>
         <b/>
         <i val="0"/>
-        <color auto="1"/>
+        <color rgb="FFFFFF00"/>
       </font>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B4B"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14990691854609822"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7703,13 +7721,92 @@
       <font>
         <b/>
         <i val="0"/>
-        <color auto="1"/>
+        <color rgb="FFFFFF00"/>
       </font>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B4B"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -8468,6 +8565,18 @@
     <dxf>
       <alignment horizontal="left" vertical="center"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -8539,24 +8648,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_32" displayName="表1_32" ref="B1:S91" totalsRowShown="0">
   <autoFilter ref="B1:S91"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Id" dataDxfId="119"/>
-    <tableColumn id="2" name="Name" dataDxfId="118"/>
-    <tableColumn id="3" name="Background" dataDxfId="117"/>
-    <tableColumn id="4" name="Model" dataDxfId="116"/>
-    <tableColumn id="5" name="NimIcon" dataDxfId="115"/>
-    <tableColumn id="6" name="QuestId" dataDxfId="114"/>
-    <tableColumn id="7" name="dailyGoalPercent" dataDxfId="113"/>
-    <tableColumn id="8" name="AwardCoin" dataDxfId="112"/>
-    <tableColumn id="9" name="BGM" dataDxfId="111"/>
-    <tableColumn id="10" name="Sound" dataDxfId="110"/>
-    <tableColumn id="11" name="WaterDrop" dataDxfId="109"/>
-    <tableColumn id="12" name="WaterDropAudio" dataDxfId="108"/>
-    <tableColumn id="13" name="Box1 ID" dataDxfId="107"/>
-    <tableColumn id="14" name="Box1 Height" dataDxfId="106"/>
-    <tableColumn id="15" name="Box2 ID" dataDxfId="105"/>
-    <tableColumn id="16" name="Box2 Height" dataDxfId="104"/>
-    <tableColumn id="17" name="输出" dataDxfId="103"/>
-    <tableColumn id="18" name="输入" dataDxfId="102"/>
+    <tableColumn id="1" name="Id" dataDxfId="134"/>
+    <tableColumn id="2" name="Name" dataDxfId="133"/>
+    <tableColumn id="3" name="Background" dataDxfId="132"/>
+    <tableColumn id="4" name="Model" dataDxfId="131"/>
+    <tableColumn id="5" name="NimIcon" dataDxfId="130"/>
+    <tableColumn id="6" name="QuestId" dataDxfId="129"/>
+    <tableColumn id="7" name="dailyGoalPercent" dataDxfId="128"/>
+    <tableColumn id="8" name="AwardCoin" dataDxfId="127"/>
+    <tableColumn id="9" name="BGM" dataDxfId="126"/>
+    <tableColumn id="10" name="Sound" dataDxfId="125"/>
+    <tableColumn id="11" name="WaterDrop" dataDxfId="124"/>
+    <tableColumn id="12" name="WaterDropAudio" dataDxfId="123"/>
+    <tableColumn id="13" name="Box1 ID" dataDxfId="122"/>
+    <tableColumn id="14" name="Box1 Height" dataDxfId="121"/>
+    <tableColumn id="15" name="Box2 ID" dataDxfId="120"/>
+    <tableColumn id="16" name="Box2 Height" dataDxfId="119"/>
+    <tableColumn id="17" name="输出" dataDxfId="118"/>
+    <tableColumn id="18" name="输入" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8566,12 +8675,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="B1:G1048493" totalsRowShown="0">
   <autoFilter ref="B1:G1048493"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="101"/>
-    <tableColumn id="2" name="Type" dataDxfId="100"/>
-    <tableColumn id="3" name="Name" dataDxfId="99"/>
-    <tableColumn id="4" name="ItemId" dataDxfId="98"/>
-    <tableColumn id="5" name="Value" dataDxfId="97"/>
-    <tableColumn id="6" name="输出" dataDxfId="96"/>
+    <tableColumn id="1" name="Id" dataDxfId="116"/>
+    <tableColumn id="2" name="Type" dataDxfId="115"/>
+    <tableColumn id="3" name="Name" dataDxfId="114"/>
+    <tableColumn id="4" name="ItemId" dataDxfId="113"/>
+    <tableColumn id="5" name="Value" dataDxfId="112"/>
+    <tableColumn id="6" name="输出" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -36324,11 +36433,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G856"/>
+  <dimension ref="A1:G858"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A786" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A856" sqref="A856:XFD859"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A846" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E857" sqref="E857"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -36443,7 +36552,7 @@
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_level_end_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_level_end_01" /&gt;</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>1488</v>
@@ -36527,7 +36636,7 @@
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_hello_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_hello_01" /&gt;</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>1491</v>
@@ -36611,7 +36720,7 @@
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_nod_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_nod_01_01" /&gt;</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>1493</v>
@@ -36639,7 +36748,7 @@
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_nod_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_nod_01_02" /&gt;</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>1494</v>
@@ -36667,7 +36776,7 @@
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_nod_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_nod_01_03" /&gt;</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>1495</v>
@@ -36751,7 +36860,7 @@
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_friend_search_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_friend_search_01" /&gt;</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>1497</v>
@@ -36835,7 +36944,7 @@
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_friend_host_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_friend_host_01" /&gt;</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>1499</v>
@@ -36919,7 +37028,7 @@
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_friend_guest_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_friend_guest_01" /&gt;</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>1501</v>
@@ -37003,7 +37112,7 @@
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_friend_guest_out_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_friend_guest_out_01" /&gt;</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>1503</v>
@@ -37087,7 +37196,7 @@
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_friend_guest_back_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_friend_guest_back_01" /&gt;</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>1505</v>
@@ -37171,7 +37280,7 @@
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_friend_fail_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_friend_fail_01" /&gt;</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>1507</v>
@@ -37255,7 +37364,7 @@
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_morning_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_morning_01_01" /&gt;</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>1509</v>
@@ -37283,7 +37392,7 @@
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_morning_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_morning_01_02" /&gt;</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>1510</v>
@@ -37311,7 +37420,7 @@
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_morning_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_morning_01_03" /&gt;</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>1511</v>
@@ -37339,7 +37448,7 @@
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_morning_01_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_morning_01_04" /&gt;</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>1512</v>
@@ -37367,7 +37476,7 @@
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_morning_01_05" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_morning_01_05" /&gt;</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>1513</v>
@@ -37395,7 +37504,7 @@
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_morning_01_06" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_morning_01_06" /&gt;</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>1514</v>
@@ -37423,7 +37532,7 @@
       </c>
       <c r="F39" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_morning_01_07" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_morning_01_07" /&gt;</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>1515</v>
@@ -37451,7 +37560,7 @@
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_morning_01_08" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_morning_01_08" /&gt;</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>1516</v>
@@ -37535,7 +37644,7 @@
       </c>
       <c r="F43" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_play_up_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_play_up_01" /&gt;</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>1518</v>
@@ -37563,7 +37672,7 @@
       </c>
       <c r="F44" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_play_up_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_play_up_02" /&gt;</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>1519</v>
@@ -37591,7 +37700,7 @@
       </c>
       <c r="F45" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_play_up_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_play_up_03" /&gt;</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>1520</v>
@@ -37619,7 +37728,7 @@
       </c>
       <c r="F46" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_play_up_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_play_up_04" /&gt;</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>1521</v>
@@ -37703,7 +37812,7 @@
       </c>
       <c r="F49" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_play_down_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_play_down_01" /&gt;</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>1523</v>
@@ -37731,7 +37840,7 @@
       </c>
       <c r="F50" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_play_down_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_play_down_02" /&gt;</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>1524</v>
@@ -37759,7 +37868,7 @@
       </c>
       <c r="F51" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_play_down_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_play_down_03" /&gt;</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>1525</v>
@@ -37787,7 +37896,7 @@
       </c>
       <c r="F52" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Clip SoundPath="nin_play_down_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_play_down_04" /&gt;</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>1526</v>
@@ -37871,7 +37980,7 @@
       </c>
       <c r="F55" s="3" t="str">
         <f t="shared" ref="F55:F109" si="13">IF(A55="1","&lt;Sound Type="""&amp;B55&amp;""" Storage="""&amp;C55&amp;""" Dec="""&amp;D55&amp;"""&gt;",IF(A55="2","  &lt;Clip SoundPath="""&amp;E55&amp;""" /&gt;",IF(A55="3",G55,"")))</f>
-        <v>&lt;Clip SoundPath="nin_play_up_down_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_play_up_down_01" /&gt;</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>1528</v>
@@ -37899,7 +38008,7 @@
       </c>
       <c r="F56" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="nin_play_up_down_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_play_up_down_02" /&gt;</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>1529</v>
@@ -37927,7 +38036,7 @@
       </c>
       <c r="F57" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="nin_play_up_down_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_play_up_down_03" /&gt;</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>1530</v>
@@ -37955,7 +38064,7 @@
       </c>
       <c r="F58" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="nin_play_up_down_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_play_up_down_04" /&gt;</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>1531</v>
@@ -37983,7 +38092,7 @@
       </c>
       <c r="F59" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="nin_play_up_down_05" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nin_play_up_down_05" /&gt;</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>1532</v>
@@ -38067,7 +38176,7 @@
       </c>
       <c r="F62" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="level_up_nin_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_nin_01" /&gt;</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>1534</v>
@@ -38095,7 +38204,7 @@
       </c>
       <c r="F63" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="level_up_nin_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_nin_02" /&gt;</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>1535</v>
@@ -38123,7 +38232,7 @@
       </c>
       <c r="F64" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="level_up_nin_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_nin_03" /&gt;</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>1536</v>
@@ -38207,7 +38316,7 @@
       </c>
       <c r="F67" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_nin_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_nin_01" /&gt;</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>1538</v>
@@ -38235,7 +38344,7 @@
       </c>
       <c r="F68" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_nin_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_nin_02" /&gt;</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>1539</v>
@@ -38263,7 +38372,7 @@
       </c>
       <c r="F69" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_nin_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_nin_03" /&gt;</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>1540</v>
@@ -38291,7 +38400,7 @@
       </c>
       <c r="F70" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_nin_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_nin_04" /&gt;</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>1541</v>
@@ -38319,7 +38428,7 @@
       </c>
       <c r="F71" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_nin_05" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_nin_05" /&gt;</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>1542</v>
@@ -38347,7 +38456,7 @@
       </c>
       <c r="F72" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_nin_06" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_nin_06" /&gt;</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>1543</v>
@@ -38431,7 +38540,7 @@
       </c>
       <c r="F75" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="ninji_eat_act_loop" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="ninji_eat_act_loop" /&gt;</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>1545</v>
@@ -38515,7 +38624,7 @@
       </c>
       <c r="F78" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="ninji_eat_act_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="ninji_eat_act_01" /&gt;</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>1547</v>
@@ -38543,7 +38652,7 @@
       </c>
       <c r="F79" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="ninji_eat_act_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="ninji_eat_act_02" /&gt;</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>1548</v>
@@ -38571,7 +38680,7 @@
       </c>
       <c r="F80" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="ninji_eat_act_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="ninji_eat_act_03" /&gt;</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>1549</v>
@@ -38655,7 +38764,7 @@
       </c>
       <c r="F83" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="ninji_eat_full_loop" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="ninji_eat_full_loop" /&gt;</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>1551</v>
@@ -38739,7 +38848,7 @@
       </c>
       <c r="F86" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="ninji_eat_satisfaction" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="ninji_eat_satisfaction" /&gt;</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>1553</v>
@@ -38851,7 +38960,7 @@
       </c>
       <c r="F90" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="san_level_end_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_level_end_01" /&gt;</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>1556</v>
@@ -38935,7 +39044,7 @@
       </c>
       <c r="F93" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="san_hello_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_hello_01" /&gt;</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>1558</v>
@@ -39019,7 +39128,7 @@
       </c>
       <c r="F96" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="san_nod_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_nod_01_01" /&gt;</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>1560</v>
@@ -39047,7 +39156,7 @@
       </c>
       <c r="F97" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="san_nod_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_nod_01_02" /&gt;</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>1561</v>
@@ -39075,7 +39184,7 @@
       </c>
       <c r="F98" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="san_nod_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_nod_01_03" /&gt;</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>1562</v>
@@ -39159,7 +39268,7 @@
       </c>
       <c r="F101" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="san_friend_search_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_friend_search_01" /&gt;</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>1564</v>
@@ -39243,7 +39352,7 @@
       </c>
       <c r="F104" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="san_friend_host_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_friend_host_01" /&gt;</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>1566</v>
@@ -39327,7 +39436,7 @@
       </c>
       <c r="F107" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Clip SoundPath="san_friend_guest_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_friend_guest_01" /&gt;</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>1568</v>
@@ -39411,7 +39520,7 @@
       </c>
       <c r="F110" s="3" t="str">
         <f t="shared" ref="F110:F167" si="19">IF(A110="1","&lt;Sound Type="""&amp;B110&amp;""" Storage="""&amp;C110&amp;""" Dec="""&amp;D110&amp;"""&gt;",IF(A110="2","  &lt;Clip SoundPath="""&amp;E110&amp;""" /&gt;",IF(A110="3",G110,"")))</f>
-        <v>&lt;Clip SoundPath="san_friend_guest_out_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_friend_guest_out_01" /&gt;</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>1570</v>
@@ -39495,7 +39604,7 @@
       </c>
       <c r="F113" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_friend_guest_back_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_friend_guest_back_01" /&gt;</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>1572</v>
@@ -39579,7 +39688,7 @@
       </c>
       <c r="F116" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_friend_fail_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_friend_fail_01" /&gt;</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>1574</v>
@@ -39663,7 +39772,7 @@
       </c>
       <c r="F119" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_morning_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_morning_01_01" /&gt;</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>1576</v>
@@ -39691,7 +39800,7 @@
       </c>
       <c r="F120" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_morning_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_morning_01_02" /&gt;</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>1577</v>
@@ -39719,7 +39828,7 @@
       </c>
       <c r="F121" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_morning_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_morning_01_03" /&gt;</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>1578</v>
@@ -39747,7 +39856,7 @@
       </c>
       <c r="F122" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_morning_01_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_morning_01_04" /&gt;</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>1579</v>
@@ -39775,7 +39884,7 @@
       </c>
       <c r="F123" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_morning_01_05" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_morning_01_05" /&gt;</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>1580</v>
@@ -39803,7 +39912,7 @@
       </c>
       <c r="F124" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_morning_01_06" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_morning_01_06" /&gt;</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>1581</v>
@@ -39831,7 +39940,7 @@
       </c>
       <c r="F125" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_morning_01_07" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_morning_01_07" /&gt;</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>1582</v>
@@ -39859,7 +39968,7 @@
       </c>
       <c r="F126" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_morning_01_08" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_morning_01_08" /&gt;</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>1583</v>
@@ -39943,7 +40052,7 @@
       </c>
       <c r="F129" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_play_up_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_play_up_01" /&gt;</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>1585</v>
@@ -39971,7 +40080,7 @@
       </c>
       <c r="F130" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_play_up_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_play_up_02" /&gt;</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>1586</v>
@@ -39999,7 +40108,7 @@
       </c>
       <c r="F131" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_play_up_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_play_up_03" /&gt;</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>1587</v>
@@ -40027,7 +40136,7 @@
       </c>
       <c r="F132" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_play_up_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_play_up_04" /&gt;</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>1588</v>
@@ -40055,7 +40164,7 @@
       </c>
       <c r="F133" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_play_up_05" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_play_up_05" /&gt;</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>1589</v>
@@ -40139,7 +40248,7 @@
       </c>
       <c r="F136" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_play_down_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_play_down_01" /&gt;</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>1591</v>
@@ -40167,7 +40276,7 @@
       </c>
       <c r="F137" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_play_down_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_play_down_02" /&gt;</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>1592</v>
@@ -40195,7 +40304,7 @@
       </c>
       <c r="F138" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_play_down_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_play_down_03" /&gt;</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>1593</v>
@@ -40223,7 +40332,7 @@
       </c>
       <c r="F139" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_play_down_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_play_down_04" /&gt;</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>1594</v>
@@ -40251,7 +40360,7 @@
       </c>
       <c r="F140" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_play_down_05" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_play_down_05" /&gt;</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>1595</v>
@@ -40335,7 +40444,7 @@
       </c>
       <c r="F143" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_play_up_down_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_play_up_down_01_01" /&gt;</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>1597</v>
@@ -40363,7 +40472,7 @@
       </c>
       <c r="F144" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_play_up_down_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_play_up_down_01_02" /&gt;</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>1598</v>
@@ -40391,7 +40500,7 @@
       </c>
       <c r="F145" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="san_play_up_down_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="san_play_up_down_01_03" /&gt;</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>1599</v>
@@ -40475,7 +40584,7 @@
       </c>
       <c r="F148" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="level_up_san_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_san_01" /&gt;</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>1601</v>
@@ -40503,7 +40612,7 @@
       </c>
       <c r="F149" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="level_up_san_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_san_02" /&gt;</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>1602</v>
@@ -40531,7 +40640,7 @@
       </c>
       <c r="F150" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="level_up_san_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_san_03" /&gt;</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>1603</v>
@@ -40615,7 +40724,7 @@
       </c>
       <c r="F153" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_san_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_san_01" /&gt;</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>1605</v>
@@ -40643,7 +40752,7 @@
       </c>
       <c r="F154" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_san_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_san_02" /&gt;</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>1606</v>
@@ -40671,7 +40780,7 @@
       </c>
       <c r="F155" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_san_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_san_03" /&gt;</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>1607</v>
@@ -40699,7 +40808,7 @@
       </c>
       <c r="F156" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_san_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_san_04" /&gt;</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>1608</v>
@@ -40727,7 +40836,7 @@
       </c>
       <c r="F157" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_san_05" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_san_05" /&gt;</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>1609</v>
@@ -40811,7 +40920,7 @@
       </c>
       <c r="F160" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="sansa_eat_act_loop" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sansa_eat_act_loop" /&gt;</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>1611</v>
@@ -40895,7 +41004,7 @@
       </c>
       <c r="F163" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="sansa_eat_act_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sansa_eat_act_01" /&gt;</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>1613</v>
@@ -40923,7 +41032,7 @@
       </c>
       <c r="F164" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="sansa_eat_act_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sansa_eat_act_02" /&gt;</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>1614</v>
@@ -40951,7 +41060,7 @@
       </c>
       <c r="F165" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Clip SoundPath="sansa_eat_act_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sansa_eat_act_03" /&gt;</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>1615</v>
@@ -41035,7 +41144,7 @@
       </c>
       <c r="F168" s="3" t="str">
         <f t="shared" ref="F168:F216" si="25">IF(A168="1","&lt;Sound Type="""&amp;B168&amp;""" Storage="""&amp;C168&amp;""" Dec="""&amp;D168&amp;"""&gt;",IF(A168="2","  &lt;Clip SoundPath="""&amp;E168&amp;""" /&gt;",IF(A168="3",G168,"")))</f>
-        <v>&lt;Clip SoundPath="sansa_eat_full_loop" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sansa_eat_full_loop" /&gt;</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>1617</v>
@@ -41119,7 +41228,7 @@
       </c>
       <c r="F171" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="sansa_eat_satisfaction" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sansa_eat_satisfaction" /&gt;</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>1619</v>
@@ -41231,7 +41340,7 @@
       </c>
       <c r="F175" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_level_end_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_level_end_01" /&gt;</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>1622</v>
@@ -41315,7 +41424,7 @@
       </c>
       <c r="F178" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_hello_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_hello_01" /&gt;</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>1624</v>
@@ -41399,7 +41508,7 @@
       </c>
       <c r="F181" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_nod_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_nod_01_01" /&gt;</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>1626</v>
@@ -41427,7 +41536,7 @@
       </c>
       <c r="F182" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_nod_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_nod_01_02" /&gt;</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>1627</v>
@@ -41455,7 +41564,7 @@
       </c>
       <c r="F183" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_nod_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_nod_01_03" /&gt;</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>1628</v>
@@ -41539,7 +41648,7 @@
       </c>
       <c r="F186" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_friend_search_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_friend_search_01" /&gt;</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>1630</v>
@@ -41623,7 +41732,7 @@
       </c>
       <c r="F189" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_friend_host_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_friend_host_01" /&gt;</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>1632</v>
@@ -41707,7 +41816,7 @@
       </c>
       <c r="F192" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_friend_guest_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_friend_guest_01" /&gt;</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>1634</v>
@@ -41791,7 +41900,7 @@
       </c>
       <c r="F195" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_friend_guest_out_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_friend_guest_out_01" /&gt;</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>1636</v>
@@ -41875,7 +41984,7 @@
       </c>
       <c r="F198" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_friend_guest_back_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_friend_guest_back_01" /&gt;</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>1638</v>
@@ -41959,7 +42068,7 @@
       </c>
       <c r="F201" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_friend_fail_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_friend_fail_01" /&gt;</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>1640</v>
@@ -42043,7 +42152,7 @@
       </c>
       <c r="F204" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_morning_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_morning_01_01" /&gt;</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>1642</v>
@@ -42071,7 +42180,7 @@
       </c>
       <c r="F205" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_morning_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_morning_01_02" /&gt;</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>1643</v>
@@ -42099,7 +42208,7 @@
       </c>
       <c r="F206" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_morning_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_morning_01_03" /&gt;</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>1644</v>
@@ -42127,7 +42236,7 @@
       </c>
       <c r="F207" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_morning_01_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_morning_01_04" /&gt;</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>1645</v>
@@ -42155,7 +42264,7 @@
       </c>
       <c r="F208" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_morning_01_05" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_morning_01_05" /&gt;</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>1646</v>
@@ -42183,7 +42292,7 @@
       </c>
       <c r="F209" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_morning_01_06" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_morning_01_06" /&gt;</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>1647</v>
@@ -42211,7 +42320,7 @@
       </c>
       <c r="F210" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_morning_01_07" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_morning_01_07" /&gt;</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>1648</v>
@@ -42239,7 +42348,7 @@
       </c>
       <c r="F211" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_morning_01_08" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_morning_01_08" /&gt;</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>1649</v>
@@ -42323,7 +42432,7 @@
       </c>
       <c r="F214" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_play_up_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_play_up_01" /&gt;</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>1651</v>
@@ -42351,7 +42460,7 @@
       </c>
       <c r="F215" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_play_up_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_play_up_02" /&gt;</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>1652</v>
@@ -42379,7 +42488,7 @@
       </c>
       <c r="F216" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;Clip SoundPath="pur_play_up_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_play_up_03" /&gt;</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>1653</v>
@@ -42407,7 +42516,7 @@
       </c>
       <c r="F217" s="3" t="str">
         <f t="shared" ref="F217:F271" si="30">IF(A217="1","&lt;Sound Type="""&amp;B217&amp;""" Storage="""&amp;C217&amp;""" Dec="""&amp;D217&amp;"""&gt;",IF(A217="2","  &lt;Clip SoundPath="""&amp;E217&amp;""" /&gt;",IF(A217="3",G217,"")))</f>
-        <v>&lt;Clip SoundPath="pur_play_up_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_play_up_04" /&gt;</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>1654</v>
@@ -42491,7 +42600,7 @@
       </c>
       <c r="F220" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="pur_play_down_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_play_down_01" /&gt;</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>1656</v>
@@ -42519,7 +42628,7 @@
       </c>
       <c r="F221" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="pur_play_down_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_play_down_02" /&gt;</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>1657</v>
@@ -42547,7 +42656,7 @@
       </c>
       <c r="F222" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="pur_play_down_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_play_down_03" /&gt;</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>1658</v>
@@ -42575,7 +42684,7 @@
       </c>
       <c r="F223" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="pur_play_down_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_play_down_04" /&gt;</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>1659</v>
@@ -42659,7 +42768,7 @@
       </c>
       <c r="F226" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="pur_play_up_down_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_play_up_down_01_01" /&gt;</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>1661</v>
@@ -42687,7 +42796,7 @@
       </c>
       <c r="F227" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="pur_play_up_down_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_play_up_down_01_02" /&gt;</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>1662</v>
@@ -42715,7 +42824,7 @@
       </c>
       <c r="F228" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="pur_play_up_down_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_play_up_down_01_03" /&gt;</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>1663</v>
@@ -42799,7 +42908,7 @@
       </c>
       <c r="F231" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="level_up_pur_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_pur_01" /&gt;</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>1665</v>
@@ -42827,7 +42936,7 @@
       </c>
       <c r="F232" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="level_up_pur_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_pur_02" /&gt;</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>1666</v>
@@ -42855,7 +42964,7 @@
       </c>
       <c r="F233" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="level_up_pur_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_pur_03" /&gt;</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>1667</v>
@@ -42939,7 +43048,7 @@
       </c>
       <c r="F236" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_pur_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_pur_01" /&gt;</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>1669</v>
@@ -42967,7 +43076,7 @@
       </c>
       <c r="F237" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_pur_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_pur_02" /&gt;</v>
       </c>
       <c r="G237" s="3" t="s">
         <v>1670</v>
@@ -42995,7 +43104,7 @@
       </c>
       <c r="F238" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_pur_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_pur_03" /&gt;</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>1671</v>
@@ -43023,7 +43132,7 @@
       </c>
       <c r="F239" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_pur_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_pur_04" /&gt;</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>1672</v>
@@ -43051,7 +43160,7 @@
       </c>
       <c r="F240" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_pur_05" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_pur_05" /&gt;</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>1673</v>
@@ -43079,7 +43188,7 @@
       </c>
       <c r="F241" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_pur_06" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_pur_06" /&gt;</v>
       </c>
       <c r="G241" s="3" t="s">
         <v>1674</v>
@@ -43163,7 +43272,7 @@
       </c>
       <c r="F244" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="pur_eat_act_loop" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_eat_act_loop" /&gt;</v>
       </c>
       <c r="G244" s="3" t="s">
         <v>1676</v>
@@ -43247,7 +43356,7 @@
       </c>
       <c r="F247" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="purpie_eat_act_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="purpie_eat_act_01" /&gt;</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>1678</v>
@@ -43275,7 +43384,7 @@
       </c>
       <c r="F248" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="purpie_eat_act_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="purpie_eat_act_02" /&gt;</v>
       </c>
       <c r="G248" s="3" t="s">
         <v>1679</v>
@@ -43303,7 +43412,7 @@
       </c>
       <c r="F249" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="purpie_eat_act_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="purpie_eat_act_03" /&gt;</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>1680</v>
@@ -43387,7 +43496,7 @@
       </c>
       <c r="F252" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="pur_eat_full_loop" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_eat_full_loop" /&gt;</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>1682</v>
@@ -43471,7 +43580,7 @@
       </c>
       <c r="F255" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="pur_eat_satisfaction" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pur_eat_satisfaction" /&gt;</v>
       </c>
       <c r="G255" s="3" t="s">
         <v>1684</v>
@@ -43583,7 +43692,7 @@
       </c>
       <c r="F259" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="dony_level_end_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_level_end_01" /&gt;</v>
       </c>
       <c r="G259" s="3" t="s">
         <v>1687</v>
@@ -43667,7 +43776,7 @@
       </c>
       <c r="F262" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="dony_hello_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_hello_01" /&gt;</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>1689</v>
@@ -43751,7 +43860,7 @@
       </c>
       <c r="F265" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="dony_nod_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_nod_01_01" /&gt;</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>1691</v>
@@ -43779,7 +43888,7 @@
       </c>
       <c r="F266" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="dony_nod_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_nod_01_02" /&gt;</v>
       </c>
       <c r="G266" s="3" t="s">
         <v>1692</v>
@@ -43807,7 +43916,7 @@
       </c>
       <c r="F267" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="dony_nod_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_nod_01_03" /&gt;</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>1693</v>
@@ -43891,7 +44000,7 @@
       </c>
       <c r="F270" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="dony_friend_search_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_friend_search_01_01" /&gt;</v>
       </c>
       <c r="G270" s="3" t="s">
         <v>1695</v>
@@ -43919,7 +44028,7 @@
       </c>
       <c r="F271" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;Clip SoundPath="dony_friend_search_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_friend_search_01_02" /&gt;</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>1696</v>
@@ -44003,7 +44112,7 @@
       </c>
       <c r="F274" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_friend_host_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_friend_host_01" /&gt;</v>
       </c>
       <c r="G274" s="3" t="s">
         <v>1698</v>
@@ -44087,7 +44196,7 @@
       </c>
       <c r="F277" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_friend_guest_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_friend_guest_01" /&gt;</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>1700</v>
@@ -44171,7 +44280,7 @@
       </c>
       <c r="F280" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_friend_guest_out_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_friend_guest_out_01" /&gt;</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>1702</v>
@@ -44255,7 +44364,7 @@
       </c>
       <c r="F283" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_friend_guest_back_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_friend_guest_back_01" /&gt;</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>1704</v>
@@ -44339,7 +44448,7 @@
       </c>
       <c r="F286" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_friend_fail_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_friend_fail_01" /&gt;</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>1706</v>
@@ -44423,7 +44532,7 @@
       </c>
       <c r="F289" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_morning_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_morning_01_01" /&gt;</v>
       </c>
       <c r="G289" s="3" t="s">
         <v>1708</v>
@@ -44451,7 +44560,7 @@
       </c>
       <c r="F290" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_morning_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_morning_01_02" /&gt;</v>
       </c>
       <c r="G290" s="3" t="s">
         <v>1709</v>
@@ -44479,7 +44588,7 @@
       </c>
       <c r="F291" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_morning_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_morning_01_03" /&gt;</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>1710</v>
@@ -44507,7 +44616,7 @@
       </c>
       <c r="F292" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_morning_01_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_morning_01_04" /&gt;</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>1711</v>
@@ -44535,7 +44644,7 @@
       </c>
       <c r="F293" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_morning_01_05" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_morning_01_05" /&gt;</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>1712</v>
@@ -44563,7 +44672,7 @@
       </c>
       <c r="F294" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_morning_01_06" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_morning_01_06" /&gt;</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>1713</v>
@@ -44591,7 +44700,7 @@
       </c>
       <c r="F295" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_morning_01_07" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_morning_01_07" /&gt;</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>1714</v>
@@ -44619,7 +44728,7 @@
       </c>
       <c r="F296" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_morning_01_08" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_morning_01_08" /&gt;</v>
       </c>
       <c r="G296" s="3" t="s">
         <v>1715</v>
@@ -44703,7 +44812,7 @@
       </c>
       <c r="F299" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_play_up_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_play_up_01_01" /&gt;</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>1717</v>
@@ -44731,7 +44840,7 @@
       </c>
       <c r="F300" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_play_up_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_play_up_01_02" /&gt;</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>1718</v>
@@ -44759,7 +44868,7 @@
       </c>
       <c r="F301" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_play_up_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_play_up_01_03" /&gt;</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>1719</v>
@@ -44843,7 +44952,7 @@
       </c>
       <c r="F304" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_play_down_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_play_down_01_01" /&gt;</v>
       </c>
       <c r="G304" s="3" t="s">
         <v>1721</v>
@@ -44871,7 +44980,7 @@
       </c>
       <c r="F305" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_play_down_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_play_down_01_02" /&gt;</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>1722</v>
@@ -44955,7 +45064,7 @@
       </c>
       <c r="F308" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_play_up_down_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_play_up_down_01_01" /&gt;</v>
       </c>
       <c r="G308" s="3" t="s">
         <v>1724</v>
@@ -44983,7 +45092,7 @@
       </c>
       <c r="F309" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_play_up_down_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_play_up_down_01_02" /&gt;</v>
       </c>
       <c r="G309" s="3" t="s">
         <v>1725</v>
@@ -45011,7 +45120,7 @@
       </c>
       <c r="F310" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_play_up_down_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_play_up_down_01_03" /&gt;</v>
       </c>
       <c r="G310" s="3" t="s">
         <v>1726</v>
@@ -45120,7 +45229,7 @@
       </c>
       <c r="F314" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="level_up_dony_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_dony_01" /&gt;</v>
       </c>
       <c r="G314" s="3" t="s">
         <v>1728</v>
@@ -45148,7 +45257,7 @@
       </c>
       <c r="F315" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="level_up_dony_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_dony_02" /&gt;</v>
       </c>
       <c r="G315" s="3" t="s">
         <v>1729</v>
@@ -45232,7 +45341,7 @@
       </c>
       <c r="F318" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_dony_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_dony_01" /&gt;</v>
       </c>
       <c r="G318" s="3" t="s">
         <v>1731</v>
@@ -45260,7 +45369,7 @@
       </c>
       <c r="F319" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_dony_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_dony_02" /&gt;</v>
       </c>
       <c r="G319" s="3" t="s">
         <v>1732</v>
@@ -45288,7 +45397,7 @@
       </c>
       <c r="F320" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_dony_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_dony_03" /&gt;</v>
       </c>
       <c r="G320" s="3" t="s">
         <v>1733</v>
@@ -45316,7 +45425,7 @@
       </c>
       <c r="F321" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_dony_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_dony_04" /&gt;</v>
       </c>
       <c r="G321" s="3" t="s">
         <v>1734</v>
@@ -45344,7 +45453,7 @@
       </c>
       <c r="F322" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_dony_05" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_dony_05" /&gt;</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>1735</v>
@@ -45428,7 +45537,7 @@
       </c>
       <c r="F325" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_eat_act_loop" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_eat_act_loop" /&gt;</v>
       </c>
       <c r="G325" s="3" t="s">
         <v>1737</v>
@@ -45512,7 +45621,7 @@
       </c>
       <c r="F328" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_eat_act_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_eat_act_01" /&gt;</v>
       </c>
       <c r="G328" s="3" t="s">
         <v>1739</v>
@@ -45540,7 +45649,7 @@
       </c>
       <c r="F329" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;Clip SoundPath="dony_eat_act_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_eat_act_02" /&gt;</v>
       </c>
       <c r="G329" s="3" t="s">
         <v>1740</v>
@@ -45568,7 +45677,7 @@
       </c>
       <c r="F330" s="3" t="str">
         <f t="shared" ref="F330:F378" si="42">IF(A330="1","&lt;Sound Type="""&amp;B330&amp;""" Storage="""&amp;C330&amp;""" Dec="""&amp;D330&amp;"""&gt;",IF(A330="2","  &lt;Clip SoundPath="""&amp;E330&amp;""" /&gt;",IF(A330="3",G330,"")))</f>
-        <v>&lt;Clip SoundPath="dony_eat_act_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_eat_act_03" /&gt;</v>
       </c>
       <c r="G330" s="3" t="s">
         <v>1741</v>
@@ -45652,7 +45761,7 @@
       </c>
       <c r="F333" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="dony_eat_full_loop" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_eat_full_loop" /&gt;</v>
       </c>
       <c r="G333" s="3" t="s">
         <v>1743</v>
@@ -45736,7 +45845,7 @@
       </c>
       <c r="F336" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="dony_eat_satisfaction" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="dony_eat_satisfaction" /&gt;</v>
       </c>
       <c r="G336" s="3" t="s">
         <v>1745</v>
@@ -45848,7 +45957,7 @@
       </c>
       <c r="F340" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_level_end_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_level_end_01" /&gt;</v>
       </c>
       <c r="G340" s="3" t="s">
         <v>1748</v>
@@ -45932,7 +46041,7 @@
       </c>
       <c r="F343" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_hello_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_hello_01" /&gt;</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>1750</v>
@@ -46016,7 +46125,7 @@
       </c>
       <c r="F346" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_nod_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_nod_01_01" /&gt;</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>1752</v>
@@ -46044,7 +46153,7 @@
       </c>
       <c r="F347" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_nod_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_nod_01_02" /&gt;</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>1753</v>
@@ -46072,7 +46181,7 @@
       </c>
       <c r="F348" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_nod_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_nod_01_03" /&gt;</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>1754</v>
@@ -46156,7 +46265,7 @@
       </c>
       <c r="F351" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_friend_search_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_friend_search_01_01" /&gt;</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>1756</v>
@@ -46184,7 +46293,7 @@
       </c>
       <c r="F352" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_friend_search_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_friend_search_01_02" /&gt;</v>
       </c>
       <c r="G352" s="3" t="s">
         <v>1757</v>
@@ -46212,7 +46321,7 @@
       </c>
       <c r="F353" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_friend_search_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_friend_search_01_03" /&gt;</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>1758</v>
@@ -46296,7 +46405,7 @@
       </c>
       <c r="F356" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_friend_host_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_friend_host_01" /&gt;</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>1760</v>
@@ -46380,7 +46489,7 @@
       </c>
       <c r="F359" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_friend_guest_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_friend_guest_01" /&gt;</v>
       </c>
       <c r="G359" s="3" t="s">
         <v>1762</v>
@@ -46464,7 +46573,7 @@
       </c>
       <c r="F362" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_friend_guest_out_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_friend_guest_out_01" /&gt;</v>
       </c>
       <c r="G362" s="3" t="s">
         <v>1764</v>
@@ -46492,7 +46601,7 @@
       </c>
       <c r="F363" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_friend_guest_out_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_friend_guest_out_02" /&gt;</v>
       </c>
       <c r="G363" s="3" t="s">
         <v>1765</v>
@@ -46576,7 +46685,7 @@
       </c>
       <c r="F366" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_friend_guest_back_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_friend_guest_back_01" /&gt;</v>
       </c>
       <c r="G366" s="3" t="s">
         <v>1767</v>
@@ -46660,7 +46769,7 @@
       </c>
       <c r="F369" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_friend_fail_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_friend_fail_01" /&gt;</v>
       </c>
       <c r="G369" s="3" t="s">
         <v>1769</v>
@@ -46744,7 +46853,7 @@
       </c>
       <c r="F372" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_morning_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_morning_01_01" /&gt;</v>
       </c>
       <c r="G372" s="3" t="s">
         <v>1771</v>
@@ -46772,7 +46881,7 @@
       </c>
       <c r="F373" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_morning_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_morning_01_02" /&gt;</v>
       </c>
       <c r="G373" s="3" t="s">
         <v>1772</v>
@@ -46800,7 +46909,7 @@
       </c>
       <c r="F374" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_morning_01_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_morning_01_03" /&gt;</v>
       </c>
       <c r="G374" s="3" t="s">
         <v>1773</v>
@@ -46884,7 +46993,7 @@
       </c>
       <c r="F377" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_play_up_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_play_up_01_01" /&gt;</v>
       </c>
       <c r="G377" s="3" t="s">
         <v>1775</v>
@@ -46912,7 +47021,7 @@
       </c>
       <c r="F378" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>&lt;Clip SoundPath="yoyo_play_up_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_play_up_01_02" /&gt;</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>1776</v>
@@ -46996,7 +47105,7 @@
       </c>
       <c r="F381" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="yoyo_play_down_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_play_down_01_01" /&gt;</v>
       </c>
       <c r="G381" s="3" t="s">
         <v>1778</v>
@@ -47024,7 +47133,7 @@
       </c>
       <c r="F382" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="yoyo_play_down_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_play_down_01_02" /&gt;</v>
       </c>
       <c r="G382" s="3" t="s">
         <v>1779</v>
@@ -47108,7 +47217,7 @@
       </c>
       <c r="F385" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="yoyo_play_up_down_01_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_play_up_down_01_01" /&gt;</v>
       </c>
       <c r="G385" s="3" t="s">
         <v>1781</v>
@@ -47136,7 +47245,7 @@
       </c>
       <c r="F386" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="yoyo_play_up_down_01_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_play_up_down_01_02" /&gt;</v>
       </c>
       <c r="G386" s="3" t="s">
         <v>1782</v>
@@ -47220,7 +47329,7 @@
       </c>
       <c r="F389" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="level_up_yoyo_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_yoyo_01" /&gt;</v>
       </c>
       <c r="G389" s="3" t="s">
         <v>1784</v>
@@ -47248,7 +47357,7 @@
       </c>
       <c r="F390" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="level_up_yoyo_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_yoyo_02" /&gt;</v>
       </c>
       <c r="G390" s="3" t="s">
         <v>1785</v>
@@ -47332,7 +47441,7 @@
       </c>
       <c r="F393" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_yoyo_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_yoyo_01" /&gt;</v>
       </c>
       <c r="G393" s="3" t="s">
         <v>1787</v>
@@ -47360,7 +47469,7 @@
       </c>
       <c r="F394" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_yoyo_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_yoyo_02" /&gt;</v>
       </c>
       <c r="G394" s="3" t="s">
         <v>1788</v>
@@ -47388,7 +47497,7 @@
       </c>
       <c r="F395" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_yoyo_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_yoyo_03" /&gt;</v>
       </c>
       <c r="G395" s="3" t="s">
         <v>1789</v>
@@ -47416,7 +47525,7 @@
       </c>
       <c r="F396" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="nim_chest_open_yoyo_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nim_chest_open_yoyo_04" /&gt;</v>
       </c>
       <c r="G396" s="3" t="s">
         <v>1790</v>
@@ -47500,7 +47609,7 @@
       </c>
       <c r="F399" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="yoyo_eat_act_loop" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_eat_act_loop" /&gt;</v>
       </c>
       <c r="G399" s="3" t="s">
         <v>1792</v>
@@ -47584,7 +47693,7 @@
       </c>
       <c r="F402" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="yoyo_eat_act_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_eat_act_01" /&gt;</v>
       </c>
       <c r="G402" s="3" t="s">
         <v>1794</v>
@@ -47612,7 +47721,7 @@
       </c>
       <c r="F403" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="yoyo_eat_act_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_eat_act_02" /&gt;</v>
       </c>
       <c r="G403" s="3" t="s">
         <v>1795</v>
@@ -47640,7 +47749,7 @@
       </c>
       <c r="F404" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="yoyo_eat_act_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_eat_act_03" /&gt;</v>
       </c>
       <c r="G404" s="3" t="s">
         <v>1796</v>
@@ -47724,7 +47833,7 @@
       </c>
       <c r="F407" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="yoyo_eat_full_loop" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_eat_full_loop" /&gt;</v>
       </c>
       <c r="G407" s="3" t="s">
         <v>1798</v>
@@ -47808,7 +47917,7 @@
       </c>
       <c r="F410" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="yoyo_eat_satisfaction" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="yoyo_eat_satisfaction" /&gt;</v>
       </c>
       <c r="G410" s="3" t="s">
         <v>1800</v>
@@ -47920,7 +48029,7 @@
       </c>
       <c r="F414" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="nuo_level_end_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_level_end_01" /&gt;</v>
       </c>
       <c r="G414" s="3" t="s">
         <v>1803</v>
@@ -48004,7 +48113,7 @@
       </c>
       <c r="F417" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="nuo_hello_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_hello_01" /&gt;</v>
       </c>
       <c r="G417" s="3" t="s">
         <v>1805</v>
@@ -48088,7 +48197,7 @@
       </c>
       <c r="F420" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="nuo_sleep_begin_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_sleep_begin_01" /&gt;</v>
       </c>
       <c r="G420" s="3" t="s">
         <v>1807</v>
@@ -48172,7 +48281,7 @@
       </c>
       <c r="F423" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="nuo_friend_search_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_friend_search_01" /&gt;</v>
       </c>
       <c r="G423" s="3" t="s">
         <v>1809</v>
@@ -48256,7 +48365,7 @@
       </c>
       <c r="F426" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="nuo_friend_host_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_friend_host_01" /&gt;</v>
       </c>
       <c r="G426" s="3" t="s">
         <v>1811</v>
@@ -48340,7 +48449,7 @@
       </c>
       <c r="F429" s="3" t="str">
         <f t="shared" si="47"/>
-        <v>&lt;Clip SoundPath="nuo_friend_guest_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_friend_guest_01" /&gt;</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>1813</v>
@@ -48424,7 +48533,7 @@
       </c>
       <c r="F432" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_friend_guest_back_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_friend_guest_back_01" /&gt;</v>
       </c>
       <c r="G432" s="3" t="s">
         <v>1815</v>
@@ -48508,7 +48617,7 @@
       </c>
       <c r="F435" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_friend_guest_out_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_friend_guest_out_01" /&gt;</v>
       </c>
       <c r="G435" s="3" t="s">
         <v>1817</v>
@@ -48592,7 +48701,7 @@
       </c>
       <c r="F438" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_friend_fail_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_friend_fail_01" /&gt;</v>
       </c>
       <c r="G438" s="3" t="s">
         <v>1819</v>
@@ -48676,7 +48785,7 @@
       </c>
       <c r="F441" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_morning_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_morning_01" /&gt;</v>
       </c>
       <c r="G441" s="3" t="s">
         <v>1821</v>
@@ -48760,7 +48869,7 @@
       </c>
       <c r="F444" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_play_up_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_play_up_01" /&gt;</v>
       </c>
       <c r="G444" s="3" t="s">
         <v>1823</v>
@@ -48844,7 +48953,7 @@
       </c>
       <c r="F447" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_play_down_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_play_down_01" /&gt;</v>
       </c>
       <c r="G447" s="3" t="s">
         <v>1825</v>
@@ -48928,7 +49037,7 @@
       </c>
       <c r="F450" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_play_up_down_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_play_up_down_01" /&gt;</v>
       </c>
       <c r="G450" s="3" t="s">
         <v>1827</v>
@@ -49037,7 +49146,7 @@
       </c>
       <c r="F454" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="level_up_nuo_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_nuo_01" /&gt;</v>
       </c>
       <c r="G454" s="3" t="s">
         <v>1829</v>
@@ -49065,7 +49174,7 @@
       </c>
       <c r="F455" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="level_up_nuo_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="level_up_nuo_02" /&gt;</v>
       </c>
       <c r="G455" s="3" t="s">
         <v>1830</v>
@@ -49149,7 +49258,7 @@
       </c>
       <c r="F458" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_chest_open_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_chest_open_01" /&gt;</v>
       </c>
       <c r="G458" s="3" t="s">
         <v>1832</v>
@@ -49177,7 +49286,7 @@
       </c>
       <c r="F459" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_chest_open_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_chest_open_02" /&gt;</v>
       </c>
       <c r="G459" s="3" t="s">
         <v>1833</v>
@@ -49205,7 +49314,7 @@
       </c>
       <c r="F460" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_chest_open_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_chest_open_03" /&gt;</v>
       </c>
       <c r="G460" s="3" t="s">
         <v>1834</v>
@@ -49289,7 +49398,7 @@
       </c>
       <c r="F463" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_eat_act_loop" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_eat_act_loop" /&gt;</v>
       </c>
       <c r="G463" s="3" t="s">
         <v>1836</v>
@@ -49373,7 +49482,7 @@
       </c>
       <c r="F466" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_eat_act_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_eat_act_01" /&gt;</v>
       </c>
       <c r="G466" s="3" t="s">
         <v>1838</v>
@@ -49401,7 +49510,7 @@
       </c>
       <c r="F467" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_eat_act_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_eat_act_02" /&gt;</v>
       </c>
       <c r="G467" s="3" t="s">
         <v>1839</v>
@@ -49429,7 +49538,7 @@
       </c>
       <c r="F468" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_eat_act_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_eat_act_03" /&gt;</v>
       </c>
       <c r="G468" s="3" t="s">
         <v>1840</v>
@@ -49513,7 +49622,7 @@
       </c>
       <c r="F471" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_eat_full_loop" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_eat_full_loop" /&gt;</v>
       </c>
       <c r="G471" s="3" t="s">
         <v>1842</v>
@@ -49597,7 +49706,7 @@
       </c>
       <c r="F474" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="nuo_eat_satisfaction" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="nuo_eat_satisfaction" /&gt;</v>
       </c>
       <c r="G474" s="3" t="s">
         <v>1844</v>
@@ -49709,7 +49818,7 @@
       </c>
       <c r="F478" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="friend_bgm_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="friend_bgm_01" /&gt;</v>
       </c>
       <c r="G478" s="3" t="s">
         <v>1847</v>
@@ -49821,7 +49930,7 @@
       </c>
       <c r="F482" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="water_drop_down_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="water_drop_down_01" /&gt;</v>
       </c>
       <c r="G482" s="3" t="s">
         <v>1850</v>
@@ -49905,7 +50014,7 @@
       </c>
       <c r="F485" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="water_drop_down_81001" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="water_drop_down_81001" /&gt;</v>
       </c>
       <c r="G485" s="3" t="s">
         <v>1852</v>
@@ -49989,7 +50098,7 @@
       </c>
       <c r="F488" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="water_drop_down_81002" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="water_drop_down_81002" /&gt;</v>
       </c>
       <c r="G488" s="3" t="s">
         <v>1854</v>
@@ -50073,7 +50182,7 @@
       </c>
       <c r="F491" s="3" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;Clip SoundPath="water_drop_down_81003" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="water_drop_down_81003" /&gt;</v>
       </c>
       <c r="G491" s="3" t="s">
         <v>1856</v>
@@ -50157,7 +50266,7 @@
       </c>
       <c r="F494" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="water_drop_down_81004" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="water_drop_down_81004" /&gt;</v>
       </c>
       <c r="G494" s="3" t="s">
         <v>1858</v>
@@ -50241,7 +50350,7 @@
       </c>
       <c r="F497" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="water_raise_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="water_raise_01" /&gt;</v>
       </c>
       <c r="G497" s="3" t="s">
         <v>1860</v>
@@ -50325,7 +50434,7 @@
       </c>
       <c r="F500" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="daily_goal_progress_init_bgm" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="daily_goal_progress_init_bgm" /&gt;</v>
       </c>
       <c r="G500" s="3" t="s">
         <v>1862</v>
@@ -50409,7 +50518,7 @@
       </c>
       <c r="F503" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="daily_goal_progress_done_bgm" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="daily_goal_progress_done_bgm" /&gt;</v>
       </c>
       <c r="G503" s="3" t="s">
         <v>1864</v>
@@ -50493,7 +50602,7 @@
       </c>
       <c r="F506" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="daily_goal_crown_jump_in" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="daily_goal_crown_jump_in" /&gt;</v>
       </c>
       <c r="G506" s="3" t="s">
         <v>1866</v>
@@ -50577,7 +50686,7 @@
       </c>
       <c r="F509" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="daily_goal_crown_jump_out" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="daily_goal_crown_jump_out" /&gt;</v>
       </c>
       <c r="G509" s="3" t="s">
         <v>1868</v>
@@ -50661,7 +50770,7 @@
       </c>
       <c r="F512" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="daily_goal_progress_node_active_1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="daily_goal_progress_node_active_1" /&gt;</v>
       </c>
       <c r="G512" s="3" t="s">
         <v>1870</v>
@@ -50745,7 +50854,7 @@
       </c>
       <c r="F515" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="daily_goal_progress_node_active_2" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="daily_goal_progress_node_active_2" /&gt;</v>
       </c>
       <c r="G515" s="3" t="s">
         <v>1872</v>
@@ -50829,7 +50938,7 @@
       </c>
       <c r="F518" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="daily_goal_progress_node_active_3" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="daily_goal_progress_node_active_3" /&gt;</v>
       </c>
       <c r="G518" s="3" t="s">
         <v>1874</v>
@@ -50913,7 +51022,7 @@
       </c>
       <c r="F521" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="daily_goal_crown_fly_in_shapeshift" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="daily_goal_crown_fly_in_shapeshift" /&gt;</v>
       </c>
       <c r="G521" s="3" t="s">
         <v>1876</v>
@@ -50997,7 +51106,7 @@
       </c>
       <c r="F524" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="daily_goal_crown_fly_out" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="daily_goal_crown_fly_out" /&gt;</v>
       </c>
       <c r="G524" s="3" t="s">
         <v>1878</v>
@@ -51081,7 +51190,7 @@
       </c>
       <c r="F527" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="daily_goal_claim_award" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="daily_goal_claim_award" /&gt;</v>
       </c>
       <c r="G527" s="3" t="s">
         <v>1880</v>
@@ -51165,7 +51274,7 @@
       </c>
       <c r="F530" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="daily_goal_crown_fly_in_shapeshift" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="daily_goal_crown_fly_in_shapeshift" /&gt;</v>
       </c>
       <c r="G530" s="3" t="s">
         <v>1876</v>
@@ -51249,7 +51358,7 @@
       </c>
       <c r="F533" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="daily_goal_crown_fly_in_shapeshift" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="daily_goal_crown_fly_in_shapeshift" /&gt;</v>
       </c>
       <c r="G533" s="3" t="s">
         <v>1876</v>
@@ -51333,7 +51442,7 @@
       </c>
       <c r="F536" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="daily_goal_crown_fly_in_shapeshift" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="daily_goal_crown_fly_in_shapeshift" /&gt;</v>
       </c>
       <c r="G536" s="3" t="s">
         <v>1876</v>
@@ -51417,7 +51526,7 @@
       </c>
       <c r="F539" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="mission_complete_init" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mission_complete_init" /&gt;</v>
       </c>
       <c r="G539" s="3" t="s">
         <v>1885</v>
@@ -51501,7 +51610,7 @@
       </c>
       <c r="F542" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="mission_complete_board_fly_in" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mission_complete_board_fly_in" /&gt;</v>
       </c>
       <c r="G542" s="3" t="s">
         <v>1887</v>
@@ -51585,7 +51694,7 @@
       </c>
       <c r="F545" s="3" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;Clip SoundPath="mission_complete_board_fly_in" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mission_complete_board_fly_in" /&gt;</v>
       </c>
       <c r="G545" s="3" t="s">
         <v>1887</v>
@@ -51669,7 +51778,7 @@
       </c>
       <c r="F548" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="mission_locked" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mission_locked" /&gt;</v>
       </c>
       <c r="G548" s="3" t="s">
         <v>1890</v>
@@ -51753,7 +51862,7 @@
       </c>
       <c r="F551" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="mission_unlock_action" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mission_unlock_action" /&gt;</v>
       </c>
       <c r="G551" s="3" t="s">
         <v>1892</v>
@@ -51865,7 +51974,7 @@
       </c>
       <c r="F555" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="system_charging_start" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="system_charging_start" /&gt;</v>
       </c>
       <c r="G555" s="3" t="s">
         <v>1895</v>
@@ -51949,7 +52058,7 @@
       </c>
       <c r="F558" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="system_charging_low_battery_in" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="system_charging_low_battery_in" /&gt;</v>
       </c>
       <c r="G558" s="3" t="s">
         <v>1897</v>
@@ -52033,7 +52142,7 @@
       </c>
       <c r="F561" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="system_charging_low_battery_out" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="system_charging_low_battery_out" /&gt;</v>
       </c>
       <c r="G561" s="3" t="s">
         <v>1899</v>
@@ -52117,7 +52226,7 @@
       </c>
       <c r="F564" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="system_button_click_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="system_button_click_01" /&gt;</v>
       </c>
       <c r="G564" s="3" t="s">
         <v>1901</v>
@@ -52201,7 +52310,7 @@
       </c>
       <c r="F567" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="popup_alarm_sync" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_alarm_sync" /&gt;</v>
       </c>
       <c r="G567" s="3" t="s">
         <v>1903</v>
@@ -52285,7 +52394,7 @@
       </c>
       <c r="F570" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="popup_dailygoal_sync" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_dailygoal_sync" /&gt;</v>
       </c>
       <c r="G570" s="3" t="s">
         <v>1905</v>
@@ -52369,7 +52478,7 @@
       </c>
       <c r="F573" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="popup_donotdisturb_sync" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_donotdisturb_sync" /&gt;</v>
       </c>
       <c r="G573" s="3" t="s">
         <v>1907</v>
@@ -52453,7 +52562,7 @@
       </c>
       <c r="F576" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="popup_newapk_sync" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_newapk_sync" /&gt;</v>
       </c>
       <c r="G576" s="3" t="s">
         <v>1909</v>
@@ -52537,7 +52646,7 @@
       </c>
       <c r="F579" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="ai_popup_no_network" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="ai_popup_no_network" /&gt;</v>
       </c>
       <c r="G579" s="3" t="s">
         <v>1911</v>
@@ -52621,7 +52730,7 @@
       </c>
       <c r="F582" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="ai_popup_notauthorized" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="ai_popup_notauthorized" /&gt;</v>
       </c>
       <c r="G582" s="3" t="s">
         <v>1913</v>
@@ -52733,7 +52842,7 @@
       </c>
       <c r="F586" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="alarm_morning" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="alarm_morning" /&gt;</v>
       </c>
       <c r="G586" s="3" t="s">
         <v>1916</v>
@@ -52817,7 +52926,7 @@
       </c>
       <c r="F589" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="alarm_other" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="alarm_other" /&gt;</v>
       </c>
       <c r="G589" s="3" t="s">
         <v>1918</v>
@@ -52901,7 +53010,7 @@
       </c>
       <c r="F592" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="alarm_sleep" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="alarm_sleep" /&gt;</v>
       </c>
       <c r="G592" s="3" t="s">
         <v>1920</v>
@@ -52985,7 +53094,7 @@
       </c>
       <c r="F595" s="3" t="str">
         <f t="shared" si="65"/>
-        <v>&lt;Clip SoundPath="alarm_study" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="alarm_study" /&gt;</v>
       </c>
       <c r="G595" s="3" t="s">
         <v>1922</v>
@@ -53097,7 +53206,7 @@
       </c>
       <c r="F599" s="3" t="str">
         <f t="shared" ref="F599:F662" si="72">IF(A599="1","&lt;Sound Type="""&amp;B599&amp;""" Storage="""&amp;C599&amp;""" Dec="""&amp;D599&amp;"""&gt;",IF(A599="2","  &lt;Clip SoundPath="""&amp;E599&amp;""" /&gt;",IF(A599="3",G599,"")))</f>
-        <v>&lt;Clip SoundPath="AI_scene_vad" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="AI_scene_vad" /&gt;</v>
       </c>
       <c r="G599" s="3" t="s">
         <v>1925</v>
@@ -53181,7 +53290,7 @@
       </c>
       <c r="F602" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="ai_popup_not_activated" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="ai_popup_not_activated" /&gt;</v>
       </c>
       <c r="G602" s="3" t="s">
         <v>1927</v>
@@ -53293,7 +53402,7 @@
       </c>
       <c r="F606" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="pair_start_cn" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pair_start_cn" /&gt;</v>
       </c>
       <c r="G606" s="3" t="s">
         <v>1930</v>
@@ -53377,7 +53486,7 @@
       </c>
       <c r="F609" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="pair_active_success_cn" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pair_active_success_cn" /&gt;</v>
       </c>
       <c r="G609" s="3" t="s">
         <v>1932</v>
@@ -53461,7 +53570,7 @@
       </c>
       <c r="F612" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="pair_connect_to_cloud_fail_cn" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pair_connect_to_cloud_fail_cn" /&gt;</v>
       </c>
       <c r="G612" s="3" t="s">
         <v>1934</v>
@@ -53545,7 +53654,7 @@
       </c>
       <c r="F615" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="pair_connect_to_router_fail_password_cn" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pair_connect_to_router_fail_password_cn" /&gt;</v>
       </c>
       <c r="G615" s="3" t="s">
         <v>1936</v>
@@ -53629,7 +53738,7 @@
       </c>
       <c r="F618" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="pair_connect_to_router_fail_other_cn" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pair_connect_to_router_fail_other_cn" /&gt;</v>
       </c>
       <c r="G618" s="3" t="s">
         <v>1938</v>
@@ -53713,7 +53822,7 @@
       </c>
       <c r="F621" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="pair_syncdata_start_cn" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pair_syncdata_start_cn" /&gt;</v>
       </c>
       <c r="G621" s="3" t="s">
         <v>1940</v>
@@ -53797,7 +53906,7 @@
       </c>
       <c r="F624" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="pair_syncdata_success_cn" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pair_syncdata_success_cn" /&gt;</v>
       </c>
       <c r="G624" s="3" t="s">
         <v>1942</v>
@@ -53881,7 +53990,7 @@
       </c>
       <c r="F627" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="pair_update_wifi_success_cn" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="pair_update_wifi_success_cn" /&gt;</v>
       </c>
       <c r="G627" s="3" t="s">
         <v>1944</v>
@@ -53965,7 +54074,7 @@
       </c>
       <c r="F630" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="hint_map_lock_cn" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="hint_map_lock_cn" /&gt;</v>
       </c>
       <c r="G630" s="3" t="s">
         <v>1946</v>
@@ -54049,7 +54158,7 @@
       </c>
       <c r="F633" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="hint_app_download_01_cn" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="hint_app_download_01_cn" /&gt;</v>
       </c>
       <c r="G633" s="3" t="s">
         <v>1948</v>
@@ -54133,7 +54242,7 @@
       </c>
       <c r="F636" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="hint_app_download_crcode_cn" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="hint_app_download_crcode_cn" /&gt;</v>
       </c>
       <c r="G636" s="3" t="s">
         <v>1950</v>
@@ -54217,7 +54326,7 @@
       </c>
       <c r="F639" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="guide_2_id_1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="guide_2_id_1" /&gt;</v>
       </c>
       <c r="G639" s="3" t="s">
         <v>1952</v>
@@ -54301,7 +54410,7 @@
       </c>
       <c r="F642" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="guide_2_systempage_1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="guide_2_systempage_1" /&gt;</v>
       </c>
       <c r="G642" s="3" t="s">
         <v>1954</v>
@@ -54385,7 +54494,7 @@
       </c>
       <c r="F645" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="fresh_news_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="fresh_news_01" /&gt;</v>
       </c>
       <c r="G645" s="3" t="s">
         <v>1956</v>
@@ -54413,7 +54522,7 @@
       </c>
       <c r="F646" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="fresh_news_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="fresh_news_02" /&gt;</v>
       </c>
       <c r="G646" s="3" t="s">
         <v>1957</v>
@@ -54441,7 +54550,7 @@
       </c>
       <c r="F647" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="fresh_news_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="fresh_news_03" /&gt;</v>
       </c>
       <c r="G647" s="3" t="s">
         <v>1958</v>
@@ -54469,7 +54578,7 @@
       </c>
       <c r="F648" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="fresh_news_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="fresh_news_04" /&gt;</v>
       </c>
       <c r="G648" s="3" t="s">
         <v>1959</v>
@@ -54553,7 +54662,7 @@
       </c>
       <c r="F651" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="navmenu_comingsoon_1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="navmenu_comingsoon_1" /&gt;</v>
       </c>
       <c r="G651" s="3" t="s">
         <v>1961</v>
@@ -54581,7 +54690,7 @@
       </c>
       <c r="F652" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="navmenu_comingsoon_2" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="navmenu_comingsoon_2" /&gt;</v>
       </c>
       <c r="G652" s="3" t="s">
         <v>1962</v>
@@ -54609,7 +54718,7 @@
       </c>
       <c r="F653" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="navmenu_comingsoon_3" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="navmenu_comingsoon_3" /&gt;</v>
       </c>
       <c r="G653" s="3" t="s">
         <v>1963</v>
@@ -54637,7 +54746,7 @@
       </c>
       <c r="F654" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="navmenu_comingsoon_4" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="navmenu_comingsoon_4" /&gt;</v>
       </c>
       <c r="G654" s="3" t="s">
         <v>1964</v>
@@ -54721,7 +54830,7 @@
       </c>
       <c r="F657" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="collection_story_tip1" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="collection_story_tip1" /&gt;</v>
       </c>
       <c r="G657" s="3" t="s">
         <v>1966</v>
@@ -54805,7 +54914,7 @@
       </c>
       <c r="F660" s="3" t="str">
         <f t="shared" si="72"/>
-        <v>&lt;Clip SoundPath="collection_story_tip2" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="collection_story_tip2" /&gt;</v>
       </c>
       <c r="G660" s="3" t="s">
         <v>1968</v>
@@ -54889,7 +54998,7 @@
       </c>
       <c r="F663" s="3" t="str">
         <f t="shared" ref="F663:F726" si="78">IF(A663="1","&lt;Sound Type="""&amp;B663&amp;""" Storage="""&amp;C663&amp;""" Dec="""&amp;D663&amp;"""&gt;",IF(A663="2","  &lt;Clip SoundPath="""&amp;E663&amp;""" /&gt;",IF(A663="3",G663,"")))</f>
-        <v>&lt;Clip SoundPath="gain_coin" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="gain_coin" /&gt;</v>
       </c>
       <c r="G663" s="3" t="s">
         <v>1970</v>
@@ -54973,7 +55082,7 @@
       </c>
       <c r="F666" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="popup_download" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_download" /&gt;</v>
       </c>
       <c r="G666" s="3" t="s">
         <v>1972</v>
@@ -55057,7 +55166,7 @@
       </c>
       <c r="F669" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="popup_download_cancel" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_download_cancel" /&gt;</v>
       </c>
       <c r="G669" s="3" t="s">
         <v>1974</v>
@@ -55141,7 +55250,7 @@
       </c>
       <c r="F672" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="popup_no_network" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_no_network" /&gt;</v>
       </c>
       <c r="G672" s="3" t="s">
         <v>1976</v>
@@ -55225,7 +55334,7 @@
       </c>
       <c r="F675" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="popup_feed_welcome" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_feed_welcome" /&gt;</v>
       </c>
       <c r="G675" s="3" t="s">
         <v>1978</v>
@@ -55309,7 +55418,7 @@
       </c>
       <c r="F678" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_001" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_001" /&gt;</v>
       </c>
       <c r="G678" s="3" t="s">
         <v>1980</v>
@@ -55337,7 +55446,7 @@
       </c>
       <c r="F679" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_002" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_002" /&gt;</v>
       </c>
       <c r="G679" s="3" t="s">
         <v>1981</v>
@@ -55365,7 +55474,7 @@
       </c>
       <c r="F680" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_003" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_003" /&gt;</v>
       </c>
       <c r="G680" s="3" t="s">
         <v>1982</v>
@@ -55393,7 +55502,7 @@
       </c>
       <c r="F681" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_004" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_004" /&gt;</v>
       </c>
       <c r="G681" s="3" t="s">
         <v>1983</v>
@@ -55421,7 +55530,7 @@
       </c>
       <c r="F682" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_005" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_005" /&gt;</v>
       </c>
       <c r="G682" s="3" t="s">
         <v>1984</v>
@@ -55505,7 +55614,7 @@
       </c>
       <c r="F685" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="popup_no_coin_001" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_no_coin_001" /&gt;</v>
       </c>
       <c r="G685" s="3" t="s">
         <v>1986</v>
@@ -55533,7 +55642,7 @@
       </c>
       <c r="F686" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="popup_no_coin_002" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_no_coin_002" /&gt;</v>
       </c>
       <c r="G686" s="3" t="s">
         <v>1987</v>
@@ -55561,7 +55670,7 @@
       </c>
       <c r="F687" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="popup_no_coin_003" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_no_coin_003" /&gt;</v>
       </c>
       <c r="G687" s="3" t="s">
         <v>1988</v>
@@ -55645,7 +55754,7 @@
       </c>
       <c r="F690" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_moonfestival_01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_moonfestival_01" /&gt;</v>
       </c>
       <c r="G690" s="3" t="s">
         <v>1990</v>
@@ -55673,7 +55782,7 @@
       </c>
       <c r="F691" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_moonfestival_02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_moonfestival_02" /&gt;</v>
       </c>
       <c r="G691" s="3" t="s">
         <v>1991</v>
@@ -55701,7 +55810,7 @@
       </c>
       <c r="F692" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_moonfestival_03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_moonfestival_03" /&gt;</v>
       </c>
       <c r="G692" s="3" t="s">
         <v>1992</v>
@@ -55729,7 +55838,7 @@
       </c>
       <c r="F693" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_moonfestival_04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_moonfestival_04" /&gt;</v>
       </c>
       <c r="G693" s="3" t="s">
         <v>1993</v>
@@ -55757,7 +55866,7 @@
       </c>
       <c r="F694" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_moonfestival_05" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_moonfestival_05" /&gt;</v>
       </c>
       <c r="G694" s="3" t="s">
         <v>1994</v>
@@ -55841,7 +55950,7 @@
       </c>
       <c r="F697" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_hungry_alert_001" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_hungry_alert_001" /&gt;</v>
       </c>
       <c r="G697" s="3" t="s">
         <v>1996</v>
@@ -55869,7 +55978,7 @@
       </c>
       <c r="F698" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_hungry_alert_002" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_hungry_alert_002" /&gt;</v>
       </c>
       <c r="G698" s="3" t="s">
         <v>1997</v>
@@ -55897,7 +56006,7 @@
       </c>
       <c r="F699" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_hungry_alert_003" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_hungry_alert_003" /&gt;</v>
       </c>
       <c r="G699" s="3" t="s">
         <v>1998</v>
@@ -55981,7 +56090,7 @@
       </c>
       <c r="F702" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_china_001" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_china_001" /&gt;</v>
       </c>
       <c r="G702" s="3" t="s">
         <v>2000</v>
@@ -56009,7 +56118,7 @@
       </c>
       <c r="F703" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_china_002" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_china_002" /&gt;</v>
       </c>
       <c r="G703" s="3" t="s">
         <v>2001</v>
@@ -56037,7 +56146,7 @@
       </c>
       <c r="F704" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_china_003" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_china_003" /&gt;</v>
       </c>
       <c r="G704" s="3" t="s">
         <v>2002</v>
@@ -56065,7 +56174,7 @@
       </c>
       <c r="F705" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_china_004" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_china_004" /&gt;</v>
       </c>
       <c r="G705" s="3" t="s">
         <v>2003</v>
@@ -56093,7 +56202,7 @@
       </c>
       <c r="F706" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="feed_welcome_china_005" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_china_005" /&gt;</v>
       </c>
       <c r="G706" s="3" t="s">
         <v>2004</v>
@@ -56177,7 +56286,7 @@
       </c>
       <c r="F709" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="goods_soldout" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="goods_soldout" /&gt;</v>
       </c>
       <c r="G709" s="3" t="s">
         <v>2006</v>
@@ -56261,7 +56370,7 @@
       </c>
       <c r="F712" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="galaxy_welcome_new" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_welcome_new" /&gt;</v>
       </c>
       <c r="G712" s="3" t="s">
         <v>2008</v>
@@ -56345,7 +56454,7 @@
       </c>
       <c r="F715" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="galaxy_welcome_001" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_welcome_001" /&gt;</v>
       </c>
       <c r="G715" s="3" t="s">
         <v>2010</v>
@@ -56373,7 +56482,7 @@
       </c>
       <c r="F716" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="galaxy_welcome_002" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_welcome_002" /&gt;</v>
       </c>
       <c r="G716" s="3" t="s">
         <v>2011</v>
@@ -56401,7 +56510,7 @@
       </c>
       <c r="F717" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="galaxy_welcome_003" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_welcome_003" /&gt;</v>
       </c>
       <c r="G717" s="3" t="s">
         <v>2012</v>
@@ -56429,7 +56538,7 @@
       </c>
       <c r="F718" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="galaxy_welcome_004" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_welcome_004" /&gt;</v>
       </c>
       <c r="G718" s="3" t="s">
         <v>2013</v>
@@ -56457,7 +56566,7 @@
       </c>
       <c r="F719" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="galaxy_welcome_005" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_welcome_005" /&gt;</v>
       </c>
       <c r="G719" s="3" t="s">
         <v>2014</v>
@@ -56485,7 +56594,7 @@
       </c>
       <c r="F720" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="galaxy_welcome_006" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_welcome_006" /&gt;</v>
       </c>
       <c r="G720" s="3" t="s">
         <v>2015</v>
@@ -56569,7 +56678,7 @@
       </c>
       <c r="F723" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="world_scene_BGM" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="world_scene_BGM" /&gt;</v>
       </c>
       <c r="G723" s="3" t="s">
         <v>2017</v>
@@ -56653,7 +56762,7 @@
       </c>
       <c r="F726" s="3" t="str">
         <f t="shared" si="78"/>
-        <v>&lt;Clip SoundPath="galaxy_new_world_welcome_001" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_new_world_welcome_001" /&gt;</v>
       </c>
       <c r="G726" s="3" t="s">
         <v>2019</v>
@@ -56681,7 +56790,7 @@
       </c>
       <c r="F727" s="3" t="str">
         <f t="shared" ref="F727:F767" si="83">IF(A727="1","&lt;Sound Type="""&amp;B727&amp;""" Storage="""&amp;C727&amp;""" Dec="""&amp;D727&amp;"""&gt;",IF(A727="2","  &lt;Clip SoundPath="""&amp;E727&amp;""" /&gt;",IF(A727="3",G727,"")))</f>
-        <v>&lt;Clip SoundPath="galaxy_new_world_welcome_002" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_new_world_welcome_002" /&gt;</v>
       </c>
       <c r="G727" s="3" t="s">
         <v>2020</v>
@@ -56765,7 +56874,7 @@
       </c>
       <c r="F730" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="mission_complete_retry" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mission_complete_retry" /&gt;</v>
       </c>
       <c r="G730" s="3" t="s">
         <v>2022</v>
@@ -56849,7 +56958,7 @@
       </c>
       <c r="F733" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="guide_homepage_001" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="guide_homepage_001" /&gt;</v>
       </c>
       <c r="G733" s="3" t="s">
         <v>2024</v>
@@ -56877,7 +56986,7 @@
       </c>
       <c r="F734" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="guide_homepage_002" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="guide_homepage_002" /&gt;</v>
       </c>
       <c r="G734" s="3" t="s">
         <v>2025</v>
@@ -56905,7 +57014,7 @@
       </c>
       <c r="F735" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="guide_homepage_003" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="guide_homepage_003" /&gt;</v>
       </c>
       <c r="G735" s="3" t="s">
         <v>2026</v>
@@ -56933,7 +57042,7 @@
       </c>
       <c r="F736" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="guide_homepage_004" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="guide_homepage_004" /&gt;</v>
       </c>
       <c r="G736" s="3" t="s">
         <v>2027</v>
@@ -56961,7 +57070,7 @@
       </c>
       <c r="F737" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="guide_homepage_005" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="guide_homepage_005" /&gt;</v>
       </c>
       <c r="G737" s="3" t="s">
         <v>2028</v>
@@ -56989,7 +57098,7 @@
       </c>
       <c r="F738" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="guide_homepage_006" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="guide_homepage_006" /&gt;</v>
       </c>
       <c r="G738" s="3" t="s">
         <v>2029</v>
@@ -57017,7 +57126,7 @@
       </c>
       <c r="F739" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="guide_homepage_007" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="guide_homepage_007" /&gt;</v>
       </c>
       <c r="G739" s="3" t="s">
         <v>2030</v>
@@ -57045,7 +57154,7 @@
       </c>
       <c r="F740" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="guide_homepage_008" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="guide_homepage_008" /&gt;</v>
       </c>
       <c r="G740" s="3" t="s">
         <v>2031</v>
@@ -57073,7 +57182,7 @@
       </c>
       <c r="F741" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="guide_homepage_009" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="guide_homepage_009" /&gt;</v>
       </c>
       <c r="G741" s="3" t="s">
         <v>2032</v>
@@ -57101,7 +57210,7 @@
       </c>
       <c r="F742" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="guide_homepage_010" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="guide_homepage_010" /&gt;</v>
       </c>
       <c r="G742" s="3" t="s">
         <v>2033</v>
@@ -57129,7 +57238,7 @@
       </c>
       <c r="F743" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="guide_homepage_011" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="guide_homepage_011" /&gt;</v>
       </c>
       <c r="G743" s="3" t="s">
         <v>2034</v>
@@ -57213,7 +57322,7 @@
       </c>
       <c r="F746" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="mainview_tips_sfx" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mainview_tips_sfx" /&gt;</v>
       </c>
       <c r="G746" s="3" t="s">
         <v>2036</v>
@@ -57297,7 +57406,7 @@
       </c>
       <c r="F749" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="feed_welcome_halloween_001" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_halloween_001" /&gt;</v>
       </c>
       <c r="G749" s="3" t="s">
         <v>2038</v>
@@ -57325,7 +57434,7 @@
       </c>
       <c r="F750" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="feed_welcome_halloween_002" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_halloween_002" /&gt;</v>
       </c>
       <c r="G750" s="3" t="s">
         <v>2039</v>
@@ -57353,7 +57462,7 @@
       </c>
       <c r="F751" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="feed_welcome_halloween_003" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_halloween_003" /&gt;</v>
       </c>
       <c r="G751" s="3" t="s">
         <v>2040</v>
@@ -57381,7 +57490,7 @@
       </c>
       <c r="F752" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="feed_welcome_halloween_004" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_halloween_004" /&gt;</v>
       </c>
       <c r="G752" s="3" t="s">
         <v>2041</v>
@@ -57409,7 +57518,7 @@
       </c>
       <c r="F753" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="feed_welcome_halloween_005" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_halloween_005" /&gt;</v>
       </c>
       <c r="G753" s="3" t="s">
         <v>2042</v>
@@ -57493,7 +57602,7 @@
       </c>
       <c r="F756" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="sfx_halloween_11" Rate="100" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sfx_halloween_11" Rate="100" /&gt;</v>
       </c>
       <c r="G756" s="3" t="s">
         <v>2044</v>
@@ -57521,7 +57630,7 @@
       </c>
       <c r="F757" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="sfx_halloween_12" Rate="100" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sfx_halloween_12" Rate="100" /&gt;</v>
       </c>
       <c r="G757" s="3" t="s">
         <v>2045</v>
@@ -57549,7 +57658,7 @@
       </c>
       <c r="F758" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="sfx_halloween_13" Rate="100" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sfx_halloween_13" Rate="100" /&gt;</v>
       </c>
       <c r="G758" s="3" t="s">
         <v>2046</v>
@@ -57633,7 +57742,7 @@
       </c>
       <c r="F761" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="sfx_halloween_01" Rate="100" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sfx_halloween_01" Rate="100" /&gt;</v>
       </c>
       <c r="G761" s="3" t="s">
         <v>2048</v>
@@ -57661,7 +57770,7 @@
       </c>
       <c r="F762" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="sfx_halloween_03" Rate="50" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sfx_halloween_03" Rate="50" /&gt;</v>
       </c>
       <c r="G762" s="3" t="s">
         <v>2049</v>
@@ -57689,7 +57798,7 @@
       </c>
       <c r="F763" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="sfx_halloween_04" Rate="100" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sfx_halloween_04" Rate="100" /&gt;</v>
       </c>
       <c r="G763" s="3" t="s">
         <v>2050</v>
@@ -57717,7 +57826,7 @@
       </c>
       <c r="F764" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="sfx_halloween_05" Rate="100" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sfx_halloween_05" Rate="100" /&gt;</v>
       </c>
       <c r="G764" s="3" t="s">
         <v>2051</v>
@@ -57745,7 +57854,7 @@
       </c>
       <c r="F765" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="sfx_halloween_07" Rate="100" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sfx_halloween_07" Rate="100" /&gt;</v>
       </c>
       <c r="G765" s="3" t="s">
         <v>2052</v>
@@ -57773,7 +57882,7 @@
       </c>
       <c r="F766" s="3" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;Clip SoundPath="sfx_halloween_08" Rate="100" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="sfx_halloween_08" Rate="100" /&gt;</v>
       </c>
       <c r="G766" s="3" t="s">
         <v>2053</v>
@@ -57845,7 +57954,7 @@
       </c>
       <c r="F770" s="3" t="str">
         <f t="shared" ref="F770:F774" si="85">IF(A770=1,"&lt;Sound Type="""&amp;B770&amp;""" Storage="""&amp;C770&amp;""" Dec="""&amp;D770&amp;"""&gt;",IF(A770=2,"  &lt;Clip SoundPath="""&amp;E770&amp;""" /&gt;",IF(A770=3,G770,"")))</f>
-        <v>&lt;Clip SoundPath="feed_welcome_dk_001" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_dk_001" /&gt;</v>
       </c>
     </row>
     <row r="771" spans="1:6">
@@ -57857,7 +57966,7 @@
       </c>
       <c r="F771" s="3" t="str">
         <f t="shared" si="85"/>
-        <v>&lt;Clip SoundPath="feed_welcome_dk_002" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_dk_002" /&gt;</v>
       </c>
     </row>
     <row r="772" spans="1:6">
@@ -57869,7 +57978,7 @@
       </c>
       <c r="F772" s="3" t="str">
         <f t="shared" si="85"/>
-        <v>&lt;Clip SoundPath="feed_welcome_dk_003" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_dk_003" /&gt;</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -57881,7 +57990,7 @@
       </c>
       <c r="F773" s="3" t="str">
         <f t="shared" si="85"/>
-        <v>&lt;Clip SoundPath="feed_welcome_dk_004" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_dk_004" /&gt;</v>
       </c>
     </row>
     <row r="774" spans="1:6">
@@ -57893,7 +58002,7 @@
       </c>
       <c r="F774" s="3" t="str">
         <f t="shared" si="85"/>
-        <v>&lt;Clip SoundPath="feed_welcome_dk_005" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_dk_005" /&gt;</v>
       </c>
     </row>
     <row r="775" spans="1:6">
@@ -57932,7 +58041,7 @@
       </c>
       <c r="F777" s="3" t="str">
         <f t="shared" ref="F777:F780" si="86">IF(A777=1,"&lt;Sound Type="""&amp;B777&amp;""" Storage="""&amp;C777&amp;""" Dec="""&amp;D777&amp;"""&gt;",IF(A777=2,"  &lt;Clip SoundPath="""&amp;E777&amp;""" /&gt;",IF(A777=3,G777,"")))</f>
-        <v>&lt;Clip SoundPath="galaxy_unlock01" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_unlock01" /&gt;</v>
       </c>
     </row>
     <row r="778" spans="1:6">
@@ -57944,7 +58053,7 @@
       </c>
       <c r="F778" s="3" t="str">
         <f t="shared" si="86"/>
-        <v>&lt;Clip SoundPath="galaxy_unlock02" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_unlock02" /&gt;</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -57956,7 +58065,7 @@
       </c>
       <c r="F779" s="3" t="str">
         <f t="shared" si="86"/>
-        <v>&lt;Clip SoundPath="galaxy_unlock03" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_unlock03" /&gt;</v>
       </c>
     </row>
     <row r="780" spans="1:6">
@@ -57968,7 +58077,7 @@
       </c>
       <c r="F780" s="3" t="str">
         <f t="shared" si="86"/>
-        <v>&lt;Clip SoundPath="galaxy_unlock04" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_unlock04" /&gt;</v>
       </c>
     </row>
     <row r="781" spans="1:6">
@@ -58007,7 +58116,7 @@
       </c>
       <c r="F783" s="3" t="str">
         <f t="shared" ref="F783" si="87">IF(A783=1,"&lt;Sound Type="""&amp;B783&amp;""" Storage="""&amp;C783&amp;""" Dec="""&amp;D783&amp;"""&gt;",IF(A783=2,"  &lt;Clip SoundPath="""&amp;E783&amp;""" /&gt;",IF(A783=3,G783,"")))</f>
-        <v>&lt;Clip SoundPath="galaxy_lock_drink" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_lock_drink" /&gt;</v>
       </c>
     </row>
     <row r="784" spans="1:6">
@@ -58046,7 +58155,7 @@
       </c>
       <c r="F786" s="3" t="str">
         <f t="shared" ref="F786" si="88">IF(A786=1,"&lt;Sound Type="""&amp;B786&amp;""" Storage="""&amp;C786&amp;""" Dec="""&amp;D786&amp;"""&gt;",IF(A786=2,"  &lt;Clip SoundPath="""&amp;E786&amp;""" /&gt;",IF(A786=3,G786,"")))</f>
-        <v>&lt;Clip SoundPath="galaxy_lock_time" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="galaxy_lock_time" /&gt;</v>
       </c>
     </row>
     <row r="787" spans="1:6">
@@ -58085,7 +58194,7 @@
       </c>
       <c r="F789" s="3" t="str">
         <f t="shared" ref="F789" si="89">IF(A789=1,"&lt;Sound Type="""&amp;B789&amp;""" Storage="""&amp;C789&amp;""" Dec="""&amp;D789&amp;"""&gt;",IF(A789=2,"  &lt;Clip SoundPath="""&amp;E789&amp;""" /&gt;",IF(A789=3,G789,"")))</f>
-        <v>&lt;Clip SoundPath="mall_bgm" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_bgm" /&gt;</v>
       </c>
     </row>
     <row r="790" spans="1:6">
@@ -58124,7 +58233,7 @@
       </c>
       <c r="F792" s="3" t="str">
         <f t="shared" ref="F792:F795" si="90">IF(A792=1,"&lt;Sound Type="""&amp;B792&amp;""" Storage="""&amp;C792&amp;""" Dec="""&amp;D792&amp;"""&gt;",IF(A792=2,"  &lt;Clip SoundPath="""&amp;E792&amp;""" /&gt;",IF(A792=3,G792,"")))</f>
-        <v>&lt;Clip SoundPath="mall_welcome_001" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_welcome_001" /&gt;</v>
       </c>
     </row>
     <row r="793" spans="1:6">
@@ -58136,7 +58245,7 @@
       </c>
       <c r="F793" s="3" t="str">
         <f t="shared" si="90"/>
-        <v>&lt;Clip SoundPath="mall_welcome_002" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_welcome_002" /&gt;</v>
       </c>
     </row>
     <row r="794" spans="1:6">
@@ -58148,7 +58257,7 @@
       </c>
       <c r="F794" s="3" t="str">
         <f t="shared" si="90"/>
-        <v>&lt;Clip SoundPath="mall_welcome_003" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_welcome_003" /&gt;</v>
       </c>
     </row>
     <row r="795" spans="1:6">
@@ -58160,7 +58269,7 @@
       </c>
       <c r="F795" s="3" t="str">
         <f t="shared" si="90"/>
-        <v>&lt;Clip SoundPath="mall_welcome_004" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_welcome_004" /&gt;</v>
       </c>
     </row>
     <row r="796" spans="1:6">
@@ -58172,7 +58281,7 @@
       </c>
       <c r="F796" s="3" t="str">
         <f t="shared" ref="F796" si="91">IF(A796=1,"&lt;Sound Type="""&amp;B796&amp;""" Storage="""&amp;C796&amp;""" Dec="""&amp;D796&amp;"""&gt;",IF(A796=2,"  &lt;Clip SoundPath="""&amp;E796&amp;""" /&gt;",IF(A796=3,G796,"")))</f>
-        <v>&lt;Clip SoundPath="mall_welcome_005" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_welcome_005" /&gt;</v>
       </c>
     </row>
     <row r="797" spans="1:6">
@@ -58211,7 +58320,7 @@
       </c>
       <c r="F799" s="3" t="str">
         <f t="shared" ref="F799" si="92">IF(A799=1,"&lt;Sound Type="""&amp;B799&amp;""" Storage="""&amp;C799&amp;""" Dec="""&amp;D799&amp;"""&gt;",IF(A799=2,"  &lt;Clip SoundPath="""&amp;E799&amp;""" /&gt;",IF(A799=3,G799,"")))</f>
-        <v>&lt;Clip SoundPath="mall_purchase_lock" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_lock" /&gt;</v>
       </c>
     </row>
     <row r="800" spans="1:6">
@@ -58250,7 +58359,7 @@
       </c>
       <c r="F802" s="3" t="str">
         <f t="shared" ref="F802" si="93">IF(A802=1,"&lt;Sound Type="""&amp;B802&amp;""" Storage="""&amp;C802&amp;""" Dec="""&amp;D802&amp;"""&gt;",IF(A802=2,"  &lt;Clip SoundPath="""&amp;E802&amp;""" /&gt;",IF(A802=3,G802,"")))</f>
-        <v>&lt;Clip SoundPath="mall_suit_not_match" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_suit_not_match" /&gt;</v>
       </c>
     </row>
     <row r="803" spans="1:6">
@@ -58289,7 +58398,7 @@
       </c>
       <c r="F805" s="3" t="str">
         <f t="shared" ref="F805" si="94">IF(A805=1,"&lt;Sound Type="""&amp;B805&amp;""" Storage="""&amp;C805&amp;""" Dec="""&amp;D805&amp;"""&gt;",IF(A805=2,"  &lt;Clip SoundPath="""&amp;E805&amp;""" /&gt;",IF(A805=3,G805,"")))</f>
-        <v>&lt;Clip SoundPath="popup_goods_level_lock" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="popup_goods_level_lock" /&gt;</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -58328,7 +58437,7 @@
       </c>
       <c r="F808" s="3" t="str">
         <f t="shared" ref="F808" si="95">IF(A808=1,"&lt;Sound Type="""&amp;B808&amp;""" Storage="""&amp;C808&amp;""" Dec="""&amp;D808&amp;"""&gt;",IF(A808=2,"  &lt;Clip SoundPath="""&amp;E808&amp;""" /&gt;",IF(A808=3,G808,"")))</f>
-        <v>&lt;Clip SoundPath="mall_lock_time" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_lock_time" /&gt;</v>
       </c>
     </row>
     <row r="809" spans="1:6">
@@ -58367,7 +58476,7 @@
       </c>
       <c r="F811" s="3" t="str">
         <f t="shared" ref="F811" si="96">IF(A811=1,"&lt;Sound Type="""&amp;B811&amp;""" Storage="""&amp;C811&amp;""" Dec="""&amp;D811&amp;"""&gt;",IF(A811=2,"  &lt;Clip SoundPath="""&amp;E811&amp;""" /&gt;",IF(A811=3,G811,"")))</f>
-        <v>&lt;Clip SoundPath="mall_purchase_qr" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_qr" /&gt;</v>
       </c>
     </row>
     <row r="812" spans="1:6">
@@ -58406,7 +58515,7 @@
       </c>
       <c r="F814" s="3" t="str">
         <f t="shared" ref="F814" si="97">IF(A814=1,"&lt;Sound Type="""&amp;B814&amp;""" Storage="""&amp;C814&amp;""" Dec="""&amp;D814&amp;"""&gt;",IF(A814=2,"  &lt;Clip SoundPath="""&amp;E814&amp;""" /&gt;",IF(A814=3,G814,"")))</f>
-        <v>&lt;Clip SoundPath="mall_purchase_qr_complete" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_purchase_qr_complete" /&gt;</v>
       </c>
     </row>
     <row r="815" spans="1:6">
@@ -58445,7 +58554,7 @@
       </c>
       <c r="F817" s="3" t="str">
         <f t="shared" ref="F817" si="98">IF(A817=1,"&lt;Sound Type="""&amp;B817&amp;""" Storage="""&amp;C817&amp;""" Dec="""&amp;D817&amp;"""&gt;",IF(A817=2,"  &lt;Clip SoundPath="""&amp;E817&amp;""" /&gt;",IF(A817=3,G817,"")))</f>
-        <v>&lt;Clip SoundPath="mall_change_item" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_change_item" /&gt;</v>
       </c>
     </row>
     <row r="818" spans="1:6">
@@ -58484,7 +58593,7 @@
       </c>
       <c r="F820" s="3" t="str">
         <f t="shared" ref="F820" si="99">IF(A820=1,"&lt;Sound Type="""&amp;B820&amp;""" Storage="""&amp;C820&amp;""" Dec="""&amp;D820&amp;"""&gt;",IF(A820=2,"  &lt;Clip SoundPath="""&amp;E820&amp;""" /&gt;",IF(A820=3,G820,"")))</f>
-        <v>&lt;Clip SoundPath="mall_put_on_accessory" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_put_on_accessory" /&gt;</v>
       </c>
     </row>
     <row r="821" spans="1:6">
@@ -58523,7 +58632,7 @@
       </c>
       <c r="F823" s="3" t="str">
         <f t="shared" ref="F823" si="100">IF(A823=1,"&lt;Sound Type="""&amp;B823&amp;""" Storage="""&amp;C823&amp;""" Dec="""&amp;D823&amp;"""&gt;",IF(A823=2,"  &lt;Clip SoundPath="""&amp;E823&amp;""" /&gt;",IF(A823=3,G823,"")))</f>
-        <v>&lt;Clip SoundPath="mall_take_off_accessory" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_take_off_accessory" /&gt;</v>
       </c>
     </row>
     <row r="824" spans="1:6">
@@ -58562,7 +58671,7 @@
       </c>
       <c r="F826" s="3" t="str">
         <f t="shared" ref="F826" si="101">IF(A826=1,"&lt;Sound Type="""&amp;B826&amp;""" Storage="""&amp;C826&amp;""" Dec="""&amp;D826&amp;"""&gt;",IF(A826=2,"  &lt;Clip SoundPath="""&amp;E826&amp;""" /&gt;",IF(A826=3,G826,"")))</f>
-        <v>&lt;Clip SoundPath="mall_spirit_in" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_spirit_in" /&gt;</v>
       </c>
     </row>
     <row r="827" spans="1:6">
@@ -58601,7 +58710,7 @@
       </c>
       <c r="F829" s="3" t="str">
         <f t="shared" ref="F829" si="102">IF(A829=1,"&lt;Sound Type="""&amp;B829&amp;""" Storage="""&amp;C829&amp;""" Dec="""&amp;D829&amp;"""&gt;",IF(A829=2,"  &lt;Clip SoundPath="""&amp;E829&amp;""" /&gt;",IF(A829=3,G829,"")))</f>
-        <v>&lt;Clip SoundPath="mall_spirit_out" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="mall_spirit_out" /&gt;</v>
       </c>
     </row>
     <row r="830" spans="1:6">
@@ -58640,7 +58749,7 @@
       </c>
       <c r="F832" s="3" t="str">
         <f t="shared" ref="F832:F836" si="103">IF(A832=1,"&lt;Sound Type="""&amp;B832&amp;""" Storage="""&amp;C832&amp;""" Dec="""&amp;D832&amp;"""&gt;",IF(A832=2,"  &lt;Clip SoundPath="""&amp;E832&amp;""" /&gt;",IF(A832=3,G832,"")))</f>
-        <v>&lt;Clip SoundPath="feed_welcome_xmas_001" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_001" /&gt;</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -58652,7 +58761,7 @@
       </c>
       <c r="F833" s="3" t="str">
         <f t="shared" si="103"/>
-        <v>&lt;Clip SoundPath="feed_welcome_xmas_002" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_002" /&gt;</v>
       </c>
     </row>
     <row r="834" spans="1:6">
@@ -58664,7 +58773,7 @@
       </c>
       <c r="F834" s="3" t="str">
         <f t="shared" si="103"/>
-        <v>&lt;Clip SoundPath="feed_welcome_xmas_003" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_003" /&gt;</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -58676,7 +58785,7 @@
       </c>
       <c r="F835" s="3" t="str">
         <f t="shared" si="103"/>
-        <v>&lt;Clip SoundPath="feed_welcome_xmas_004" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_004" /&gt;</v>
       </c>
     </row>
     <row r="836" spans="1:6">
@@ -58688,7 +58797,7 @@
       </c>
       <c r="F836" s="3" t="str">
         <f t="shared" si="103"/>
-        <v>&lt;Clip SoundPath="feed_welcome_xmas_005" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_welcome_xmas_005" /&gt;</v>
       </c>
     </row>
     <row r="837" spans="1:6">
@@ -58727,7 +58836,7 @@
       </c>
       <c r="F839" s="3" t="str">
         <f t="shared" ref="F839" si="104">IF(A839=1,"&lt;Sound Type="""&amp;B839&amp;""" Storage="""&amp;C839&amp;""" Dec="""&amp;D839&amp;"""&gt;",IF(A839=2,"  &lt;Clip SoundPath="""&amp;E839&amp;""" /&gt;",IF(A839=3,G839,"")))</f>
-        <v>&lt;Clip SoundPath="feed_bgm_xmas" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_bgm_xmas" /&gt;</v>
       </c>
     </row>
     <row r="840" spans="1:6">
@@ -58766,7 +58875,7 @@
       </c>
       <c r="F842" s="3" t="str">
         <f t="shared" ref="F842" si="105">IF(A842=1,"&lt;Sound Type="""&amp;B842&amp;""" Storage="""&amp;C842&amp;""" Dec="""&amp;D842&amp;"""&gt;",IF(A842=2,"  &lt;Clip SoundPath="""&amp;E842&amp;""" /&gt;",IF(A842=3,G842,"")))</f>
-        <v>&lt;Clip SoundPath="feed_bgm_denmark" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_bgm_denmark" /&gt;</v>
       </c>
     </row>
     <row r="843" spans="1:6">
@@ -58805,7 +58914,7 @@
       </c>
       <c r="F845" s="3" t="str">
         <f t="shared" ref="F845" si="106">IF(A845=1,"&lt;Sound Type="""&amp;B845&amp;""" Storage="""&amp;C845&amp;""" Dec="""&amp;D845&amp;"""&gt;",IF(A845=2,"  &lt;Clip SoundPath="""&amp;E845&amp;""" /&gt;",IF(A845=3,G845,"")))</f>
-        <v>&lt;Clip SoundPath="coin_spend" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="coin_spend" /&gt;</v>
       </c>
     </row>
     <row r="846" spans="1:6">
@@ -58844,7 +58953,7 @@
       </c>
       <c r="F848" s="3" t="str">
         <f t="shared" ref="F848" si="107">IF(A848=1,"&lt;Sound Type="""&amp;B848&amp;""" Storage="""&amp;C848&amp;""" Dec="""&amp;D848&amp;"""&gt;",IF(A848=2,"  &lt;Clip SoundPath="""&amp;E848&amp;""" /&gt;",IF(A848=3,G848,"")))</f>
-        <v>&lt;Clip SoundPath="main_scene_wheel" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="main_scene_wheel" /&gt;</v>
       </c>
     </row>
     <row r="849" spans="1:6">
@@ -58883,7 +58992,7 @@
       </c>
       <c r="F851" s="3" t="str">
         <f t="shared" ref="F851" si="108">IF(A851=1,"&lt;Sound Type="""&amp;B851&amp;""" Storage="""&amp;C851&amp;""" Dec="""&amp;D851&amp;"""&gt;",IF(A851=2,"  &lt;Clip SoundPath="""&amp;E851&amp;""" /&gt;",IF(A851=3,G851,"")))</f>
-        <v>&lt;Clip SoundPath="feed_hp_increase" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_hp_increase" /&gt;</v>
       </c>
     </row>
     <row r="852" spans="1:6">
@@ -58922,7 +59031,7 @@
       </c>
       <c r="F854" s="3" t="str">
         <f t="shared" ref="F854" si="109">IF(A854=1,"&lt;Sound Type="""&amp;B854&amp;""" Storage="""&amp;C854&amp;""" Dec="""&amp;D854&amp;"""&gt;",IF(A854=2,"  &lt;Clip SoundPath="""&amp;E854&amp;""" /&gt;",IF(A854=3,G854,"")))</f>
-        <v>&lt;Clip SoundPath="feed_bgm_mouse" /&gt;</v>
+        <v xml:space="preserve">  &lt;Clip SoundPath="feed_bgm_mouse" /&gt;</v>
       </c>
     </row>
     <row r="855" spans="1:6">
@@ -58935,7 +59044,43 @@
       </c>
     </row>
     <row r="856" spans="1:6">
-      <c r="D856" s="11"/>
+      <c r="A856" s="1">
+        <v>1</v>
+      </c>
+      <c r="B856" s="3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C856" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D856" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F856" s="3" t="str">
+        <f>IF(A856=1,"&lt;Sound Type="""&amp;B856&amp;""" Storage="""&amp;C856&amp;""" Dec="""&amp;D856&amp;"""&gt;",IF(A856=2,"  &lt;Clip SoundPath="""&amp;E856&amp;""" /&gt;",IF(A856=3,G856,"")))</f>
+        <v>&lt;Sound Type="navigator_change_icon" Storage="Remote" Dec="导航轮盘切换图标"&gt;</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6">
+      <c r="A857" s="1">
+        <v>2</v>
+      </c>
+      <c r="E857" s="3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F857" s="3" t="str">
+        <f t="shared" ref="F857" si="110">IF(A857=1,"&lt;Sound Type="""&amp;B857&amp;""" Storage="""&amp;C857&amp;""" Dec="""&amp;D857&amp;"""&gt;",IF(A857=2,"  &lt;Clip SoundPath="""&amp;E857&amp;""" /&gt;",IF(A857=3,G857,"")))</f>
+        <v xml:space="preserve">  &lt;Clip SoundPath="navigator_change_icon" /&gt;</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6">
+      <c r="A858" s="1">
+        <v>3</v>
+      </c>
+      <c r="F858" s="3" t="str">
+        <f>IF(A858=1,"&lt;Sound Type="""&amp;B858&amp;""" Storage="""&amp;C858&amp;""" Dec="""&amp;D858&amp;"""&gt;",IF(A858=2,"  &lt;Clip SoundPath="""&amp;E858&amp;""" /&gt;",IF(A858=3,"&lt;/Sound&gt;","")))</f>
+        <v>&lt;/Sound&gt;</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -58943,288 +59088,321 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="95" priority="79" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="92" priority="88" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="80">
+    <cfRule type="expression" dxfId="91" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="81">
+    <cfRule type="expression" dxfId="90" priority="90">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A837:G837">
-    <cfRule type="containsText" dxfId="92" priority="22" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="89" priority="31" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A837)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="23">
+    <cfRule type="expression" dxfId="88" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="24">
+    <cfRule type="expression" dxfId="87" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A859:G1048576 G841:G852">
-    <cfRule type="containsText" dxfId="89" priority="85" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="86" priority="94" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="86">
+    <cfRule type="expression" dxfId="85" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="87">
+    <cfRule type="expression" dxfId="84" priority="96">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:G27 A28:F28">
-    <cfRule type="containsText" dxfId="86" priority="82" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="83" priority="91" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="83">
+    <cfRule type="expression" dxfId="82" priority="92">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="84">
+    <cfRule type="expression" dxfId="81" priority="93">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A434:G436">
-    <cfRule type="containsText" dxfId="83" priority="76" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A434)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="77">
+    <cfRule type="expression" dxfId="79" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="78">
+    <cfRule type="expression" dxfId="78" priority="87">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791:G792 A797:G797 A793:D795 F793:G795 E793:E796">
-    <cfRule type="containsText" dxfId="80" priority="67" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="68">
+    <cfRule type="expression" dxfId="76" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="69">
+    <cfRule type="expression" dxfId="75" priority="78">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A796:D796 F796:G796">
-    <cfRule type="containsText" dxfId="77" priority="64" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="65">
+    <cfRule type="expression" dxfId="73" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="66">
+    <cfRule type="expression" dxfId="72" priority="75">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798:G800">
-    <cfRule type="containsText" dxfId="74" priority="61" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="62">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="63">
+    <cfRule type="expression" dxfId="69" priority="72">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A801:G803">
-    <cfRule type="containsText" dxfId="71" priority="58" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="59">
+    <cfRule type="expression" dxfId="67" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="60">
+    <cfRule type="expression" dxfId="66" priority="69">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804:G806">
-    <cfRule type="containsText" dxfId="68" priority="55" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="56">
+    <cfRule type="expression" dxfId="64" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="57">
+    <cfRule type="expression" dxfId="63" priority="66">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A807:G809">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="62" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="2">
+    <cfRule type="expression" dxfId="61" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="3">
+    <cfRule type="expression" dxfId="60" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A810:G812">
-    <cfRule type="containsText" dxfId="62" priority="52" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="53">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="54">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A813:G815">
-    <cfRule type="containsText" dxfId="59" priority="49" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A813)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="50">
+    <cfRule type="expression" dxfId="55" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="51">
+    <cfRule type="expression" dxfId="54" priority="60">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A816:G818">
-    <cfRule type="containsText" dxfId="56" priority="46" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A816)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="47">
+    <cfRule type="expression" dxfId="52" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="48">
+    <cfRule type="expression" dxfId="51" priority="57">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A819:G821">
-    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A819)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="44">
+    <cfRule type="expression" dxfId="49" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="45">
+    <cfRule type="expression" dxfId="48" priority="54">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A822:G824">
-    <cfRule type="containsText" dxfId="50" priority="40" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A822)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="41">
+    <cfRule type="expression" dxfId="46" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="42">
+    <cfRule type="expression" dxfId="45" priority="51">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A825:G827">
-    <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A825)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="38">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="39">
+    <cfRule type="expression" dxfId="42" priority="48">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A828:G830">
-    <cfRule type="containsText" dxfId="44" priority="34" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A828)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="36">
+    <cfRule type="expression" dxfId="39" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A831:G836">
-    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A831)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="32">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="36" priority="42">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A838:G840">
-    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A838)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="26">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="27">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A841:F843">
-    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A841)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A844:F846">
-    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A844)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="17">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A847:F849">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A847)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="14">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="15">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A850:F852">
-    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A850)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="12">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A853:G855">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A853)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A856:G858">
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A856)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A856:G858">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",A856)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="9">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B856">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",B856)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E857">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&lt;!--">
+      <formula>NOT(ISERROR(SEARCH("&lt;!--",E857)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59453,57 +59631,57 @@
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="110" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="109" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="108" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="107" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="106" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="105" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:F10">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="103" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="102" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:F14">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="100" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="99" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:F1048576">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="98" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="97" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="96" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61712,7 +61890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -64755,7 +64933,7 @@
   <autoFilter ref="A1:T102"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="2224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="2236">
   <si>
     <t>ID</t>
   </si>
@@ -6833,6 +6833,42 @@
   </si>
   <si>
     <t>sea_small</t>
+  </si>
+  <si>
+    <t>part_ head_giftcap_big</t>
+  </si>
+  <si>
+    <t>part_ head_giftcap_small</t>
+  </si>
+  <si>
+    <t>part_ head_glasses_big</t>
+  </si>
+  <si>
+    <t>part_ head_glasses_small</t>
+  </si>
+  <si>
+    <t>part_ head_halo_big</t>
+  </si>
+  <si>
+    <t>part_ head_halo_small</t>
+  </si>
+  <si>
+    <t>part_ head_rose_big</t>
+  </si>
+  <si>
+    <t>part_ head_rose_small</t>
+  </si>
+  <si>
+    <t>part_ wing_bow_big</t>
+  </si>
+  <si>
+    <t>part_ wing_bow_small</t>
+  </si>
+  <si>
+    <t>part_ wing_love_big</t>
+  </si>
+  <si>
+    <t>part_ wing_love_small</t>
   </si>
 </sst>
 </file>
@@ -7925,91 +7961,7 @@
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="141">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
+  <dxfs count="129">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -8898,7 +8850,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8931,28 +8883,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_32" displayName="表1_32" ref="B1:S91" totalsRowShown="0">
   <autoFilter ref="B1:S91"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Id" dataDxfId="140"/>
-    <tableColumn id="2" name="Name" dataDxfId="139">
+    <tableColumn id="1" name="Id" dataDxfId="128"/>
+    <tableColumn id="2" name="Name" dataDxfId="127">
       <calculatedColumnFormula>"MissionName"&amp;B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Background" dataDxfId="138"/>
-    <tableColumn id="4" name="Model" dataDxfId="137"/>
-    <tableColumn id="5" name="NimIcon" dataDxfId="136"/>
-    <tableColumn id="6" name="QuestId" dataDxfId="135"/>
-    <tableColumn id="7" name="dailyGoalPercent" dataDxfId="134"/>
-    <tableColumn id="8" name="AwardCoin" dataDxfId="133"/>
-    <tableColumn id="9" name="BGM" dataDxfId="132"/>
-    <tableColumn id="10" name="Sound" dataDxfId="131"/>
-    <tableColumn id="11" name="WaterDrop" dataDxfId="130"/>
-    <tableColumn id="12" name="WaterDropAudio" dataDxfId="129"/>
-    <tableColumn id="13" name="Box1 ID" dataDxfId="128"/>
-    <tableColumn id="14" name="Box1 Height" dataDxfId="127"/>
-    <tableColumn id="15" name="Box2 ID" dataDxfId="126"/>
-    <tableColumn id="16" name="Box2 Height" dataDxfId="125"/>
-    <tableColumn id="17" name="输出" dataDxfId="124">
+    <tableColumn id="3" name="Background" dataDxfId="126"/>
+    <tableColumn id="4" name="Model" dataDxfId="125"/>
+    <tableColumn id="5" name="NimIcon" dataDxfId="124"/>
+    <tableColumn id="6" name="QuestId" dataDxfId="123"/>
+    <tableColumn id="7" name="dailyGoalPercent" dataDxfId="122"/>
+    <tableColumn id="8" name="AwardCoin" dataDxfId="121"/>
+    <tableColumn id="9" name="BGM" dataDxfId="120"/>
+    <tableColumn id="10" name="Sound" dataDxfId="119"/>
+    <tableColumn id="11" name="WaterDrop" dataDxfId="118"/>
+    <tableColumn id="12" name="WaterDropAudio" dataDxfId="117"/>
+    <tableColumn id="13" name="Box1 ID" dataDxfId="116"/>
+    <tableColumn id="14" name="Box1 Height" dataDxfId="115"/>
+    <tableColumn id="15" name="Box2 ID" dataDxfId="114"/>
+    <tableColumn id="16" name="Box2 Height" dataDxfId="113"/>
+    <tableColumn id="17" name="输出" dataDxfId="112">
       <calculatedColumnFormula>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;""" WaterDropAudio="""&amp;M2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N2&amp;""" Height="""&amp;O2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P2&amp;""" Height="""&amp;Q2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="输入" dataDxfId="123"/>
+    <tableColumn id="18" name="输入" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8962,12 +8914,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="B1:G1048493" totalsRowShown="0">
   <autoFilter ref="B1:G1048493"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="122"/>
-    <tableColumn id="2" name="Type" dataDxfId="121"/>
-    <tableColumn id="3" name="Name" dataDxfId="120"/>
-    <tableColumn id="4" name="ItemId" dataDxfId="119"/>
-    <tableColumn id="5" name="Value" dataDxfId="118"/>
-    <tableColumn id="6" name="输出" dataDxfId="117"/>
+    <tableColumn id="1" name="Id" dataDxfId="110"/>
+    <tableColumn id="2" name="Type" dataDxfId="109"/>
+    <tableColumn id="3" name="Name" dataDxfId="108"/>
+    <tableColumn id="4" name="ItemId" dataDxfId="107"/>
+    <tableColumn id="5" name="Value" dataDxfId="106"/>
+    <tableColumn id="6" name="输出" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -59162,288 +59114,288 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="116" priority="79" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="104" priority="79" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="80">
+    <cfRule type="expression" dxfId="103" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="81">
+    <cfRule type="expression" dxfId="102" priority="81">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A837:G837">
-    <cfRule type="containsText" dxfId="113" priority="22" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="101" priority="22" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A837)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="23">
+    <cfRule type="expression" dxfId="100" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="24">
+    <cfRule type="expression" dxfId="99" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A859:G1048576 G841:G852">
-    <cfRule type="containsText" dxfId="110" priority="85" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="98" priority="85" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="86">
+    <cfRule type="expression" dxfId="97" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="87">
+    <cfRule type="expression" dxfId="96" priority="87">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:G27 A28:F28">
-    <cfRule type="containsText" dxfId="107" priority="82" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="95" priority="82" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="83">
+    <cfRule type="expression" dxfId="94" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="84">
+    <cfRule type="expression" dxfId="93" priority="84">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A434:G436">
-    <cfRule type="containsText" dxfId="104" priority="76" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="92" priority="76" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A434)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="77">
+    <cfRule type="expression" dxfId="91" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="78">
+    <cfRule type="expression" dxfId="90" priority="78">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791:G792 A797:G797 A793:D795 F793:G795 E793:E796">
-    <cfRule type="containsText" dxfId="101" priority="67" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="89" priority="67" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="68">
+    <cfRule type="expression" dxfId="88" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="69">
+    <cfRule type="expression" dxfId="87" priority="69">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A796:D796 F796:G796">
-    <cfRule type="containsText" dxfId="98" priority="64" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="86" priority="64" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="65">
+    <cfRule type="expression" dxfId="85" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="66">
+    <cfRule type="expression" dxfId="84" priority="66">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798:G800">
-    <cfRule type="containsText" dxfId="95" priority="61" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="83" priority="61" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="62">
+    <cfRule type="expression" dxfId="82" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="63">
+    <cfRule type="expression" dxfId="81" priority="63">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A801:G803">
-    <cfRule type="containsText" dxfId="92" priority="58" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="80" priority="58" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="59">
+    <cfRule type="expression" dxfId="79" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="60">
+    <cfRule type="expression" dxfId="78" priority="60">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804:G806">
-    <cfRule type="containsText" dxfId="89" priority="55" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="77" priority="55" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="56">
+    <cfRule type="expression" dxfId="76" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="57">
+    <cfRule type="expression" dxfId="75" priority="57">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A810:G812">
-    <cfRule type="containsText" dxfId="86" priority="52" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="74" priority="52" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="53">
+    <cfRule type="expression" dxfId="73" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="54">
+    <cfRule type="expression" dxfId="72" priority="54">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A813:G815">
-    <cfRule type="containsText" dxfId="83" priority="49" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="71" priority="49" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A813)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="50">
+    <cfRule type="expression" dxfId="70" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="51">
+    <cfRule type="expression" dxfId="69" priority="51">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A816:G818">
-    <cfRule type="containsText" dxfId="80" priority="46" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="68" priority="46" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A816)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="47">
+    <cfRule type="expression" dxfId="67" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="48">
+    <cfRule type="expression" dxfId="66" priority="48">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A819:G821">
-    <cfRule type="containsText" dxfId="77" priority="43" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="65" priority="43" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A819)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="44">
+    <cfRule type="expression" dxfId="64" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="45">
+    <cfRule type="expression" dxfId="63" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A822:G824">
-    <cfRule type="containsText" dxfId="74" priority="40" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="62" priority="40" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A822)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="41">
+    <cfRule type="expression" dxfId="61" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="42">
+    <cfRule type="expression" dxfId="60" priority="42">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A825:G827">
-    <cfRule type="containsText" dxfId="71" priority="37" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="59" priority="37" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A825)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="38">
+    <cfRule type="expression" dxfId="58" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="39">
+    <cfRule type="expression" dxfId="57" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A828:G830">
-    <cfRule type="containsText" dxfId="68" priority="34" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="56" priority="34" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A828)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="35">
+    <cfRule type="expression" dxfId="55" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="36">
+    <cfRule type="expression" dxfId="54" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A831:G836">
-    <cfRule type="containsText" dxfId="65" priority="31" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="53" priority="31" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A831)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="32">
+    <cfRule type="expression" dxfId="52" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="33">
+    <cfRule type="expression" dxfId="51" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A838:G840">
-    <cfRule type="containsText" dxfId="62" priority="25" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="50" priority="25" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A838)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="26">
+    <cfRule type="expression" dxfId="49" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="27">
+    <cfRule type="expression" dxfId="48" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A841:F843">
-    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="47" priority="19" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A841)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="20">
+    <cfRule type="expression" dxfId="46" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="21">
+    <cfRule type="expression" dxfId="45" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A844:F846">
-    <cfRule type="containsText" dxfId="56" priority="16" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="44" priority="16" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A844)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="17">
+    <cfRule type="expression" dxfId="43" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="18">
+    <cfRule type="expression" dxfId="42" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A847:F849">
-    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A847)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="14">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="15">
+    <cfRule type="expression" dxfId="39" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A850:F852">
-    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A850)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="37" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="12">
+    <cfRule type="expression" dxfId="36" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A853:G855">
-    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A853)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="9">
+    <cfRule type="expression" dxfId="33" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A856:G858">
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A856)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A807:G809">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59672,57 +59624,57 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="14">
+    <cfRule type="expression" dxfId="25" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="22" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:F10">
-    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="8">
+    <cfRule type="expression" dxfId="19" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:F14">
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:F1048576">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59733,11 +59685,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4:D92"/>
+      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93:G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -60994,7 +60946,7 @@
         <v>2215</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f t="shared" ref="G68:G93" si="1">IF(A68=1,"&lt;Module Name="""&amp;B68&amp;""" Desc="""&amp;C68&amp;""" &gt;",IF(A68=2,"  &lt;File Name="""&amp;D68&amp;""" Path="""&amp;F68&amp;D68&amp;""" Type="""&amp;E68&amp;""" /&gt;",IF(A68=3,"&lt;/Module&gt;","")))</f>
+        <f t="shared" ref="G68:G105" si="1">IF(A68=1,"&lt;Module Name="""&amp;B68&amp;""" Desc="""&amp;C68&amp;""" &gt;",IF(A68=2,"  &lt;File Name="""&amp;D68&amp;""" Path="""&amp;F68&amp;D68&amp;""" Type="""&amp;E68&amp;""" /&gt;",IF(A68=3,"&lt;/Module&gt;","")))</f>
         <v xml:space="preserve">  &lt;File Name="elf_up_gift02_small" Path="PetDress/Accessories/elf_up_gift02_small" Type="Image" /&gt;</v>
       </c>
     </row>
@@ -61432,9 +61384,225 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="164">
+        <v>2</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G93" s="3" t="str">
+        <f t="shared" ref="G93:G104" si="2">IF(A93=1,"&lt;Module Name="""&amp;B93&amp;""" Desc="""&amp;C93&amp;""" &gt;",IF(A93=2,"  &lt;File Name="""&amp;D93&amp;""" Path="""&amp;F93&amp;D93&amp;""" Type="""&amp;E93&amp;""" /&gt;",IF(A93=3,"&lt;/Module&gt;","")))</f>
+        <v xml:space="preserve">  &lt;File Name="part_ head_giftcap_big" Path="PetDress/Accessories/part_ head_giftcap_big" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="164">
+        <v>2</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G94" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_giftcap_small" Path="PetDress/Accessories/part_ head_giftcap_small" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="164">
+        <v>2</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G95" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_glasses_big" Path="PetDress/Accessories/part_ head_glasses_big" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="164">
+        <v>2</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G96" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_glasses_small" Path="PetDress/Accessories/part_ head_glasses_small" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="164">
+        <v>2</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G97" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_halo_big" Path="PetDress/Accessories/part_ head_halo_big" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="164">
+        <v>2</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G98" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_halo_small" Path="PetDress/Accessories/part_ head_halo_small" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="164">
+        <v>2</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G99" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_rose_big" Path="PetDress/Accessories/part_ head_rose_big" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="164">
+        <v>2</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G100" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_rose_small" Path="PetDress/Accessories/part_ head_rose_small" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="164">
+        <v>2</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G101" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="part_ wing_bow_big" Path="PetDress/Accessories/part_ wing_bow_big" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="164">
+        <v>2</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G102" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="part_ wing_bow_small" Path="PetDress/Accessories/part_ wing_bow_small" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="164">
+        <v>2</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G103" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="part_ wing_love_big" Path="PetDress/Accessories/part_ wing_love_big" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="164">
+        <v>2</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G104" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="part_ wing_love_small" Path="PetDress/Accessories/part_ wing_love_small" Type="Image" /&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="164">
         <v>3</v>
       </c>
-      <c r="G93" s="3" t="str">
+      <c r="G105" s="3" t="str">
         <f t="shared" si="1"/>
         <v>&lt;/Module&gt;</v>
       </c>
@@ -61442,17 +61610,17 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="2" priority="28" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="29">
+    <cfRule type="expression" dxfId="1" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="30">
+    <cfRule type="expression" dxfId="0" priority="30">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576">
       <formula1>"Imag,Spine"</formula1>
     </dataValidation>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="2236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4336" uniqueCount="2269">
   <si>
     <t>ID</t>
   </si>
@@ -6869,6 +6869,112 @@
   </si>
   <si>
     <t>part_ wing_love_small</t>
+  </si>
+  <si>
+    <t>hallowmas_bg</t>
+  </si>
+  <si>
+    <t>restaurant_nationalday_bg</t>
+  </si>
+  <si>
+    <t>restruant-christmas</t>
+  </si>
+  <si>
+    <t>restruant-danmark</t>
+  </si>
+  <si>
+    <t>restruant-springfestival</t>
+  </si>
+  <si>
+    <t>PetFeed</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂食页</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetFeed/View/</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetFeed/View/Background/</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar01</t>
+  </si>
+  <si>
+    <t>bar_bg</t>
+  </si>
+  <si>
+    <t>bar_prospect</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>foreground</t>
+  </si>
+  <si>
+    <t>hungerbar</t>
+  </si>
+  <si>
+    <t>hungerbar_bg</t>
+  </si>
+  <si>
+    <t>hungerbar_t</t>
+  </si>
+  <si>
+    <t>limited_jp</t>
+  </si>
+  <si>
+    <t>little_mask_l</t>
+  </si>
+  <si>
+    <t>little_mask_r</t>
+  </si>
+  <si>
+    <t>moomcake_lock</t>
+  </si>
+  <si>
+    <t>out_bg</t>
+  </si>
+  <si>
+    <t>power_icon</t>
+  </si>
+  <si>
+    <t>special_label_activity</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>taro_lock</t>
+  </si>
+  <si>
+    <t>tips_button0000</t>
+  </si>
+  <si>
+    <t>tips_button0001</t>
+  </si>
+  <si>
+    <t>tips_button0002</t>
+  </si>
+  <si>
+    <t>tips_button0003</t>
+  </si>
+  <si>
+    <t>PetFeed/Food/</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7461,7 +7567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7904,12 +8010,6 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7955,13 +8055,253 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="129">
+  <dxfs count="162">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -8850,7 +9190,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8883,28 +9223,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_32" displayName="表1_32" ref="B1:S91" totalsRowShown="0">
   <autoFilter ref="B1:S91"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Id" dataDxfId="128"/>
-    <tableColumn id="2" name="Name" dataDxfId="127">
+    <tableColumn id="1" name="Id" dataDxfId="161"/>
+    <tableColumn id="2" name="Name" dataDxfId="160">
       <calculatedColumnFormula>"MissionName"&amp;B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Background" dataDxfId="126"/>
-    <tableColumn id="4" name="Model" dataDxfId="125"/>
-    <tableColumn id="5" name="NimIcon" dataDxfId="124"/>
-    <tableColumn id="6" name="QuestId" dataDxfId="123"/>
-    <tableColumn id="7" name="dailyGoalPercent" dataDxfId="122"/>
-    <tableColumn id="8" name="AwardCoin" dataDxfId="121"/>
-    <tableColumn id="9" name="BGM" dataDxfId="120"/>
-    <tableColumn id="10" name="Sound" dataDxfId="119"/>
-    <tableColumn id="11" name="WaterDrop" dataDxfId="118"/>
-    <tableColumn id="12" name="WaterDropAudio" dataDxfId="117"/>
-    <tableColumn id="13" name="Box1 ID" dataDxfId="116"/>
-    <tableColumn id="14" name="Box1 Height" dataDxfId="115"/>
-    <tableColumn id="15" name="Box2 ID" dataDxfId="114"/>
-    <tableColumn id="16" name="Box2 Height" dataDxfId="113"/>
-    <tableColumn id="17" name="输出" dataDxfId="112">
+    <tableColumn id="3" name="Background" dataDxfId="159"/>
+    <tableColumn id="4" name="Model" dataDxfId="158"/>
+    <tableColumn id="5" name="NimIcon" dataDxfId="157"/>
+    <tableColumn id="6" name="QuestId" dataDxfId="156"/>
+    <tableColumn id="7" name="dailyGoalPercent" dataDxfId="155"/>
+    <tableColumn id="8" name="AwardCoin" dataDxfId="154"/>
+    <tableColumn id="9" name="BGM" dataDxfId="153"/>
+    <tableColumn id="10" name="Sound" dataDxfId="152"/>
+    <tableColumn id="11" name="WaterDrop" dataDxfId="151"/>
+    <tableColumn id="12" name="WaterDropAudio" dataDxfId="150"/>
+    <tableColumn id="13" name="Box1 ID" dataDxfId="149"/>
+    <tableColumn id="14" name="Box1 Height" dataDxfId="148"/>
+    <tableColumn id="15" name="Box2 ID" dataDxfId="147"/>
+    <tableColumn id="16" name="Box2 Height" dataDxfId="146"/>
+    <tableColumn id="17" name="输出" dataDxfId="145">
       <calculatedColumnFormula>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;""" WaterDropAudio="""&amp;M2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N2&amp;""" Height="""&amp;O2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P2&amp;""" Height="""&amp;Q2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="输入" dataDxfId="111"/>
+    <tableColumn id="18" name="输入" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8914,12 +9254,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="B1:G1048493" totalsRowShown="0">
   <autoFilter ref="B1:G1048493"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="110"/>
-    <tableColumn id="2" name="Type" dataDxfId="109"/>
-    <tableColumn id="3" name="Name" dataDxfId="108"/>
-    <tableColumn id="4" name="ItemId" dataDxfId="107"/>
-    <tableColumn id="5" name="Value" dataDxfId="106"/>
-    <tableColumn id="6" name="输出" dataDxfId="105"/>
+    <tableColumn id="1" name="Id" dataDxfId="143"/>
+    <tableColumn id="2" name="Type" dataDxfId="142"/>
+    <tableColumn id="3" name="Name" dataDxfId="141"/>
+    <tableColumn id="4" name="ItemId" dataDxfId="140"/>
+    <tableColumn id="5" name="Value" dataDxfId="139"/>
+    <tableColumn id="6" name="输出" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10062,23 +10402,23 @@
       <c r="O27" s="151"/>
     </row>
     <row r="28" spans="1:15" ht="15.75">
-      <c r="A28" s="165" t="s">
+      <c r="A28" s="163" t="s">
         <v>2112</v>
       </c>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="165"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="163"/>
     </row>
     <row r="29" spans="1:15" hidden="1">
       <c r="A29" s="102" t="str">
@@ -17857,23 +18197,23 @@
       <c r="O174" s="119"/>
     </row>
     <row r="175" spans="1:15" ht="15.75">
-      <c r="A175" s="165" t="s">
+      <c r="A175" s="163" t="s">
         <v>2112</v>
       </c>
-      <c r="B175" s="165"/>
-      <c r="C175" s="165"/>
-      <c r="D175" s="165"/>
-      <c r="E175" s="165"/>
-      <c r="F175" s="165"/>
-      <c r="G175" s="165"/>
-      <c r="H175" s="165"/>
-      <c r="I175" s="165"/>
-      <c r="J175" s="165"/>
-      <c r="K175" s="165"/>
-      <c r="L175" s="165"/>
-      <c r="M175" s="165"/>
-      <c r="N175" s="165"/>
-      <c r="O175" s="165"/>
+      <c r="B175" s="163"/>
+      <c r="C175" s="163"/>
+      <c r="D175" s="163"/>
+      <c r="E175" s="163"/>
+      <c r="F175" s="163"/>
+      <c r="G175" s="163"/>
+      <c r="H175" s="163"/>
+      <c r="I175" s="163"/>
+      <c r="J175" s="163"/>
+      <c r="K175" s="163"/>
+      <c r="L175" s="163"/>
+      <c r="M175" s="163"/>
+      <c r="N175" s="163"/>
+      <c r="O175" s="163"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="126">
@@ -18795,50 +19135,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="168" t="s">
         <v>1217</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
       <c r="D1" s="52"/>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="169" t="s">
         <v>1218</v>
       </c>
-      <c r="F1" s="171"/>
+      <c r="F1" s="169"/>
       <c r="G1" s="53" t="s">
         <v>1219</v>
       </c>
-      <c r="H1" s="172" t="s">
+      <c r="H1" s="170" t="s">
         <v>1220</v>
       </c>
-      <c r="I1" s="173"/>
-      <c r="J1" s="174" t="s">
+      <c r="I1" s="171"/>
+      <c r="J1" s="172" t="s">
         <v>1221</v>
       </c>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="175" t="s">
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="173" t="s">
         <v>1222</v>
       </c>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="166" t="s">
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="164" t="s">
         <v>1223</v>
       </c>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="167" t="s">
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="165" t="s">
         <v>1224</v>
       </c>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="168" t="s">
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="166" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -18922,7 +19262,7 @@
       <c r="AA2" s="70" t="s">
         <v>1239</v>
       </c>
-      <c r="AB2" s="169"/>
+      <c r="AB2" s="167"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="58" t="s">
@@ -57979,15 +58319,15 @@
       </c>
     </row>
     <row r="768" spans="1:7">
-      <c r="A768" s="176" t="s">
+      <c r="A768" s="174" t="s">
         <v>2034</v>
       </c>
-      <c r="B768" s="177"/>
-      <c r="C768" s="177"/>
-      <c r="D768" s="177"/>
-      <c r="E768" s="177"/>
-      <c r="F768" s="177"/>
-      <c r="G768" s="178"/>
+      <c r="B768" s="175"/>
+      <c r="C768" s="175"/>
+      <c r="D768" s="175"/>
+      <c r="E768" s="175"/>
+      <c r="F768" s="175"/>
+      <c r="G768" s="176"/>
     </row>
     <row r="769" spans="1:6">
       <c r="A769" s="1">
@@ -59114,288 +59454,288 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="104" priority="79" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="137" priority="79" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="80">
+    <cfRule type="expression" dxfId="136" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="81">
+    <cfRule type="expression" dxfId="135" priority="81">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A837:G837">
-    <cfRule type="containsText" dxfId="101" priority="22" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="134" priority="22" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A837)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="23">
+    <cfRule type="expression" dxfId="133" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="24">
+    <cfRule type="expression" dxfId="132" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A859:G1048576 G841:G852">
-    <cfRule type="containsText" dxfId="98" priority="85" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="131" priority="85" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="86">
+    <cfRule type="expression" dxfId="130" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="87">
+    <cfRule type="expression" dxfId="129" priority="87">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:G27 A28:F28">
-    <cfRule type="containsText" dxfId="95" priority="82" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="128" priority="82" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="83">
+    <cfRule type="expression" dxfId="127" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="84">
+    <cfRule type="expression" dxfId="126" priority="84">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A434:G436">
-    <cfRule type="containsText" dxfId="92" priority="76" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="125" priority="76" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A434)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="77">
+    <cfRule type="expression" dxfId="124" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="78">
+    <cfRule type="expression" dxfId="123" priority="78">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791:G792 A797:G797 A793:D795 F793:G795 E793:E796">
-    <cfRule type="containsText" dxfId="89" priority="67" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="122" priority="67" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="68">
+    <cfRule type="expression" dxfId="121" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="69">
+    <cfRule type="expression" dxfId="120" priority="69">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A796:D796 F796:G796">
-    <cfRule type="containsText" dxfId="86" priority="64" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="119" priority="64" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="65">
+    <cfRule type="expression" dxfId="118" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="66">
+    <cfRule type="expression" dxfId="117" priority="66">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798:G800">
-    <cfRule type="containsText" dxfId="83" priority="61" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="116" priority="61" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="62">
+    <cfRule type="expression" dxfId="115" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="63">
+    <cfRule type="expression" dxfId="114" priority="63">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A801:G803">
-    <cfRule type="containsText" dxfId="80" priority="58" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="113" priority="58" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="59">
+    <cfRule type="expression" dxfId="112" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="60">
+    <cfRule type="expression" dxfId="111" priority="60">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804:G806">
-    <cfRule type="containsText" dxfId="77" priority="55" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="110" priority="55" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="56">
+    <cfRule type="expression" dxfId="109" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="57">
+    <cfRule type="expression" dxfId="108" priority="57">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A810:G812">
-    <cfRule type="containsText" dxfId="74" priority="52" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="107" priority="52" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="53">
+    <cfRule type="expression" dxfId="106" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="54">
+    <cfRule type="expression" dxfId="105" priority="54">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A813:G815">
-    <cfRule type="containsText" dxfId="71" priority="49" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="104" priority="49" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A813)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="50">
+    <cfRule type="expression" dxfId="103" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="51">
+    <cfRule type="expression" dxfId="102" priority="51">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A816:G818">
-    <cfRule type="containsText" dxfId="68" priority="46" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="101" priority="46" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A816)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="47">
+    <cfRule type="expression" dxfId="100" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="48">
+    <cfRule type="expression" dxfId="99" priority="48">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A819:G821">
-    <cfRule type="containsText" dxfId="65" priority="43" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="98" priority="43" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A819)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="44">
+    <cfRule type="expression" dxfId="97" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="45">
+    <cfRule type="expression" dxfId="96" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A822:G824">
-    <cfRule type="containsText" dxfId="62" priority="40" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="95" priority="40" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A822)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="41">
+    <cfRule type="expression" dxfId="94" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="42">
+    <cfRule type="expression" dxfId="93" priority="42">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A825:G827">
-    <cfRule type="containsText" dxfId="59" priority="37" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="92" priority="37" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A825)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="38">
+    <cfRule type="expression" dxfId="91" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="39">
+    <cfRule type="expression" dxfId="90" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A828:G830">
-    <cfRule type="containsText" dxfId="56" priority="34" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="89" priority="34" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A828)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="35">
+    <cfRule type="expression" dxfId="88" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="36">
+    <cfRule type="expression" dxfId="87" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A831:G836">
-    <cfRule type="containsText" dxfId="53" priority="31" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="86" priority="31" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A831)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="32">
+    <cfRule type="expression" dxfId="85" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="33">
+    <cfRule type="expression" dxfId="84" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A838:G840">
-    <cfRule type="containsText" dxfId="50" priority="25" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A838)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="26">
+    <cfRule type="expression" dxfId="82" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="27">
+    <cfRule type="expression" dxfId="81" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A841:F843">
-    <cfRule type="containsText" dxfId="47" priority="19" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="80" priority="19" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A841)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="20">
+    <cfRule type="expression" dxfId="79" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="21">
+    <cfRule type="expression" dxfId="78" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A844:F846">
-    <cfRule type="containsText" dxfId="44" priority="16" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="77" priority="16" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A844)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="17">
+    <cfRule type="expression" dxfId="76" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="18">
+    <cfRule type="expression" dxfId="75" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A847:F849">
-    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="74" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A847)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="73" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="72" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A850:F852">
-    <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="71" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A850)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="11">
+    <cfRule type="expression" dxfId="70" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="12">
+    <cfRule type="expression" dxfId="69" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A853:G855">
-    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A853)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="67" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="9">
+    <cfRule type="expression" dxfId="66" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A856:G858">
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="65" priority="4" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A856)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="64" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="expression" dxfId="63" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A807:G809">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="61" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="60" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59624,57 +59964,57 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14">
+    <cfRule type="expression" dxfId="58" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="57" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="55" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="54" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:F10">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="51" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:F14">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="49" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="48" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:F1048576">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59685,26 +60025,29 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93:G104"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D124" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D142" sqref="D107:D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="164" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="177" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="54.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="162" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="178" t="s">
         <v>1461</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -59722,12 +60065,15 @@
       <c r="F1" s="6" t="s">
         <v>2126</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>2267</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="163"/>
+    <row r="2" spans="1:8">
+      <c r="A2" s="179"/>
       <c r="B2" s="8" t="s">
         <v>2148</v>
       </c>
@@ -59743,10 +60089,13 @@
       <c r="F2" s="7" t="s">
         <v>2122</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="164">
+      <c r="G2" s="8" t="s">
+        <v>2268</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="162">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -59755,13 +60104,13 @@
       <c r="C3" s="3" t="s">
         <v>2128</v>
       </c>
-      <c r="G3" s="3" t="str">
-        <f>IF(A3=1,"&lt;Module Name="""&amp;B3&amp;""" Desc="""&amp;C3&amp;""" &gt;",IF(A3=2,"  &lt;File Name="""&amp;D3&amp;""" Path="""&amp;F3&amp;D3&amp;""" Type="""&amp;E3&amp;""" /&gt;",IF(A3=3,"&lt;/Module&gt;","")))</f>
+      <c r="H3" s="3" t="str">
+        <f>IF(A3=1,"&lt;Module Name="""&amp;B3&amp;""" Desc="""&amp;C3&amp;""" &gt;",IF(A3=2,"  &lt;File Name="""&amp;D3&amp;""" Path="""&amp;F3&amp;D3&amp;""" Type="""&amp;E3&amp;""" Enable="""&amp;G3&amp;""" /&gt;",IF(A3=3,"&lt;/Module&gt;","")))</f>
         <v>&lt;Module Name="PetDress" Desc="换装页" &gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="164">
+    <row r="4" spans="1:8">
+      <c r="A4" s="162">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
@@ -59774,13 +60123,16 @@
       <c r="F4" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" ref="G4:G67" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;""" &gt;",IF(A4=2,"  &lt;File Name="""&amp;D4&amp;""" Path="""&amp;F4&amp;D4&amp;""" Type="""&amp;E4&amp;""" /&gt;",IF(A4=3,"&lt;/Module&gt;","")))</f>
-        <v xml:space="preserve">  &lt;File Name="cash" Path="PetDress/View/cash" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="164">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" ref="H4:H67" si="0">IF(A4=1,"&lt;Module Name="""&amp;B4&amp;""" Desc="""&amp;C4&amp;""" &gt;",IF(A4=2,"  &lt;File Name="""&amp;D4&amp;""" Path="""&amp;F4&amp;D4&amp;""" Type="""&amp;E4&amp;""" Enable="""&amp;G4&amp;""" /&gt;",IF(A4=3,"&lt;/Module&gt;","")))</f>
+        <v xml:space="preserve">  &lt;File Name="cash" Path="PetDress/View/cash" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="162">
         <v>2</v>
       </c>
       <c r="B5" s="3"/>
@@ -59793,13 +60145,16 @@
       <c r="F5" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G5" s="3" t="str">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="check" Path="PetDress/View/check" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="164">
+        <v xml:space="preserve">  &lt;File Name="check" Path="PetDress/View/check" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="162">
         <v>2</v>
       </c>
       <c r="B6" s="3"/>
@@ -59812,13 +60167,16 @@
       <c r="F6" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G6" s="3" t="str">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="clock" Path="PetDress/View/clock" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="164">
+        <v xml:space="preserve">  &lt;File Name="clock" Path="PetDress/View/clock" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="162">
         <v>2</v>
       </c>
       <c r="B7" s="3"/>
@@ -59831,13 +60189,16 @@
       <c r="F7" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="code_bg" Path="PetDress/View/code_bg" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="164">
+        <v xml:space="preserve">  &lt;File Name="code_bg" Path="PetDress/View/code_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="162">
         <v>2</v>
       </c>
       <c r="B8" s="3"/>
@@ -59850,13 +60211,16 @@
       <c r="F8" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G8" s="3" t="str">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="coin" Path="PetDress/View/coin" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="164">
+        <v xml:space="preserve">  &lt;File Name="coin" Path="PetDress/View/coin" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="162">
         <v>2</v>
       </c>
       <c r="B9" s="3"/>
@@ -59869,13 +60233,16 @@
       <c r="F9" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G9" s="3" t="str">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="coin_bg" Path="PetDress/View/coin_bg" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="164">
+        <v xml:space="preserve">  &lt;File Name="coin_bg" Path="PetDress/View/coin_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="162">
         <v>2</v>
       </c>
       <c r="B10" s="3"/>
@@ -59888,13 +60255,16 @@
       <c r="F10" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="default_pet" Path="PetDress/View/default_pet" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="164">
+        <v xml:space="preserve">  &lt;File Name="default_pet" Path="PetDress/View/default_pet" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="162">
         <v>2</v>
       </c>
       <c r="B11" s="3"/>
@@ -59907,13 +60277,16 @@
       <c r="F11" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G11" s="3" t="str">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="disable" Path="PetDress/View/disable" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="164">
+        <v xml:space="preserve">  &lt;File Name="disable" Path="PetDress/View/disable" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="162">
         <v>2</v>
       </c>
       <c r="B12" s="3"/>
@@ -59926,13 +60299,16 @@
       <c r="F12" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G12" s="3" t="str">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="disable_big" Path="PetDress/View/disable_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="164">
+        <v xml:space="preserve">  &lt;File Name="disable_big" Path="PetDress/View/disable_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="162">
         <v>2</v>
       </c>
       <c r="B13" s="3"/>
@@ -59945,13 +60321,16 @@
       <c r="F13" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="icon_disable" Path="PetDress/View/icon_disable" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="164">
+        <v xml:space="preserve">  &lt;File Name="icon_disable" Path="PetDress/View/icon_disable" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="162">
         <v>2</v>
       </c>
       <c r="B14" s="3"/>
@@ -59964,13 +60343,16 @@
       <c r="F14" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G14" s="3" t="str">
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="limited_CHS" Path="PetDress/View/limited_CHS" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="164">
+        <v xml:space="preserve">  &lt;File Name="limited_CHS" Path="PetDress/View/limited_CHS" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="162">
         <v>2</v>
       </c>
       <c r="B15" s="3"/>
@@ -59983,13 +60365,16 @@
       <c r="F15" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G15" s="3" t="str">
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="limited_CHT" Path="PetDress/View/limited_CHT" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="164">
+        <v xml:space="preserve">  &lt;File Name="limited_CHT" Path="PetDress/View/limited_CHT" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="162">
         <v>2</v>
       </c>
       <c r="B16" s="3"/>
@@ -60002,13 +60387,16 @@
       <c r="F16" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G16" s="3" t="str">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="limited_EN" Path="PetDress/View/limited_EN" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="164">
+        <v xml:space="preserve">  &lt;File Name="limited_EN" Path="PetDress/View/limited_EN" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="177">
         <v>2</v>
       </c>
       <c r="B17" s="3"/>
@@ -60021,13 +60409,16 @@
       <c r="F17" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G17" s="3" t="str">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="limited_JP" Path="PetDress/View/limited_JP" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="164">
+        <v xml:space="preserve">  &lt;File Name="limited_JP" Path="PetDress/View/limited_JP" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="177">
         <v>2</v>
       </c>
       <c r="B18" s="3"/>
@@ -60040,13 +60431,16 @@
       <c r="F18" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G18" s="3" t="str">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="lock_bg" Path="PetDress/View/lock_bg" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="164">
+        <v xml:space="preserve">  &lt;File Name="lock_bg" Path="PetDress/View/lock_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="177">
         <v>2</v>
       </c>
       <c r="B19" s="3"/>
@@ -60059,13 +60453,16 @@
       <c r="F19" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G19" s="3" t="str">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="needcoin" Path="PetDress/View/needcoin" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="164">
+        <v xml:space="preserve">  &lt;File Name="needcoin" Path="PetDress/View/needcoin" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="177">
         <v>2</v>
       </c>
       <c r="B20" s="3"/>
@@ -60078,13 +60475,16 @@
       <c r="F20" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G20" s="3" t="str">
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="net_no" Path="PetDress/View/net_no" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="164">
+        <v xml:space="preserve">  &lt;File Name="net_no" Path="PetDress/View/net_no" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="177">
         <v>2</v>
       </c>
       <c r="B21" s="3"/>
@@ -60097,13 +60497,16 @@
       <c r="F21" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G21" s="3" t="str">
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="nocoin" Path="PetDress/View/nocoin" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="164">
+        <v xml:space="preserve">  &lt;File Name="nocoin" Path="PetDress/View/nocoin" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="177">
         <v>2</v>
       </c>
       <c r="B22" s="3"/>
@@ -60116,13 +60519,16 @@
       <c r="F22" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G22" s="3" t="str">
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="nonpayment" Path="PetDress/View/nonpayment" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="164">
+        <v xml:space="preserve">  &lt;File Name="nonpayment" Path="PetDress/View/nonpayment" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="177">
         <v>2</v>
       </c>
       <c r="B23" s="3"/>
@@ -60135,13 +60541,16 @@
       <c r="F23" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G23" s="3" t="str">
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="phone_pay" Path="PetDress/View/phone_pay" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="164">
+        <v xml:space="preserve">  &lt;File Name="phone_pay" Path="PetDress/View/phone_pay" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="177">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -60153,13 +60562,16 @@
       <c r="F24" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G24" s="3" t="str">
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="red_dot" Path="PetDress/View/red_dot" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="164">
+        <v xml:space="preserve">  &lt;File Name="red_dot" Path="PetDress/View/red_dot" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="177">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -60171,13 +60583,16 @@
       <c r="F25" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G25" s="3" t="str">
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="sea_small" Path="PetDress/View/sea_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="164">
+        <v xml:space="preserve">  &lt;File Name="sea_small" Path="PetDress/View/sea_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="177">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -60189,13 +60604,16 @@
       <c r="F26" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G26" s="3" t="str">
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="special_label_activity 1" Path="PetDress/View/special_label_activity 1" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="164">
+        <v xml:space="preserve">  &lt;File Name="special_label_activity 1" Path="PetDress/View/special_label_activity 1" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="177">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -60207,13 +60625,16 @@
       <c r="F27" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G27" s="3" t="str">
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="Tips_bg" Path="PetDress/View/Tips_bg" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="164">
+        <v xml:space="preserve">  &lt;File Name="Tips_bg" Path="PetDress/View/Tips_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="177">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -60225,13 +60646,16 @@
       <c r="F28" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G28" s="3" t="str">
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="title_have" Path="PetDress/View/title_have" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="164">
+        <v xml:space="preserve">  &lt;File Name="title_have" Path="PetDress/View/title_have" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="177">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -60243,13 +60667,16 @@
       <c r="F29" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G29" s="3" t="str">
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="Unlock_bg" Path="PetDress/View/Unlock_bg" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="164">
+        <v xml:space="preserve">  &lt;File Name="Unlock_bg" Path="PetDress/View/Unlock_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="177">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -60261,13 +60688,16 @@
       <c r="F30" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="G30" s="3" t="str">
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="wardrobe_bg" Path="PetDress/View/wardrobe_bg" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="164">
+        <v xml:space="preserve">  &lt;File Name="wardrobe_bg" Path="PetDress/View/wardrobe_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="177">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -60279,13 +60709,16 @@
       <c r="F31" s="3" t="s">
         <v>2214</v>
       </c>
-      <c r="G31" s="3" t="str">
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="acc_big" Path="PetDress/Types/acc_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="164">
+        <v xml:space="preserve">  &lt;File Name="acc_big" Path="PetDress/Types/acc_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="177">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -60297,13 +60730,16 @@
       <c r="F32" s="3" t="s">
         <v>2214</v>
       </c>
-      <c r="G32" s="3" t="str">
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="acc_small" Path="PetDress/Types/acc_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="164">
+        <v xml:space="preserve">  &lt;File Name="acc_small" Path="PetDress/Types/acc_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="177">
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -60315,13 +60751,16 @@
       <c r="F33" s="3" t="s">
         <v>2214</v>
       </c>
-      <c r="G33" s="3" t="str">
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="board_left" Path="PetDress/Types/board_left" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="164">
+        <v xml:space="preserve">  &lt;File Name="board_left" Path="PetDress/Types/board_left" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="177">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -60333,13 +60772,16 @@
       <c r="F34" s="3" t="s">
         <v>2214</v>
       </c>
-      <c r="G34" s="3" t="str">
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="board_left_light" Path="PetDress/Types/board_left_light" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="164">
+        <v xml:space="preserve">  &lt;File Name="board_left_light" Path="PetDress/Types/board_left_light" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="177">
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -60351,13 +60793,16 @@
       <c r="F35" s="3" t="s">
         <v>2214</v>
       </c>
-      <c r="G35" s="3" t="str">
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_big" Path="PetDress/Types/elf_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_big" Path="PetDress/Types/elf_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="177">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -60369,13 +60814,16 @@
       <c r="F36" s="3" t="s">
         <v>2214</v>
       </c>
-      <c r="G36" s="3" t="str">
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_small" Path="PetDress/Types/elf_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_small" Path="PetDress/Types/elf_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="177">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -60387,13 +60835,16 @@
       <c r="F37" s="3" t="s">
         <v>2214</v>
       </c>
-      <c r="G37" s="3" t="str">
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="return_big" Path="PetDress/Types/return_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="164">
+        <v xml:space="preserve">  &lt;File Name="return_big" Path="PetDress/Types/return_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="177">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -60405,13 +60856,16 @@
       <c r="F38" s="3" t="s">
         <v>2214</v>
       </c>
-      <c r="G38" s="3" t="str">
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="return_small" Path="PetDress/Types/return_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="164">
+        <v xml:space="preserve">  &lt;File Name="return_small" Path="PetDress/Types/return_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="177">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -60423,13 +60877,16 @@
       <c r="F39" s="3" t="s">
         <v>2214</v>
       </c>
-      <c r="G39" s="3" t="str">
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="suit_big" Path="PetDress/Types/suit_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="164">
+        <v xml:space="preserve">  &lt;File Name="suit_big" Path="PetDress/Types/suit_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="177">
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -60441,13 +60898,16 @@
       <c r="F40" s="3" t="s">
         <v>2214</v>
       </c>
-      <c r="G40" s="3" t="str">
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="suit_small" Path="PetDress/Types/suit_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="164">
+        <v xml:space="preserve">  &lt;File Name="suit_small" Path="PetDress/Types/suit_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="177">
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -60459,13 +60919,16 @@
       <c r="F41" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G41" s="3" t="str">
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_Batman_big" Path="PetDress/Accessories/elf_down_Batman_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_Batman_big" Path="PetDress/Accessories/elf_down_Batman_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="177">
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -60477,13 +60940,16 @@
       <c r="F42" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G42" s="3" t="str">
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_Batman_small" Path="PetDress/Accessories/elf_down_Batman_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_Batman_small" Path="PetDress/Accessories/elf_down_Batman_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="177">
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -60495,13 +60961,16 @@
       <c r="F43" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G43" s="3" t="str">
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_deer02_big" Path="PetDress/Accessories/elf_down_deer02_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_deer02_big" Path="PetDress/Accessories/elf_down_deer02_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="177">
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -60513,13 +60982,16 @@
       <c r="F44" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G44" s="3" t="str">
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_deer02_small" Path="PetDress/Accessories/elf_down_deer02_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_deer02_small" Path="PetDress/Accessories/elf_down_deer02_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="177">
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -60531,13 +61003,16 @@
       <c r="F45" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G45" s="3" t="str">
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_deer_big" Path="PetDress/Accessories/elf_down_deer_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_deer_big" Path="PetDress/Accessories/elf_down_deer_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="177">
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -60549,13 +61024,16 @@
       <c r="F46" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G46" s="3" t="str">
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_deer_small" Path="PetDress/Accessories/elf_down_deer_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_deer_small" Path="PetDress/Accessories/elf_down_deer_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="177">
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -60567,13 +61045,16 @@
       <c r="F47" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G47" s="3" t="str">
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_lmouse_big" Path="PetDress/Accessories/elf_down_lmouse_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_lmouse_big" Path="PetDress/Accessories/elf_down_lmouse_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="177">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -60585,13 +61066,16 @@
       <c r="F48" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G48" s="3" t="str">
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_lmouse_small" Path="PetDress/Accessories/elf_down_lmouse_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_lmouse_small" Path="PetDress/Accessories/elf_down_lmouse_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="177">
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -60603,13 +61087,16 @@
       <c r="F49" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G49" s="3" t="str">
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_minions_big" Path="PetDress/Accessories/elf_down_minions_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_minions_big" Path="PetDress/Accessories/elf_down_minions_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="177">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -60621,13 +61108,16 @@
       <c r="F50" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G50" s="3" t="str">
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_minions_small" Path="PetDress/Accessories/elf_down_minions_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_minions_small" Path="PetDress/Accessories/elf_down_minions_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="177">
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -60639,13 +61129,16 @@
       <c r="F51" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G51" s="3" t="str">
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_papercut_mice_big" Path="PetDress/Accessories/elf_down_papercut_mice_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_papercut_mice_big" Path="PetDress/Accessories/elf_down_papercut_mice_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="177">
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -60657,13 +61150,16 @@
       <c r="F52" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G52" s="3" t="str">
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_papercut_mice_small" Path="PetDress/Accessories/elf_down_papercut_mice_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_papercut_mice_small" Path="PetDress/Accessories/elf_down_papercut_mice_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="177">
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -60675,13 +61171,16 @@
       <c r="F53" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G53" s="3" t="str">
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_pumpkin_big" Path="PetDress/Accessories/elf_down_pumpkin_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_pumpkin_big" Path="PetDress/Accessories/elf_down_pumpkin_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="177">
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -60693,13 +61192,16 @@
       <c r="F54" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G54" s="3" t="str">
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_pumpkin_small" Path="PetDress/Accessories/elf_down_pumpkin_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_pumpkin_small" Path="PetDress/Accessories/elf_down_pumpkin_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="177">
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -60711,13 +61213,16 @@
       <c r="F55" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G55" s="3" t="str">
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_snowman02_big" Path="PetDress/Accessories/elf_down_snowman02_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_snowman02_big" Path="PetDress/Accessories/elf_down_snowman02_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="177">
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -60729,13 +61234,16 @@
       <c r="F56" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G56" s="3" t="str">
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_snowman02_small" Path="PetDress/Accessories/elf_down_snowman02_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_snowman02_small" Path="PetDress/Accessories/elf_down_snowman02_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="177">
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -60747,13 +61255,16 @@
       <c r="F57" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G57" s="3" t="str">
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_snowman03_big" Path="PetDress/Accessories/elf_down_snowman03_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_snowman03_big" Path="PetDress/Accessories/elf_down_snowman03_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="177">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -60765,13 +61276,16 @@
       <c r="F58" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G58" s="3" t="str">
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_snowman03_small" Path="PetDress/Accessories/elf_down_snowman03_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_snowman03_small" Path="PetDress/Accessories/elf_down_snowman03_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="177">
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -60783,13 +61297,16 @@
       <c r="F59" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G59" s="3" t="str">
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_snowman_big" Path="PetDress/Accessories/elf_down_snowman_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_snowman_big" Path="PetDress/Accessories/elf_down_snowman_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="177">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -60801,13 +61318,16 @@
       <c r="F60" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G60" s="3" t="str">
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_down_snowman_small" Path="PetDress/Accessories/elf_down_snowman_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_down_snowman_small" Path="PetDress/Accessories/elf_down_snowman_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="177">
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -60819,13 +61339,16 @@
       <c r="F61" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G61" s="3" t="str">
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_cloud02_big" Path="PetDress/Accessories/elf_up_cloud02_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_up_cloud02_big" Path="PetDress/Accessories/elf_up_cloud02_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="177">
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -60837,13 +61360,16 @@
       <c r="F62" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G62" s="3" t="str">
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_cloud02_small" Path="PetDress/Accessories/elf_up_cloud02_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_up_cloud02_small" Path="PetDress/Accessories/elf_up_cloud02_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="177">
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -60855,13 +61381,16 @@
       <c r="F63" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G63" s="3" t="str">
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_cloud_big" Path="PetDress/Accessories/elf_up_cloud_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_up_cloud_big" Path="PetDress/Accessories/elf_up_cloud_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="177">
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -60873,13 +61402,16 @@
       <c r="F64" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G64" s="3" t="str">
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_cloud_small" Path="PetDress/Accessories/elf_up_cloud_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_up_cloud_small" Path="PetDress/Accessories/elf_up_cloud_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="177">
         <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -60891,13 +61423,16 @@
       <c r="F65" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G65" s="3" t="str">
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_ghost_big" Path="PetDress/Accessories/elf_up_ghost_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_up_ghost_big" Path="PetDress/Accessories/elf_up_ghost_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="177">
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -60909,13 +61444,16 @@
       <c r="F66" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G66" s="3" t="str">
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_ghost_small" Path="PetDress/Accessories/elf_up_ghost_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_up_ghost_small" Path="PetDress/Accessories/elf_up_ghost_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="177">
         <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -60927,13 +61465,16 @@
       <c r="F67" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G67" s="3" t="str">
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_gift02_big" Path="PetDress/Accessories/elf_up_gift02_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_up_gift02_big" Path="PetDress/Accessories/elf_up_gift02_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="177">
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -60945,13 +61486,16 @@
       <c r="F68" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G68" s="3" t="str">
-        <f t="shared" ref="G68:G105" si="1">IF(A68=1,"&lt;Module Name="""&amp;B68&amp;""" Desc="""&amp;C68&amp;""" &gt;",IF(A68=2,"  &lt;File Name="""&amp;D68&amp;""" Path="""&amp;F68&amp;D68&amp;""" Type="""&amp;E68&amp;""" /&gt;",IF(A68=3,"&lt;/Module&gt;","")))</f>
-        <v xml:space="preserve">  &lt;File Name="elf_up_gift02_small" Path="PetDress/Accessories/elf_up_gift02_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="164">
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3" t="str">
+        <f t="shared" ref="H68:H131" si="1">IF(A68=1,"&lt;Module Name="""&amp;B68&amp;""" Desc="""&amp;C68&amp;""" &gt;",IF(A68=2,"  &lt;File Name="""&amp;D68&amp;""" Path="""&amp;F68&amp;D68&amp;""" Type="""&amp;E68&amp;""" Enable="""&amp;G68&amp;""" /&gt;",IF(A68=3,"&lt;/Module&gt;","")))</f>
+        <v xml:space="preserve">  &lt;File Name="elf_up_gift02_small" Path="PetDress/Accessories/elf_up_gift02_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="177">
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -60963,13 +61507,16 @@
       <c r="F69" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G69" s="3" t="str">
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_gift_big" Path="PetDress/Accessories/elf_up_gift_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_up_gift_big" Path="PetDress/Accessories/elf_up_gift_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="177">
         <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -60981,13 +61528,16 @@
       <c r="F70" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G70" s="3" t="str">
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="elf_up_gift_small" Path="PetDress/Accessories/elf_up_gift_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="164">
+        <v xml:space="preserve">  &lt;File Name="elf_up_gift_small" Path="PetDress/Accessories/elf_up_gift_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="177">
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -60999,13 +61549,16 @@
       <c r="F71" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G71" s="3" t="str">
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_antler02_big" Path="PetDress/Accessories/part_head_antler02_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_head_antler02_big" Path="PetDress/Accessories/part_head_antler02_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="177">
         <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -61017,13 +61570,16 @@
       <c r="F72" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G72" s="3" t="str">
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_antler02_small" Path="PetDress/Accessories/part_head_antler02_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_head_antler02_small" Path="PetDress/Accessories/part_head_antler02_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="177">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -61035,13 +61591,16 @@
       <c r="F73" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G73" s="3" t="str">
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_antler_big" Path="PetDress/Accessories/part_head_antler_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_head_antler_big" Path="PetDress/Accessories/part_head_antler_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="177">
         <v>2</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -61053,13 +61612,16 @@
       <c r="F74" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G74" s="3" t="str">
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_antler_small" Path="PetDress/Accessories/part_head_antler_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_head_antler_small" Path="PetDress/Accessories/part_head_antler_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="177">
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -61071,13 +61633,16 @@
       <c r="F75" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G75" s="3" t="str">
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_coinhat_big" Path="PetDress/Accessories/part_head_coinhat_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_head_coinhat_big" Path="PetDress/Accessories/part_head_coinhat_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="177">
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -61089,13 +61654,16 @@
       <c r="F76" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G76" s="3" t="str">
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_coinhat_small" Path="PetDress/Accessories/part_head_coinhat_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_head_coinhat_small" Path="PetDress/Accessories/part_head_coinhat_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="177">
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -61107,13 +61675,16 @@
       <c r="F77" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G77" s="3" t="str">
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_hat02_big" Path="PetDress/Accessories/part_head_hat02_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_head_hat02_big" Path="PetDress/Accessories/part_head_hat02_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="177">
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -61125,13 +61696,16 @@
       <c r="F78" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G78" s="3" t="str">
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_hat02_small" Path="PetDress/Accessories/part_head_hat02_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_head_hat02_small" Path="PetDress/Accessories/part_head_hat02_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="177">
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -61143,13 +61717,16 @@
       <c r="F79" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G79" s="3" t="str">
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+      <c r="H79" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_hat_big" Path="PetDress/Accessories/part_head_hat_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_head_hat_big" Path="PetDress/Accessories/part_head_hat_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="177">
         <v>2</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -61161,13 +61738,16 @@
       <c r="F80" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G80" s="3" t="str">
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+      <c r="H80" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_hat_small" Path="PetDress/Accessories/part_head_hat_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_head_hat_small" Path="PetDress/Accessories/part_head_hat_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="177">
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -61179,13 +61759,16 @@
       <c r="F81" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G81" s="3" t="str">
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_merryhat_big" Path="PetDress/Accessories/part_head_merryhat_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_head_merryhat_big" Path="PetDress/Accessories/part_head_merryhat_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="177">
         <v>2</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -61197,13 +61780,16 @@
       <c r="F82" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G82" s="3" t="str">
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_head_merryhat_small" Path="PetDress/Accessories/part_head_merryhat_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_head_merryhat_small" Path="PetDress/Accessories/part_head_merryhat_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="177">
         <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -61215,13 +61801,16 @@
       <c r="F83" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G83" s="3" t="str">
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_wing_bat_big" Path="PetDress/Accessories/part_wing_bat_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_wing_bat_big" Path="PetDress/Accessories/part_wing_bat_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="177">
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -61233,13 +61822,16 @@
       <c r="F84" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G84" s="3" t="str">
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_wing_bat_small" Path="PetDress/Accessories/part_wing_bat_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_wing_bat_small" Path="PetDress/Accessories/part_wing_bat_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="177">
         <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -61251,13 +61843,16 @@
       <c r="F85" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G85" s="3" t="str">
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_wing_fan_big" Path="PetDress/Accessories/part_wing_fan_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_wing_fan_big" Path="PetDress/Accessories/part_wing_fan_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="177">
         <v>2</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -61269,13 +61864,16 @@
       <c r="F86" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G86" s="3" t="str">
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_wing_fan_small" Path="PetDress/Accessories/part_wing_fan_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_wing_fan_small" Path="PetDress/Accessories/part_wing_fan_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="177">
         <v>2</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -61287,13 +61885,16 @@
       <c r="F87" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G87" s="3" t="str">
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_wing_snow_big" Path="PetDress/Accessories/part_wing_snow_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_wing_snow_big" Path="PetDress/Accessories/part_wing_snow_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="177">
         <v>2</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -61305,13 +61906,16 @@
       <c r="F88" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G88" s="3" t="str">
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="H88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="part_wing_snow_small" Path="PetDress/Accessories/part_wing_snow_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="164">
+        <v xml:space="preserve">  &lt;File Name="part_wing_snow_small" Path="PetDress/Accessories/part_wing_snow_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="177">
         <v>2</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -61323,13 +61927,16 @@
       <c r="F89" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G89" s="3" t="str">
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="H89" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="suit_pur_merry_big" Path="PetDress/Accessories/suit_pur_merry_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="164">
+        <v xml:space="preserve">  &lt;File Name="suit_pur_merry_big" Path="PetDress/Accessories/suit_pur_merry_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="177">
         <v>2</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -61341,13 +61948,16 @@
       <c r="F90" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G90" s="3" t="str">
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="suit_pur_merry_small" Path="PetDress/Accessories/suit_pur_merry_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="164">
+        <v xml:space="preserve">  &lt;File Name="suit_pur_merry_small" Path="PetDress/Accessories/suit_pur_merry_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="177">
         <v>2</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -61359,13 +61969,16 @@
       <c r="F91" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G91" s="3" t="str">
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="suit_yoyo_mousespring_big" Path="PetDress/Accessories/suit_yoyo_mousespring_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="164">
+        <v xml:space="preserve">  &lt;File Name="suit_yoyo_mousespring_big" Path="PetDress/Accessories/suit_yoyo_mousespring_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="177">
         <v>2</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -61377,13 +61990,16 @@
       <c r="F92" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G92" s="3" t="str">
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  &lt;File Name="suit_yoyo_mousespring_small" Path="PetDress/Accessories/suit_yoyo_mousespring_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="164">
+        <v xml:space="preserve">  &lt;File Name="suit_yoyo_mousespring_small" Path="PetDress/Accessories/suit_yoyo_mousespring_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="177">
         <v>2</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -61395,13 +62011,16 @@
       <c r="F93" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G93" s="3" t="str">
-        <f t="shared" ref="G93:G104" si="2">IF(A93=1,"&lt;Module Name="""&amp;B93&amp;""" Desc="""&amp;C93&amp;""" &gt;",IF(A93=2,"  &lt;File Name="""&amp;D93&amp;""" Path="""&amp;F93&amp;D93&amp;""" Type="""&amp;E93&amp;""" /&gt;",IF(A93=3,"&lt;/Module&gt;","")))</f>
-        <v xml:space="preserve">  &lt;File Name="part_ head_giftcap_big" Path="PetDress/Accessories/part_ head_giftcap_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="164">
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_giftcap_big" Path="PetDress/Accessories/part_ head_giftcap_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="177">
         <v>2</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -61413,13 +62032,16 @@
       <c r="F94" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G94" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;File Name="part_ head_giftcap_small" Path="PetDress/Accessories/part_ head_giftcap_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="164">
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="H94" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_giftcap_small" Path="PetDress/Accessories/part_ head_giftcap_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="177">
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -61431,13 +62053,16 @@
       <c r="F95" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G95" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;File Name="part_ head_glasses_big" Path="PetDress/Accessories/part_ head_glasses_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="164">
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_glasses_big" Path="PetDress/Accessories/part_ head_glasses_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="177">
         <v>2</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -61449,13 +62074,16 @@
       <c r="F96" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G96" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;File Name="part_ head_glasses_small" Path="PetDress/Accessories/part_ head_glasses_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="164">
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_glasses_small" Path="PetDress/Accessories/part_ head_glasses_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="177">
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -61467,13 +62095,16 @@
       <c r="F97" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G97" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;File Name="part_ head_halo_big" Path="PetDress/Accessories/part_ head_halo_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="164">
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_halo_big" Path="PetDress/Accessories/part_ head_halo_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="177">
         <v>2</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -61485,13 +62116,16 @@
       <c r="F98" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G98" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;File Name="part_ head_halo_small" Path="PetDress/Accessories/part_ head_halo_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="164">
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_halo_small" Path="PetDress/Accessories/part_ head_halo_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="177">
         <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -61503,13 +62137,16 @@
       <c r="F99" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G99" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;File Name="part_ head_rose_big" Path="PetDress/Accessories/part_ head_rose_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="164">
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_rose_big" Path="PetDress/Accessories/part_ head_rose_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="177">
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -61521,13 +62158,16 @@
       <c r="F100" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G100" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;File Name="part_ head_rose_small" Path="PetDress/Accessories/part_ head_rose_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="164">
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_ head_rose_small" Path="PetDress/Accessories/part_ head_rose_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="177">
         <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -61539,13 +62179,16 @@
       <c r="F101" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G101" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;File Name="part_ wing_bow_big" Path="PetDress/Accessories/part_ wing_bow_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="164">
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_ wing_bow_big" Path="PetDress/Accessories/part_ wing_bow_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="177">
         <v>2</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -61557,13 +62200,16 @@
       <c r="F102" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G102" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;File Name="part_ wing_bow_small" Path="PetDress/Accessories/part_ wing_bow_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="164">
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_ wing_bow_small" Path="PetDress/Accessories/part_ wing_bow_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="177">
         <v>2</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -61575,13 +62221,16 @@
       <c r="F103" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G103" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;File Name="part_ wing_love_big" Path="PetDress/Accessories/part_ wing_love_big" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="164">
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_ wing_love_big" Path="PetDress/Accessories/part_ wing_love_big" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="177">
         <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -61593,36 +62242,2082 @@
       <c r="F104" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="G104" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  &lt;File Name="part_ wing_love_small" Path="PetDress/Accessories/part_ wing_love_small" Type="Image" /&gt;</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="164">
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="part_ wing_love_small" Path="PetDress/Accessories/part_ wing_love_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="177">
         <v>3</v>
       </c>
-      <c r="G105" s="3" t="str">
+      <c r="H105" s="3" t="str">
         <f t="shared" si="1"/>
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="177">
+        <v>1</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>2242</v>
+      </c>
+      <c r="H106" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Module Name="PetFeed" Desc="喂食页" &gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="177">
+        <v>2</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="hallowmas_bg" Path="PetFeed/View/Background/hallowmas_bg" Type="Image" Enable="0" /&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="177">
+        <v>2</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="restaurant_nationalday_bg" Path="PetFeed/View/Background/restaurant_nationalday_bg" Type="Image" Enable="0" /&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="177">
+        <v>2</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="restruant-christmas" Path="PetFeed/View/Background/restruant-christmas" Type="Image" Enable="0" /&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="177">
+        <v>2</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="restruant-danmark" Path="PetFeed/View/Background/restruant-danmark" Type="Image" Enable="0" /&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="177">
+        <v>2</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="restruant-springfestival" Path="PetFeed/View/Background/restruant-springfestival" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="177">
+        <v>2</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="bar01" Path="PetFeed/View/bar01" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="177">
+        <v>2</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="bar_bg" Path="PetFeed/View/bar_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="177">
+        <v>2</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="bar_prospect" Path="PetFeed/View/bar_prospect" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="177">
+        <v>2</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="coin" Path="PetFeed/View/coin" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="177">
+        <v>2</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="coin_bg" Path="PetFeed/View/coin_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="177">
+        <v>2</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1</v>
+      </c>
+      <c r="H117" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="desk" Path="PetFeed/View/desk" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="177">
+        <v>2</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="foreground" Path="PetFeed/View/foreground" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="177">
+        <v>2</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1</v>
+      </c>
+      <c r="H119" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="hungerbar" Path="PetFeed/View/hungerbar" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="177">
+        <v>2</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1</v>
+      </c>
+      <c r="H120" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="hungerbar_bg" Path="PetFeed/View/hungerbar_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="177">
+        <v>2</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1</v>
+      </c>
+      <c r="H121" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="hungerbar_t" Path="PetFeed/View/hungerbar_t" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="177">
+        <v>2</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1</v>
+      </c>
+      <c r="H122" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="limited_CHS" Path="PetFeed/View/limited_CHS" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="177">
+        <v>2</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1</v>
+      </c>
+      <c r="H123" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="limited_CHT" Path="PetFeed/View/limited_CHT" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="177">
+        <v>2</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1</v>
+      </c>
+      <c r="H124" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="limited_EN" Path="PetFeed/View/limited_EN" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="177">
+        <v>2</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1</v>
+      </c>
+      <c r="H125" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="limited_jp" Path="PetFeed/View/limited_jp" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="177">
+        <v>2</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G126" s="1">
+        <v>1</v>
+      </c>
+      <c r="H126" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="little_mask_l" Path="PetFeed/View/little_mask_l" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="177">
+        <v>2</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>2255</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G127" s="1">
+        <v>1</v>
+      </c>
+      <c r="H127" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="little_mask_r" Path="PetFeed/View/little_mask_r" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="177">
+        <v>2</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1</v>
+      </c>
+      <c r="H128" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="lock_bg" Path="PetFeed/View/lock_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="177">
+        <v>2</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G129" s="1">
+        <v>1</v>
+      </c>
+      <c r="H129" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="moomcake_lock" Path="PetFeed/View/moomcake_lock" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="177">
+        <v>2</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G130" s="1">
+        <v>1</v>
+      </c>
+      <c r="H130" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="needcoin" Path="PetFeed/View/needcoin" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="177">
+        <v>2</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G131" s="1">
+        <v>1</v>
+      </c>
+      <c r="H131" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  &lt;File Name="nocoin" Path="PetFeed/View/nocoin" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="177">
+        <v>2</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>2257</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G132" s="1">
+        <v>1</v>
+      </c>
+      <c r="H132" s="3" t="str">
+        <f t="shared" ref="H132:H195" si="2">IF(A132=1,"&lt;Module Name="""&amp;B132&amp;""" Desc="""&amp;C132&amp;""" &gt;",IF(A132=2,"  &lt;File Name="""&amp;D132&amp;""" Path="""&amp;F132&amp;D132&amp;""" Type="""&amp;E132&amp;""" Enable="""&amp;G132&amp;""" /&gt;",IF(A132=3,"&lt;/Module&gt;","")))</f>
+        <v xml:space="preserve">  &lt;File Name="out_bg" Path="PetFeed/View/out_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="177">
+        <v>2</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G133" s="1">
+        <v>1</v>
+      </c>
+      <c r="H133" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="power_icon" Path="PetFeed/View/power_icon" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="177">
+        <v>2</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G134" s="1">
+        <v>1</v>
+      </c>
+      <c r="H134" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="special_label_activity" Path="PetFeed/View/special_label_activity" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="177">
+        <v>2</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1</v>
+      </c>
+      <c r="H135" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="tag" Path="PetFeed/View/tag" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="177">
+        <v>2</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G136" s="1">
+        <v>1</v>
+      </c>
+      <c r="H136" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="taro_lock" Path="PetFeed/View/taro_lock" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="177">
+        <v>2</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G137" s="1">
+        <v>1</v>
+      </c>
+      <c r="H137" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="Tips_bg" Path="PetFeed/View/Tips_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="177">
+        <v>2</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G138" s="1">
+        <v>1</v>
+      </c>
+      <c r="H138" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="tips_button0000" Path="PetFeed/View/tips_button0000" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="177">
+        <v>2</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G139" s="1">
+        <v>1</v>
+      </c>
+      <c r="H139" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="tips_button0001" Path="PetFeed/View/tips_button0001" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="177">
+        <v>2</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G140" s="1">
+        <v>1</v>
+      </c>
+      <c r="H140" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="tips_button0002" Path="PetFeed/View/tips_button0002" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="177">
+        <v>2</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G141" s="1">
+        <v>1</v>
+      </c>
+      <c r="H141" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="tips_button0003" Path="PetFeed/View/tips_button0003" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="177">
+        <v>2</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G142" s="1">
+        <v>1</v>
+      </c>
+      <c r="H142" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="Unlock_bg" Path="PetFeed/View/Unlock_bg" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="177">
+        <v>2</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G143" s="1">
+        <v>1</v>
+      </c>
+      <c r="H143" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_bombmuffin" Path="PetFeed/Food/food_bombmuffin" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="177">
+        <v>2</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G144" s="1">
+        <v>1</v>
+      </c>
+      <c r="H144" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_bombmuffin_small" Path="PetFeed/Food/food_bombmuffin_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="177">
+        <v>2</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1</v>
+      </c>
+      <c r="H145" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_bread" Path="PetFeed/Food/food_bread" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="177">
+        <v>2</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G146" s="1">
+        <v>1</v>
+      </c>
+      <c r="H146" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_bread_small" Path="PetFeed/Food/food_bread_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="177">
+        <v>2</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G147" s="1">
+        <v>1</v>
+      </c>
+      <c r="H147" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_cake" Path="PetFeed/Food/food_cake" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="177">
+        <v>2</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G148" s="1">
+        <v>1</v>
+      </c>
+      <c r="H148" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_cake_small" Path="PetFeed/Food/food_cake_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="177">
+        <v>2</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G149" s="1">
+        <v>1</v>
+      </c>
+      <c r="H149" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_candy" Path="PetFeed/Food/food_candy" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="177">
+        <v>2</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G150" s="1">
+        <v>1</v>
+      </c>
+      <c r="H150" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_candy_small" Path="PetFeed/Food/food_candy_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="177">
+        <v>2</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G151" s="1">
+        <v>1</v>
+      </c>
+      <c r="H151" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_chicken" Path="PetFeed/Food/food_chicken" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="177">
+        <v>2</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G152" s="1">
+        <v>1</v>
+      </c>
+      <c r="H152" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_chicken_small" Path="PetFeed/Food/food_chicken_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="177">
+        <v>2</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G153" s="1">
+        <v>1</v>
+      </c>
+      <c r="H153" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_chocolate" Path="PetFeed/Food/food_chocolate" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="177">
+        <v>2</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G154" s="1">
+        <v>1</v>
+      </c>
+      <c r="H154" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_chocolate_small" Path="PetFeed/Food/food_chocolate_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="177">
+        <v>2</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G155" s="1">
+        <v>1</v>
+      </c>
+      <c r="H155" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_donut" Path="PetFeed/Food/food_donut" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="177">
+        <v>2</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G156" s="1">
+        <v>1</v>
+      </c>
+      <c r="H156" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_donut_small" Path="PetFeed/Food/food_donut_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="177">
+        <v>2</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G157" s="1">
+        <v>1</v>
+      </c>
+      <c r="H157" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_dumplings" Path="PetFeed/Food/food_dumplings" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="177">
+        <v>2</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G158" s="1">
+        <v>1</v>
+      </c>
+      <c r="H158" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_dumplings_small" Path="PetFeed/Food/food_dumplings_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="177">
+        <v>2</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G159" s="1">
+        <v>1</v>
+      </c>
+      <c r="H159" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_flagjuice" Path="PetFeed/Food/food_flagjuice" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="177">
+        <v>2</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G160" s="1">
+        <v>1</v>
+      </c>
+      <c r="H160" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_flagjuice_small" Path="PetFeed/Food/food_flagjuice_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="177">
+        <v>2</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G161" s="1">
+        <v>1</v>
+      </c>
+      <c r="H161" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_fruitdanish" Path="PetFeed/Food/food_fruitdanish" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="177">
+        <v>2</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G162" s="1">
+        <v>1</v>
+      </c>
+      <c r="H162" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_fruitdanish_small" Path="PetFeed/Food/food_fruitdanish_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="177">
+        <v>2</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G163" s="1">
+        <v>1</v>
+      </c>
+      <c r="H163" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_gingerbread" Path="PetFeed/Food/food_gingerbread" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="177">
+        <v>2</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G164" s="1">
+        <v>1</v>
+      </c>
+      <c r="H164" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_gingerbread_small" Path="PetFeed/Food/food_gingerbread_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="177">
+        <v>2</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G165" s="1">
+        <v>1</v>
+      </c>
+      <c r="H165" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_herring" Path="PetFeed/Food/food_herring" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="177">
+        <v>2</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G166" s="1">
+        <v>1</v>
+      </c>
+      <c r="H166" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_herring_small" Path="PetFeed/Food/food_herring_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="177">
+        <v>2</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G167" s="1">
+        <v>1</v>
+      </c>
+      <c r="H167" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_meatball" Path="PetFeed/Food/food_meatball" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="177">
+        <v>2</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G168" s="1">
+        <v>1</v>
+      </c>
+      <c r="H168" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_meatball_small" Path="PetFeed/Food/food_meatball_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="177">
+        <v>2</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G169" s="1">
+        <v>1</v>
+      </c>
+      <c r="H169" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_milk" Path="PetFeed/Food/food_milk" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="177">
+        <v>2</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G170" s="1">
+        <v>1</v>
+      </c>
+      <c r="H170" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_milk_small" Path="PetFeed/Food/food_milk_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="177">
+        <v>2</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G171" s="1">
+        <v>1</v>
+      </c>
+      <c r="H171" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_mummy_chocolate" Path="PetFeed/Food/food_mummy_chocolate" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="177">
+        <v>2</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G172" s="1">
+        <v>1</v>
+      </c>
+      <c r="H172" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_mummy_chocolate_small" Path="PetFeed/Food/food_mummy_chocolate_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="177">
+        <v>2</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G173" s="1">
+        <v>1</v>
+      </c>
+      <c r="H173" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_nestcake" Path="PetFeed/Food/food_nestcake" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="177">
+        <v>2</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G174" s="1">
+        <v>1</v>
+      </c>
+      <c r="H174" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_nestcake_small" Path="PetFeed/Food/food_nestcake_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="177">
+        <v>2</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G175" s="1">
+        <v>1</v>
+      </c>
+      <c r="H175" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_opensandwich" Path="PetFeed/Food/food_opensandwich" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="177">
+        <v>2</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G176" s="1">
+        <v>1</v>
+      </c>
+      <c r="H176" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_opensandwich_small" Path="PetFeed/Food/food_opensandwich_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="177">
+        <v>2</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G177" s="1">
+        <v>1</v>
+      </c>
+      <c r="H177" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_orange" Path="PetFeed/Food/food_orange" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="177">
+        <v>2</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G178" s="1">
+        <v>1</v>
+      </c>
+      <c r="H178" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_orange_small" Path="PetFeed/Food/food_orange_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="177">
+        <v>2</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G179" s="1">
+        <v>1</v>
+      </c>
+      <c r="H179" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_pudding" Path="PetFeed/Food/food_pudding" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="177">
+        <v>2</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G180" s="1">
+        <v>1</v>
+      </c>
+      <c r="H180" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_pudding_small" Path="PetFeed/Food/food_pudding_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="177">
+        <v>2</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G181" s="1">
+        <v>1</v>
+      </c>
+      <c r="H181" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_rice" Path="PetFeed/Food/food_rice" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="177">
+        <v>2</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G182" s="1">
+        <v>1</v>
+      </c>
+      <c r="H182" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_ricecakefish" Path="PetFeed/Food/food_ricecakefish" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="177">
+        <v>2</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G183" s="1">
+        <v>1</v>
+      </c>
+      <c r="H183" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_ricecakefish_small" Path="PetFeed/Food/food_ricecakefish_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="177">
+        <v>2</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G184" s="1">
+        <v>1</v>
+      </c>
+      <c r="H184" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_rice_small" Path="PetFeed/Food/food_rice_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="177">
+        <v>2</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G185" s="1">
+        <v>1</v>
+      </c>
+      <c r="H185" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_rocketcookie" Path="PetFeed/Food/food_rocketcookie" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="177">
+        <v>2</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G186" s="1">
+        <v>1</v>
+      </c>
+      <c r="H186" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_rocketcookie_small" Path="PetFeed/Food/food_rocketcookie_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="177">
+        <v>2</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G187" s="1">
+        <v>1</v>
+      </c>
+      <c r="H187" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_salad" Path="PetFeed/Food/food_salad" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="177">
+        <v>2</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G188" s="1">
+        <v>1</v>
+      </c>
+      <c r="H188" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_salad_small" Path="PetFeed/Food/food_salad_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="177">
+        <v>2</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G189" s="1">
+        <v>1</v>
+      </c>
+      <c r="H189" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_sausage" Path="PetFeed/Food/food_sausage" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="177">
+        <v>2</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G190" s="1">
+        <v>1</v>
+      </c>
+      <c r="H190" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_sausage_small" Path="PetFeed/Food/food_sausage_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="177">
+        <v>2</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G191" s="1">
+        <v>1</v>
+      </c>
+      <c r="H191" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_skull_cookie" Path="PetFeed/Food/food_skull_cookie" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="177">
+        <v>2</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G192" s="1">
+        <v>1</v>
+      </c>
+      <c r="H192" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_skull_cookie_small" Path="PetFeed/Food/food_skull_cookie_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="177">
+        <v>2</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G193" s="1">
+        <v>1</v>
+      </c>
+      <c r="H193" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_spider_cake" Path="PetFeed/Food/food_spider_cake" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="177">
+        <v>2</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G194" s="1">
+        <v>1</v>
+      </c>
+      <c r="H194" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_spider_cake_small" Path="PetFeed/Food/food_spider_cake_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="177">
+        <v>2</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G195" s="1">
+        <v>1</v>
+      </c>
+      <c r="H195" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;File Name="food_toffee_apple" Path="PetFeed/Food/food_toffee_apple" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="177">
+        <v>2</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G196" s="1">
+        <v>1</v>
+      </c>
+      <c r="H196" s="3" t="str">
+        <f t="shared" ref="H196:H203" si="3">IF(A196=1,"&lt;Module Name="""&amp;B196&amp;""" Desc="""&amp;C196&amp;""" &gt;",IF(A196=2,"  &lt;File Name="""&amp;D196&amp;""" Path="""&amp;F196&amp;D196&amp;""" Type="""&amp;E196&amp;""" Enable="""&amp;G196&amp;""" /&gt;",IF(A196=3,"&lt;/Module&gt;","")))</f>
+        <v xml:space="preserve">  &lt;File Name="food_toffee_apple_small" Path="PetFeed/Food/food_toffee_apple_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="177">
+        <v>2</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G197" s="1">
+        <v>1</v>
+      </c>
+      <c r="H197" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;File Name="moomcake01" Path="PetFeed/Food/moomcake01" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="177">
+        <v>2</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G198" s="1">
+        <v>1</v>
+      </c>
+      <c r="H198" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;File Name="moomcake_small" Path="PetFeed/Food/moomcake_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="177">
+        <v>2</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G199" s="1">
+        <v>1</v>
+      </c>
+      <c r="H199" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;File Name="taro001" Path="PetFeed/Food/taro001" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="177">
+        <v>2</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G200" s="1">
+        <v>1</v>
+      </c>
+      <c r="H200" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;File Name="taro_small" Path="PetFeed/Food/taro_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="177">
+        <v>2</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G201" s="1">
+        <v>1</v>
+      </c>
+      <c r="H201" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;File Name="yolkmcake" Path="PetFeed/Food/yolkmcake" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="177">
+        <v>2</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G202" s="1">
+        <v>1</v>
+      </c>
+      <c r="H202" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  &lt;File Name="yolk_small" Path="PetFeed/Food/yolk_small" Type="Image" Enable="1" /&gt;</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="177">
+        <v>3</v>
+      </c>
+      <c r="H203" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;/Module&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="containsText" dxfId="2" priority="28" operator="containsText" text="&lt;!--">
+  <conditionalFormatting sqref="A1:H1048576">
+    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="13" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="30">
+    <cfRule type="expression" dxfId="12" priority="30">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576">
       <formula1>"Imag,Spine"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
+      <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigBuilder.xlsx
+++ b/ConfigBuilder.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4336" uniqueCount="2269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4545" uniqueCount="2333">
   <si>
     <t>ID</t>
   </si>
@@ -6976,6 +6976,204 @@
     <t>Enable</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>earth_Asia_big</t>
+  </si>
+  <si>
+    <t>earth_Asia_small</t>
+  </si>
+  <si>
+    <t>earth_Europe_big</t>
+  </si>
+  <si>
+    <t>earth_Europe_small</t>
+  </si>
+  <si>
+    <t>Hallowmas</t>
+  </si>
+  <si>
+    <t>ima_desert_big</t>
+  </si>
+  <si>
+    <t>ima_desert_small</t>
+  </si>
+  <si>
+    <t>ima_forest_big</t>
+  </si>
+  <si>
+    <t>ima_forest_small</t>
+  </si>
+  <si>
+    <t>ima_sea_big</t>
+  </si>
+  <si>
+    <t>ima_sea_small</t>
+  </si>
+  <si>
+    <t>ima_volcano_big</t>
+  </si>
+  <si>
+    <t>ima_volcano_small</t>
+  </si>
+  <si>
+    <t>magic_halloween_big</t>
+  </si>
+  <si>
+    <t>magic_halloween_small</t>
+  </si>
+  <si>
+    <t>MAGIC_merry_big</t>
+  </si>
+  <si>
+    <t>MAGIC_merry_small</t>
+  </si>
+  <si>
+    <t>MAGIC_mouseyear_big</t>
+  </si>
+  <si>
+    <t>MAGIC_mouseyear_small</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>WorldMap/SceneIcon/</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldMap/ScenePreview/</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EARTH_BG01</t>
+  </si>
+  <si>
+    <t>EARTH_BG02</t>
+  </si>
+  <si>
+    <t>IMA_BG01</t>
+  </si>
+  <si>
+    <t>IMA_BG02</t>
+  </si>
+  <si>
+    <t>IMA_BG03</t>
+  </si>
+  <si>
+    <t>IMA_BG04</t>
+  </si>
+  <si>
+    <t>MAGIC_BG01</t>
+  </si>
+  <si>
+    <t>MAGIC_BG02</t>
+  </si>
+  <si>
+    <t>MAGIC_BG03</t>
+  </si>
+  <si>
+    <t>WorldMap/View/</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrow_l</t>
+  </si>
+  <si>
+    <t>arrow_r</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>BG_MASK</t>
+  </si>
+  <si>
+    <t>clock_bg</t>
+  </si>
+  <si>
+    <t>label_new</t>
+  </si>
+  <si>
+    <t>label_new02</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>map_lock</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>preview_bg</t>
+  </si>
+  <si>
+    <t>title_bg</t>
+  </si>
+  <si>
+    <t>txt_bg</t>
+  </si>
+  <si>
+    <t>WorldMap/</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>galaxy_star</t>
+  </si>
+  <si>
+    <t>planet_castle</t>
+  </si>
+  <si>
+    <t>planet_earth</t>
+  </si>
+  <si>
+    <t>planet_ima</t>
+  </si>
+  <si>
+    <t>playagain_CHS</t>
+  </si>
+  <si>
+    <t>playagain_CHT</t>
+  </si>
+  <si>
+    <t>playagain_EN</t>
+  </si>
+  <si>
+    <t>playagain_JP</t>
+  </si>
+  <si>
+    <t>preview_castle</t>
+  </si>
+  <si>
+    <t>preview_earth</t>
+  </si>
+  <si>
+    <t>preview_ima</t>
+  </si>
+  <si>
+    <t>title_castle</t>
+  </si>
+  <si>
+    <t>title_earth</t>
+  </si>
+  <si>
+    <t>title_ima</t>
+  </si>
+  <si>
+    <t>WorldMap</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界地图页</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6985,7 +7183,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm"/>
     <numFmt numFmtId="177" formatCode="0000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7137,6 +7335,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7567,7 +7773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8013,6 +8219,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8055,13 +8270,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8070,70 +8300,7 @@
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="162">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
+  <dxfs count="153">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -9190,7 +9357,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9223,28 +9390,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_32" displayName="表1_32" ref="B1:S91" totalsRowShown="0">
   <autoFilter ref="B1:S91"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Id" dataDxfId="161"/>
-    <tableColumn id="2" name="Name" dataDxfId="160">
+    <tableColumn id="1" name="Id" dataDxfId="152"/>
+    <tableColumn id="2" name="Name" dataDxfId="151">
       <calculatedColumnFormula>"MissionName"&amp;B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Background" dataDxfId="159"/>
-    <tableColumn id="4" name="Model" dataDxfId="158"/>
-    <tableColumn id="5" name="NimIcon" dataDxfId="157"/>
-    <tableColumn id="6" name="QuestId" dataDxfId="156"/>
-    <tableColumn id="7" name="dailyGoalPercent" dataDxfId="155"/>
-    <tableColumn id="8" name="AwardCoin" dataDxfId="154"/>
-    <tableColumn id="9" name="BGM" dataDxfId="153"/>
-    <tableColumn id="10" name="Sound" dataDxfId="152"/>
-    <tableColumn id="11" name="WaterDrop" dataDxfId="151"/>
-    <tableColumn id="12" name="WaterDropAudio" dataDxfId="150"/>
-    <tableColumn id="13" name="Box1 ID" dataDxfId="149"/>
-    <tableColumn id="14" name="Box1 Height" dataDxfId="148"/>
-    <tableColumn id="15" name="Box2 ID" dataDxfId="147"/>
-    <tableColumn id="16" name="Box2 Height" dataDxfId="146"/>
-    <tableColumn id="17" name="输出" dataDxfId="145">
+    <tableColumn id="3" name="Background" dataDxfId="150"/>
+    <tableColumn id="4" name="Model" dataDxfId="149"/>
+    <tableColumn id="5" name="NimIcon" dataDxfId="148"/>
+    <tableColumn id="6" name="QuestId" dataDxfId="147"/>
+    <tableColumn id="7" name="dailyGoalPercent" dataDxfId="146"/>
+    <tableColumn id="8" name="AwardCoin" dataDxfId="145"/>
+    <tableColumn id="9" name="BGM" dataDxfId="144"/>
+    <tableColumn id="10" name="Sound" dataDxfId="143"/>
+    <tableColumn id="11" name="WaterDrop" dataDxfId="142"/>
+    <tableColumn id="12" name="WaterDropAudio" dataDxfId="141"/>
+    <tableColumn id="13" name="Box1 ID" dataDxfId="140"/>
+    <tableColumn id="14" name="Box1 Height" dataDxfId="139"/>
+    <tableColumn id="15" name="Box2 ID" dataDxfId="138"/>
+    <tableColumn id="16" name="Box2 Height" dataDxfId="137"/>
+    <tableColumn id="17" name="输出" dataDxfId="136">
       <calculatedColumnFormula>IF(B2&lt;&gt;"","&lt;Mission Id="""&amp;B2&amp;""" Name="""&amp;C2&amp;""" Background="""&amp;D2&amp;""" Model="""&amp;E2&amp;""" NimIcon="""&amp;F2&amp;""" QuestId="""&amp;G2&amp;""" dailyGoalPercent="""&amp;H2&amp;""" AwardCoin="""&amp;I2&amp;""" BGM="""&amp;J2&amp;""" Sound="""&amp;K2&amp;""" WaterDrop="""&amp;L2&amp;""" WaterDropAudio="""&amp;M2&amp;"""&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;N2&amp;""" Height="""&amp;O2&amp;""" /&gt;"&amp;CHAR(10)&amp;"  &lt;TreasureBox BoxId="""&amp;P2&amp;""" Height="""&amp;Q2&amp;""" /&gt;"&amp;CHAR(10)&amp;"&lt;/Mission&gt;","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="输入" dataDxfId="144"/>
+    <tableColumn id="18" name="输入" dataDxfId="135"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9254,12 +9421,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="B1:G1048493" totalsRowShown="0">
   <autoFilter ref="B1:G1048493"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="143"/>
-    <tableColumn id="2" name="Type" dataDxfId="142"/>
-    <tableColumn id="3" name="Name" dataDxfId="141"/>
-    <tableColumn id="4" name="ItemId" dataDxfId="140"/>
-    <tableColumn id="5" name="Value" dataDxfId="139"/>
-    <tableColumn id="6" name="输出" dataDxfId="138"/>
+    <tableColumn id="1" name="Id" dataDxfId="134"/>
+    <tableColumn id="2" name="Type" dataDxfId="133"/>
+    <tableColumn id="3" name="Name" dataDxfId="132"/>
+    <tableColumn id="4" name="ItemId" dataDxfId="131"/>
+    <tableColumn id="5" name="Value" dataDxfId="130"/>
+    <tableColumn id="6" name="输出" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10402,23 +10569,23 @@
       <c r="O27" s="151"/>
     </row>
     <row r="28" spans="1:15" ht="15.75">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="166" t="s">
         <v>2112</v>
       </c>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="166"/>
+      <c r="O28" s="166"/>
     </row>
     <row r="29" spans="1:15" hidden="1">
       <c r="A29" s="102" t="str">
@@ -18197,23 +18364,23 @@
       <c r="O174" s="119"/>
     </row>
     <row r="175" spans="1:15" ht="15.75">
-      <c r="A175" s="163" t="s">
+      <c r="A175" s="166" t="s">
         <v>2112</v>
       </c>
-      <c r="B175" s="163"/>
-      <c r="C175" s="163"/>
-      <c r="D175" s="163"/>
-      <c r="E175" s="163"/>
-      <c r="F175" s="163"/>
-      <c r="G175" s="163"/>
-      <c r="H175" s="163"/>
-      <c r="I175" s="163"/>
-      <c r="J175" s="163"/>
-      <c r="K175" s="163"/>
-      <c r="L175" s="163"/>
-      <c r="M175" s="163"/>
-      <c r="N175" s="163"/>
-      <c r="O175" s="163"/>
+      <c r="B175" s="166"/>
+      <c r="C175" s="166"/>
+      <c r="D175" s="166"/>
+      <c r="E175" s="166"/>
+      <c r="F175" s="166"/>
+      <c r="G175" s="166"/>
+      <c r="H175" s="166"/>
+      <c r="I175" s="166"/>
+      <c r="J175" s="166"/>
+      <c r="K175" s="166"/>
+      <c r="L175" s="166"/>
+      <c r="M175" s="166"/>
+      <c r="N175" s="166"/>
+      <c r="O175" s="166"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="126">
@@ -19135,50 +19302,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="171" t="s">
         <v>1217</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
       <c r="D1" s="52"/>
-      <c r="E1" s="169" t="s">
+      <c r="E1" s="172" t="s">
         <v>1218</v>
       </c>
-      <c r="F1" s="169"/>
+      <c r="F1" s="172"/>
       <c r="G1" s="53" t="s">
         <v>1219</v>
       </c>
-      <c r="H1" s="170" t="s">
+      <c r="H1" s="173" t="s">
         <v>1220</v>
       </c>
-      <c r="I1" s="171"/>
-      <c r="J1" s="172" t="s">
+      <c r="I1" s="174"/>
+      <c r="J1" s="175" t="s">
         <v>1221</v>
       </c>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="173" t="s">
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="176" t="s">
         <v>1222</v>
       </c>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="164" t="s">
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="167" t="s">
         <v>1223</v>
       </c>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="165" t="s">
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="168" t="s">
         <v>1224</v>
       </c>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="166" t="s">
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="169" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -19262,7 +19429,7 @@
       <c r="AA2" s="70" t="s">
         <v>1239</v>
       </c>
-      <c r="AB2" s="167"/>
+      <c r="AB2" s="170"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="58" t="s">
@@ -58319,15 +58486,15 @@
       </c>
     </row>
     <row r="768" spans="1:7">
-      <c r="A768" s="174" t="s">
+      <c r="A768" s="177" t="s">
         <v>2034</v>
       </c>
-      <c r="B768" s="175"/>
-      <c r="C768" s="175"/>
-      <c r="D768" s="175"/>
-      <c r="E768" s="175"/>
-      <c r="F768" s="175"/>
-      <c r="G768" s="176"/>
+      <c r="B768" s="178"/>
+      <c r="C768" s="178"/>
+      <c r="D768" s="178"/>
+      <c r="E768" s="178"/>
+      <c r="F768" s="178"/>
+      <c r="G768" s="179"/>
     </row>
     <row r="769" spans="1:6">
       <c r="A769" s="1">
@@ -59454,288 +59621,288 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="137" priority="79" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="128" priority="79" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="80">
+    <cfRule type="expression" dxfId="127" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="81">
+    <cfRule type="expression" dxfId="126" priority="81">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A837:G837">
-    <cfRule type="containsText" dxfId="134" priority="22" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="125" priority="22" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A837)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="23">
+    <cfRule type="expression" dxfId="124" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="24">
+    <cfRule type="expression" dxfId="123" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G25 A29:G433 A437:G767 A768 A769:G790 A859:G1048576 G841:G852">
-    <cfRule type="containsText" dxfId="131" priority="85" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="122" priority="85" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="86">
+    <cfRule type="expression" dxfId="121" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="87">
+    <cfRule type="expression" dxfId="120" priority="87">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:G27 A28:F28">
-    <cfRule type="containsText" dxfId="128" priority="82" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="119" priority="82" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="83">
+    <cfRule type="expression" dxfId="118" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="84">
+    <cfRule type="expression" dxfId="117" priority="84">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A434:G436">
-    <cfRule type="containsText" dxfId="125" priority="76" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="116" priority="76" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A434)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="77">
+    <cfRule type="expression" dxfId="115" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="78">
+    <cfRule type="expression" dxfId="114" priority="78">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791:G792 A797:G797 A793:D795 F793:G795 E793:E796">
-    <cfRule type="containsText" dxfId="122" priority="67" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="113" priority="67" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A791)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="68">
+    <cfRule type="expression" dxfId="112" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="69">
+    <cfRule type="expression" dxfId="111" priority="69">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A796:D796 F796:G796">
-    <cfRule type="containsText" dxfId="119" priority="64" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="110" priority="64" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A796)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="65">
+    <cfRule type="expression" dxfId="109" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="66">
+    <cfRule type="expression" dxfId="108" priority="66">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798:G800">
-    <cfRule type="containsText" dxfId="116" priority="61" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="107" priority="61" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A798)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="62">
+    <cfRule type="expression" dxfId="106" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="63">
+    <cfRule type="expression" dxfId="105" priority="63">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A801:G803">
-    <cfRule type="containsText" dxfId="113" priority="58" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="104" priority="58" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A801)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="59">
+    <cfRule type="expression" dxfId="103" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="60">
+    <cfRule type="expression" dxfId="102" priority="60">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804:G806">
-    <cfRule type="containsText" dxfId="110" priority="55" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="101" priority="55" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A804)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="56">
+    <cfRule type="expression" dxfId="100" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="57">
+    <cfRule type="expression" dxfId="99" priority="57">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A810:G812">
-    <cfRule type="containsText" dxfId="107" priority="52" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="98" priority="52" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A810)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="53">
+    <cfRule type="expression" dxfId="97" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="54">
+    <cfRule type="expression" dxfId="96" priority="54">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A813:G815">
-    <cfRule type="containsText" dxfId="104" priority="49" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="95" priority="49" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A813)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="50">
+    <cfRule type="expression" dxfId="94" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="51">
+    <cfRule type="expression" dxfId="93" priority="51">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A816:G818">
-    <cfRule type="containsText" dxfId="101" priority="46" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="92" priority="46" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A816)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="47">
+    <cfRule type="expression" dxfId="91" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="48">
+    <cfRule type="expression" dxfId="90" priority="48">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A819:G821">
-    <cfRule type="containsText" dxfId="98" priority="43" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="89" priority="43" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A819)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="44">
+    <cfRule type="expression" dxfId="88" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="45">
+    <cfRule type="expression" dxfId="87" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A822:G824">
-    <cfRule type="containsText" dxfId="95" priority="40" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="86" priority="40" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A822)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="41">
+    <cfRule type="expression" dxfId="85" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="42">
+    <cfRule type="expression" dxfId="84" priority="42">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A825:G827">
-    <cfRule type="containsText" dxfId="92" priority="37" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="83" priority="37" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A825)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="38">
+    <cfRule type="expression" dxfId="82" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="39">
+    <cfRule type="expression" dxfId="81" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A828:G830">
-    <cfRule type="containsText" dxfId="89" priority="34" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="80" priority="34" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A828)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="35">
+    <cfRule type="expression" dxfId="79" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="36">
+    <cfRule type="expression" dxfId="78" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A831:G836">
-    <cfRule type="containsText" dxfId="86" priority="31" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="77" priority="31" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A831)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="32">
+    <cfRule type="expression" dxfId="76" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="33">
+    <cfRule type="expression" dxfId="75" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A838:G840">
-    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="74" priority="25" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A838)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="26">
+    <cfRule type="expression" dxfId="73" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="27">
+    <cfRule type="expression" dxfId="72" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A841:F843">
-    <cfRule type="containsText" dxfId="80" priority="19" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="71" priority="19" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A841)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="20">
+    <cfRule type="expression" dxfId="70" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="21">
+    <cfRule type="expression" dxfId="69" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A844:F846">
-    <cfRule type="containsText" dxfId="77" priority="16" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="68" priority="16" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A844)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="17">
+    <cfRule type="expression" dxfId="67" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="18">
+    <cfRule type="expression" dxfId="66" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A847:F849">
-    <cfRule type="containsText" dxfId="74" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A847)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="14">
+    <cfRule type="expression" dxfId="64" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="15">
+    <cfRule type="expression" dxfId="63" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A850:F852">
-    <cfRule type="containsText" dxfId="71" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="62" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A850)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="11">
+    <cfRule type="expression" dxfId="61" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="12">
+    <cfRule type="expression" dxfId="60" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A853:G855">
-    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A853)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="8">
+    <cfRule type="expression" dxfId="58" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="9">
+    <cfRule type="expression" dxfId="57" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A856:G858">
-    <cfRule type="containsText" dxfId="65" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A856)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="55" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="6">
+    <cfRule type="expression" dxfId="54" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A807:G809">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A807)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="3">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59964,57 +60131,57 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="14">
+    <cfRule type="expression" dxfId="49" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="15">
+    <cfRule type="expression" dxfId="48" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="47" priority="10" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="11">
+    <cfRule type="expression" dxfId="46" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="12">
+    <cfRule type="expression" dxfId="45" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:F10">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="8">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="9">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:F14">
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:F1048576">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="&lt;!--">
+    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="&lt;!--">
       <formula>NOT(ISERROR(SEARCH("&lt;!--",A15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="36" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60025,18 +60192,18 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D142" sqref="D107:D142"/>
+      <selection pane="bottomRight" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="177" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="163" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.875" style="3" customWidth="1"/>
@@ -60047,7 +60214,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="164" t="s">
         <v>1461</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -60073,7 +60240,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="179"/>
+      <c r="A2" s="165"/>
       <c r="B2" s="8" t="s">
         <v>2148</v>
       </c>
@@ -60094,17 +60261,21 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="162">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8" s="188" customFormat="1">
+      <c r="A3" s="189">
+        <v>1</v>
+      </c>
+      <c r="B3" s="186" t="s">
         <v>2127</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="186" t="s">
         <v>2128</v>
       </c>
-      <c r="H3" s="3" t="str">
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="186" t="str">
         <f>IF(A3=1,"&lt;Module Name="""&amp;B3&amp;""" Desc="""&amp;C3&amp;""" &gt;",IF(A3=2,"  &lt;File Name="""&amp;D3&amp;""" Path="""&amp;F3&amp;D3&amp;""" Type="""&amp;E3&amp;""" Enable="""&amp;G3&amp;""" /&gt;",IF(A3=3,"&lt;/Module&gt;","")))</f>
         <v>&lt;Module Name="PetDress" Desc="换装页" &gt;</v>
       </c>
@@ -60396,7 +60567,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="177">
+      <c r="A17" s="163">
         <v>2</v>
       </c>
       <c r="B17" s="3"/>
@@ -60418,7 +60589,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="177">
+      <c r="A18" s="163">
         <v>2</v>
       </c>
       <c r="B18" s="3"/>
@@ -60440,7 +60611,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="177">
+      <c r="A19" s="163">
         <v>2</v>
       </c>
       <c r="B19" s="3"/>
@@ -60462,7 +60633,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="177">
+      <c r="A20" s="163">
         <v>2</v>
       </c>
       <c r="B20" s="3"/>
@@ -60484,7 +60655,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="177">
+      <c r="A21" s="163">
         <v>2</v>
       </c>
       <c r="B21" s="3"/>
@@ -60506,7 +60677,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="177">
+      <c r="A22" s="163">
         <v>2</v>
       </c>
       <c r="B22" s="3"/>
@@ -60528,7 +60699,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="177">
+      <c r="A23" s="163">
         <v>2</v>
       </c>
       <c r="B23" s="3"/>
@@ -60550,7 +60721,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="177">
+      <c r="A24" s="163">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -60571,7 +60742,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="177">
+      <c r="A25" s="163">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -60592,7 +60763,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="177">
+      <c r="A26" s="163">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -60613,7 +60784,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="177">
+      <c r="A27" s="163">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -60634,7 +60805,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="177">
+      <c r="A28" s="163">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -60655,7 +60826,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="177">
+      <c r="A29" s="163">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -60676,7 +60847,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="177">
+      <c r="A30" s="163">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -60697,7 +60868,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="177">
+      <c r="A31" s="163">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -60718,7 +60889,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="177">
+      <c r="A32" s="163">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -60739,7 +60910,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="177">
+      <c r="A33" s="163">
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -60760,7 +60931,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="177">
+      <c r="A34" s="163">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -60781,7 +60952,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="177">
+      <c r="A35" s="163">
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -60802,7 +60973,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="177">
+      <c r="A36" s="163">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -60823,7 +60994,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="177">
+      <c r="A37" s="163">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -60844,7 +61015,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="177">
+      <c r="A38" s="163">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -60865,7 +61036,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="177">
+      <c r="A39" s="163">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -60886,7 +61057,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="177">
+      <c r="A40" s="163">
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -60907,7 +61078,7 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="177">
+      <c r="A41" s="163">
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -60928,7 +61099,7 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="177">
+      <c r="A42" s="163">
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -60949,7 +61120,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="177">
+      <c r="A43" s="163">
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -60970,7 +61141,7 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="177">
+      <c r="A44" s="163">
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -60991,7 +61162,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="177">
+      <c r="A45" s="163">
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -61012,7 +61183,7 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="177">
+      <c r="A46" s="163">
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -61033,7 +61204,7 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="177">
+      <c r="A47" s="163">
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -61054,7 +61225,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="177">
+      <c r="A48" s="163">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -61075,7 +61246,7 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="177">
+      <c r="A49" s="163">
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -61096,7 +61267,7 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="177">
+      <c r="A50" s="163">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -61117,7 +61288,7 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="177">
+      <c r="A51" s="163">
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -61138,7 +61309,7 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="177">
+      <c r="A52" s="163">
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -61159,7 +61330,7 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="177">
+      <c r="A53" s="163">
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -61180,7 +61351,7 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="177">
+      <c r="A54" s="163">
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -61201,7 +61372,7 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="177">
+      <c r="A55" s="163">
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -61222,7 +61393,7 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="177">
+      <c r="A56" s="163">
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -61243,7 +61414,7 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="177">
+      <c r="A57" s="163">
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -61264,7 +61435,7 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="177">
+      <c r="A58" s="163">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -61285,7 +61456,7 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="177">
+      <c r="A59" s="163">
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -61306,7 +61477,7 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="177">
+      <c r="A60" s="163">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -61327,7 +61498,7 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="177">
+      <c r="A61" s="163">
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -61348,7 +61519,7 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="177">
+      <c r="A62" s="163">
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -61369,7 +61540,7 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="177">
+      <c r="A63" s="163">
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -61390,7 +61561,7 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="177">
+      <c r="A64" s="163">
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -61411,7 +61582,7 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="177">
+      <c r="A65" s="163">
         <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -61432,7 +61603,7 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="177">
+      <c r="A66" s="163">
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -61453,7 +61624,7 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="177">
+      <c r="A67" s="163">
         <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -61474,7 +61645,7 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="177">
+      <c r="A68" s="163">
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -61495,7 +61666,7 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="177">
+      <c r="A69" s="163">
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -61516,7 +61687,7 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="177">
+      <c r="A70" s="163">
         <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -61537,7 +61708,7 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="177">
+      <c r="A71" s="163">
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -61558,7 +61729,7 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="177">
+      <c r="A72" s="163">
         <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -61579,7 +61750,7 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="177">
+      <c r="A73" s="163">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -61600,7 +61771,7 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="177">
+      <c r="A74" s="163">
         <v>2</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -61621,7 +61792,7 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="177">
+      <c r="A75" s="163">
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -61642,7 +61813,7 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="177">
+      <c r="A76" s="163">
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -61663,7 +61834,7 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="177">
+      <c r="A77" s="163">
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -61684,7 +61855,7 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="177">
+      <c r="A78" s="163">
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -61705,7 +61876,7 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="177">
+      <c r="A79" s="163">
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -61726,7 +61897,7 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="177">
+      <c r="A80" s="163">
         <v>2</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -61747,7 +61918,7 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="177">
+      <c r="A81" s="163">
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -61768,7 +61939,7 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="177">
+      <c r="A82" s="163">
         <v>2</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -61789,7 +61960,7 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="177">
+      <c r="A83" s="163">
         <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -61810,7 +61981,7 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="177">
+      <c r="A84" s="163">
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -61831,7 +62002,7 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="177">
+      <c r="A85" s="163">
         <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -61852,7 +62023,7 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="177">
+      <c r="A86" s="163">
         <v>2</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -61873,7 +62044,7 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="177">
+      <c r="A87" s="163">
         <v>2</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -61894,7 +62065,7 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="177">
+      <c r="A88" s="163">
         <v>2</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -61915,7 +62086,7 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="177">
+      <c r="A89" s="163">
         <v>2</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -61936,7 +62107,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="177">
+      <c r="A90" s="163">
         <v>2</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -61957,7 +62128,7 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="177">
+      <c r="A91" s="163">
         <v>2</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -61978,7 +62149,7 @@
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="177">
+      <c r="A92" s="163">
         <v>2</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -61999,7 +62170,7 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="177">
+      <c r="A93" s="163">
         <v>2</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -62020,7 +62191,7 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="177">
+      <c r="A94" s="163">
         <v>2</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -62041,7 +62212,7 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="177">
+      <c r="A95" s="163">
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -62062,7 +62233,7 @@
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="177">
+      <c r="A96" s="163">
         <v>2</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -62083,7 +62254,7 @@
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="177">
+      <c r="A97" s="163">
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -62104,7 +62275,7 @@
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="177">
+      <c r="A98" s="163">
         <v>2</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -62125,7 +62296,7 @@
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="177">
+      <c r="A99" s="163">
         <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -62146,7 +62317,7 @@
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="177">
+      <c r="A100" s="163">
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -62167,7 +62338,7 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="177">
+      <c r="A101" s="163">
         <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -62188,7 +62359,7 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="177">
+      <c r="A102" s="163">
         <v>2</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -62209,7 +62380,7 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="177">
+      <c r="A103" s="163">
         <v>2</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -62230,7 +62401,7 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="177">
+      <c r="A104" s="163">
         <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -62251,7 +62422,7 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="177">
+      <c r="A105" s="163">
         <v>3</v>
       </c>
       <c r="H105" s="3" t="str">
@@ -62259,23 +62430,27 @@
         <v>&lt;/Module&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="177">
-        <v>1</v>
-      </c>
-      <c r="B106" s="2" t="s">
+    <row r="106" spans="1:8" s="188" customFormat="1">
+      <c r="A106" s="184">
+        <v>1</v>
+      </c>
+      <c r="B106" s="185" t="s">
         <v>2241</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="186" t="s">
         <v>2242</v>
       </c>
-      <c r="H106" s="3" t="str">
+      <c r="D106" s="186"/>
+      <c r="E106" s="186"/>
+      <c r="F106" s="186"/>
+      <c r="G106" s="187"/>
+      <c r="H106" s="186" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Module Name="PetFeed" Desc="喂食页" &gt;</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="177">
+      <c r="A107" s="163">
         <v>2</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -62296,7 +62471,7 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="177">
+      <c r="A108" s="163">
         <v>2</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -62317,7 +62492,7 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="177">
+      <c r="A109" s="163">
         <v>2</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -62338,7 +62513,7 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="177">
+      <c r="A110" s="163">
         <v>2</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -62359,7 +62534,7 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="177">
+      <c r="A111" s="163">
         <v>2</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -62380,7 +62555,7 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="177">
+      <c r="A112" s="163">
         <v>2</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -62401,7 +62576,7 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A1